--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Common Module'!$A$8:$H$13</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="446">
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
   </si>
@@ -1074,9 +1074,6 @@
 3. Display error message besides "Mật khẩu" textbox</t>
   </si>
   <si>
-    <t xml:space="preserve">When user refresh captcha button </t>
-  </si>
-  <si>
     <t>1. Enter the website
 2. Click on "Đăng nhập" link
 3. Click "Refresh captcha" button</t>
@@ -1085,23 +1082,12 @@
     <t xml:space="preserve">1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Change new capcha </t>
-  </si>
-  <si>
-    <t>When user listen captcha</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Click "Sound captcha" button</t>
   </si>
   <si>
     <t xml:space="preserve">1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Sound of captcha is played
 </t>
-  </si>
-  <si>
-    <t>When user need more information about captcha</t>
   </si>
   <si>
     <t>1. Enter the website
@@ -1606,12 +1592,6 @@
 4. Change new capcha </t>
   </si>
   <si>
-    <t>1. Login the system with Member role
-2. Click "Trang cá nhân" link
-3. Click "Thay đổi thông tin" link
-4. Click "Sound captcha" button</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.The Homepage is displayed 
 2. Display "Trang cá nhân" page
 3. Display "Thay đổi thông tin" page
@@ -1829,11 +1809,6 @@
 3. Click "Help captcha" button</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click on "Quên mật khẩu" link
-3. Click "Sound captcha" button</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. The Homepage is displayed 
 2. Display "Quên mật khẩu" page
 3. Sound of captcha is played
@@ -1872,6 +1847,44 @@
     <t>1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Display error message besides "Nhập mã xác nhận" textbox</t>
+  </si>
+  <si>
+    <t>When user input wrong username and correct password</t>
+  </si>
+  <si>
+    <t>1. The Homepage is displayed and "Login" form located in the homepage
+2. Display error username message</t>
+  </si>
+  <si>
+    <t>When user click "Help captcha"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user click "refresh captcha" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user click "listen captcha" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user input incorect capcha button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user click "Help captcha" button </t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Quên mật khẩu" link
+3. Click "Listen captcha" button</t>
+  </si>
+  <si>
+    <t>1. Login the system with Member role
+2. Click "Trang cá nhân" link
+3. Click "Thay đổi thông tin" link
+4. Click "Listen captcha" button</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng nhập" link
+3. Click "Listen captcha" button</t>
   </si>
 </sst>
 </file>
@@ -1881,11 +1894,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2898,6 +2911,12 @@
     <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2940,12 +2959,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2961,6 +2974,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3147,7 +3163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3182,7 +3198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3397,88 +3413,88 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="34"/>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="32"/>
       <c r="C3" s="31"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="139" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B6" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="140" t="str">
+      <c r="C6" s="142" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
       <c r="F6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B7" s="141"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
       <c r="D8" s="24"/>
@@ -3486,19 +3502,19 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="15" customFormat="1">
       <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5">
       <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3530,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -3538,7 +3554,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -3546,7 +3562,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -3554,7 +3570,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -3562,7 +3578,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -3570,7 +3586,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -3604,520 +3620,520 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="37" customWidth="1"/>
     <col min="6" max="6" width="35" style="37" customWidth="1"/>
-    <col min="7" max="256" width="9.140625" style="30"/>
-    <col min="257" max="257" width="1.5703125" style="30" customWidth="1"/>
-    <col min="258" max="258" width="13.42578125" style="30" customWidth="1"/>
-    <col min="259" max="259" width="30.28515625" style="30" customWidth="1"/>
-    <col min="260" max="260" width="19.5703125" style="30" customWidth="1"/>
-    <col min="261" max="261" width="32.140625" style="30" customWidth="1"/>
+    <col min="7" max="256" width="9.125" style="30"/>
+    <col min="257" max="257" width="1.625" style="30" customWidth="1"/>
+    <col min="258" max="258" width="13.375" style="30" customWidth="1"/>
+    <col min="259" max="259" width="30.25" style="30" customWidth="1"/>
+    <col min="260" max="260" width="19.625" style="30" customWidth="1"/>
+    <col min="261" max="261" width="32.125" style="30" customWidth="1"/>
     <col min="262" max="262" width="35" style="30" customWidth="1"/>
-    <col min="263" max="512" width="9.140625" style="30"/>
-    <col min="513" max="513" width="1.5703125" style="30" customWidth="1"/>
-    <col min="514" max="514" width="13.42578125" style="30" customWidth="1"/>
-    <col min="515" max="515" width="30.28515625" style="30" customWidth="1"/>
-    <col min="516" max="516" width="19.5703125" style="30" customWidth="1"/>
-    <col min="517" max="517" width="32.140625" style="30" customWidth="1"/>
+    <col min="263" max="512" width="9.125" style="30"/>
+    <col min="513" max="513" width="1.625" style="30" customWidth="1"/>
+    <col min="514" max="514" width="13.375" style="30" customWidth="1"/>
+    <col min="515" max="515" width="30.25" style="30" customWidth="1"/>
+    <col min="516" max="516" width="19.625" style="30" customWidth="1"/>
+    <col min="517" max="517" width="32.125" style="30" customWidth="1"/>
     <col min="518" max="518" width="35" style="30" customWidth="1"/>
-    <col min="519" max="768" width="9.140625" style="30"/>
-    <col min="769" max="769" width="1.5703125" style="30" customWidth="1"/>
-    <col min="770" max="770" width="13.42578125" style="30" customWidth="1"/>
-    <col min="771" max="771" width="30.28515625" style="30" customWidth="1"/>
-    <col min="772" max="772" width="19.5703125" style="30" customWidth="1"/>
-    <col min="773" max="773" width="32.140625" style="30" customWidth="1"/>
+    <col min="519" max="768" width="9.125" style="30"/>
+    <col min="769" max="769" width="1.625" style="30" customWidth="1"/>
+    <col min="770" max="770" width="13.375" style="30" customWidth="1"/>
+    <col min="771" max="771" width="30.25" style="30" customWidth="1"/>
+    <col min="772" max="772" width="19.625" style="30" customWidth="1"/>
+    <col min="773" max="773" width="32.125" style="30" customWidth="1"/>
     <col min="774" max="774" width="35" style="30" customWidth="1"/>
-    <col min="775" max="1024" width="9.140625" style="30"/>
-    <col min="1025" max="1025" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="32.140625" style="30" customWidth="1"/>
+    <col min="775" max="1024" width="9.125" style="30"/>
+    <col min="1025" max="1025" width="1.625" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="13.375" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="30.25" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="19.625" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="32.125" style="30" customWidth="1"/>
     <col min="1030" max="1030" width="35" style="30" customWidth="1"/>
-    <col min="1031" max="1280" width="9.140625" style="30"/>
-    <col min="1281" max="1281" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="32.140625" style="30" customWidth="1"/>
+    <col min="1031" max="1280" width="9.125" style="30"/>
+    <col min="1281" max="1281" width="1.625" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="13.375" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="30.25" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="19.625" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="32.125" style="30" customWidth="1"/>
     <col min="1286" max="1286" width="35" style="30" customWidth="1"/>
-    <col min="1287" max="1536" width="9.140625" style="30"/>
-    <col min="1537" max="1537" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="32.140625" style="30" customWidth="1"/>
+    <col min="1287" max="1536" width="9.125" style="30"/>
+    <col min="1537" max="1537" width="1.625" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="13.375" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="30.25" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="19.625" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="32.125" style="30" customWidth="1"/>
     <col min="1542" max="1542" width="35" style="30" customWidth="1"/>
-    <col min="1543" max="1792" width="9.140625" style="30"/>
-    <col min="1793" max="1793" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="32.140625" style="30" customWidth="1"/>
+    <col min="1543" max="1792" width="9.125" style="30"/>
+    <col min="1793" max="1793" width="1.625" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="13.375" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="30.25" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="19.625" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="32.125" style="30" customWidth="1"/>
     <col min="1798" max="1798" width="35" style="30" customWidth="1"/>
-    <col min="1799" max="2048" width="9.140625" style="30"/>
-    <col min="2049" max="2049" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="32.140625" style="30" customWidth="1"/>
+    <col min="1799" max="2048" width="9.125" style="30"/>
+    <col min="2049" max="2049" width="1.625" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="13.375" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="30.25" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="19.625" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="32.125" style="30" customWidth="1"/>
     <col min="2054" max="2054" width="35" style="30" customWidth="1"/>
-    <col min="2055" max="2304" width="9.140625" style="30"/>
-    <col min="2305" max="2305" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="32.140625" style="30" customWidth="1"/>
+    <col min="2055" max="2304" width="9.125" style="30"/>
+    <col min="2305" max="2305" width="1.625" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="13.375" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="30.25" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="19.625" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="32.125" style="30" customWidth="1"/>
     <col min="2310" max="2310" width="35" style="30" customWidth="1"/>
-    <col min="2311" max="2560" width="9.140625" style="30"/>
-    <col min="2561" max="2561" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="32.140625" style="30" customWidth="1"/>
+    <col min="2311" max="2560" width="9.125" style="30"/>
+    <col min="2561" max="2561" width="1.625" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="13.375" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="30.25" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="19.625" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="32.125" style="30" customWidth="1"/>
     <col min="2566" max="2566" width="35" style="30" customWidth="1"/>
-    <col min="2567" max="2816" width="9.140625" style="30"/>
-    <col min="2817" max="2817" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="32.140625" style="30" customWidth="1"/>
+    <col min="2567" max="2816" width="9.125" style="30"/>
+    <col min="2817" max="2817" width="1.625" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="13.375" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="30.25" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="19.625" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="32.125" style="30" customWidth="1"/>
     <col min="2822" max="2822" width="35" style="30" customWidth="1"/>
-    <col min="2823" max="3072" width="9.140625" style="30"/>
-    <col min="3073" max="3073" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="32.140625" style="30" customWidth="1"/>
+    <col min="2823" max="3072" width="9.125" style="30"/>
+    <col min="3073" max="3073" width="1.625" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="13.375" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="30.25" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="19.625" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="32.125" style="30" customWidth="1"/>
     <col min="3078" max="3078" width="35" style="30" customWidth="1"/>
-    <col min="3079" max="3328" width="9.140625" style="30"/>
-    <col min="3329" max="3329" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="32.140625" style="30" customWidth="1"/>
+    <col min="3079" max="3328" width="9.125" style="30"/>
+    <col min="3329" max="3329" width="1.625" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="13.375" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="30.25" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="19.625" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="32.125" style="30" customWidth="1"/>
     <col min="3334" max="3334" width="35" style="30" customWidth="1"/>
-    <col min="3335" max="3584" width="9.140625" style="30"/>
-    <col min="3585" max="3585" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="32.140625" style="30" customWidth="1"/>
+    <col min="3335" max="3584" width="9.125" style="30"/>
+    <col min="3585" max="3585" width="1.625" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="13.375" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="30.25" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="19.625" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="32.125" style="30" customWidth="1"/>
     <col min="3590" max="3590" width="35" style="30" customWidth="1"/>
-    <col min="3591" max="3840" width="9.140625" style="30"/>
-    <col min="3841" max="3841" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="32.140625" style="30" customWidth="1"/>
+    <col min="3591" max="3840" width="9.125" style="30"/>
+    <col min="3841" max="3841" width="1.625" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="13.375" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="30.25" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="19.625" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="32.125" style="30" customWidth="1"/>
     <col min="3846" max="3846" width="35" style="30" customWidth="1"/>
-    <col min="3847" max="4096" width="9.140625" style="30"/>
-    <col min="4097" max="4097" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="32.140625" style="30" customWidth="1"/>
+    <col min="3847" max="4096" width="9.125" style="30"/>
+    <col min="4097" max="4097" width="1.625" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="13.375" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="30.25" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="19.625" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="32.125" style="30" customWidth="1"/>
     <col min="4102" max="4102" width="35" style="30" customWidth="1"/>
-    <col min="4103" max="4352" width="9.140625" style="30"/>
-    <col min="4353" max="4353" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="32.140625" style="30" customWidth="1"/>
+    <col min="4103" max="4352" width="9.125" style="30"/>
+    <col min="4353" max="4353" width="1.625" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="13.375" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="30.25" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="19.625" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="32.125" style="30" customWidth="1"/>
     <col min="4358" max="4358" width="35" style="30" customWidth="1"/>
-    <col min="4359" max="4608" width="9.140625" style="30"/>
-    <col min="4609" max="4609" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="32.140625" style="30" customWidth="1"/>
+    <col min="4359" max="4608" width="9.125" style="30"/>
+    <col min="4609" max="4609" width="1.625" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="13.375" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="30.25" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="19.625" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="32.125" style="30" customWidth="1"/>
     <col min="4614" max="4614" width="35" style="30" customWidth="1"/>
-    <col min="4615" max="4864" width="9.140625" style="30"/>
-    <col min="4865" max="4865" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="32.140625" style="30" customWidth="1"/>
+    <col min="4615" max="4864" width="9.125" style="30"/>
+    <col min="4865" max="4865" width="1.625" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="13.375" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="30.25" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="19.625" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="32.125" style="30" customWidth="1"/>
     <col min="4870" max="4870" width="35" style="30" customWidth="1"/>
-    <col min="4871" max="5120" width="9.140625" style="30"/>
-    <col min="5121" max="5121" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="32.140625" style="30" customWidth="1"/>
+    <col min="4871" max="5120" width="9.125" style="30"/>
+    <col min="5121" max="5121" width="1.625" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="13.375" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="30.25" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="19.625" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="32.125" style="30" customWidth="1"/>
     <col min="5126" max="5126" width="35" style="30" customWidth="1"/>
-    <col min="5127" max="5376" width="9.140625" style="30"/>
-    <col min="5377" max="5377" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="32.140625" style="30" customWidth="1"/>
+    <col min="5127" max="5376" width="9.125" style="30"/>
+    <col min="5377" max="5377" width="1.625" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="13.375" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="30.25" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="19.625" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="32.125" style="30" customWidth="1"/>
     <col min="5382" max="5382" width="35" style="30" customWidth="1"/>
-    <col min="5383" max="5632" width="9.140625" style="30"/>
-    <col min="5633" max="5633" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="32.140625" style="30" customWidth="1"/>
+    <col min="5383" max="5632" width="9.125" style="30"/>
+    <col min="5633" max="5633" width="1.625" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="13.375" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="30.25" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="19.625" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="32.125" style="30" customWidth="1"/>
     <col min="5638" max="5638" width="35" style="30" customWidth="1"/>
-    <col min="5639" max="5888" width="9.140625" style="30"/>
-    <col min="5889" max="5889" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="32.140625" style="30" customWidth="1"/>
+    <col min="5639" max="5888" width="9.125" style="30"/>
+    <col min="5889" max="5889" width="1.625" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="13.375" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="30.25" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="19.625" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="32.125" style="30" customWidth="1"/>
     <col min="5894" max="5894" width="35" style="30" customWidth="1"/>
-    <col min="5895" max="6144" width="9.140625" style="30"/>
-    <col min="6145" max="6145" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="32.140625" style="30" customWidth="1"/>
+    <col min="5895" max="6144" width="9.125" style="30"/>
+    <col min="6145" max="6145" width="1.625" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="13.375" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="30.25" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="19.625" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="32.125" style="30" customWidth="1"/>
     <col min="6150" max="6150" width="35" style="30" customWidth="1"/>
-    <col min="6151" max="6400" width="9.140625" style="30"/>
-    <col min="6401" max="6401" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="32.140625" style="30" customWidth="1"/>
+    <col min="6151" max="6400" width="9.125" style="30"/>
+    <col min="6401" max="6401" width="1.625" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="13.375" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="30.25" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="19.625" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="32.125" style="30" customWidth="1"/>
     <col min="6406" max="6406" width="35" style="30" customWidth="1"/>
-    <col min="6407" max="6656" width="9.140625" style="30"/>
-    <col min="6657" max="6657" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="32.140625" style="30" customWidth="1"/>
+    <col min="6407" max="6656" width="9.125" style="30"/>
+    <col min="6657" max="6657" width="1.625" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="13.375" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="30.25" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="19.625" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="32.125" style="30" customWidth="1"/>
     <col min="6662" max="6662" width="35" style="30" customWidth="1"/>
-    <col min="6663" max="6912" width="9.140625" style="30"/>
-    <col min="6913" max="6913" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="32.140625" style="30" customWidth="1"/>
+    <col min="6663" max="6912" width="9.125" style="30"/>
+    <col min="6913" max="6913" width="1.625" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="13.375" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="30.25" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="19.625" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="32.125" style="30" customWidth="1"/>
     <col min="6918" max="6918" width="35" style="30" customWidth="1"/>
-    <col min="6919" max="7168" width="9.140625" style="30"/>
-    <col min="7169" max="7169" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="32.140625" style="30" customWidth="1"/>
+    <col min="6919" max="7168" width="9.125" style="30"/>
+    <col min="7169" max="7169" width="1.625" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="13.375" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="30.25" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="19.625" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="32.125" style="30" customWidth="1"/>
     <col min="7174" max="7174" width="35" style="30" customWidth="1"/>
-    <col min="7175" max="7424" width="9.140625" style="30"/>
-    <col min="7425" max="7425" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="32.140625" style="30" customWidth="1"/>
+    <col min="7175" max="7424" width="9.125" style="30"/>
+    <col min="7425" max="7425" width="1.625" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="13.375" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="30.25" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="19.625" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="32.125" style="30" customWidth="1"/>
     <col min="7430" max="7430" width="35" style="30" customWidth="1"/>
-    <col min="7431" max="7680" width="9.140625" style="30"/>
-    <col min="7681" max="7681" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="32.140625" style="30" customWidth="1"/>
+    <col min="7431" max="7680" width="9.125" style="30"/>
+    <col min="7681" max="7681" width="1.625" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="13.375" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="30.25" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="19.625" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="32.125" style="30" customWidth="1"/>
     <col min="7686" max="7686" width="35" style="30" customWidth="1"/>
-    <col min="7687" max="7936" width="9.140625" style="30"/>
-    <col min="7937" max="7937" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="32.140625" style="30" customWidth="1"/>
+    <col min="7687" max="7936" width="9.125" style="30"/>
+    <col min="7937" max="7937" width="1.625" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="13.375" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="30.25" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="19.625" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="32.125" style="30" customWidth="1"/>
     <col min="7942" max="7942" width="35" style="30" customWidth="1"/>
-    <col min="7943" max="8192" width="9.140625" style="30"/>
-    <col min="8193" max="8193" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="32.140625" style="30" customWidth="1"/>
+    <col min="7943" max="8192" width="9.125" style="30"/>
+    <col min="8193" max="8193" width="1.625" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="13.375" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="30.25" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="19.625" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="32.125" style="30" customWidth="1"/>
     <col min="8198" max="8198" width="35" style="30" customWidth="1"/>
-    <col min="8199" max="8448" width="9.140625" style="30"/>
-    <col min="8449" max="8449" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="32.140625" style="30" customWidth="1"/>
+    <col min="8199" max="8448" width="9.125" style="30"/>
+    <col min="8449" max="8449" width="1.625" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="13.375" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="30.25" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="19.625" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="32.125" style="30" customWidth="1"/>
     <col min="8454" max="8454" width="35" style="30" customWidth="1"/>
-    <col min="8455" max="8704" width="9.140625" style="30"/>
-    <col min="8705" max="8705" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="32.140625" style="30" customWidth="1"/>
+    <col min="8455" max="8704" width="9.125" style="30"/>
+    <col min="8705" max="8705" width="1.625" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="13.375" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="30.25" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="19.625" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="32.125" style="30" customWidth="1"/>
     <col min="8710" max="8710" width="35" style="30" customWidth="1"/>
-    <col min="8711" max="8960" width="9.140625" style="30"/>
-    <col min="8961" max="8961" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="32.140625" style="30" customWidth="1"/>
+    <col min="8711" max="8960" width="9.125" style="30"/>
+    <col min="8961" max="8961" width="1.625" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="13.375" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="30.25" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="19.625" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="32.125" style="30" customWidth="1"/>
     <col min="8966" max="8966" width="35" style="30" customWidth="1"/>
-    <col min="8967" max="9216" width="9.140625" style="30"/>
-    <col min="9217" max="9217" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="32.140625" style="30" customWidth="1"/>
+    <col min="8967" max="9216" width="9.125" style="30"/>
+    <col min="9217" max="9217" width="1.625" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="13.375" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="30.25" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="19.625" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="32.125" style="30" customWidth="1"/>
     <col min="9222" max="9222" width="35" style="30" customWidth="1"/>
-    <col min="9223" max="9472" width="9.140625" style="30"/>
-    <col min="9473" max="9473" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="32.140625" style="30" customWidth="1"/>
+    <col min="9223" max="9472" width="9.125" style="30"/>
+    <col min="9473" max="9473" width="1.625" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="13.375" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="30.25" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="19.625" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="32.125" style="30" customWidth="1"/>
     <col min="9478" max="9478" width="35" style="30" customWidth="1"/>
-    <col min="9479" max="9728" width="9.140625" style="30"/>
-    <col min="9729" max="9729" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="32.140625" style="30" customWidth="1"/>
+    <col min="9479" max="9728" width="9.125" style="30"/>
+    <col min="9729" max="9729" width="1.625" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="13.375" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="30.25" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="19.625" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="32.125" style="30" customWidth="1"/>
     <col min="9734" max="9734" width="35" style="30" customWidth="1"/>
-    <col min="9735" max="9984" width="9.140625" style="30"/>
-    <col min="9985" max="9985" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="32.140625" style="30" customWidth="1"/>
+    <col min="9735" max="9984" width="9.125" style="30"/>
+    <col min="9985" max="9985" width="1.625" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="13.375" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="30.25" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="19.625" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="32.125" style="30" customWidth="1"/>
     <col min="9990" max="9990" width="35" style="30" customWidth="1"/>
-    <col min="9991" max="10240" width="9.140625" style="30"/>
-    <col min="10241" max="10241" width="1.5703125" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="30.28515625" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="32.140625" style="30" customWidth="1"/>
+    <col min="9991" max="10240" width="9.125" style="30"/>
+    <col min="10241" max="10241" width="1.625" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="13.375" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="30.25" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="19.625" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="32.125" style="30" customWidth="1"/>
     <col min="10246" max="10246" width="35" style="30" customWidth="1"/>
-    <col min="10247" max="10496" width="9.140625" style="30"/>
-    <col min="10497" max="10497" width="1.5703125" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="30.28515625" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="32.140625" style="30" customWidth="1"/>
+    <col min="10247" max="10496" width="9.125" style="30"/>
+    <col min="10497" max="10497" width="1.625" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="13.375" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="30.25" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="19.625" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="32.125" style="30" customWidth="1"/>
     <col min="10502" max="10502" width="35" style="30" customWidth="1"/>
-    <col min="10503" max="10752" width="9.140625" style="30"/>
-    <col min="10753" max="10753" width="1.5703125" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="30.28515625" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="32.140625" style="30" customWidth="1"/>
+    <col min="10503" max="10752" width="9.125" style="30"/>
+    <col min="10753" max="10753" width="1.625" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="13.375" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="30.25" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="19.625" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="32.125" style="30" customWidth="1"/>
     <col min="10758" max="10758" width="35" style="30" customWidth="1"/>
-    <col min="10759" max="11008" width="9.140625" style="30"/>
-    <col min="11009" max="11009" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="32.140625" style="30" customWidth="1"/>
+    <col min="10759" max="11008" width="9.125" style="30"/>
+    <col min="11009" max="11009" width="1.625" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="13.375" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="30.25" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="19.625" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="32.125" style="30" customWidth="1"/>
     <col min="11014" max="11014" width="35" style="30" customWidth="1"/>
-    <col min="11015" max="11264" width="9.140625" style="30"/>
-    <col min="11265" max="11265" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="32.140625" style="30" customWidth="1"/>
+    <col min="11015" max="11264" width="9.125" style="30"/>
+    <col min="11265" max="11265" width="1.625" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="13.375" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="30.25" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="19.625" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="32.125" style="30" customWidth="1"/>
     <col min="11270" max="11270" width="35" style="30" customWidth="1"/>
-    <col min="11271" max="11520" width="9.140625" style="30"/>
-    <col min="11521" max="11521" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="32.140625" style="30" customWidth="1"/>
+    <col min="11271" max="11520" width="9.125" style="30"/>
+    <col min="11521" max="11521" width="1.625" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="13.375" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="30.25" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="19.625" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="32.125" style="30" customWidth="1"/>
     <col min="11526" max="11526" width="35" style="30" customWidth="1"/>
-    <col min="11527" max="11776" width="9.140625" style="30"/>
-    <col min="11777" max="11777" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="32.140625" style="30" customWidth="1"/>
+    <col min="11527" max="11776" width="9.125" style="30"/>
+    <col min="11777" max="11777" width="1.625" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="13.375" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="30.25" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="19.625" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="32.125" style="30" customWidth="1"/>
     <col min="11782" max="11782" width="35" style="30" customWidth="1"/>
-    <col min="11783" max="12032" width="9.140625" style="30"/>
-    <col min="12033" max="12033" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="32.140625" style="30" customWidth="1"/>
+    <col min="11783" max="12032" width="9.125" style="30"/>
+    <col min="12033" max="12033" width="1.625" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="13.375" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="30.25" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="19.625" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="32.125" style="30" customWidth="1"/>
     <col min="12038" max="12038" width="35" style="30" customWidth="1"/>
-    <col min="12039" max="12288" width="9.140625" style="30"/>
-    <col min="12289" max="12289" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="32.140625" style="30" customWidth="1"/>
+    <col min="12039" max="12288" width="9.125" style="30"/>
+    <col min="12289" max="12289" width="1.625" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="13.375" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="30.25" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="19.625" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="32.125" style="30" customWidth="1"/>
     <col min="12294" max="12294" width="35" style="30" customWidth="1"/>
-    <col min="12295" max="12544" width="9.140625" style="30"/>
-    <col min="12545" max="12545" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="32.140625" style="30" customWidth="1"/>
+    <col min="12295" max="12544" width="9.125" style="30"/>
+    <col min="12545" max="12545" width="1.625" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="13.375" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="30.25" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="19.625" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="32.125" style="30" customWidth="1"/>
     <col min="12550" max="12550" width="35" style="30" customWidth="1"/>
-    <col min="12551" max="12800" width="9.140625" style="30"/>
-    <col min="12801" max="12801" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="32.140625" style="30" customWidth="1"/>
+    <col min="12551" max="12800" width="9.125" style="30"/>
+    <col min="12801" max="12801" width="1.625" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="13.375" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="30.25" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="19.625" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="32.125" style="30" customWidth="1"/>
     <col min="12806" max="12806" width="35" style="30" customWidth="1"/>
-    <col min="12807" max="13056" width="9.140625" style="30"/>
-    <col min="13057" max="13057" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="32.140625" style="30" customWidth="1"/>
+    <col min="12807" max="13056" width="9.125" style="30"/>
+    <col min="13057" max="13057" width="1.625" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="13.375" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="30.25" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="19.625" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="32.125" style="30" customWidth="1"/>
     <col min="13062" max="13062" width="35" style="30" customWidth="1"/>
-    <col min="13063" max="13312" width="9.140625" style="30"/>
-    <col min="13313" max="13313" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="32.140625" style="30" customWidth="1"/>
+    <col min="13063" max="13312" width="9.125" style="30"/>
+    <col min="13313" max="13313" width="1.625" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="13.375" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="30.25" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="19.625" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="32.125" style="30" customWidth="1"/>
     <col min="13318" max="13318" width="35" style="30" customWidth="1"/>
-    <col min="13319" max="13568" width="9.140625" style="30"/>
-    <col min="13569" max="13569" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="32.140625" style="30" customWidth="1"/>
+    <col min="13319" max="13568" width="9.125" style="30"/>
+    <col min="13569" max="13569" width="1.625" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="13.375" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="30.25" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="19.625" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="32.125" style="30" customWidth="1"/>
     <col min="13574" max="13574" width="35" style="30" customWidth="1"/>
-    <col min="13575" max="13824" width="9.140625" style="30"/>
-    <col min="13825" max="13825" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="32.140625" style="30" customWidth="1"/>
+    <col min="13575" max="13824" width="9.125" style="30"/>
+    <col min="13825" max="13825" width="1.625" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="13.375" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="30.25" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="19.625" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="32.125" style="30" customWidth="1"/>
     <col min="13830" max="13830" width="35" style="30" customWidth="1"/>
-    <col min="13831" max="14080" width="9.140625" style="30"/>
-    <col min="14081" max="14081" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="32.140625" style="30" customWidth="1"/>
+    <col min="13831" max="14080" width="9.125" style="30"/>
+    <col min="14081" max="14081" width="1.625" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="13.375" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="30.25" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="19.625" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="32.125" style="30" customWidth="1"/>
     <col min="14086" max="14086" width="35" style="30" customWidth="1"/>
-    <col min="14087" max="14336" width="9.140625" style="30"/>
-    <col min="14337" max="14337" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="32.140625" style="30" customWidth="1"/>
+    <col min="14087" max="14336" width="9.125" style="30"/>
+    <col min="14337" max="14337" width="1.625" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="13.375" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="30.25" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="19.625" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="32.125" style="30" customWidth="1"/>
     <col min="14342" max="14342" width="35" style="30" customWidth="1"/>
-    <col min="14343" max="14592" width="9.140625" style="30"/>
-    <col min="14593" max="14593" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="32.140625" style="30" customWidth="1"/>
+    <col min="14343" max="14592" width="9.125" style="30"/>
+    <col min="14593" max="14593" width="1.625" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="13.375" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="30.25" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="19.625" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="32.125" style="30" customWidth="1"/>
     <col min="14598" max="14598" width="35" style="30" customWidth="1"/>
-    <col min="14599" max="14848" width="9.140625" style="30"/>
-    <col min="14849" max="14849" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="32.140625" style="30" customWidth="1"/>
+    <col min="14599" max="14848" width="9.125" style="30"/>
+    <col min="14849" max="14849" width="1.625" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="13.375" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="30.25" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="19.625" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="32.125" style="30" customWidth="1"/>
     <col min="14854" max="14854" width="35" style="30" customWidth="1"/>
-    <col min="14855" max="15104" width="9.140625" style="30"/>
-    <col min="15105" max="15105" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="32.140625" style="30" customWidth="1"/>
+    <col min="14855" max="15104" width="9.125" style="30"/>
+    <col min="15105" max="15105" width="1.625" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="13.375" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="30.25" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="19.625" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="32.125" style="30" customWidth="1"/>
     <col min="15110" max="15110" width="35" style="30" customWidth="1"/>
-    <col min="15111" max="15360" width="9.140625" style="30"/>
-    <col min="15361" max="15361" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="32.140625" style="30" customWidth="1"/>
+    <col min="15111" max="15360" width="9.125" style="30"/>
+    <col min="15361" max="15361" width="1.625" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="13.375" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="30.25" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="19.625" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="32.125" style="30" customWidth="1"/>
     <col min="15366" max="15366" width="35" style="30" customWidth="1"/>
-    <col min="15367" max="15616" width="9.140625" style="30"/>
-    <col min="15617" max="15617" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="32.140625" style="30" customWidth="1"/>
+    <col min="15367" max="15616" width="9.125" style="30"/>
+    <col min="15617" max="15617" width="1.625" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="13.375" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="30.25" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="19.625" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="32.125" style="30" customWidth="1"/>
     <col min="15622" max="15622" width="35" style="30" customWidth="1"/>
-    <col min="15623" max="15872" width="9.140625" style="30"/>
-    <col min="15873" max="15873" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="32.140625" style="30" customWidth="1"/>
+    <col min="15623" max="15872" width="9.125" style="30"/>
+    <col min="15873" max="15873" width="1.625" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="13.375" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="30.25" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="19.625" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="32.125" style="30" customWidth="1"/>
     <col min="15878" max="15878" width="35" style="30" customWidth="1"/>
-    <col min="15879" max="16128" width="9.140625" style="30"/>
-    <col min="16129" max="16129" width="1.5703125" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="13.42578125" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="30.28515625" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="19.5703125" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="32.140625" style="30" customWidth="1"/>
+    <col min="15879" max="16128" width="9.125" style="30"/>
+    <col min="16129" max="16129" width="1.625" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="13.375" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="30.25" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="19.625" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="32.125" style="30" customWidth="1"/>
     <col min="16134" max="16134" width="35" style="30" customWidth="1"/>
-    <col min="16135" max="16384" width="9.140625" style="30"/>
+    <col min="16135" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="25.5">
       <c r="B1" s="36"/>
       <c r="D1" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="13.5" customHeight="1">
       <c r="B2" s="36"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="141" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="142" t="str">
+      <c r="C3" s="143"/>
+      <c r="D3" s="144" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="141" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="142" t="str">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-    </row>
-    <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="143" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+    </row>
+    <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1">
+      <c r="B5" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" s="46" customFormat="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:6" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" s="51" customFormat="1" ht="21" customHeight="1">
       <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
@@ -4134,7 +4150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="52">
         <v>1</v>
       </c>
@@ -4147,7 +4163,7 @@
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="52">
         <v>2</v>
       </c>
@@ -4160,7 +4176,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="52">
         <v>3</v>
       </c>
@@ -4173,7 +4189,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="52">
         <v>4</v>
       </c>
@@ -4186,7 +4202,7 @@
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="52">
         <v>5</v>
       </c>
@@ -4199,56 +4215,56 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="52"/>
       <c r="C14" s="53"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="52"/>
       <c r="C16" s="53"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="55"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="52"/>
       <c r="C17" s="53"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="55"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="52"/>
       <c r="C18" s="53"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="52"/>
       <c r="C19" s="53"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="55"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="52"/>
       <c r="C20" s="53"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="57"/>
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
@@ -4288,715 +4304,715 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="102"/>
-    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="101" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="102"/>
+    <col min="8" max="8" width="20.125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="101" customWidth="1"/>
     <col min="10" max="10" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="30"/>
-    <col min="257" max="257" width="13.42578125" style="30" customWidth="1"/>
-    <col min="258" max="258" width="21.85546875" style="30" customWidth="1"/>
-    <col min="259" max="259" width="29.28515625" style="30" customWidth="1"/>
-    <col min="260" max="260" width="32.5703125" style="30" customWidth="1"/>
-    <col min="261" max="261" width="19.28515625" style="30" customWidth="1"/>
-    <col min="262" max="262" width="8.140625" style="30" customWidth="1"/>
-    <col min="263" max="263" width="9.140625" style="30"/>
-    <col min="264" max="264" width="20.140625" style="30" customWidth="1"/>
-    <col min="265" max="265" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11" max="256" width="9.125" style="30"/>
+    <col min="257" max="257" width="13.375" style="30" customWidth="1"/>
+    <col min="258" max="258" width="21.875" style="30" customWidth="1"/>
+    <col min="259" max="259" width="29.25" style="30" customWidth="1"/>
+    <col min="260" max="260" width="32.625" style="30" customWidth="1"/>
+    <col min="261" max="261" width="19.25" style="30" customWidth="1"/>
+    <col min="262" max="262" width="8.125" style="30" customWidth="1"/>
+    <col min="263" max="263" width="9.125" style="30"/>
+    <col min="264" max="264" width="20.125" style="30" customWidth="1"/>
+    <col min="265" max="265" width="9.375" style="30" customWidth="1"/>
     <col min="266" max="266" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="30"/>
-    <col min="513" max="513" width="13.42578125" style="30" customWidth="1"/>
-    <col min="514" max="514" width="21.85546875" style="30" customWidth="1"/>
-    <col min="515" max="515" width="29.28515625" style="30" customWidth="1"/>
-    <col min="516" max="516" width="32.5703125" style="30" customWidth="1"/>
-    <col min="517" max="517" width="19.28515625" style="30" customWidth="1"/>
-    <col min="518" max="518" width="8.140625" style="30" customWidth="1"/>
-    <col min="519" max="519" width="9.140625" style="30"/>
-    <col min="520" max="520" width="20.140625" style="30" customWidth="1"/>
-    <col min="521" max="521" width="9.42578125" style="30" customWidth="1"/>
+    <col min="267" max="512" width="9.125" style="30"/>
+    <col min="513" max="513" width="13.375" style="30" customWidth="1"/>
+    <col min="514" max="514" width="21.875" style="30" customWidth="1"/>
+    <col min="515" max="515" width="29.25" style="30" customWidth="1"/>
+    <col min="516" max="516" width="32.625" style="30" customWidth="1"/>
+    <col min="517" max="517" width="19.25" style="30" customWidth="1"/>
+    <col min="518" max="518" width="8.125" style="30" customWidth="1"/>
+    <col min="519" max="519" width="9.125" style="30"/>
+    <col min="520" max="520" width="20.125" style="30" customWidth="1"/>
+    <col min="521" max="521" width="9.375" style="30" customWidth="1"/>
     <col min="522" max="522" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="30"/>
-    <col min="769" max="769" width="13.42578125" style="30" customWidth="1"/>
-    <col min="770" max="770" width="21.85546875" style="30" customWidth="1"/>
-    <col min="771" max="771" width="29.28515625" style="30" customWidth="1"/>
-    <col min="772" max="772" width="32.5703125" style="30" customWidth="1"/>
-    <col min="773" max="773" width="19.28515625" style="30" customWidth="1"/>
-    <col min="774" max="774" width="8.140625" style="30" customWidth="1"/>
-    <col min="775" max="775" width="9.140625" style="30"/>
-    <col min="776" max="776" width="20.140625" style="30" customWidth="1"/>
-    <col min="777" max="777" width="9.42578125" style="30" customWidth="1"/>
+    <col min="523" max="768" width="9.125" style="30"/>
+    <col min="769" max="769" width="13.375" style="30" customWidth="1"/>
+    <col min="770" max="770" width="21.875" style="30" customWidth="1"/>
+    <col min="771" max="771" width="29.25" style="30" customWidth="1"/>
+    <col min="772" max="772" width="32.625" style="30" customWidth="1"/>
+    <col min="773" max="773" width="19.25" style="30" customWidth="1"/>
+    <col min="774" max="774" width="8.125" style="30" customWidth="1"/>
+    <col min="775" max="775" width="9.125" style="30"/>
+    <col min="776" max="776" width="20.125" style="30" customWidth="1"/>
+    <col min="777" max="777" width="9.375" style="30" customWidth="1"/>
     <col min="778" max="778" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="30"/>
-    <col min="1025" max="1025" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1030" max="1030" width="8.140625" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="9.140625" style="30"/>
-    <col min="1032" max="1032" width="20.140625" style="30" customWidth="1"/>
-    <col min="1033" max="1033" width="9.42578125" style="30" customWidth="1"/>
+    <col min="779" max="1024" width="9.125" style="30"/>
+    <col min="1025" max="1025" width="13.375" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="21.875" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="29.25" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="32.625" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="19.25" style="30" customWidth="1"/>
+    <col min="1030" max="1030" width="8.125" style="30" customWidth="1"/>
+    <col min="1031" max="1031" width="9.125" style="30"/>
+    <col min="1032" max="1032" width="20.125" style="30" customWidth="1"/>
+    <col min="1033" max="1033" width="9.375" style="30" customWidth="1"/>
     <col min="1034" max="1034" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="30"/>
-    <col min="1281" max="1281" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1286" max="1286" width="8.140625" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="9.140625" style="30"/>
-    <col min="1288" max="1288" width="20.140625" style="30" customWidth="1"/>
-    <col min="1289" max="1289" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1035" max="1280" width="9.125" style="30"/>
+    <col min="1281" max="1281" width="13.375" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="21.875" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="29.25" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="32.625" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="19.25" style="30" customWidth="1"/>
+    <col min="1286" max="1286" width="8.125" style="30" customWidth="1"/>
+    <col min="1287" max="1287" width="9.125" style="30"/>
+    <col min="1288" max="1288" width="20.125" style="30" customWidth="1"/>
+    <col min="1289" max="1289" width="9.375" style="30" customWidth="1"/>
     <col min="1290" max="1290" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="30"/>
-    <col min="1537" max="1537" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1542" max="1542" width="8.140625" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="9.140625" style="30"/>
-    <col min="1544" max="1544" width="20.140625" style="30" customWidth="1"/>
-    <col min="1545" max="1545" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1291" max="1536" width="9.125" style="30"/>
+    <col min="1537" max="1537" width="13.375" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="21.875" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="29.25" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="32.625" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="19.25" style="30" customWidth="1"/>
+    <col min="1542" max="1542" width="8.125" style="30" customWidth="1"/>
+    <col min="1543" max="1543" width="9.125" style="30"/>
+    <col min="1544" max="1544" width="20.125" style="30" customWidth="1"/>
+    <col min="1545" max="1545" width="9.375" style="30" customWidth="1"/>
     <col min="1546" max="1546" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="30"/>
-    <col min="1793" max="1793" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1798" max="1798" width="8.140625" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="9.140625" style="30"/>
-    <col min="1800" max="1800" width="20.140625" style="30" customWidth="1"/>
-    <col min="1801" max="1801" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1547" max="1792" width="9.125" style="30"/>
+    <col min="1793" max="1793" width="13.375" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="21.875" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="29.25" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="32.625" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="19.25" style="30" customWidth="1"/>
+    <col min="1798" max="1798" width="8.125" style="30" customWidth="1"/>
+    <col min="1799" max="1799" width="9.125" style="30"/>
+    <col min="1800" max="1800" width="20.125" style="30" customWidth="1"/>
+    <col min="1801" max="1801" width="9.375" style="30" customWidth="1"/>
     <col min="1802" max="1802" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="30"/>
-    <col min="2049" max="2049" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2054" max="2054" width="8.140625" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="9.140625" style="30"/>
-    <col min="2056" max="2056" width="20.140625" style="30" customWidth="1"/>
-    <col min="2057" max="2057" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1803" max="2048" width="9.125" style="30"/>
+    <col min="2049" max="2049" width="13.375" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="21.875" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="29.25" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="32.625" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="19.25" style="30" customWidth="1"/>
+    <col min="2054" max="2054" width="8.125" style="30" customWidth="1"/>
+    <col min="2055" max="2055" width="9.125" style="30"/>
+    <col min="2056" max="2056" width="20.125" style="30" customWidth="1"/>
+    <col min="2057" max="2057" width="9.375" style="30" customWidth="1"/>
     <col min="2058" max="2058" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="30"/>
-    <col min="2305" max="2305" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2310" max="2310" width="8.140625" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="9.140625" style="30"/>
-    <col min="2312" max="2312" width="20.140625" style="30" customWidth="1"/>
-    <col min="2313" max="2313" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2059" max="2304" width="9.125" style="30"/>
+    <col min="2305" max="2305" width="13.375" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="21.875" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="29.25" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="32.625" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="19.25" style="30" customWidth="1"/>
+    <col min="2310" max="2310" width="8.125" style="30" customWidth="1"/>
+    <col min="2311" max="2311" width="9.125" style="30"/>
+    <col min="2312" max="2312" width="20.125" style="30" customWidth="1"/>
+    <col min="2313" max="2313" width="9.375" style="30" customWidth="1"/>
     <col min="2314" max="2314" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="30"/>
-    <col min="2561" max="2561" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2566" max="2566" width="8.140625" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="9.140625" style="30"/>
-    <col min="2568" max="2568" width="20.140625" style="30" customWidth="1"/>
-    <col min="2569" max="2569" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2315" max="2560" width="9.125" style="30"/>
+    <col min="2561" max="2561" width="13.375" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="21.875" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="29.25" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="32.625" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="19.25" style="30" customWidth="1"/>
+    <col min="2566" max="2566" width="8.125" style="30" customWidth="1"/>
+    <col min="2567" max="2567" width="9.125" style="30"/>
+    <col min="2568" max="2568" width="20.125" style="30" customWidth="1"/>
+    <col min="2569" max="2569" width="9.375" style="30" customWidth="1"/>
     <col min="2570" max="2570" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="30"/>
-    <col min="2817" max="2817" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2822" max="2822" width="8.140625" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="9.140625" style="30"/>
-    <col min="2824" max="2824" width="20.140625" style="30" customWidth="1"/>
-    <col min="2825" max="2825" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2571" max="2816" width="9.125" style="30"/>
+    <col min="2817" max="2817" width="13.375" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="21.875" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="29.25" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="32.625" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="19.25" style="30" customWidth="1"/>
+    <col min="2822" max="2822" width="8.125" style="30" customWidth="1"/>
+    <col min="2823" max="2823" width="9.125" style="30"/>
+    <col min="2824" max="2824" width="20.125" style="30" customWidth="1"/>
+    <col min="2825" max="2825" width="9.375" style="30" customWidth="1"/>
     <col min="2826" max="2826" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="30"/>
-    <col min="3073" max="3073" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3078" max="3078" width="8.140625" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="9.140625" style="30"/>
-    <col min="3080" max="3080" width="20.140625" style="30" customWidth="1"/>
-    <col min="3081" max="3081" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2827" max="3072" width="9.125" style="30"/>
+    <col min="3073" max="3073" width="13.375" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="21.875" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="29.25" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="32.625" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="19.25" style="30" customWidth="1"/>
+    <col min="3078" max="3078" width="8.125" style="30" customWidth="1"/>
+    <col min="3079" max="3079" width="9.125" style="30"/>
+    <col min="3080" max="3080" width="20.125" style="30" customWidth="1"/>
+    <col min="3081" max="3081" width="9.375" style="30" customWidth="1"/>
     <col min="3082" max="3082" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="30"/>
-    <col min="3329" max="3329" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3334" max="3334" width="8.140625" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="9.140625" style="30"/>
-    <col min="3336" max="3336" width="20.140625" style="30" customWidth="1"/>
-    <col min="3337" max="3337" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3083" max="3328" width="9.125" style="30"/>
+    <col min="3329" max="3329" width="13.375" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="21.875" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="29.25" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="32.625" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="19.25" style="30" customWidth="1"/>
+    <col min="3334" max="3334" width="8.125" style="30" customWidth="1"/>
+    <col min="3335" max="3335" width="9.125" style="30"/>
+    <col min="3336" max="3336" width="20.125" style="30" customWidth="1"/>
+    <col min="3337" max="3337" width="9.375" style="30" customWidth="1"/>
     <col min="3338" max="3338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="30"/>
-    <col min="3585" max="3585" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3590" max="3590" width="8.140625" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="9.140625" style="30"/>
-    <col min="3592" max="3592" width="20.140625" style="30" customWidth="1"/>
-    <col min="3593" max="3593" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3339" max="3584" width="9.125" style="30"/>
+    <col min="3585" max="3585" width="13.375" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="21.875" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="29.25" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="32.625" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="19.25" style="30" customWidth="1"/>
+    <col min="3590" max="3590" width="8.125" style="30" customWidth="1"/>
+    <col min="3591" max="3591" width="9.125" style="30"/>
+    <col min="3592" max="3592" width="20.125" style="30" customWidth="1"/>
+    <col min="3593" max="3593" width="9.375" style="30" customWidth="1"/>
     <col min="3594" max="3594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="30"/>
-    <col min="3841" max="3841" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3846" max="3846" width="8.140625" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="9.140625" style="30"/>
-    <col min="3848" max="3848" width="20.140625" style="30" customWidth="1"/>
-    <col min="3849" max="3849" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3595" max="3840" width="9.125" style="30"/>
+    <col min="3841" max="3841" width="13.375" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="21.875" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="29.25" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="32.625" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="19.25" style="30" customWidth="1"/>
+    <col min="3846" max="3846" width="8.125" style="30" customWidth="1"/>
+    <col min="3847" max="3847" width="9.125" style="30"/>
+    <col min="3848" max="3848" width="20.125" style="30" customWidth="1"/>
+    <col min="3849" max="3849" width="9.375" style="30" customWidth="1"/>
     <col min="3850" max="3850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="30"/>
-    <col min="4097" max="4097" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4102" max="4102" width="8.140625" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="9.140625" style="30"/>
-    <col min="4104" max="4104" width="20.140625" style="30" customWidth="1"/>
-    <col min="4105" max="4105" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3851" max="4096" width="9.125" style="30"/>
+    <col min="4097" max="4097" width="13.375" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="21.875" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="29.25" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="32.625" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="19.25" style="30" customWidth="1"/>
+    <col min="4102" max="4102" width="8.125" style="30" customWidth="1"/>
+    <col min="4103" max="4103" width="9.125" style="30"/>
+    <col min="4104" max="4104" width="20.125" style="30" customWidth="1"/>
+    <col min="4105" max="4105" width="9.375" style="30" customWidth="1"/>
     <col min="4106" max="4106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="30"/>
-    <col min="4353" max="4353" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4358" max="4358" width="8.140625" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="9.140625" style="30"/>
-    <col min="4360" max="4360" width="20.140625" style="30" customWidth="1"/>
-    <col min="4361" max="4361" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4107" max="4352" width="9.125" style="30"/>
+    <col min="4353" max="4353" width="13.375" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="21.875" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="29.25" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="32.625" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="19.25" style="30" customWidth="1"/>
+    <col min="4358" max="4358" width="8.125" style="30" customWidth="1"/>
+    <col min="4359" max="4359" width="9.125" style="30"/>
+    <col min="4360" max="4360" width="20.125" style="30" customWidth="1"/>
+    <col min="4361" max="4361" width="9.375" style="30" customWidth="1"/>
     <col min="4362" max="4362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="30"/>
-    <col min="4609" max="4609" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4614" max="4614" width="8.140625" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="9.140625" style="30"/>
-    <col min="4616" max="4616" width="20.140625" style="30" customWidth="1"/>
-    <col min="4617" max="4617" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4363" max="4608" width="9.125" style="30"/>
+    <col min="4609" max="4609" width="13.375" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="21.875" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="29.25" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="32.625" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="19.25" style="30" customWidth="1"/>
+    <col min="4614" max="4614" width="8.125" style="30" customWidth="1"/>
+    <col min="4615" max="4615" width="9.125" style="30"/>
+    <col min="4616" max="4616" width="20.125" style="30" customWidth="1"/>
+    <col min="4617" max="4617" width="9.375" style="30" customWidth="1"/>
     <col min="4618" max="4618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="30"/>
-    <col min="4865" max="4865" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4870" max="4870" width="8.140625" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="9.140625" style="30"/>
-    <col min="4872" max="4872" width="20.140625" style="30" customWidth="1"/>
-    <col min="4873" max="4873" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4619" max="4864" width="9.125" style="30"/>
+    <col min="4865" max="4865" width="13.375" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="21.875" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="29.25" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="32.625" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="19.25" style="30" customWidth="1"/>
+    <col min="4870" max="4870" width="8.125" style="30" customWidth="1"/>
+    <col min="4871" max="4871" width="9.125" style="30"/>
+    <col min="4872" max="4872" width="20.125" style="30" customWidth="1"/>
+    <col min="4873" max="4873" width="9.375" style="30" customWidth="1"/>
     <col min="4874" max="4874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="30"/>
-    <col min="5121" max="5121" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5126" max="5126" width="8.140625" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="9.140625" style="30"/>
-    <col min="5128" max="5128" width="20.140625" style="30" customWidth="1"/>
-    <col min="5129" max="5129" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4875" max="5120" width="9.125" style="30"/>
+    <col min="5121" max="5121" width="13.375" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="21.875" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="29.25" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="32.625" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="19.25" style="30" customWidth="1"/>
+    <col min="5126" max="5126" width="8.125" style="30" customWidth="1"/>
+    <col min="5127" max="5127" width="9.125" style="30"/>
+    <col min="5128" max="5128" width="20.125" style="30" customWidth="1"/>
+    <col min="5129" max="5129" width="9.375" style="30" customWidth="1"/>
     <col min="5130" max="5130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="30"/>
-    <col min="5377" max="5377" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5382" max="5382" width="8.140625" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="9.140625" style="30"/>
-    <col min="5384" max="5384" width="20.140625" style="30" customWidth="1"/>
-    <col min="5385" max="5385" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5131" max="5376" width="9.125" style="30"/>
+    <col min="5377" max="5377" width="13.375" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="21.875" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="29.25" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="32.625" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="19.25" style="30" customWidth="1"/>
+    <col min="5382" max="5382" width="8.125" style="30" customWidth="1"/>
+    <col min="5383" max="5383" width="9.125" style="30"/>
+    <col min="5384" max="5384" width="20.125" style="30" customWidth="1"/>
+    <col min="5385" max="5385" width="9.375" style="30" customWidth="1"/>
     <col min="5386" max="5386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="30"/>
-    <col min="5633" max="5633" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5638" max="5638" width="8.140625" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="9.140625" style="30"/>
-    <col min="5640" max="5640" width="20.140625" style="30" customWidth="1"/>
-    <col min="5641" max="5641" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5387" max="5632" width="9.125" style="30"/>
+    <col min="5633" max="5633" width="13.375" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="21.875" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="29.25" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="32.625" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="19.25" style="30" customWidth="1"/>
+    <col min="5638" max="5638" width="8.125" style="30" customWidth="1"/>
+    <col min="5639" max="5639" width="9.125" style="30"/>
+    <col min="5640" max="5640" width="20.125" style="30" customWidth="1"/>
+    <col min="5641" max="5641" width="9.375" style="30" customWidth="1"/>
     <col min="5642" max="5642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="30"/>
-    <col min="5889" max="5889" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5894" max="5894" width="8.140625" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="9.140625" style="30"/>
-    <col min="5896" max="5896" width="20.140625" style="30" customWidth="1"/>
-    <col min="5897" max="5897" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5643" max="5888" width="9.125" style="30"/>
+    <col min="5889" max="5889" width="13.375" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="21.875" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="29.25" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="32.625" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="19.25" style="30" customWidth="1"/>
+    <col min="5894" max="5894" width="8.125" style="30" customWidth="1"/>
+    <col min="5895" max="5895" width="9.125" style="30"/>
+    <col min="5896" max="5896" width="20.125" style="30" customWidth="1"/>
+    <col min="5897" max="5897" width="9.375" style="30" customWidth="1"/>
     <col min="5898" max="5898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="30"/>
-    <col min="6145" max="6145" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6150" max="6150" width="8.140625" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="9.140625" style="30"/>
-    <col min="6152" max="6152" width="20.140625" style="30" customWidth="1"/>
-    <col min="6153" max="6153" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5899" max="6144" width="9.125" style="30"/>
+    <col min="6145" max="6145" width="13.375" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="21.875" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="29.25" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="32.625" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="19.25" style="30" customWidth="1"/>
+    <col min="6150" max="6150" width="8.125" style="30" customWidth="1"/>
+    <col min="6151" max="6151" width="9.125" style="30"/>
+    <col min="6152" max="6152" width="20.125" style="30" customWidth="1"/>
+    <col min="6153" max="6153" width="9.375" style="30" customWidth="1"/>
     <col min="6154" max="6154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="30"/>
-    <col min="6401" max="6401" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6406" max="6406" width="8.140625" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="9.140625" style="30"/>
-    <col min="6408" max="6408" width="20.140625" style="30" customWidth="1"/>
-    <col min="6409" max="6409" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6155" max="6400" width="9.125" style="30"/>
+    <col min="6401" max="6401" width="13.375" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="21.875" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="29.25" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="32.625" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="19.25" style="30" customWidth="1"/>
+    <col min="6406" max="6406" width="8.125" style="30" customWidth="1"/>
+    <col min="6407" max="6407" width="9.125" style="30"/>
+    <col min="6408" max="6408" width="20.125" style="30" customWidth="1"/>
+    <col min="6409" max="6409" width="9.375" style="30" customWidth="1"/>
     <col min="6410" max="6410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="30"/>
-    <col min="6657" max="6657" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6662" max="6662" width="8.140625" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="9.140625" style="30"/>
-    <col min="6664" max="6664" width="20.140625" style="30" customWidth="1"/>
-    <col min="6665" max="6665" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6411" max="6656" width="9.125" style="30"/>
+    <col min="6657" max="6657" width="13.375" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="21.875" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="29.25" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="32.625" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="19.25" style="30" customWidth="1"/>
+    <col min="6662" max="6662" width="8.125" style="30" customWidth="1"/>
+    <col min="6663" max="6663" width="9.125" style="30"/>
+    <col min="6664" max="6664" width="20.125" style="30" customWidth="1"/>
+    <col min="6665" max="6665" width="9.375" style="30" customWidth="1"/>
     <col min="6666" max="6666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="30"/>
-    <col min="6913" max="6913" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6918" max="6918" width="8.140625" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="9.140625" style="30"/>
-    <col min="6920" max="6920" width="20.140625" style="30" customWidth="1"/>
-    <col min="6921" max="6921" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6667" max="6912" width="9.125" style="30"/>
+    <col min="6913" max="6913" width="13.375" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="21.875" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="29.25" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="32.625" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="19.25" style="30" customWidth="1"/>
+    <col min="6918" max="6918" width="8.125" style="30" customWidth="1"/>
+    <col min="6919" max="6919" width="9.125" style="30"/>
+    <col min="6920" max="6920" width="20.125" style="30" customWidth="1"/>
+    <col min="6921" max="6921" width="9.375" style="30" customWidth="1"/>
     <col min="6922" max="6922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="30"/>
-    <col min="7169" max="7169" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7174" max="7174" width="8.140625" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="9.140625" style="30"/>
-    <col min="7176" max="7176" width="20.140625" style="30" customWidth="1"/>
-    <col min="7177" max="7177" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6923" max="7168" width="9.125" style="30"/>
+    <col min="7169" max="7169" width="13.375" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="21.875" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="29.25" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="32.625" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="19.25" style="30" customWidth="1"/>
+    <col min="7174" max="7174" width="8.125" style="30" customWidth="1"/>
+    <col min="7175" max="7175" width="9.125" style="30"/>
+    <col min="7176" max="7176" width="20.125" style="30" customWidth="1"/>
+    <col min="7177" max="7177" width="9.375" style="30" customWidth="1"/>
     <col min="7178" max="7178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="30"/>
-    <col min="7425" max="7425" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7430" max="7430" width="8.140625" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="9.140625" style="30"/>
-    <col min="7432" max="7432" width="20.140625" style="30" customWidth="1"/>
-    <col min="7433" max="7433" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7179" max="7424" width="9.125" style="30"/>
+    <col min="7425" max="7425" width="13.375" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="21.875" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="29.25" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="32.625" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="19.25" style="30" customWidth="1"/>
+    <col min="7430" max="7430" width="8.125" style="30" customWidth="1"/>
+    <col min="7431" max="7431" width="9.125" style="30"/>
+    <col min="7432" max="7432" width="20.125" style="30" customWidth="1"/>
+    <col min="7433" max="7433" width="9.375" style="30" customWidth="1"/>
     <col min="7434" max="7434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="30"/>
-    <col min="7681" max="7681" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7686" max="7686" width="8.140625" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="9.140625" style="30"/>
-    <col min="7688" max="7688" width="20.140625" style="30" customWidth="1"/>
-    <col min="7689" max="7689" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7435" max="7680" width="9.125" style="30"/>
+    <col min="7681" max="7681" width="13.375" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="21.875" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="29.25" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="32.625" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="19.25" style="30" customWidth="1"/>
+    <col min="7686" max="7686" width="8.125" style="30" customWidth="1"/>
+    <col min="7687" max="7687" width="9.125" style="30"/>
+    <col min="7688" max="7688" width="20.125" style="30" customWidth="1"/>
+    <col min="7689" max="7689" width="9.375" style="30" customWidth="1"/>
     <col min="7690" max="7690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="30"/>
-    <col min="7937" max="7937" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7942" max="7942" width="8.140625" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="9.140625" style="30"/>
-    <col min="7944" max="7944" width="20.140625" style="30" customWidth="1"/>
-    <col min="7945" max="7945" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7691" max="7936" width="9.125" style="30"/>
+    <col min="7937" max="7937" width="13.375" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="21.875" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="29.25" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="32.625" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="19.25" style="30" customWidth="1"/>
+    <col min="7942" max="7942" width="8.125" style="30" customWidth="1"/>
+    <col min="7943" max="7943" width="9.125" style="30"/>
+    <col min="7944" max="7944" width="20.125" style="30" customWidth="1"/>
+    <col min="7945" max="7945" width="9.375" style="30" customWidth="1"/>
     <col min="7946" max="7946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="30"/>
-    <col min="8193" max="8193" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8198" max="8198" width="8.140625" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="9.140625" style="30"/>
-    <col min="8200" max="8200" width="20.140625" style="30" customWidth="1"/>
-    <col min="8201" max="8201" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7947" max="8192" width="9.125" style="30"/>
+    <col min="8193" max="8193" width="13.375" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="21.875" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="29.25" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="32.625" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="19.25" style="30" customWidth="1"/>
+    <col min="8198" max="8198" width="8.125" style="30" customWidth="1"/>
+    <col min="8199" max="8199" width="9.125" style="30"/>
+    <col min="8200" max="8200" width="20.125" style="30" customWidth="1"/>
+    <col min="8201" max="8201" width="9.375" style="30" customWidth="1"/>
     <col min="8202" max="8202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="30"/>
-    <col min="8449" max="8449" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8454" max="8454" width="8.140625" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="9.140625" style="30"/>
-    <col min="8456" max="8456" width="20.140625" style="30" customWidth="1"/>
-    <col min="8457" max="8457" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8203" max="8448" width="9.125" style="30"/>
+    <col min="8449" max="8449" width="13.375" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="21.875" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="29.25" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="32.625" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="19.25" style="30" customWidth="1"/>
+    <col min="8454" max="8454" width="8.125" style="30" customWidth="1"/>
+    <col min="8455" max="8455" width="9.125" style="30"/>
+    <col min="8456" max="8456" width="20.125" style="30" customWidth="1"/>
+    <col min="8457" max="8457" width="9.375" style="30" customWidth="1"/>
     <col min="8458" max="8458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="30"/>
-    <col min="8705" max="8705" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8710" max="8710" width="8.140625" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="9.140625" style="30"/>
-    <col min="8712" max="8712" width="20.140625" style="30" customWidth="1"/>
-    <col min="8713" max="8713" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8459" max="8704" width="9.125" style="30"/>
+    <col min="8705" max="8705" width="13.375" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="21.875" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="29.25" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="32.625" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="19.25" style="30" customWidth="1"/>
+    <col min="8710" max="8710" width="8.125" style="30" customWidth="1"/>
+    <col min="8711" max="8711" width="9.125" style="30"/>
+    <col min="8712" max="8712" width="20.125" style="30" customWidth="1"/>
+    <col min="8713" max="8713" width="9.375" style="30" customWidth="1"/>
     <col min="8714" max="8714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="30"/>
-    <col min="8961" max="8961" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8966" max="8966" width="8.140625" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="9.140625" style="30"/>
-    <col min="8968" max="8968" width="20.140625" style="30" customWidth="1"/>
-    <col min="8969" max="8969" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8715" max="8960" width="9.125" style="30"/>
+    <col min="8961" max="8961" width="13.375" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="21.875" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="29.25" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="32.625" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="19.25" style="30" customWidth="1"/>
+    <col min="8966" max="8966" width="8.125" style="30" customWidth="1"/>
+    <col min="8967" max="8967" width="9.125" style="30"/>
+    <col min="8968" max="8968" width="20.125" style="30" customWidth="1"/>
+    <col min="8969" max="8969" width="9.375" style="30" customWidth="1"/>
     <col min="8970" max="8970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="30"/>
-    <col min="9217" max="9217" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9222" max="9222" width="8.140625" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="9.140625" style="30"/>
-    <col min="9224" max="9224" width="20.140625" style="30" customWidth="1"/>
-    <col min="9225" max="9225" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8971" max="9216" width="9.125" style="30"/>
+    <col min="9217" max="9217" width="13.375" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="21.875" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="29.25" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="32.625" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="19.25" style="30" customWidth="1"/>
+    <col min="9222" max="9222" width="8.125" style="30" customWidth="1"/>
+    <col min="9223" max="9223" width="9.125" style="30"/>
+    <col min="9224" max="9224" width="20.125" style="30" customWidth="1"/>
+    <col min="9225" max="9225" width="9.375" style="30" customWidth="1"/>
     <col min="9226" max="9226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="30"/>
-    <col min="9473" max="9473" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9478" max="9478" width="8.140625" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="9.140625" style="30"/>
-    <col min="9480" max="9480" width="20.140625" style="30" customWidth="1"/>
-    <col min="9481" max="9481" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9227" max="9472" width="9.125" style="30"/>
+    <col min="9473" max="9473" width="13.375" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="21.875" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="29.25" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="32.625" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="19.25" style="30" customWidth="1"/>
+    <col min="9478" max="9478" width="8.125" style="30" customWidth="1"/>
+    <col min="9479" max="9479" width="9.125" style="30"/>
+    <col min="9480" max="9480" width="20.125" style="30" customWidth="1"/>
+    <col min="9481" max="9481" width="9.375" style="30" customWidth="1"/>
     <col min="9482" max="9482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="30"/>
-    <col min="9729" max="9729" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9734" max="9734" width="8.140625" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="9.140625" style="30"/>
-    <col min="9736" max="9736" width="20.140625" style="30" customWidth="1"/>
-    <col min="9737" max="9737" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9483" max="9728" width="9.125" style="30"/>
+    <col min="9729" max="9729" width="13.375" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="21.875" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="29.25" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="32.625" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="19.25" style="30" customWidth="1"/>
+    <col min="9734" max="9734" width="8.125" style="30" customWidth="1"/>
+    <col min="9735" max="9735" width="9.125" style="30"/>
+    <col min="9736" max="9736" width="20.125" style="30" customWidth="1"/>
+    <col min="9737" max="9737" width="9.375" style="30" customWidth="1"/>
     <col min="9738" max="9738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="30"/>
-    <col min="9985" max="9985" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9990" max="9990" width="8.140625" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="9.140625" style="30"/>
-    <col min="9992" max="9992" width="20.140625" style="30" customWidth="1"/>
-    <col min="9993" max="9993" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9739" max="9984" width="9.125" style="30"/>
+    <col min="9985" max="9985" width="13.375" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="21.875" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="29.25" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="32.625" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="19.25" style="30" customWidth="1"/>
+    <col min="9990" max="9990" width="8.125" style="30" customWidth="1"/>
+    <col min="9991" max="9991" width="9.125" style="30"/>
+    <col min="9992" max="9992" width="20.125" style="30" customWidth="1"/>
+    <col min="9993" max="9993" width="9.375" style="30" customWidth="1"/>
     <col min="9994" max="9994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="30"/>
-    <col min="10241" max="10241" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="32.5703125" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10246" max="10246" width="8.140625" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="9.140625" style="30"/>
-    <col min="10248" max="10248" width="20.140625" style="30" customWidth="1"/>
-    <col min="10249" max="10249" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9995" max="10240" width="9.125" style="30"/>
+    <col min="10241" max="10241" width="13.375" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="21.875" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="29.25" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="32.625" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="19.25" style="30" customWidth="1"/>
+    <col min="10246" max="10246" width="8.125" style="30" customWidth="1"/>
+    <col min="10247" max="10247" width="9.125" style="30"/>
+    <col min="10248" max="10248" width="20.125" style="30" customWidth="1"/>
+    <col min="10249" max="10249" width="9.375" style="30" customWidth="1"/>
     <col min="10250" max="10250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="30"/>
-    <col min="10497" max="10497" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="32.5703125" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10502" max="10502" width="8.140625" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="9.140625" style="30"/>
-    <col min="10504" max="10504" width="20.140625" style="30" customWidth="1"/>
-    <col min="10505" max="10505" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10251" max="10496" width="9.125" style="30"/>
+    <col min="10497" max="10497" width="13.375" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="21.875" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="29.25" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="32.625" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="19.25" style="30" customWidth="1"/>
+    <col min="10502" max="10502" width="8.125" style="30" customWidth="1"/>
+    <col min="10503" max="10503" width="9.125" style="30"/>
+    <col min="10504" max="10504" width="20.125" style="30" customWidth="1"/>
+    <col min="10505" max="10505" width="9.375" style="30" customWidth="1"/>
     <col min="10506" max="10506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="30"/>
-    <col min="10753" max="10753" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="32.5703125" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10758" max="10758" width="8.140625" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="9.140625" style="30"/>
-    <col min="10760" max="10760" width="20.140625" style="30" customWidth="1"/>
-    <col min="10761" max="10761" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10507" max="10752" width="9.125" style="30"/>
+    <col min="10753" max="10753" width="13.375" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="21.875" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="29.25" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="32.625" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="19.25" style="30" customWidth="1"/>
+    <col min="10758" max="10758" width="8.125" style="30" customWidth="1"/>
+    <col min="10759" max="10759" width="9.125" style="30"/>
+    <col min="10760" max="10760" width="20.125" style="30" customWidth="1"/>
+    <col min="10761" max="10761" width="9.375" style="30" customWidth="1"/>
     <col min="10762" max="10762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="30"/>
-    <col min="11009" max="11009" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11014" max="11014" width="8.140625" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="9.140625" style="30"/>
-    <col min="11016" max="11016" width="20.140625" style="30" customWidth="1"/>
-    <col min="11017" max="11017" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10763" max="11008" width="9.125" style="30"/>
+    <col min="11009" max="11009" width="13.375" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="21.875" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="29.25" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="32.625" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="19.25" style="30" customWidth="1"/>
+    <col min="11014" max="11014" width="8.125" style="30" customWidth="1"/>
+    <col min="11015" max="11015" width="9.125" style="30"/>
+    <col min="11016" max="11016" width="20.125" style="30" customWidth="1"/>
+    <col min="11017" max="11017" width="9.375" style="30" customWidth="1"/>
     <col min="11018" max="11018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="30"/>
-    <col min="11265" max="11265" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11270" max="11270" width="8.140625" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="9.140625" style="30"/>
-    <col min="11272" max="11272" width="20.140625" style="30" customWidth="1"/>
-    <col min="11273" max="11273" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11019" max="11264" width="9.125" style="30"/>
+    <col min="11265" max="11265" width="13.375" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="21.875" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="29.25" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="32.625" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="19.25" style="30" customWidth="1"/>
+    <col min="11270" max="11270" width="8.125" style="30" customWidth="1"/>
+    <col min="11271" max="11271" width="9.125" style="30"/>
+    <col min="11272" max="11272" width="20.125" style="30" customWidth="1"/>
+    <col min="11273" max="11273" width="9.375" style="30" customWidth="1"/>
     <col min="11274" max="11274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="30"/>
-    <col min="11521" max="11521" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11526" max="11526" width="8.140625" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="9.140625" style="30"/>
-    <col min="11528" max="11528" width="20.140625" style="30" customWidth="1"/>
-    <col min="11529" max="11529" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11275" max="11520" width="9.125" style="30"/>
+    <col min="11521" max="11521" width="13.375" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="21.875" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="29.25" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="32.625" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="19.25" style="30" customWidth="1"/>
+    <col min="11526" max="11526" width="8.125" style="30" customWidth="1"/>
+    <col min="11527" max="11527" width="9.125" style="30"/>
+    <col min="11528" max="11528" width="20.125" style="30" customWidth="1"/>
+    <col min="11529" max="11529" width="9.375" style="30" customWidth="1"/>
     <col min="11530" max="11530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="30"/>
-    <col min="11777" max="11777" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11782" max="11782" width="8.140625" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="9.140625" style="30"/>
-    <col min="11784" max="11784" width="20.140625" style="30" customWidth="1"/>
-    <col min="11785" max="11785" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11531" max="11776" width="9.125" style="30"/>
+    <col min="11777" max="11777" width="13.375" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="21.875" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="29.25" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="32.625" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="19.25" style="30" customWidth="1"/>
+    <col min="11782" max="11782" width="8.125" style="30" customWidth="1"/>
+    <col min="11783" max="11783" width="9.125" style="30"/>
+    <col min="11784" max="11784" width="20.125" style="30" customWidth="1"/>
+    <col min="11785" max="11785" width="9.375" style="30" customWidth="1"/>
     <col min="11786" max="11786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="30"/>
-    <col min="12033" max="12033" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12038" max="12038" width="8.140625" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="9.140625" style="30"/>
-    <col min="12040" max="12040" width="20.140625" style="30" customWidth="1"/>
-    <col min="12041" max="12041" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11787" max="12032" width="9.125" style="30"/>
+    <col min="12033" max="12033" width="13.375" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="21.875" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="29.25" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="32.625" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="19.25" style="30" customWidth="1"/>
+    <col min="12038" max="12038" width="8.125" style="30" customWidth="1"/>
+    <col min="12039" max="12039" width="9.125" style="30"/>
+    <col min="12040" max="12040" width="20.125" style="30" customWidth="1"/>
+    <col min="12041" max="12041" width="9.375" style="30" customWidth="1"/>
     <col min="12042" max="12042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="30"/>
-    <col min="12289" max="12289" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12294" max="12294" width="8.140625" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="9.140625" style="30"/>
-    <col min="12296" max="12296" width="20.140625" style="30" customWidth="1"/>
-    <col min="12297" max="12297" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12043" max="12288" width="9.125" style="30"/>
+    <col min="12289" max="12289" width="13.375" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="21.875" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="29.25" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="32.625" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="19.25" style="30" customWidth="1"/>
+    <col min="12294" max="12294" width="8.125" style="30" customWidth="1"/>
+    <col min="12295" max="12295" width="9.125" style="30"/>
+    <col min="12296" max="12296" width="20.125" style="30" customWidth="1"/>
+    <col min="12297" max="12297" width="9.375" style="30" customWidth="1"/>
     <col min="12298" max="12298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="30"/>
-    <col min="12545" max="12545" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12550" max="12550" width="8.140625" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="9.140625" style="30"/>
-    <col min="12552" max="12552" width="20.140625" style="30" customWidth="1"/>
-    <col min="12553" max="12553" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12299" max="12544" width="9.125" style="30"/>
+    <col min="12545" max="12545" width="13.375" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="21.875" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="29.25" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="32.625" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="19.25" style="30" customWidth="1"/>
+    <col min="12550" max="12550" width="8.125" style="30" customWidth="1"/>
+    <col min="12551" max="12551" width="9.125" style="30"/>
+    <col min="12552" max="12552" width="20.125" style="30" customWidth="1"/>
+    <col min="12553" max="12553" width="9.375" style="30" customWidth="1"/>
     <col min="12554" max="12554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="30"/>
-    <col min="12801" max="12801" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12806" max="12806" width="8.140625" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="9.140625" style="30"/>
-    <col min="12808" max="12808" width="20.140625" style="30" customWidth="1"/>
-    <col min="12809" max="12809" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12555" max="12800" width="9.125" style="30"/>
+    <col min="12801" max="12801" width="13.375" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="21.875" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="29.25" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="32.625" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="19.25" style="30" customWidth="1"/>
+    <col min="12806" max="12806" width="8.125" style="30" customWidth="1"/>
+    <col min="12807" max="12807" width="9.125" style="30"/>
+    <col min="12808" max="12808" width="20.125" style="30" customWidth="1"/>
+    <col min="12809" max="12809" width="9.375" style="30" customWidth="1"/>
     <col min="12810" max="12810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="30"/>
-    <col min="13057" max="13057" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13062" max="13062" width="8.140625" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="9.140625" style="30"/>
-    <col min="13064" max="13064" width="20.140625" style="30" customWidth="1"/>
-    <col min="13065" max="13065" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12811" max="13056" width="9.125" style="30"/>
+    <col min="13057" max="13057" width="13.375" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="21.875" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="29.25" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="32.625" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="19.25" style="30" customWidth="1"/>
+    <col min="13062" max="13062" width="8.125" style="30" customWidth="1"/>
+    <col min="13063" max="13063" width="9.125" style="30"/>
+    <col min="13064" max="13064" width="20.125" style="30" customWidth="1"/>
+    <col min="13065" max="13065" width="9.375" style="30" customWidth="1"/>
     <col min="13066" max="13066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="30"/>
-    <col min="13313" max="13313" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13318" max="13318" width="8.140625" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="9.140625" style="30"/>
-    <col min="13320" max="13320" width="20.140625" style="30" customWidth="1"/>
-    <col min="13321" max="13321" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13067" max="13312" width="9.125" style="30"/>
+    <col min="13313" max="13313" width="13.375" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="21.875" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="29.25" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="32.625" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="19.25" style="30" customWidth="1"/>
+    <col min="13318" max="13318" width="8.125" style="30" customWidth="1"/>
+    <col min="13319" max="13319" width="9.125" style="30"/>
+    <col min="13320" max="13320" width="20.125" style="30" customWidth="1"/>
+    <col min="13321" max="13321" width="9.375" style="30" customWidth="1"/>
     <col min="13322" max="13322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="30"/>
-    <col min="13569" max="13569" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13574" max="13574" width="8.140625" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="9.140625" style="30"/>
-    <col min="13576" max="13576" width="20.140625" style="30" customWidth="1"/>
-    <col min="13577" max="13577" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13323" max="13568" width="9.125" style="30"/>
+    <col min="13569" max="13569" width="13.375" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="21.875" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="29.25" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="32.625" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="19.25" style="30" customWidth="1"/>
+    <col min="13574" max="13574" width="8.125" style="30" customWidth="1"/>
+    <col min="13575" max="13575" width="9.125" style="30"/>
+    <col min="13576" max="13576" width="20.125" style="30" customWidth="1"/>
+    <col min="13577" max="13577" width="9.375" style="30" customWidth="1"/>
     <col min="13578" max="13578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="30"/>
-    <col min="13825" max="13825" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13830" max="13830" width="8.140625" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="9.140625" style="30"/>
-    <col min="13832" max="13832" width="20.140625" style="30" customWidth="1"/>
-    <col min="13833" max="13833" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13579" max="13824" width="9.125" style="30"/>
+    <col min="13825" max="13825" width="13.375" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="21.875" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="29.25" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="32.625" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="19.25" style="30" customWidth="1"/>
+    <col min="13830" max="13830" width="8.125" style="30" customWidth="1"/>
+    <col min="13831" max="13831" width="9.125" style="30"/>
+    <col min="13832" max="13832" width="20.125" style="30" customWidth="1"/>
+    <col min="13833" max="13833" width="9.375" style="30" customWidth="1"/>
     <col min="13834" max="13834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="30"/>
-    <col min="14081" max="14081" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14086" max="14086" width="8.140625" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="9.140625" style="30"/>
-    <col min="14088" max="14088" width="20.140625" style="30" customWidth="1"/>
-    <col min="14089" max="14089" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13835" max="14080" width="9.125" style="30"/>
+    <col min="14081" max="14081" width="13.375" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="21.875" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="29.25" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="32.625" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="19.25" style="30" customWidth="1"/>
+    <col min="14086" max="14086" width="8.125" style="30" customWidth="1"/>
+    <col min="14087" max="14087" width="9.125" style="30"/>
+    <col min="14088" max="14088" width="20.125" style="30" customWidth="1"/>
+    <col min="14089" max="14089" width="9.375" style="30" customWidth="1"/>
     <col min="14090" max="14090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="30"/>
-    <col min="14337" max="14337" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14342" max="14342" width="8.140625" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="9.140625" style="30"/>
-    <col min="14344" max="14344" width="20.140625" style="30" customWidth="1"/>
-    <col min="14345" max="14345" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14091" max="14336" width="9.125" style="30"/>
+    <col min="14337" max="14337" width="13.375" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="21.875" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="29.25" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="32.625" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="19.25" style="30" customWidth="1"/>
+    <col min="14342" max="14342" width="8.125" style="30" customWidth="1"/>
+    <col min="14343" max="14343" width="9.125" style="30"/>
+    <col min="14344" max="14344" width="20.125" style="30" customWidth="1"/>
+    <col min="14345" max="14345" width="9.375" style="30" customWidth="1"/>
     <col min="14346" max="14346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="30"/>
-    <col min="14593" max="14593" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14598" max="14598" width="8.140625" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="9.140625" style="30"/>
-    <col min="14600" max="14600" width="20.140625" style="30" customWidth="1"/>
-    <col min="14601" max="14601" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14347" max="14592" width="9.125" style="30"/>
+    <col min="14593" max="14593" width="13.375" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="21.875" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="29.25" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="32.625" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="19.25" style="30" customWidth="1"/>
+    <col min="14598" max="14598" width="8.125" style="30" customWidth="1"/>
+    <col min="14599" max="14599" width="9.125" style="30"/>
+    <col min="14600" max="14600" width="20.125" style="30" customWidth="1"/>
+    <col min="14601" max="14601" width="9.375" style="30" customWidth="1"/>
     <col min="14602" max="14602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="30"/>
-    <col min="14849" max="14849" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14854" max="14854" width="8.140625" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="9.140625" style="30"/>
-    <col min="14856" max="14856" width="20.140625" style="30" customWidth="1"/>
-    <col min="14857" max="14857" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14603" max="14848" width="9.125" style="30"/>
+    <col min="14849" max="14849" width="13.375" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="21.875" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="29.25" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="32.625" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="19.25" style="30" customWidth="1"/>
+    <col min="14854" max="14854" width="8.125" style="30" customWidth="1"/>
+    <col min="14855" max="14855" width="9.125" style="30"/>
+    <col min="14856" max="14856" width="20.125" style="30" customWidth="1"/>
+    <col min="14857" max="14857" width="9.375" style="30" customWidth="1"/>
     <col min="14858" max="14858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="30"/>
-    <col min="15105" max="15105" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15110" max="15110" width="8.140625" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="9.140625" style="30"/>
-    <col min="15112" max="15112" width="20.140625" style="30" customWidth="1"/>
-    <col min="15113" max="15113" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14859" max="15104" width="9.125" style="30"/>
+    <col min="15105" max="15105" width="13.375" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="21.875" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="29.25" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="32.625" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="19.25" style="30" customWidth="1"/>
+    <col min="15110" max="15110" width="8.125" style="30" customWidth="1"/>
+    <col min="15111" max="15111" width="9.125" style="30"/>
+    <col min="15112" max="15112" width="20.125" style="30" customWidth="1"/>
+    <col min="15113" max="15113" width="9.375" style="30" customWidth="1"/>
     <col min="15114" max="15114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="30"/>
-    <col min="15361" max="15361" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15366" max="15366" width="8.140625" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="9.140625" style="30"/>
-    <col min="15368" max="15368" width="20.140625" style="30" customWidth="1"/>
-    <col min="15369" max="15369" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15115" max="15360" width="9.125" style="30"/>
+    <col min="15361" max="15361" width="13.375" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="21.875" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="29.25" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="32.625" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="19.25" style="30" customWidth="1"/>
+    <col min="15366" max="15366" width="8.125" style="30" customWidth="1"/>
+    <col min="15367" max="15367" width="9.125" style="30"/>
+    <col min="15368" max="15368" width="20.125" style="30" customWidth="1"/>
+    <col min="15369" max="15369" width="9.375" style="30" customWidth="1"/>
     <col min="15370" max="15370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="30"/>
-    <col min="15617" max="15617" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15622" max="15622" width="8.140625" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="9.140625" style="30"/>
-    <col min="15624" max="15624" width="20.140625" style="30" customWidth="1"/>
-    <col min="15625" max="15625" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15371" max="15616" width="9.125" style="30"/>
+    <col min="15617" max="15617" width="13.375" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="21.875" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="29.25" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="32.625" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="19.25" style="30" customWidth="1"/>
+    <col min="15622" max="15622" width="8.125" style="30" customWidth="1"/>
+    <col min="15623" max="15623" width="9.125" style="30"/>
+    <col min="15624" max="15624" width="20.125" style="30" customWidth="1"/>
+    <col min="15625" max="15625" width="9.375" style="30" customWidth="1"/>
     <col min="15626" max="15626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="30"/>
-    <col min="15873" max="15873" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15878" max="15878" width="8.140625" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="9.140625" style="30"/>
-    <col min="15880" max="15880" width="20.140625" style="30" customWidth="1"/>
-    <col min="15881" max="15881" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15627" max="15872" width="9.125" style="30"/>
+    <col min="15873" max="15873" width="13.375" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="21.875" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="29.25" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="32.625" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="19.25" style="30" customWidth="1"/>
+    <col min="15878" max="15878" width="8.125" style="30" customWidth="1"/>
+    <col min="15879" max="15879" width="9.125" style="30"/>
+    <col min="15880" max="15880" width="20.125" style="30" customWidth="1"/>
+    <col min="15881" max="15881" width="9.375" style="30" customWidth="1"/>
     <col min="15882" max="15882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="30"/>
-    <col min="16129" max="16129" width="13.42578125" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="21.85546875" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="29.28515625" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="32.5703125" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="19.28515625" style="30" customWidth="1"/>
-    <col min="16134" max="16134" width="8.140625" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="9.140625" style="30"/>
-    <col min="16136" max="16136" width="20.140625" style="30" customWidth="1"/>
-    <col min="16137" max="16137" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15883" max="16128" width="9.125" style="30"/>
+    <col min="16129" max="16129" width="13.375" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="21.875" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="29.25" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="32.625" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="19.25" style="30" customWidth="1"/>
+    <col min="16134" max="16134" width="8.125" style="30" customWidth="1"/>
+    <col min="16135" max="16135" width="9.125" style="30"/>
+    <col min="16136" max="16136" width="20.125" style="30" customWidth="1"/>
+    <col min="16137" max="16137" width="9.375" style="30" customWidth="1"/>
     <col min="16138" max="16138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="30"/>
+    <col min="16139" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -5007,17 +5023,17 @@
       <c r="H1" s="41"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="69"/>
       <c r="H2" s="41"/>
       <c r="I2" s="66"/>
@@ -5025,17 +5041,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="69"/>
       <c r="H3" s="41"/>
       <c r="I3" s="66"/>
@@ -5043,21 +5059,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="69"/>
       <c r="H4" s="41"/>
       <c r="I4" s="66"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
@@ -5070,10 +5086,10 @@
       <c r="D5" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
       <c r="I5" s="76"/>
@@ -5081,7 +5097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="77">
         <f>COUNTIF(F10:F995,"Pass")</f>
         <v>0</v>
@@ -5098,11 +5114,11 @@
         <f>COUNTIF(F$10:F$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="150">
         <f>COUNTA(A10:A995)</f>
         <v>19</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="150"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
       <c r="I6" s="76"/>
@@ -5110,7 +5126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="75"/>
@@ -5118,7 +5134,7 @@
       <c r="H7" s="75"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
@@ -5145,7 +5161,7 @@
       </c>
       <c r="I8" s="83"/>
     </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
         <v>117</v>
@@ -5158,7 +5174,7 @@
       <c r="H9" s="86"/>
       <c r="I9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="76.5">
       <c r="A10" s="88" t="s">
         <v>51</v>
       </c>
@@ -5177,7 +5193,7 @@
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="114.75">
       <c r="A11" s="88" t="s">
         <v>54</v>
       </c>
@@ -5198,7 +5214,7 @@
       <c r="H11" s="90"/>
       <c r="I11" s="91"/>
     </row>
-    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="51">
       <c r="A12" s="93" t="s">
         <v>57</v>
       </c>
@@ -5221,7 +5237,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="63.75">
       <c r="A13" s="93" t="s">
         <v>60</v>
       </c>
@@ -5244,7 +5260,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="127.5">
       <c r="A14" s="93" t="s">
         <v>63</v>
       </c>
@@ -5267,7 +5283,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="51">
       <c r="A15" s="93" t="s">
         <v>67</v>
       </c>
@@ -5290,7 +5306,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="51">
       <c r="A16" s="93" t="s">
         <v>70</v>
       </c>
@@ -5313,7 +5329,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="127.5">
       <c r="A17" s="93" t="s">
         <v>72</v>
       </c>
@@ -5333,7 +5349,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="51">
       <c r="A18" s="93" t="s">
         <v>76</v>
       </c>
@@ -5354,7 +5370,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="100"/>
     </row>
-    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="51">
       <c r="A19" s="93" t="s">
         <v>79</v>
       </c>
@@ -5377,7 +5393,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="127.5">
       <c r="A20" s="93" t="s">
         <v>82</v>
       </c>
@@ -5397,7 +5413,7 @@
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="51">
       <c r="A21" s="93" t="s">
         <v>86</v>
       </c>
@@ -5420,7 +5436,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="51">
       <c r="A22" s="93" t="s">
         <v>89</v>
       </c>
@@ -5440,7 +5456,7 @@
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
-    <row r="23" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="127.5">
       <c r="A23" s="93" t="s">
         <v>91</v>
       </c>
@@ -5460,7 +5476,7 @@
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="51">
       <c r="A24" s="93" t="s">
         <v>95</v>
       </c>
@@ -5480,7 +5496,7 @@
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
-    <row r="25" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="51">
       <c r="A25" s="93" t="s">
         <v>97</v>
       </c>
@@ -5500,7 +5516,7 @@
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
-    <row r="26" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="165.75">
       <c r="A26" s="93" t="s">
         <v>99</v>
       </c>
@@ -5520,7 +5536,7 @@
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
-    <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="63.75">
       <c r="A27" s="93" t="s">
         <v>103</v>
       </c>
@@ -5540,7 +5556,7 @@
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="51">
       <c r="A28" s="93" t="s">
         <v>105</v>
       </c>
@@ -5560,7 +5576,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
-    <row r="31" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="69.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A8:H13"/>
   <mergeCells count="5">
@@ -5588,722 +5604,722 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="30" customWidth="1"/>
     <col min="2" max="2" width="23" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="102"/>
-    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="101" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="102"/>
+    <col min="8" max="8" width="20.125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="101" customWidth="1"/>
     <col min="10" max="10" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="30"/>
-    <col min="257" max="257" width="13.140625" style="30" customWidth="1"/>
-    <col min="258" max="258" width="21.85546875" style="30" customWidth="1"/>
-    <col min="259" max="259" width="29.28515625" style="30" customWidth="1"/>
-    <col min="260" max="260" width="34.42578125" style="30" customWidth="1"/>
-    <col min="261" max="261" width="19.28515625" style="30" customWidth="1"/>
-    <col min="262" max="262" width="8.140625" style="30" customWidth="1"/>
-    <col min="263" max="263" width="9.140625" style="30"/>
-    <col min="264" max="264" width="20.140625" style="30" customWidth="1"/>
-    <col min="265" max="265" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11" max="256" width="9.125" style="30"/>
+    <col min="257" max="257" width="13.125" style="30" customWidth="1"/>
+    <col min="258" max="258" width="21.875" style="30" customWidth="1"/>
+    <col min="259" max="259" width="29.25" style="30" customWidth="1"/>
+    <col min="260" max="260" width="34.375" style="30" customWidth="1"/>
+    <col min="261" max="261" width="19.25" style="30" customWidth="1"/>
+    <col min="262" max="262" width="8.125" style="30" customWidth="1"/>
+    <col min="263" max="263" width="9.125" style="30"/>
+    <col min="264" max="264" width="20.125" style="30" customWidth="1"/>
+    <col min="265" max="265" width="9.375" style="30" customWidth="1"/>
     <col min="266" max="266" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="30"/>
-    <col min="513" max="513" width="13.140625" style="30" customWidth="1"/>
-    <col min="514" max="514" width="21.85546875" style="30" customWidth="1"/>
-    <col min="515" max="515" width="29.28515625" style="30" customWidth="1"/>
-    <col min="516" max="516" width="34.42578125" style="30" customWidth="1"/>
-    <col min="517" max="517" width="19.28515625" style="30" customWidth="1"/>
-    <col min="518" max="518" width="8.140625" style="30" customWidth="1"/>
-    <col min="519" max="519" width="9.140625" style="30"/>
-    <col min="520" max="520" width="20.140625" style="30" customWidth="1"/>
-    <col min="521" max="521" width="9.42578125" style="30" customWidth="1"/>
+    <col min="267" max="512" width="9.125" style="30"/>
+    <col min="513" max="513" width="13.125" style="30" customWidth="1"/>
+    <col min="514" max="514" width="21.875" style="30" customWidth="1"/>
+    <col min="515" max="515" width="29.25" style="30" customWidth="1"/>
+    <col min="516" max="516" width="34.375" style="30" customWidth="1"/>
+    <col min="517" max="517" width="19.25" style="30" customWidth="1"/>
+    <col min="518" max="518" width="8.125" style="30" customWidth="1"/>
+    <col min="519" max="519" width="9.125" style="30"/>
+    <col min="520" max="520" width="20.125" style="30" customWidth="1"/>
+    <col min="521" max="521" width="9.375" style="30" customWidth="1"/>
     <col min="522" max="522" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="30"/>
-    <col min="769" max="769" width="13.140625" style="30" customWidth="1"/>
-    <col min="770" max="770" width="21.85546875" style="30" customWidth="1"/>
-    <col min="771" max="771" width="29.28515625" style="30" customWidth="1"/>
-    <col min="772" max="772" width="34.42578125" style="30" customWidth="1"/>
-    <col min="773" max="773" width="19.28515625" style="30" customWidth="1"/>
-    <col min="774" max="774" width="8.140625" style="30" customWidth="1"/>
-    <col min="775" max="775" width="9.140625" style="30"/>
-    <col min="776" max="776" width="20.140625" style="30" customWidth="1"/>
-    <col min="777" max="777" width="9.42578125" style="30" customWidth="1"/>
+    <col min="523" max="768" width="9.125" style="30"/>
+    <col min="769" max="769" width="13.125" style="30" customWidth="1"/>
+    <col min="770" max="770" width="21.875" style="30" customWidth="1"/>
+    <col min="771" max="771" width="29.25" style="30" customWidth="1"/>
+    <col min="772" max="772" width="34.375" style="30" customWidth="1"/>
+    <col min="773" max="773" width="19.25" style="30" customWidth="1"/>
+    <col min="774" max="774" width="8.125" style="30" customWidth="1"/>
+    <col min="775" max="775" width="9.125" style="30"/>
+    <col min="776" max="776" width="20.125" style="30" customWidth="1"/>
+    <col min="777" max="777" width="9.375" style="30" customWidth="1"/>
     <col min="778" max="778" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="30"/>
-    <col min="1025" max="1025" width="13.140625" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1030" max="1030" width="8.140625" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="9.140625" style="30"/>
-    <col min="1032" max="1032" width="20.140625" style="30" customWidth="1"/>
-    <col min="1033" max="1033" width="9.42578125" style="30" customWidth="1"/>
+    <col min="779" max="1024" width="9.125" style="30"/>
+    <col min="1025" max="1025" width="13.125" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="21.875" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="29.25" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="34.375" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="19.25" style="30" customWidth="1"/>
+    <col min="1030" max="1030" width="8.125" style="30" customWidth="1"/>
+    <col min="1031" max="1031" width="9.125" style="30"/>
+    <col min="1032" max="1032" width="20.125" style="30" customWidth="1"/>
+    <col min="1033" max="1033" width="9.375" style="30" customWidth="1"/>
     <col min="1034" max="1034" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="30"/>
-    <col min="1281" max="1281" width="13.140625" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1286" max="1286" width="8.140625" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="9.140625" style="30"/>
-    <col min="1288" max="1288" width="20.140625" style="30" customWidth="1"/>
-    <col min="1289" max="1289" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1035" max="1280" width="9.125" style="30"/>
+    <col min="1281" max="1281" width="13.125" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="21.875" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="29.25" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="34.375" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="19.25" style="30" customWidth="1"/>
+    <col min="1286" max="1286" width="8.125" style="30" customWidth="1"/>
+    <col min="1287" max="1287" width="9.125" style="30"/>
+    <col min="1288" max="1288" width="20.125" style="30" customWidth="1"/>
+    <col min="1289" max="1289" width="9.375" style="30" customWidth="1"/>
     <col min="1290" max="1290" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="30"/>
-    <col min="1537" max="1537" width="13.140625" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1542" max="1542" width="8.140625" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="9.140625" style="30"/>
-    <col min="1544" max="1544" width="20.140625" style="30" customWidth="1"/>
-    <col min="1545" max="1545" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1291" max="1536" width="9.125" style="30"/>
+    <col min="1537" max="1537" width="13.125" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="21.875" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="29.25" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="34.375" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="19.25" style="30" customWidth="1"/>
+    <col min="1542" max="1542" width="8.125" style="30" customWidth="1"/>
+    <col min="1543" max="1543" width="9.125" style="30"/>
+    <col min="1544" max="1544" width="20.125" style="30" customWidth="1"/>
+    <col min="1545" max="1545" width="9.375" style="30" customWidth="1"/>
     <col min="1546" max="1546" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="30"/>
-    <col min="1793" max="1793" width="13.140625" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1798" max="1798" width="8.140625" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="9.140625" style="30"/>
-    <col min="1800" max="1800" width="20.140625" style="30" customWidth="1"/>
-    <col min="1801" max="1801" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1547" max="1792" width="9.125" style="30"/>
+    <col min="1793" max="1793" width="13.125" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="21.875" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="29.25" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="34.375" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="19.25" style="30" customWidth="1"/>
+    <col min="1798" max="1798" width="8.125" style="30" customWidth="1"/>
+    <col min="1799" max="1799" width="9.125" style="30"/>
+    <col min="1800" max="1800" width="20.125" style="30" customWidth="1"/>
+    <col min="1801" max="1801" width="9.375" style="30" customWidth="1"/>
     <col min="1802" max="1802" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="30"/>
-    <col min="2049" max="2049" width="13.140625" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2054" max="2054" width="8.140625" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="9.140625" style="30"/>
-    <col min="2056" max="2056" width="20.140625" style="30" customWidth="1"/>
-    <col min="2057" max="2057" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1803" max="2048" width="9.125" style="30"/>
+    <col min="2049" max="2049" width="13.125" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="21.875" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="29.25" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="34.375" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="19.25" style="30" customWidth="1"/>
+    <col min="2054" max="2054" width="8.125" style="30" customWidth="1"/>
+    <col min="2055" max="2055" width="9.125" style="30"/>
+    <col min="2056" max="2056" width="20.125" style="30" customWidth="1"/>
+    <col min="2057" max="2057" width="9.375" style="30" customWidth="1"/>
     <col min="2058" max="2058" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="30"/>
-    <col min="2305" max="2305" width="13.140625" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2310" max="2310" width="8.140625" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="9.140625" style="30"/>
-    <col min="2312" max="2312" width="20.140625" style="30" customWidth="1"/>
-    <col min="2313" max="2313" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2059" max="2304" width="9.125" style="30"/>
+    <col min="2305" max="2305" width="13.125" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="21.875" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="29.25" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="34.375" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="19.25" style="30" customWidth="1"/>
+    <col min="2310" max="2310" width="8.125" style="30" customWidth="1"/>
+    <col min="2311" max="2311" width="9.125" style="30"/>
+    <col min="2312" max="2312" width="20.125" style="30" customWidth="1"/>
+    <col min="2313" max="2313" width="9.375" style="30" customWidth="1"/>
     <col min="2314" max="2314" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="30"/>
-    <col min="2561" max="2561" width="13.140625" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2566" max="2566" width="8.140625" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="9.140625" style="30"/>
-    <col min="2568" max="2568" width="20.140625" style="30" customWidth="1"/>
-    <col min="2569" max="2569" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2315" max="2560" width="9.125" style="30"/>
+    <col min="2561" max="2561" width="13.125" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="21.875" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="29.25" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="34.375" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="19.25" style="30" customWidth="1"/>
+    <col min="2566" max="2566" width="8.125" style="30" customWidth="1"/>
+    <col min="2567" max="2567" width="9.125" style="30"/>
+    <col min="2568" max="2568" width="20.125" style="30" customWidth="1"/>
+    <col min="2569" max="2569" width="9.375" style="30" customWidth="1"/>
     <col min="2570" max="2570" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="30"/>
-    <col min="2817" max="2817" width="13.140625" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2822" max="2822" width="8.140625" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="9.140625" style="30"/>
-    <col min="2824" max="2824" width="20.140625" style="30" customWidth="1"/>
-    <col min="2825" max="2825" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2571" max="2816" width="9.125" style="30"/>
+    <col min="2817" max="2817" width="13.125" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="21.875" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="29.25" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="34.375" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="19.25" style="30" customWidth="1"/>
+    <col min="2822" max="2822" width="8.125" style="30" customWidth="1"/>
+    <col min="2823" max="2823" width="9.125" style="30"/>
+    <col min="2824" max="2824" width="20.125" style="30" customWidth="1"/>
+    <col min="2825" max="2825" width="9.375" style="30" customWidth="1"/>
     <col min="2826" max="2826" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="30"/>
-    <col min="3073" max="3073" width="13.140625" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3078" max="3078" width="8.140625" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="9.140625" style="30"/>
-    <col min="3080" max="3080" width="20.140625" style="30" customWidth="1"/>
-    <col min="3081" max="3081" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2827" max="3072" width="9.125" style="30"/>
+    <col min="3073" max="3073" width="13.125" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="21.875" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="29.25" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="34.375" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="19.25" style="30" customWidth="1"/>
+    <col min="3078" max="3078" width="8.125" style="30" customWidth="1"/>
+    <col min="3079" max="3079" width="9.125" style="30"/>
+    <col min="3080" max="3080" width="20.125" style="30" customWidth="1"/>
+    <col min="3081" max="3081" width="9.375" style="30" customWidth="1"/>
     <col min="3082" max="3082" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="30"/>
-    <col min="3329" max="3329" width="13.140625" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3334" max="3334" width="8.140625" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="9.140625" style="30"/>
-    <col min="3336" max="3336" width="20.140625" style="30" customWidth="1"/>
-    <col min="3337" max="3337" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3083" max="3328" width="9.125" style="30"/>
+    <col min="3329" max="3329" width="13.125" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="21.875" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="29.25" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="34.375" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="19.25" style="30" customWidth="1"/>
+    <col min="3334" max="3334" width="8.125" style="30" customWidth="1"/>
+    <col min="3335" max="3335" width="9.125" style="30"/>
+    <col min="3336" max="3336" width="20.125" style="30" customWidth="1"/>
+    <col min="3337" max="3337" width="9.375" style="30" customWidth="1"/>
     <col min="3338" max="3338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="30"/>
-    <col min="3585" max="3585" width="13.140625" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3590" max="3590" width="8.140625" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="9.140625" style="30"/>
-    <col min="3592" max="3592" width="20.140625" style="30" customWidth="1"/>
-    <col min="3593" max="3593" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3339" max="3584" width="9.125" style="30"/>
+    <col min="3585" max="3585" width="13.125" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="21.875" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="29.25" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="34.375" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="19.25" style="30" customWidth="1"/>
+    <col min="3590" max="3590" width="8.125" style="30" customWidth="1"/>
+    <col min="3591" max="3591" width="9.125" style="30"/>
+    <col min="3592" max="3592" width="20.125" style="30" customWidth="1"/>
+    <col min="3593" max="3593" width="9.375" style="30" customWidth="1"/>
     <col min="3594" max="3594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="30"/>
-    <col min="3841" max="3841" width="13.140625" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3846" max="3846" width="8.140625" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="9.140625" style="30"/>
-    <col min="3848" max="3848" width="20.140625" style="30" customWidth="1"/>
-    <col min="3849" max="3849" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3595" max="3840" width="9.125" style="30"/>
+    <col min="3841" max="3841" width="13.125" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="21.875" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="29.25" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="34.375" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="19.25" style="30" customWidth="1"/>
+    <col min="3846" max="3846" width="8.125" style="30" customWidth="1"/>
+    <col min="3847" max="3847" width="9.125" style="30"/>
+    <col min="3848" max="3848" width="20.125" style="30" customWidth="1"/>
+    <col min="3849" max="3849" width="9.375" style="30" customWidth="1"/>
     <col min="3850" max="3850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="30"/>
-    <col min="4097" max="4097" width="13.140625" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4102" max="4102" width="8.140625" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="9.140625" style="30"/>
-    <col min="4104" max="4104" width="20.140625" style="30" customWidth="1"/>
-    <col min="4105" max="4105" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3851" max="4096" width="9.125" style="30"/>
+    <col min="4097" max="4097" width="13.125" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="21.875" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="29.25" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="34.375" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="19.25" style="30" customWidth="1"/>
+    <col min="4102" max="4102" width="8.125" style="30" customWidth="1"/>
+    <col min="4103" max="4103" width="9.125" style="30"/>
+    <col min="4104" max="4104" width="20.125" style="30" customWidth="1"/>
+    <col min="4105" max="4105" width="9.375" style="30" customWidth="1"/>
     <col min="4106" max="4106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="30"/>
-    <col min="4353" max="4353" width="13.140625" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4358" max="4358" width="8.140625" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="9.140625" style="30"/>
-    <col min="4360" max="4360" width="20.140625" style="30" customWidth="1"/>
-    <col min="4361" max="4361" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4107" max="4352" width="9.125" style="30"/>
+    <col min="4353" max="4353" width="13.125" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="21.875" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="29.25" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="34.375" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="19.25" style="30" customWidth="1"/>
+    <col min="4358" max="4358" width="8.125" style="30" customWidth="1"/>
+    <col min="4359" max="4359" width="9.125" style="30"/>
+    <col min="4360" max="4360" width="20.125" style="30" customWidth="1"/>
+    <col min="4361" max="4361" width="9.375" style="30" customWidth="1"/>
     <col min="4362" max="4362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="30"/>
-    <col min="4609" max="4609" width="13.140625" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4614" max="4614" width="8.140625" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="9.140625" style="30"/>
-    <col min="4616" max="4616" width="20.140625" style="30" customWidth="1"/>
-    <col min="4617" max="4617" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4363" max="4608" width="9.125" style="30"/>
+    <col min="4609" max="4609" width="13.125" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="21.875" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="29.25" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="34.375" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="19.25" style="30" customWidth="1"/>
+    <col min="4614" max="4614" width="8.125" style="30" customWidth="1"/>
+    <col min="4615" max="4615" width="9.125" style="30"/>
+    <col min="4616" max="4616" width="20.125" style="30" customWidth="1"/>
+    <col min="4617" max="4617" width="9.375" style="30" customWidth="1"/>
     <col min="4618" max="4618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="30"/>
-    <col min="4865" max="4865" width="13.140625" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4870" max="4870" width="8.140625" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="9.140625" style="30"/>
-    <col min="4872" max="4872" width="20.140625" style="30" customWidth="1"/>
-    <col min="4873" max="4873" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4619" max="4864" width="9.125" style="30"/>
+    <col min="4865" max="4865" width="13.125" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="21.875" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="29.25" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="34.375" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="19.25" style="30" customWidth="1"/>
+    <col min="4870" max="4870" width="8.125" style="30" customWidth="1"/>
+    <col min="4871" max="4871" width="9.125" style="30"/>
+    <col min="4872" max="4872" width="20.125" style="30" customWidth="1"/>
+    <col min="4873" max="4873" width="9.375" style="30" customWidth="1"/>
     <col min="4874" max="4874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="30"/>
-    <col min="5121" max="5121" width="13.140625" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5126" max="5126" width="8.140625" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="9.140625" style="30"/>
-    <col min="5128" max="5128" width="20.140625" style="30" customWidth="1"/>
-    <col min="5129" max="5129" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4875" max="5120" width="9.125" style="30"/>
+    <col min="5121" max="5121" width="13.125" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="21.875" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="29.25" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="34.375" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="19.25" style="30" customWidth="1"/>
+    <col min="5126" max="5126" width="8.125" style="30" customWidth="1"/>
+    <col min="5127" max="5127" width="9.125" style="30"/>
+    <col min="5128" max="5128" width="20.125" style="30" customWidth="1"/>
+    <col min="5129" max="5129" width="9.375" style="30" customWidth="1"/>
     <col min="5130" max="5130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="30"/>
-    <col min="5377" max="5377" width="13.140625" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5382" max="5382" width="8.140625" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="9.140625" style="30"/>
-    <col min="5384" max="5384" width="20.140625" style="30" customWidth="1"/>
-    <col min="5385" max="5385" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5131" max="5376" width="9.125" style="30"/>
+    <col min="5377" max="5377" width="13.125" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="21.875" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="29.25" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="34.375" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="19.25" style="30" customWidth="1"/>
+    <col min="5382" max="5382" width="8.125" style="30" customWidth="1"/>
+    <col min="5383" max="5383" width="9.125" style="30"/>
+    <col min="5384" max="5384" width="20.125" style="30" customWidth="1"/>
+    <col min="5385" max="5385" width="9.375" style="30" customWidth="1"/>
     <col min="5386" max="5386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="30"/>
-    <col min="5633" max="5633" width="13.140625" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5638" max="5638" width="8.140625" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="9.140625" style="30"/>
-    <col min="5640" max="5640" width="20.140625" style="30" customWidth="1"/>
-    <col min="5641" max="5641" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5387" max="5632" width="9.125" style="30"/>
+    <col min="5633" max="5633" width="13.125" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="21.875" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="29.25" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="34.375" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="19.25" style="30" customWidth="1"/>
+    <col min="5638" max="5638" width="8.125" style="30" customWidth="1"/>
+    <col min="5639" max="5639" width="9.125" style="30"/>
+    <col min="5640" max="5640" width="20.125" style="30" customWidth="1"/>
+    <col min="5641" max="5641" width="9.375" style="30" customWidth="1"/>
     <col min="5642" max="5642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="30"/>
-    <col min="5889" max="5889" width="13.140625" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5894" max="5894" width="8.140625" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="9.140625" style="30"/>
-    <col min="5896" max="5896" width="20.140625" style="30" customWidth="1"/>
-    <col min="5897" max="5897" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5643" max="5888" width="9.125" style="30"/>
+    <col min="5889" max="5889" width="13.125" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="21.875" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="29.25" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="34.375" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="19.25" style="30" customWidth="1"/>
+    <col min="5894" max="5894" width="8.125" style="30" customWidth="1"/>
+    <col min="5895" max="5895" width="9.125" style="30"/>
+    <col min="5896" max="5896" width="20.125" style="30" customWidth="1"/>
+    <col min="5897" max="5897" width="9.375" style="30" customWidth="1"/>
     <col min="5898" max="5898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="30"/>
-    <col min="6145" max="6145" width="13.140625" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6150" max="6150" width="8.140625" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="9.140625" style="30"/>
-    <col min="6152" max="6152" width="20.140625" style="30" customWidth="1"/>
-    <col min="6153" max="6153" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5899" max="6144" width="9.125" style="30"/>
+    <col min="6145" max="6145" width="13.125" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="21.875" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="29.25" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="34.375" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="19.25" style="30" customWidth="1"/>
+    <col min="6150" max="6150" width="8.125" style="30" customWidth="1"/>
+    <col min="6151" max="6151" width="9.125" style="30"/>
+    <col min="6152" max="6152" width="20.125" style="30" customWidth="1"/>
+    <col min="6153" max="6153" width="9.375" style="30" customWidth="1"/>
     <col min="6154" max="6154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="30"/>
-    <col min="6401" max="6401" width="13.140625" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6406" max="6406" width="8.140625" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="9.140625" style="30"/>
-    <col min="6408" max="6408" width="20.140625" style="30" customWidth="1"/>
-    <col min="6409" max="6409" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6155" max="6400" width="9.125" style="30"/>
+    <col min="6401" max="6401" width="13.125" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="21.875" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="29.25" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="34.375" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="19.25" style="30" customWidth="1"/>
+    <col min="6406" max="6406" width="8.125" style="30" customWidth="1"/>
+    <col min="6407" max="6407" width="9.125" style="30"/>
+    <col min="6408" max="6408" width="20.125" style="30" customWidth="1"/>
+    <col min="6409" max="6409" width="9.375" style="30" customWidth="1"/>
     <col min="6410" max="6410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="30"/>
-    <col min="6657" max="6657" width="13.140625" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6662" max="6662" width="8.140625" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="9.140625" style="30"/>
-    <col min="6664" max="6664" width="20.140625" style="30" customWidth="1"/>
-    <col min="6665" max="6665" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6411" max="6656" width="9.125" style="30"/>
+    <col min="6657" max="6657" width="13.125" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="21.875" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="29.25" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="34.375" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="19.25" style="30" customWidth="1"/>
+    <col min="6662" max="6662" width="8.125" style="30" customWidth="1"/>
+    <col min="6663" max="6663" width="9.125" style="30"/>
+    <col min="6664" max="6664" width="20.125" style="30" customWidth="1"/>
+    <col min="6665" max="6665" width="9.375" style="30" customWidth="1"/>
     <col min="6666" max="6666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="30"/>
-    <col min="6913" max="6913" width="13.140625" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6918" max="6918" width="8.140625" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="9.140625" style="30"/>
-    <col min="6920" max="6920" width="20.140625" style="30" customWidth="1"/>
-    <col min="6921" max="6921" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6667" max="6912" width="9.125" style="30"/>
+    <col min="6913" max="6913" width="13.125" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="21.875" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="29.25" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="34.375" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="19.25" style="30" customWidth="1"/>
+    <col min="6918" max="6918" width="8.125" style="30" customWidth="1"/>
+    <col min="6919" max="6919" width="9.125" style="30"/>
+    <col min="6920" max="6920" width="20.125" style="30" customWidth="1"/>
+    <col min="6921" max="6921" width="9.375" style="30" customWidth="1"/>
     <col min="6922" max="6922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="30"/>
-    <col min="7169" max="7169" width="13.140625" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7174" max="7174" width="8.140625" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="9.140625" style="30"/>
-    <col min="7176" max="7176" width="20.140625" style="30" customWidth="1"/>
-    <col min="7177" max="7177" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6923" max="7168" width="9.125" style="30"/>
+    <col min="7169" max="7169" width="13.125" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="21.875" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="29.25" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="34.375" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="19.25" style="30" customWidth="1"/>
+    <col min="7174" max="7174" width="8.125" style="30" customWidth="1"/>
+    <col min="7175" max="7175" width="9.125" style="30"/>
+    <col min="7176" max="7176" width="20.125" style="30" customWidth="1"/>
+    <col min="7177" max="7177" width="9.375" style="30" customWidth="1"/>
     <col min="7178" max="7178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="30"/>
-    <col min="7425" max="7425" width="13.140625" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7430" max="7430" width="8.140625" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="9.140625" style="30"/>
-    <col min="7432" max="7432" width="20.140625" style="30" customWidth="1"/>
-    <col min="7433" max="7433" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7179" max="7424" width="9.125" style="30"/>
+    <col min="7425" max="7425" width="13.125" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="21.875" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="29.25" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="34.375" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="19.25" style="30" customWidth="1"/>
+    <col min="7430" max="7430" width="8.125" style="30" customWidth="1"/>
+    <col min="7431" max="7431" width="9.125" style="30"/>
+    <col min="7432" max="7432" width="20.125" style="30" customWidth="1"/>
+    <col min="7433" max="7433" width="9.375" style="30" customWidth="1"/>
     <col min="7434" max="7434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="30"/>
-    <col min="7681" max="7681" width="13.140625" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7686" max="7686" width="8.140625" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="9.140625" style="30"/>
-    <col min="7688" max="7688" width="20.140625" style="30" customWidth="1"/>
-    <col min="7689" max="7689" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7435" max="7680" width="9.125" style="30"/>
+    <col min="7681" max="7681" width="13.125" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="21.875" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="29.25" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="34.375" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="19.25" style="30" customWidth="1"/>
+    <col min="7686" max="7686" width="8.125" style="30" customWidth="1"/>
+    <col min="7687" max="7687" width="9.125" style="30"/>
+    <col min="7688" max="7688" width="20.125" style="30" customWidth="1"/>
+    <col min="7689" max="7689" width="9.375" style="30" customWidth="1"/>
     <col min="7690" max="7690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="30"/>
-    <col min="7937" max="7937" width="13.140625" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7942" max="7942" width="8.140625" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="9.140625" style="30"/>
-    <col min="7944" max="7944" width="20.140625" style="30" customWidth="1"/>
-    <col min="7945" max="7945" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7691" max="7936" width="9.125" style="30"/>
+    <col min="7937" max="7937" width="13.125" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="21.875" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="29.25" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="34.375" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="19.25" style="30" customWidth="1"/>
+    <col min="7942" max="7942" width="8.125" style="30" customWidth="1"/>
+    <col min="7943" max="7943" width="9.125" style="30"/>
+    <col min="7944" max="7944" width="20.125" style="30" customWidth="1"/>
+    <col min="7945" max="7945" width="9.375" style="30" customWidth="1"/>
     <col min="7946" max="7946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="30"/>
-    <col min="8193" max="8193" width="13.140625" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8198" max="8198" width="8.140625" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="9.140625" style="30"/>
-    <col min="8200" max="8200" width="20.140625" style="30" customWidth="1"/>
-    <col min="8201" max="8201" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7947" max="8192" width="9.125" style="30"/>
+    <col min="8193" max="8193" width="13.125" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="21.875" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="29.25" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="34.375" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="19.25" style="30" customWidth="1"/>
+    <col min="8198" max="8198" width="8.125" style="30" customWidth="1"/>
+    <col min="8199" max="8199" width="9.125" style="30"/>
+    <col min="8200" max="8200" width="20.125" style="30" customWidth="1"/>
+    <col min="8201" max="8201" width="9.375" style="30" customWidth="1"/>
     <col min="8202" max="8202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="30"/>
-    <col min="8449" max="8449" width="13.140625" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8454" max="8454" width="8.140625" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="9.140625" style="30"/>
-    <col min="8456" max="8456" width="20.140625" style="30" customWidth="1"/>
-    <col min="8457" max="8457" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8203" max="8448" width="9.125" style="30"/>
+    <col min="8449" max="8449" width="13.125" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="21.875" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="29.25" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="34.375" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="19.25" style="30" customWidth="1"/>
+    <col min="8454" max="8454" width="8.125" style="30" customWidth="1"/>
+    <col min="8455" max="8455" width="9.125" style="30"/>
+    <col min="8456" max="8456" width="20.125" style="30" customWidth="1"/>
+    <col min="8457" max="8457" width="9.375" style="30" customWidth="1"/>
     <col min="8458" max="8458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="30"/>
-    <col min="8705" max="8705" width="13.140625" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8710" max="8710" width="8.140625" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="9.140625" style="30"/>
-    <col min="8712" max="8712" width="20.140625" style="30" customWidth="1"/>
-    <col min="8713" max="8713" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8459" max="8704" width="9.125" style="30"/>
+    <col min="8705" max="8705" width="13.125" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="21.875" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="29.25" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="34.375" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="19.25" style="30" customWidth="1"/>
+    <col min="8710" max="8710" width="8.125" style="30" customWidth="1"/>
+    <col min="8711" max="8711" width="9.125" style="30"/>
+    <col min="8712" max="8712" width="20.125" style="30" customWidth="1"/>
+    <col min="8713" max="8713" width="9.375" style="30" customWidth="1"/>
     <col min="8714" max="8714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="30"/>
-    <col min="8961" max="8961" width="13.140625" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8966" max="8966" width="8.140625" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="9.140625" style="30"/>
-    <col min="8968" max="8968" width="20.140625" style="30" customWidth="1"/>
-    <col min="8969" max="8969" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8715" max="8960" width="9.125" style="30"/>
+    <col min="8961" max="8961" width="13.125" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="21.875" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="29.25" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="34.375" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="19.25" style="30" customWidth="1"/>
+    <col min="8966" max="8966" width="8.125" style="30" customWidth="1"/>
+    <col min="8967" max="8967" width="9.125" style="30"/>
+    <col min="8968" max="8968" width="20.125" style="30" customWidth="1"/>
+    <col min="8969" max="8969" width="9.375" style="30" customWidth="1"/>
     <col min="8970" max="8970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="30"/>
-    <col min="9217" max="9217" width="13.140625" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9222" max="9222" width="8.140625" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="9.140625" style="30"/>
-    <col min="9224" max="9224" width="20.140625" style="30" customWidth="1"/>
-    <col min="9225" max="9225" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8971" max="9216" width="9.125" style="30"/>
+    <col min="9217" max="9217" width="13.125" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="21.875" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="29.25" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="34.375" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="19.25" style="30" customWidth="1"/>
+    <col min="9222" max="9222" width="8.125" style="30" customWidth="1"/>
+    <col min="9223" max="9223" width="9.125" style="30"/>
+    <col min="9224" max="9224" width="20.125" style="30" customWidth="1"/>
+    <col min="9225" max="9225" width="9.375" style="30" customWidth="1"/>
     <col min="9226" max="9226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="30"/>
-    <col min="9473" max="9473" width="13.140625" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9478" max="9478" width="8.140625" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="9.140625" style="30"/>
-    <col min="9480" max="9480" width="20.140625" style="30" customWidth="1"/>
-    <col min="9481" max="9481" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9227" max="9472" width="9.125" style="30"/>
+    <col min="9473" max="9473" width="13.125" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="21.875" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="29.25" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="34.375" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="19.25" style="30" customWidth="1"/>
+    <col min="9478" max="9478" width="8.125" style="30" customWidth="1"/>
+    <col min="9479" max="9479" width="9.125" style="30"/>
+    <col min="9480" max="9480" width="20.125" style="30" customWidth="1"/>
+    <col min="9481" max="9481" width="9.375" style="30" customWidth="1"/>
     <col min="9482" max="9482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="30"/>
-    <col min="9729" max="9729" width="13.140625" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9734" max="9734" width="8.140625" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="9.140625" style="30"/>
-    <col min="9736" max="9736" width="20.140625" style="30" customWidth="1"/>
-    <col min="9737" max="9737" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9483" max="9728" width="9.125" style="30"/>
+    <col min="9729" max="9729" width="13.125" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="21.875" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="29.25" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="34.375" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="19.25" style="30" customWidth="1"/>
+    <col min="9734" max="9734" width="8.125" style="30" customWidth="1"/>
+    <col min="9735" max="9735" width="9.125" style="30"/>
+    <col min="9736" max="9736" width="20.125" style="30" customWidth="1"/>
+    <col min="9737" max="9737" width="9.375" style="30" customWidth="1"/>
     <col min="9738" max="9738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="30"/>
-    <col min="9985" max="9985" width="13.140625" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9990" max="9990" width="8.140625" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="9.140625" style="30"/>
-    <col min="9992" max="9992" width="20.140625" style="30" customWidth="1"/>
-    <col min="9993" max="9993" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9739" max="9984" width="9.125" style="30"/>
+    <col min="9985" max="9985" width="13.125" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="21.875" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="29.25" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="34.375" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="19.25" style="30" customWidth="1"/>
+    <col min="9990" max="9990" width="8.125" style="30" customWidth="1"/>
+    <col min="9991" max="9991" width="9.125" style="30"/>
+    <col min="9992" max="9992" width="20.125" style="30" customWidth="1"/>
+    <col min="9993" max="9993" width="9.375" style="30" customWidth="1"/>
     <col min="9994" max="9994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="30"/>
-    <col min="10241" max="10241" width="13.140625" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="34.42578125" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10246" max="10246" width="8.140625" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="9.140625" style="30"/>
-    <col min="10248" max="10248" width="20.140625" style="30" customWidth="1"/>
-    <col min="10249" max="10249" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9995" max="10240" width="9.125" style="30"/>
+    <col min="10241" max="10241" width="13.125" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="21.875" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="29.25" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="34.375" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="19.25" style="30" customWidth="1"/>
+    <col min="10246" max="10246" width="8.125" style="30" customWidth="1"/>
+    <col min="10247" max="10247" width="9.125" style="30"/>
+    <col min="10248" max="10248" width="20.125" style="30" customWidth="1"/>
+    <col min="10249" max="10249" width="9.375" style="30" customWidth="1"/>
     <col min="10250" max="10250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="30"/>
-    <col min="10497" max="10497" width="13.140625" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="34.42578125" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10502" max="10502" width="8.140625" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="9.140625" style="30"/>
-    <col min="10504" max="10504" width="20.140625" style="30" customWidth="1"/>
-    <col min="10505" max="10505" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10251" max="10496" width="9.125" style="30"/>
+    <col min="10497" max="10497" width="13.125" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="21.875" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="29.25" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="34.375" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="19.25" style="30" customWidth="1"/>
+    <col min="10502" max="10502" width="8.125" style="30" customWidth="1"/>
+    <col min="10503" max="10503" width="9.125" style="30"/>
+    <col min="10504" max="10504" width="20.125" style="30" customWidth="1"/>
+    <col min="10505" max="10505" width="9.375" style="30" customWidth="1"/>
     <col min="10506" max="10506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="30"/>
-    <col min="10753" max="10753" width="13.140625" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="34.42578125" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10758" max="10758" width="8.140625" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="9.140625" style="30"/>
-    <col min="10760" max="10760" width="20.140625" style="30" customWidth="1"/>
-    <col min="10761" max="10761" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10507" max="10752" width="9.125" style="30"/>
+    <col min="10753" max="10753" width="13.125" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="21.875" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="29.25" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="34.375" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="19.25" style="30" customWidth="1"/>
+    <col min="10758" max="10758" width="8.125" style="30" customWidth="1"/>
+    <col min="10759" max="10759" width="9.125" style="30"/>
+    <col min="10760" max="10760" width="20.125" style="30" customWidth="1"/>
+    <col min="10761" max="10761" width="9.375" style="30" customWidth="1"/>
     <col min="10762" max="10762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="30"/>
-    <col min="11009" max="11009" width="13.140625" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11014" max="11014" width="8.140625" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="9.140625" style="30"/>
-    <col min="11016" max="11016" width="20.140625" style="30" customWidth="1"/>
-    <col min="11017" max="11017" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10763" max="11008" width="9.125" style="30"/>
+    <col min="11009" max="11009" width="13.125" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="21.875" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="29.25" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="34.375" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="19.25" style="30" customWidth="1"/>
+    <col min="11014" max="11014" width="8.125" style="30" customWidth="1"/>
+    <col min="11015" max="11015" width="9.125" style="30"/>
+    <col min="11016" max="11016" width="20.125" style="30" customWidth="1"/>
+    <col min="11017" max="11017" width="9.375" style="30" customWidth="1"/>
     <col min="11018" max="11018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="30"/>
-    <col min="11265" max="11265" width="13.140625" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11270" max="11270" width="8.140625" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="9.140625" style="30"/>
-    <col min="11272" max="11272" width="20.140625" style="30" customWidth="1"/>
-    <col min="11273" max="11273" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11019" max="11264" width="9.125" style="30"/>
+    <col min="11265" max="11265" width="13.125" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="21.875" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="29.25" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="34.375" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="19.25" style="30" customWidth="1"/>
+    <col min="11270" max="11270" width="8.125" style="30" customWidth="1"/>
+    <col min="11271" max="11271" width="9.125" style="30"/>
+    <col min="11272" max="11272" width="20.125" style="30" customWidth="1"/>
+    <col min="11273" max="11273" width="9.375" style="30" customWidth="1"/>
     <col min="11274" max="11274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="30"/>
-    <col min="11521" max="11521" width="13.140625" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11526" max="11526" width="8.140625" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="9.140625" style="30"/>
-    <col min="11528" max="11528" width="20.140625" style="30" customWidth="1"/>
-    <col min="11529" max="11529" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11275" max="11520" width="9.125" style="30"/>
+    <col min="11521" max="11521" width="13.125" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="21.875" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="29.25" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="34.375" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="19.25" style="30" customWidth="1"/>
+    <col min="11526" max="11526" width="8.125" style="30" customWidth="1"/>
+    <col min="11527" max="11527" width="9.125" style="30"/>
+    <col min="11528" max="11528" width="20.125" style="30" customWidth="1"/>
+    <col min="11529" max="11529" width="9.375" style="30" customWidth="1"/>
     <col min="11530" max="11530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="30"/>
-    <col min="11777" max="11777" width="13.140625" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11782" max="11782" width="8.140625" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="9.140625" style="30"/>
-    <col min="11784" max="11784" width="20.140625" style="30" customWidth="1"/>
-    <col min="11785" max="11785" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11531" max="11776" width="9.125" style="30"/>
+    <col min="11777" max="11777" width="13.125" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="21.875" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="29.25" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="34.375" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="19.25" style="30" customWidth="1"/>
+    <col min="11782" max="11782" width="8.125" style="30" customWidth="1"/>
+    <col min="11783" max="11783" width="9.125" style="30"/>
+    <col min="11784" max="11784" width="20.125" style="30" customWidth="1"/>
+    <col min="11785" max="11785" width="9.375" style="30" customWidth="1"/>
     <col min="11786" max="11786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="30"/>
-    <col min="12033" max="12033" width="13.140625" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12038" max="12038" width="8.140625" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="9.140625" style="30"/>
-    <col min="12040" max="12040" width="20.140625" style="30" customWidth="1"/>
-    <col min="12041" max="12041" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11787" max="12032" width="9.125" style="30"/>
+    <col min="12033" max="12033" width="13.125" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="21.875" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="29.25" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="34.375" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="19.25" style="30" customWidth="1"/>
+    <col min="12038" max="12038" width="8.125" style="30" customWidth="1"/>
+    <col min="12039" max="12039" width="9.125" style="30"/>
+    <col min="12040" max="12040" width="20.125" style="30" customWidth="1"/>
+    <col min="12041" max="12041" width="9.375" style="30" customWidth="1"/>
     <col min="12042" max="12042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="30"/>
-    <col min="12289" max="12289" width="13.140625" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12294" max="12294" width="8.140625" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="9.140625" style="30"/>
-    <col min="12296" max="12296" width="20.140625" style="30" customWidth="1"/>
-    <col min="12297" max="12297" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12043" max="12288" width="9.125" style="30"/>
+    <col min="12289" max="12289" width="13.125" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="21.875" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="29.25" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="34.375" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="19.25" style="30" customWidth="1"/>
+    <col min="12294" max="12294" width="8.125" style="30" customWidth="1"/>
+    <col min="12295" max="12295" width="9.125" style="30"/>
+    <col min="12296" max="12296" width="20.125" style="30" customWidth="1"/>
+    <col min="12297" max="12297" width="9.375" style="30" customWidth="1"/>
     <col min="12298" max="12298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="30"/>
-    <col min="12545" max="12545" width="13.140625" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12550" max="12550" width="8.140625" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="9.140625" style="30"/>
-    <col min="12552" max="12552" width="20.140625" style="30" customWidth="1"/>
-    <col min="12553" max="12553" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12299" max="12544" width="9.125" style="30"/>
+    <col min="12545" max="12545" width="13.125" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="21.875" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="29.25" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="34.375" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="19.25" style="30" customWidth="1"/>
+    <col min="12550" max="12550" width="8.125" style="30" customWidth="1"/>
+    <col min="12551" max="12551" width="9.125" style="30"/>
+    <col min="12552" max="12552" width="20.125" style="30" customWidth="1"/>
+    <col min="12553" max="12553" width="9.375" style="30" customWidth="1"/>
     <col min="12554" max="12554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="30"/>
-    <col min="12801" max="12801" width="13.140625" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12806" max="12806" width="8.140625" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="9.140625" style="30"/>
-    <col min="12808" max="12808" width="20.140625" style="30" customWidth="1"/>
-    <col min="12809" max="12809" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12555" max="12800" width="9.125" style="30"/>
+    <col min="12801" max="12801" width="13.125" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="21.875" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="29.25" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="34.375" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="19.25" style="30" customWidth="1"/>
+    <col min="12806" max="12806" width="8.125" style="30" customWidth="1"/>
+    <col min="12807" max="12807" width="9.125" style="30"/>
+    <col min="12808" max="12808" width="20.125" style="30" customWidth="1"/>
+    <col min="12809" max="12809" width="9.375" style="30" customWidth="1"/>
     <col min="12810" max="12810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="30"/>
-    <col min="13057" max="13057" width="13.140625" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13062" max="13062" width="8.140625" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="9.140625" style="30"/>
-    <col min="13064" max="13064" width="20.140625" style="30" customWidth="1"/>
-    <col min="13065" max="13065" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12811" max="13056" width="9.125" style="30"/>
+    <col min="13057" max="13057" width="13.125" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="21.875" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="29.25" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="34.375" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="19.25" style="30" customWidth="1"/>
+    <col min="13062" max="13062" width="8.125" style="30" customWidth="1"/>
+    <col min="13063" max="13063" width="9.125" style="30"/>
+    <col min="13064" max="13064" width="20.125" style="30" customWidth="1"/>
+    <col min="13065" max="13065" width="9.375" style="30" customWidth="1"/>
     <col min="13066" max="13066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="30"/>
-    <col min="13313" max="13313" width="13.140625" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13318" max="13318" width="8.140625" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="9.140625" style="30"/>
-    <col min="13320" max="13320" width="20.140625" style="30" customWidth="1"/>
-    <col min="13321" max="13321" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13067" max="13312" width="9.125" style="30"/>
+    <col min="13313" max="13313" width="13.125" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="21.875" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="29.25" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="34.375" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="19.25" style="30" customWidth="1"/>
+    <col min="13318" max="13318" width="8.125" style="30" customWidth="1"/>
+    <col min="13319" max="13319" width="9.125" style="30"/>
+    <col min="13320" max="13320" width="20.125" style="30" customWidth="1"/>
+    <col min="13321" max="13321" width="9.375" style="30" customWidth="1"/>
     <col min="13322" max="13322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="30"/>
-    <col min="13569" max="13569" width="13.140625" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13574" max="13574" width="8.140625" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="9.140625" style="30"/>
-    <col min="13576" max="13576" width="20.140625" style="30" customWidth="1"/>
-    <col min="13577" max="13577" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13323" max="13568" width="9.125" style="30"/>
+    <col min="13569" max="13569" width="13.125" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="21.875" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="29.25" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="34.375" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="19.25" style="30" customWidth="1"/>
+    <col min="13574" max="13574" width="8.125" style="30" customWidth="1"/>
+    <col min="13575" max="13575" width="9.125" style="30"/>
+    <col min="13576" max="13576" width="20.125" style="30" customWidth="1"/>
+    <col min="13577" max="13577" width="9.375" style="30" customWidth="1"/>
     <col min="13578" max="13578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="30"/>
-    <col min="13825" max="13825" width="13.140625" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13830" max="13830" width="8.140625" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="9.140625" style="30"/>
-    <col min="13832" max="13832" width="20.140625" style="30" customWidth="1"/>
-    <col min="13833" max="13833" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13579" max="13824" width="9.125" style="30"/>
+    <col min="13825" max="13825" width="13.125" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="21.875" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="29.25" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="34.375" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="19.25" style="30" customWidth="1"/>
+    <col min="13830" max="13830" width="8.125" style="30" customWidth="1"/>
+    <col min="13831" max="13831" width="9.125" style="30"/>
+    <col min="13832" max="13832" width="20.125" style="30" customWidth="1"/>
+    <col min="13833" max="13833" width="9.375" style="30" customWidth="1"/>
     <col min="13834" max="13834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="30"/>
-    <col min="14081" max="14081" width="13.140625" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14086" max="14086" width="8.140625" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="9.140625" style="30"/>
-    <col min="14088" max="14088" width="20.140625" style="30" customWidth="1"/>
-    <col min="14089" max="14089" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13835" max="14080" width="9.125" style="30"/>
+    <col min="14081" max="14081" width="13.125" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="21.875" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="29.25" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="34.375" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="19.25" style="30" customWidth="1"/>
+    <col min="14086" max="14086" width="8.125" style="30" customWidth="1"/>
+    <col min="14087" max="14087" width="9.125" style="30"/>
+    <col min="14088" max="14088" width="20.125" style="30" customWidth="1"/>
+    <col min="14089" max="14089" width="9.375" style="30" customWidth="1"/>
     <col min="14090" max="14090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="30"/>
-    <col min="14337" max="14337" width="13.140625" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14342" max="14342" width="8.140625" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="9.140625" style="30"/>
-    <col min="14344" max="14344" width="20.140625" style="30" customWidth="1"/>
-    <col min="14345" max="14345" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14091" max="14336" width="9.125" style="30"/>
+    <col min="14337" max="14337" width="13.125" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="21.875" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="29.25" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="34.375" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="19.25" style="30" customWidth="1"/>
+    <col min="14342" max="14342" width="8.125" style="30" customWidth="1"/>
+    <col min="14343" max="14343" width="9.125" style="30"/>
+    <col min="14344" max="14344" width="20.125" style="30" customWidth="1"/>
+    <col min="14345" max="14345" width="9.375" style="30" customWidth="1"/>
     <col min="14346" max="14346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="30"/>
-    <col min="14593" max="14593" width="13.140625" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14598" max="14598" width="8.140625" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="9.140625" style="30"/>
-    <col min="14600" max="14600" width="20.140625" style="30" customWidth="1"/>
-    <col min="14601" max="14601" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14347" max="14592" width="9.125" style="30"/>
+    <col min="14593" max="14593" width="13.125" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="21.875" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="29.25" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="34.375" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="19.25" style="30" customWidth="1"/>
+    <col min="14598" max="14598" width="8.125" style="30" customWidth="1"/>
+    <col min="14599" max="14599" width="9.125" style="30"/>
+    <col min="14600" max="14600" width="20.125" style="30" customWidth="1"/>
+    <col min="14601" max="14601" width="9.375" style="30" customWidth="1"/>
     <col min="14602" max="14602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="30"/>
-    <col min="14849" max="14849" width="13.140625" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14854" max="14854" width="8.140625" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="9.140625" style="30"/>
-    <col min="14856" max="14856" width="20.140625" style="30" customWidth="1"/>
-    <col min="14857" max="14857" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14603" max="14848" width="9.125" style="30"/>
+    <col min="14849" max="14849" width="13.125" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="21.875" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="29.25" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="34.375" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="19.25" style="30" customWidth="1"/>
+    <col min="14854" max="14854" width="8.125" style="30" customWidth="1"/>
+    <col min="14855" max="14855" width="9.125" style="30"/>
+    <col min="14856" max="14856" width="20.125" style="30" customWidth="1"/>
+    <col min="14857" max="14857" width="9.375" style="30" customWidth="1"/>
     <col min="14858" max="14858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="30"/>
-    <col min="15105" max="15105" width="13.140625" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15110" max="15110" width="8.140625" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="9.140625" style="30"/>
-    <col min="15112" max="15112" width="20.140625" style="30" customWidth="1"/>
-    <col min="15113" max="15113" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14859" max="15104" width="9.125" style="30"/>
+    <col min="15105" max="15105" width="13.125" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="21.875" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="29.25" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="34.375" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="19.25" style="30" customWidth="1"/>
+    <col min="15110" max="15110" width="8.125" style="30" customWidth="1"/>
+    <col min="15111" max="15111" width="9.125" style="30"/>
+    <col min="15112" max="15112" width="20.125" style="30" customWidth="1"/>
+    <col min="15113" max="15113" width="9.375" style="30" customWidth="1"/>
     <col min="15114" max="15114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="30"/>
-    <col min="15361" max="15361" width="13.140625" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15366" max="15366" width="8.140625" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="9.140625" style="30"/>
-    <col min="15368" max="15368" width="20.140625" style="30" customWidth="1"/>
-    <col min="15369" max="15369" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15115" max="15360" width="9.125" style="30"/>
+    <col min="15361" max="15361" width="13.125" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="21.875" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="29.25" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="34.375" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="19.25" style="30" customWidth="1"/>
+    <col min="15366" max="15366" width="8.125" style="30" customWidth="1"/>
+    <col min="15367" max="15367" width="9.125" style="30"/>
+    <col min="15368" max="15368" width="20.125" style="30" customWidth="1"/>
+    <col min="15369" max="15369" width="9.375" style="30" customWidth="1"/>
     <col min="15370" max="15370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="30"/>
-    <col min="15617" max="15617" width="13.140625" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15622" max="15622" width="8.140625" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="9.140625" style="30"/>
-    <col min="15624" max="15624" width="20.140625" style="30" customWidth="1"/>
-    <col min="15625" max="15625" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15371" max="15616" width="9.125" style="30"/>
+    <col min="15617" max="15617" width="13.125" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="21.875" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="29.25" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="34.375" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="19.25" style="30" customWidth="1"/>
+    <col min="15622" max="15622" width="8.125" style="30" customWidth="1"/>
+    <col min="15623" max="15623" width="9.125" style="30"/>
+    <col min="15624" max="15624" width="20.125" style="30" customWidth="1"/>
+    <col min="15625" max="15625" width="9.375" style="30" customWidth="1"/>
     <col min="15626" max="15626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="30"/>
-    <col min="15873" max="15873" width="13.140625" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15878" max="15878" width="8.140625" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="9.140625" style="30"/>
-    <col min="15880" max="15880" width="20.140625" style="30" customWidth="1"/>
-    <col min="15881" max="15881" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15627" max="15872" width="9.125" style="30"/>
+    <col min="15873" max="15873" width="13.125" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="21.875" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="29.25" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="34.375" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="19.25" style="30" customWidth="1"/>
+    <col min="15878" max="15878" width="8.125" style="30" customWidth="1"/>
+    <col min="15879" max="15879" width="9.125" style="30"/>
+    <col min="15880" max="15880" width="20.125" style="30" customWidth="1"/>
+    <col min="15881" max="15881" width="9.375" style="30" customWidth="1"/>
     <col min="15882" max="15882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="30"/>
-    <col min="16129" max="16129" width="13.140625" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="21.85546875" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="29.28515625" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="34.42578125" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="19.28515625" style="30" customWidth="1"/>
-    <col min="16134" max="16134" width="8.140625" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="9.140625" style="30"/>
-    <col min="16136" max="16136" width="20.140625" style="30" customWidth="1"/>
-    <col min="16137" max="16137" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15883" max="16128" width="9.125" style="30"/>
+    <col min="16129" max="16129" width="13.125" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="21.875" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="29.25" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="34.375" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="19.25" style="30" customWidth="1"/>
+    <col min="16134" max="16134" width="8.125" style="30" customWidth="1"/>
+    <col min="16135" max="16135" width="9.125" style="30"/>
+    <col min="16136" max="16136" width="20.125" style="30" customWidth="1"/>
+    <col min="16137" max="16137" width="9.375" style="30" customWidth="1"/>
     <col min="16138" max="16138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="30"/>
+    <col min="16139" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6314,17 +6330,17 @@
       <c r="H1" s="41"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="69"/>
       <c r="H2" s="41"/>
       <c r="I2" s="66"/>
@@ -6332,17 +6348,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="69"/>
       <c r="H3" s="41"/>
       <c r="I3" s="66"/>
@@ -6350,21 +6366,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="69"/>
       <c r="H4" s="41"/>
       <c r="I4" s="66"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
@@ -6377,10 +6393,10 @@
       <c r="D5" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
       <c r="I5" s="76"/>
@@ -6388,13 +6404,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="103">
-        <f>COUNTIF(F96:F1004,"Pass")</f>
+        <f>COUNTIF(F97:F1005,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="78">
-        <f>COUNTIF(F96:F1004,"Fail")</f>
+        <f>COUNTIF(F97:F1005,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="78">
@@ -6402,14 +6418,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="79">
-        <f>COUNTIF(F$96:F$1004,"N/A")</f>
+        <f>COUNTIF(F$97:F$1005,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="148">
-        <f>COUNTA(A96:A1004)</f>
+      <c r="E6" s="150">
+        <f>COUNTA(A97:A1005)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="148"/>
+      <c r="F6" s="150"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
       <c r="I6" s="76"/>
@@ -6417,7 +6433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -6425,7 +6441,7 @@
       <c r="H7" s="80"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
@@ -6452,7 +6468,7 @@
       </c>
       <c r="I8" s="83"/>
     </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
         <v>145</v>
@@ -6467,9 +6483,9 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" s="104" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="104" customFormat="1" ht="37.5" customHeight="1">
       <c r="A10" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B10" s="93" t="s">
         <v>121</v>
@@ -6488,12 +6504,12 @@
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="52.5" customHeight="1">
       <c r="A11" s="93" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>123</v>
@@ -6502,15 +6518,15 @@
         <v>134</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
       <c r="H11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="38.25">
       <c r="A12" s="93" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>124</v>
@@ -6522,15 +6538,15 @@
         <v>135</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="94"/>
     </row>
-    <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1">
       <c r="A13" s="93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B13" s="93" t="s">
         <v>126</v>
@@ -6542,7 +6558,7 @@
         <v>135</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
@@ -6551,9 +6567,9 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="38.25">
       <c r="A14" s="93" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B14" s="93" t="s">
         <v>128</v>
@@ -6565,15 +6581,15 @@
         <v>136</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
       <c r="H14" s="94"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.25">
       <c r="A15" s="93" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>132</v>
@@ -6585,15 +6601,15 @@
         <v>137</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="38.25">
       <c r="A16" s="93" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>131</v>
@@ -6605,15 +6621,15 @@
         <v>142</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="94"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="38.25">
       <c r="A17" s="93" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>143</v>
@@ -6625,1713 +6641,1733 @@
         <v>144</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="38.25">
       <c r="A18" s="93" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>146</v>
+        <v>436</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
       <c r="H18" s="94"/>
     </row>
-    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="93" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>144</v>
       </c>
       <c r="E19" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="38.25">
       <c r="A20" s="93" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="93" t="s">
         <v>144</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="38.25">
       <c r="A21" s="93" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="93" t="s">
         <v>144</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
       <c r="H21" s="94"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="38.25">
       <c r="A22" s="93" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="93" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
-    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="38.25">
       <c r="A23" s="93" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D23" s="93" t="s">
         <v>144</v>
       </c>
       <c r="E23" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="38.25">
       <c r="A24" s="93" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="93" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E25" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="38.25">
       <c r="A26" s="93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="93" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="38.25">
       <c r="A28" s="93" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E28" s="93" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="84" t="s">
+    <row r="29" spans="1:9" ht="38.25">
+      <c r="A29" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="87"/>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="93" t="s">
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="1:9" ht="25.5">
+      <c r="A31" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C31" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D31" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
-    </row>
-    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="93" t="s">
-        <v>272</v>
-      </c>
+      <c r="E31" s="93"/>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
       <c r="H31" s="94"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84" t="s">
+    <row r="32" spans="1:9" ht="25.5">
+      <c r="A32" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="94"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="84"/>
+      <c r="B33" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-    </row>
-    <row r="33" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="B33" s="93" t="s">
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="1:9" ht="53.25" customHeight="1">
+      <c r="A34" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C34" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="94"/>
-    </row>
-    <row r="34" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="93" t="s">
-        <v>179</v>
-      </c>
       <c r="D34" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="93" t="s">
-        <v>275</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E34" s="93"/>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
       <c r="H34" s="94"/>
     </row>
-    <row r="35" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="45.75" customHeight="1">
       <c r="A35" s="93" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="93" t="s">
         <v>180</v>
       </c>
       <c r="E35" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="94"/>
     </row>
-    <row r="36" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="38.25">
       <c r="A36" s="93" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="93" t="s">
         <v>180</v>
       </c>
       <c r="E36" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
       <c r="H36" s="94"/>
     </row>
-    <row r="37" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="38.25">
       <c r="A37" s="93" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="93" t="s">
         <v>180</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
     </row>
-    <row r="38" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="38.25">
       <c r="A38" s="93" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D38" s="93" t="s">
         <v>180</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
     </row>
-    <row r="39" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B39" s="93" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D39" s="93" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="94"/>
     </row>
-    <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="38.25">
       <c r="A40" s="93" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
       <c r="H40" s="94"/>
     </row>
-    <row r="41" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="38.25">
       <c r="A41" s="93" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B41" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E41" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
       <c r="H41" s="94"/>
     </row>
-    <row r="42" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="38.25">
       <c r="A42" s="93" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E42" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
       <c r="H42" s="94"/>
     </row>
-    <row r="43" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="38.25">
       <c r="A43" s="93" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>202</v>
+        <v>398</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
       <c r="H43" s="94"/>
     </row>
-    <row r="44" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="63.75">
       <c r="A44" s="93" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B44" s="93" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
       <c r="H44" s="94"/>
     </row>
-    <row r="45" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="63.75">
       <c r="A45" s="93" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
       <c r="H45" s="94"/>
     </row>
-    <row r="46" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="63.75">
       <c r="A46" s="93" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
       <c r="H46" s="94"/>
     </row>
-    <row r="47" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="63.75">
       <c r="A47" s="93" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B47" s="93" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E47" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
       <c r="H47" s="94"/>
     </row>
-    <row r="48" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="63.75">
       <c r="A48" s="93" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B48" s="93" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D48" s="93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E48" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
       <c r="H48" s="94"/>
     </row>
-    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="63.75">
       <c r="A49" s="93" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E49" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
       <c r="H49" s="94"/>
     </row>
-    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="51">
       <c r="A50" s="93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B50" s="93" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D50" s="93" t="s">
         <v>242</v>
       </c>
       <c r="E50" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
       <c r="H50" s="94"/>
     </row>
-    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="51">
       <c r="A51" s="93" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
       <c r="H51" s="94"/>
     </row>
-    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="51">
       <c r="A52" s="93" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B52" s="93" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
       <c r="H52" s="94"/>
     </row>
-    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="51">
       <c r="A53" s="93" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D53" s="93" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E53" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
       <c r="H53" s="94"/>
     </row>
-    <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="51">
       <c r="A54" s="93" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D54" s="93" t="s">
         <v>242</v>
       </c>
       <c r="E54" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
       <c r="H54" s="94"/>
     </row>
-    <row r="55" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="51">
       <c r="A55" s="93" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B55" s="93" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="E55" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F55" s="93"/>
       <c r="G55" s="93"/>
       <c r="H55" s="94"/>
     </row>
-    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="51">
       <c r="A56" s="93" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B56" s="93" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="C56" s="93" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="D56" s="93" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="E56" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F56" s="93"/>
       <c r="G56" s="93"/>
       <c r="H56" s="94"/>
     </row>
-    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="51">
       <c r="A57" s="93" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B57" s="93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D57" s="93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E57" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
       <c r="H57" s="94"/>
     </row>
-    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="51">
       <c r="A58" s="93" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B58" s="93" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C58" s="93" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D58" s="93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E58" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F58" s="93"/>
       <c r="G58" s="93"/>
       <c r="H58" s="94"/>
     </row>
-    <row r="59" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="51">
       <c r="A59" s="93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B59" s="93" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
       <c r="H59" s="94"/>
     </row>
-    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="38.25">
       <c r="A60" s="93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B60" s="93" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D60" s="93" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E60" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
       <c r="H60" s="94"/>
     </row>
-    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="51">
       <c r="A61" s="93" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B61" s="93" t="s">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>251</v>
+        <v>445</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="93"/>
       <c r="H61" s="94"/>
     </row>
-    <row r="62" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="51">
       <c r="A62" s="93" t="s">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D62" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="94"/>
+    </row>
+    <row r="63" spans="1:8" ht="57.75" customHeight="1">
+      <c r="A63" s="93" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63" s="93" t="s">
         <v>441</v>
       </c>
-      <c r="E62" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="F62" s="93"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="153"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="84"/>
-      <c r="B63" s="84" t="s">
+      <c r="C63" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="E63" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" s="93"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="138"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="84"/>
+      <c r="B64" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
+    </row>
+    <row r="65" spans="1:8" ht="107.25" customHeight="1">
+      <c r="A65" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="86"/>
-    </row>
-    <row r="64" spans="1:8" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="B64" s="93" t="s">
-        <v>306</v>
-      </c>
-      <c r="C64" s="93" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64" s="93" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="94"/>
-    </row>
-    <row r="65" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="93" t="s">
-        <v>312</v>
-      </c>
-      <c r="B65" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="93" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="93" t="s">
-        <v>305</v>
-      </c>
+      <c r="E65" s="93"/>
       <c r="F65" s="93"/>
       <c r="G65" s="93"/>
       <c r="H65" s="94"/>
     </row>
-    <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="51">
       <c r="A66" s="93" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="C66" s="93" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
       <c r="H66" s="94"/>
     </row>
-    <row r="67" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="51">
       <c r="A67" s="93" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
       <c r="H67" s="94"/>
     </row>
-    <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="51">
       <c r="A68" s="93" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E68" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F68" s="93"/>
       <c r="G68" s="93"/>
       <c r="H68" s="94"/>
     </row>
-    <row r="69" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="63.75">
       <c r="A69" s="93" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="H69" s="94"/>
     </row>
-    <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="51">
       <c r="A70" s="93" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
       <c r="H70" s="94"/>
     </row>
-    <row r="71" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="51">
       <c r="A71" s="93" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E71" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F71" s="93"/>
       <c r="G71" s="93"/>
       <c r="H71" s="94"/>
     </row>
-    <row r="72" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="51">
       <c r="A72" s="93" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E72" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F72" s="93"/>
       <c r="G72" s="93"/>
       <c r="H72" s="94"/>
     </row>
-    <row r="73" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="76.5">
       <c r="A73" s="93" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>333</v>
+        <v>211</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F73" s="93"/>
       <c r="G73" s="93"/>
       <c r="H73" s="94"/>
     </row>
-    <row r="74" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="76.5">
       <c r="A74" s="93" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E74" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
       <c r="H74" s="94"/>
     </row>
-    <row r="75" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="76.5">
       <c r="A75" s="93" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E75" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F75" s="93"/>
       <c r="G75" s="93"/>
       <c r="H75" s="94"/>
     </row>
-    <row r="76" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="76.5">
       <c r="A76" s="93" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E76" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
       <c r="H76" s="94"/>
     </row>
-    <row r="77" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="76.5">
       <c r="A77" s="93" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E77" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F77" s="93"/>
       <c r="G77" s="93"/>
       <c r="H77" s="94"/>
     </row>
-    <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="76.5">
       <c r="A78" s="93" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F78" s="93"/>
       <c r="G78" s="93"/>
       <c r="H78" s="94"/>
     </row>
-    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="63.75">
       <c r="A79" s="93" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E79" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F79" s="93"/>
       <c r="G79" s="93"/>
       <c r="H79" s="94"/>
     </row>
-    <row r="80" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="63.75">
       <c r="A80" s="93" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F80" s="93"/>
       <c r="G80" s="93"/>
       <c r="H80" s="94"/>
     </row>
-    <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="63.75">
       <c r="A81" s="93" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E81" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F81" s="93"/>
       <c r="G81" s="93"/>
       <c r="H81" s="94"/>
     </row>
-    <row r="82" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="63.75">
       <c r="A82" s="93" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E82" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
       <c r="H82" s="94"/>
     </row>
-    <row r="83" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="76.5">
       <c r="A83" s="93" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="E83" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
       <c r="H83" s="94"/>
     </row>
-    <row r="84" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="63.75">
       <c r="A84" s="93" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F84" s="93"/>
       <c r="G84" s="93"/>
       <c r="H84" s="94"/>
     </row>
-    <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="51">
       <c r="A85" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E85" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F85" s="93"/>
       <c r="G85" s="93"/>
       <c r="H85" s="94"/>
     </row>
-    <row r="86" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="63.75">
       <c r="A86" s="93" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B86" s="93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E86" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
       <c r="H86" s="94"/>
     </row>
-    <row r="87" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="63.75">
       <c r="A87" s="93" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="E87" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F87" s="93"/>
       <c r="G87" s="93"/>
       <c r="H87" s="94"/>
     </row>
-    <row r="88" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="51">
       <c r="A88" s="93" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E88" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F88" s="93"/>
       <c r="G88" s="93"/>
       <c r="H88" s="94"/>
     </row>
-    <row r="89" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="63.75">
       <c r="A89" s="93" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E89" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F89" s="93"/>
       <c r="G89" s="93"/>
       <c r="H89" s="94"/>
     </row>
-    <row r="90" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="63.75">
       <c r="A90" s="93" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="E90" s="93" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F90" s="93"/>
       <c r="G90" s="93"/>
       <c r="H90" s="94"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84" t="s">
-        <v>388</v>
-      </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="86"/>
-    </row>
-    <row r="92" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="93" t="s">
-        <v>389</v>
-      </c>
-      <c r="B92" s="93" t="s">
-        <v>390</v>
-      </c>
-      <c r="C92" s="93" t="s">
-        <v>391</v>
-      </c>
-      <c r="D92" s="93" t="s">
-        <v>392</v>
-      </c>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="94"/>
-    </row>
-    <row r="93" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="63.75">
+      <c r="A91" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="B91" s="93" t="s">
+        <v>415</v>
+      </c>
+      <c r="C91" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="D91" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="E91" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="94"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="84"/>
+      <c r="B92" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="86"/>
+    </row>
+    <row r="93" spans="1:8" ht="93.75" customHeight="1">
       <c r="A93" s="93" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>398</v>
-      </c>
-      <c r="E93" s="93" t="s">
-        <v>389</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="E93" s="93"/>
       <c r="F93" s="93"/>
       <c r="G93" s="93"/>
       <c r="H93" s="94"/>
     </row>
-    <row r="94" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="59.25" customHeight="1">
       <c r="A94" s="93" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B94" s="93" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E94" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F94" s="93"/>
       <c r="G94" s="93"/>
       <c r="H94" s="94"/>
     </row>
-    <row r="95" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="38.25">
       <c r="A95" s="93" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B95" s="93" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E95" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F95" s="93"/>
       <c r="G95" s="93"/>
       <c r="H95" s="94"/>
     </row>
-    <row r="96" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="38.25">
       <c r="A96" s="93" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B96" s="93" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E96" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F96" s="93"/>
       <c r="G96" s="93"/>
       <c r="H96" s="94"/>
     </row>
-    <row r="97" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="63.75">
       <c r="A97" s="93" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B97" s="93" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E97" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
       <c r="H97" s="94"/>
     </row>
-    <row r="98" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="63.75">
       <c r="A98" s="93" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E98" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F98" s="93"/>
       <c r="G98" s="93"/>
       <c r="H98" s="94"/>
     </row>
-    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="63.75">
       <c r="A99" s="93" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E99" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F99" s="93"/>
       <c r="G99" s="93"/>
       <c r="H99" s="94"/>
     </row>
-    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="51">
       <c r="A100" s="93" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E100" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F100" s="93"/>
       <c r="G100" s="93"/>
       <c r="H100" s="94"/>
     </row>
-    <row r="101" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="51">
       <c r="A101" s="93" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E101" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F101" s="93"/>
       <c r="G101" s="93"/>
       <c r="H101" s="94"/>
     </row>
-    <row r="102" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="38.25">
       <c r="A102" s="93" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E102" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F102" s="93"/>
       <c r="G102" s="93"/>
       <c r="H102" s="94"/>
     </row>
-    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="38.25">
       <c r="A103" s="93" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E103" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F103" s="93"/>
       <c r="G103" s="93"/>
       <c r="H103" s="94"/>
     </row>
-    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="51">
       <c r="A104" s="93" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E104" s="93" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F104" s="93"/>
       <c r="G104" s="93"/>
       <c r="H104" s="94"/>
+    </row>
+    <row r="105" spans="1:8" ht="51">
+      <c r="A105" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" s="93" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E105" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="F105" s="93"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H15"/>
@@ -8343,7 +8379,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65543:F65545 JB65543:JB65545 SX65543:SX65545 ACT65543:ACT65545 AMP65543:AMP65545 AWL65543:AWL65545 BGH65543:BGH65545 BQD65543:BQD65545 BZZ65543:BZZ65545 CJV65543:CJV65545 CTR65543:CTR65545 DDN65543:DDN65545 DNJ65543:DNJ65545 DXF65543:DXF65545 EHB65543:EHB65545 EQX65543:EQX65545 FAT65543:FAT65545 FKP65543:FKP65545 FUL65543:FUL65545 GEH65543:GEH65545 GOD65543:GOD65545 GXZ65543:GXZ65545 HHV65543:HHV65545 HRR65543:HRR65545 IBN65543:IBN65545 ILJ65543:ILJ65545 IVF65543:IVF65545 JFB65543:JFB65545 JOX65543:JOX65545 JYT65543:JYT65545 KIP65543:KIP65545 KSL65543:KSL65545 LCH65543:LCH65545 LMD65543:LMD65545 LVZ65543:LVZ65545 MFV65543:MFV65545 MPR65543:MPR65545 MZN65543:MZN65545 NJJ65543:NJJ65545 NTF65543:NTF65545 ODB65543:ODB65545 OMX65543:OMX65545 OWT65543:OWT65545 PGP65543:PGP65545 PQL65543:PQL65545 QAH65543:QAH65545 QKD65543:QKD65545 QTZ65543:QTZ65545 RDV65543:RDV65545 RNR65543:RNR65545 RXN65543:RXN65545 SHJ65543:SHJ65545 SRF65543:SRF65545 TBB65543:TBB65545 TKX65543:TKX65545 TUT65543:TUT65545 UEP65543:UEP65545 UOL65543:UOL65545 UYH65543:UYH65545 VID65543:VID65545 VRZ65543:VRZ65545 WBV65543:WBV65545 WLR65543:WLR65545 WVN65543:WVN65545 F131079:F131081 JB131079:JB131081 SX131079:SX131081 ACT131079:ACT131081 AMP131079:AMP131081 AWL131079:AWL131081 BGH131079:BGH131081 BQD131079:BQD131081 BZZ131079:BZZ131081 CJV131079:CJV131081 CTR131079:CTR131081 DDN131079:DDN131081 DNJ131079:DNJ131081 DXF131079:DXF131081 EHB131079:EHB131081 EQX131079:EQX131081 FAT131079:FAT131081 FKP131079:FKP131081 FUL131079:FUL131081 GEH131079:GEH131081 GOD131079:GOD131081 GXZ131079:GXZ131081 HHV131079:HHV131081 HRR131079:HRR131081 IBN131079:IBN131081 ILJ131079:ILJ131081 IVF131079:IVF131081 JFB131079:JFB131081 JOX131079:JOX131081 JYT131079:JYT131081 KIP131079:KIP131081 KSL131079:KSL131081 LCH131079:LCH131081 LMD131079:LMD131081 LVZ131079:LVZ131081 MFV131079:MFV131081 MPR131079:MPR131081 MZN131079:MZN131081 NJJ131079:NJJ131081 NTF131079:NTF131081 ODB131079:ODB131081 OMX131079:OMX131081 OWT131079:OWT131081 PGP131079:PGP131081 PQL131079:PQL131081 QAH131079:QAH131081 QKD131079:QKD131081 QTZ131079:QTZ131081 RDV131079:RDV131081 RNR131079:RNR131081 RXN131079:RXN131081 SHJ131079:SHJ131081 SRF131079:SRF131081 TBB131079:TBB131081 TKX131079:TKX131081 TUT131079:TUT131081 UEP131079:UEP131081 UOL131079:UOL131081 UYH131079:UYH131081 VID131079:VID131081 VRZ131079:VRZ131081 WBV131079:WBV131081 WLR131079:WLR131081 WVN131079:WVN131081 F196615:F196617 JB196615:JB196617 SX196615:SX196617 ACT196615:ACT196617 AMP196615:AMP196617 AWL196615:AWL196617 BGH196615:BGH196617 BQD196615:BQD196617 BZZ196615:BZZ196617 CJV196615:CJV196617 CTR196615:CTR196617 DDN196615:DDN196617 DNJ196615:DNJ196617 DXF196615:DXF196617 EHB196615:EHB196617 EQX196615:EQX196617 FAT196615:FAT196617 FKP196615:FKP196617 FUL196615:FUL196617 GEH196615:GEH196617 GOD196615:GOD196617 GXZ196615:GXZ196617 HHV196615:HHV196617 HRR196615:HRR196617 IBN196615:IBN196617 ILJ196615:ILJ196617 IVF196615:IVF196617 JFB196615:JFB196617 JOX196615:JOX196617 JYT196615:JYT196617 KIP196615:KIP196617 KSL196615:KSL196617 LCH196615:LCH196617 LMD196615:LMD196617 LVZ196615:LVZ196617 MFV196615:MFV196617 MPR196615:MPR196617 MZN196615:MZN196617 NJJ196615:NJJ196617 NTF196615:NTF196617 ODB196615:ODB196617 OMX196615:OMX196617 OWT196615:OWT196617 PGP196615:PGP196617 PQL196615:PQL196617 QAH196615:QAH196617 QKD196615:QKD196617 QTZ196615:QTZ196617 RDV196615:RDV196617 RNR196615:RNR196617 RXN196615:RXN196617 SHJ196615:SHJ196617 SRF196615:SRF196617 TBB196615:TBB196617 TKX196615:TKX196617 TUT196615:TUT196617 UEP196615:UEP196617 UOL196615:UOL196617 UYH196615:UYH196617 VID196615:VID196617 VRZ196615:VRZ196617 WBV196615:WBV196617 WLR196615:WLR196617 WVN196615:WVN196617 F262151:F262153 JB262151:JB262153 SX262151:SX262153 ACT262151:ACT262153 AMP262151:AMP262153 AWL262151:AWL262153 BGH262151:BGH262153 BQD262151:BQD262153 BZZ262151:BZZ262153 CJV262151:CJV262153 CTR262151:CTR262153 DDN262151:DDN262153 DNJ262151:DNJ262153 DXF262151:DXF262153 EHB262151:EHB262153 EQX262151:EQX262153 FAT262151:FAT262153 FKP262151:FKP262153 FUL262151:FUL262153 GEH262151:GEH262153 GOD262151:GOD262153 GXZ262151:GXZ262153 HHV262151:HHV262153 HRR262151:HRR262153 IBN262151:IBN262153 ILJ262151:ILJ262153 IVF262151:IVF262153 JFB262151:JFB262153 JOX262151:JOX262153 JYT262151:JYT262153 KIP262151:KIP262153 KSL262151:KSL262153 LCH262151:LCH262153 LMD262151:LMD262153 LVZ262151:LVZ262153 MFV262151:MFV262153 MPR262151:MPR262153 MZN262151:MZN262153 NJJ262151:NJJ262153 NTF262151:NTF262153 ODB262151:ODB262153 OMX262151:OMX262153 OWT262151:OWT262153 PGP262151:PGP262153 PQL262151:PQL262153 QAH262151:QAH262153 QKD262151:QKD262153 QTZ262151:QTZ262153 RDV262151:RDV262153 RNR262151:RNR262153 RXN262151:RXN262153 SHJ262151:SHJ262153 SRF262151:SRF262153 TBB262151:TBB262153 TKX262151:TKX262153 TUT262151:TUT262153 UEP262151:UEP262153 UOL262151:UOL262153 UYH262151:UYH262153 VID262151:VID262153 VRZ262151:VRZ262153 WBV262151:WBV262153 WLR262151:WLR262153 WVN262151:WVN262153 F327687:F327689 JB327687:JB327689 SX327687:SX327689 ACT327687:ACT327689 AMP327687:AMP327689 AWL327687:AWL327689 BGH327687:BGH327689 BQD327687:BQD327689 BZZ327687:BZZ327689 CJV327687:CJV327689 CTR327687:CTR327689 DDN327687:DDN327689 DNJ327687:DNJ327689 DXF327687:DXF327689 EHB327687:EHB327689 EQX327687:EQX327689 FAT327687:FAT327689 FKP327687:FKP327689 FUL327687:FUL327689 GEH327687:GEH327689 GOD327687:GOD327689 GXZ327687:GXZ327689 HHV327687:HHV327689 HRR327687:HRR327689 IBN327687:IBN327689 ILJ327687:ILJ327689 IVF327687:IVF327689 JFB327687:JFB327689 JOX327687:JOX327689 JYT327687:JYT327689 KIP327687:KIP327689 KSL327687:KSL327689 LCH327687:LCH327689 LMD327687:LMD327689 LVZ327687:LVZ327689 MFV327687:MFV327689 MPR327687:MPR327689 MZN327687:MZN327689 NJJ327687:NJJ327689 NTF327687:NTF327689 ODB327687:ODB327689 OMX327687:OMX327689 OWT327687:OWT327689 PGP327687:PGP327689 PQL327687:PQL327689 QAH327687:QAH327689 QKD327687:QKD327689 QTZ327687:QTZ327689 RDV327687:RDV327689 RNR327687:RNR327689 RXN327687:RXN327689 SHJ327687:SHJ327689 SRF327687:SRF327689 TBB327687:TBB327689 TKX327687:TKX327689 TUT327687:TUT327689 UEP327687:UEP327689 UOL327687:UOL327689 UYH327687:UYH327689 VID327687:VID327689 VRZ327687:VRZ327689 WBV327687:WBV327689 WLR327687:WLR327689 WVN327687:WVN327689 F393223:F393225 JB393223:JB393225 SX393223:SX393225 ACT393223:ACT393225 AMP393223:AMP393225 AWL393223:AWL393225 BGH393223:BGH393225 BQD393223:BQD393225 BZZ393223:BZZ393225 CJV393223:CJV393225 CTR393223:CTR393225 DDN393223:DDN393225 DNJ393223:DNJ393225 DXF393223:DXF393225 EHB393223:EHB393225 EQX393223:EQX393225 FAT393223:FAT393225 FKP393223:FKP393225 FUL393223:FUL393225 GEH393223:GEH393225 GOD393223:GOD393225 GXZ393223:GXZ393225 HHV393223:HHV393225 HRR393223:HRR393225 IBN393223:IBN393225 ILJ393223:ILJ393225 IVF393223:IVF393225 JFB393223:JFB393225 JOX393223:JOX393225 JYT393223:JYT393225 KIP393223:KIP393225 KSL393223:KSL393225 LCH393223:LCH393225 LMD393223:LMD393225 LVZ393223:LVZ393225 MFV393223:MFV393225 MPR393223:MPR393225 MZN393223:MZN393225 NJJ393223:NJJ393225 NTF393223:NTF393225 ODB393223:ODB393225 OMX393223:OMX393225 OWT393223:OWT393225 PGP393223:PGP393225 PQL393223:PQL393225 QAH393223:QAH393225 QKD393223:QKD393225 QTZ393223:QTZ393225 RDV393223:RDV393225 RNR393223:RNR393225 RXN393223:RXN393225 SHJ393223:SHJ393225 SRF393223:SRF393225 TBB393223:TBB393225 TKX393223:TKX393225 TUT393223:TUT393225 UEP393223:UEP393225 UOL393223:UOL393225 UYH393223:UYH393225 VID393223:VID393225 VRZ393223:VRZ393225 WBV393223:WBV393225 WLR393223:WLR393225 WVN393223:WVN393225 F458759:F458761 JB458759:JB458761 SX458759:SX458761 ACT458759:ACT458761 AMP458759:AMP458761 AWL458759:AWL458761 BGH458759:BGH458761 BQD458759:BQD458761 BZZ458759:BZZ458761 CJV458759:CJV458761 CTR458759:CTR458761 DDN458759:DDN458761 DNJ458759:DNJ458761 DXF458759:DXF458761 EHB458759:EHB458761 EQX458759:EQX458761 FAT458759:FAT458761 FKP458759:FKP458761 FUL458759:FUL458761 GEH458759:GEH458761 GOD458759:GOD458761 GXZ458759:GXZ458761 HHV458759:HHV458761 HRR458759:HRR458761 IBN458759:IBN458761 ILJ458759:ILJ458761 IVF458759:IVF458761 JFB458759:JFB458761 JOX458759:JOX458761 JYT458759:JYT458761 KIP458759:KIP458761 KSL458759:KSL458761 LCH458759:LCH458761 LMD458759:LMD458761 LVZ458759:LVZ458761 MFV458759:MFV458761 MPR458759:MPR458761 MZN458759:MZN458761 NJJ458759:NJJ458761 NTF458759:NTF458761 ODB458759:ODB458761 OMX458759:OMX458761 OWT458759:OWT458761 PGP458759:PGP458761 PQL458759:PQL458761 QAH458759:QAH458761 QKD458759:QKD458761 QTZ458759:QTZ458761 RDV458759:RDV458761 RNR458759:RNR458761 RXN458759:RXN458761 SHJ458759:SHJ458761 SRF458759:SRF458761 TBB458759:TBB458761 TKX458759:TKX458761 TUT458759:TUT458761 UEP458759:UEP458761 UOL458759:UOL458761 UYH458759:UYH458761 VID458759:VID458761 VRZ458759:VRZ458761 WBV458759:WBV458761 WLR458759:WLR458761 WVN458759:WVN458761 F524295:F524297 JB524295:JB524297 SX524295:SX524297 ACT524295:ACT524297 AMP524295:AMP524297 AWL524295:AWL524297 BGH524295:BGH524297 BQD524295:BQD524297 BZZ524295:BZZ524297 CJV524295:CJV524297 CTR524295:CTR524297 DDN524295:DDN524297 DNJ524295:DNJ524297 DXF524295:DXF524297 EHB524295:EHB524297 EQX524295:EQX524297 FAT524295:FAT524297 FKP524295:FKP524297 FUL524295:FUL524297 GEH524295:GEH524297 GOD524295:GOD524297 GXZ524295:GXZ524297 HHV524295:HHV524297 HRR524295:HRR524297 IBN524295:IBN524297 ILJ524295:ILJ524297 IVF524295:IVF524297 JFB524295:JFB524297 JOX524295:JOX524297 JYT524295:JYT524297 KIP524295:KIP524297 KSL524295:KSL524297 LCH524295:LCH524297 LMD524295:LMD524297 LVZ524295:LVZ524297 MFV524295:MFV524297 MPR524295:MPR524297 MZN524295:MZN524297 NJJ524295:NJJ524297 NTF524295:NTF524297 ODB524295:ODB524297 OMX524295:OMX524297 OWT524295:OWT524297 PGP524295:PGP524297 PQL524295:PQL524297 QAH524295:QAH524297 QKD524295:QKD524297 QTZ524295:QTZ524297 RDV524295:RDV524297 RNR524295:RNR524297 RXN524295:RXN524297 SHJ524295:SHJ524297 SRF524295:SRF524297 TBB524295:TBB524297 TKX524295:TKX524297 TUT524295:TUT524297 UEP524295:UEP524297 UOL524295:UOL524297 UYH524295:UYH524297 VID524295:VID524297 VRZ524295:VRZ524297 WBV524295:WBV524297 WLR524295:WLR524297 WVN524295:WVN524297 F589831:F589833 JB589831:JB589833 SX589831:SX589833 ACT589831:ACT589833 AMP589831:AMP589833 AWL589831:AWL589833 BGH589831:BGH589833 BQD589831:BQD589833 BZZ589831:BZZ589833 CJV589831:CJV589833 CTR589831:CTR589833 DDN589831:DDN589833 DNJ589831:DNJ589833 DXF589831:DXF589833 EHB589831:EHB589833 EQX589831:EQX589833 FAT589831:FAT589833 FKP589831:FKP589833 FUL589831:FUL589833 GEH589831:GEH589833 GOD589831:GOD589833 GXZ589831:GXZ589833 HHV589831:HHV589833 HRR589831:HRR589833 IBN589831:IBN589833 ILJ589831:ILJ589833 IVF589831:IVF589833 JFB589831:JFB589833 JOX589831:JOX589833 JYT589831:JYT589833 KIP589831:KIP589833 KSL589831:KSL589833 LCH589831:LCH589833 LMD589831:LMD589833 LVZ589831:LVZ589833 MFV589831:MFV589833 MPR589831:MPR589833 MZN589831:MZN589833 NJJ589831:NJJ589833 NTF589831:NTF589833 ODB589831:ODB589833 OMX589831:OMX589833 OWT589831:OWT589833 PGP589831:PGP589833 PQL589831:PQL589833 QAH589831:QAH589833 QKD589831:QKD589833 QTZ589831:QTZ589833 RDV589831:RDV589833 RNR589831:RNR589833 RXN589831:RXN589833 SHJ589831:SHJ589833 SRF589831:SRF589833 TBB589831:TBB589833 TKX589831:TKX589833 TUT589831:TUT589833 UEP589831:UEP589833 UOL589831:UOL589833 UYH589831:UYH589833 VID589831:VID589833 VRZ589831:VRZ589833 WBV589831:WBV589833 WLR589831:WLR589833 WVN589831:WVN589833 F655367:F655369 JB655367:JB655369 SX655367:SX655369 ACT655367:ACT655369 AMP655367:AMP655369 AWL655367:AWL655369 BGH655367:BGH655369 BQD655367:BQD655369 BZZ655367:BZZ655369 CJV655367:CJV655369 CTR655367:CTR655369 DDN655367:DDN655369 DNJ655367:DNJ655369 DXF655367:DXF655369 EHB655367:EHB655369 EQX655367:EQX655369 FAT655367:FAT655369 FKP655367:FKP655369 FUL655367:FUL655369 GEH655367:GEH655369 GOD655367:GOD655369 GXZ655367:GXZ655369 HHV655367:HHV655369 HRR655367:HRR655369 IBN655367:IBN655369 ILJ655367:ILJ655369 IVF655367:IVF655369 JFB655367:JFB655369 JOX655367:JOX655369 JYT655367:JYT655369 KIP655367:KIP655369 KSL655367:KSL655369 LCH655367:LCH655369 LMD655367:LMD655369 LVZ655367:LVZ655369 MFV655367:MFV655369 MPR655367:MPR655369 MZN655367:MZN655369 NJJ655367:NJJ655369 NTF655367:NTF655369 ODB655367:ODB655369 OMX655367:OMX655369 OWT655367:OWT655369 PGP655367:PGP655369 PQL655367:PQL655369 QAH655367:QAH655369 QKD655367:QKD655369 QTZ655367:QTZ655369 RDV655367:RDV655369 RNR655367:RNR655369 RXN655367:RXN655369 SHJ655367:SHJ655369 SRF655367:SRF655369 TBB655367:TBB655369 TKX655367:TKX655369 TUT655367:TUT655369 UEP655367:UEP655369 UOL655367:UOL655369 UYH655367:UYH655369 VID655367:VID655369 VRZ655367:VRZ655369 WBV655367:WBV655369 WLR655367:WLR655369 WVN655367:WVN655369 F720903:F720905 JB720903:JB720905 SX720903:SX720905 ACT720903:ACT720905 AMP720903:AMP720905 AWL720903:AWL720905 BGH720903:BGH720905 BQD720903:BQD720905 BZZ720903:BZZ720905 CJV720903:CJV720905 CTR720903:CTR720905 DDN720903:DDN720905 DNJ720903:DNJ720905 DXF720903:DXF720905 EHB720903:EHB720905 EQX720903:EQX720905 FAT720903:FAT720905 FKP720903:FKP720905 FUL720903:FUL720905 GEH720903:GEH720905 GOD720903:GOD720905 GXZ720903:GXZ720905 HHV720903:HHV720905 HRR720903:HRR720905 IBN720903:IBN720905 ILJ720903:ILJ720905 IVF720903:IVF720905 JFB720903:JFB720905 JOX720903:JOX720905 JYT720903:JYT720905 KIP720903:KIP720905 KSL720903:KSL720905 LCH720903:LCH720905 LMD720903:LMD720905 LVZ720903:LVZ720905 MFV720903:MFV720905 MPR720903:MPR720905 MZN720903:MZN720905 NJJ720903:NJJ720905 NTF720903:NTF720905 ODB720903:ODB720905 OMX720903:OMX720905 OWT720903:OWT720905 PGP720903:PGP720905 PQL720903:PQL720905 QAH720903:QAH720905 QKD720903:QKD720905 QTZ720903:QTZ720905 RDV720903:RDV720905 RNR720903:RNR720905 RXN720903:RXN720905 SHJ720903:SHJ720905 SRF720903:SRF720905 TBB720903:TBB720905 TKX720903:TKX720905 TUT720903:TUT720905 UEP720903:UEP720905 UOL720903:UOL720905 UYH720903:UYH720905 VID720903:VID720905 VRZ720903:VRZ720905 WBV720903:WBV720905 WLR720903:WLR720905 WVN720903:WVN720905 F786439:F786441 JB786439:JB786441 SX786439:SX786441 ACT786439:ACT786441 AMP786439:AMP786441 AWL786439:AWL786441 BGH786439:BGH786441 BQD786439:BQD786441 BZZ786439:BZZ786441 CJV786439:CJV786441 CTR786439:CTR786441 DDN786439:DDN786441 DNJ786439:DNJ786441 DXF786439:DXF786441 EHB786439:EHB786441 EQX786439:EQX786441 FAT786439:FAT786441 FKP786439:FKP786441 FUL786439:FUL786441 GEH786439:GEH786441 GOD786439:GOD786441 GXZ786439:GXZ786441 HHV786439:HHV786441 HRR786439:HRR786441 IBN786439:IBN786441 ILJ786439:ILJ786441 IVF786439:IVF786441 JFB786439:JFB786441 JOX786439:JOX786441 JYT786439:JYT786441 KIP786439:KIP786441 KSL786439:KSL786441 LCH786439:LCH786441 LMD786439:LMD786441 LVZ786439:LVZ786441 MFV786439:MFV786441 MPR786439:MPR786441 MZN786439:MZN786441 NJJ786439:NJJ786441 NTF786439:NTF786441 ODB786439:ODB786441 OMX786439:OMX786441 OWT786439:OWT786441 PGP786439:PGP786441 PQL786439:PQL786441 QAH786439:QAH786441 QKD786439:QKD786441 QTZ786439:QTZ786441 RDV786439:RDV786441 RNR786439:RNR786441 RXN786439:RXN786441 SHJ786439:SHJ786441 SRF786439:SRF786441 TBB786439:TBB786441 TKX786439:TKX786441 TUT786439:TUT786441 UEP786439:UEP786441 UOL786439:UOL786441 UYH786439:UYH786441 VID786439:VID786441 VRZ786439:VRZ786441 WBV786439:WBV786441 WLR786439:WLR786441 WVN786439:WVN786441 F851975:F851977 JB851975:JB851977 SX851975:SX851977 ACT851975:ACT851977 AMP851975:AMP851977 AWL851975:AWL851977 BGH851975:BGH851977 BQD851975:BQD851977 BZZ851975:BZZ851977 CJV851975:CJV851977 CTR851975:CTR851977 DDN851975:DDN851977 DNJ851975:DNJ851977 DXF851975:DXF851977 EHB851975:EHB851977 EQX851975:EQX851977 FAT851975:FAT851977 FKP851975:FKP851977 FUL851975:FUL851977 GEH851975:GEH851977 GOD851975:GOD851977 GXZ851975:GXZ851977 HHV851975:HHV851977 HRR851975:HRR851977 IBN851975:IBN851977 ILJ851975:ILJ851977 IVF851975:IVF851977 JFB851975:JFB851977 JOX851975:JOX851977 JYT851975:JYT851977 KIP851975:KIP851977 KSL851975:KSL851977 LCH851975:LCH851977 LMD851975:LMD851977 LVZ851975:LVZ851977 MFV851975:MFV851977 MPR851975:MPR851977 MZN851975:MZN851977 NJJ851975:NJJ851977 NTF851975:NTF851977 ODB851975:ODB851977 OMX851975:OMX851977 OWT851975:OWT851977 PGP851975:PGP851977 PQL851975:PQL851977 QAH851975:QAH851977 QKD851975:QKD851977 QTZ851975:QTZ851977 RDV851975:RDV851977 RNR851975:RNR851977 RXN851975:RXN851977 SHJ851975:SHJ851977 SRF851975:SRF851977 TBB851975:TBB851977 TKX851975:TKX851977 TUT851975:TUT851977 UEP851975:UEP851977 UOL851975:UOL851977 UYH851975:UYH851977 VID851975:VID851977 VRZ851975:VRZ851977 WBV851975:WBV851977 WLR851975:WLR851977 WVN851975:WVN851977 F917511:F917513 JB917511:JB917513 SX917511:SX917513 ACT917511:ACT917513 AMP917511:AMP917513 AWL917511:AWL917513 BGH917511:BGH917513 BQD917511:BQD917513 BZZ917511:BZZ917513 CJV917511:CJV917513 CTR917511:CTR917513 DDN917511:DDN917513 DNJ917511:DNJ917513 DXF917511:DXF917513 EHB917511:EHB917513 EQX917511:EQX917513 FAT917511:FAT917513 FKP917511:FKP917513 FUL917511:FUL917513 GEH917511:GEH917513 GOD917511:GOD917513 GXZ917511:GXZ917513 HHV917511:HHV917513 HRR917511:HRR917513 IBN917511:IBN917513 ILJ917511:ILJ917513 IVF917511:IVF917513 JFB917511:JFB917513 JOX917511:JOX917513 JYT917511:JYT917513 KIP917511:KIP917513 KSL917511:KSL917513 LCH917511:LCH917513 LMD917511:LMD917513 LVZ917511:LVZ917513 MFV917511:MFV917513 MPR917511:MPR917513 MZN917511:MZN917513 NJJ917511:NJJ917513 NTF917511:NTF917513 ODB917511:ODB917513 OMX917511:OMX917513 OWT917511:OWT917513 PGP917511:PGP917513 PQL917511:PQL917513 QAH917511:QAH917513 QKD917511:QKD917513 QTZ917511:QTZ917513 RDV917511:RDV917513 RNR917511:RNR917513 RXN917511:RXN917513 SHJ917511:SHJ917513 SRF917511:SRF917513 TBB917511:TBB917513 TKX917511:TKX917513 TUT917511:TUT917513 UEP917511:UEP917513 UOL917511:UOL917513 UYH917511:UYH917513 VID917511:VID917513 VRZ917511:VRZ917513 WBV917511:WBV917513 WLR917511:WLR917513 WVN917511:WVN917513 F983047:F983049 JB983047:JB983049 SX983047:SX983049 ACT983047:ACT983049 AMP983047:AMP983049 AWL983047:AWL983049 BGH983047:BGH983049 BQD983047:BQD983049 BZZ983047:BZZ983049 CJV983047:CJV983049 CTR983047:CTR983049 DDN983047:DDN983049 DNJ983047:DNJ983049 DXF983047:DXF983049 EHB983047:EHB983049 EQX983047:EQX983049 FAT983047:FAT983049 FKP983047:FKP983049 FUL983047:FUL983049 GEH983047:GEH983049 GOD983047:GOD983049 GXZ983047:GXZ983049 HHV983047:HHV983049 HRR983047:HRR983049 IBN983047:IBN983049 ILJ983047:ILJ983049 IVF983047:IVF983049 JFB983047:JFB983049 JOX983047:JOX983049 JYT983047:JYT983049 KIP983047:KIP983049 KSL983047:KSL983049 LCH983047:LCH983049 LMD983047:LMD983049 LVZ983047:LVZ983049 MFV983047:MFV983049 MPR983047:MPR983049 MZN983047:MZN983049 NJJ983047:NJJ983049 NTF983047:NTF983049 ODB983047:ODB983049 OMX983047:OMX983049 OWT983047:OWT983049 PGP983047:PGP983049 PQL983047:PQL983049 QAH983047:QAH983049 QKD983047:QKD983049 QTZ983047:QTZ983049 RDV983047:RDV983049 RNR983047:RNR983049 RXN983047:RXN983049 SHJ983047:SHJ983049 SRF983047:SRF983049 TBB983047:TBB983049 TKX983047:TKX983049 TUT983047:TUT983049 UEP983047:UEP983049 UOL983047:UOL983049 UYH983047:UYH983049 VID983047:VID983049 VRZ983047:VRZ983049 WBV983047:WBV983049 WLR983047:WLR983049 WVN983047:WVN983049 WVN983053:WVN983190 F65549:F65686 JB65549:JB65686 SX65549:SX65686 ACT65549:ACT65686 AMP65549:AMP65686 AWL65549:AWL65686 BGH65549:BGH65686 BQD65549:BQD65686 BZZ65549:BZZ65686 CJV65549:CJV65686 CTR65549:CTR65686 DDN65549:DDN65686 DNJ65549:DNJ65686 DXF65549:DXF65686 EHB65549:EHB65686 EQX65549:EQX65686 FAT65549:FAT65686 FKP65549:FKP65686 FUL65549:FUL65686 GEH65549:GEH65686 GOD65549:GOD65686 GXZ65549:GXZ65686 HHV65549:HHV65686 HRR65549:HRR65686 IBN65549:IBN65686 ILJ65549:ILJ65686 IVF65549:IVF65686 JFB65549:JFB65686 JOX65549:JOX65686 JYT65549:JYT65686 KIP65549:KIP65686 KSL65549:KSL65686 LCH65549:LCH65686 LMD65549:LMD65686 LVZ65549:LVZ65686 MFV65549:MFV65686 MPR65549:MPR65686 MZN65549:MZN65686 NJJ65549:NJJ65686 NTF65549:NTF65686 ODB65549:ODB65686 OMX65549:OMX65686 OWT65549:OWT65686 PGP65549:PGP65686 PQL65549:PQL65686 QAH65549:QAH65686 QKD65549:QKD65686 QTZ65549:QTZ65686 RDV65549:RDV65686 RNR65549:RNR65686 RXN65549:RXN65686 SHJ65549:SHJ65686 SRF65549:SRF65686 TBB65549:TBB65686 TKX65549:TKX65686 TUT65549:TUT65686 UEP65549:UEP65686 UOL65549:UOL65686 UYH65549:UYH65686 VID65549:VID65686 VRZ65549:VRZ65686 WBV65549:WBV65686 WLR65549:WLR65686 WVN65549:WVN65686 F131085:F131222 JB131085:JB131222 SX131085:SX131222 ACT131085:ACT131222 AMP131085:AMP131222 AWL131085:AWL131222 BGH131085:BGH131222 BQD131085:BQD131222 BZZ131085:BZZ131222 CJV131085:CJV131222 CTR131085:CTR131222 DDN131085:DDN131222 DNJ131085:DNJ131222 DXF131085:DXF131222 EHB131085:EHB131222 EQX131085:EQX131222 FAT131085:FAT131222 FKP131085:FKP131222 FUL131085:FUL131222 GEH131085:GEH131222 GOD131085:GOD131222 GXZ131085:GXZ131222 HHV131085:HHV131222 HRR131085:HRR131222 IBN131085:IBN131222 ILJ131085:ILJ131222 IVF131085:IVF131222 JFB131085:JFB131222 JOX131085:JOX131222 JYT131085:JYT131222 KIP131085:KIP131222 KSL131085:KSL131222 LCH131085:LCH131222 LMD131085:LMD131222 LVZ131085:LVZ131222 MFV131085:MFV131222 MPR131085:MPR131222 MZN131085:MZN131222 NJJ131085:NJJ131222 NTF131085:NTF131222 ODB131085:ODB131222 OMX131085:OMX131222 OWT131085:OWT131222 PGP131085:PGP131222 PQL131085:PQL131222 QAH131085:QAH131222 QKD131085:QKD131222 QTZ131085:QTZ131222 RDV131085:RDV131222 RNR131085:RNR131222 RXN131085:RXN131222 SHJ131085:SHJ131222 SRF131085:SRF131222 TBB131085:TBB131222 TKX131085:TKX131222 TUT131085:TUT131222 UEP131085:UEP131222 UOL131085:UOL131222 UYH131085:UYH131222 VID131085:VID131222 VRZ131085:VRZ131222 WBV131085:WBV131222 WLR131085:WLR131222 WVN131085:WVN131222 F196621:F196758 JB196621:JB196758 SX196621:SX196758 ACT196621:ACT196758 AMP196621:AMP196758 AWL196621:AWL196758 BGH196621:BGH196758 BQD196621:BQD196758 BZZ196621:BZZ196758 CJV196621:CJV196758 CTR196621:CTR196758 DDN196621:DDN196758 DNJ196621:DNJ196758 DXF196621:DXF196758 EHB196621:EHB196758 EQX196621:EQX196758 FAT196621:FAT196758 FKP196621:FKP196758 FUL196621:FUL196758 GEH196621:GEH196758 GOD196621:GOD196758 GXZ196621:GXZ196758 HHV196621:HHV196758 HRR196621:HRR196758 IBN196621:IBN196758 ILJ196621:ILJ196758 IVF196621:IVF196758 JFB196621:JFB196758 JOX196621:JOX196758 JYT196621:JYT196758 KIP196621:KIP196758 KSL196621:KSL196758 LCH196621:LCH196758 LMD196621:LMD196758 LVZ196621:LVZ196758 MFV196621:MFV196758 MPR196621:MPR196758 MZN196621:MZN196758 NJJ196621:NJJ196758 NTF196621:NTF196758 ODB196621:ODB196758 OMX196621:OMX196758 OWT196621:OWT196758 PGP196621:PGP196758 PQL196621:PQL196758 QAH196621:QAH196758 QKD196621:QKD196758 QTZ196621:QTZ196758 RDV196621:RDV196758 RNR196621:RNR196758 RXN196621:RXN196758 SHJ196621:SHJ196758 SRF196621:SRF196758 TBB196621:TBB196758 TKX196621:TKX196758 TUT196621:TUT196758 UEP196621:UEP196758 UOL196621:UOL196758 UYH196621:UYH196758 VID196621:VID196758 VRZ196621:VRZ196758 WBV196621:WBV196758 WLR196621:WLR196758 WVN196621:WVN196758 F262157:F262294 JB262157:JB262294 SX262157:SX262294 ACT262157:ACT262294 AMP262157:AMP262294 AWL262157:AWL262294 BGH262157:BGH262294 BQD262157:BQD262294 BZZ262157:BZZ262294 CJV262157:CJV262294 CTR262157:CTR262294 DDN262157:DDN262294 DNJ262157:DNJ262294 DXF262157:DXF262294 EHB262157:EHB262294 EQX262157:EQX262294 FAT262157:FAT262294 FKP262157:FKP262294 FUL262157:FUL262294 GEH262157:GEH262294 GOD262157:GOD262294 GXZ262157:GXZ262294 HHV262157:HHV262294 HRR262157:HRR262294 IBN262157:IBN262294 ILJ262157:ILJ262294 IVF262157:IVF262294 JFB262157:JFB262294 JOX262157:JOX262294 JYT262157:JYT262294 KIP262157:KIP262294 KSL262157:KSL262294 LCH262157:LCH262294 LMD262157:LMD262294 LVZ262157:LVZ262294 MFV262157:MFV262294 MPR262157:MPR262294 MZN262157:MZN262294 NJJ262157:NJJ262294 NTF262157:NTF262294 ODB262157:ODB262294 OMX262157:OMX262294 OWT262157:OWT262294 PGP262157:PGP262294 PQL262157:PQL262294 QAH262157:QAH262294 QKD262157:QKD262294 QTZ262157:QTZ262294 RDV262157:RDV262294 RNR262157:RNR262294 RXN262157:RXN262294 SHJ262157:SHJ262294 SRF262157:SRF262294 TBB262157:TBB262294 TKX262157:TKX262294 TUT262157:TUT262294 UEP262157:UEP262294 UOL262157:UOL262294 UYH262157:UYH262294 VID262157:VID262294 VRZ262157:VRZ262294 WBV262157:WBV262294 WLR262157:WLR262294 WVN262157:WVN262294 F327693:F327830 JB327693:JB327830 SX327693:SX327830 ACT327693:ACT327830 AMP327693:AMP327830 AWL327693:AWL327830 BGH327693:BGH327830 BQD327693:BQD327830 BZZ327693:BZZ327830 CJV327693:CJV327830 CTR327693:CTR327830 DDN327693:DDN327830 DNJ327693:DNJ327830 DXF327693:DXF327830 EHB327693:EHB327830 EQX327693:EQX327830 FAT327693:FAT327830 FKP327693:FKP327830 FUL327693:FUL327830 GEH327693:GEH327830 GOD327693:GOD327830 GXZ327693:GXZ327830 HHV327693:HHV327830 HRR327693:HRR327830 IBN327693:IBN327830 ILJ327693:ILJ327830 IVF327693:IVF327830 JFB327693:JFB327830 JOX327693:JOX327830 JYT327693:JYT327830 KIP327693:KIP327830 KSL327693:KSL327830 LCH327693:LCH327830 LMD327693:LMD327830 LVZ327693:LVZ327830 MFV327693:MFV327830 MPR327693:MPR327830 MZN327693:MZN327830 NJJ327693:NJJ327830 NTF327693:NTF327830 ODB327693:ODB327830 OMX327693:OMX327830 OWT327693:OWT327830 PGP327693:PGP327830 PQL327693:PQL327830 QAH327693:QAH327830 QKD327693:QKD327830 QTZ327693:QTZ327830 RDV327693:RDV327830 RNR327693:RNR327830 RXN327693:RXN327830 SHJ327693:SHJ327830 SRF327693:SRF327830 TBB327693:TBB327830 TKX327693:TKX327830 TUT327693:TUT327830 UEP327693:UEP327830 UOL327693:UOL327830 UYH327693:UYH327830 VID327693:VID327830 VRZ327693:VRZ327830 WBV327693:WBV327830 WLR327693:WLR327830 WVN327693:WVN327830 F393229:F393366 JB393229:JB393366 SX393229:SX393366 ACT393229:ACT393366 AMP393229:AMP393366 AWL393229:AWL393366 BGH393229:BGH393366 BQD393229:BQD393366 BZZ393229:BZZ393366 CJV393229:CJV393366 CTR393229:CTR393366 DDN393229:DDN393366 DNJ393229:DNJ393366 DXF393229:DXF393366 EHB393229:EHB393366 EQX393229:EQX393366 FAT393229:FAT393366 FKP393229:FKP393366 FUL393229:FUL393366 GEH393229:GEH393366 GOD393229:GOD393366 GXZ393229:GXZ393366 HHV393229:HHV393366 HRR393229:HRR393366 IBN393229:IBN393366 ILJ393229:ILJ393366 IVF393229:IVF393366 JFB393229:JFB393366 JOX393229:JOX393366 JYT393229:JYT393366 KIP393229:KIP393366 KSL393229:KSL393366 LCH393229:LCH393366 LMD393229:LMD393366 LVZ393229:LVZ393366 MFV393229:MFV393366 MPR393229:MPR393366 MZN393229:MZN393366 NJJ393229:NJJ393366 NTF393229:NTF393366 ODB393229:ODB393366 OMX393229:OMX393366 OWT393229:OWT393366 PGP393229:PGP393366 PQL393229:PQL393366 QAH393229:QAH393366 QKD393229:QKD393366 QTZ393229:QTZ393366 RDV393229:RDV393366 RNR393229:RNR393366 RXN393229:RXN393366 SHJ393229:SHJ393366 SRF393229:SRF393366 TBB393229:TBB393366 TKX393229:TKX393366 TUT393229:TUT393366 UEP393229:UEP393366 UOL393229:UOL393366 UYH393229:UYH393366 VID393229:VID393366 VRZ393229:VRZ393366 WBV393229:WBV393366 WLR393229:WLR393366 WVN393229:WVN393366 F458765:F458902 JB458765:JB458902 SX458765:SX458902 ACT458765:ACT458902 AMP458765:AMP458902 AWL458765:AWL458902 BGH458765:BGH458902 BQD458765:BQD458902 BZZ458765:BZZ458902 CJV458765:CJV458902 CTR458765:CTR458902 DDN458765:DDN458902 DNJ458765:DNJ458902 DXF458765:DXF458902 EHB458765:EHB458902 EQX458765:EQX458902 FAT458765:FAT458902 FKP458765:FKP458902 FUL458765:FUL458902 GEH458765:GEH458902 GOD458765:GOD458902 GXZ458765:GXZ458902 HHV458765:HHV458902 HRR458765:HRR458902 IBN458765:IBN458902 ILJ458765:ILJ458902 IVF458765:IVF458902 JFB458765:JFB458902 JOX458765:JOX458902 JYT458765:JYT458902 KIP458765:KIP458902 KSL458765:KSL458902 LCH458765:LCH458902 LMD458765:LMD458902 LVZ458765:LVZ458902 MFV458765:MFV458902 MPR458765:MPR458902 MZN458765:MZN458902 NJJ458765:NJJ458902 NTF458765:NTF458902 ODB458765:ODB458902 OMX458765:OMX458902 OWT458765:OWT458902 PGP458765:PGP458902 PQL458765:PQL458902 QAH458765:QAH458902 QKD458765:QKD458902 QTZ458765:QTZ458902 RDV458765:RDV458902 RNR458765:RNR458902 RXN458765:RXN458902 SHJ458765:SHJ458902 SRF458765:SRF458902 TBB458765:TBB458902 TKX458765:TKX458902 TUT458765:TUT458902 UEP458765:UEP458902 UOL458765:UOL458902 UYH458765:UYH458902 VID458765:VID458902 VRZ458765:VRZ458902 WBV458765:WBV458902 WLR458765:WLR458902 WVN458765:WVN458902 F524301:F524438 JB524301:JB524438 SX524301:SX524438 ACT524301:ACT524438 AMP524301:AMP524438 AWL524301:AWL524438 BGH524301:BGH524438 BQD524301:BQD524438 BZZ524301:BZZ524438 CJV524301:CJV524438 CTR524301:CTR524438 DDN524301:DDN524438 DNJ524301:DNJ524438 DXF524301:DXF524438 EHB524301:EHB524438 EQX524301:EQX524438 FAT524301:FAT524438 FKP524301:FKP524438 FUL524301:FUL524438 GEH524301:GEH524438 GOD524301:GOD524438 GXZ524301:GXZ524438 HHV524301:HHV524438 HRR524301:HRR524438 IBN524301:IBN524438 ILJ524301:ILJ524438 IVF524301:IVF524438 JFB524301:JFB524438 JOX524301:JOX524438 JYT524301:JYT524438 KIP524301:KIP524438 KSL524301:KSL524438 LCH524301:LCH524438 LMD524301:LMD524438 LVZ524301:LVZ524438 MFV524301:MFV524438 MPR524301:MPR524438 MZN524301:MZN524438 NJJ524301:NJJ524438 NTF524301:NTF524438 ODB524301:ODB524438 OMX524301:OMX524438 OWT524301:OWT524438 PGP524301:PGP524438 PQL524301:PQL524438 QAH524301:QAH524438 QKD524301:QKD524438 QTZ524301:QTZ524438 RDV524301:RDV524438 RNR524301:RNR524438 RXN524301:RXN524438 SHJ524301:SHJ524438 SRF524301:SRF524438 TBB524301:TBB524438 TKX524301:TKX524438 TUT524301:TUT524438 UEP524301:UEP524438 UOL524301:UOL524438 UYH524301:UYH524438 VID524301:VID524438 VRZ524301:VRZ524438 WBV524301:WBV524438 WLR524301:WLR524438 WVN524301:WVN524438 F589837:F589974 JB589837:JB589974 SX589837:SX589974 ACT589837:ACT589974 AMP589837:AMP589974 AWL589837:AWL589974 BGH589837:BGH589974 BQD589837:BQD589974 BZZ589837:BZZ589974 CJV589837:CJV589974 CTR589837:CTR589974 DDN589837:DDN589974 DNJ589837:DNJ589974 DXF589837:DXF589974 EHB589837:EHB589974 EQX589837:EQX589974 FAT589837:FAT589974 FKP589837:FKP589974 FUL589837:FUL589974 GEH589837:GEH589974 GOD589837:GOD589974 GXZ589837:GXZ589974 HHV589837:HHV589974 HRR589837:HRR589974 IBN589837:IBN589974 ILJ589837:ILJ589974 IVF589837:IVF589974 JFB589837:JFB589974 JOX589837:JOX589974 JYT589837:JYT589974 KIP589837:KIP589974 KSL589837:KSL589974 LCH589837:LCH589974 LMD589837:LMD589974 LVZ589837:LVZ589974 MFV589837:MFV589974 MPR589837:MPR589974 MZN589837:MZN589974 NJJ589837:NJJ589974 NTF589837:NTF589974 ODB589837:ODB589974 OMX589837:OMX589974 OWT589837:OWT589974 PGP589837:PGP589974 PQL589837:PQL589974 QAH589837:QAH589974 QKD589837:QKD589974 QTZ589837:QTZ589974 RDV589837:RDV589974 RNR589837:RNR589974 RXN589837:RXN589974 SHJ589837:SHJ589974 SRF589837:SRF589974 TBB589837:TBB589974 TKX589837:TKX589974 TUT589837:TUT589974 UEP589837:UEP589974 UOL589837:UOL589974 UYH589837:UYH589974 VID589837:VID589974 VRZ589837:VRZ589974 WBV589837:WBV589974 WLR589837:WLR589974 WVN589837:WVN589974 F655373:F655510 JB655373:JB655510 SX655373:SX655510 ACT655373:ACT655510 AMP655373:AMP655510 AWL655373:AWL655510 BGH655373:BGH655510 BQD655373:BQD655510 BZZ655373:BZZ655510 CJV655373:CJV655510 CTR655373:CTR655510 DDN655373:DDN655510 DNJ655373:DNJ655510 DXF655373:DXF655510 EHB655373:EHB655510 EQX655373:EQX655510 FAT655373:FAT655510 FKP655373:FKP655510 FUL655373:FUL655510 GEH655373:GEH655510 GOD655373:GOD655510 GXZ655373:GXZ655510 HHV655373:HHV655510 HRR655373:HRR655510 IBN655373:IBN655510 ILJ655373:ILJ655510 IVF655373:IVF655510 JFB655373:JFB655510 JOX655373:JOX655510 JYT655373:JYT655510 KIP655373:KIP655510 KSL655373:KSL655510 LCH655373:LCH655510 LMD655373:LMD655510 LVZ655373:LVZ655510 MFV655373:MFV655510 MPR655373:MPR655510 MZN655373:MZN655510 NJJ655373:NJJ655510 NTF655373:NTF655510 ODB655373:ODB655510 OMX655373:OMX655510 OWT655373:OWT655510 PGP655373:PGP655510 PQL655373:PQL655510 QAH655373:QAH655510 QKD655373:QKD655510 QTZ655373:QTZ655510 RDV655373:RDV655510 RNR655373:RNR655510 RXN655373:RXN655510 SHJ655373:SHJ655510 SRF655373:SRF655510 TBB655373:TBB655510 TKX655373:TKX655510 TUT655373:TUT655510 UEP655373:UEP655510 UOL655373:UOL655510 UYH655373:UYH655510 VID655373:VID655510 VRZ655373:VRZ655510 WBV655373:WBV655510 WLR655373:WLR655510 WVN655373:WVN655510 F720909:F721046 JB720909:JB721046 SX720909:SX721046 ACT720909:ACT721046 AMP720909:AMP721046 AWL720909:AWL721046 BGH720909:BGH721046 BQD720909:BQD721046 BZZ720909:BZZ721046 CJV720909:CJV721046 CTR720909:CTR721046 DDN720909:DDN721046 DNJ720909:DNJ721046 DXF720909:DXF721046 EHB720909:EHB721046 EQX720909:EQX721046 FAT720909:FAT721046 FKP720909:FKP721046 FUL720909:FUL721046 GEH720909:GEH721046 GOD720909:GOD721046 GXZ720909:GXZ721046 HHV720909:HHV721046 HRR720909:HRR721046 IBN720909:IBN721046 ILJ720909:ILJ721046 IVF720909:IVF721046 JFB720909:JFB721046 JOX720909:JOX721046 JYT720909:JYT721046 KIP720909:KIP721046 KSL720909:KSL721046 LCH720909:LCH721046 LMD720909:LMD721046 LVZ720909:LVZ721046 MFV720909:MFV721046 MPR720909:MPR721046 MZN720909:MZN721046 NJJ720909:NJJ721046 NTF720909:NTF721046 ODB720909:ODB721046 OMX720909:OMX721046 OWT720909:OWT721046 PGP720909:PGP721046 PQL720909:PQL721046 QAH720909:QAH721046 QKD720909:QKD721046 QTZ720909:QTZ721046 RDV720909:RDV721046 RNR720909:RNR721046 RXN720909:RXN721046 SHJ720909:SHJ721046 SRF720909:SRF721046 TBB720909:TBB721046 TKX720909:TKX721046 TUT720909:TUT721046 UEP720909:UEP721046 UOL720909:UOL721046 UYH720909:UYH721046 VID720909:VID721046 VRZ720909:VRZ721046 WBV720909:WBV721046 WLR720909:WLR721046 WVN720909:WVN721046 F786445:F786582 JB786445:JB786582 SX786445:SX786582 ACT786445:ACT786582 AMP786445:AMP786582 AWL786445:AWL786582 BGH786445:BGH786582 BQD786445:BQD786582 BZZ786445:BZZ786582 CJV786445:CJV786582 CTR786445:CTR786582 DDN786445:DDN786582 DNJ786445:DNJ786582 DXF786445:DXF786582 EHB786445:EHB786582 EQX786445:EQX786582 FAT786445:FAT786582 FKP786445:FKP786582 FUL786445:FUL786582 GEH786445:GEH786582 GOD786445:GOD786582 GXZ786445:GXZ786582 HHV786445:HHV786582 HRR786445:HRR786582 IBN786445:IBN786582 ILJ786445:ILJ786582 IVF786445:IVF786582 JFB786445:JFB786582 JOX786445:JOX786582 JYT786445:JYT786582 KIP786445:KIP786582 KSL786445:KSL786582 LCH786445:LCH786582 LMD786445:LMD786582 LVZ786445:LVZ786582 MFV786445:MFV786582 MPR786445:MPR786582 MZN786445:MZN786582 NJJ786445:NJJ786582 NTF786445:NTF786582 ODB786445:ODB786582 OMX786445:OMX786582 OWT786445:OWT786582 PGP786445:PGP786582 PQL786445:PQL786582 QAH786445:QAH786582 QKD786445:QKD786582 QTZ786445:QTZ786582 RDV786445:RDV786582 RNR786445:RNR786582 RXN786445:RXN786582 SHJ786445:SHJ786582 SRF786445:SRF786582 TBB786445:TBB786582 TKX786445:TKX786582 TUT786445:TUT786582 UEP786445:UEP786582 UOL786445:UOL786582 UYH786445:UYH786582 VID786445:VID786582 VRZ786445:VRZ786582 WBV786445:WBV786582 WLR786445:WLR786582 WVN786445:WVN786582 F851981:F852118 JB851981:JB852118 SX851981:SX852118 ACT851981:ACT852118 AMP851981:AMP852118 AWL851981:AWL852118 BGH851981:BGH852118 BQD851981:BQD852118 BZZ851981:BZZ852118 CJV851981:CJV852118 CTR851981:CTR852118 DDN851981:DDN852118 DNJ851981:DNJ852118 DXF851981:DXF852118 EHB851981:EHB852118 EQX851981:EQX852118 FAT851981:FAT852118 FKP851981:FKP852118 FUL851981:FUL852118 GEH851981:GEH852118 GOD851981:GOD852118 GXZ851981:GXZ852118 HHV851981:HHV852118 HRR851981:HRR852118 IBN851981:IBN852118 ILJ851981:ILJ852118 IVF851981:IVF852118 JFB851981:JFB852118 JOX851981:JOX852118 JYT851981:JYT852118 KIP851981:KIP852118 KSL851981:KSL852118 LCH851981:LCH852118 LMD851981:LMD852118 LVZ851981:LVZ852118 MFV851981:MFV852118 MPR851981:MPR852118 MZN851981:MZN852118 NJJ851981:NJJ852118 NTF851981:NTF852118 ODB851981:ODB852118 OMX851981:OMX852118 OWT851981:OWT852118 PGP851981:PGP852118 PQL851981:PQL852118 QAH851981:QAH852118 QKD851981:QKD852118 QTZ851981:QTZ852118 RDV851981:RDV852118 RNR851981:RNR852118 RXN851981:RXN852118 SHJ851981:SHJ852118 SRF851981:SRF852118 TBB851981:TBB852118 TKX851981:TKX852118 TUT851981:TUT852118 UEP851981:UEP852118 UOL851981:UOL852118 UYH851981:UYH852118 VID851981:VID852118 VRZ851981:VRZ852118 WBV851981:WBV852118 WLR851981:WLR852118 WVN851981:WVN852118 F917517:F917654 JB917517:JB917654 SX917517:SX917654 ACT917517:ACT917654 AMP917517:AMP917654 AWL917517:AWL917654 BGH917517:BGH917654 BQD917517:BQD917654 BZZ917517:BZZ917654 CJV917517:CJV917654 CTR917517:CTR917654 DDN917517:DDN917654 DNJ917517:DNJ917654 DXF917517:DXF917654 EHB917517:EHB917654 EQX917517:EQX917654 FAT917517:FAT917654 FKP917517:FKP917654 FUL917517:FUL917654 GEH917517:GEH917654 GOD917517:GOD917654 GXZ917517:GXZ917654 HHV917517:HHV917654 HRR917517:HRR917654 IBN917517:IBN917654 ILJ917517:ILJ917654 IVF917517:IVF917654 JFB917517:JFB917654 JOX917517:JOX917654 JYT917517:JYT917654 KIP917517:KIP917654 KSL917517:KSL917654 LCH917517:LCH917654 LMD917517:LMD917654 LVZ917517:LVZ917654 MFV917517:MFV917654 MPR917517:MPR917654 MZN917517:MZN917654 NJJ917517:NJJ917654 NTF917517:NTF917654 ODB917517:ODB917654 OMX917517:OMX917654 OWT917517:OWT917654 PGP917517:PGP917654 PQL917517:PQL917654 QAH917517:QAH917654 QKD917517:QKD917654 QTZ917517:QTZ917654 RDV917517:RDV917654 RNR917517:RNR917654 RXN917517:RXN917654 SHJ917517:SHJ917654 SRF917517:SRF917654 TBB917517:TBB917654 TKX917517:TKX917654 TUT917517:TUT917654 UEP917517:UEP917654 UOL917517:UOL917654 UYH917517:UYH917654 VID917517:VID917654 VRZ917517:VRZ917654 WBV917517:WBV917654 WLR917517:WLR917654 WVN917517:WVN917654 F983053:F983190 JB983053:JB983190 SX983053:SX983190 ACT983053:ACT983190 AMP983053:AMP983190 AWL983053:AWL983190 BGH983053:BGH983190 BQD983053:BQD983190 BZZ983053:BZZ983190 CJV983053:CJV983190 CTR983053:CTR983190 DDN983053:DDN983190 DNJ983053:DNJ983190 DXF983053:DXF983190 EHB983053:EHB983190 EQX983053:EQX983190 FAT983053:FAT983190 FKP983053:FKP983190 FUL983053:FUL983190 GEH983053:GEH983190 GOD983053:GOD983190 GXZ983053:GXZ983190 HHV983053:HHV983190 HRR983053:HRR983190 IBN983053:IBN983190 ILJ983053:ILJ983190 IVF983053:IVF983190 JFB983053:JFB983190 JOX983053:JOX983190 JYT983053:JYT983190 KIP983053:KIP983190 KSL983053:KSL983190 LCH983053:LCH983190 LMD983053:LMD983190 LVZ983053:LVZ983190 MFV983053:MFV983190 MPR983053:MPR983190 MZN983053:MZN983190 NJJ983053:NJJ983190 NTF983053:NTF983190 ODB983053:ODB983190 OMX983053:OMX983190 OWT983053:OWT983190 PGP983053:PGP983190 PQL983053:PQL983190 QAH983053:QAH983190 QKD983053:QKD983190 QTZ983053:QTZ983190 RDV983053:RDV983190 RNR983053:RNR983190 RXN983053:RXN983190 SHJ983053:SHJ983190 SRF983053:SRF983190 TBB983053:TBB983190 TKX983053:TKX983190 TUT983053:TUT983190 UEP983053:UEP983190 UOL983053:UOL983190 UYH983053:UYH983190 VID983053:VID983190 VRZ983053:VRZ983190 WBV983053:WBV983190 WLR983053:WLR983190 JB7:JB150 WVN7:WVN150 WLR7:WLR150 WBV7:WBV150 VRZ7:VRZ150 VID7:VID150 UYH7:UYH150 UOL7:UOL150 UEP7:UEP150 TUT7:TUT150 TKX7:TKX150 TBB7:TBB150 SRF7:SRF150 SHJ7:SHJ150 RXN7:RXN150 RNR7:RNR150 RDV7:RDV150 QTZ7:QTZ150 QKD7:QKD150 QAH7:QAH150 PQL7:PQL150 PGP7:PGP150 OWT7:OWT150 OMX7:OMX150 ODB7:ODB150 NTF7:NTF150 NJJ7:NJJ150 MZN7:MZN150 MPR7:MPR150 MFV7:MFV150 LVZ7:LVZ150 LMD7:LMD150 LCH7:LCH150 KSL7:KSL150 KIP7:KIP150 JYT7:JYT150 JOX7:JOX150 JFB7:JFB150 IVF7:IVF150 ILJ7:ILJ150 IBN7:IBN150 HRR7:HRR150 HHV7:HHV150 GXZ7:GXZ150 GOD7:GOD150 GEH7:GEH150 FUL7:FUL150 FKP7:FKP150 FAT7:FAT150 EQX7:EQX150 EHB7:EHB150 DXF7:DXF150 DNJ7:DNJ150 DDN7:DDN150 CTR7:CTR150 CJV7:CJV150 BZZ7:BZZ150 BQD7:BQD150 BGH7:BGH150 AWL7:AWL150 AMP7:AMP150 ACT7:ACT150 SX7:SX150 F7:F150">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65544:F65546 JB65544:JB65546 SX65544:SX65546 ACT65544:ACT65546 AMP65544:AMP65546 AWL65544:AWL65546 BGH65544:BGH65546 BQD65544:BQD65546 BZZ65544:BZZ65546 CJV65544:CJV65546 CTR65544:CTR65546 DDN65544:DDN65546 DNJ65544:DNJ65546 DXF65544:DXF65546 EHB65544:EHB65546 EQX65544:EQX65546 FAT65544:FAT65546 FKP65544:FKP65546 FUL65544:FUL65546 GEH65544:GEH65546 GOD65544:GOD65546 GXZ65544:GXZ65546 HHV65544:HHV65546 HRR65544:HRR65546 IBN65544:IBN65546 ILJ65544:ILJ65546 IVF65544:IVF65546 JFB65544:JFB65546 JOX65544:JOX65546 JYT65544:JYT65546 KIP65544:KIP65546 KSL65544:KSL65546 LCH65544:LCH65546 LMD65544:LMD65546 LVZ65544:LVZ65546 MFV65544:MFV65546 MPR65544:MPR65546 MZN65544:MZN65546 NJJ65544:NJJ65546 NTF65544:NTF65546 ODB65544:ODB65546 OMX65544:OMX65546 OWT65544:OWT65546 PGP65544:PGP65546 PQL65544:PQL65546 QAH65544:QAH65546 QKD65544:QKD65546 QTZ65544:QTZ65546 RDV65544:RDV65546 RNR65544:RNR65546 RXN65544:RXN65546 SHJ65544:SHJ65546 SRF65544:SRF65546 TBB65544:TBB65546 TKX65544:TKX65546 TUT65544:TUT65546 UEP65544:UEP65546 UOL65544:UOL65546 UYH65544:UYH65546 VID65544:VID65546 VRZ65544:VRZ65546 WBV65544:WBV65546 WLR65544:WLR65546 WVN65544:WVN65546 F131080:F131082 JB131080:JB131082 SX131080:SX131082 ACT131080:ACT131082 AMP131080:AMP131082 AWL131080:AWL131082 BGH131080:BGH131082 BQD131080:BQD131082 BZZ131080:BZZ131082 CJV131080:CJV131082 CTR131080:CTR131082 DDN131080:DDN131082 DNJ131080:DNJ131082 DXF131080:DXF131082 EHB131080:EHB131082 EQX131080:EQX131082 FAT131080:FAT131082 FKP131080:FKP131082 FUL131080:FUL131082 GEH131080:GEH131082 GOD131080:GOD131082 GXZ131080:GXZ131082 HHV131080:HHV131082 HRR131080:HRR131082 IBN131080:IBN131082 ILJ131080:ILJ131082 IVF131080:IVF131082 JFB131080:JFB131082 JOX131080:JOX131082 JYT131080:JYT131082 KIP131080:KIP131082 KSL131080:KSL131082 LCH131080:LCH131082 LMD131080:LMD131082 LVZ131080:LVZ131082 MFV131080:MFV131082 MPR131080:MPR131082 MZN131080:MZN131082 NJJ131080:NJJ131082 NTF131080:NTF131082 ODB131080:ODB131082 OMX131080:OMX131082 OWT131080:OWT131082 PGP131080:PGP131082 PQL131080:PQL131082 QAH131080:QAH131082 QKD131080:QKD131082 QTZ131080:QTZ131082 RDV131080:RDV131082 RNR131080:RNR131082 RXN131080:RXN131082 SHJ131080:SHJ131082 SRF131080:SRF131082 TBB131080:TBB131082 TKX131080:TKX131082 TUT131080:TUT131082 UEP131080:UEP131082 UOL131080:UOL131082 UYH131080:UYH131082 VID131080:VID131082 VRZ131080:VRZ131082 WBV131080:WBV131082 WLR131080:WLR131082 WVN131080:WVN131082 F196616:F196618 JB196616:JB196618 SX196616:SX196618 ACT196616:ACT196618 AMP196616:AMP196618 AWL196616:AWL196618 BGH196616:BGH196618 BQD196616:BQD196618 BZZ196616:BZZ196618 CJV196616:CJV196618 CTR196616:CTR196618 DDN196616:DDN196618 DNJ196616:DNJ196618 DXF196616:DXF196618 EHB196616:EHB196618 EQX196616:EQX196618 FAT196616:FAT196618 FKP196616:FKP196618 FUL196616:FUL196618 GEH196616:GEH196618 GOD196616:GOD196618 GXZ196616:GXZ196618 HHV196616:HHV196618 HRR196616:HRR196618 IBN196616:IBN196618 ILJ196616:ILJ196618 IVF196616:IVF196618 JFB196616:JFB196618 JOX196616:JOX196618 JYT196616:JYT196618 KIP196616:KIP196618 KSL196616:KSL196618 LCH196616:LCH196618 LMD196616:LMD196618 LVZ196616:LVZ196618 MFV196616:MFV196618 MPR196616:MPR196618 MZN196616:MZN196618 NJJ196616:NJJ196618 NTF196616:NTF196618 ODB196616:ODB196618 OMX196616:OMX196618 OWT196616:OWT196618 PGP196616:PGP196618 PQL196616:PQL196618 QAH196616:QAH196618 QKD196616:QKD196618 QTZ196616:QTZ196618 RDV196616:RDV196618 RNR196616:RNR196618 RXN196616:RXN196618 SHJ196616:SHJ196618 SRF196616:SRF196618 TBB196616:TBB196618 TKX196616:TKX196618 TUT196616:TUT196618 UEP196616:UEP196618 UOL196616:UOL196618 UYH196616:UYH196618 VID196616:VID196618 VRZ196616:VRZ196618 WBV196616:WBV196618 WLR196616:WLR196618 WVN196616:WVN196618 F262152:F262154 JB262152:JB262154 SX262152:SX262154 ACT262152:ACT262154 AMP262152:AMP262154 AWL262152:AWL262154 BGH262152:BGH262154 BQD262152:BQD262154 BZZ262152:BZZ262154 CJV262152:CJV262154 CTR262152:CTR262154 DDN262152:DDN262154 DNJ262152:DNJ262154 DXF262152:DXF262154 EHB262152:EHB262154 EQX262152:EQX262154 FAT262152:FAT262154 FKP262152:FKP262154 FUL262152:FUL262154 GEH262152:GEH262154 GOD262152:GOD262154 GXZ262152:GXZ262154 HHV262152:HHV262154 HRR262152:HRR262154 IBN262152:IBN262154 ILJ262152:ILJ262154 IVF262152:IVF262154 JFB262152:JFB262154 JOX262152:JOX262154 JYT262152:JYT262154 KIP262152:KIP262154 KSL262152:KSL262154 LCH262152:LCH262154 LMD262152:LMD262154 LVZ262152:LVZ262154 MFV262152:MFV262154 MPR262152:MPR262154 MZN262152:MZN262154 NJJ262152:NJJ262154 NTF262152:NTF262154 ODB262152:ODB262154 OMX262152:OMX262154 OWT262152:OWT262154 PGP262152:PGP262154 PQL262152:PQL262154 QAH262152:QAH262154 QKD262152:QKD262154 QTZ262152:QTZ262154 RDV262152:RDV262154 RNR262152:RNR262154 RXN262152:RXN262154 SHJ262152:SHJ262154 SRF262152:SRF262154 TBB262152:TBB262154 TKX262152:TKX262154 TUT262152:TUT262154 UEP262152:UEP262154 UOL262152:UOL262154 UYH262152:UYH262154 VID262152:VID262154 VRZ262152:VRZ262154 WBV262152:WBV262154 WLR262152:WLR262154 WVN262152:WVN262154 F327688:F327690 JB327688:JB327690 SX327688:SX327690 ACT327688:ACT327690 AMP327688:AMP327690 AWL327688:AWL327690 BGH327688:BGH327690 BQD327688:BQD327690 BZZ327688:BZZ327690 CJV327688:CJV327690 CTR327688:CTR327690 DDN327688:DDN327690 DNJ327688:DNJ327690 DXF327688:DXF327690 EHB327688:EHB327690 EQX327688:EQX327690 FAT327688:FAT327690 FKP327688:FKP327690 FUL327688:FUL327690 GEH327688:GEH327690 GOD327688:GOD327690 GXZ327688:GXZ327690 HHV327688:HHV327690 HRR327688:HRR327690 IBN327688:IBN327690 ILJ327688:ILJ327690 IVF327688:IVF327690 JFB327688:JFB327690 JOX327688:JOX327690 JYT327688:JYT327690 KIP327688:KIP327690 KSL327688:KSL327690 LCH327688:LCH327690 LMD327688:LMD327690 LVZ327688:LVZ327690 MFV327688:MFV327690 MPR327688:MPR327690 MZN327688:MZN327690 NJJ327688:NJJ327690 NTF327688:NTF327690 ODB327688:ODB327690 OMX327688:OMX327690 OWT327688:OWT327690 PGP327688:PGP327690 PQL327688:PQL327690 QAH327688:QAH327690 QKD327688:QKD327690 QTZ327688:QTZ327690 RDV327688:RDV327690 RNR327688:RNR327690 RXN327688:RXN327690 SHJ327688:SHJ327690 SRF327688:SRF327690 TBB327688:TBB327690 TKX327688:TKX327690 TUT327688:TUT327690 UEP327688:UEP327690 UOL327688:UOL327690 UYH327688:UYH327690 VID327688:VID327690 VRZ327688:VRZ327690 WBV327688:WBV327690 WLR327688:WLR327690 WVN327688:WVN327690 F393224:F393226 JB393224:JB393226 SX393224:SX393226 ACT393224:ACT393226 AMP393224:AMP393226 AWL393224:AWL393226 BGH393224:BGH393226 BQD393224:BQD393226 BZZ393224:BZZ393226 CJV393224:CJV393226 CTR393224:CTR393226 DDN393224:DDN393226 DNJ393224:DNJ393226 DXF393224:DXF393226 EHB393224:EHB393226 EQX393224:EQX393226 FAT393224:FAT393226 FKP393224:FKP393226 FUL393224:FUL393226 GEH393224:GEH393226 GOD393224:GOD393226 GXZ393224:GXZ393226 HHV393224:HHV393226 HRR393224:HRR393226 IBN393224:IBN393226 ILJ393224:ILJ393226 IVF393224:IVF393226 JFB393224:JFB393226 JOX393224:JOX393226 JYT393224:JYT393226 KIP393224:KIP393226 KSL393224:KSL393226 LCH393224:LCH393226 LMD393224:LMD393226 LVZ393224:LVZ393226 MFV393224:MFV393226 MPR393224:MPR393226 MZN393224:MZN393226 NJJ393224:NJJ393226 NTF393224:NTF393226 ODB393224:ODB393226 OMX393224:OMX393226 OWT393224:OWT393226 PGP393224:PGP393226 PQL393224:PQL393226 QAH393224:QAH393226 QKD393224:QKD393226 QTZ393224:QTZ393226 RDV393224:RDV393226 RNR393224:RNR393226 RXN393224:RXN393226 SHJ393224:SHJ393226 SRF393224:SRF393226 TBB393224:TBB393226 TKX393224:TKX393226 TUT393224:TUT393226 UEP393224:UEP393226 UOL393224:UOL393226 UYH393224:UYH393226 VID393224:VID393226 VRZ393224:VRZ393226 WBV393224:WBV393226 WLR393224:WLR393226 WVN393224:WVN393226 F458760:F458762 JB458760:JB458762 SX458760:SX458762 ACT458760:ACT458762 AMP458760:AMP458762 AWL458760:AWL458762 BGH458760:BGH458762 BQD458760:BQD458762 BZZ458760:BZZ458762 CJV458760:CJV458762 CTR458760:CTR458762 DDN458760:DDN458762 DNJ458760:DNJ458762 DXF458760:DXF458762 EHB458760:EHB458762 EQX458760:EQX458762 FAT458760:FAT458762 FKP458760:FKP458762 FUL458760:FUL458762 GEH458760:GEH458762 GOD458760:GOD458762 GXZ458760:GXZ458762 HHV458760:HHV458762 HRR458760:HRR458762 IBN458760:IBN458762 ILJ458760:ILJ458762 IVF458760:IVF458762 JFB458760:JFB458762 JOX458760:JOX458762 JYT458760:JYT458762 KIP458760:KIP458762 KSL458760:KSL458762 LCH458760:LCH458762 LMD458760:LMD458762 LVZ458760:LVZ458762 MFV458760:MFV458762 MPR458760:MPR458762 MZN458760:MZN458762 NJJ458760:NJJ458762 NTF458760:NTF458762 ODB458760:ODB458762 OMX458760:OMX458762 OWT458760:OWT458762 PGP458760:PGP458762 PQL458760:PQL458762 QAH458760:QAH458762 QKD458760:QKD458762 QTZ458760:QTZ458762 RDV458760:RDV458762 RNR458760:RNR458762 RXN458760:RXN458762 SHJ458760:SHJ458762 SRF458760:SRF458762 TBB458760:TBB458762 TKX458760:TKX458762 TUT458760:TUT458762 UEP458760:UEP458762 UOL458760:UOL458762 UYH458760:UYH458762 VID458760:VID458762 VRZ458760:VRZ458762 WBV458760:WBV458762 WLR458760:WLR458762 WVN458760:WVN458762 F524296:F524298 JB524296:JB524298 SX524296:SX524298 ACT524296:ACT524298 AMP524296:AMP524298 AWL524296:AWL524298 BGH524296:BGH524298 BQD524296:BQD524298 BZZ524296:BZZ524298 CJV524296:CJV524298 CTR524296:CTR524298 DDN524296:DDN524298 DNJ524296:DNJ524298 DXF524296:DXF524298 EHB524296:EHB524298 EQX524296:EQX524298 FAT524296:FAT524298 FKP524296:FKP524298 FUL524296:FUL524298 GEH524296:GEH524298 GOD524296:GOD524298 GXZ524296:GXZ524298 HHV524296:HHV524298 HRR524296:HRR524298 IBN524296:IBN524298 ILJ524296:ILJ524298 IVF524296:IVF524298 JFB524296:JFB524298 JOX524296:JOX524298 JYT524296:JYT524298 KIP524296:KIP524298 KSL524296:KSL524298 LCH524296:LCH524298 LMD524296:LMD524298 LVZ524296:LVZ524298 MFV524296:MFV524298 MPR524296:MPR524298 MZN524296:MZN524298 NJJ524296:NJJ524298 NTF524296:NTF524298 ODB524296:ODB524298 OMX524296:OMX524298 OWT524296:OWT524298 PGP524296:PGP524298 PQL524296:PQL524298 QAH524296:QAH524298 QKD524296:QKD524298 QTZ524296:QTZ524298 RDV524296:RDV524298 RNR524296:RNR524298 RXN524296:RXN524298 SHJ524296:SHJ524298 SRF524296:SRF524298 TBB524296:TBB524298 TKX524296:TKX524298 TUT524296:TUT524298 UEP524296:UEP524298 UOL524296:UOL524298 UYH524296:UYH524298 VID524296:VID524298 VRZ524296:VRZ524298 WBV524296:WBV524298 WLR524296:WLR524298 WVN524296:WVN524298 F589832:F589834 JB589832:JB589834 SX589832:SX589834 ACT589832:ACT589834 AMP589832:AMP589834 AWL589832:AWL589834 BGH589832:BGH589834 BQD589832:BQD589834 BZZ589832:BZZ589834 CJV589832:CJV589834 CTR589832:CTR589834 DDN589832:DDN589834 DNJ589832:DNJ589834 DXF589832:DXF589834 EHB589832:EHB589834 EQX589832:EQX589834 FAT589832:FAT589834 FKP589832:FKP589834 FUL589832:FUL589834 GEH589832:GEH589834 GOD589832:GOD589834 GXZ589832:GXZ589834 HHV589832:HHV589834 HRR589832:HRR589834 IBN589832:IBN589834 ILJ589832:ILJ589834 IVF589832:IVF589834 JFB589832:JFB589834 JOX589832:JOX589834 JYT589832:JYT589834 KIP589832:KIP589834 KSL589832:KSL589834 LCH589832:LCH589834 LMD589832:LMD589834 LVZ589832:LVZ589834 MFV589832:MFV589834 MPR589832:MPR589834 MZN589832:MZN589834 NJJ589832:NJJ589834 NTF589832:NTF589834 ODB589832:ODB589834 OMX589832:OMX589834 OWT589832:OWT589834 PGP589832:PGP589834 PQL589832:PQL589834 QAH589832:QAH589834 QKD589832:QKD589834 QTZ589832:QTZ589834 RDV589832:RDV589834 RNR589832:RNR589834 RXN589832:RXN589834 SHJ589832:SHJ589834 SRF589832:SRF589834 TBB589832:TBB589834 TKX589832:TKX589834 TUT589832:TUT589834 UEP589832:UEP589834 UOL589832:UOL589834 UYH589832:UYH589834 VID589832:VID589834 VRZ589832:VRZ589834 WBV589832:WBV589834 WLR589832:WLR589834 WVN589832:WVN589834 F655368:F655370 JB655368:JB655370 SX655368:SX655370 ACT655368:ACT655370 AMP655368:AMP655370 AWL655368:AWL655370 BGH655368:BGH655370 BQD655368:BQD655370 BZZ655368:BZZ655370 CJV655368:CJV655370 CTR655368:CTR655370 DDN655368:DDN655370 DNJ655368:DNJ655370 DXF655368:DXF655370 EHB655368:EHB655370 EQX655368:EQX655370 FAT655368:FAT655370 FKP655368:FKP655370 FUL655368:FUL655370 GEH655368:GEH655370 GOD655368:GOD655370 GXZ655368:GXZ655370 HHV655368:HHV655370 HRR655368:HRR655370 IBN655368:IBN655370 ILJ655368:ILJ655370 IVF655368:IVF655370 JFB655368:JFB655370 JOX655368:JOX655370 JYT655368:JYT655370 KIP655368:KIP655370 KSL655368:KSL655370 LCH655368:LCH655370 LMD655368:LMD655370 LVZ655368:LVZ655370 MFV655368:MFV655370 MPR655368:MPR655370 MZN655368:MZN655370 NJJ655368:NJJ655370 NTF655368:NTF655370 ODB655368:ODB655370 OMX655368:OMX655370 OWT655368:OWT655370 PGP655368:PGP655370 PQL655368:PQL655370 QAH655368:QAH655370 QKD655368:QKD655370 QTZ655368:QTZ655370 RDV655368:RDV655370 RNR655368:RNR655370 RXN655368:RXN655370 SHJ655368:SHJ655370 SRF655368:SRF655370 TBB655368:TBB655370 TKX655368:TKX655370 TUT655368:TUT655370 UEP655368:UEP655370 UOL655368:UOL655370 UYH655368:UYH655370 VID655368:VID655370 VRZ655368:VRZ655370 WBV655368:WBV655370 WLR655368:WLR655370 WVN655368:WVN655370 F720904:F720906 JB720904:JB720906 SX720904:SX720906 ACT720904:ACT720906 AMP720904:AMP720906 AWL720904:AWL720906 BGH720904:BGH720906 BQD720904:BQD720906 BZZ720904:BZZ720906 CJV720904:CJV720906 CTR720904:CTR720906 DDN720904:DDN720906 DNJ720904:DNJ720906 DXF720904:DXF720906 EHB720904:EHB720906 EQX720904:EQX720906 FAT720904:FAT720906 FKP720904:FKP720906 FUL720904:FUL720906 GEH720904:GEH720906 GOD720904:GOD720906 GXZ720904:GXZ720906 HHV720904:HHV720906 HRR720904:HRR720906 IBN720904:IBN720906 ILJ720904:ILJ720906 IVF720904:IVF720906 JFB720904:JFB720906 JOX720904:JOX720906 JYT720904:JYT720906 KIP720904:KIP720906 KSL720904:KSL720906 LCH720904:LCH720906 LMD720904:LMD720906 LVZ720904:LVZ720906 MFV720904:MFV720906 MPR720904:MPR720906 MZN720904:MZN720906 NJJ720904:NJJ720906 NTF720904:NTF720906 ODB720904:ODB720906 OMX720904:OMX720906 OWT720904:OWT720906 PGP720904:PGP720906 PQL720904:PQL720906 QAH720904:QAH720906 QKD720904:QKD720906 QTZ720904:QTZ720906 RDV720904:RDV720906 RNR720904:RNR720906 RXN720904:RXN720906 SHJ720904:SHJ720906 SRF720904:SRF720906 TBB720904:TBB720906 TKX720904:TKX720906 TUT720904:TUT720906 UEP720904:UEP720906 UOL720904:UOL720906 UYH720904:UYH720906 VID720904:VID720906 VRZ720904:VRZ720906 WBV720904:WBV720906 WLR720904:WLR720906 WVN720904:WVN720906 F786440:F786442 JB786440:JB786442 SX786440:SX786442 ACT786440:ACT786442 AMP786440:AMP786442 AWL786440:AWL786442 BGH786440:BGH786442 BQD786440:BQD786442 BZZ786440:BZZ786442 CJV786440:CJV786442 CTR786440:CTR786442 DDN786440:DDN786442 DNJ786440:DNJ786442 DXF786440:DXF786442 EHB786440:EHB786442 EQX786440:EQX786442 FAT786440:FAT786442 FKP786440:FKP786442 FUL786440:FUL786442 GEH786440:GEH786442 GOD786440:GOD786442 GXZ786440:GXZ786442 HHV786440:HHV786442 HRR786440:HRR786442 IBN786440:IBN786442 ILJ786440:ILJ786442 IVF786440:IVF786442 JFB786440:JFB786442 JOX786440:JOX786442 JYT786440:JYT786442 KIP786440:KIP786442 KSL786440:KSL786442 LCH786440:LCH786442 LMD786440:LMD786442 LVZ786440:LVZ786442 MFV786440:MFV786442 MPR786440:MPR786442 MZN786440:MZN786442 NJJ786440:NJJ786442 NTF786440:NTF786442 ODB786440:ODB786442 OMX786440:OMX786442 OWT786440:OWT786442 PGP786440:PGP786442 PQL786440:PQL786442 QAH786440:QAH786442 QKD786440:QKD786442 QTZ786440:QTZ786442 RDV786440:RDV786442 RNR786440:RNR786442 RXN786440:RXN786442 SHJ786440:SHJ786442 SRF786440:SRF786442 TBB786440:TBB786442 TKX786440:TKX786442 TUT786440:TUT786442 UEP786440:UEP786442 UOL786440:UOL786442 UYH786440:UYH786442 VID786440:VID786442 VRZ786440:VRZ786442 WBV786440:WBV786442 WLR786440:WLR786442 WVN786440:WVN786442 F851976:F851978 JB851976:JB851978 SX851976:SX851978 ACT851976:ACT851978 AMP851976:AMP851978 AWL851976:AWL851978 BGH851976:BGH851978 BQD851976:BQD851978 BZZ851976:BZZ851978 CJV851976:CJV851978 CTR851976:CTR851978 DDN851976:DDN851978 DNJ851976:DNJ851978 DXF851976:DXF851978 EHB851976:EHB851978 EQX851976:EQX851978 FAT851976:FAT851978 FKP851976:FKP851978 FUL851976:FUL851978 GEH851976:GEH851978 GOD851976:GOD851978 GXZ851976:GXZ851978 HHV851976:HHV851978 HRR851976:HRR851978 IBN851976:IBN851978 ILJ851976:ILJ851978 IVF851976:IVF851978 JFB851976:JFB851978 JOX851976:JOX851978 JYT851976:JYT851978 KIP851976:KIP851978 KSL851976:KSL851978 LCH851976:LCH851978 LMD851976:LMD851978 LVZ851976:LVZ851978 MFV851976:MFV851978 MPR851976:MPR851978 MZN851976:MZN851978 NJJ851976:NJJ851978 NTF851976:NTF851978 ODB851976:ODB851978 OMX851976:OMX851978 OWT851976:OWT851978 PGP851976:PGP851978 PQL851976:PQL851978 QAH851976:QAH851978 QKD851976:QKD851978 QTZ851976:QTZ851978 RDV851976:RDV851978 RNR851976:RNR851978 RXN851976:RXN851978 SHJ851976:SHJ851978 SRF851976:SRF851978 TBB851976:TBB851978 TKX851976:TKX851978 TUT851976:TUT851978 UEP851976:UEP851978 UOL851976:UOL851978 UYH851976:UYH851978 VID851976:VID851978 VRZ851976:VRZ851978 WBV851976:WBV851978 WLR851976:WLR851978 WVN851976:WVN851978 F917512:F917514 JB917512:JB917514 SX917512:SX917514 ACT917512:ACT917514 AMP917512:AMP917514 AWL917512:AWL917514 BGH917512:BGH917514 BQD917512:BQD917514 BZZ917512:BZZ917514 CJV917512:CJV917514 CTR917512:CTR917514 DDN917512:DDN917514 DNJ917512:DNJ917514 DXF917512:DXF917514 EHB917512:EHB917514 EQX917512:EQX917514 FAT917512:FAT917514 FKP917512:FKP917514 FUL917512:FUL917514 GEH917512:GEH917514 GOD917512:GOD917514 GXZ917512:GXZ917514 HHV917512:HHV917514 HRR917512:HRR917514 IBN917512:IBN917514 ILJ917512:ILJ917514 IVF917512:IVF917514 JFB917512:JFB917514 JOX917512:JOX917514 JYT917512:JYT917514 KIP917512:KIP917514 KSL917512:KSL917514 LCH917512:LCH917514 LMD917512:LMD917514 LVZ917512:LVZ917514 MFV917512:MFV917514 MPR917512:MPR917514 MZN917512:MZN917514 NJJ917512:NJJ917514 NTF917512:NTF917514 ODB917512:ODB917514 OMX917512:OMX917514 OWT917512:OWT917514 PGP917512:PGP917514 PQL917512:PQL917514 QAH917512:QAH917514 QKD917512:QKD917514 QTZ917512:QTZ917514 RDV917512:RDV917514 RNR917512:RNR917514 RXN917512:RXN917514 SHJ917512:SHJ917514 SRF917512:SRF917514 TBB917512:TBB917514 TKX917512:TKX917514 TUT917512:TUT917514 UEP917512:UEP917514 UOL917512:UOL917514 UYH917512:UYH917514 VID917512:VID917514 VRZ917512:VRZ917514 WBV917512:WBV917514 WLR917512:WLR917514 WVN917512:WVN917514 F983048:F983050 JB983048:JB983050 SX983048:SX983050 ACT983048:ACT983050 AMP983048:AMP983050 AWL983048:AWL983050 BGH983048:BGH983050 BQD983048:BQD983050 BZZ983048:BZZ983050 CJV983048:CJV983050 CTR983048:CTR983050 DDN983048:DDN983050 DNJ983048:DNJ983050 DXF983048:DXF983050 EHB983048:EHB983050 EQX983048:EQX983050 FAT983048:FAT983050 FKP983048:FKP983050 FUL983048:FUL983050 GEH983048:GEH983050 GOD983048:GOD983050 GXZ983048:GXZ983050 HHV983048:HHV983050 HRR983048:HRR983050 IBN983048:IBN983050 ILJ983048:ILJ983050 IVF983048:IVF983050 JFB983048:JFB983050 JOX983048:JOX983050 JYT983048:JYT983050 KIP983048:KIP983050 KSL983048:KSL983050 LCH983048:LCH983050 LMD983048:LMD983050 LVZ983048:LVZ983050 MFV983048:MFV983050 MPR983048:MPR983050 MZN983048:MZN983050 NJJ983048:NJJ983050 NTF983048:NTF983050 ODB983048:ODB983050 OMX983048:OMX983050 OWT983048:OWT983050 PGP983048:PGP983050 PQL983048:PQL983050 QAH983048:QAH983050 QKD983048:QKD983050 QTZ983048:QTZ983050 RDV983048:RDV983050 RNR983048:RNR983050 RXN983048:RXN983050 SHJ983048:SHJ983050 SRF983048:SRF983050 TBB983048:TBB983050 TKX983048:TKX983050 TUT983048:TUT983050 UEP983048:UEP983050 UOL983048:UOL983050 UYH983048:UYH983050 VID983048:VID983050 VRZ983048:VRZ983050 WBV983048:WBV983050 WLR983048:WLR983050 WVN983048:WVN983050 WVN983054:WVN983191 F65550:F65687 JB65550:JB65687 SX65550:SX65687 ACT65550:ACT65687 AMP65550:AMP65687 AWL65550:AWL65687 BGH65550:BGH65687 BQD65550:BQD65687 BZZ65550:BZZ65687 CJV65550:CJV65687 CTR65550:CTR65687 DDN65550:DDN65687 DNJ65550:DNJ65687 DXF65550:DXF65687 EHB65550:EHB65687 EQX65550:EQX65687 FAT65550:FAT65687 FKP65550:FKP65687 FUL65550:FUL65687 GEH65550:GEH65687 GOD65550:GOD65687 GXZ65550:GXZ65687 HHV65550:HHV65687 HRR65550:HRR65687 IBN65550:IBN65687 ILJ65550:ILJ65687 IVF65550:IVF65687 JFB65550:JFB65687 JOX65550:JOX65687 JYT65550:JYT65687 KIP65550:KIP65687 KSL65550:KSL65687 LCH65550:LCH65687 LMD65550:LMD65687 LVZ65550:LVZ65687 MFV65550:MFV65687 MPR65550:MPR65687 MZN65550:MZN65687 NJJ65550:NJJ65687 NTF65550:NTF65687 ODB65550:ODB65687 OMX65550:OMX65687 OWT65550:OWT65687 PGP65550:PGP65687 PQL65550:PQL65687 QAH65550:QAH65687 QKD65550:QKD65687 QTZ65550:QTZ65687 RDV65550:RDV65687 RNR65550:RNR65687 RXN65550:RXN65687 SHJ65550:SHJ65687 SRF65550:SRF65687 TBB65550:TBB65687 TKX65550:TKX65687 TUT65550:TUT65687 UEP65550:UEP65687 UOL65550:UOL65687 UYH65550:UYH65687 VID65550:VID65687 VRZ65550:VRZ65687 WBV65550:WBV65687 WLR65550:WLR65687 WVN65550:WVN65687 F131086:F131223 JB131086:JB131223 SX131086:SX131223 ACT131086:ACT131223 AMP131086:AMP131223 AWL131086:AWL131223 BGH131086:BGH131223 BQD131086:BQD131223 BZZ131086:BZZ131223 CJV131086:CJV131223 CTR131086:CTR131223 DDN131086:DDN131223 DNJ131086:DNJ131223 DXF131086:DXF131223 EHB131086:EHB131223 EQX131086:EQX131223 FAT131086:FAT131223 FKP131086:FKP131223 FUL131086:FUL131223 GEH131086:GEH131223 GOD131086:GOD131223 GXZ131086:GXZ131223 HHV131086:HHV131223 HRR131086:HRR131223 IBN131086:IBN131223 ILJ131086:ILJ131223 IVF131086:IVF131223 JFB131086:JFB131223 JOX131086:JOX131223 JYT131086:JYT131223 KIP131086:KIP131223 KSL131086:KSL131223 LCH131086:LCH131223 LMD131086:LMD131223 LVZ131086:LVZ131223 MFV131086:MFV131223 MPR131086:MPR131223 MZN131086:MZN131223 NJJ131086:NJJ131223 NTF131086:NTF131223 ODB131086:ODB131223 OMX131086:OMX131223 OWT131086:OWT131223 PGP131086:PGP131223 PQL131086:PQL131223 QAH131086:QAH131223 QKD131086:QKD131223 QTZ131086:QTZ131223 RDV131086:RDV131223 RNR131086:RNR131223 RXN131086:RXN131223 SHJ131086:SHJ131223 SRF131086:SRF131223 TBB131086:TBB131223 TKX131086:TKX131223 TUT131086:TUT131223 UEP131086:UEP131223 UOL131086:UOL131223 UYH131086:UYH131223 VID131086:VID131223 VRZ131086:VRZ131223 WBV131086:WBV131223 WLR131086:WLR131223 WVN131086:WVN131223 F196622:F196759 JB196622:JB196759 SX196622:SX196759 ACT196622:ACT196759 AMP196622:AMP196759 AWL196622:AWL196759 BGH196622:BGH196759 BQD196622:BQD196759 BZZ196622:BZZ196759 CJV196622:CJV196759 CTR196622:CTR196759 DDN196622:DDN196759 DNJ196622:DNJ196759 DXF196622:DXF196759 EHB196622:EHB196759 EQX196622:EQX196759 FAT196622:FAT196759 FKP196622:FKP196759 FUL196622:FUL196759 GEH196622:GEH196759 GOD196622:GOD196759 GXZ196622:GXZ196759 HHV196622:HHV196759 HRR196622:HRR196759 IBN196622:IBN196759 ILJ196622:ILJ196759 IVF196622:IVF196759 JFB196622:JFB196759 JOX196622:JOX196759 JYT196622:JYT196759 KIP196622:KIP196759 KSL196622:KSL196759 LCH196622:LCH196759 LMD196622:LMD196759 LVZ196622:LVZ196759 MFV196622:MFV196759 MPR196622:MPR196759 MZN196622:MZN196759 NJJ196622:NJJ196759 NTF196622:NTF196759 ODB196622:ODB196759 OMX196622:OMX196759 OWT196622:OWT196759 PGP196622:PGP196759 PQL196622:PQL196759 QAH196622:QAH196759 QKD196622:QKD196759 QTZ196622:QTZ196759 RDV196622:RDV196759 RNR196622:RNR196759 RXN196622:RXN196759 SHJ196622:SHJ196759 SRF196622:SRF196759 TBB196622:TBB196759 TKX196622:TKX196759 TUT196622:TUT196759 UEP196622:UEP196759 UOL196622:UOL196759 UYH196622:UYH196759 VID196622:VID196759 VRZ196622:VRZ196759 WBV196622:WBV196759 WLR196622:WLR196759 WVN196622:WVN196759 F262158:F262295 JB262158:JB262295 SX262158:SX262295 ACT262158:ACT262295 AMP262158:AMP262295 AWL262158:AWL262295 BGH262158:BGH262295 BQD262158:BQD262295 BZZ262158:BZZ262295 CJV262158:CJV262295 CTR262158:CTR262295 DDN262158:DDN262295 DNJ262158:DNJ262295 DXF262158:DXF262295 EHB262158:EHB262295 EQX262158:EQX262295 FAT262158:FAT262295 FKP262158:FKP262295 FUL262158:FUL262295 GEH262158:GEH262295 GOD262158:GOD262295 GXZ262158:GXZ262295 HHV262158:HHV262295 HRR262158:HRR262295 IBN262158:IBN262295 ILJ262158:ILJ262295 IVF262158:IVF262295 JFB262158:JFB262295 JOX262158:JOX262295 JYT262158:JYT262295 KIP262158:KIP262295 KSL262158:KSL262295 LCH262158:LCH262295 LMD262158:LMD262295 LVZ262158:LVZ262295 MFV262158:MFV262295 MPR262158:MPR262295 MZN262158:MZN262295 NJJ262158:NJJ262295 NTF262158:NTF262295 ODB262158:ODB262295 OMX262158:OMX262295 OWT262158:OWT262295 PGP262158:PGP262295 PQL262158:PQL262295 QAH262158:QAH262295 QKD262158:QKD262295 QTZ262158:QTZ262295 RDV262158:RDV262295 RNR262158:RNR262295 RXN262158:RXN262295 SHJ262158:SHJ262295 SRF262158:SRF262295 TBB262158:TBB262295 TKX262158:TKX262295 TUT262158:TUT262295 UEP262158:UEP262295 UOL262158:UOL262295 UYH262158:UYH262295 VID262158:VID262295 VRZ262158:VRZ262295 WBV262158:WBV262295 WLR262158:WLR262295 WVN262158:WVN262295 F327694:F327831 JB327694:JB327831 SX327694:SX327831 ACT327694:ACT327831 AMP327694:AMP327831 AWL327694:AWL327831 BGH327694:BGH327831 BQD327694:BQD327831 BZZ327694:BZZ327831 CJV327694:CJV327831 CTR327694:CTR327831 DDN327694:DDN327831 DNJ327694:DNJ327831 DXF327694:DXF327831 EHB327694:EHB327831 EQX327694:EQX327831 FAT327694:FAT327831 FKP327694:FKP327831 FUL327694:FUL327831 GEH327694:GEH327831 GOD327694:GOD327831 GXZ327694:GXZ327831 HHV327694:HHV327831 HRR327694:HRR327831 IBN327694:IBN327831 ILJ327694:ILJ327831 IVF327694:IVF327831 JFB327694:JFB327831 JOX327694:JOX327831 JYT327694:JYT327831 KIP327694:KIP327831 KSL327694:KSL327831 LCH327694:LCH327831 LMD327694:LMD327831 LVZ327694:LVZ327831 MFV327694:MFV327831 MPR327694:MPR327831 MZN327694:MZN327831 NJJ327694:NJJ327831 NTF327694:NTF327831 ODB327694:ODB327831 OMX327694:OMX327831 OWT327694:OWT327831 PGP327694:PGP327831 PQL327694:PQL327831 QAH327694:QAH327831 QKD327694:QKD327831 QTZ327694:QTZ327831 RDV327694:RDV327831 RNR327694:RNR327831 RXN327694:RXN327831 SHJ327694:SHJ327831 SRF327694:SRF327831 TBB327694:TBB327831 TKX327694:TKX327831 TUT327694:TUT327831 UEP327694:UEP327831 UOL327694:UOL327831 UYH327694:UYH327831 VID327694:VID327831 VRZ327694:VRZ327831 WBV327694:WBV327831 WLR327694:WLR327831 WVN327694:WVN327831 F393230:F393367 JB393230:JB393367 SX393230:SX393367 ACT393230:ACT393367 AMP393230:AMP393367 AWL393230:AWL393367 BGH393230:BGH393367 BQD393230:BQD393367 BZZ393230:BZZ393367 CJV393230:CJV393367 CTR393230:CTR393367 DDN393230:DDN393367 DNJ393230:DNJ393367 DXF393230:DXF393367 EHB393230:EHB393367 EQX393230:EQX393367 FAT393230:FAT393367 FKP393230:FKP393367 FUL393230:FUL393367 GEH393230:GEH393367 GOD393230:GOD393367 GXZ393230:GXZ393367 HHV393230:HHV393367 HRR393230:HRR393367 IBN393230:IBN393367 ILJ393230:ILJ393367 IVF393230:IVF393367 JFB393230:JFB393367 JOX393230:JOX393367 JYT393230:JYT393367 KIP393230:KIP393367 KSL393230:KSL393367 LCH393230:LCH393367 LMD393230:LMD393367 LVZ393230:LVZ393367 MFV393230:MFV393367 MPR393230:MPR393367 MZN393230:MZN393367 NJJ393230:NJJ393367 NTF393230:NTF393367 ODB393230:ODB393367 OMX393230:OMX393367 OWT393230:OWT393367 PGP393230:PGP393367 PQL393230:PQL393367 QAH393230:QAH393367 QKD393230:QKD393367 QTZ393230:QTZ393367 RDV393230:RDV393367 RNR393230:RNR393367 RXN393230:RXN393367 SHJ393230:SHJ393367 SRF393230:SRF393367 TBB393230:TBB393367 TKX393230:TKX393367 TUT393230:TUT393367 UEP393230:UEP393367 UOL393230:UOL393367 UYH393230:UYH393367 VID393230:VID393367 VRZ393230:VRZ393367 WBV393230:WBV393367 WLR393230:WLR393367 WVN393230:WVN393367 F458766:F458903 JB458766:JB458903 SX458766:SX458903 ACT458766:ACT458903 AMP458766:AMP458903 AWL458766:AWL458903 BGH458766:BGH458903 BQD458766:BQD458903 BZZ458766:BZZ458903 CJV458766:CJV458903 CTR458766:CTR458903 DDN458766:DDN458903 DNJ458766:DNJ458903 DXF458766:DXF458903 EHB458766:EHB458903 EQX458766:EQX458903 FAT458766:FAT458903 FKP458766:FKP458903 FUL458766:FUL458903 GEH458766:GEH458903 GOD458766:GOD458903 GXZ458766:GXZ458903 HHV458766:HHV458903 HRR458766:HRR458903 IBN458766:IBN458903 ILJ458766:ILJ458903 IVF458766:IVF458903 JFB458766:JFB458903 JOX458766:JOX458903 JYT458766:JYT458903 KIP458766:KIP458903 KSL458766:KSL458903 LCH458766:LCH458903 LMD458766:LMD458903 LVZ458766:LVZ458903 MFV458766:MFV458903 MPR458766:MPR458903 MZN458766:MZN458903 NJJ458766:NJJ458903 NTF458766:NTF458903 ODB458766:ODB458903 OMX458766:OMX458903 OWT458766:OWT458903 PGP458766:PGP458903 PQL458766:PQL458903 QAH458766:QAH458903 QKD458766:QKD458903 QTZ458766:QTZ458903 RDV458766:RDV458903 RNR458766:RNR458903 RXN458766:RXN458903 SHJ458766:SHJ458903 SRF458766:SRF458903 TBB458766:TBB458903 TKX458766:TKX458903 TUT458766:TUT458903 UEP458766:UEP458903 UOL458766:UOL458903 UYH458766:UYH458903 VID458766:VID458903 VRZ458766:VRZ458903 WBV458766:WBV458903 WLR458766:WLR458903 WVN458766:WVN458903 F524302:F524439 JB524302:JB524439 SX524302:SX524439 ACT524302:ACT524439 AMP524302:AMP524439 AWL524302:AWL524439 BGH524302:BGH524439 BQD524302:BQD524439 BZZ524302:BZZ524439 CJV524302:CJV524439 CTR524302:CTR524439 DDN524302:DDN524439 DNJ524302:DNJ524439 DXF524302:DXF524439 EHB524302:EHB524439 EQX524302:EQX524439 FAT524302:FAT524439 FKP524302:FKP524439 FUL524302:FUL524439 GEH524302:GEH524439 GOD524302:GOD524439 GXZ524302:GXZ524439 HHV524302:HHV524439 HRR524302:HRR524439 IBN524302:IBN524439 ILJ524302:ILJ524439 IVF524302:IVF524439 JFB524302:JFB524439 JOX524302:JOX524439 JYT524302:JYT524439 KIP524302:KIP524439 KSL524302:KSL524439 LCH524302:LCH524439 LMD524302:LMD524439 LVZ524302:LVZ524439 MFV524302:MFV524439 MPR524302:MPR524439 MZN524302:MZN524439 NJJ524302:NJJ524439 NTF524302:NTF524439 ODB524302:ODB524439 OMX524302:OMX524439 OWT524302:OWT524439 PGP524302:PGP524439 PQL524302:PQL524439 QAH524302:QAH524439 QKD524302:QKD524439 QTZ524302:QTZ524439 RDV524302:RDV524439 RNR524302:RNR524439 RXN524302:RXN524439 SHJ524302:SHJ524439 SRF524302:SRF524439 TBB524302:TBB524439 TKX524302:TKX524439 TUT524302:TUT524439 UEP524302:UEP524439 UOL524302:UOL524439 UYH524302:UYH524439 VID524302:VID524439 VRZ524302:VRZ524439 WBV524302:WBV524439 WLR524302:WLR524439 WVN524302:WVN524439 F589838:F589975 JB589838:JB589975 SX589838:SX589975 ACT589838:ACT589975 AMP589838:AMP589975 AWL589838:AWL589975 BGH589838:BGH589975 BQD589838:BQD589975 BZZ589838:BZZ589975 CJV589838:CJV589975 CTR589838:CTR589975 DDN589838:DDN589975 DNJ589838:DNJ589975 DXF589838:DXF589975 EHB589838:EHB589975 EQX589838:EQX589975 FAT589838:FAT589975 FKP589838:FKP589975 FUL589838:FUL589975 GEH589838:GEH589975 GOD589838:GOD589975 GXZ589838:GXZ589975 HHV589838:HHV589975 HRR589838:HRR589975 IBN589838:IBN589975 ILJ589838:ILJ589975 IVF589838:IVF589975 JFB589838:JFB589975 JOX589838:JOX589975 JYT589838:JYT589975 KIP589838:KIP589975 KSL589838:KSL589975 LCH589838:LCH589975 LMD589838:LMD589975 LVZ589838:LVZ589975 MFV589838:MFV589975 MPR589838:MPR589975 MZN589838:MZN589975 NJJ589838:NJJ589975 NTF589838:NTF589975 ODB589838:ODB589975 OMX589838:OMX589975 OWT589838:OWT589975 PGP589838:PGP589975 PQL589838:PQL589975 QAH589838:QAH589975 QKD589838:QKD589975 QTZ589838:QTZ589975 RDV589838:RDV589975 RNR589838:RNR589975 RXN589838:RXN589975 SHJ589838:SHJ589975 SRF589838:SRF589975 TBB589838:TBB589975 TKX589838:TKX589975 TUT589838:TUT589975 UEP589838:UEP589975 UOL589838:UOL589975 UYH589838:UYH589975 VID589838:VID589975 VRZ589838:VRZ589975 WBV589838:WBV589975 WLR589838:WLR589975 WVN589838:WVN589975 F655374:F655511 JB655374:JB655511 SX655374:SX655511 ACT655374:ACT655511 AMP655374:AMP655511 AWL655374:AWL655511 BGH655374:BGH655511 BQD655374:BQD655511 BZZ655374:BZZ655511 CJV655374:CJV655511 CTR655374:CTR655511 DDN655374:DDN655511 DNJ655374:DNJ655511 DXF655374:DXF655511 EHB655374:EHB655511 EQX655374:EQX655511 FAT655374:FAT655511 FKP655374:FKP655511 FUL655374:FUL655511 GEH655374:GEH655511 GOD655374:GOD655511 GXZ655374:GXZ655511 HHV655374:HHV655511 HRR655374:HRR655511 IBN655374:IBN655511 ILJ655374:ILJ655511 IVF655374:IVF655511 JFB655374:JFB655511 JOX655374:JOX655511 JYT655374:JYT655511 KIP655374:KIP655511 KSL655374:KSL655511 LCH655374:LCH655511 LMD655374:LMD655511 LVZ655374:LVZ655511 MFV655374:MFV655511 MPR655374:MPR655511 MZN655374:MZN655511 NJJ655374:NJJ655511 NTF655374:NTF655511 ODB655374:ODB655511 OMX655374:OMX655511 OWT655374:OWT655511 PGP655374:PGP655511 PQL655374:PQL655511 QAH655374:QAH655511 QKD655374:QKD655511 QTZ655374:QTZ655511 RDV655374:RDV655511 RNR655374:RNR655511 RXN655374:RXN655511 SHJ655374:SHJ655511 SRF655374:SRF655511 TBB655374:TBB655511 TKX655374:TKX655511 TUT655374:TUT655511 UEP655374:UEP655511 UOL655374:UOL655511 UYH655374:UYH655511 VID655374:VID655511 VRZ655374:VRZ655511 WBV655374:WBV655511 WLR655374:WLR655511 WVN655374:WVN655511 F720910:F721047 JB720910:JB721047 SX720910:SX721047 ACT720910:ACT721047 AMP720910:AMP721047 AWL720910:AWL721047 BGH720910:BGH721047 BQD720910:BQD721047 BZZ720910:BZZ721047 CJV720910:CJV721047 CTR720910:CTR721047 DDN720910:DDN721047 DNJ720910:DNJ721047 DXF720910:DXF721047 EHB720910:EHB721047 EQX720910:EQX721047 FAT720910:FAT721047 FKP720910:FKP721047 FUL720910:FUL721047 GEH720910:GEH721047 GOD720910:GOD721047 GXZ720910:GXZ721047 HHV720910:HHV721047 HRR720910:HRR721047 IBN720910:IBN721047 ILJ720910:ILJ721047 IVF720910:IVF721047 JFB720910:JFB721047 JOX720910:JOX721047 JYT720910:JYT721047 KIP720910:KIP721047 KSL720910:KSL721047 LCH720910:LCH721047 LMD720910:LMD721047 LVZ720910:LVZ721047 MFV720910:MFV721047 MPR720910:MPR721047 MZN720910:MZN721047 NJJ720910:NJJ721047 NTF720910:NTF721047 ODB720910:ODB721047 OMX720910:OMX721047 OWT720910:OWT721047 PGP720910:PGP721047 PQL720910:PQL721047 QAH720910:QAH721047 QKD720910:QKD721047 QTZ720910:QTZ721047 RDV720910:RDV721047 RNR720910:RNR721047 RXN720910:RXN721047 SHJ720910:SHJ721047 SRF720910:SRF721047 TBB720910:TBB721047 TKX720910:TKX721047 TUT720910:TUT721047 UEP720910:UEP721047 UOL720910:UOL721047 UYH720910:UYH721047 VID720910:VID721047 VRZ720910:VRZ721047 WBV720910:WBV721047 WLR720910:WLR721047 WVN720910:WVN721047 F786446:F786583 JB786446:JB786583 SX786446:SX786583 ACT786446:ACT786583 AMP786446:AMP786583 AWL786446:AWL786583 BGH786446:BGH786583 BQD786446:BQD786583 BZZ786446:BZZ786583 CJV786446:CJV786583 CTR786446:CTR786583 DDN786446:DDN786583 DNJ786446:DNJ786583 DXF786446:DXF786583 EHB786446:EHB786583 EQX786446:EQX786583 FAT786446:FAT786583 FKP786446:FKP786583 FUL786446:FUL786583 GEH786446:GEH786583 GOD786446:GOD786583 GXZ786446:GXZ786583 HHV786446:HHV786583 HRR786446:HRR786583 IBN786446:IBN786583 ILJ786446:ILJ786583 IVF786446:IVF786583 JFB786446:JFB786583 JOX786446:JOX786583 JYT786446:JYT786583 KIP786446:KIP786583 KSL786446:KSL786583 LCH786446:LCH786583 LMD786446:LMD786583 LVZ786446:LVZ786583 MFV786446:MFV786583 MPR786446:MPR786583 MZN786446:MZN786583 NJJ786446:NJJ786583 NTF786446:NTF786583 ODB786446:ODB786583 OMX786446:OMX786583 OWT786446:OWT786583 PGP786446:PGP786583 PQL786446:PQL786583 QAH786446:QAH786583 QKD786446:QKD786583 QTZ786446:QTZ786583 RDV786446:RDV786583 RNR786446:RNR786583 RXN786446:RXN786583 SHJ786446:SHJ786583 SRF786446:SRF786583 TBB786446:TBB786583 TKX786446:TKX786583 TUT786446:TUT786583 UEP786446:UEP786583 UOL786446:UOL786583 UYH786446:UYH786583 VID786446:VID786583 VRZ786446:VRZ786583 WBV786446:WBV786583 WLR786446:WLR786583 WVN786446:WVN786583 F851982:F852119 JB851982:JB852119 SX851982:SX852119 ACT851982:ACT852119 AMP851982:AMP852119 AWL851982:AWL852119 BGH851982:BGH852119 BQD851982:BQD852119 BZZ851982:BZZ852119 CJV851982:CJV852119 CTR851982:CTR852119 DDN851982:DDN852119 DNJ851982:DNJ852119 DXF851982:DXF852119 EHB851982:EHB852119 EQX851982:EQX852119 FAT851982:FAT852119 FKP851982:FKP852119 FUL851982:FUL852119 GEH851982:GEH852119 GOD851982:GOD852119 GXZ851982:GXZ852119 HHV851982:HHV852119 HRR851982:HRR852119 IBN851982:IBN852119 ILJ851982:ILJ852119 IVF851982:IVF852119 JFB851982:JFB852119 JOX851982:JOX852119 JYT851982:JYT852119 KIP851982:KIP852119 KSL851982:KSL852119 LCH851982:LCH852119 LMD851982:LMD852119 LVZ851982:LVZ852119 MFV851982:MFV852119 MPR851982:MPR852119 MZN851982:MZN852119 NJJ851982:NJJ852119 NTF851982:NTF852119 ODB851982:ODB852119 OMX851982:OMX852119 OWT851982:OWT852119 PGP851982:PGP852119 PQL851982:PQL852119 QAH851982:QAH852119 QKD851982:QKD852119 QTZ851982:QTZ852119 RDV851982:RDV852119 RNR851982:RNR852119 RXN851982:RXN852119 SHJ851982:SHJ852119 SRF851982:SRF852119 TBB851982:TBB852119 TKX851982:TKX852119 TUT851982:TUT852119 UEP851982:UEP852119 UOL851982:UOL852119 UYH851982:UYH852119 VID851982:VID852119 VRZ851982:VRZ852119 WBV851982:WBV852119 WLR851982:WLR852119 WVN851982:WVN852119 F917518:F917655 JB917518:JB917655 SX917518:SX917655 ACT917518:ACT917655 AMP917518:AMP917655 AWL917518:AWL917655 BGH917518:BGH917655 BQD917518:BQD917655 BZZ917518:BZZ917655 CJV917518:CJV917655 CTR917518:CTR917655 DDN917518:DDN917655 DNJ917518:DNJ917655 DXF917518:DXF917655 EHB917518:EHB917655 EQX917518:EQX917655 FAT917518:FAT917655 FKP917518:FKP917655 FUL917518:FUL917655 GEH917518:GEH917655 GOD917518:GOD917655 GXZ917518:GXZ917655 HHV917518:HHV917655 HRR917518:HRR917655 IBN917518:IBN917655 ILJ917518:ILJ917655 IVF917518:IVF917655 JFB917518:JFB917655 JOX917518:JOX917655 JYT917518:JYT917655 KIP917518:KIP917655 KSL917518:KSL917655 LCH917518:LCH917655 LMD917518:LMD917655 LVZ917518:LVZ917655 MFV917518:MFV917655 MPR917518:MPR917655 MZN917518:MZN917655 NJJ917518:NJJ917655 NTF917518:NTF917655 ODB917518:ODB917655 OMX917518:OMX917655 OWT917518:OWT917655 PGP917518:PGP917655 PQL917518:PQL917655 QAH917518:QAH917655 QKD917518:QKD917655 QTZ917518:QTZ917655 RDV917518:RDV917655 RNR917518:RNR917655 RXN917518:RXN917655 SHJ917518:SHJ917655 SRF917518:SRF917655 TBB917518:TBB917655 TKX917518:TKX917655 TUT917518:TUT917655 UEP917518:UEP917655 UOL917518:UOL917655 UYH917518:UYH917655 VID917518:VID917655 VRZ917518:VRZ917655 WBV917518:WBV917655 WLR917518:WLR917655 WVN917518:WVN917655 F983054:F983191 JB983054:JB983191 SX983054:SX983191 ACT983054:ACT983191 AMP983054:AMP983191 AWL983054:AWL983191 BGH983054:BGH983191 BQD983054:BQD983191 BZZ983054:BZZ983191 CJV983054:CJV983191 CTR983054:CTR983191 DDN983054:DDN983191 DNJ983054:DNJ983191 DXF983054:DXF983191 EHB983054:EHB983191 EQX983054:EQX983191 FAT983054:FAT983191 FKP983054:FKP983191 FUL983054:FUL983191 GEH983054:GEH983191 GOD983054:GOD983191 GXZ983054:GXZ983191 HHV983054:HHV983191 HRR983054:HRR983191 IBN983054:IBN983191 ILJ983054:ILJ983191 IVF983054:IVF983191 JFB983054:JFB983191 JOX983054:JOX983191 JYT983054:JYT983191 KIP983054:KIP983191 KSL983054:KSL983191 LCH983054:LCH983191 LMD983054:LMD983191 LVZ983054:LVZ983191 MFV983054:MFV983191 MPR983054:MPR983191 MZN983054:MZN983191 NJJ983054:NJJ983191 NTF983054:NTF983191 ODB983054:ODB983191 OMX983054:OMX983191 OWT983054:OWT983191 PGP983054:PGP983191 PQL983054:PQL983191 QAH983054:QAH983191 QKD983054:QKD983191 QTZ983054:QTZ983191 RDV983054:RDV983191 RNR983054:RNR983191 RXN983054:RXN983191 SHJ983054:SHJ983191 SRF983054:SRF983191 TBB983054:TBB983191 TKX983054:TKX983191 TUT983054:TUT983191 UEP983054:UEP983191 UOL983054:UOL983191 UYH983054:UYH983191 VID983054:VID983191 VRZ983054:VRZ983191 WBV983054:WBV983191 WLR983054:WLR983191 F7:F151 SX7:SX151 ACT7:ACT151 AMP7:AMP151 AWL7:AWL151 BGH7:BGH151 BQD7:BQD151 BZZ7:BZZ151 CJV7:CJV151 CTR7:CTR151 DDN7:DDN151 DNJ7:DNJ151 DXF7:DXF151 EHB7:EHB151 EQX7:EQX151 FAT7:FAT151 FKP7:FKP151 FUL7:FUL151 GEH7:GEH151 GOD7:GOD151 GXZ7:GXZ151 HHV7:HHV151 HRR7:HRR151 IBN7:IBN151 ILJ7:ILJ151 IVF7:IVF151 JFB7:JFB151 JOX7:JOX151 JYT7:JYT151 KIP7:KIP151 KSL7:KSL151 LCH7:LCH151 LMD7:LMD151 LVZ7:LVZ151 MFV7:MFV151 MPR7:MPR151 MZN7:MZN151 NJJ7:NJJ151 NTF7:NTF151 ODB7:ODB151 OMX7:OMX151 OWT7:OWT151 PGP7:PGP151 PQL7:PQL151 QAH7:QAH151 QKD7:QKD151 QTZ7:QTZ151 RDV7:RDV151 RNR7:RNR151 RXN7:RXN151 SHJ7:SHJ151 SRF7:SRF151 TBB7:TBB151 TKX7:TKX151 TUT7:TUT151 UEP7:UEP151 UOL7:UOL151 UYH7:UYH151 VID7:VID151 VRZ7:VRZ151 WBV7:WBV151 WLR7:WLR151 WVN7:WVN151 JB7:JB151">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8366,343 +8402,343 @@
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="30" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="30"/>
-    <col min="8" max="9" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10" max="257" width="9.140625" style="30"/>
-    <col min="258" max="258" width="15.42578125" style="30" customWidth="1"/>
-    <col min="259" max="259" width="22.140625" style="30" customWidth="1"/>
-    <col min="260" max="263" width="9.140625" style="30"/>
-    <col min="264" max="265" width="37.85546875" style="30" customWidth="1"/>
-    <col min="266" max="513" width="9.140625" style="30"/>
-    <col min="514" max="514" width="15.42578125" style="30" customWidth="1"/>
-    <col min="515" max="515" width="22.140625" style="30" customWidth="1"/>
-    <col min="516" max="519" width="9.140625" style="30"/>
-    <col min="520" max="521" width="37.85546875" style="30" customWidth="1"/>
-    <col min="522" max="769" width="9.140625" style="30"/>
-    <col min="770" max="770" width="15.42578125" style="30" customWidth="1"/>
-    <col min="771" max="771" width="22.140625" style="30" customWidth="1"/>
-    <col min="772" max="775" width="9.140625" style="30"/>
-    <col min="776" max="777" width="37.85546875" style="30" customWidth="1"/>
-    <col min="778" max="1025" width="9.140625" style="30"/>
-    <col min="1026" max="1026" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="22.140625" style="30" customWidth="1"/>
-    <col min="1028" max="1031" width="9.140625" style="30"/>
-    <col min="1032" max="1033" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1034" max="1281" width="9.140625" style="30"/>
-    <col min="1282" max="1282" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="22.140625" style="30" customWidth="1"/>
-    <col min="1284" max="1287" width="9.140625" style="30"/>
-    <col min="1288" max="1289" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1290" max="1537" width="9.140625" style="30"/>
-    <col min="1538" max="1538" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="22.140625" style="30" customWidth="1"/>
-    <col min="1540" max="1543" width="9.140625" style="30"/>
-    <col min="1544" max="1545" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1546" max="1793" width="9.140625" style="30"/>
-    <col min="1794" max="1794" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="22.140625" style="30" customWidth="1"/>
-    <col min="1796" max="1799" width="9.140625" style="30"/>
-    <col min="1800" max="1801" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1802" max="2049" width="9.140625" style="30"/>
-    <col min="2050" max="2050" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="22.140625" style="30" customWidth="1"/>
-    <col min="2052" max="2055" width="9.140625" style="30"/>
-    <col min="2056" max="2057" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2058" max="2305" width="9.140625" style="30"/>
-    <col min="2306" max="2306" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="22.140625" style="30" customWidth="1"/>
-    <col min="2308" max="2311" width="9.140625" style="30"/>
-    <col min="2312" max="2313" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2314" max="2561" width="9.140625" style="30"/>
-    <col min="2562" max="2562" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="22.140625" style="30" customWidth="1"/>
-    <col min="2564" max="2567" width="9.140625" style="30"/>
-    <col min="2568" max="2569" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2570" max="2817" width="9.140625" style="30"/>
-    <col min="2818" max="2818" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="22.140625" style="30" customWidth="1"/>
-    <col min="2820" max="2823" width="9.140625" style="30"/>
-    <col min="2824" max="2825" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2826" max="3073" width="9.140625" style="30"/>
-    <col min="3074" max="3074" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="22.140625" style="30" customWidth="1"/>
-    <col min="3076" max="3079" width="9.140625" style="30"/>
-    <col min="3080" max="3081" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3082" max="3329" width="9.140625" style="30"/>
-    <col min="3330" max="3330" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="22.140625" style="30" customWidth="1"/>
-    <col min="3332" max="3335" width="9.140625" style="30"/>
-    <col min="3336" max="3337" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3338" max="3585" width="9.140625" style="30"/>
-    <col min="3586" max="3586" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="22.140625" style="30" customWidth="1"/>
-    <col min="3588" max="3591" width="9.140625" style="30"/>
-    <col min="3592" max="3593" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3594" max="3841" width="9.140625" style="30"/>
-    <col min="3842" max="3842" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="22.140625" style="30" customWidth="1"/>
-    <col min="3844" max="3847" width="9.140625" style="30"/>
-    <col min="3848" max="3849" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3850" max="4097" width="9.140625" style="30"/>
-    <col min="4098" max="4098" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="22.140625" style="30" customWidth="1"/>
-    <col min="4100" max="4103" width="9.140625" style="30"/>
-    <col min="4104" max="4105" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4106" max="4353" width="9.140625" style="30"/>
-    <col min="4354" max="4354" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="22.140625" style="30" customWidth="1"/>
-    <col min="4356" max="4359" width="9.140625" style="30"/>
-    <col min="4360" max="4361" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4362" max="4609" width="9.140625" style="30"/>
-    <col min="4610" max="4610" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="22.140625" style="30" customWidth="1"/>
-    <col min="4612" max="4615" width="9.140625" style="30"/>
-    <col min="4616" max="4617" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4618" max="4865" width="9.140625" style="30"/>
-    <col min="4866" max="4866" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="22.140625" style="30" customWidth="1"/>
-    <col min="4868" max="4871" width="9.140625" style="30"/>
-    <col min="4872" max="4873" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4874" max="5121" width="9.140625" style="30"/>
-    <col min="5122" max="5122" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="22.140625" style="30" customWidth="1"/>
-    <col min="5124" max="5127" width="9.140625" style="30"/>
-    <col min="5128" max="5129" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5130" max="5377" width="9.140625" style="30"/>
-    <col min="5378" max="5378" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="22.140625" style="30" customWidth="1"/>
-    <col min="5380" max="5383" width="9.140625" style="30"/>
-    <col min="5384" max="5385" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5386" max="5633" width="9.140625" style="30"/>
-    <col min="5634" max="5634" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="22.140625" style="30" customWidth="1"/>
-    <col min="5636" max="5639" width="9.140625" style="30"/>
-    <col min="5640" max="5641" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5642" max="5889" width="9.140625" style="30"/>
-    <col min="5890" max="5890" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="22.140625" style="30" customWidth="1"/>
-    <col min="5892" max="5895" width="9.140625" style="30"/>
-    <col min="5896" max="5897" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5898" max="6145" width="9.140625" style="30"/>
-    <col min="6146" max="6146" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="22.140625" style="30" customWidth="1"/>
-    <col min="6148" max="6151" width="9.140625" style="30"/>
-    <col min="6152" max="6153" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6154" max="6401" width="9.140625" style="30"/>
-    <col min="6402" max="6402" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="22.140625" style="30" customWidth="1"/>
-    <col min="6404" max="6407" width="9.140625" style="30"/>
-    <col min="6408" max="6409" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6410" max="6657" width="9.140625" style="30"/>
-    <col min="6658" max="6658" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="22.140625" style="30" customWidth="1"/>
-    <col min="6660" max="6663" width="9.140625" style="30"/>
-    <col min="6664" max="6665" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6666" max="6913" width="9.140625" style="30"/>
-    <col min="6914" max="6914" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="22.140625" style="30" customWidth="1"/>
-    <col min="6916" max="6919" width="9.140625" style="30"/>
-    <col min="6920" max="6921" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6922" max="7169" width="9.140625" style="30"/>
-    <col min="7170" max="7170" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="22.140625" style="30" customWidth="1"/>
-    <col min="7172" max="7175" width="9.140625" style="30"/>
-    <col min="7176" max="7177" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7178" max="7425" width="9.140625" style="30"/>
-    <col min="7426" max="7426" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="22.140625" style="30" customWidth="1"/>
-    <col min="7428" max="7431" width="9.140625" style="30"/>
-    <col min="7432" max="7433" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7434" max="7681" width="9.140625" style="30"/>
-    <col min="7682" max="7682" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="22.140625" style="30" customWidth="1"/>
-    <col min="7684" max="7687" width="9.140625" style="30"/>
-    <col min="7688" max="7689" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7690" max="7937" width="9.140625" style="30"/>
-    <col min="7938" max="7938" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="22.140625" style="30" customWidth="1"/>
-    <col min="7940" max="7943" width="9.140625" style="30"/>
-    <col min="7944" max="7945" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7946" max="8193" width="9.140625" style="30"/>
-    <col min="8194" max="8194" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="22.140625" style="30" customWidth="1"/>
-    <col min="8196" max="8199" width="9.140625" style="30"/>
-    <col min="8200" max="8201" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8202" max="8449" width="9.140625" style="30"/>
-    <col min="8450" max="8450" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="22.140625" style="30" customWidth="1"/>
-    <col min="8452" max="8455" width="9.140625" style="30"/>
-    <col min="8456" max="8457" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8458" max="8705" width="9.140625" style="30"/>
-    <col min="8706" max="8706" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="22.140625" style="30" customWidth="1"/>
-    <col min="8708" max="8711" width="9.140625" style="30"/>
-    <col min="8712" max="8713" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8714" max="8961" width="9.140625" style="30"/>
-    <col min="8962" max="8962" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="22.140625" style="30" customWidth="1"/>
-    <col min="8964" max="8967" width="9.140625" style="30"/>
-    <col min="8968" max="8969" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8970" max="9217" width="9.140625" style="30"/>
-    <col min="9218" max="9218" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="22.140625" style="30" customWidth="1"/>
-    <col min="9220" max="9223" width="9.140625" style="30"/>
-    <col min="9224" max="9225" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9226" max="9473" width="9.140625" style="30"/>
-    <col min="9474" max="9474" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="22.140625" style="30" customWidth="1"/>
-    <col min="9476" max="9479" width="9.140625" style="30"/>
-    <col min="9480" max="9481" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9482" max="9729" width="9.140625" style="30"/>
-    <col min="9730" max="9730" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="22.140625" style="30" customWidth="1"/>
-    <col min="9732" max="9735" width="9.140625" style="30"/>
-    <col min="9736" max="9737" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9738" max="9985" width="9.140625" style="30"/>
-    <col min="9986" max="9986" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="22.140625" style="30" customWidth="1"/>
-    <col min="9988" max="9991" width="9.140625" style="30"/>
-    <col min="9992" max="9993" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9994" max="10241" width="9.140625" style="30"/>
-    <col min="10242" max="10242" width="15.42578125" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="22.140625" style="30" customWidth="1"/>
-    <col min="10244" max="10247" width="9.140625" style="30"/>
-    <col min="10248" max="10249" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10250" max="10497" width="9.140625" style="30"/>
-    <col min="10498" max="10498" width="15.42578125" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="22.140625" style="30" customWidth="1"/>
-    <col min="10500" max="10503" width="9.140625" style="30"/>
-    <col min="10504" max="10505" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10506" max="10753" width="9.140625" style="30"/>
-    <col min="10754" max="10754" width="15.42578125" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="22.140625" style="30" customWidth="1"/>
-    <col min="10756" max="10759" width="9.140625" style="30"/>
-    <col min="10760" max="10761" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10762" max="11009" width="9.140625" style="30"/>
-    <col min="11010" max="11010" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="22.140625" style="30" customWidth="1"/>
-    <col min="11012" max="11015" width="9.140625" style="30"/>
-    <col min="11016" max="11017" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11018" max="11265" width="9.140625" style="30"/>
-    <col min="11266" max="11266" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="22.140625" style="30" customWidth="1"/>
-    <col min="11268" max="11271" width="9.140625" style="30"/>
-    <col min="11272" max="11273" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11274" max="11521" width="9.140625" style="30"/>
-    <col min="11522" max="11522" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="22.140625" style="30" customWidth="1"/>
-    <col min="11524" max="11527" width="9.140625" style="30"/>
-    <col min="11528" max="11529" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11530" max="11777" width="9.140625" style="30"/>
-    <col min="11778" max="11778" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="22.140625" style="30" customWidth="1"/>
-    <col min="11780" max="11783" width="9.140625" style="30"/>
-    <col min="11784" max="11785" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11786" max="12033" width="9.140625" style="30"/>
-    <col min="12034" max="12034" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="22.140625" style="30" customWidth="1"/>
-    <col min="12036" max="12039" width="9.140625" style="30"/>
-    <col min="12040" max="12041" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12042" max="12289" width="9.140625" style="30"/>
-    <col min="12290" max="12290" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="22.140625" style="30" customWidth="1"/>
-    <col min="12292" max="12295" width="9.140625" style="30"/>
-    <col min="12296" max="12297" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12298" max="12545" width="9.140625" style="30"/>
-    <col min="12546" max="12546" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="22.140625" style="30" customWidth="1"/>
-    <col min="12548" max="12551" width="9.140625" style="30"/>
-    <col min="12552" max="12553" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12554" max="12801" width="9.140625" style="30"/>
-    <col min="12802" max="12802" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="22.140625" style="30" customWidth="1"/>
-    <col min="12804" max="12807" width="9.140625" style="30"/>
-    <col min="12808" max="12809" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12810" max="13057" width="9.140625" style="30"/>
-    <col min="13058" max="13058" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="22.140625" style="30" customWidth="1"/>
-    <col min="13060" max="13063" width="9.140625" style="30"/>
-    <col min="13064" max="13065" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13066" max="13313" width="9.140625" style="30"/>
-    <col min="13314" max="13314" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="22.140625" style="30" customWidth="1"/>
-    <col min="13316" max="13319" width="9.140625" style="30"/>
-    <col min="13320" max="13321" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13322" max="13569" width="9.140625" style="30"/>
-    <col min="13570" max="13570" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="22.140625" style="30" customWidth="1"/>
-    <col min="13572" max="13575" width="9.140625" style="30"/>
-    <col min="13576" max="13577" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13578" max="13825" width="9.140625" style="30"/>
-    <col min="13826" max="13826" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="22.140625" style="30" customWidth="1"/>
-    <col min="13828" max="13831" width="9.140625" style="30"/>
-    <col min="13832" max="13833" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13834" max="14081" width="9.140625" style="30"/>
-    <col min="14082" max="14082" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="22.140625" style="30" customWidth="1"/>
-    <col min="14084" max="14087" width="9.140625" style="30"/>
-    <col min="14088" max="14089" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14090" max="14337" width="9.140625" style="30"/>
-    <col min="14338" max="14338" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="22.140625" style="30" customWidth="1"/>
-    <col min="14340" max="14343" width="9.140625" style="30"/>
-    <col min="14344" max="14345" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14346" max="14593" width="9.140625" style="30"/>
-    <col min="14594" max="14594" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="22.140625" style="30" customWidth="1"/>
-    <col min="14596" max="14599" width="9.140625" style="30"/>
-    <col min="14600" max="14601" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14602" max="14849" width="9.140625" style="30"/>
-    <col min="14850" max="14850" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="22.140625" style="30" customWidth="1"/>
-    <col min="14852" max="14855" width="9.140625" style="30"/>
-    <col min="14856" max="14857" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14858" max="15105" width="9.140625" style="30"/>
-    <col min="15106" max="15106" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="22.140625" style="30" customWidth="1"/>
-    <col min="15108" max="15111" width="9.140625" style="30"/>
-    <col min="15112" max="15113" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15114" max="15361" width="9.140625" style="30"/>
-    <col min="15362" max="15362" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="22.140625" style="30" customWidth="1"/>
-    <col min="15364" max="15367" width="9.140625" style="30"/>
-    <col min="15368" max="15369" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15370" max="15617" width="9.140625" style="30"/>
-    <col min="15618" max="15618" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="22.140625" style="30" customWidth="1"/>
-    <col min="15620" max="15623" width="9.140625" style="30"/>
-    <col min="15624" max="15625" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15626" max="15873" width="9.140625" style="30"/>
-    <col min="15874" max="15874" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="22.140625" style="30" customWidth="1"/>
-    <col min="15876" max="15879" width="9.140625" style="30"/>
-    <col min="15880" max="15881" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15882" max="16129" width="9.140625" style="30"/>
-    <col min="16130" max="16130" width="15.42578125" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="22.140625" style="30" customWidth="1"/>
-    <col min="16132" max="16135" width="9.140625" style="30"/>
-    <col min="16136" max="16137" width="37.85546875" style="30" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.125" style="30"/>
+    <col min="2" max="2" width="15.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="30" customWidth="1"/>
+    <col min="4" max="7" width="9.125" style="30"/>
+    <col min="8" max="9" width="37.875" style="30" customWidth="1"/>
+    <col min="10" max="257" width="9.125" style="30"/>
+    <col min="258" max="258" width="15.375" style="30" customWidth="1"/>
+    <col min="259" max="259" width="22.125" style="30" customWidth="1"/>
+    <col min="260" max="263" width="9.125" style="30"/>
+    <col min="264" max="265" width="37.875" style="30" customWidth="1"/>
+    <col min="266" max="513" width="9.125" style="30"/>
+    <col min="514" max="514" width="15.375" style="30" customWidth="1"/>
+    <col min="515" max="515" width="22.125" style="30" customWidth="1"/>
+    <col min="516" max="519" width="9.125" style="30"/>
+    <col min="520" max="521" width="37.875" style="30" customWidth="1"/>
+    <col min="522" max="769" width="9.125" style="30"/>
+    <col min="770" max="770" width="15.375" style="30" customWidth="1"/>
+    <col min="771" max="771" width="22.125" style="30" customWidth="1"/>
+    <col min="772" max="775" width="9.125" style="30"/>
+    <col min="776" max="777" width="37.875" style="30" customWidth="1"/>
+    <col min="778" max="1025" width="9.125" style="30"/>
+    <col min="1026" max="1026" width="15.375" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="22.125" style="30" customWidth="1"/>
+    <col min="1028" max="1031" width="9.125" style="30"/>
+    <col min="1032" max="1033" width="37.875" style="30" customWidth="1"/>
+    <col min="1034" max="1281" width="9.125" style="30"/>
+    <col min="1282" max="1282" width="15.375" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="22.125" style="30" customWidth="1"/>
+    <col min="1284" max="1287" width="9.125" style="30"/>
+    <col min="1288" max="1289" width="37.875" style="30" customWidth="1"/>
+    <col min="1290" max="1537" width="9.125" style="30"/>
+    <col min="1538" max="1538" width="15.375" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="22.125" style="30" customWidth="1"/>
+    <col min="1540" max="1543" width="9.125" style="30"/>
+    <col min="1544" max="1545" width="37.875" style="30" customWidth="1"/>
+    <col min="1546" max="1793" width="9.125" style="30"/>
+    <col min="1794" max="1794" width="15.375" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="22.125" style="30" customWidth="1"/>
+    <col min="1796" max="1799" width="9.125" style="30"/>
+    <col min="1800" max="1801" width="37.875" style="30" customWidth="1"/>
+    <col min="1802" max="2049" width="9.125" style="30"/>
+    <col min="2050" max="2050" width="15.375" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="22.125" style="30" customWidth="1"/>
+    <col min="2052" max="2055" width="9.125" style="30"/>
+    <col min="2056" max="2057" width="37.875" style="30" customWidth="1"/>
+    <col min="2058" max="2305" width="9.125" style="30"/>
+    <col min="2306" max="2306" width="15.375" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="22.125" style="30" customWidth="1"/>
+    <col min="2308" max="2311" width="9.125" style="30"/>
+    <col min="2312" max="2313" width="37.875" style="30" customWidth="1"/>
+    <col min="2314" max="2561" width="9.125" style="30"/>
+    <col min="2562" max="2562" width="15.375" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="22.125" style="30" customWidth="1"/>
+    <col min="2564" max="2567" width="9.125" style="30"/>
+    <col min="2568" max="2569" width="37.875" style="30" customWidth="1"/>
+    <col min="2570" max="2817" width="9.125" style="30"/>
+    <col min="2818" max="2818" width="15.375" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="22.125" style="30" customWidth="1"/>
+    <col min="2820" max="2823" width="9.125" style="30"/>
+    <col min="2824" max="2825" width="37.875" style="30" customWidth="1"/>
+    <col min="2826" max="3073" width="9.125" style="30"/>
+    <col min="3074" max="3074" width="15.375" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="22.125" style="30" customWidth="1"/>
+    <col min="3076" max="3079" width="9.125" style="30"/>
+    <col min="3080" max="3081" width="37.875" style="30" customWidth="1"/>
+    <col min="3082" max="3329" width="9.125" style="30"/>
+    <col min="3330" max="3330" width="15.375" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="22.125" style="30" customWidth="1"/>
+    <col min="3332" max="3335" width="9.125" style="30"/>
+    <col min="3336" max="3337" width="37.875" style="30" customWidth="1"/>
+    <col min="3338" max="3585" width="9.125" style="30"/>
+    <col min="3586" max="3586" width="15.375" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="22.125" style="30" customWidth="1"/>
+    <col min="3588" max="3591" width="9.125" style="30"/>
+    <col min="3592" max="3593" width="37.875" style="30" customWidth="1"/>
+    <col min="3594" max="3841" width="9.125" style="30"/>
+    <col min="3842" max="3842" width="15.375" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="22.125" style="30" customWidth="1"/>
+    <col min="3844" max="3847" width="9.125" style="30"/>
+    <col min="3848" max="3849" width="37.875" style="30" customWidth="1"/>
+    <col min="3850" max="4097" width="9.125" style="30"/>
+    <col min="4098" max="4098" width="15.375" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="22.125" style="30" customWidth="1"/>
+    <col min="4100" max="4103" width="9.125" style="30"/>
+    <col min="4104" max="4105" width="37.875" style="30" customWidth="1"/>
+    <col min="4106" max="4353" width="9.125" style="30"/>
+    <col min="4354" max="4354" width="15.375" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="22.125" style="30" customWidth="1"/>
+    <col min="4356" max="4359" width="9.125" style="30"/>
+    <col min="4360" max="4361" width="37.875" style="30" customWidth="1"/>
+    <col min="4362" max="4609" width="9.125" style="30"/>
+    <col min="4610" max="4610" width="15.375" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="22.125" style="30" customWidth="1"/>
+    <col min="4612" max="4615" width="9.125" style="30"/>
+    <col min="4616" max="4617" width="37.875" style="30" customWidth="1"/>
+    <col min="4618" max="4865" width="9.125" style="30"/>
+    <col min="4866" max="4866" width="15.375" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="22.125" style="30" customWidth="1"/>
+    <col min="4868" max="4871" width="9.125" style="30"/>
+    <col min="4872" max="4873" width="37.875" style="30" customWidth="1"/>
+    <col min="4874" max="5121" width="9.125" style="30"/>
+    <col min="5122" max="5122" width="15.375" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="22.125" style="30" customWidth="1"/>
+    <col min="5124" max="5127" width="9.125" style="30"/>
+    <col min="5128" max="5129" width="37.875" style="30" customWidth="1"/>
+    <col min="5130" max="5377" width="9.125" style="30"/>
+    <col min="5378" max="5378" width="15.375" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="22.125" style="30" customWidth="1"/>
+    <col min="5380" max="5383" width="9.125" style="30"/>
+    <col min="5384" max="5385" width="37.875" style="30" customWidth="1"/>
+    <col min="5386" max="5633" width="9.125" style="30"/>
+    <col min="5634" max="5634" width="15.375" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="22.125" style="30" customWidth="1"/>
+    <col min="5636" max="5639" width="9.125" style="30"/>
+    <col min="5640" max="5641" width="37.875" style="30" customWidth="1"/>
+    <col min="5642" max="5889" width="9.125" style="30"/>
+    <col min="5890" max="5890" width="15.375" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="22.125" style="30" customWidth="1"/>
+    <col min="5892" max="5895" width="9.125" style="30"/>
+    <col min="5896" max="5897" width="37.875" style="30" customWidth="1"/>
+    <col min="5898" max="6145" width="9.125" style="30"/>
+    <col min="6146" max="6146" width="15.375" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="22.125" style="30" customWidth="1"/>
+    <col min="6148" max="6151" width="9.125" style="30"/>
+    <col min="6152" max="6153" width="37.875" style="30" customWidth="1"/>
+    <col min="6154" max="6401" width="9.125" style="30"/>
+    <col min="6402" max="6402" width="15.375" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="22.125" style="30" customWidth="1"/>
+    <col min="6404" max="6407" width="9.125" style="30"/>
+    <col min="6408" max="6409" width="37.875" style="30" customWidth="1"/>
+    <col min="6410" max="6657" width="9.125" style="30"/>
+    <col min="6658" max="6658" width="15.375" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="22.125" style="30" customWidth="1"/>
+    <col min="6660" max="6663" width="9.125" style="30"/>
+    <col min="6664" max="6665" width="37.875" style="30" customWidth="1"/>
+    <col min="6666" max="6913" width="9.125" style="30"/>
+    <col min="6914" max="6914" width="15.375" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="22.125" style="30" customWidth="1"/>
+    <col min="6916" max="6919" width="9.125" style="30"/>
+    <col min="6920" max="6921" width="37.875" style="30" customWidth="1"/>
+    <col min="6922" max="7169" width="9.125" style="30"/>
+    <col min="7170" max="7170" width="15.375" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="22.125" style="30" customWidth="1"/>
+    <col min="7172" max="7175" width="9.125" style="30"/>
+    <col min="7176" max="7177" width="37.875" style="30" customWidth="1"/>
+    <col min="7178" max="7425" width="9.125" style="30"/>
+    <col min="7426" max="7426" width="15.375" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="22.125" style="30" customWidth="1"/>
+    <col min="7428" max="7431" width="9.125" style="30"/>
+    <col min="7432" max="7433" width="37.875" style="30" customWidth="1"/>
+    <col min="7434" max="7681" width="9.125" style="30"/>
+    <col min="7682" max="7682" width="15.375" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="22.125" style="30" customWidth="1"/>
+    <col min="7684" max="7687" width="9.125" style="30"/>
+    <col min="7688" max="7689" width="37.875" style="30" customWidth="1"/>
+    <col min="7690" max="7937" width="9.125" style="30"/>
+    <col min="7938" max="7938" width="15.375" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="22.125" style="30" customWidth="1"/>
+    <col min="7940" max="7943" width="9.125" style="30"/>
+    <col min="7944" max="7945" width="37.875" style="30" customWidth="1"/>
+    <col min="7946" max="8193" width="9.125" style="30"/>
+    <col min="8194" max="8194" width="15.375" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="22.125" style="30" customWidth="1"/>
+    <col min="8196" max="8199" width="9.125" style="30"/>
+    <col min="8200" max="8201" width="37.875" style="30" customWidth="1"/>
+    <col min="8202" max="8449" width="9.125" style="30"/>
+    <col min="8450" max="8450" width="15.375" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="22.125" style="30" customWidth="1"/>
+    <col min="8452" max="8455" width="9.125" style="30"/>
+    <col min="8456" max="8457" width="37.875" style="30" customWidth="1"/>
+    <col min="8458" max="8705" width="9.125" style="30"/>
+    <col min="8706" max="8706" width="15.375" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="22.125" style="30" customWidth="1"/>
+    <col min="8708" max="8711" width="9.125" style="30"/>
+    <col min="8712" max="8713" width="37.875" style="30" customWidth="1"/>
+    <col min="8714" max="8961" width="9.125" style="30"/>
+    <col min="8962" max="8962" width="15.375" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="22.125" style="30" customWidth="1"/>
+    <col min="8964" max="8967" width="9.125" style="30"/>
+    <col min="8968" max="8969" width="37.875" style="30" customWidth="1"/>
+    <col min="8970" max="9217" width="9.125" style="30"/>
+    <col min="9218" max="9218" width="15.375" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="22.125" style="30" customWidth="1"/>
+    <col min="9220" max="9223" width="9.125" style="30"/>
+    <col min="9224" max="9225" width="37.875" style="30" customWidth="1"/>
+    <col min="9226" max="9473" width="9.125" style="30"/>
+    <col min="9474" max="9474" width="15.375" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="22.125" style="30" customWidth="1"/>
+    <col min="9476" max="9479" width="9.125" style="30"/>
+    <col min="9480" max="9481" width="37.875" style="30" customWidth="1"/>
+    <col min="9482" max="9729" width="9.125" style="30"/>
+    <col min="9730" max="9730" width="15.375" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="22.125" style="30" customWidth="1"/>
+    <col min="9732" max="9735" width="9.125" style="30"/>
+    <col min="9736" max="9737" width="37.875" style="30" customWidth="1"/>
+    <col min="9738" max="9985" width="9.125" style="30"/>
+    <col min="9986" max="9986" width="15.375" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="22.125" style="30" customWidth="1"/>
+    <col min="9988" max="9991" width="9.125" style="30"/>
+    <col min="9992" max="9993" width="37.875" style="30" customWidth="1"/>
+    <col min="9994" max="10241" width="9.125" style="30"/>
+    <col min="10242" max="10242" width="15.375" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="22.125" style="30" customWidth="1"/>
+    <col min="10244" max="10247" width="9.125" style="30"/>
+    <col min="10248" max="10249" width="37.875" style="30" customWidth="1"/>
+    <col min="10250" max="10497" width="9.125" style="30"/>
+    <col min="10498" max="10498" width="15.375" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="22.125" style="30" customWidth="1"/>
+    <col min="10500" max="10503" width="9.125" style="30"/>
+    <col min="10504" max="10505" width="37.875" style="30" customWidth="1"/>
+    <col min="10506" max="10753" width="9.125" style="30"/>
+    <col min="10754" max="10754" width="15.375" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="22.125" style="30" customWidth="1"/>
+    <col min="10756" max="10759" width="9.125" style="30"/>
+    <col min="10760" max="10761" width="37.875" style="30" customWidth="1"/>
+    <col min="10762" max="11009" width="9.125" style="30"/>
+    <col min="11010" max="11010" width="15.375" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="22.125" style="30" customWidth="1"/>
+    <col min="11012" max="11015" width="9.125" style="30"/>
+    <col min="11016" max="11017" width="37.875" style="30" customWidth="1"/>
+    <col min="11018" max="11265" width="9.125" style="30"/>
+    <col min="11266" max="11266" width="15.375" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="22.125" style="30" customWidth="1"/>
+    <col min="11268" max="11271" width="9.125" style="30"/>
+    <col min="11272" max="11273" width="37.875" style="30" customWidth="1"/>
+    <col min="11274" max="11521" width="9.125" style="30"/>
+    <col min="11522" max="11522" width="15.375" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="22.125" style="30" customWidth="1"/>
+    <col min="11524" max="11527" width="9.125" style="30"/>
+    <col min="11528" max="11529" width="37.875" style="30" customWidth="1"/>
+    <col min="11530" max="11777" width="9.125" style="30"/>
+    <col min="11778" max="11778" width="15.375" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="22.125" style="30" customWidth="1"/>
+    <col min="11780" max="11783" width="9.125" style="30"/>
+    <col min="11784" max="11785" width="37.875" style="30" customWidth="1"/>
+    <col min="11786" max="12033" width="9.125" style="30"/>
+    <col min="12034" max="12034" width="15.375" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="22.125" style="30" customWidth="1"/>
+    <col min="12036" max="12039" width="9.125" style="30"/>
+    <col min="12040" max="12041" width="37.875" style="30" customWidth="1"/>
+    <col min="12042" max="12289" width="9.125" style="30"/>
+    <col min="12290" max="12290" width="15.375" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="22.125" style="30" customWidth="1"/>
+    <col min="12292" max="12295" width="9.125" style="30"/>
+    <col min="12296" max="12297" width="37.875" style="30" customWidth="1"/>
+    <col min="12298" max="12545" width="9.125" style="30"/>
+    <col min="12546" max="12546" width="15.375" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="22.125" style="30" customWidth="1"/>
+    <col min="12548" max="12551" width="9.125" style="30"/>
+    <col min="12552" max="12553" width="37.875" style="30" customWidth="1"/>
+    <col min="12554" max="12801" width="9.125" style="30"/>
+    <col min="12802" max="12802" width="15.375" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="22.125" style="30" customWidth="1"/>
+    <col min="12804" max="12807" width="9.125" style="30"/>
+    <col min="12808" max="12809" width="37.875" style="30" customWidth="1"/>
+    <col min="12810" max="13057" width="9.125" style="30"/>
+    <col min="13058" max="13058" width="15.375" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="22.125" style="30" customWidth="1"/>
+    <col min="13060" max="13063" width="9.125" style="30"/>
+    <col min="13064" max="13065" width="37.875" style="30" customWidth="1"/>
+    <col min="13066" max="13313" width="9.125" style="30"/>
+    <col min="13314" max="13314" width="15.375" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="22.125" style="30" customWidth="1"/>
+    <col min="13316" max="13319" width="9.125" style="30"/>
+    <col min="13320" max="13321" width="37.875" style="30" customWidth="1"/>
+    <col min="13322" max="13569" width="9.125" style="30"/>
+    <col min="13570" max="13570" width="15.375" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="22.125" style="30" customWidth="1"/>
+    <col min="13572" max="13575" width="9.125" style="30"/>
+    <col min="13576" max="13577" width="37.875" style="30" customWidth="1"/>
+    <col min="13578" max="13825" width="9.125" style="30"/>
+    <col min="13826" max="13826" width="15.375" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="22.125" style="30" customWidth="1"/>
+    <col min="13828" max="13831" width="9.125" style="30"/>
+    <col min="13832" max="13833" width="37.875" style="30" customWidth="1"/>
+    <col min="13834" max="14081" width="9.125" style="30"/>
+    <col min="14082" max="14082" width="15.375" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="22.125" style="30" customWidth="1"/>
+    <col min="14084" max="14087" width="9.125" style="30"/>
+    <col min="14088" max="14089" width="37.875" style="30" customWidth="1"/>
+    <col min="14090" max="14337" width="9.125" style="30"/>
+    <col min="14338" max="14338" width="15.375" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="22.125" style="30" customWidth="1"/>
+    <col min="14340" max="14343" width="9.125" style="30"/>
+    <col min="14344" max="14345" width="37.875" style="30" customWidth="1"/>
+    <col min="14346" max="14593" width="9.125" style="30"/>
+    <col min="14594" max="14594" width="15.375" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="22.125" style="30" customWidth="1"/>
+    <col min="14596" max="14599" width="9.125" style="30"/>
+    <col min="14600" max="14601" width="37.875" style="30" customWidth="1"/>
+    <col min="14602" max="14849" width="9.125" style="30"/>
+    <col min="14850" max="14850" width="15.375" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="22.125" style="30" customWidth="1"/>
+    <col min="14852" max="14855" width="9.125" style="30"/>
+    <col min="14856" max="14857" width="37.875" style="30" customWidth="1"/>
+    <col min="14858" max="15105" width="9.125" style="30"/>
+    <col min="15106" max="15106" width="15.375" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="22.125" style="30" customWidth="1"/>
+    <col min="15108" max="15111" width="9.125" style="30"/>
+    <col min="15112" max="15113" width="37.875" style="30" customWidth="1"/>
+    <col min="15114" max="15361" width="9.125" style="30"/>
+    <col min="15362" max="15362" width="15.375" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="22.125" style="30" customWidth="1"/>
+    <col min="15364" max="15367" width="9.125" style="30"/>
+    <col min="15368" max="15369" width="37.875" style="30" customWidth="1"/>
+    <col min="15370" max="15617" width="9.125" style="30"/>
+    <col min="15618" max="15618" width="15.375" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="22.125" style="30" customWidth="1"/>
+    <col min="15620" max="15623" width="9.125" style="30"/>
+    <col min="15624" max="15625" width="37.875" style="30" customWidth="1"/>
+    <col min="15626" max="15873" width="9.125" style="30"/>
+    <col min="15874" max="15874" width="15.375" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="22.125" style="30" customWidth="1"/>
+    <col min="15876" max="15879" width="9.125" style="30"/>
+    <col min="15880" max="15881" width="37.875" style="30" customWidth="1"/>
+    <col min="15882" max="16129" width="9.125" style="30"/>
+    <col min="16130" max="16130" width="15.375" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="22.125" style="30" customWidth="1"/>
+    <col min="16132" max="16135" width="9.125" style="30"/>
+    <col min="16136" max="16137" width="37.875" style="30" customWidth="1"/>
+    <col min="16138" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="150" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+      <c r="B1" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="106"/>
@@ -8712,71 +8748,71 @@
       <c r="G2" s="106"/>
       <c r="H2" s="107"/>
     </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="142" t="str">
+      <c r="C3" s="144" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="151" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="151"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="109"/>
       <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="142" t="str">
+      <c r="C4" s="144" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="151" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="151"/>
+      <c r="F4" s="153"/>
       <c r="G4" s="109"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12" customHeight="1">
       <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="142" t="str">
+      <c r="C5" s="144" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="151" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="151"/>
+      <c r="F5" s="153"/>
       <c r="G5" s="109"/>
       <c r="H5" s="112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="105"/>
       <c r="B6" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="105"/>
       <c r="B7" s="113"/>
       <c r="C7" s="114"/>
@@ -8786,7 +8822,7 @@
       <c r="G7" s="106"/>
       <c r="H7" s="107"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="113"/>
       <c r="C8" s="114"/>
       <c r="D8" s="106"/>
@@ -8795,7 +8831,7 @@
       <c r="G8" s="106"/>
       <c r="H8" s="107"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="115"/>
       <c r="B9" s="115"/>
       <c r="C9" s="115"/>
@@ -8805,7 +8841,7 @@
       <c r="G9" s="115"/>
       <c r="H9" s="115"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="116"/>
       <c r="B10" s="117" t="s">
         <v>21</v>
@@ -8829,7 +8865,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="122"/>
       <c r="B11" s="123">
         <v>1</v>
@@ -8859,7 +8895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="122"/>
       <c r="B12" s="123">
         <v>2</v>
@@ -8889,7 +8925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="122"/>
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
@@ -8899,7 +8935,7 @@
       <c r="G13" s="126"/>
       <c r="H13" s="127"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="122"/>
       <c r="B14" s="128"/>
       <c r="C14" s="129" t="s">
@@ -8926,7 +8962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="115"/>
       <c r="B15" s="132"/>
       <c r="C15" s="115"/>
@@ -8936,7 +8972,7 @@
       <c r="G15" s="134"/>
       <c r="H15" s="134"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="115"/>
       <c r="B16" s="115"/>
       <c r="C16" s="135" t="s">
@@ -8953,7 +8989,7 @@
       <c r="G16" s="115"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="115"/>
       <c r="B17" s="115"/>
       <c r="C17" s="135" t="s">
@@ -8970,7 +9006,7 @@
       <c r="G17" s="115"/>
       <c r="H17" s="80"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
     </row>

--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Common Module'!$A$8:$H$13</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -980,11 +980,6 @@
     <t>When user input "Tên đăng nhập" with length less than 6 characters</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Mật khẩu" with length more than 32 characters</t>
-  </si>
-  <si>
     <t>1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Display error password message besides "Mật khẩu" textbox</t>
@@ -998,43 +993,18 @@
 3. Input "Tên đăng nhập" with length less than 6 characters</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Mật khẩu" with length less than 6 characters</t>
-  </si>
-  <si>
     <t>When user input special characters in "Tên đăng nhập"</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Tên đăng nhập with special characters</t>
-  </si>
-  <si>
     <t>When user input space in "Tên đăng nhập"</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Tên đăng nhập" with space</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Họ và tên" with length more than 50 characters</t>
-  </si>
-  <si>
     <t>When user input "Họ và tên" with length more than 50 characters</t>
   </si>
   <si>
     <t>When user input "Email" with length more than 32 characters</t>
   </si>
   <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Email" with length more than 32 characters</t>
-  </si>
-  <si>
     <t>When user input "Mật khẩu" with length more than 32 characters</t>
   </si>
   <si>
@@ -1042,11 +1012,6 @@
   </si>
   <si>
     <t>When user input "Mật khẩu" and "Nhập lại mật khẩu" are not same</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input "Mật khẩu" and "Nhập lại mật khẩu" are diffirence</t>
   </si>
   <si>
     <t>1. The Homepage is displayed 
@@ -1072,11 +1037,6 @@
     <t>1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Display error message besides "Mật khẩu" textbox</t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Click "Refresh captcha" button</t>
   </si>
   <si>
     <t xml:space="preserve">1. The Homepage is displayed 
@@ -1088,11 +1048,6 @@
 2. Display "Đăng ký" page
 3. Sound of captcha is played
 </t>
-  </si>
-  <si>
-    <t>1. Enter the website
-2. Click on "Đăng nhập" link
-3. Click "Help captcha" button</t>
   </si>
   <si>
     <t xml:space="preserve">1. The Homepage is displayed 
@@ -1534,11 +1489,6 @@
     <t>Information in "Mật khẩu" and "Nhập lại mật khẩu" field must be encoded</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input information to "Mật khẩu" and "Nhập lại mật khẩu" field </t>
-  </si>
-  <si>
     <t>1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Information in "Mật khẩu" and "Nhập lại mật khẩu field will be show as stars or dots</t>
@@ -1824,12 +1774,6 @@
     <t>[Edit profile-27]</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login the system with Member role
-2. Click "Trang cá nhân" link
-3. Click "Thay đổi thông tin" link
-4. Input information to all fields  </t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. Display "Trang cá nhân" page
 3. Display "Thay đổi thông tin" page
@@ -1839,11 +1783,6 @@
     <t>[Register-30]</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter the website
-2. Click on "Đăng nhập" link
-3. Input information to all fields  </t>
-  </si>
-  <si>
     <t>1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Display error message besides "Nhập mã xác nhận" textbox</t>
@@ -1863,9 +1802,6 @@
   </si>
   <si>
     <t xml:space="preserve">When user click "listen captcha" button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user input incorect capcha button </t>
   </si>
   <si>
     <t xml:space="preserve">When user click "Help captcha" button </t>
@@ -1883,8 +1819,74 @@
   </si>
   <si>
     <t>1. Enter the website
-2. Click on "Đăng nhập" link
+2. Click on "Đăng ký" link
+3. Click "Help captcha" button</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
 3. Click "Listen captcha" button</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Click "Refresh captcha" button</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Mật khẩu" and "Nhập lại mật khẩu" are diffirence</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Email" with length more than 32 characters</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Họ và tên" with length more than 50 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the website
+2. Click on "Đăng ký" link
+3. Input information to "Mật khẩu" and "Nhập lại mật khẩu" field </t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Tên đăng nhập" with space</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Tên đăng nhập with special characters</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Mật khẩu" with length more than 32 characters</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input "Mật khẩu" with length less than 6 characters</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Quên mật khẩu" link
+3. Input incorrect capcha</t>
+  </si>
+  <si>
+    <t>1. Login the system with Member role
+2. Click "Trang cá nhân" link
+3. Click "Thay đổi thông tin" link
+4. Input incorrect capcha</t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input incorrect capcha</t>
   </si>
 </sst>
 </file>
@@ -1894,11 +1896,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3163,7 +3165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3198,7 +3200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3413,19 +3415,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
+    <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="34"/>
       <c r="C2" s="139" t="s">
@@ -3436,12 +3438,12 @@
       <c r="F2" s="139"/>
       <c r="G2" s="139"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
       <c r="C3" s="31"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
@@ -3455,7 +3457,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3471,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="141" t="s">
         <v>10</v>
       </c>
@@ -3484,7 +3486,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="141"/>
       <c r="C7" s="142"/>
       <c r="D7" s="142"/>
@@ -3494,7 +3496,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
       <c r="D8" s="24"/>
@@ -3502,19 +3504,19 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
+    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -3554,7 +3556,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -3562,7 +3564,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -3570,7 +3572,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -3578,7 +3580,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="21.75" customHeight="1">
+    <row r="17" spans="2:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -3586,7 +3588,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" s="3" customFormat="1" ht="19.5" customHeight="1">
+    <row r="18" spans="2:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -3620,471 +3622,471 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
     <col min="6" max="6" width="35" style="37" customWidth="1"/>
-    <col min="7" max="256" width="9.125" style="30"/>
-    <col min="257" max="257" width="1.625" style="30" customWidth="1"/>
-    <col min="258" max="258" width="13.375" style="30" customWidth="1"/>
-    <col min="259" max="259" width="30.25" style="30" customWidth="1"/>
-    <col min="260" max="260" width="19.625" style="30" customWidth="1"/>
-    <col min="261" max="261" width="32.125" style="30" customWidth="1"/>
+    <col min="7" max="256" width="9.140625" style="30"/>
+    <col min="257" max="257" width="1.5703125" style="30" customWidth="1"/>
+    <col min="258" max="258" width="13.42578125" style="30" customWidth="1"/>
+    <col min="259" max="259" width="30.28515625" style="30" customWidth="1"/>
+    <col min="260" max="260" width="19.5703125" style="30" customWidth="1"/>
+    <col min="261" max="261" width="32.140625" style="30" customWidth="1"/>
     <col min="262" max="262" width="35" style="30" customWidth="1"/>
-    <col min="263" max="512" width="9.125" style="30"/>
-    <col min="513" max="513" width="1.625" style="30" customWidth="1"/>
-    <col min="514" max="514" width="13.375" style="30" customWidth="1"/>
-    <col min="515" max="515" width="30.25" style="30" customWidth="1"/>
-    <col min="516" max="516" width="19.625" style="30" customWidth="1"/>
-    <col min="517" max="517" width="32.125" style="30" customWidth="1"/>
+    <col min="263" max="512" width="9.140625" style="30"/>
+    <col min="513" max="513" width="1.5703125" style="30" customWidth="1"/>
+    <col min="514" max="514" width="13.42578125" style="30" customWidth="1"/>
+    <col min="515" max="515" width="30.28515625" style="30" customWidth="1"/>
+    <col min="516" max="516" width="19.5703125" style="30" customWidth="1"/>
+    <col min="517" max="517" width="32.140625" style="30" customWidth="1"/>
     <col min="518" max="518" width="35" style="30" customWidth="1"/>
-    <col min="519" max="768" width="9.125" style="30"/>
-    <col min="769" max="769" width="1.625" style="30" customWidth="1"/>
-    <col min="770" max="770" width="13.375" style="30" customWidth="1"/>
-    <col min="771" max="771" width="30.25" style="30" customWidth="1"/>
-    <col min="772" max="772" width="19.625" style="30" customWidth="1"/>
-    <col min="773" max="773" width="32.125" style="30" customWidth="1"/>
+    <col min="519" max="768" width="9.140625" style="30"/>
+    <col min="769" max="769" width="1.5703125" style="30" customWidth="1"/>
+    <col min="770" max="770" width="13.42578125" style="30" customWidth="1"/>
+    <col min="771" max="771" width="30.28515625" style="30" customWidth="1"/>
+    <col min="772" max="772" width="19.5703125" style="30" customWidth="1"/>
+    <col min="773" max="773" width="32.140625" style="30" customWidth="1"/>
     <col min="774" max="774" width="35" style="30" customWidth="1"/>
-    <col min="775" max="1024" width="9.125" style="30"/>
-    <col min="1025" max="1025" width="1.625" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="13.375" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="30.25" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="19.625" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="32.125" style="30" customWidth="1"/>
+    <col min="775" max="1024" width="9.140625" style="30"/>
+    <col min="1025" max="1025" width="1.5703125" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="30.28515625" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="19.5703125" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="32.140625" style="30" customWidth="1"/>
     <col min="1030" max="1030" width="35" style="30" customWidth="1"/>
-    <col min="1031" max="1280" width="9.125" style="30"/>
-    <col min="1281" max="1281" width="1.625" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="13.375" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="30.25" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="19.625" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="32.125" style="30" customWidth="1"/>
+    <col min="1031" max="1280" width="9.140625" style="30"/>
+    <col min="1281" max="1281" width="1.5703125" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="30.28515625" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="19.5703125" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="32.140625" style="30" customWidth="1"/>
     <col min="1286" max="1286" width="35" style="30" customWidth="1"/>
-    <col min="1287" max="1536" width="9.125" style="30"/>
-    <col min="1537" max="1537" width="1.625" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="13.375" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="30.25" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="19.625" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="32.125" style="30" customWidth="1"/>
+    <col min="1287" max="1536" width="9.140625" style="30"/>
+    <col min="1537" max="1537" width="1.5703125" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="30.28515625" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="19.5703125" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="32.140625" style="30" customWidth="1"/>
     <col min="1542" max="1542" width="35" style="30" customWidth="1"/>
-    <col min="1543" max="1792" width="9.125" style="30"/>
-    <col min="1793" max="1793" width="1.625" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="13.375" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="30.25" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="19.625" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="32.125" style="30" customWidth="1"/>
+    <col min="1543" max="1792" width="9.140625" style="30"/>
+    <col min="1793" max="1793" width="1.5703125" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="30.28515625" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="19.5703125" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="32.140625" style="30" customWidth="1"/>
     <col min="1798" max="1798" width="35" style="30" customWidth="1"/>
-    <col min="1799" max="2048" width="9.125" style="30"/>
-    <col min="2049" max="2049" width="1.625" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="13.375" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="30.25" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="19.625" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="32.125" style="30" customWidth="1"/>
+    <col min="1799" max="2048" width="9.140625" style="30"/>
+    <col min="2049" max="2049" width="1.5703125" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="30.28515625" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="19.5703125" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="32.140625" style="30" customWidth="1"/>
     <col min="2054" max="2054" width="35" style="30" customWidth="1"/>
-    <col min="2055" max="2304" width="9.125" style="30"/>
-    <col min="2305" max="2305" width="1.625" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="13.375" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="30.25" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="19.625" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="32.125" style="30" customWidth="1"/>
+    <col min="2055" max="2304" width="9.140625" style="30"/>
+    <col min="2305" max="2305" width="1.5703125" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="30.28515625" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="19.5703125" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="32.140625" style="30" customWidth="1"/>
     <col min="2310" max="2310" width="35" style="30" customWidth="1"/>
-    <col min="2311" max="2560" width="9.125" style="30"/>
-    <col min="2561" max="2561" width="1.625" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="13.375" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="30.25" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="19.625" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="32.125" style="30" customWidth="1"/>
+    <col min="2311" max="2560" width="9.140625" style="30"/>
+    <col min="2561" max="2561" width="1.5703125" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="30.28515625" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="19.5703125" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="32.140625" style="30" customWidth="1"/>
     <col min="2566" max="2566" width="35" style="30" customWidth="1"/>
-    <col min="2567" max="2816" width="9.125" style="30"/>
-    <col min="2817" max="2817" width="1.625" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="13.375" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="30.25" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="19.625" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="32.125" style="30" customWidth="1"/>
+    <col min="2567" max="2816" width="9.140625" style="30"/>
+    <col min="2817" max="2817" width="1.5703125" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="30.28515625" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="19.5703125" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="32.140625" style="30" customWidth="1"/>
     <col min="2822" max="2822" width="35" style="30" customWidth="1"/>
-    <col min="2823" max="3072" width="9.125" style="30"/>
-    <col min="3073" max="3073" width="1.625" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="13.375" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="30.25" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="19.625" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="32.125" style="30" customWidth="1"/>
+    <col min="2823" max="3072" width="9.140625" style="30"/>
+    <col min="3073" max="3073" width="1.5703125" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="30.28515625" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="19.5703125" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="32.140625" style="30" customWidth="1"/>
     <col min="3078" max="3078" width="35" style="30" customWidth="1"/>
-    <col min="3079" max="3328" width="9.125" style="30"/>
-    <col min="3329" max="3329" width="1.625" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="13.375" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="30.25" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="19.625" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="32.125" style="30" customWidth="1"/>
+    <col min="3079" max="3328" width="9.140625" style="30"/>
+    <col min="3329" max="3329" width="1.5703125" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="30.28515625" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="19.5703125" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="32.140625" style="30" customWidth="1"/>
     <col min="3334" max="3334" width="35" style="30" customWidth="1"/>
-    <col min="3335" max="3584" width="9.125" style="30"/>
-    <col min="3585" max="3585" width="1.625" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="13.375" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="30.25" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="19.625" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="32.125" style="30" customWidth="1"/>
+    <col min="3335" max="3584" width="9.140625" style="30"/>
+    <col min="3585" max="3585" width="1.5703125" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="30.28515625" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="19.5703125" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="32.140625" style="30" customWidth="1"/>
     <col min="3590" max="3590" width="35" style="30" customWidth="1"/>
-    <col min="3591" max="3840" width="9.125" style="30"/>
-    <col min="3841" max="3841" width="1.625" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="13.375" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="30.25" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="19.625" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="32.125" style="30" customWidth="1"/>
+    <col min="3591" max="3840" width="9.140625" style="30"/>
+    <col min="3841" max="3841" width="1.5703125" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="30.28515625" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="19.5703125" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="32.140625" style="30" customWidth="1"/>
     <col min="3846" max="3846" width="35" style="30" customWidth="1"/>
-    <col min="3847" max="4096" width="9.125" style="30"/>
-    <col min="4097" max="4097" width="1.625" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="13.375" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="30.25" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="19.625" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="32.125" style="30" customWidth="1"/>
+    <col min="3847" max="4096" width="9.140625" style="30"/>
+    <col min="4097" max="4097" width="1.5703125" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="30.28515625" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="19.5703125" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="32.140625" style="30" customWidth="1"/>
     <col min="4102" max="4102" width="35" style="30" customWidth="1"/>
-    <col min="4103" max="4352" width="9.125" style="30"/>
-    <col min="4353" max="4353" width="1.625" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="13.375" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="30.25" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="19.625" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="32.125" style="30" customWidth="1"/>
+    <col min="4103" max="4352" width="9.140625" style="30"/>
+    <col min="4353" max="4353" width="1.5703125" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="30.28515625" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="19.5703125" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="32.140625" style="30" customWidth="1"/>
     <col min="4358" max="4358" width="35" style="30" customWidth="1"/>
-    <col min="4359" max="4608" width="9.125" style="30"/>
-    <col min="4609" max="4609" width="1.625" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="13.375" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="30.25" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="19.625" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="32.125" style="30" customWidth="1"/>
+    <col min="4359" max="4608" width="9.140625" style="30"/>
+    <col min="4609" max="4609" width="1.5703125" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="30.28515625" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="19.5703125" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="32.140625" style="30" customWidth="1"/>
     <col min="4614" max="4614" width="35" style="30" customWidth="1"/>
-    <col min="4615" max="4864" width="9.125" style="30"/>
-    <col min="4865" max="4865" width="1.625" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="13.375" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="30.25" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="19.625" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="32.125" style="30" customWidth="1"/>
+    <col min="4615" max="4864" width="9.140625" style="30"/>
+    <col min="4865" max="4865" width="1.5703125" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="30.28515625" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="19.5703125" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="32.140625" style="30" customWidth="1"/>
     <col min="4870" max="4870" width="35" style="30" customWidth="1"/>
-    <col min="4871" max="5120" width="9.125" style="30"/>
-    <col min="5121" max="5121" width="1.625" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="13.375" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="30.25" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="19.625" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="32.125" style="30" customWidth="1"/>
+    <col min="4871" max="5120" width="9.140625" style="30"/>
+    <col min="5121" max="5121" width="1.5703125" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="30.28515625" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="19.5703125" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="32.140625" style="30" customWidth="1"/>
     <col min="5126" max="5126" width="35" style="30" customWidth="1"/>
-    <col min="5127" max="5376" width="9.125" style="30"/>
-    <col min="5377" max="5377" width="1.625" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="13.375" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="30.25" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="19.625" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="32.125" style="30" customWidth="1"/>
+    <col min="5127" max="5376" width="9.140625" style="30"/>
+    <col min="5377" max="5377" width="1.5703125" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="30.28515625" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="19.5703125" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="32.140625" style="30" customWidth="1"/>
     <col min="5382" max="5382" width="35" style="30" customWidth="1"/>
-    <col min="5383" max="5632" width="9.125" style="30"/>
-    <col min="5633" max="5633" width="1.625" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="13.375" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="30.25" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="19.625" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="32.125" style="30" customWidth="1"/>
+    <col min="5383" max="5632" width="9.140625" style="30"/>
+    <col min="5633" max="5633" width="1.5703125" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="30.28515625" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="19.5703125" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="32.140625" style="30" customWidth="1"/>
     <col min="5638" max="5638" width="35" style="30" customWidth="1"/>
-    <col min="5639" max="5888" width="9.125" style="30"/>
-    <col min="5889" max="5889" width="1.625" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="13.375" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="30.25" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="19.625" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="32.125" style="30" customWidth="1"/>
+    <col min="5639" max="5888" width="9.140625" style="30"/>
+    <col min="5889" max="5889" width="1.5703125" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="30.28515625" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="19.5703125" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="32.140625" style="30" customWidth="1"/>
     <col min="5894" max="5894" width="35" style="30" customWidth="1"/>
-    <col min="5895" max="6144" width="9.125" style="30"/>
-    <col min="6145" max="6145" width="1.625" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="13.375" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="30.25" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="19.625" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="32.125" style="30" customWidth="1"/>
+    <col min="5895" max="6144" width="9.140625" style="30"/>
+    <col min="6145" max="6145" width="1.5703125" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="30.28515625" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="32.140625" style="30" customWidth="1"/>
     <col min="6150" max="6150" width="35" style="30" customWidth="1"/>
-    <col min="6151" max="6400" width="9.125" style="30"/>
-    <col min="6401" max="6401" width="1.625" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="13.375" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="30.25" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="19.625" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="32.125" style="30" customWidth="1"/>
+    <col min="6151" max="6400" width="9.140625" style="30"/>
+    <col min="6401" max="6401" width="1.5703125" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="30.28515625" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="32.140625" style="30" customWidth="1"/>
     <col min="6406" max="6406" width="35" style="30" customWidth="1"/>
-    <col min="6407" max="6656" width="9.125" style="30"/>
-    <col min="6657" max="6657" width="1.625" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="13.375" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="30.25" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="19.625" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="32.125" style="30" customWidth="1"/>
+    <col min="6407" max="6656" width="9.140625" style="30"/>
+    <col min="6657" max="6657" width="1.5703125" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="30.28515625" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="32.140625" style="30" customWidth="1"/>
     <col min="6662" max="6662" width="35" style="30" customWidth="1"/>
-    <col min="6663" max="6912" width="9.125" style="30"/>
-    <col min="6913" max="6913" width="1.625" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="13.375" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="30.25" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="19.625" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="32.125" style="30" customWidth="1"/>
+    <col min="6663" max="6912" width="9.140625" style="30"/>
+    <col min="6913" max="6913" width="1.5703125" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="30.28515625" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="19.5703125" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="32.140625" style="30" customWidth="1"/>
     <col min="6918" max="6918" width="35" style="30" customWidth="1"/>
-    <col min="6919" max="7168" width="9.125" style="30"/>
-    <col min="7169" max="7169" width="1.625" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="13.375" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="30.25" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="19.625" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="32.125" style="30" customWidth="1"/>
+    <col min="6919" max="7168" width="9.140625" style="30"/>
+    <col min="7169" max="7169" width="1.5703125" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="30.28515625" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="19.5703125" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="32.140625" style="30" customWidth="1"/>
     <col min="7174" max="7174" width="35" style="30" customWidth="1"/>
-    <col min="7175" max="7424" width="9.125" style="30"/>
-    <col min="7425" max="7425" width="1.625" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="13.375" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="30.25" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="19.625" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="32.125" style="30" customWidth="1"/>
+    <col min="7175" max="7424" width="9.140625" style="30"/>
+    <col min="7425" max="7425" width="1.5703125" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="30.28515625" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="19.5703125" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="32.140625" style="30" customWidth="1"/>
     <col min="7430" max="7430" width="35" style="30" customWidth="1"/>
-    <col min="7431" max="7680" width="9.125" style="30"/>
-    <col min="7681" max="7681" width="1.625" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="13.375" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="30.25" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="19.625" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="32.125" style="30" customWidth="1"/>
+    <col min="7431" max="7680" width="9.140625" style="30"/>
+    <col min="7681" max="7681" width="1.5703125" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="30.28515625" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="19.5703125" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="32.140625" style="30" customWidth="1"/>
     <col min="7686" max="7686" width="35" style="30" customWidth="1"/>
-    <col min="7687" max="7936" width="9.125" style="30"/>
-    <col min="7937" max="7937" width="1.625" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="13.375" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="30.25" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="19.625" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="32.125" style="30" customWidth="1"/>
+    <col min="7687" max="7936" width="9.140625" style="30"/>
+    <col min="7937" max="7937" width="1.5703125" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="30.28515625" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="19.5703125" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="32.140625" style="30" customWidth="1"/>
     <col min="7942" max="7942" width="35" style="30" customWidth="1"/>
-    <col min="7943" max="8192" width="9.125" style="30"/>
-    <col min="8193" max="8193" width="1.625" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="13.375" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="30.25" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="19.625" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="32.125" style="30" customWidth="1"/>
+    <col min="7943" max="8192" width="9.140625" style="30"/>
+    <col min="8193" max="8193" width="1.5703125" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="30.28515625" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="19.5703125" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="32.140625" style="30" customWidth="1"/>
     <col min="8198" max="8198" width="35" style="30" customWidth="1"/>
-    <col min="8199" max="8448" width="9.125" style="30"/>
-    <col min="8449" max="8449" width="1.625" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="13.375" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="30.25" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="19.625" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="32.125" style="30" customWidth="1"/>
+    <col min="8199" max="8448" width="9.140625" style="30"/>
+    <col min="8449" max="8449" width="1.5703125" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="30.28515625" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="19.5703125" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="32.140625" style="30" customWidth="1"/>
     <col min="8454" max="8454" width="35" style="30" customWidth="1"/>
-    <col min="8455" max="8704" width="9.125" style="30"/>
-    <col min="8705" max="8705" width="1.625" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="13.375" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="30.25" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="19.625" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="32.125" style="30" customWidth="1"/>
+    <col min="8455" max="8704" width="9.140625" style="30"/>
+    <col min="8705" max="8705" width="1.5703125" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="30.28515625" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="19.5703125" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="32.140625" style="30" customWidth="1"/>
     <col min="8710" max="8710" width="35" style="30" customWidth="1"/>
-    <col min="8711" max="8960" width="9.125" style="30"/>
-    <col min="8961" max="8961" width="1.625" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="13.375" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="30.25" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="19.625" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="32.125" style="30" customWidth="1"/>
+    <col min="8711" max="8960" width="9.140625" style="30"/>
+    <col min="8961" max="8961" width="1.5703125" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="30.28515625" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="19.5703125" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="32.140625" style="30" customWidth="1"/>
     <col min="8966" max="8966" width="35" style="30" customWidth="1"/>
-    <col min="8967" max="9216" width="9.125" style="30"/>
-    <col min="9217" max="9217" width="1.625" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="13.375" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="30.25" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="19.625" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="32.125" style="30" customWidth="1"/>
+    <col min="8967" max="9216" width="9.140625" style="30"/>
+    <col min="9217" max="9217" width="1.5703125" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="30.28515625" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="19.5703125" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="32.140625" style="30" customWidth="1"/>
     <col min="9222" max="9222" width="35" style="30" customWidth="1"/>
-    <col min="9223" max="9472" width="9.125" style="30"/>
-    <col min="9473" max="9473" width="1.625" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="13.375" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="30.25" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="19.625" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="32.125" style="30" customWidth="1"/>
+    <col min="9223" max="9472" width="9.140625" style="30"/>
+    <col min="9473" max="9473" width="1.5703125" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="30.28515625" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="19.5703125" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="32.140625" style="30" customWidth="1"/>
     <col min="9478" max="9478" width="35" style="30" customWidth="1"/>
-    <col min="9479" max="9728" width="9.125" style="30"/>
-    <col min="9729" max="9729" width="1.625" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="13.375" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="30.25" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="19.625" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="32.125" style="30" customWidth="1"/>
+    <col min="9479" max="9728" width="9.140625" style="30"/>
+    <col min="9729" max="9729" width="1.5703125" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="30.28515625" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="19.5703125" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="32.140625" style="30" customWidth="1"/>
     <col min="9734" max="9734" width="35" style="30" customWidth="1"/>
-    <col min="9735" max="9984" width="9.125" style="30"/>
-    <col min="9985" max="9985" width="1.625" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="13.375" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="30.25" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="19.625" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="32.125" style="30" customWidth="1"/>
+    <col min="9735" max="9984" width="9.140625" style="30"/>
+    <col min="9985" max="9985" width="1.5703125" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="30.28515625" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="19.5703125" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="32.140625" style="30" customWidth="1"/>
     <col min="9990" max="9990" width="35" style="30" customWidth="1"/>
-    <col min="9991" max="10240" width="9.125" style="30"/>
-    <col min="10241" max="10241" width="1.625" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="13.375" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="30.25" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="19.625" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="32.125" style="30" customWidth="1"/>
+    <col min="9991" max="10240" width="9.140625" style="30"/>
+    <col min="10241" max="10241" width="1.5703125" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="13.42578125" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="30.28515625" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="19.5703125" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="32.140625" style="30" customWidth="1"/>
     <col min="10246" max="10246" width="35" style="30" customWidth="1"/>
-    <col min="10247" max="10496" width="9.125" style="30"/>
-    <col min="10497" max="10497" width="1.625" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="13.375" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="30.25" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="19.625" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="32.125" style="30" customWidth="1"/>
+    <col min="10247" max="10496" width="9.140625" style="30"/>
+    <col min="10497" max="10497" width="1.5703125" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="13.42578125" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="30.28515625" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="19.5703125" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="32.140625" style="30" customWidth="1"/>
     <col min="10502" max="10502" width="35" style="30" customWidth="1"/>
-    <col min="10503" max="10752" width="9.125" style="30"/>
-    <col min="10753" max="10753" width="1.625" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="13.375" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="30.25" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="19.625" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="32.125" style="30" customWidth="1"/>
+    <col min="10503" max="10752" width="9.140625" style="30"/>
+    <col min="10753" max="10753" width="1.5703125" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="13.42578125" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="30.28515625" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="19.5703125" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="32.140625" style="30" customWidth="1"/>
     <col min="10758" max="10758" width="35" style="30" customWidth="1"/>
-    <col min="10759" max="11008" width="9.125" style="30"/>
-    <col min="11009" max="11009" width="1.625" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="13.375" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="30.25" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="19.625" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="32.125" style="30" customWidth="1"/>
+    <col min="10759" max="11008" width="9.140625" style="30"/>
+    <col min="11009" max="11009" width="1.5703125" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="30.28515625" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="19.5703125" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="32.140625" style="30" customWidth="1"/>
     <col min="11014" max="11014" width="35" style="30" customWidth="1"/>
-    <col min="11015" max="11264" width="9.125" style="30"/>
-    <col min="11265" max="11265" width="1.625" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="13.375" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="30.25" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="19.625" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="32.125" style="30" customWidth="1"/>
+    <col min="11015" max="11264" width="9.140625" style="30"/>
+    <col min="11265" max="11265" width="1.5703125" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="30.28515625" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="19.5703125" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="32.140625" style="30" customWidth="1"/>
     <col min="11270" max="11270" width="35" style="30" customWidth="1"/>
-    <col min="11271" max="11520" width="9.125" style="30"/>
-    <col min="11521" max="11521" width="1.625" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="13.375" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="30.25" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="19.625" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="32.125" style="30" customWidth="1"/>
+    <col min="11271" max="11520" width="9.140625" style="30"/>
+    <col min="11521" max="11521" width="1.5703125" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="30.28515625" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="19.5703125" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="32.140625" style="30" customWidth="1"/>
     <col min="11526" max="11526" width="35" style="30" customWidth="1"/>
-    <col min="11527" max="11776" width="9.125" style="30"/>
-    <col min="11777" max="11777" width="1.625" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="13.375" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="30.25" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="19.625" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="32.125" style="30" customWidth="1"/>
+    <col min="11527" max="11776" width="9.140625" style="30"/>
+    <col min="11777" max="11777" width="1.5703125" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="30.28515625" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="19.5703125" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="32.140625" style="30" customWidth="1"/>
     <col min="11782" max="11782" width="35" style="30" customWidth="1"/>
-    <col min="11783" max="12032" width="9.125" style="30"/>
-    <col min="12033" max="12033" width="1.625" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="13.375" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="30.25" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="19.625" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="32.125" style="30" customWidth="1"/>
+    <col min="11783" max="12032" width="9.140625" style="30"/>
+    <col min="12033" max="12033" width="1.5703125" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="30.28515625" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="19.5703125" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="32.140625" style="30" customWidth="1"/>
     <col min="12038" max="12038" width="35" style="30" customWidth="1"/>
-    <col min="12039" max="12288" width="9.125" style="30"/>
-    <col min="12289" max="12289" width="1.625" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="13.375" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="30.25" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="19.625" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="32.125" style="30" customWidth="1"/>
+    <col min="12039" max="12288" width="9.140625" style="30"/>
+    <col min="12289" max="12289" width="1.5703125" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="30.28515625" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="19.5703125" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="32.140625" style="30" customWidth="1"/>
     <col min="12294" max="12294" width="35" style="30" customWidth="1"/>
-    <col min="12295" max="12544" width="9.125" style="30"/>
-    <col min="12545" max="12545" width="1.625" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="13.375" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="30.25" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="19.625" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="32.125" style="30" customWidth="1"/>
+    <col min="12295" max="12544" width="9.140625" style="30"/>
+    <col min="12545" max="12545" width="1.5703125" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="30.28515625" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="19.5703125" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="32.140625" style="30" customWidth="1"/>
     <col min="12550" max="12550" width="35" style="30" customWidth="1"/>
-    <col min="12551" max="12800" width="9.125" style="30"/>
-    <col min="12801" max="12801" width="1.625" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="13.375" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="30.25" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="19.625" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="32.125" style="30" customWidth="1"/>
+    <col min="12551" max="12800" width="9.140625" style="30"/>
+    <col min="12801" max="12801" width="1.5703125" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="30.28515625" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="19.5703125" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="32.140625" style="30" customWidth="1"/>
     <col min="12806" max="12806" width="35" style="30" customWidth="1"/>
-    <col min="12807" max="13056" width="9.125" style="30"/>
-    <col min="13057" max="13057" width="1.625" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="13.375" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="30.25" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="19.625" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="32.125" style="30" customWidth="1"/>
+    <col min="12807" max="13056" width="9.140625" style="30"/>
+    <col min="13057" max="13057" width="1.5703125" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="30.28515625" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="19.5703125" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="32.140625" style="30" customWidth="1"/>
     <col min="13062" max="13062" width="35" style="30" customWidth="1"/>
-    <col min="13063" max="13312" width="9.125" style="30"/>
-    <col min="13313" max="13313" width="1.625" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="13.375" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="30.25" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="19.625" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="32.125" style="30" customWidth="1"/>
+    <col min="13063" max="13312" width="9.140625" style="30"/>
+    <col min="13313" max="13313" width="1.5703125" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="30.28515625" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="19.5703125" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="32.140625" style="30" customWidth="1"/>
     <col min="13318" max="13318" width="35" style="30" customWidth="1"/>
-    <col min="13319" max="13568" width="9.125" style="30"/>
-    <col min="13569" max="13569" width="1.625" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="13.375" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="30.25" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="19.625" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="32.125" style="30" customWidth="1"/>
+    <col min="13319" max="13568" width="9.140625" style="30"/>
+    <col min="13569" max="13569" width="1.5703125" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="30.28515625" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="19.5703125" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="32.140625" style="30" customWidth="1"/>
     <col min="13574" max="13574" width="35" style="30" customWidth="1"/>
-    <col min="13575" max="13824" width="9.125" style="30"/>
-    <col min="13825" max="13825" width="1.625" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="13.375" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="30.25" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="19.625" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="32.125" style="30" customWidth="1"/>
+    <col min="13575" max="13824" width="9.140625" style="30"/>
+    <col min="13825" max="13825" width="1.5703125" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="30.28515625" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="19.5703125" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="32.140625" style="30" customWidth="1"/>
     <col min="13830" max="13830" width="35" style="30" customWidth="1"/>
-    <col min="13831" max="14080" width="9.125" style="30"/>
-    <col min="14081" max="14081" width="1.625" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="13.375" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="30.25" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="19.625" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="32.125" style="30" customWidth="1"/>
+    <col min="13831" max="14080" width="9.140625" style="30"/>
+    <col min="14081" max="14081" width="1.5703125" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="30.28515625" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="19.5703125" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="32.140625" style="30" customWidth="1"/>
     <col min="14086" max="14086" width="35" style="30" customWidth="1"/>
-    <col min="14087" max="14336" width="9.125" style="30"/>
-    <col min="14337" max="14337" width="1.625" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="13.375" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="30.25" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="19.625" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="32.125" style="30" customWidth="1"/>
+    <col min="14087" max="14336" width="9.140625" style="30"/>
+    <col min="14337" max="14337" width="1.5703125" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="30.28515625" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="19.5703125" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="32.140625" style="30" customWidth="1"/>
     <col min="14342" max="14342" width="35" style="30" customWidth="1"/>
-    <col min="14343" max="14592" width="9.125" style="30"/>
-    <col min="14593" max="14593" width="1.625" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="13.375" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="30.25" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="19.625" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="32.125" style="30" customWidth="1"/>
+    <col min="14343" max="14592" width="9.140625" style="30"/>
+    <col min="14593" max="14593" width="1.5703125" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="30.28515625" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="19.5703125" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="32.140625" style="30" customWidth="1"/>
     <col min="14598" max="14598" width="35" style="30" customWidth="1"/>
-    <col min="14599" max="14848" width="9.125" style="30"/>
-    <col min="14849" max="14849" width="1.625" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="13.375" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="30.25" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="19.625" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="32.125" style="30" customWidth="1"/>
+    <col min="14599" max="14848" width="9.140625" style="30"/>
+    <col min="14849" max="14849" width="1.5703125" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="30.28515625" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="19.5703125" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="32.140625" style="30" customWidth="1"/>
     <col min="14854" max="14854" width="35" style="30" customWidth="1"/>
-    <col min="14855" max="15104" width="9.125" style="30"/>
-    <col min="15105" max="15105" width="1.625" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="13.375" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="30.25" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="19.625" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="32.125" style="30" customWidth="1"/>
+    <col min="14855" max="15104" width="9.140625" style="30"/>
+    <col min="15105" max="15105" width="1.5703125" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="30.28515625" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="19.5703125" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="32.140625" style="30" customWidth="1"/>
     <col min="15110" max="15110" width="35" style="30" customWidth="1"/>
-    <col min="15111" max="15360" width="9.125" style="30"/>
-    <col min="15361" max="15361" width="1.625" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="13.375" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="30.25" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="19.625" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="32.125" style="30" customWidth="1"/>
+    <col min="15111" max="15360" width="9.140625" style="30"/>
+    <col min="15361" max="15361" width="1.5703125" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="30.28515625" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="19.5703125" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="32.140625" style="30" customWidth="1"/>
     <col min="15366" max="15366" width="35" style="30" customWidth="1"/>
-    <col min="15367" max="15616" width="9.125" style="30"/>
-    <col min="15617" max="15617" width="1.625" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="13.375" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="30.25" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="19.625" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="32.125" style="30" customWidth="1"/>
+    <col min="15367" max="15616" width="9.140625" style="30"/>
+    <col min="15617" max="15617" width="1.5703125" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="30.28515625" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="19.5703125" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="32.140625" style="30" customWidth="1"/>
     <col min="15622" max="15622" width="35" style="30" customWidth="1"/>
-    <col min="15623" max="15872" width="9.125" style="30"/>
-    <col min="15873" max="15873" width="1.625" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="13.375" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="30.25" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="19.625" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="32.125" style="30" customWidth="1"/>
+    <col min="15623" max="15872" width="9.140625" style="30"/>
+    <col min="15873" max="15873" width="1.5703125" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="30.28515625" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="19.5703125" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="32.140625" style="30" customWidth="1"/>
     <col min="15878" max="15878" width="35" style="30" customWidth="1"/>
-    <col min="15879" max="16128" width="9.125" style="30"/>
-    <col min="16129" max="16129" width="1.625" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="13.375" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="30.25" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="19.625" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="32.125" style="30" customWidth="1"/>
+    <col min="15879" max="16128" width="9.140625" style="30"/>
+    <col min="16129" max="16129" width="1.5703125" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="13.42578125" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="30.28515625" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="19.5703125" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="32.140625" style="30" customWidth="1"/>
     <col min="16134" max="16134" width="35" style="30" customWidth="1"/>
-    <col min="16135" max="16384" width="9.125" style="30"/>
+    <col min="16135" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5">
+    <row r="1" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B1" s="36"/>
       <c r="D1" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1">
+    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="36"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="143" t="s">
         <v>16</v>
       </c>
@@ -4096,7 +4098,7 @@
       <c r="E3" s="144"/>
       <c r="F3" s="144"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="143" t="s">
         <v>13</v>
       </c>
@@ -4108,7 +4110,7 @@
       <c r="E4" s="144"/>
       <c r="F4" s="144"/>
     </row>
-    <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1">
+    <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="145" t="s">
         <v>19</v>
       </c>
@@ -4119,21 +4121,21 @@
       <c r="E5" s="146"/>
       <c r="F5" s="146"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="2:6" s="46" customFormat="1">
+    <row r="7" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:6" s="51" customFormat="1" ht="21" customHeight="1">
+    <row r="8" spans="2:6" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="52">
         <v>1</v>
       </c>
@@ -4163,7 +4165,7 @@
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="52">
         <v>2</v>
       </c>
@@ -4176,7 +4178,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="52">
         <v>3</v>
       </c>
@@ -4189,7 +4191,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="52">
         <v>4</v>
       </c>
@@ -4202,7 +4204,7 @@
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="52">
         <v>5</v>
       </c>
@@ -4215,56 +4217,56 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="52"/>
       <c r="C14" s="53"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="52"/>
       <c r="C16" s="53"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="55"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="52"/>
       <c r="C17" s="53"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="55"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="52"/>
       <c r="C18" s="53"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="52"/>
       <c r="C19" s="53"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="55"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="52"/>
       <c r="C20" s="53"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="57"/>
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
@@ -4304,715 +4306,715 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="30" customWidth="1"/>
-    <col min="4" max="4" width="32.625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="102"/>
-    <col min="8" max="8" width="20.125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="101" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="102"/>
+    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="101" customWidth="1"/>
     <col min="10" max="10" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="256" width="9.125" style="30"/>
-    <col min="257" max="257" width="13.375" style="30" customWidth="1"/>
-    <col min="258" max="258" width="21.875" style="30" customWidth="1"/>
-    <col min="259" max="259" width="29.25" style="30" customWidth="1"/>
-    <col min="260" max="260" width="32.625" style="30" customWidth="1"/>
-    <col min="261" max="261" width="19.25" style="30" customWidth="1"/>
-    <col min="262" max="262" width="8.125" style="30" customWidth="1"/>
-    <col min="263" max="263" width="9.125" style="30"/>
-    <col min="264" max="264" width="20.125" style="30" customWidth="1"/>
-    <col min="265" max="265" width="9.375" style="30" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="30"/>
+    <col min="257" max="257" width="13.42578125" style="30" customWidth="1"/>
+    <col min="258" max="258" width="21.85546875" style="30" customWidth="1"/>
+    <col min="259" max="259" width="29.28515625" style="30" customWidth="1"/>
+    <col min="260" max="260" width="32.5703125" style="30" customWidth="1"/>
+    <col min="261" max="261" width="19.28515625" style="30" customWidth="1"/>
+    <col min="262" max="262" width="8.140625" style="30" customWidth="1"/>
+    <col min="263" max="263" width="9.140625" style="30"/>
+    <col min="264" max="264" width="20.140625" style="30" customWidth="1"/>
+    <col min="265" max="265" width="9.42578125" style="30" customWidth="1"/>
     <col min="266" max="266" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="267" max="512" width="9.125" style="30"/>
-    <col min="513" max="513" width="13.375" style="30" customWidth="1"/>
-    <col min="514" max="514" width="21.875" style="30" customWidth="1"/>
-    <col min="515" max="515" width="29.25" style="30" customWidth="1"/>
-    <col min="516" max="516" width="32.625" style="30" customWidth="1"/>
-    <col min="517" max="517" width="19.25" style="30" customWidth="1"/>
-    <col min="518" max="518" width="8.125" style="30" customWidth="1"/>
-    <col min="519" max="519" width="9.125" style="30"/>
-    <col min="520" max="520" width="20.125" style="30" customWidth="1"/>
-    <col min="521" max="521" width="9.375" style="30" customWidth="1"/>
+    <col min="267" max="512" width="9.140625" style="30"/>
+    <col min="513" max="513" width="13.42578125" style="30" customWidth="1"/>
+    <col min="514" max="514" width="21.85546875" style="30" customWidth="1"/>
+    <col min="515" max="515" width="29.28515625" style="30" customWidth="1"/>
+    <col min="516" max="516" width="32.5703125" style="30" customWidth="1"/>
+    <col min="517" max="517" width="19.28515625" style="30" customWidth="1"/>
+    <col min="518" max="518" width="8.140625" style="30" customWidth="1"/>
+    <col min="519" max="519" width="9.140625" style="30"/>
+    <col min="520" max="520" width="20.140625" style="30" customWidth="1"/>
+    <col min="521" max="521" width="9.42578125" style="30" customWidth="1"/>
     <col min="522" max="522" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="523" max="768" width="9.125" style="30"/>
-    <col min="769" max="769" width="13.375" style="30" customWidth="1"/>
-    <col min="770" max="770" width="21.875" style="30" customWidth="1"/>
-    <col min="771" max="771" width="29.25" style="30" customWidth="1"/>
-    <col min="772" max="772" width="32.625" style="30" customWidth="1"/>
-    <col min="773" max="773" width="19.25" style="30" customWidth="1"/>
-    <col min="774" max="774" width="8.125" style="30" customWidth="1"/>
-    <col min="775" max="775" width="9.125" style="30"/>
-    <col min="776" max="776" width="20.125" style="30" customWidth="1"/>
-    <col min="777" max="777" width="9.375" style="30" customWidth="1"/>
+    <col min="523" max="768" width="9.140625" style="30"/>
+    <col min="769" max="769" width="13.42578125" style="30" customWidth="1"/>
+    <col min="770" max="770" width="21.85546875" style="30" customWidth="1"/>
+    <col min="771" max="771" width="29.28515625" style="30" customWidth="1"/>
+    <col min="772" max="772" width="32.5703125" style="30" customWidth="1"/>
+    <col min="773" max="773" width="19.28515625" style="30" customWidth="1"/>
+    <col min="774" max="774" width="8.140625" style="30" customWidth="1"/>
+    <col min="775" max="775" width="9.140625" style="30"/>
+    <col min="776" max="776" width="20.140625" style="30" customWidth="1"/>
+    <col min="777" max="777" width="9.42578125" style="30" customWidth="1"/>
     <col min="778" max="778" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.125" style="30"/>
-    <col min="1025" max="1025" width="13.375" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="21.875" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="29.25" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="32.625" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="19.25" style="30" customWidth="1"/>
-    <col min="1030" max="1030" width="8.125" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="9.125" style="30"/>
-    <col min="1032" max="1032" width="20.125" style="30" customWidth="1"/>
-    <col min="1033" max="1033" width="9.375" style="30" customWidth="1"/>
+    <col min="779" max="1024" width="9.140625" style="30"/>
+    <col min="1025" max="1025" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="32.5703125" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1030" max="1030" width="8.140625" style="30" customWidth="1"/>
+    <col min="1031" max="1031" width="9.140625" style="30"/>
+    <col min="1032" max="1032" width="20.140625" style="30" customWidth="1"/>
+    <col min="1033" max="1033" width="9.42578125" style="30" customWidth="1"/>
     <col min="1034" max="1034" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.125" style="30"/>
-    <col min="1281" max="1281" width="13.375" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="21.875" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="29.25" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="32.625" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="19.25" style="30" customWidth="1"/>
-    <col min="1286" max="1286" width="8.125" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="9.125" style="30"/>
-    <col min="1288" max="1288" width="20.125" style="30" customWidth="1"/>
-    <col min="1289" max="1289" width="9.375" style="30" customWidth="1"/>
+    <col min="1035" max="1280" width="9.140625" style="30"/>
+    <col min="1281" max="1281" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="32.5703125" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1286" max="1286" width="8.140625" style="30" customWidth="1"/>
+    <col min="1287" max="1287" width="9.140625" style="30"/>
+    <col min="1288" max="1288" width="20.140625" style="30" customWidth="1"/>
+    <col min="1289" max="1289" width="9.42578125" style="30" customWidth="1"/>
     <col min="1290" max="1290" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.125" style="30"/>
-    <col min="1537" max="1537" width="13.375" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="21.875" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="29.25" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="32.625" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="19.25" style="30" customWidth="1"/>
-    <col min="1542" max="1542" width="8.125" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="9.125" style="30"/>
-    <col min="1544" max="1544" width="20.125" style="30" customWidth="1"/>
-    <col min="1545" max="1545" width="9.375" style="30" customWidth="1"/>
+    <col min="1291" max="1536" width="9.140625" style="30"/>
+    <col min="1537" max="1537" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="32.5703125" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1542" max="1542" width="8.140625" style="30" customWidth="1"/>
+    <col min="1543" max="1543" width="9.140625" style="30"/>
+    <col min="1544" max="1544" width="20.140625" style="30" customWidth="1"/>
+    <col min="1545" max="1545" width="9.42578125" style="30" customWidth="1"/>
     <col min="1546" max="1546" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.125" style="30"/>
-    <col min="1793" max="1793" width="13.375" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="21.875" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="29.25" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="32.625" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="19.25" style="30" customWidth="1"/>
-    <col min="1798" max="1798" width="8.125" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="9.125" style="30"/>
-    <col min="1800" max="1800" width="20.125" style="30" customWidth="1"/>
-    <col min="1801" max="1801" width="9.375" style="30" customWidth="1"/>
+    <col min="1547" max="1792" width="9.140625" style="30"/>
+    <col min="1793" max="1793" width="13.42578125" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="32.5703125" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1798" max="1798" width="8.140625" style="30" customWidth="1"/>
+    <col min="1799" max="1799" width="9.140625" style="30"/>
+    <col min="1800" max="1800" width="20.140625" style="30" customWidth="1"/>
+    <col min="1801" max="1801" width="9.42578125" style="30" customWidth="1"/>
     <col min="1802" max="1802" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.125" style="30"/>
-    <col min="2049" max="2049" width="13.375" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="21.875" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="29.25" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="32.625" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="19.25" style="30" customWidth="1"/>
-    <col min="2054" max="2054" width="8.125" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="9.125" style="30"/>
-    <col min="2056" max="2056" width="20.125" style="30" customWidth="1"/>
-    <col min="2057" max="2057" width="9.375" style="30" customWidth="1"/>
+    <col min="1803" max="2048" width="9.140625" style="30"/>
+    <col min="2049" max="2049" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="32.5703125" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2054" max="2054" width="8.140625" style="30" customWidth="1"/>
+    <col min="2055" max="2055" width="9.140625" style="30"/>
+    <col min="2056" max="2056" width="20.140625" style="30" customWidth="1"/>
+    <col min="2057" max="2057" width="9.42578125" style="30" customWidth="1"/>
     <col min="2058" max="2058" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.125" style="30"/>
-    <col min="2305" max="2305" width="13.375" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="21.875" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="29.25" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="32.625" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="19.25" style="30" customWidth="1"/>
-    <col min="2310" max="2310" width="8.125" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="9.125" style="30"/>
-    <col min="2312" max="2312" width="20.125" style="30" customWidth="1"/>
-    <col min="2313" max="2313" width="9.375" style="30" customWidth="1"/>
+    <col min="2059" max="2304" width="9.140625" style="30"/>
+    <col min="2305" max="2305" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="32.5703125" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2310" max="2310" width="8.140625" style="30" customWidth="1"/>
+    <col min="2311" max="2311" width="9.140625" style="30"/>
+    <col min="2312" max="2312" width="20.140625" style="30" customWidth="1"/>
+    <col min="2313" max="2313" width="9.42578125" style="30" customWidth="1"/>
     <col min="2314" max="2314" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.125" style="30"/>
-    <col min="2561" max="2561" width="13.375" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="21.875" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="29.25" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="32.625" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="19.25" style="30" customWidth="1"/>
-    <col min="2566" max="2566" width="8.125" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="9.125" style="30"/>
-    <col min="2568" max="2568" width="20.125" style="30" customWidth="1"/>
-    <col min="2569" max="2569" width="9.375" style="30" customWidth="1"/>
+    <col min="2315" max="2560" width="9.140625" style="30"/>
+    <col min="2561" max="2561" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="32.5703125" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2566" max="2566" width="8.140625" style="30" customWidth="1"/>
+    <col min="2567" max="2567" width="9.140625" style="30"/>
+    <col min="2568" max="2568" width="20.140625" style="30" customWidth="1"/>
+    <col min="2569" max="2569" width="9.42578125" style="30" customWidth="1"/>
     <col min="2570" max="2570" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.125" style="30"/>
-    <col min="2817" max="2817" width="13.375" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="21.875" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="29.25" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="32.625" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="19.25" style="30" customWidth="1"/>
-    <col min="2822" max="2822" width="8.125" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="9.125" style="30"/>
-    <col min="2824" max="2824" width="20.125" style="30" customWidth="1"/>
-    <col min="2825" max="2825" width="9.375" style="30" customWidth="1"/>
+    <col min="2571" max="2816" width="9.140625" style="30"/>
+    <col min="2817" max="2817" width="13.42578125" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="32.5703125" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2822" max="2822" width="8.140625" style="30" customWidth="1"/>
+    <col min="2823" max="2823" width="9.140625" style="30"/>
+    <col min="2824" max="2824" width="20.140625" style="30" customWidth="1"/>
+    <col min="2825" max="2825" width="9.42578125" style="30" customWidth="1"/>
     <col min="2826" max="2826" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.125" style="30"/>
-    <col min="3073" max="3073" width="13.375" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="21.875" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="29.25" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="32.625" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="19.25" style="30" customWidth="1"/>
-    <col min="3078" max="3078" width="8.125" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="9.125" style="30"/>
-    <col min="3080" max="3080" width="20.125" style="30" customWidth="1"/>
-    <col min="3081" max="3081" width="9.375" style="30" customWidth="1"/>
+    <col min="2827" max="3072" width="9.140625" style="30"/>
+    <col min="3073" max="3073" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="32.5703125" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3078" max="3078" width="8.140625" style="30" customWidth="1"/>
+    <col min="3079" max="3079" width="9.140625" style="30"/>
+    <col min="3080" max="3080" width="20.140625" style="30" customWidth="1"/>
+    <col min="3081" max="3081" width="9.42578125" style="30" customWidth="1"/>
     <col min="3082" max="3082" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.125" style="30"/>
-    <col min="3329" max="3329" width="13.375" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="21.875" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="29.25" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="32.625" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="19.25" style="30" customWidth="1"/>
-    <col min="3334" max="3334" width="8.125" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="9.125" style="30"/>
-    <col min="3336" max="3336" width="20.125" style="30" customWidth="1"/>
-    <col min="3337" max="3337" width="9.375" style="30" customWidth="1"/>
+    <col min="3083" max="3328" width="9.140625" style="30"/>
+    <col min="3329" max="3329" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="32.5703125" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3334" max="3334" width="8.140625" style="30" customWidth="1"/>
+    <col min="3335" max="3335" width="9.140625" style="30"/>
+    <col min="3336" max="3336" width="20.140625" style="30" customWidth="1"/>
+    <col min="3337" max="3337" width="9.42578125" style="30" customWidth="1"/>
     <col min="3338" max="3338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.125" style="30"/>
-    <col min="3585" max="3585" width="13.375" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="21.875" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="29.25" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="32.625" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="19.25" style="30" customWidth="1"/>
-    <col min="3590" max="3590" width="8.125" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="9.125" style="30"/>
-    <col min="3592" max="3592" width="20.125" style="30" customWidth="1"/>
-    <col min="3593" max="3593" width="9.375" style="30" customWidth="1"/>
+    <col min="3339" max="3584" width="9.140625" style="30"/>
+    <col min="3585" max="3585" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="32.5703125" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3590" max="3590" width="8.140625" style="30" customWidth="1"/>
+    <col min="3591" max="3591" width="9.140625" style="30"/>
+    <col min="3592" max="3592" width="20.140625" style="30" customWidth="1"/>
+    <col min="3593" max="3593" width="9.42578125" style="30" customWidth="1"/>
     <col min="3594" max="3594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.125" style="30"/>
-    <col min="3841" max="3841" width="13.375" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="21.875" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="29.25" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="32.625" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="19.25" style="30" customWidth="1"/>
-    <col min="3846" max="3846" width="8.125" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="9.125" style="30"/>
-    <col min="3848" max="3848" width="20.125" style="30" customWidth="1"/>
-    <col min="3849" max="3849" width="9.375" style="30" customWidth="1"/>
+    <col min="3595" max="3840" width="9.140625" style="30"/>
+    <col min="3841" max="3841" width="13.42578125" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="32.5703125" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3846" max="3846" width="8.140625" style="30" customWidth="1"/>
+    <col min="3847" max="3847" width="9.140625" style="30"/>
+    <col min="3848" max="3848" width="20.140625" style="30" customWidth="1"/>
+    <col min="3849" max="3849" width="9.42578125" style="30" customWidth="1"/>
     <col min="3850" max="3850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.125" style="30"/>
-    <col min="4097" max="4097" width="13.375" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="21.875" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="29.25" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="32.625" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="19.25" style="30" customWidth="1"/>
-    <col min="4102" max="4102" width="8.125" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="9.125" style="30"/>
-    <col min="4104" max="4104" width="20.125" style="30" customWidth="1"/>
-    <col min="4105" max="4105" width="9.375" style="30" customWidth="1"/>
+    <col min="3851" max="4096" width="9.140625" style="30"/>
+    <col min="4097" max="4097" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="32.5703125" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4102" max="4102" width="8.140625" style="30" customWidth="1"/>
+    <col min="4103" max="4103" width="9.140625" style="30"/>
+    <col min="4104" max="4104" width="20.140625" style="30" customWidth="1"/>
+    <col min="4105" max="4105" width="9.42578125" style="30" customWidth="1"/>
     <col min="4106" max="4106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.125" style="30"/>
-    <col min="4353" max="4353" width="13.375" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="21.875" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="29.25" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="32.625" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="19.25" style="30" customWidth="1"/>
-    <col min="4358" max="4358" width="8.125" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="9.125" style="30"/>
-    <col min="4360" max="4360" width="20.125" style="30" customWidth="1"/>
-    <col min="4361" max="4361" width="9.375" style="30" customWidth="1"/>
+    <col min="4107" max="4352" width="9.140625" style="30"/>
+    <col min="4353" max="4353" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="32.5703125" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4358" max="4358" width="8.140625" style="30" customWidth="1"/>
+    <col min="4359" max="4359" width="9.140625" style="30"/>
+    <col min="4360" max="4360" width="20.140625" style="30" customWidth="1"/>
+    <col min="4361" max="4361" width="9.42578125" style="30" customWidth="1"/>
     <col min="4362" max="4362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.125" style="30"/>
-    <col min="4609" max="4609" width="13.375" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="21.875" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="29.25" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="32.625" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="19.25" style="30" customWidth="1"/>
-    <col min="4614" max="4614" width="8.125" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="9.125" style="30"/>
-    <col min="4616" max="4616" width="20.125" style="30" customWidth="1"/>
-    <col min="4617" max="4617" width="9.375" style="30" customWidth="1"/>
+    <col min="4363" max="4608" width="9.140625" style="30"/>
+    <col min="4609" max="4609" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="32.5703125" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4614" max="4614" width="8.140625" style="30" customWidth="1"/>
+    <col min="4615" max="4615" width="9.140625" style="30"/>
+    <col min="4616" max="4616" width="20.140625" style="30" customWidth="1"/>
+    <col min="4617" max="4617" width="9.42578125" style="30" customWidth="1"/>
     <col min="4618" max="4618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.125" style="30"/>
-    <col min="4865" max="4865" width="13.375" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="21.875" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="29.25" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="32.625" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="19.25" style="30" customWidth="1"/>
-    <col min="4870" max="4870" width="8.125" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="9.125" style="30"/>
-    <col min="4872" max="4872" width="20.125" style="30" customWidth="1"/>
-    <col min="4873" max="4873" width="9.375" style="30" customWidth="1"/>
+    <col min="4619" max="4864" width="9.140625" style="30"/>
+    <col min="4865" max="4865" width="13.42578125" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="32.5703125" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4870" max="4870" width="8.140625" style="30" customWidth="1"/>
+    <col min="4871" max="4871" width="9.140625" style="30"/>
+    <col min="4872" max="4872" width="20.140625" style="30" customWidth="1"/>
+    <col min="4873" max="4873" width="9.42578125" style="30" customWidth="1"/>
     <col min="4874" max="4874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.125" style="30"/>
-    <col min="5121" max="5121" width="13.375" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="21.875" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="29.25" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="32.625" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="19.25" style="30" customWidth="1"/>
-    <col min="5126" max="5126" width="8.125" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="9.125" style="30"/>
-    <col min="5128" max="5128" width="20.125" style="30" customWidth="1"/>
-    <col min="5129" max="5129" width="9.375" style="30" customWidth="1"/>
+    <col min="4875" max="5120" width="9.140625" style="30"/>
+    <col min="5121" max="5121" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="32.5703125" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5126" max="5126" width="8.140625" style="30" customWidth="1"/>
+    <col min="5127" max="5127" width="9.140625" style="30"/>
+    <col min="5128" max="5128" width="20.140625" style="30" customWidth="1"/>
+    <col min="5129" max="5129" width="9.42578125" style="30" customWidth="1"/>
     <col min="5130" max="5130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.125" style="30"/>
-    <col min="5377" max="5377" width="13.375" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="21.875" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="29.25" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="32.625" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="19.25" style="30" customWidth="1"/>
-    <col min="5382" max="5382" width="8.125" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="9.125" style="30"/>
-    <col min="5384" max="5384" width="20.125" style="30" customWidth="1"/>
-    <col min="5385" max="5385" width="9.375" style="30" customWidth="1"/>
+    <col min="5131" max="5376" width="9.140625" style="30"/>
+    <col min="5377" max="5377" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="32.5703125" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5382" max="5382" width="8.140625" style="30" customWidth="1"/>
+    <col min="5383" max="5383" width="9.140625" style="30"/>
+    <col min="5384" max="5384" width="20.140625" style="30" customWidth="1"/>
+    <col min="5385" max="5385" width="9.42578125" style="30" customWidth="1"/>
     <col min="5386" max="5386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.125" style="30"/>
-    <col min="5633" max="5633" width="13.375" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="21.875" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="29.25" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="32.625" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="19.25" style="30" customWidth="1"/>
-    <col min="5638" max="5638" width="8.125" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="9.125" style="30"/>
-    <col min="5640" max="5640" width="20.125" style="30" customWidth="1"/>
-    <col min="5641" max="5641" width="9.375" style="30" customWidth="1"/>
+    <col min="5387" max="5632" width="9.140625" style="30"/>
+    <col min="5633" max="5633" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="32.5703125" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5638" max="5638" width="8.140625" style="30" customWidth="1"/>
+    <col min="5639" max="5639" width="9.140625" style="30"/>
+    <col min="5640" max="5640" width="20.140625" style="30" customWidth="1"/>
+    <col min="5641" max="5641" width="9.42578125" style="30" customWidth="1"/>
     <col min="5642" max="5642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.125" style="30"/>
-    <col min="5889" max="5889" width="13.375" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="21.875" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="29.25" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="32.625" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="19.25" style="30" customWidth="1"/>
-    <col min="5894" max="5894" width="8.125" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="9.125" style="30"/>
-    <col min="5896" max="5896" width="20.125" style="30" customWidth="1"/>
-    <col min="5897" max="5897" width="9.375" style="30" customWidth="1"/>
+    <col min="5643" max="5888" width="9.140625" style="30"/>
+    <col min="5889" max="5889" width="13.42578125" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="32.5703125" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5894" max="5894" width="8.140625" style="30" customWidth="1"/>
+    <col min="5895" max="5895" width="9.140625" style="30"/>
+    <col min="5896" max="5896" width="20.140625" style="30" customWidth="1"/>
+    <col min="5897" max="5897" width="9.42578125" style="30" customWidth="1"/>
     <col min="5898" max="5898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.125" style="30"/>
-    <col min="6145" max="6145" width="13.375" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="21.875" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="29.25" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="32.625" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="19.25" style="30" customWidth="1"/>
-    <col min="6150" max="6150" width="8.125" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="9.125" style="30"/>
-    <col min="6152" max="6152" width="20.125" style="30" customWidth="1"/>
-    <col min="6153" max="6153" width="9.375" style="30" customWidth="1"/>
+    <col min="5899" max="6144" width="9.140625" style="30"/>
+    <col min="6145" max="6145" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="32.5703125" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6150" max="6150" width="8.140625" style="30" customWidth="1"/>
+    <col min="6151" max="6151" width="9.140625" style="30"/>
+    <col min="6152" max="6152" width="20.140625" style="30" customWidth="1"/>
+    <col min="6153" max="6153" width="9.42578125" style="30" customWidth="1"/>
     <col min="6154" max="6154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.125" style="30"/>
-    <col min="6401" max="6401" width="13.375" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="21.875" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="29.25" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="32.625" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="19.25" style="30" customWidth="1"/>
-    <col min="6406" max="6406" width="8.125" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="9.125" style="30"/>
-    <col min="6408" max="6408" width="20.125" style="30" customWidth="1"/>
-    <col min="6409" max="6409" width="9.375" style="30" customWidth="1"/>
+    <col min="6155" max="6400" width="9.140625" style="30"/>
+    <col min="6401" max="6401" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="32.5703125" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6406" max="6406" width="8.140625" style="30" customWidth="1"/>
+    <col min="6407" max="6407" width="9.140625" style="30"/>
+    <col min="6408" max="6408" width="20.140625" style="30" customWidth="1"/>
+    <col min="6409" max="6409" width="9.42578125" style="30" customWidth="1"/>
     <col min="6410" max="6410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.125" style="30"/>
-    <col min="6657" max="6657" width="13.375" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="21.875" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="29.25" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="32.625" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="19.25" style="30" customWidth="1"/>
-    <col min="6662" max="6662" width="8.125" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="9.125" style="30"/>
-    <col min="6664" max="6664" width="20.125" style="30" customWidth="1"/>
-    <col min="6665" max="6665" width="9.375" style="30" customWidth="1"/>
+    <col min="6411" max="6656" width="9.140625" style="30"/>
+    <col min="6657" max="6657" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="32.5703125" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6662" max="6662" width="8.140625" style="30" customWidth="1"/>
+    <col min="6663" max="6663" width="9.140625" style="30"/>
+    <col min="6664" max="6664" width="20.140625" style="30" customWidth="1"/>
+    <col min="6665" max="6665" width="9.42578125" style="30" customWidth="1"/>
     <col min="6666" max="6666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.125" style="30"/>
-    <col min="6913" max="6913" width="13.375" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="21.875" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="29.25" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="32.625" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="19.25" style="30" customWidth="1"/>
-    <col min="6918" max="6918" width="8.125" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="9.125" style="30"/>
-    <col min="6920" max="6920" width="20.125" style="30" customWidth="1"/>
-    <col min="6921" max="6921" width="9.375" style="30" customWidth="1"/>
+    <col min="6667" max="6912" width="9.140625" style="30"/>
+    <col min="6913" max="6913" width="13.42578125" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="32.5703125" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6918" max="6918" width="8.140625" style="30" customWidth="1"/>
+    <col min="6919" max="6919" width="9.140625" style="30"/>
+    <col min="6920" max="6920" width="20.140625" style="30" customWidth="1"/>
+    <col min="6921" max="6921" width="9.42578125" style="30" customWidth="1"/>
     <col min="6922" max="6922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.125" style="30"/>
-    <col min="7169" max="7169" width="13.375" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="21.875" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="29.25" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="32.625" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="19.25" style="30" customWidth="1"/>
-    <col min="7174" max="7174" width="8.125" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="9.125" style="30"/>
-    <col min="7176" max="7176" width="20.125" style="30" customWidth="1"/>
-    <col min="7177" max="7177" width="9.375" style="30" customWidth="1"/>
+    <col min="6923" max="7168" width="9.140625" style="30"/>
+    <col min="7169" max="7169" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="32.5703125" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7174" max="7174" width="8.140625" style="30" customWidth="1"/>
+    <col min="7175" max="7175" width="9.140625" style="30"/>
+    <col min="7176" max="7176" width="20.140625" style="30" customWidth="1"/>
+    <col min="7177" max="7177" width="9.42578125" style="30" customWidth="1"/>
     <col min="7178" max="7178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.125" style="30"/>
-    <col min="7425" max="7425" width="13.375" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="21.875" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="29.25" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="32.625" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="19.25" style="30" customWidth="1"/>
-    <col min="7430" max="7430" width="8.125" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="9.125" style="30"/>
-    <col min="7432" max="7432" width="20.125" style="30" customWidth="1"/>
-    <col min="7433" max="7433" width="9.375" style="30" customWidth="1"/>
+    <col min="7179" max="7424" width="9.140625" style="30"/>
+    <col min="7425" max="7425" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="32.5703125" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7430" max="7430" width="8.140625" style="30" customWidth="1"/>
+    <col min="7431" max="7431" width="9.140625" style="30"/>
+    <col min="7432" max="7432" width="20.140625" style="30" customWidth="1"/>
+    <col min="7433" max="7433" width="9.42578125" style="30" customWidth="1"/>
     <col min="7434" max="7434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.125" style="30"/>
-    <col min="7681" max="7681" width="13.375" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="21.875" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="29.25" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="32.625" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="19.25" style="30" customWidth="1"/>
-    <col min="7686" max="7686" width="8.125" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="9.125" style="30"/>
-    <col min="7688" max="7688" width="20.125" style="30" customWidth="1"/>
-    <col min="7689" max="7689" width="9.375" style="30" customWidth="1"/>
+    <col min="7435" max="7680" width="9.140625" style="30"/>
+    <col min="7681" max="7681" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="32.5703125" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7686" max="7686" width="8.140625" style="30" customWidth="1"/>
+    <col min="7687" max="7687" width="9.140625" style="30"/>
+    <col min="7688" max="7688" width="20.140625" style="30" customWidth="1"/>
+    <col min="7689" max="7689" width="9.42578125" style="30" customWidth="1"/>
     <col min="7690" max="7690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.125" style="30"/>
-    <col min="7937" max="7937" width="13.375" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="21.875" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="29.25" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="32.625" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="19.25" style="30" customWidth="1"/>
-    <col min="7942" max="7942" width="8.125" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="9.125" style="30"/>
-    <col min="7944" max="7944" width="20.125" style="30" customWidth="1"/>
-    <col min="7945" max="7945" width="9.375" style="30" customWidth="1"/>
+    <col min="7691" max="7936" width="9.140625" style="30"/>
+    <col min="7937" max="7937" width="13.42578125" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="32.5703125" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7942" max="7942" width="8.140625" style="30" customWidth="1"/>
+    <col min="7943" max="7943" width="9.140625" style="30"/>
+    <col min="7944" max="7944" width="20.140625" style="30" customWidth="1"/>
+    <col min="7945" max="7945" width="9.42578125" style="30" customWidth="1"/>
     <col min="7946" max="7946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.125" style="30"/>
-    <col min="8193" max="8193" width="13.375" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="21.875" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="29.25" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="32.625" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="19.25" style="30" customWidth="1"/>
-    <col min="8198" max="8198" width="8.125" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="9.125" style="30"/>
-    <col min="8200" max="8200" width="20.125" style="30" customWidth="1"/>
-    <col min="8201" max="8201" width="9.375" style="30" customWidth="1"/>
+    <col min="7947" max="8192" width="9.140625" style="30"/>
+    <col min="8193" max="8193" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="32.5703125" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8198" max="8198" width="8.140625" style="30" customWidth="1"/>
+    <col min="8199" max="8199" width="9.140625" style="30"/>
+    <col min="8200" max="8200" width="20.140625" style="30" customWidth="1"/>
+    <col min="8201" max="8201" width="9.42578125" style="30" customWidth="1"/>
     <col min="8202" max="8202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.125" style="30"/>
-    <col min="8449" max="8449" width="13.375" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="21.875" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="29.25" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="32.625" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="19.25" style="30" customWidth="1"/>
-    <col min="8454" max="8454" width="8.125" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="9.125" style="30"/>
-    <col min="8456" max="8456" width="20.125" style="30" customWidth="1"/>
-    <col min="8457" max="8457" width="9.375" style="30" customWidth="1"/>
+    <col min="8203" max="8448" width="9.140625" style="30"/>
+    <col min="8449" max="8449" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="32.5703125" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8454" max="8454" width="8.140625" style="30" customWidth="1"/>
+    <col min="8455" max="8455" width="9.140625" style="30"/>
+    <col min="8456" max="8456" width="20.140625" style="30" customWidth="1"/>
+    <col min="8457" max="8457" width="9.42578125" style="30" customWidth="1"/>
     <col min="8458" max="8458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.125" style="30"/>
-    <col min="8705" max="8705" width="13.375" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="21.875" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="29.25" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="32.625" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="19.25" style="30" customWidth="1"/>
-    <col min="8710" max="8710" width="8.125" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="9.125" style="30"/>
-    <col min="8712" max="8712" width="20.125" style="30" customWidth="1"/>
-    <col min="8713" max="8713" width="9.375" style="30" customWidth="1"/>
+    <col min="8459" max="8704" width="9.140625" style="30"/>
+    <col min="8705" max="8705" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="32.5703125" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8710" max="8710" width="8.140625" style="30" customWidth="1"/>
+    <col min="8711" max="8711" width="9.140625" style="30"/>
+    <col min="8712" max="8712" width="20.140625" style="30" customWidth="1"/>
+    <col min="8713" max="8713" width="9.42578125" style="30" customWidth="1"/>
     <col min="8714" max="8714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.125" style="30"/>
-    <col min="8961" max="8961" width="13.375" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="21.875" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="29.25" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="32.625" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="19.25" style="30" customWidth="1"/>
-    <col min="8966" max="8966" width="8.125" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="9.125" style="30"/>
-    <col min="8968" max="8968" width="20.125" style="30" customWidth="1"/>
-    <col min="8969" max="8969" width="9.375" style="30" customWidth="1"/>
+    <col min="8715" max="8960" width="9.140625" style="30"/>
+    <col min="8961" max="8961" width="13.42578125" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="32.5703125" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8966" max="8966" width="8.140625" style="30" customWidth="1"/>
+    <col min="8967" max="8967" width="9.140625" style="30"/>
+    <col min="8968" max="8968" width="20.140625" style="30" customWidth="1"/>
+    <col min="8969" max="8969" width="9.42578125" style="30" customWidth="1"/>
     <col min="8970" max="8970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.125" style="30"/>
-    <col min="9217" max="9217" width="13.375" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="21.875" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="29.25" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="32.625" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="19.25" style="30" customWidth="1"/>
-    <col min="9222" max="9222" width="8.125" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="9.125" style="30"/>
-    <col min="9224" max="9224" width="20.125" style="30" customWidth="1"/>
-    <col min="9225" max="9225" width="9.375" style="30" customWidth="1"/>
+    <col min="8971" max="9216" width="9.140625" style="30"/>
+    <col min="9217" max="9217" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="32.5703125" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9222" max="9222" width="8.140625" style="30" customWidth="1"/>
+    <col min="9223" max="9223" width="9.140625" style="30"/>
+    <col min="9224" max="9224" width="20.140625" style="30" customWidth="1"/>
+    <col min="9225" max="9225" width="9.42578125" style="30" customWidth="1"/>
     <col min="9226" max="9226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.125" style="30"/>
-    <col min="9473" max="9473" width="13.375" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="21.875" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="29.25" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="32.625" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="19.25" style="30" customWidth="1"/>
-    <col min="9478" max="9478" width="8.125" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="9.125" style="30"/>
-    <col min="9480" max="9480" width="20.125" style="30" customWidth="1"/>
-    <col min="9481" max="9481" width="9.375" style="30" customWidth="1"/>
+    <col min="9227" max="9472" width="9.140625" style="30"/>
+    <col min="9473" max="9473" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="32.5703125" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9478" max="9478" width="8.140625" style="30" customWidth="1"/>
+    <col min="9479" max="9479" width="9.140625" style="30"/>
+    <col min="9480" max="9480" width="20.140625" style="30" customWidth="1"/>
+    <col min="9481" max="9481" width="9.42578125" style="30" customWidth="1"/>
     <col min="9482" max="9482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.125" style="30"/>
-    <col min="9729" max="9729" width="13.375" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="21.875" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="29.25" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="32.625" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="19.25" style="30" customWidth="1"/>
-    <col min="9734" max="9734" width="8.125" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="9.125" style="30"/>
-    <col min="9736" max="9736" width="20.125" style="30" customWidth="1"/>
-    <col min="9737" max="9737" width="9.375" style="30" customWidth="1"/>
+    <col min="9483" max="9728" width="9.140625" style="30"/>
+    <col min="9729" max="9729" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="32.5703125" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9734" max="9734" width="8.140625" style="30" customWidth="1"/>
+    <col min="9735" max="9735" width="9.140625" style="30"/>
+    <col min="9736" max="9736" width="20.140625" style="30" customWidth="1"/>
+    <col min="9737" max="9737" width="9.42578125" style="30" customWidth="1"/>
     <col min="9738" max="9738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.125" style="30"/>
-    <col min="9985" max="9985" width="13.375" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="21.875" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="29.25" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="32.625" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="19.25" style="30" customWidth="1"/>
-    <col min="9990" max="9990" width="8.125" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="9.125" style="30"/>
-    <col min="9992" max="9992" width="20.125" style="30" customWidth="1"/>
-    <col min="9993" max="9993" width="9.375" style="30" customWidth="1"/>
+    <col min="9739" max="9984" width="9.140625" style="30"/>
+    <col min="9985" max="9985" width="13.42578125" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="32.5703125" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9990" max="9990" width="8.140625" style="30" customWidth="1"/>
+    <col min="9991" max="9991" width="9.140625" style="30"/>
+    <col min="9992" max="9992" width="20.140625" style="30" customWidth="1"/>
+    <col min="9993" max="9993" width="9.42578125" style="30" customWidth="1"/>
     <col min="9994" max="9994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.125" style="30"/>
-    <col min="10241" max="10241" width="13.375" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="21.875" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="29.25" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="32.625" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="19.25" style="30" customWidth="1"/>
-    <col min="10246" max="10246" width="8.125" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="9.125" style="30"/>
-    <col min="10248" max="10248" width="20.125" style="30" customWidth="1"/>
-    <col min="10249" max="10249" width="9.375" style="30" customWidth="1"/>
+    <col min="9995" max="10240" width="9.140625" style="30"/>
+    <col min="10241" max="10241" width="13.42578125" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="21.85546875" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="29.28515625" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="32.5703125" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="19.28515625" style="30" customWidth="1"/>
+    <col min="10246" max="10246" width="8.140625" style="30" customWidth="1"/>
+    <col min="10247" max="10247" width="9.140625" style="30"/>
+    <col min="10248" max="10248" width="20.140625" style="30" customWidth="1"/>
+    <col min="10249" max="10249" width="9.42578125" style="30" customWidth="1"/>
     <col min="10250" max="10250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.125" style="30"/>
-    <col min="10497" max="10497" width="13.375" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="21.875" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="29.25" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="32.625" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="19.25" style="30" customWidth="1"/>
-    <col min="10502" max="10502" width="8.125" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="9.125" style="30"/>
-    <col min="10504" max="10504" width="20.125" style="30" customWidth="1"/>
-    <col min="10505" max="10505" width="9.375" style="30" customWidth="1"/>
+    <col min="10251" max="10496" width="9.140625" style="30"/>
+    <col min="10497" max="10497" width="13.42578125" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="21.85546875" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="29.28515625" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="32.5703125" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="19.28515625" style="30" customWidth="1"/>
+    <col min="10502" max="10502" width="8.140625" style="30" customWidth="1"/>
+    <col min="10503" max="10503" width="9.140625" style="30"/>
+    <col min="10504" max="10504" width="20.140625" style="30" customWidth="1"/>
+    <col min="10505" max="10505" width="9.42578125" style="30" customWidth="1"/>
     <col min="10506" max="10506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.125" style="30"/>
-    <col min="10753" max="10753" width="13.375" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="21.875" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="29.25" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="32.625" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="19.25" style="30" customWidth="1"/>
-    <col min="10758" max="10758" width="8.125" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="9.125" style="30"/>
-    <col min="10760" max="10760" width="20.125" style="30" customWidth="1"/>
-    <col min="10761" max="10761" width="9.375" style="30" customWidth="1"/>
+    <col min="10507" max="10752" width="9.140625" style="30"/>
+    <col min="10753" max="10753" width="13.42578125" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="21.85546875" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="29.28515625" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="32.5703125" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="19.28515625" style="30" customWidth="1"/>
+    <col min="10758" max="10758" width="8.140625" style="30" customWidth="1"/>
+    <col min="10759" max="10759" width="9.140625" style="30"/>
+    <col min="10760" max="10760" width="20.140625" style="30" customWidth="1"/>
+    <col min="10761" max="10761" width="9.42578125" style="30" customWidth="1"/>
     <col min="10762" max="10762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.125" style="30"/>
-    <col min="11009" max="11009" width="13.375" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="21.875" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="29.25" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="32.625" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="19.25" style="30" customWidth="1"/>
-    <col min="11014" max="11014" width="8.125" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="9.125" style="30"/>
-    <col min="11016" max="11016" width="20.125" style="30" customWidth="1"/>
-    <col min="11017" max="11017" width="9.375" style="30" customWidth="1"/>
+    <col min="10763" max="11008" width="9.140625" style="30"/>
+    <col min="11009" max="11009" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="32.5703125" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11014" max="11014" width="8.140625" style="30" customWidth="1"/>
+    <col min="11015" max="11015" width="9.140625" style="30"/>
+    <col min="11016" max="11016" width="20.140625" style="30" customWidth="1"/>
+    <col min="11017" max="11017" width="9.42578125" style="30" customWidth="1"/>
     <col min="11018" max="11018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.125" style="30"/>
-    <col min="11265" max="11265" width="13.375" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="21.875" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="29.25" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="32.625" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="19.25" style="30" customWidth="1"/>
-    <col min="11270" max="11270" width="8.125" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="9.125" style="30"/>
-    <col min="11272" max="11272" width="20.125" style="30" customWidth="1"/>
-    <col min="11273" max="11273" width="9.375" style="30" customWidth="1"/>
+    <col min="11019" max="11264" width="9.140625" style="30"/>
+    <col min="11265" max="11265" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="32.5703125" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11270" max="11270" width="8.140625" style="30" customWidth="1"/>
+    <col min="11271" max="11271" width="9.140625" style="30"/>
+    <col min="11272" max="11272" width="20.140625" style="30" customWidth="1"/>
+    <col min="11273" max="11273" width="9.42578125" style="30" customWidth="1"/>
     <col min="11274" max="11274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.125" style="30"/>
-    <col min="11521" max="11521" width="13.375" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="21.875" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="29.25" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="32.625" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="19.25" style="30" customWidth="1"/>
-    <col min="11526" max="11526" width="8.125" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="9.125" style="30"/>
-    <col min="11528" max="11528" width="20.125" style="30" customWidth="1"/>
-    <col min="11529" max="11529" width="9.375" style="30" customWidth="1"/>
+    <col min="11275" max="11520" width="9.140625" style="30"/>
+    <col min="11521" max="11521" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="32.5703125" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11526" max="11526" width="8.140625" style="30" customWidth="1"/>
+    <col min="11527" max="11527" width="9.140625" style="30"/>
+    <col min="11528" max="11528" width="20.140625" style="30" customWidth="1"/>
+    <col min="11529" max="11529" width="9.42578125" style="30" customWidth="1"/>
     <col min="11530" max="11530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.125" style="30"/>
-    <col min="11777" max="11777" width="13.375" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="21.875" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="29.25" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="32.625" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="19.25" style="30" customWidth="1"/>
-    <col min="11782" max="11782" width="8.125" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="9.125" style="30"/>
-    <col min="11784" max="11784" width="20.125" style="30" customWidth="1"/>
-    <col min="11785" max="11785" width="9.375" style="30" customWidth="1"/>
+    <col min="11531" max="11776" width="9.140625" style="30"/>
+    <col min="11777" max="11777" width="13.42578125" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="32.5703125" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11782" max="11782" width="8.140625" style="30" customWidth="1"/>
+    <col min="11783" max="11783" width="9.140625" style="30"/>
+    <col min="11784" max="11784" width="20.140625" style="30" customWidth="1"/>
+    <col min="11785" max="11785" width="9.42578125" style="30" customWidth="1"/>
     <col min="11786" max="11786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.125" style="30"/>
-    <col min="12033" max="12033" width="13.375" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="21.875" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="29.25" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="32.625" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="19.25" style="30" customWidth="1"/>
-    <col min="12038" max="12038" width="8.125" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="9.125" style="30"/>
-    <col min="12040" max="12040" width="20.125" style="30" customWidth="1"/>
-    <col min="12041" max="12041" width="9.375" style="30" customWidth="1"/>
+    <col min="11787" max="12032" width="9.140625" style="30"/>
+    <col min="12033" max="12033" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="32.5703125" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12038" max="12038" width="8.140625" style="30" customWidth="1"/>
+    <col min="12039" max="12039" width="9.140625" style="30"/>
+    <col min="12040" max="12040" width="20.140625" style="30" customWidth="1"/>
+    <col min="12041" max="12041" width="9.42578125" style="30" customWidth="1"/>
     <col min="12042" max="12042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.125" style="30"/>
-    <col min="12289" max="12289" width="13.375" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="21.875" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="29.25" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="32.625" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="19.25" style="30" customWidth="1"/>
-    <col min="12294" max="12294" width="8.125" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="9.125" style="30"/>
-    <col min="12296" max="12296" width="20.125" style="30" customWidth="1"/>
-    <col min="12297" max="12297" width="9.375" style="30" customWidth="1"/>
+    <col min="12043" max="12288" width="9.140625" style="30"/>
+    <col min="12289" max="12289" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="32.5703125" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12294" max="12294" width="8.140625" style="30" customWidth="1"/>
+    <col min="12295" max="12295" width="9.140625" style="30"/>
+    <col min="12296" max="12296" width="20.140625" style="30" customWidth="1"/>
+    <col min="12297" max="12297" width="9.42578125" style="30" customWidth="1"/>
     <col min="12298" max="12298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.125" style="30"/>
-    <col min="12545" max="12545" width="13.375" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="21.875" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="29.25" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="32.625" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="19.25" style="30" customWidth="1"/>
-    <col min="12550" max="12550" width="8.125" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="9.125" style="30"/>
-    <col min="12552" max="12552" width="20.125" style="30" customWidth="1"/>
-    <col min="12553" max="12553" width="9.375" style="30" customWidth="1"/>
+    <col min="12299" max="12544" width="9.140625" style="30"/>
+    <col min="12545" max="12545" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="32.5703125" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12550" max="12550" width="8.140625" style="30" customWidth="1"/>
+    <col min="12551" max="12551" width="9.140625" style="30"/>
+    <col min="12552" max="12552" width="20.140625" style="30" customWidth="1"/>
+    <col min="12553" max="12553" width="9.42578125" style="30" customWidth="1"/>
     <col min="12554" max="12554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.125" style="30"/>
-    <col min="12801" max="12801" width="13.375" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="21.875" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="29.25" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="32.625" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="19.25" style="30" customWidth="1"/>
-    <col min="12806" max="12806" width="8.125" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="9.125" style="30"/>
-    <col min="12808" max="12808" width="20.125" style="30" customWidth="1"/>
-    <col min="12809" max="12809" width="9.375" style="30" customWidth="1"/>
+    <col min="12555" max="12800" width="9.140625" style="30"/>
+    <col min="12801" max="12801" width="13.42578125" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="32.5703125" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12806" max="12806" width="8.140625" style="30" customWidth="1"/>
+    <col min="12807" max="12807" width="9.140625" style="30"/>
+    <col min="12808" max="12808" width="20.140625" style="30" customWidth="1"/>
+    <col min="12809" max="12809" width="9.42578125" style="30" customWidth="1"/>
     <col min="12810" max="12810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.125" style="30"/>
-    <col min="13057" max="13057" width="13.375" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="21.875" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="29.25" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="32.625" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="19.25" style="30" customWidth="1"/>
-    <col min="13062" max="13062" width="8.125" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="9.125" style="30"/>
-    <col min="13064" max="13064" width="20.125" style="30" customWidth="1"/>
-    <col min="13065" max="13065" width="9.375" style="30" customWidth="1"/>
+    <col min="12811" max="13056" width="9.140625" style="30"/>
+    <col min="13057" max="13057" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="32.5703125" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13062" max="13062" width="8.140625" style="30" customWidth="1"/>
+    <col min="13063" max="13063" width="9.140625" style="30"/>
+    <col min="13064" max="13064" width="20.140625" style="30" customWidth="1"/>
+    <col min="13065" max="13065" width="9.42578125" style="30" customWidth="1"/>
     <col min="13066" max="13066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.125" style="30"/>
-    <col min="13313" max="13313" width="13.375" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="21.875" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="29.25" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="32.625" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="19.25" style="30" customWidth="1"/>
-    <col min="13318" max="13318" width="8.125" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="9.125" style="30"/>
-    <col min="13320" max="13320" width="20.125" style="30" customWidth="1"/>
-    <col min="13321" max="13321" width="9.375" style="30" customWidth="1"/>
+    <col min="13067" max="13312" width="9.140625" style="30"/>
+    <col min="13313" max="13313" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="32.5703125" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13318" max="13318" width="8.140625" style="30" customWidth="1"/>
+    <col min="13319" max="13319" width="9.140625" style="30"/>
+    <col min="13320" max="13320" width="20.140625" style="30" customWidth="1"/>
+    <col min="13321" max="13321" width="9.42578125" style="30" customWidth="1"/>
     <col min="13322" max="13322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.125" style="30"/>
-    <col min="13569" max="13569" width="13.375" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="21.875" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="29.25" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="32.625" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="19.25" style="30" customWidth="1"/>
-    <col min="13574" max="13574" width="8.125" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="9.125" style="30"/>
-    <col min="13576" max="13576" width="20.125" style="30" customWidth="1"/>
-    <col min="13577" max="13577" width="9.375" style="30" customWidth="1"/>
+    <col min="13323" max="13568" width="9.140625" style="30"/>
+    <col min="13569" max="13569" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="32.5703125" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13574" max="13574" width="8.140625" style="30" customWidth="1"/>
+    <col min="13575" max="13575" width="9.140625" style="30"/>
+    <col min="13576" max="13576" width="20.140625" style="30" customWidth="1"/>
+    <col min="13577" max="13577" width="9.42578125" style="30" customWidth="1"/>
     <col min="13578" max="13578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.125" style="30"/>
-    <col min="13825" max="13825" width="13.375" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="21.875" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="29.25" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="32.625" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="19.25" style="30" customWidth="1"/>
-    <col min="13830" max="13830" width="8.125" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="9.125" style="30"/>
-    <col min="13832" max="13832" width="20.125" style="30" customWidth="1"/>
-    <col min="13833" max="13833" width="9.375" style="30" customWidth="1"/>
+    <col min="13579" max="13824" width="9.140625" style="30"/>
+    <col min="13825" max="13825" width="13.42578125" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="32.5703125" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13830" max="13830" width="8.140625" style="30" customWidth="1"/>
+    <col min="13831" max="13831" width="9.140625" style="30"/>
+    <col min="13832" max="13832" width="20.140625" style="30" customWidth="1"/>
+    <col min="13833" max="13833" width="9.42578125" style="30" customWidth="1"/>
     <col min="13834" max="13834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.125" style="30"/>
-    <col min="14081" max="14081" width="13.375" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="21.875" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="29.25" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="32.625" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="19.25" style="30" customWidth="1"/>
-    <col min="14086" max="14086" width="8.125" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="9.125" style="30"/>
-    <col min="14088" max="14088" width="20.125" style="30" customWidth="1"/>
-    <col min="14089" max="14089" width="9.375" style="30" customWidth="1"/>
+    <col min="13835" max="14080" width="9.140625" style="30"/>
+    <col min="14081" max="14081" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="32.5703125" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14086" max="14086" width="8.140625" style="30" customWidth="1"/>
+    <col min="14087" max="14087" width="9.140625" style="30"/>
+    <col min="14088" max="14088" width="20.140625" style="30" customWidth="1"/>
+    <col min="14089" max="14089" width="9.42578125" style="30" customWidth="1"/>
     <col min="14090" max="14090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.125" style="30"/>
-    <col min="14337" max="14337" width="13.375" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="21.875" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="29.25" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="32.625" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="19.25" style="30" customWidth="1"/>
-    <col min="14342" max="14342" width="8.125" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="9.125" style="30"/>
-    <col min="14344" max="14344" width="20.125" style="30" customWidth="1"/>
-    <col min="14345" max="14345" width="9.375" style="30" customWidth="1"/>
+    <col min="14091" max="14336" width="9.140625" style="30"/>
+    <col min="14337" max="14337" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="32.5703125" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14342" max="14342" width="8.140625" style="30" customWidth="1"/>
+    <col min="14343" max="14343" width="9.140625" style="30"/>
+    <col min="14344" max="14344" width="20.140625" style="30" customWidth="1"/>
+    <col min="14345" max="14345" width="9.42578125" style="30" customWidth="1"/>
     <col min="14346" max="14346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.125" style="30"/>
-    <col min="14593" max="14593" width="13.375" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="21.875" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="29.25" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="32.625" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="19.25" style="30" customWidth="1"/>
-    <col min="14598" max="14598" width="8.125" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="9.125" style="30"/>
-    <col min="14600" max="14600" width="20.125" style="30" customWidth="1"/>
-    <col min="14601" max="14601" width="9.375" style="30" customWidth="1"/>
+    <col min="14347" max="14592" width="9.140625" style="30"/>
+    <col min="14593" max="14593" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="32.5703125" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14598" max="14598" width="8.140625" style="30" customWidth="1"/>
+    <col min="14599" max="14599" width="9.140625" style="30"/>
+    <col min="14600" max="14600" width="20.140625" style="30" customWidth="1"/>
+    <col min="14601" max="14601" width="9.42578125" style="30" customWidth="1"/>
     <col min="14602" max="14602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.125" style="30"/>
-    <col min="14849" max="14849" width="13.375" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="21.875" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="29.25" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="32.625" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="19.25" style="30" customWidth="1"/>
-    <col min="14854" max="14854" width="8.125" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="9.125" style="30"/>
-    <col min="14856" max="14856" width="20.125" style="30" customWidth="1"/>
-    <col min="14857" max="14857" width="9.375" style="30" customWidth="1"/>
+    <col min="14603" max="14848" width="9.140625" style="30"/>
+    <col min="14849" max="14849" width="13.42578125" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="32.5703125" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14854" max="14854" width="8.140625" style="30" customWidth="1"/>
+    <col min="14855" max="14855" width="9.140625" style="30"/>
+    <col min="14856" max="14856" width="20.140625" style="30" customWidth="1"/>
+    <col min="14857" max="14857" width="9.42578125" style="30" customWidth="1"/>
     <col min="14858" max="14858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.125" style="30"/>
-    <col min="15105" max="15105" width="13.375" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="21.875" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="29.25" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="32.625" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="19.25" style="30" customWidth="1"/>
-    <col min="15110" max="15110" width="8.125" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="9.125" style="30"/>
-    <col min="15112" max="15112" width="20.125" style="30" customWidth="1"/>
-    <col min="15113" max="15113" width="9.375" style="30" customWidth="1"/>
+    <col min="14859" max="15104" width="9.140625" style="30"/>
+    <col min="15105" max="15105" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="32.5703125" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15110" max="15110" width="8.140625" style="30" customWidth="1"/>
+    <col min="15111" max="15111" width="9.140625" style="30"/>
+    <col min="15112" max="15112" width="20.140625" style="30" customWidth="1"/>
+    <col min="15113" max="15113" width="9.42578125" style="30" customWidth="1"/>
     <col min="15114" max="15114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.125" style="30"/>
-    <col min="15361" max="15361" width="13.375" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="21.875" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="29.25" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="32.625" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="19.25" style="30" customWidth="1"/>
-    <col min="15366" max="15366" width="8.125" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="9.125" style="30"/>
-    <col min="15368" max="15368" width="20.125" style="30" customWidth="1"/>
-    <col min="15369" max="15369" width="9.375" style="30" customWidth="1"/>
+    <col min="15115" max="15360" width="9.140625" style="30"/>
+    <col min="15361" max="15361" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="32.5703125" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15366" max="15366" width="8.140625" style="30" customWidth="1"/>
+    <col min="15367" max="15367" width="9.140625" style="30"/>
+    <col min="15368" max="15368" width="20.140625" style="30" customWidth="1"/>
+    <col min="15369" max="15369" width="9.42578125" style="30" customWidth="1"/>
     <col min="15370" max="15370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.125" style="30"/>
-    <col min="15617" max="15617" width="13.375" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="21.875" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="29.25" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="32.625" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="19.25" style="30" customWidth="1"/>
-    <col min="15622" max="15622" width="8.125" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="9.125" style="30"/>
-    <col min="15624" max="15624" width="20.125" style="30" customWidth="1"/>
-    <col min="15625" max="15625" width="9.375" style="30" customWidth="1"/>
+    <col min="15371" max="15616" width="9.140625" style="30"/>
+    <col min="15617" max="15617" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="32.5703125" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15622" max="15622" width="8.140625" style="30" customWidth="1"/>
+    <col min="15623" max="15623" width="9.140625" style="30"/>
+    <col min="15624" max="15624" width="20.140625" style="30" customWidth="1"/>
+    <col min="15625" max="15625" width="9.42578125" style="30" customWidth="1"/>
     <col min="15626" max="15626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.125" style="30"/>
-    <col min="15873" max="15873" width="13.375" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="21.875" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="29.25" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="32.625" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="19.25" style="30" customWidth="1"/>
-    <col min="15878" max="15878" width="8.125" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="9.125" style="30"/>
-    <col min="15880" max="15880" width="20.125" style="30" customWidth="1"/>
-    <col min="15881" max="15881" width="9.375" style="30" customWidth="1"/>
+    <col min="15627" max="15872" width="9.140625" style="30"/>
+    <col min="15873" max="15873" width="13.42578125" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="32.5703125" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15878" max="15878" width="8.140625" style="30" customWidth="1"/>
+    <col min="15879" max="15879" width="9.140625" style="30"/>
+    <col min="15880" max="15880" width="20.140625" style="30" customWidth="1"/>
+    <col min="15881" max="15881" width="9.42578125" style="30" customWidth="1"/>
     <col min="15882" max="15882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.125" style="30"/>
-    <col min="16129" max="16129" width="13.375" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="21.875" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="29.25" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="32.625" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="19.25" style="30" customWidth="1"/>
-    <col min="16134" max="16134" width="8.125" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="9.125" style="30"/>
-    <col min="16136" max="16136" width="20.125" style="30" customWidth="1"/>
-    <col min="16137" max="16137" width="9.375" style="30" customWidth="1"/>
+    <col min="15883" max="16128" width="9.140625" style="30"/>
+    <col min="16129" max="16129" width="13.42578125" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="21.85546875" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="29.28515625" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="32.5703125" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="19.28515625" style="30" customWidth="1"/>
+    <col min="16134" max="16134" width="8.140625" style="30" customWidth="1"/>
+    <col min="16135" max="16135" width="9.140625" style="30"/>
+    <col min="16136" max="16136" width="20.140625" style="30" customWidth="1"/>
+    <col min="16137" max="16137" width="9.42578125" style="30" customWidth="1"/>
     <col min="16138" max="16138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.125" style="30"/>
+    <col min="16139" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -5023,7 +5025,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
@@ -5073,7 +5075,7 @@
       <c r="I4" s="66"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77">
         <f>COUNTIF(F10:F995,"Pass")</f>
         <v>0</v>
@@ -5126,7 +5128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="75"/>
@@ -5134,7 +5136,7 @@
       <c r="H7" s="75"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
@@ -5161,7 +5163,7 @@
       </c>
       <c r="I8" s="83"/>
     </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
         <v>117</v>
@@ -5174,7 +5176,7 @@
       <c r="H9" s="86"/>
       <c r="I9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5">
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="s">
         <v>51</v>
       </c>
@@ -5193,7 +5195,7 @@
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:11" ht="114.75">
+    <row r="11" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
         <v>54</v>
       </c>
@@ -5214,7 +5216,7 @@
       <c r="H11" s="90"/>
       <c r="I11" s="91"/>
     </row>
-    <row r="12" spans="1:11" ht="51">
+    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="93" t="s">
         <v>57</v>
       </c>
@@ -5237,7 +5239,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" ht="63.75">
+    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="93" t="s">
         <v>60</v>
       </c>
@@ -5260,7 +5262,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" ht="127.5">
+    <row r="14" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A14" s="93" t="s">
         <v>63</v>
       </c>
@@ -5283,7 +5285,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" ht="51">
+    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="93" t="s">
         <v>67</v>
       </c>
@@ -5306,7 +5308,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" ht="51">
+    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="s">
         <v>70</v>
       </c>
@@ -5329,7 +5331,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" ht="127.5">
+    <row r="17" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
         <v>72</v>
       </c>
@@ -5349,7 +5351,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
-    <row r="18" spans="1:11" ht="51">
+    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="s">
         <v>76</v>
       </c>
@@ -5370,7 +5372,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="100"/>
     </row>
-    <row r="19" spans="1:11" ht="51">
+    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
         <v>79</v>
       </c>
@@ -5393,7 +5395,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" ht="127.5">
+    <row r="20" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A20" s="93" t="s">
         <v>82</v>
       </c>
@@ -5413,7 +5415,7 @@
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:11" ht="51">
+    <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="93" t="s">
         <v>86</v>
       </c>
@@ -5436,7 +5438,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" ht="51">
+    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
         <v>89</v>
       </c>
@@ -5456,7 +5458,7 @@
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
-    <row r="23" spans="1:11" ht="127.5">
+    <row r="23" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="93" t="s">
         <v>91</v>
       </c>
@@ -5476,7 +5478,7 @@
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="1:11" ht="51">
+    <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="s">
         <v>95</v>
       </c>
@@ -5496,7 +5498,7 @@
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
-    <row r="25" spans="1:11" ht="51">
+    <row r="25" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" s="93" t="s">
         <v>97</v>
       </c>
@@ -5516,7 +5518,7 @@
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
-    <row r="26" spans="1:11" ht="165.75">
+    <row r="26" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A26" s="93" t="s">
         <v>99</v>
       </c>
@@ -5536,7 +5538,7 @@
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
-    <row r="27" spans="1:11" ht="63.75">
+    <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
         <v>103</v>
       </c>
@@ -5556,7 +5558,7 @@
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:11" ht="51">
+    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="93" t="s">
         <v>105</v>
       </c>
@@ -5576,7 +5578,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
-    <row r="31" spans="1:11" ht="69.75" customHeight="1"/>
+    <row r="31" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A8:H13"/>
   <mergeCells count="5">
@@ -5607,719 +5609,719 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="23" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="30" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="102"/>
-    <col min="8" max="8" width="20.125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="101" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="102"/>
+    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="101" customWidth="1"/>
     <col min="10" max="10" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="256" width="9.125" style="30"/>
-    <col min="257" max="257" width="13.125" style="30" customWidth="1"/>
-    <col min="258" max="258" width="21.875" style="30" customWidth="1"/>
-    <col min="259" max="259" width="29.25" style="30" customWidth="1"/>
-    <col min="260" max="260" width="34.375" style="30" customWidth="1"/>
-    <col min="261" max="261" width="19.25" style="30" customWidth="1"/>
-    <col min="262" max="262" width="8.125" style="30" customWidth="1"/>
-    <col min="263" max="263" width="9.125" style="30"/>
-    <col min="264" max="264" width="20.125" style="30" customWidth="1"/>
-    <col min="265" max="265" width="9.375" style="30" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="30"/>
+    <col min="257" max="257" width="13.140625" style="30" customWidth="1"/>
+    <col min="258" max="258" width="21.85546875" style="30" customWidth="1"/>
+    <col min="259" max="259" width="29.28515625" style="30" customWidth="1"/>
+    <col min="260" max="260" width="34.42578125" style="30" customWidth="1"/>
+    <col min="261" max="261" width="19.28515625" style="30" customWidth="1"/>
+    <col min="262" max="262" width="8.140625" style="30" customWidth="1"/>
+    <col min="263" max="263" width="9.140625" style="30"/>
+    <col min="264" max="264" width="20.140625" style="30" customWidth="1"/>
+    <col min="265" max="265" width="9.42578125" style="30" customWidth="1"/>
     <col min="266" max="266" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="267" max="512" width="9.125" style="30"/>
-    <col min="513" max="513" width="13.125" style="30" customWidth="1"/>
-    <col min="514" max="514" width="21.875" style="30" customWidth="1"/>
-    <col min="515" max="515" width="29.25" style="30" customWidth="1"/>
-    <col min="516" max="516" width="34.375" style="30" customWidth="1"/>
-    <col min="517" max="517" width="19.25" style="30" customWidth="1"/>
-    <col min="518" max="518" width="8.125" style="30" customWidth="1"/>
-    <col min="519" max="519" width="9.125" style="30"/>
-    <col min="520" max="520" width="20.125" style="30" customWidth="1"/>
-    <col min="521" max="521" width="9.375" style="30" customWidth="1"/>
+    <col min="267" max="512" width="9.140625" style="30"/>
+    <col min="513" max="513" width="13.140625" style="30" customWidth="1"/>
+    <col min="514" max="514" width="21.85546875" style="30" customWidth="1"/>
+    <col min="515" max="515" width="29.28515625" style="30" customWidth="1"/>
+    <col min="516" max="516" width="34.42578125" style="30" customWidth="1"/>
+    <col min="517" max="517" width="19.28515625" style="30" customWidth="1"/>
+    <col min="518" max="518" width="8.140625" style="30" customWidth="1"/>
+    <col min="519" max="519" width="9.140625" style="30"/>
+    <col min="520" max="520" width="20.140625" style="30" customWidth="1"/>
+    <col min="521" max="521" width="9.42578125" style="30" customWidth="1"/>
     <col min="522" max="522" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="523" max="768" width="9.125" style="30"/>
-    <col min="769" max="769" width="13.125" style="30" customWidth="1"/>
-    <col min="770" max="770" width="21.875" style="30" customWidth="1"/>
-    <col min="771" max="771" width="29.25" style="30" customWidth="1"/>
-    <col min="772" max="772" width="34.375" style="30" customWidth="1"/>
-    <col min="773" max="773" width="19.25" style="30" customWidth="1"/>
-    <col min="774" max="774" width="8.125" style="30" customWidth="1"/>
-    <col min="775" max="775" width="9.125" style="30"/>
-    <col min="776" max="776" width="20.125" style="30" customWidth="1"/>
-    <col min="777" max="777" width="9.375" style="30" customWidth="1"/>
+    <col min="523" max="768" width="9.140625" style="30"/>
+    <col min="769" max="769" width="13.140625" style="30" customWidth="1"/>
+    <col min="770" max="770" width="21.85546875" style="30" customWidth="1"/>
+    <col min="771" max="771" width="29.28515625" style="30" customWidth="1"/>
+    <col min="772" max="772" width="34.42578125" style="30" customWidth="1"/>
+    <col min="773" max="773" width="19.28515625" style="30" customWidth="1"/>
+    <col min="774" max="774" width="8.140625" style="30" customWidth="1"/>
+    <col min="775" max="775" width="9.140625" style="30"/>
+    <col min="776" max="776" width="20.140625" style="30" customWidth="1"/>
+    <col min="777" max="777" width="9.42578125" style="30" customWidth="1"/>
     <col min="778" max="778" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.125" style="30"/>
-    <col min="1025" max="1025" width="13.125" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="21.875" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="29.25" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="34.375" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="19.25" style="30" customWidth="1"/>
-    <col min="1030" max="1030" width="8.125" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="9.125" style="30"/>
-    <col min="1032" max="1032" width="20.125" style="30" customWidth="1"/>
-    <col min="1033" max="1033" width="9.375" style="30" customWidth="1"/>
+    <col min="779" max="1024" width="9.140625" style="30"/>
+    <col min="1025" max="1025" width="13.140625" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="34.42578125" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1030" max="1030" width="8.140625" style="30" customWidth="1"/>
+    <col min="1031" max="1031" width="9.140625" style="30"/>
+    <col min="1032" max="1032" width="20.140625" style="30" customWidth="1"/>
+    <col min="1033" max="1033" width="9.42578125" style="30" customWidth="1"/>
     <col min="1034" max="1034" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.125" style="30"/>
-    <col min="1281" max="1281" width="13.125" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="21.875" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="29.25" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="34.375" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="19.25" style="30" customWidth="1"/>
-    <col min="1286" max="1286" width="8.125" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="9.125" style="30"/>
-    <col min="1288" max="1288" width="20.125" style="30" customWidth="1"/>
-    <col min="1289" max="1289" width="9.375" style="30" customWidth="1"/>
+    <col min="1035" max="1280" width="9.140625" style="30"/>
+    <col min="1281" max="1281" width="13.140625" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="34.42578125" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1286" max="1286" width="8.140625" style="30" customWidth="1"/>
+    <col min="1287" max="1287" width="9.140625" style="30"/>
+    <col min="1288" max="1288" width="20.140625" style="30" customWidth="1"/>
+    <col min="1289" max="1289" width="9.42578125" style="30" customWidth="1"/>
     <col min="1290" max="1290" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.125" style="30"/>
-    <col min="1537" max="1537" width="13.125" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="21.875" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="29.25" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="34.375" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="19.25" style="30" customWidth="1"/>
-    <col min="1542" max="1542" width="8.125" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="9.125" style="30"/>
-    <col min="1544" max="1544" width="20.125" style="30" customWidth="1"/>
-    <col min="1545" max="1545" width="9.375" style="30" customWidth="1"/>
+    <col min="1291" max="1536" width="9.140625" style="30"/>
+    <col min="1537" max="1537" width="13.140625" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="34.42578125" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1542" max="1542" width="8.140625" style="30" customWidth="1"/>
+    <col min="1543" max="1543" width="9.140625" style="30"/>
+    <col min="1544" max="1544" width="20.140625" style="30" customWidth="1"/>
+    <col min="1545" max="1545" width="9.42578125" style="30" customWidth="1"/>
     <col min="1546" max="1546" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.125" style="30"/>
-    <col min="1793" max="1793" width="13.125" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="21.875" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="29.25" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="34.375" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="19.25" style="30" customWidth="1"/>
-    <col min="1798" max="1798" width="8.125" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="9.125" style="30"/>
-    <col min="1800" max="1800" width="20.125" style="30" customWidth="1"/>
-    <col min="1801" max="1801" width="9.375" style="30" customWidth="1"/>
+    <col min="1547" max="1792" width="9.140625" style="30"/>
+    <col min="1793" max="1793" width="13.140625" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="21.85546875" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="29.28515625" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="34.42578125" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="19.28515625" style="30" customWidth="1"/>
+    <col min="1798" max="1798" width="8.140625" style="30" customWidth="1"/>
+    <col min="1799" max="1799" width="9.140625" style="30"/>
+    <col min="1800" max="1800" width="20.140625" style="30" customWidth="1"/>
+    <col min="1801" max="1801" width="9.42578125" style="30" customWidth="1"/>
     <col min="1802" max="1802" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.125" style="30"/>
-    <col min="2049" max="2049" width="13.125" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="21.875" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="29.25" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="34.375" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="19.25" style="30" customWidth="1"/>
-    <col min="2054" max="2054" width="8.125" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="9.125" style="30"/>
-    <col min="2056" max="2056" width="20.125" style="30" customWidth="1"/>
-    <col min="2057" max="2057" width="9.375" style="30" customWidth="1"/>
+    <col min="1803" max="2048" width="9.140625" style="30"/>
+    <col min="2049" max="2049" width="13.140625" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="34.42578125" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2054" max="2054" width="8.140625" style="30" customWidth="1"/>
+    <col min="2055" max="2055" width="9.140625" style="30"/>
+    <col min="2056" max="2056" width="20.140625" style="30" customWidth="1"/>
+    <col min="2057" max="2057" width="9.42578125" style="30" customWidth="1"/>
     <col min="2058" max="2058" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.125" style="30"/>
-    <col min="2305" max="2305" width="13.125" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="21.875" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="29.25" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="34.375" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="19.25" style="30" customWidth="1"/>
-    <col min="2310" max="2310" width="8.125" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="9.125" style="30"/>
-    <col min="2312" max="2312" width="20.125" style="30" customWidth="1"/>
-    <col min="2313" max="2313" width="9.375" style="30" customWidth="1"/>
+    <col min="2059" max="2304" width="9.140625" style="30"/>
+    <col min="2305" max="2305" width="13.140625" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="34.42578125" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2310" max="2310" width="8.140625" style="30" customWidth="1"/>
+    <col min="2311" max="2311" width="9.140625" style="30"/>
+    <col min="2312" max="2312" width="20.140625" style="30" customWidth="1"/>
+    <col min="2313" max="2313" width="9.42578125" style="30" customWidth="1"/>
     <col min="2314" max="2314" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.125" style="30"/>
-    <col min="2561" max="2561" width="13.125" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="21.875" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="29.25" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="34.375" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="19.25" style="30" customWidth="1"/>
-    <col min="2566" max="2566" width="8.125" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="9.125" style="30"/>
-    <col min="2568" max="2568" width="20.125" style="30" customWidth="1"/>
-    <col min="2569" max="2569" width="9.375" style="30" customWidth="1"/>
+    <col min="2315" max="2560" width="9.140625" style="30"/>
+    <col min="2561" max="2561" width="13.140625" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="34.42578125" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2566" max="2566" width="8.140625" style="30" customWidth="1"/>
+    <col min="2567" max="2567" width="9.140625" style="30"/>
+    <col min="2568" max="2568" width="20.140625" style="30" customWidth="1"/>
+    <col min="2569" max="2569" width="9.42578125" style="30" customWidth="1"/>
     <col min="2570" max="2570" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.125" style="30"/>
-    <col min="2817" max="2817" width="13.125" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="21.875" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="29.25" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="34.375" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="19.25" style="30" customWidth="1"/>
-    <col min="2822" max="2822" width="8.125" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="9.125" style="30"/>
-    <col min="2824" max="2824" width="20.125" style="30" customWidth="1"/>
-    <col min="2825" max="2825" width="9.375" style="30" customWidth="1"/>
+    <col min="2571" max="2816" width="9.140625" style="30"/>
+    <col min="2817" max="2817" width="13.140625" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="21.85546875" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="29.28515625" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="34.42578125" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="19.28515625" style="30" customWidth="1"/>
+    <col min="2822" max="2822" width="8.140625" style="30" customWidth="1"/>
+    <col min="2823" max="2823" width="9.140625" style="30"/>
+    <col min="2824" max="2824" width="20.140625" style="30" customWidth="1"/>
+    <col min="2825" max="2825" width="9.42578125" style="30" customWidth="1"/>
     <col min="2826" max="2826" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.125" style="30"/>
-    <col min="3073" max="3073" width="13.125" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="21.875" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="29.25" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="34.375" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="19.25" style="30" customWidth="1"/>
-    <col min="3078" max="3078" width="8.125" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="9.125" style="30"/>
-    <col min="3080" max="3080" width="20.125" style="30" customWidth="1"/>
-    <col min="3081" max="3081" width="9.375" style="30" customWidth="1"/>
+    <col min="2827" max="3072" width="9.140625" style="30"/>
+    <col min="3073" max="3073" width="13.140625" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="34.42578125" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3078" max="3078" width="8.140625" style="30" customWidth="1"/>
+    <col min="3079" max="3079" width="9.140625" style="30"/>
+    <col min="3080" max="3080" width="20.140625" style="30" customWidth="1"/>
+    <col min="3081" max="3081" width="9.42578125" style="30" customWidth="1"/>
     <col min="3082" max="3082" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.125" style="30"/>
-    <col min="3329" max="3329" width="13.125" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="21.875" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="29.25" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="34.375" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="19.25" style="30" customWidth="1"/>
-    <col min="3334" max="3334" width="8.125" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="9.125" style="30"/>
-    <col min="3336" max="3336" width="20.125" style="30" customWidth="1"/>
-    <col min="3337" max="3337" width="9.375" style="30" customWidth="1"/>
+    <col min="3083" max="3328" width="9.140625" style="30"/>
+    <col min="3329" max="3329" width="13.140625" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="34.42578125" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3334" max="3334" width="8.140625" style="30" customWidth="1"/>
+    <col min="3335" max="3335" width="9.140625" style="30"/>
+    <col min="3336" max="3336" width="20.140625" style="30" customWidth="1"/>
+    <col min="3337" max="3337" width="9.42578125" style="30" customWidth="1"/>
     <col min="3338" max="3338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.125" style="30"/>
-    <col min="3585" max="3585" width="13.125" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="21.875" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="29.25" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="34.375" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="19.25" style="30" customWidth="1"/>
-    <col min="3590" max="3590" width="8.125" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="9.125" style="30"/>
-    <col min="3592" max="3592" width="20.125" style="30" customWidth="1"/>
-    <col min="3593" max="3593" width="9.375" style="30" customWidth="1"/>
+    <col min="3339" max="3584" width="9.140625" style="30"/>
+    <col min="3585" max="3585" width="13.140625" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="34.42578125" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3590" max="3590" width="8.140625" style="30" customWidth="1"/>
+    <col min="3591" max="3591" width="9.140625" style="30"/>
+    <col min="3592" max="3592" width="20.140625" style="30" customWidth="1"/>
+    <col min="3593" max="3593" width="9.42578125" style="30" customWidth="1"/>
     <col min="3594" max="3594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.125" style="30"/>
-    <col min="3841" max="3841" width="13.125" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="21.875" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="29.25" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="34.375" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="19.25" style="30" customWidth="1"/>
-    <col min="3846" max="3846" width="8.125" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="9.125" style="30"/>
-    <col min="3848" max="3848" width="20.125" style="30" customWidth="1"/>
-    <col min="3849" max="3849" width="9.375" style="30" customWidth="1"/>
+    <col min="3595" max="3840" width="9.140625" style="30"/>
+    <col min="3841" max="3841" width="13.140625" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="21.85546875" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="29.28515625" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="34.42578125" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="19.28515625" style="30" customWidth="1"/>
+    <col min="3846" max="3846" width="8.140625" style="30" customWidth="1"/>
+    <col min="3847" max="3847" width="9.140625" style="30"/>
+    <col min="3848" max="3848" width="20.140625" style="30" customWidth="1"/>
+    <col min="3849" max="3849" width="9.42578125" style="30" customWidth="1"/>
     <col min="3850" max="3850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.125" style="30"/>
-    <col min="4097" max="4097" width="13.125" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="21.875" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="29.25" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="34.375" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="19.25" style="30" customWidth="1"/>
-    <col min="4102" max="4102" width="8.125" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="9.125" style="30"/>
-    <col min="4104" max="4104" width="20.125" style="30" customWidth="1"/>
-    <col min="4105" max="4105" width="9.375" style="30" customWidth="1"/>
+    <col min="3851" max="4096" width="9.140625" style="30"/>
+    <col min="4097" max="4097" width="13.140625" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="34.42578125" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4102" max="4102" width="8.140625" style="30" customWidth="1"/>
+    <col min="4103" max="4103" width="9.140625" style="30"/>
+    <col min="4104" max="4104" width="20.140625" style="30" customWidth="1"/>
+    <col min="4105" max="4105" width="9.42578125" style="30" customWidth="1"/>
     <col min="4106" max="4106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.125" style="30"/>
-    <col min="4353" max="4353" width="13.125" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="21.875" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="29.25" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="34.375" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="19.25" style="30" customWidth="1"/>
-    <col min="4358" max="4358" width="8.125" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="9.125" style="30"/>
-    <col min="4360" max="4360" width="20.125" style="30" customWidth="1"/>
-    <col min="4361" max="4361" width="9.375" style="30" customWidth="1"/>
+    <col min="4107" max="4352" width="9.140625" style="30"/>
+    <col min="4353" max="4353" width="13.140625" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="34.42578125" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4358" max="4358" width="8.140625" style="30" customWidth="1"/>
+    <col min="4359" max="4359" width="9.140625" style="30"/>
+    <col min="4360" max="4360" width="20.140625" style="30" customWidth="1"/>
+    <col min="4361" max="4361" width="9.42578125" style="30" customWidth="1"/>
     <col min="4362" max="4362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.125" style="30"/>
-    <col min="4609" max="4609" width="13.125" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="21.875" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="29.25" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="34.375" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="19.25" style="30" customWidth="1"/>
-    <col min="4614" max="4614" width="8.125" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="9.125" style="30"/>
-    <col min="4616" max="4616" width="20.125" style="30" customWidth="1"/>
-    <col min="4617" max="4617" width="9.375" style="30" customWidth="1"/>
+    <col min="4363" max="4608" width="9.140625" style="30"/>
+    <col min="4609" max="4609" width="13.140625" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="34.42578125" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4614" max="4614" width="8.140625" style="30" customWidth="1"/>
+    <col min="4615" max="4615" width="9.140625" style="30"/>
+    <col min="4616" max="4616" width="20.140625" style="30" customWidth="1"/>
+    <col min="4617" max="4617" width="9.42578125" style="30" customWidth="1"/>
     <col min="4618" max="4618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.125" style="30"/>
-    <col min="4865" max="4865" width="13.125" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="21.875" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="29.25" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="34.375" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="19.25" style="30" customWidth="1"/>
-    <col min="4870" max="4870" width="8.125" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="9.125" style="30"/>
-    <col min="4872" max="4872" width="20.125" style="30" customWidth="1"/>
-    <col min="4873" max="4873" width="9.375" style="30" customWidth="1"/>
+    <col min="4619" max="4864" width="9.140625" style="30"/>
+    <col min="4865" max="4865" width="13.140625" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="21.85546875" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="29.28515625" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="34.42578125" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="19.28515625" style="30" customWidth="1"/>
+    <col min="4870" max="4870" width="8.140625" style="30" customWidth="1"/>
+    <col min="4871" max="4871" width="9.140625" style="30"/>
+    <col min="4872" max="4872" width="20.140625" style="30" customWidth="1"/>
+    <col min="4873" max="4873" width="9.42578125" style="30" customWidth="1"/>
     <col min="4874" max="4874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.125" style="30"/>
-    <col min="5121" max="5121" width="13.125" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="21.875" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="29.25" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="34.375" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="19.25" style="30" customWidth="1"/>
-    <col min="5126" max="5126" width="8.125" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="9.125" style="30"/>
-    <col min="5128" max="5128" width="20.125" style="30" customWidth="1"/>
-    <col min="5129" max="5129" width="9.375" style="30" customWidth="1"/>
+    <col min="4875" max="5120" width="9.140625" style="30"/>
+    <col min="5121" max="5121" width="13.140625" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="34.42578125" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5126" max="5126" width="8.140625" style="30" customWidth="1"/>
+    <col min="5127" max="5127" width="9.140625" style="30"/>
+    <col min="5128" max="5128" width="20.140625" style="30" customWidth="1"/>
+    <col min="5129" max="5129" width="9.42578125" style="30" customWidth="1"/>
     <col min="5130" max="5130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.125" style="30"/>
-    <col min="5377" max="5377" width="13.125" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="21.875" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="29.25" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="34.375" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="19.25" style="30" customWidth="1"/>
-    <col min="5382" max="5382" width="8.125" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="9.125" style="30"/>
-    <col min="5384" max="5384" width="20.125" style="30" customWidth="1"/>
-    <col min="5385" max="5385" width="9.375" style="30" customWidth="1"/>
+    <col min="5131" max="5376" width="9.140625" style="30"/>
+    <col min="5377" max="5377" width="13.140625" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="34.42578125" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5382" max="5382" width="8.140625" style="30" customWidth="1"/>
+    <col min="5383" max="5383" width="9.140625" style="30"/>
+    <col min="5384" max="5384" width="20.140625" style="30" customWidth="1"/>
+    <col min="5385" max="5385" width="9.42578125" style="30" customWidth="1"/>
     <col min="5386" max="5386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.125" style="30"/>
-    <col min="5633" max="5633" width="13.125" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="21.875" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="29.25" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="34.375" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="19.25" style="30" customWidth="1"/>
-    <col min="5638" max="5638" width="8.125" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="9.125" style="30"/>
-    <col min="5640" max="5640" width="20.125" style="30" customWidth="1"/>
-    <col min="5641" max="5641" width="9.375" style="30" customWidth="1"/>
+    <col min="5387" max="5632" width="9.140625" style="30"/>
+    <col min="5633" max="5633" width="13.140625" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="34.42578125" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5638" max="5638" width="8.140625" style="30" customWidth="1"/>
+    <col min="5639" max="5639" width="9.140625" style="30"/>
+    <col min="5640" max="5640" width="20.140625" style="30" customWidth="1"/>
+    <col min="5641" max="5641" width="9.42578125" style="30" customWidth="1"/>
     <col min="5642" max="5642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.125" style="30"/>
-    <col min="5889" max="5889" width="13.125" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="21.875" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="29.25" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="34.375" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="19.25" style="30" customWidth="1"/>
-    <col min="5894" max="5894" width="8.125" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="9.125" style="30"/>
-    <col min="5896" max="5896" width="20.125" style="30" customWidth="1"/>
-    <col min="5897" max="5897" width="9.375" style="30" customWidth="1"/>
+    <col min="5643" max="5888" width="9.140625" style="30"/>
+    <col min="5889" max="5889" width="13.140625" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="21.85546875" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="29.28515625" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="34.42578125" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="19.28515625" style="30" customWidth="1"/>
+    <col min="5894" max="5894" width="8.140625" style="30" customWidth="1"/>
+    <col min="5895" max="5895" width="9.140625" style="30"/>
+    <col min="5896" max="5896" width="20.140625" style="30" customWidth="1"/>
+    <col min="5897" max="5897" width="9.42578125" style="30" customWidth="1"/>
     <col min="5898" max="5898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.125" style="30"/>
-    <col min="6145" max="6145" width="13.125" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="21.875" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="29.25" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="34.375" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="19.25" style="30" customWidth="1"/>
-    <col min="6150" max="6150" width="8.125" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="9.125" style="30"/>
-    <col min="6152" max="6152" width="20.125" style="30" customWidth="1"/>
-    <col min="6153" max="6153" width="9.375" style="30" customWidth="1"/>
+    <col min="5899" max="6144" width="9.140625" style="30"/>
+    <col min="6145" max="6145" width="13.140625" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="34.42578125" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6150" max="6150" width="8.140625" style="30" customWidth="1"/>
+    <col min="6151" max="6151" width="9.140625" style="30"/>
+    <col min="6152" max="6152" width="20.140625" style="30" customWidth="1"/>
+    <col min="6153" max="6153" width="9.42578125" style="30" customWidth="1"/>
     <col min="6154" max="6154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.125" style="30"/>
-    <col min="6401" max="6401" width="13.125" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="21.875" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="29.25" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="34.375" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="19.25" style="30" customWidth="1"/>
-    <col min="6406" max="6406" width="8.125" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="9.125" style="30"/>
-    <col min="6408" max="6408" width="20.125" style="30" customWidth="1"/>
-    <col min="6409" max="6409" width="9.375" style="30" customWidth="1"/>
+    <col min="6155" max="6400" width="9.140625" style="30"/>
+    <col min="6401" max="6401" width="13.140625" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="34.42578125" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6406" max="6406" width="8.140625" style="30" customWidth="1"/>
+    <col min="6407" max="6407" width="9.140625" style="30"/>
+    <col min="6408" max="6408" width="20.140625" style="30" customWidth="1"/>
+    <col min="6409" max="6409" width="9.42578125" style="30" customWidth="1"/>
     <col min="6410" max="6410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.125" style="30"/>
-    <col min="6657" max="6657" width="13.125" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="21.875" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="29.25" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="34.375" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="19.25" style="30" customWidth="1"/>
-    <col min="6662" max="6662" width="8.125" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="9.125" style="30"/>
-    <col min="6664" max="6664" width="20.125" style="30" customWidth="1"/>
-    <col min="6665" max="6665" width="9.375" style="30" customWidth="1"/>
+    <col min="6411" max="6656" width="9.140625" style="30"/>
+    <col min="6657" max="6657" width="13.140625" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="34.42578125" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6662" max="6662" width="8.140625" style="30" customWidth="1"/>
+    <col min="6663" max="6663" width="9.140625" style="30"/>
+    <col min="6664" max="6664" width="20.140625" style="30" customWidth="1"/>
+    <col min="6665" max="6665" width="9.42578125" style="30" customWidth="1"/>
     <col min="6666" max="6666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.125" style="30"/>
-    <col min="6913" max="6913" width="13.125" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="21.875" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="29.25" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="34.375" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="19.25" style="30" customWidth="1"/>
-    <col min="6918" max="6918" width="8.125" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="9.125" style="30"/>
-    <col min="6920" max="6920" width="20.125" style="30" customWidth="1"/>
-    <col min="6921" max="6921" width="9.375" style="30" customWidth="1"/>
+    <col min="6667" max="6912" width="9.140625" style="30"/>
+    <col min="6913" max="6913" width="13.140625" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="29.28515625" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="34.42578125" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="19.28515625" style="30" customWidth="1"/>
+    <col min="6918" max="6918" width="8.140625" style="30" customWidth="1"/>
+    <col min="6919" max="6919" width="9.140625" style="30"/>
+    <col min="6920" max="6920" width="20.140625" style="30" customWidth="1"/>
+    <col min="6921" max="6921" width="9.42578125" style="30" customWidth="1"/>
     <col min="6922" max="6922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.125" style="30"/>
-    <col min="7169" max="7169" width="13.125" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="21.875" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="29.25" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="34.375" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="19.25" style="30" customWidth="1"/>
-    <col min="7174" max="7174" width="8.125" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="9.125" style="30"/>
-    <col min="7176" max="7176" width="20.125" style="30" customWidth="1"/>
-    <col min="7177" max="7177" width="9.375" style="30" customWidth="1"/>
+    <col min="6923" max="7168" width="9.140625" style="30"/>
+    <col min="7169" max="7169" width="13.140625" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="34.42578125" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7174" max="7174" width="8.140625" style="30" customWidth="1"/>
+    <col min="7175" max="7175" width="9.140625" style="30"/>
+    <col min="7176" max="7176" width="20.140625" style="30" customWidth="1"/>
+    <col min="7177" max="7177" width="9.42578125" style="30" customWidth="1"/>
     <col min="7178" max="7178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.125" style="30"/>
-    <col min="7425" max="7425" width="13.125" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="21.875" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="29.25" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="34.375" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="19.25" style="30" customWidth="1"/>
-    <col min="7430" max="7430" width="8.125" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="9.125" style="30"/>
-    <col min="7432" max="7432" width="20.125" style="30" customWidth="1"/>
-    <col min="7433" max="7433" width="9.375" style="30" customWidth="1"/>
+    <col min="7179" max="7424" width="9.140625" style="30"/>
+    <col min="7425" max="7425" width="13.140625" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="34.42578125" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7430" max="7430" width="8.140625" style="30" customWidth="1"/>
+    <col min="7431" max="7431" width="9.140625" style="30"/>
+    <col min="7432" max="7432" width="20.140625" style="30" customWidth="1"/>
+    <col min="7433" max="7433" width="9.42578125" style="30" customWidth="1"/>
     <col min="7434" max="7434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.125" style="30"/>
-    <col min="7681" max="7681" width="13.125" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="21.875" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="29.25" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="34.375" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="19.25" style="30" customWidth="1"/>
-    <col min="7686" max="7686" width="8.125" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="9.125" style="30"/>
-    <col min="7688" max="7688" width="20.125" style="30" customWidth="1"/>
-    <col min="7689" max="7689" width="9.375" style="30" customWidth="1"/>
+    <col min="7435" max="7680" width="9.140625" style="30"/>
+    <col min="7681" max="7681" width="13.140625" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="34.42578125" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7686" max="7686" width="8.140625" style="30" customWidth="1"/>
+    <col min="7687" max="7687" width="9.140625" style="30"/>
+    <col min="7688" max="7688" width="20.140625" style="30" customWidth="1"/>
+    <col min="7689" max="7689" width="9.42578125" style="30" customWidth="1"/>
     <col min="7690" max="7690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.125" style="30"/>
-    <col min="7937" max="7937" width="13.125" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="21.875" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="29.25" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="34.375" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="19.25" style="30" customWidth="1"/>
-    <col min="7942" max="7942" width="8.125" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="9.125" style="30"/>
-    <col min="7944" max="7944" width="20.125" style="30" customWidth="1"/>
-    <col min="7945" max="7945" width="9.375" style="30" customWidth="1"/>
+    <col min="7691" max="7936" width="9.140625" style="30"/>
+    <col min="7937" max="7937" width="13.140625" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="21.85546875" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="29.28515625" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="34.42578125" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="19.28515625" style="30" customWidth="1"/>
+    <col min="7942" max="7942" width="8.140625" style="30" customWidth="1"/>
+    <col min="7943" max="7943" width="9.140625" style="30"/>
+    <col min="7944" max="7944" width="20.140625" style="30" customWidth="1"/>
+    <col min="7945" max="7945" width="9.42578125" style="30" customWidth="1"/>
     <col min="7946" max="7946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.125" style="30"/>
-    <col min="8193" max="8193" width="13.125" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="21.875" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="29.25" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="34.375" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="19.25" style="30" customWidth="1"/>
-    <col min="8198" max="8198" width="8.125" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="9.125" style="30"/>
-    <col min="8200" max="8200" width="20.125" style="30" customWidth="1"/>
-    <col min="8201" max="8201" width="9.375" style="30" customWidth="1"/>
+    <col min="7947" max="8192" width="9.140625" style="30"/>
+    <col min="8193" max="8193" width="13.140625" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="34.42578125" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8198" max="8198" width="8.140625" style="30" customWidth="1"/>
+    <col min="8199" max="8199" width="9.140625" style="30"/>
+    <col min="8200" max="8200" width="20.140625" style="30" customWidth="1"/>
+    <col min="8201" max="8201" width="9.42578125" style="30" customWidth="1"/>
     <col min="8202" max="8202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.125" style="30"/>
-    <col min="8449" max="8449" width="13.125" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="21.875" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="29.25" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="34.375" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="19.25" style="30" customWidth="1"/>
-    <col min="8454" max="8454" width="8.125" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="9.125" style="30"/>
-    <col min="8456" max="8456" width="20.125" style="30" customWidth="1"/>
-    <col min="8457" max="8457" width="9.375" style="30" customWidth="1"/>
+    <col min="8203" max="8448" width="9.140625" style="30"/>
+    <col min="8449" max="8449" width="13.140625" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="34.42578125" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8454" max="8454" width="8.140625" style="30" customWidth="1"/>
+    <col min="8455" max="8455" width="9.140625" style="30"/>
+    <col min="8456" max="8456" width="20.140625" style="30" customWidth="1"/>
+    <col min="8457" max="8457" width="9.42578125" style="30" customWidth="1"/>
     <col min="8458" max="8458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.125" style="30"/>
-    <col min="8705" max="8705" width="13.125" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="21.875" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="29.25" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="34.375" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="19.25" style="30" customWidth="1"/>
-    <col min="8710" max="8710" width="8.125" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="9.125" style="30"/>
-    <col min="8712" max="8712" width="20.125" style="30" customWidth="1"/>
-    <col min="8713" max="8713" width="9.375" style="30" customWidth="1"/>
+    <col min="8459" max="8704" width="9.140625" style="30"/>
+    <col min="8705" max="8705" width="13.140625" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="34.42578125" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8710" max="8710" width="8.140625" style="30" customWidth="1"/>
+    <col min="8711" max="8711" width="9.140625" style="30"/>
+    <col min="8712" max="8712" width="20.140625" style="30" customWidth="1"/>
+    <col min="8713" max="8713" width="9.42578125" style="30" customWidth="1"/>
     <col min="8714" max="8714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.125" style="30"/>
-    <col min="8961" max="8961" width="13.125" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="21.875" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="29.25" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="34.375" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="19.25" style="30" customWidth="1"/>
-    <col min="8966" max="8966" width="8.125" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="9.125" style="30"/>
-    <col min="8968" max="8968" width="20.125" style="30" customWidth="1"/>
-    <col min="8969" max="8969" width="9.375" style="30" customWidth="1"/>
+    <col min="8715" max="8960" width="9.140625" style="30"/>
+    <col min="8961" max="8961" width="13.140625" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="21.85546875" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="29.28515625" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="34.42578125" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="19.28515625" style="30" customWidth="1"/>
+    <col min="8966" max="8966" width="8.140625" style="30" customWidth="1"/>
+    <col min="8967" max="8967" width="9.140625" style="30"/>
+    <col min="8968" max="8968" width="20.140625" style="30" customWidth="1"/>
+    <col min="8969" max="8969" width="9.42578125" style="30" customWidth="1"/>
     <col min="8970" max="8970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.125" style="30"/>
-    <col min="9217" max="9217" width="13.125" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="21.875" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="29.25" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="34.375" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="19.25" style="30" customWidth="1"/>
-    <col min="9222" max="9222" width="8.125" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="9.125" style="30"/>
-    <col min="9224" max="9224" width="20.125" style="30" customWidth="1"/>
-    <col min="9225" max="9225" width="9.375" style="30" customWidth="1"/>
+    <col min="8971" max="9216" width="9.140625" style="30"/>
+    <col min="9217" max="9217" width="13.140625" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="34.42578125" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9222" max="9222" width="8.140625" style="30" customWidth="1"/>
+    <col min="9223" max="9223" width="9.140625" style="30"/>
+    <col min="9224" max="9224" width="20.140625" style="30" customWidth="1"/>
+    <col min="9225" max="9225" width="9.42578125" style="30" customWidth="1"/>
     <col min="9226" max="9226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.125" style="30"/>
-    <col min="9473" max="9473" width="13.125" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="21.875" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="29.25" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="34.375" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="19.25" style="30" customWidth="1"/>
-    <col min="9478" max="9478" width="8.125" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="9.125" style="30"/>
-    <col min="9480" max="9480" width="20.125" style="30" customWidth="1"/>
-    <col min="9481" max="9481" width="9.375" style="30" customWidth="1"/>
+    <col min="9227" max="9472" width="9.140625" style="30"/>
+    <col min="9473" max="9473" width="13.140625" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="34.42578125" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9478" max="9478" width="8.140625" style="30" customWidth="1"/>
+    <col min="9479" max="9479" width="9.140625" style="30"/>
+    <col min="9480" max="9480" width="20.140625" style="30" customWidth="1"/>
+    <col min="9481" max="9481" width="9.42578125" style="30" customWidth="1"/>
     <col min="9482" max="9482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.125" style="30"/>
-    <col min="9729" max="9729" width="13.125" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="21.875" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="29.25" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="34.375" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="19.25" style="30" customWidth="1"/>
-    <col min="9734" max="9734" width="8.125" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="9.125" style="30"/>
-    <col min="9736" max="9736" width="20.125" style="30" customWidth="1"/>
-    <col min="9737" max="9737" width="9.375" style="30" customWidth="1"/>
+    <col min="9483" max="9728" width="9.140625" style="30"/>
+    <col min="9729" max="9729" width="13.140625" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="34.42578125" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9734" max="9734" width="8.140625" style="30" customWidth="1"/>
+    <col min="9735" max="9735" width="9.140625" style="30"/>
+    <col min="9736" max="9736" width="20.140625" style="30" customWidth="1"/>
+    <col min="9737" max="9737" width="9.42578125" style="30" customWidth="1"/>
     <col min="9738" max="9738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.125" style="30"/>
-    <col min="9985" max="9985" width="13.125" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="21.875" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="29.25" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="34.375" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="19.25" style="30" customWidth="1"/>
-    <col min="9990" max="9990" width="8.125" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="9.125" style="30"/>
-    <col min="9992" max="9992" width="20.125" style="30" customWidth="1"/>
-    <col min="9993" max="9993" width="9.375" style="30" customWidth="1"/>
+    <col min="9739" max="9984" width="9.140625" style="30"/>
+    <col min="9985" max="9985" width="13.140625" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="21.85546875" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="29.28515625" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="34.42578125" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="19.28515625" style="30" customWidth="1"/>
+    <col min="9990" max="9990" width="8.140625" style="30" customWidth="1"/>
+    <col min="9991" max="9991" width="9.140625" style="30"/>
+    <col min="9992" max="9992" width="20.140625" style="30" customWidth="1"/>
+    <col min="9993" max="9993" width="9.42578125" style="30" customWidth="1"/>
     <col min="9994" max="9994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.125" style="30"/>
-    <col min="10241" max="10241" width="13.125" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="21.875" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="29.25" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="34.375" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="19.25" style="30" customWidth="1"/>
-    <col min="10246" max="10246" width="8.125" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="9.125" style="30"/>
-    <col min="10248" max="10248" width="20.125" style="30" customWidth="1"/>
-    <col min="10249" max="10249" width="9.375" style="30" customWidth="1"/>
+    <col min="9995" max="10240" width="9.140625" style="30"/>
+    <col min="10241" max="10241" width="13.140625" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="21.85546875" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="29.28515625" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="34.42578125" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="19.28515625" style="30" customWidth="1"/>
+    <col min="10246" max="10246" width="8.140625" style="30" customWidth="1"/>
+    <col min="10247" max="10247" width="9.140625" style="30"/>
+    <col min="10248" max="10248" width="20.140625" style="30" customWidth="1"/>
+    <col min="10249" max="10249" width="9.42578125" style="30" customWidth="1"/>
     <col min="10250" max="10250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.125" style="30"/>
-    <col min="10497" max="10497" width="13.125" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="21.875" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="29.25" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="34.375" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="19.25" style="30" customWidth="1"/>
-    <col min="10502" max="10502" width="8.125" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="9.125" style="30"/>
-    <col min="10504" max="10504" width="20.125" style="30" customWidth="1"/>
-    <col min="10505" max="10505" width="9.375" style="30" customWidth="1"/>
+    <col min="10251" max="10496" width="9.140625" style="30"/>
+    <col min="10497" max="10497" width="13.140625" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="21.85546875" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="29.28515625" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="34.42578125" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="19.28515625" style="30" customWidth="1"/>
+    <col min="10502" max="10502" width="8.140625" style="30" customWidth="1"/>
+    <col min="10503" max="10503" width="9.140625" style="30"/>
+    <col min="10504" max="10504" width="20.140625" style="30" customWidth="1"/>
+    <col min="10505" max="10505" width="9.42578125" style="30" customWidth="1"/>
     <col min="10506" max="10506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.125" style="30"/>
-    <col min="10753" max="10753" width="13.125" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="21.875" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="29.25" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="34.375" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="19.25" style="30" customWidth="1"/>
-    <col min="10758" max="10758" width="8.125" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="9.125" style="30"/>
-    <col min="10760" max="10760" width="20.125" style="30" customWidth="1"/>
-    <col min="10761" max="10761" width="9.375" style="30" customWidth="1"/>
+    <col min="10507" max="10752" width="9.140625" style="30"/>
+    <col min="10753" max="10753" width="13.140625" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="21.85546875" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="29.28515625" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="34.42578125" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="19.28515625" style="30" customWidth="1"/>
+    <col min="10758" max="10758" width="8.140625" style="30" customWidth="1"/>
+    <col min="10759" max="10759" width="9.140625" style="30"/>
+    <col min="10760" max="10760" width="20.140625" style="30" customWidth="1"/>
+    <col min="10761" max="10761" width="9.42578125" style="30" customWidth="1"/>
     <col min="10762" max="10762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.125" style="30"/>
-    <col min="11009" max="11009" width="13.125" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="21.875" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="29.25" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="34.375" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="19.25" style="30" customWidth="1"/>
-    <col min="11014" max="11014" width="8.125" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="9.125" style="30"/>
-    <col min="11016" max="11016" width="20.125" style="30" customWidth="1"/>
-    <col min="11017" max="11017" width="9.375" style="30" customWidth="1"/>
+    <col min="10763" max="11008" width="9.140625" style="30"/>
+    <col min="11009" max="11009" width="13.140625" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="34.42578125" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11014" max="11014" width="8.140625" style="30" customWidth="1"/>
+    <col min="11015" max="11015" width="9.140625" style="30"/>
+    <col min="11016" max="11016" width="20.140625" style="30" customWidth="1"/>
+    <col min="11017" max="11017" width="9.42578125" style="30" customWidth="1"/>
     <col min="11018" max="11018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.125" style="30"/>
-    <col min="11265" max="11265" width="13.125" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="21.875" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="29.25" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="34.375" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="19.25" style="30" customWidth="1"/>
-    <col min="11270" max="11270" width="8.125" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="9.125" style="30"/>
-    <col min="11272" max="11272" width="20.125" style="30" customWidth="1"/>
-    <col min="11273" max="11273" width="9.375" style="30" customWidth="1"/>
+    <col min="11019" max="11264" width="9.140625" style="30"/>
+    <col min="11265" max="11265" width="13.140625" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="34.42578125" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11270" max="11270" width="8.140625" style="30" customWidth="1"/>
+    <col min="11271" max="11271" width="9.140625" style="30"/>
+    <col min="11272" max="11272" width="20.140625" style="30" customWidth="1"/>
+    <col min="11273" max="11273" width="9.42578125" style="30" customWidth="1"/>
     <col min="11274" max="11274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.125" style="30"/>
-    <col min="11521" max="11521" width="13.125" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="21.875" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="29.25" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="34.375" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="19.25" style="30" customWidth="1"/>
-    <col min="11526" max="11526" width="8.125" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="9.125" style="30"/>
-    <col min="11528" max="11528" width="20.125" style="30" customWidth="1"/>
-    <col min="11529" max="11529" width="9.375" style="30" customWidth="1"/>
+    <col min="11275" max="11520" width="9.140625" style="30"/>
+    <col min="11521" max="11521" width="13.140625" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="34.42578125" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11526" max="11526" width="8.140625" style="30" customWidth="1"/>
+    <col min="11527" max="11527" width="9.140625" style="30"/>
+    <col min="11528" max="11528" width="20.140625" style="30" customWidth="1"/>
+    <col min="11529" max="11529" width="9.42578125" style="30" customWidth="1"/>
     <col min="11530" max="11530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.125" style="30"/>
-    <col min="11777" max="11777" width="13.125" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="21.875" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="29.25" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="34.375" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="19.25" style="30" customWidth="1"/>
-    <col min="11782" max="11782" width="8.125" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="9.125" style="30"/>
-    <col min="11784" max="11784" width="20.125" style="30" customWidth="1"/>
-    <col min="11785" max="11785" width="9.375" style="30" customWidth="1"/>
+    <col min="11531" max="11776" width="9.140625" style="30"/>
+    <col min="11777" max="11777" width="13.140625" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="21.85546875" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="29.28515625" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="34.42578125" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="19.28515625" style="30" customWidth="1"/>
+    <col min="11782" max="11782" width="8.140625" style="30" customWidth="1"/>
+    <col min="11783" max="11783" width="9.140625" style="30"/>
+    <col min="11784" max="11784" width="20.140625" style="30" customWidth="1"/>
+    <col min="11785" max="11785" width="9.42578125" style="30" customWidth="1"/>
     <col min="11786" max="11786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.125" style="30"/>
-    <col min="12033" max="12033" width="13.125" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="21.875" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="29.25" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="34.375" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="19.25" style="30" customWidth="1"/>
-    <col min="12038" max="12038" width="8.125" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="9.125" style="30"/>
-    <col min="12040" max="12040" width="20.125" style="30" customWidth="1"/>
-    <col min="12041" max="12041" width="9.375" style="30" customWidth="1"/>
+    <col min="11787" max="12032" width="9.140625" style="30"/>
+    <col min="12033" max="12033" width="13.140625" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="34.42578125" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12038" max="12038" width="8.140625" style="30" customWidth="1"/>
+    <col min="12039" max="12039" width="9.140625" style="30"/>
+    <col min="12040" max="12040" width="20.140625" style="30" customWidth="1"/>
+    <col min="12041" max="12041" width="9.42578125" style="30" customWidth="1"/>
     <col min="12042" max="12042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.125" style="30"/>
-    <col min="12289" max="12289" width="13.125" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="21.875" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="29.25" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="34.375" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="19.25" style="30" customWidth="1"/>
-    <col min="12294" max="12294" width="8.125" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="9.125" style="30"/>
-    <col min="12296" max="12296" width="20.125" style="30" customWidth="1"/>
-    <col min="12297" max="12297" width="9.375" style="30" customWidth="1"/>
+    <col min="12043" max="12288" width="9.140625" style="30"/>
+    <col min="12289" max="12289" width="13.140625" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="34.42578125" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12294" max="12294" width="8.140625" style="30" customWidth="1"/>
+    <col min="12295" max="12295" width="9.140625" style="30"/>
+    <col min="12296" max="12296" width="20.140625" style="30" customWidth="1"/>
+    <col min="12297" max="12297" width="9.42578125" style="30" customWidth="1"/>
     <col min="12298" max="12298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.125" style="30"/>
-    <col min="12545" max="12545" width="13.125" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="21.875" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="29.25" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="34.375" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="19.25" style="30" customWidth="1"/>
-    <col min="12550" max="12550" width="8.125" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="9.125" style="30"/>
-    <col min="12552" max="12552" width="20.125" style="30" customWidth="1"/>
-    <col min="12553" max="12553" width="9.375" style="30" customWidth="1"/>
+    <col min="12299" max="12544" width="9.140625" style="30"/>
+    <col min="12545" max="12545" width="13.140625" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="34.42578125" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12550" max="12550" width="8.140625" style="30" customWidth="1"/>
+    <col min="12551" max="12551" width="9.140625" style="30"/>
+    <col min="12552" max="12552" width="20.140625" style="30" customWidth="1"/>
+    <col min="12553" max="12553" width="9.42578125" style="30" customWidth="1"/>
     <col min="12554" max="12554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.125" style="30"/>
-    <col min="12801" max="12801" width="13.125" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="21.875" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="29.25" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="34.375" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="19.25" style="30" customWidth="1"/>
-    <col min="12806" max="12806" width="8.125" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="9.125" style="30"/>
-    <col min="12808" max="12808" width="20.125" style="30" customWidth="1"/>
-    <col min="12809" max="12809" width="9.375" style="30" customWidth="1"/>
+    <col min="12555" max="12800" width="9.140625" style="30"/>
+    <col min="12801" max="12801" width="13.140625" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="21.85546875" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="29.28515625" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="34.42578125" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12806" max="12806" width="8.140625" style="30" customWidth="1"/>
+    <col min="12807" max="12807" width="9.140625" style="30"/>
+    <col min="12808" max="12808" width="20.140625" style="30" customWidth="1"/>
+    <col min="12809" max="12809" width="9.42578125" style="30" customWidth="1"/>
     <col min="12810" max="12810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.125" style="30"/>
-    <col min="13057" max="13057" width="13.125" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="21.875" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="29.25" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="34.375" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="19.25" style="30" customWidth="1"/>
-    <col min="13062" max="13062" width="8.125" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="9.125" style="30"/>
-    <col min="13064" max="13064" width="20.125" style="30" customWidth="1"/>
-    <col min="13065" max="13065" width="9.375" style="30" customWidth="1"/>
+    <col min="12811" max="13056" width="9.140625" style="30"/>
+    <col min="13057" max="13057" width="13.140625" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="34.42578125" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13062" max="13062" width="8.140625" style="30" customWidth="1"/>
+    <col min="13063" max="13063" width="9.140625" style="30"/>
+    <col min="13064" max="13064" width="20.140625" style="30" customWidth="1"/>
+    <col min="13065" max="13065" width="9.42578125" style="30" customWidth="1"/>
     <col min="13066" max="13066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.125" style="30"/>
-    <col min="13313" max="13313" width="13.125" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="21.875" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="29.25" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="34.375" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="19.25" style="30" customWidth="1"/>
-    <col min="13318" max="13318" width="8.125" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="9.125" style="30"/>
-    <col min="13320" max="13320" width="20.125" style="30" customWidth="1"/>
-    <col min="13321" max="13321" width="9.375" style="30" customWidth="1"/>
+    <col min="13067" max="13312" width="9.140625" style="30"/>
+    <col min="13313" max="13313" width="13.140625" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="34.42578125" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13318" max="13318" width="8.140625" style="30" customWidth="1"/>
+    <col min="13319" max="13319" width="9.140625" style="30"/>
+    <col min="13320" max="13320" width="20.140625" style="30" customWidth="1"/>
+    <col min="13321" max="13321" width="9.42578125" style="30" customWidth="1"/>
     <col min="13322" max="13322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.125" style="30"/>
-    <col min="13569" max="13569" width="13.125" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="21.875" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="29.25" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="34.375" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="19.25" style="30" customWidth="1"/>
-    <col min="13574" max="13574" width="8.125" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="9.125" style="30"/>
-    <col min="13576" max="13576" width="20.125" style="30" customWidth="1"/>
-    <col min="13577" max="13577" width="9.375" style="30" customWidth="1"/>
+    <col min="13323" max="13568" width="9.140625" style="30"/>
+    <col min="13569" max="13569" width="13.140625" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="34.42578125" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13574" max="13574" width="8.140625" style="30" customWidth="1"/>
+    <col min="13575" max="13575" width="9.140625" style="30"/>
+    <col min="13576" max="13576" width="20.140625" style="30" customWidth="1"/>
+    <col min="13577" max="13577" width="9.42578125" style="30" customWidth="1"/>
     <col min="13578" max="13578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.125" style="30"/>
-    <col min="13825" max="13825" width="13.125" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="21.875" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="29.25" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="34.375" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="19.25" style="30" customWidth="1"/>
-    <col min="13830" max="13830" width="8.125" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="9.125" style="30"/>
-    <col min="13832" max="13832" width="20.125" style="30" customWidth="1"/>
-    <col min="13833" max="13833" width="9.375" style="30" customWidth="1"/>
+    <col min="13579" max="13824" width="9.140625" style="30"/>
+    <col min="13825" max="13825" width="13.140625" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="21.85546875" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="29.28515625" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="34.42578125" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="19.28515625" style="30" customWidth="1"/>
+    <col min="13830" max="13830" width="8.140625" style="30" customWidth="1"/>
+    <col min="13831" max="13831" width="9.140625" style="30"/>
+    <col min="13832" max="13832" width="20.140625" style="30" customWidth="1"/>
+    <col min="13833" max="13833" width="9.42578125" style="30" customWidth="1"/>
     <col min="13834" max="13834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.125" style="30"/>
-    <col min="14081" max="14081" width="13.125" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="21.875" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="29.25" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="34.375" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="19.25" style="30" customWidth="1"/>
-    <col min="14086" max="14086" width="8.125" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="9.125" style="30"/>
-    <col min="14088" max="14088" width="20.125" style="30" customWidth="1"/>
-    <col min="14089" max="14089" width="9.375" style="30" customWidth="1"/>
+    <col min="13835" max="14080" width="9.140625" style="30"/>
+    <col min="14081" max="14081" width="13.140625" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="34.42578125" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14086" max="14086" width="8.140625" style="30" customWidth="1"/>
+    <col min="14087" max="14087" width="9.140625" style="30"/>
+    <col min="14088" max="14088" width="20.140625" style="30" customWidth="1"/>
+    <col min="14089" max="14089" width="9.42578125" style="30" customWidth="1"/>
     <col min="14090" max="14090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.125" style="30"/>
-    <col min="14337" max="14337" width="13.125" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="21.875" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="29.25" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="34.375" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="19.25" style="30" customWidth="1"/>
-    <col min="14342" max="14342" width="8.125" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="9.125" style="30"/>
-    <col min="14344" max="14344" width="20.125" style="30" customWidth="1"/>
-    <col min="14345" max="14345" width="9.375" style="30" customWidth="1"/>
+    <col min="14091" max="14336" width="9.140625" style="30"/>
+    <col min="14337" max="14337" width="13.140625" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="34.42578125" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14342" max="14342" width="8.140625" style="30" customWidth="1"/>
+    <col min="14343" max="14343" width="9.140625" style="30"/>
+    <col min="14344" max="14344" width="20.140625" style="30" customWidth="1"/>
+    <col min="14345" max="14345" width="9.42578125" style="30" customWidth="1"/>
     <col min="14346" max="14346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.125" style="30"/>
-    <col min="14593" max="14593" width="13.125" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="21.875" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="29.25" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="34.375" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="19.25" style="30" customWidth="1"/>
-    <col min="14598" max="14598" width="8.125" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="9.125" style="30"/>
-    <col min="14600" max="14600" width="20.125" style="30" customWidth="1"/>
-    <col min="14601" max="14601" width="9.375" style="30" customWidth="1"/>
+    <col min="14347" max="14592" width="9.140625" style="30"/>
+    <col min="14593" max="14593" width="13.140625" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="34.42578125" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14598" max="14598" width="8.140625" style="30" customWidth="1"/>
+    <col min="14599" max="14599" width="9.140625" style="30"/>
+    <col min="14600" max="14600" width="20.140625" style="30" customWidth="1"/>
+    <col min="14601" max="14601" width="9.42578125" style="30" customWidth="1"/>
     <col min="14602" max="14602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.125" style="30"/>
-    <col min="14849" max="14849" width="13.125" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="21.875" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="29.25" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="34.375" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="19.25" style="30" customWidth="1"/>
-    <col min="14854" max="14854" width="8.125" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="9.125" style="30"/>
-    <col min="14856" max="14856" width="20.125" style="30" customWidth="1"/>
-    <col min="14857" max="14857" width="9.375" style="30" customWidth="1"/>
+    <col min="14603" max="14848" width="9.140625" style="30"/>
+    <col min="14849" max="14849" width="13.140625" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="21.85546875" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="29.28515625" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="34.42578125" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="19.28515625" style="30" customWidth="1"/>
+    <col min="14854" max="14854" width="8.140625" style="30" customWidth="1"/>
+    <col min="14855" max="14855" width="9.140625" style="30"/>
+    <col min="14856" max="14856" width="20.140625" style="30" customWidth="1"/>
+    <col min="14857" max="14857" width="9.42578125" style="30" customWidth="1"/>
     <col min="14858" max="14858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.125" style="30"/>
-    <col min="15105" max="15105" width="13.125" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="21.875" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="29.25" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="34.375" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="19.25" style="30" customWidth="1"/>
-    <col min="15110" max="15110" width="8.125" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="9.125" style="30"/>
-    <col min="15112" max="15112" width="20.125" style="30" customWidth="1"/>
-    <col min="15113" max="15113" width="9.375" style="30" customWidth="1"/>
+    <col min="14859" max="15104" width="9.140625" style="30"/>
+    <col min="15105" max="15105" width="13.140625" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="34.42578125" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15110" max="15110" width="8.140625" style="30" customWidth="1"/>
+    <col min="15111" max="15111" width="9.140625" style="30"/>
+    <col min="15112" max="15112" width="20.140625" style="30" customWidth="1"/>
+    <col min="15113" max="15113" width="9.42578125" style="30" customWidth="1"/>
     <col min="15114" max="15114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.125" style="30"/>
-    <col min="15361" max="15361" width="13.125" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="21.875" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="29.25" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="34.375" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="19.25" style="30" customWidth="1"/>
-    <col min="15366" max="15366" width="8.125" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="9.125" style="30"/>
-    <col min="15368" max="15368" width="20.125" style="30" customWidth="1"/>
-    <col min="15369" max="15369" width="9.375" style="30" customWidth="1"/>
+    <col min="15115" max="15360" width="9.140625" style="30"/>
+    <col min="15361" max="15361" width="13.140625" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="34.42578125" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15366" max="15366" width="8.140625" style="30" customWidth="1"/>
+    <col min="15367" max="15367" width="9.140625" style="30"/>
+    <col min="15368" max="15368" width="20.140625" style="30" customWidth="1"/>
+    <col min="15369" max="15369" width="9.42578125" style="30" customWidth="1"/>
     <col min="15370" max="15370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.125" style="30"/>
-    <col min="15617" max="15617" width="13.125" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="21.875" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="29.25" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="34.375" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="19.25" style="30" customWidth="1"/>
-    <col min="15622" max="15622" width="8.125" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="9.125" style="30"/>
-    <col min="15624" max="15624" width="20.125" style="30" customWidth="1"/>
-    <col min="15625" max="15625" width="9.375" style="30" customWidth="1"/>
+    <col min="15371" max="15616" width="9.140625" style="30"/>
+    <col min="15617" max="15617" width="13.140625" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="34.42578125" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15622" max="15622" width="8.140625" style="30" customWidth="1"/>
+    <col min="15623" max="15623" width="9.140625" style="30"/>
+    <col min="15624" max="15624" width="20.140625" style="30" customWidth="1"/>
+    <col min="15625" max="15625" width="9.42578125" style="30" customWidth="1"/>
     <col min="15626" max="15626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.125" style="30"/>
-    <col min="15873" max="15873" width="13.125" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="21.875" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="29.25" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="34.375" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="19.25" style="30" customWidth="1"/>
-    <col min="15878" max="15878" width="8.125" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="9.125" style="30"/>
-    <col min="15880" max="15880" width="20.125" style="30" customWidth="1"/>
-    <col min="15881" max="15881" width="9.375" style="30" customWidth="1"/>
+    <col min="15627" max="15872" width="9.140625" style="30"/>
+    <col min="15873" max="15873" width="13.140625" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="21.85546875" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="29.28515625" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="34.42578125" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="19.28515625" style="30" customWidth="1"/>
+    <col min="15878" max="15878" width="8.140625" style="30" customWidth="1"/>
+    <col min="15879" max="15879" width="9.140625" style="30"/>
+    <col min="15880" max="15880" width="20.140625" style="30" customWidth="1"/>
+    <col min="15881" max="15881" width="9.42578125" style="30" customWidth="1"/>
     <col min="15882" max="15882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.125" style="30"/>
-    <col min="16129" max="16129" width="13.125" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="21.875" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="29.25" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="34.375" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="19.25" style="30" customWidth="1"/>
-    <col min="16134" max="16134" width="8.125" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="9.125" style="30"/>
-    <col min="16136" max="16136" width="20.125" style="30" customWidth="1"/>
-    <col min="16137" max="16137" width="9.375" style="30" customWidth="1"/>
+    <col min="15883" max="16128" width="9.140625" style="30"/>
+    <col min="16129" max="16129" width="13.140625" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="21.85546875" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="29.28515625" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="34.42578125" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="19.28515625" style="30" customWidth="1"/>
+    <col min="16134" max="16134" width="8.140625" style="30" customWidth="1"/>
+    <col min="16135" max="16135" width="9.140625" style="30"/>
+    <col min="16136" max="16136" width="20.140625" style="30" customWidth="1"/>
+    <col min="16137" max="16137" width="9.42578125" style="30" customWidth="1"/>
     <col min="16138" max="16138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.125" style="30"/>
+    <col min="16139" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6330,7 +6332,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
@@ -6380,7 +6382,7 @@
       <c r="I4" s="66"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
         <f>COUNTIF(F97:F1005,"Pass")</f>
         <v>0</v>
@@ -6433,7 +6435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -6441,7 +6443,7 @@
       <c r="H7" s="80"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
@@ -6468,7 +6470,7 @@
       </c>
       <c r="I8" s="83"/>
     </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
         <v>145</v>
@@ -6483,9 +6485,9 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" s="104" customFormat="1" ht="37.5" customHeight="1">
+    <row r="10" spans="1:11" s="104" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B10" s="93" t="s">
         <v>121</v>
@@ -6504,12 +6506,12 @@
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="52.5" customHeight="1">
+    <row r="11" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>123</v>
@@ -6518,15 +6520,15 @@
         <v>134</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
       <c r="H11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25">
+    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="93" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>124</v>
@@ -6538,15 +6540,15 @@
         <v>135</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="94"/>
     </row>
-    <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1">
+    <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="93" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B13" s="93" t="s">
         <v>126</v>
@@ -6558,7 +6560,7 @@
         <v>135</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
@@ -6567,9 +6569,9 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25">
+    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="93" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B14" s="93" t="s">
         <v>128</v>
@@ -6581,15 +6583,15 @@
         <v>136</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
       <c r="H14" s="94"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25">
+    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="93" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>132</v>
@@ -6601,15 +6603,15 @@
         <v>137</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25">
+    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>131</v>
@@ -6621,15 +6623,15 @@
         <v>142</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="94"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25">
+    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>143</v>
@@ -6641,35 +6643,35 @@
         <v>144</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
-    <row r="18" spans="1:9" ht="38.25">
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>129</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
       <c r="H18" s="94"/>
     </row>
-    <row r="19" spans="1:9" ht="38.25">
+    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>146</v>
@@ -6681,15 +6683,15 @@
         <v>144</v>
       </c>
       <c r="E19" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="38.25">
+    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="93" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>148</v>
@@ -6701,15 +6703,15 @@
         <v>144</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:9" ht="38.25">
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="93" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>150</v>
@@ -6721,15 +6723,15 @@
         <v>144</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
       <c r="H21" s="94"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25">
+    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B22" s="93" t="s">
         <v>152</v>
@@ -6741,15 +6743,15 @@
         <v>144</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
-    <row r="23" spans="1:9" ht="38.25">
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="93" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B23" s="93" t="s">
         <v>154</v>
@@ -6761,15 +6763,15 @@
         <v>144</v>
       </c>
       <c r="E23" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="1:9" ht="38.25">
+    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B24" s="93" t="s">
         <v>156</v>
@@ -6781,15 +6783,15 @@
         <v>144</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
-    <row r="25" spans="1:9" ht="51">
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="93" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B25" s="93" t="s">
         <v>158</v>
@@ -6801,15 +6803,15 @@
         <v>160</v>
       </c>
       <c r="E25" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
-    <row r="26" spans="1:9" ht="38.25">
+    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="93" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B26" s="93" t="s">
         <v>161</v>
@@ -6821,15 +6823,15 @@
         <v>136</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
-    <row r="27" spans="1:9" ht="51">
+    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B27" s="93" t="s">
         <v>162</v>
@@ -6841,15 +6843,15 @@
         <v>163</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:9" ht="38.25">
+    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="93" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B28" s="93" t="s">
         <v>167</v>
@@ -6861,15 +6863,15 @@
         <v>136</v>
       </c>
       <c r="E28" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
-    <row r="29" spans="1:9" ht="38.25">
+    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="93" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B29" s="93" t="s">
         <v>166</v>
@@ -6881,13 +6883,13 @@
         <v>164</v>
       </c>
       <c r="E29" s="93" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="84"/>
       <c r="B30" s="84" t="s">
         <v>168</v>
@@ -6900,9 +6902,9 @@
       <c r="H30" s="86"/>
       <c r="I30" s="87"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5">
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="93" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B31" s="93" t="s">
         <v>169</v>
@@ -6918,9 +6920,9 @@
       <c r="G31" s="93"/>
       <c r="H31" s="94"/>
     </row>
-    <row r="32" spans="1:9" ht="25.5">
+    <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>172</v>
@@ -6932,13 +6934,13 @@
         <v>174</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
       <c r="H32" s="94"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="84"/>
       <c r="B33" s="84" t="s">
         <v>175</v>
@@ -6951,9 +6953,9 @@
       <c r="H33" s="86"/>
       <c r="I33" s="87"/>
     </row>
-    <row r="34" spans="1:9" ht="53.25" customHeight="1">
+    <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B34" s="93" t="s">
         <v>176</v>
@@ -6962,16 +6964,16 @@
         <v>177</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E34" s="93"/>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
       <c r="H34" s="94"/>
     </row>
-    <row r="35" spans="1:9" ht="45.75" customHeight="1">
+    <row r="35" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="93" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>195</v>
@@ -6983,15 +6985,15 @@
         <v>180</v>
       </c>
       <c r="E35" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="94"/>
     </row>
-    <row r="36" spans="1:9" ht="38.25">
+    <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B36" s="93" t="s">
         <v>196</v>
@@ -7003,15 +7005,15 @@
         <v>180</v>
       </c>
       <c r="E36" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
       <c r="H36" s="94"/>
     </row>
-    <row r="37" spans="1:9" ht="38.25">
+    <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="93" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B37" s="93" t="s">
         <v>197</v>
@@ -7023,15 +7025,15 @@
         <v>180</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
     </row>
-    <row r="38" spans="1:9" ht="38.25">
+    <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="93" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B38" s="93" t="s">
         <v>198</v>
@@ -7043,15 +7045,15 @@
         <v>180</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
     </row>
-    <row r="39" spans="1:9" ht="38.25">
+    <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="93" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B39" s="93" t="s">
         <v>178</v>
@@ -7063,15 +7065,15 @@
         <v>180</v>
       </c>
       <c r="E39" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="94"/>
     </row>
-    <row r="40" spans="1:9" ht="38.25">
+    <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="93" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B40" s="93" t="s">
         <v>199</v>
@@ -7083,15 +7085,15 @@
         <v>180</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
       <c r="H40" s="94"/>
     </row>
-    <row r="41" spans="1:9" ht="38.25">
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="93" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B41" s="93" t="s">
         <v>185</v>
@@ -7103,15 +7105,15 @@
         <v>192</v>
       </c>
       <c r="E41" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
       <c r="H41" s="94"/>
     </row>
-    <row r="42" spans="1:9" ht="38.25">
+    <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="93" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B42" s="93" t="s">
         <v>186</v>
@@ -7123,18 +7125,18 @@
         <v>194</v>
       </c>
       <c r="E42" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
       <c r="H42" s="94"/>
     </row>
-    <row r="43" spans="1:9" ht="38.25">
+    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="93" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>200</v>
@@ -7143,15 +7145,15 @@
         <v>201</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
       <c r="H43" s="94"/>
     </row>
-    <row r="44" spans="1:9" ht="63.75">
+    <row r="44" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="93" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B44" s="93" t="s">
         <v>202</v>
@@ -7163,15 +7165,15 @@
         <v>204</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
       <c r="H44" s="94"/>
     </row>
-    <row r="45" spans="1:9" ht="63.75">
+    <row r="45" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A45" s="93" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B45" s="93" t="s">
         <v>205</v>
@@ -7183,15 +7185,15 @@
         <v>207</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
       <c r="H45" s="94"/>
     </row>
-    <row r="46" spans="1:9" ht="63.75">
+    <row r="46" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B46" s="93" t="s">
         <v>208</v>
@@ -7203,15 +7205,15 @@
         <v>210</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
       <c r="H46" s="94"/>
     </row>
-    <row r="47" spans="1:9" ht="63.75">
+    <row r="47" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B47" s="93" t="s">
         <v>211</v>
@@ -7223,15 +7225,15 @@
         <v>213</v>
       </c>
       <c r="E47" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
       <c r="H47" s="94"/>
     </row>
-    <row r="48" spans="1:9" ht="63.75">
+    <row r="48" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A48" s="93" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B48" s="93" t="s">
         <v>214</v>
@@ -7243,15 +7245,15 @@
         <v>216</v>
       </c>
       <c r="E48" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
       <c r="H48" s="94"/>
     </row>
-    <row r="49" spans="1:8" ht="63.75">
+    <row r="49" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A49" s="93" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B49" s="93" t="s">
         <v>217</v>
@@ -7263,296 +7265,296 @@
         <v>219</v>
       </c>
       <c r="E49" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
       <c r="H49" s="94"/>
     </row>
-    <row r="50" spans="1:8" ht="51">
+    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="93" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B50" s="93" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C50" s="93" t="s">
         <v>220</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E50" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
       <c r="H50" s="94"/>
     </row>
-    <row r="51" spans="1:8" ht="51">
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="93" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B51" s="93" t="s">
         <v>221</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
       <c r="H51" s="94"/>
     </row>
-    <row r="52" spans="1:8" ht="51">
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="93" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B52" s="93" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
       <c r="H52" s="94"/>
     </row>
-    <row r="53" spans="1:8" ht="51">
+    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="93" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="D53" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E53" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
       <c r="H53" s="94"/>
     </row>
-    <row r="54" spans="1:8" ht="51">
+    <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="93" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="D54" s="93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E54" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
       <c r="H54" s="94"/>
     </row>
-    <row r="55" spans="1:8" ht="51">
+    <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="93" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B55" s="93" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E55" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F55" s="93"/>
       <c r="G55" s="93"/>
       <c r="H55" s="94"/>
     </row>
-    <row r="56" spans="1:8" ht="51">
+    <row r="56" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A56" s="93" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B56" s="93" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C56" s="93" t="s">
-        <v>361</v>
+        <v>438</v>
       </c>
       <c r="D56" s="93" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E56" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F56" s="93"/>
       <c r="G56" s="93"/>
       <c r="H56" s="94"/>
     </row>
-    <row r="57" spans="1:8" ht="51">
+    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="93" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B57" s="93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C57" s="93" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="D57" s="93" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E57" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
       <c r="H57" s="94"/>
     </row>
-    <row r="58" spans="1:8" ht="51">
+    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="93" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B58" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="93" t="s">
-        <v>240</v>
-      </c>
       <c r="E58" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F58" s="93"/>
       <c r="G58" s="93"/>
       <c r="H58" s="94"/>
     </row>
-    <row r="59" spans="1:8" ht="51">
+    <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="93" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B59" s="93" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>238</v>
+        <v>435</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
       <c r="H59" s="94"/>
     </row>
-    <row r="60" spans="1:8" ht="38.25">
+    <row r="60" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="93" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B60" s="93" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
       <c r="D60" s="93" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E60" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
       <c r="H60" s="94"/>
     </row>
-    <row r="61" spans="1:8" ht="51">
+    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="93" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B61" s="93" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="93"/>
       <c r="H61" s="94"/>
     </row>
-    <row r="62" spans="1:8" ht="51">
+    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="93" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>247</v>
+        <v>432</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
       <c r="H62" s="94"/>
     </row>
-    <row r="63" spans="1:8" ht="57.75" customHeight="1">
+    <row r="63" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="93" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D63" s="93" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E63" s="93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F63" s="93"/>
       <c r="G63" s="137"/>
       <c r="H63" s="138"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="84"/>
       <c r="B64" s="84" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C64" s="85"/>
       <c r="D64" s="85"/>
@@ -7561,548 +7563,548 @@
       <c r="G64" s="85"/>
       <c r="H64" s="86"/>
     </row>
-    <row r="65" spans="1:8" ht="107.25" customHeight="1">
+    <row r="65" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B65" s="93" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C65" s="93" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D65" s="93" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E65" s="93"/>
       <c r="F65" s="93"/>
       <c r="G65" s="93"/>
       <c r="H65" s="94"/>
     </row>
-    <row r="66" spans="1:8" ht="51">
+    <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A66" s="93" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B66" s="93" t="s">
         <v>198</v>
       </c>
       <c r="C66" s="93" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
       <c r="H66" s="94"/>
     </row>
-    <row r="67" spans="1:8" ht="51">
+    <row r="67" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A67" s="93" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
       <c r="H67" s="94"/>
     </row>
-    <row r="68" spans="1:8" ht="51">
+    <row r="68" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A68" s="93" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E68" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F68" s="93"/>
       <c r="G68" s="93"/>
       <c r="H68" s="94"/>
     </row>
-    <row r="69" spans="1:8" ht="63.75">
+    <row r="69" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A69" s="93" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="H69" s="94"/>
     </row>
-    <row r="70" spans="1:8" ht="51">
+    <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="93" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B70" s="93" t="s">
         <v>178</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
       <c r="H70" s="94"/>
     </row>
-    <row r="71" spans="1:8" ht="51">
+    <row r="71" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A71" s="93" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B71" s="93" t="s">
         <v>199</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E71" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F71" s="93"/>
       <c r="G71" s="93"/>
       <c r="H71" s="94"/>
     </row>
-    <row r="72" spans="1:8" ht="51">
+    <row r="72" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="93" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E72" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F72" s="93"/>
       <c r="G72" s="93"/>
       <c r="H72" s="94"/>
     </row>
-    <row r="73" spans="1:8" ht="76.5">
+    <row r="73" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A73" s="93" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B73" s="93" t="s">
         <v>211</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F73" s="93"/>
       <c r="G73" s="93"/>
       <c r="H73" s="94"/>
     </row>
-    <row r="74" spans="1:8" ht="76.5">
+    <row r="74" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A74" s="93" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E74" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
       <c r="H74" s="94"/>
     </row>
-    <row r="75" spans="1:8" ht="76.5">
+    <row r="75" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A75" s="93" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E75" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F75" s="93"/>
       <c r="G75" s="93"/>
       <c r="H75" s="94"/>
     </row>
-    <row r="76" spans="1:8" ht="76.5">
+    <row r="76" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="93" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E76" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
       <c r="H76" s="94"/>
     </row>
-    <row r="77" spans="1:8" ht="76.5">
+    <row r="77" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A77" s="93" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B77" s="93" t="s">
         <v>214</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E77" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F77" s="93"/>
       <c r="G77" s="93"/>
       <c r="H77" s="94"/>
     </row>
-    <row r="78" spans="1:8" ht="76.5">
+    <row r="78" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A78" s="93" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B78" s="93" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F78" s="93"/>
       <c r="G78" s="93"/>
       <c r="H78" s="94"/>
     </row>
-    <row r="79" spans="1:8" ht="63.75">
+    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A79" s="93" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E79" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F79" s="93"/>
       <c r="G79" s="93"/>
       <c r="H79" s="94"/>
     </row>
-    <row r="80" spans="1:8" ht="63.75">
+    <row r="80" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A80" s="93" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F80" s="93"/>
       <c r="G80" s="93"/>
       <c r="H80" s="94"/>
     </row>
-    <row r="81" spans="1:8" ht="63.75">
+    <row r="81" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A81" s="93" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E81" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F81" s="93"/>
       <c r="G81" s="93"/>
       <c r="H81" s="94"/>
     </row>
-    <row r="82" spans="1:8" ht="63.75">
+    <row r="82" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A82" s="93" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="E82" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
       <c r="H82" s="94"/>
     </row>
-    <row r="83" spans="1:8" ht="76.5">
+    <row r="83" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A83" s="93" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E83" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
       <c r="H83" s="94"/>
     </row>
-    <row r="84" spans="1:8" ht="63.75">
+    <row r="84" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A84" s="93" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F84" s="93"/>
       <c r="G84" s="93"/>
       <c r="H84" s="94"/>
     </row>
-    <row r="85" spans="1:8" ht="51">
+    <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A85" s="93" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E85" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F85" s="93"/>
       <c r="G85" s="93"/>
       <c r="H85" s="94"/>
     </row>
-    <row r="86" spans="1:8" ht="63.75">
+    <row r="86" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A86" s="93" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B86" s="93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E86" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
       <c r="H86" s="94"/>
     </row>
-    <row r="87" spans="1:8" ht="63.75">
+    <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A87" s="93" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E87" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F87" s="93"/>
       <c r="G87" s="93"/>
       <c r="H87" s="94"/>
     </row>
-    <row r="88" spans="1:8" ht="51">
+    <row r="88" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A88" s="93" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E88" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F88" s="93"/>
       <c r="G88" s="93"/>
       <c r="H88" s="94"/>
     </row>
-    <row r="89" spans="1:8" ht="63.75">
+    <row r="89" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A89" s="93" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E89" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F89" s="93"/>
       <c r="G89" s="93"/>
       <c r="H89" s="94"/>
     </row>
-    <row r="90" spans="1:8" ht="63.75">
+    <row r="90" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="93" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E90" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F90" s="93"/>
       <c r="G90" s="93"/>
       <c r="H90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="63.75">
+    <row r="91" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A91" s="93" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E91" s="93" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F91" s="93"/>
       <c r="G91" s="93"/>
       <c r="H91" s="94"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="84"/>
       <c r="B92" s="84" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C92" s="85"/>
       <c r="D92" s="85"/>
@@ -8111,259 +8113,259 @@
       <c r="G92" s="85"/>
       <c r="H92" s="86"/>
     </row>
-    <row r="93" spans="1:8" ht="93.75" customHeight="1">
+    <row r="93" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E93" s="93"/>
       <c r="F93" s="93"/>
       <c r="G93" s="93"/>
       <c r="H93" s="94"/>
     </row>
-    <row r="94" spans="1:8" ht="59.25" customHeight="1">
+    <row r="94" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="93" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B94" s="93" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E94" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F94" s="93"/>
       <c r="G94" s="93"/>
       <c r="H94" s="94"/>
     </row>
-    <row r="95" spans="1:8" ht="38.25">
+    <row r="95" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A95" s="93" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B95" s="93" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E95" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F95" s="93"/>
       <c r="G95" s="93"/>
       <c r="H95" s="94"/>
     </row>
-    <row r="96" spans="1:8" ht="38.25">
+    <row r="96" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="93" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B96" s="93" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E96" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F96" s="93"/>
       <c r="G96" s="93"/>
       <c r="H96" s="94"/>
     </row>
-    <row r="97" spans="1:8" ht="63.75">
+    <row r="97" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A97" s="93" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B97" s="93" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E97" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
       <c r="H97" s="94"/>
     </row>
-    <row r="98" spans="1:8" ht="63.75">
+    <row r="98" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A98" s="93" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E98" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F98" s="93"/>
       <c r="G98" s="93"/>
       <c r="H98" s="94"/>
     </row>
-    <row r="99" spans="1:8" ht="63.75">
+    <row r="99" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A99" s="93" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E99" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F99" s="93"/>
       <c r="G99" s="93"/>
       <c r="H99" s="94"/>
     </row>
-    <row r="100" spans="1:8" ht="51">
+    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="93" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E100" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F100" s="93"/>
       <c r="G100" s="93"/>
       <c r="H100" s="94"/>
     </row>
-    <row r="101" spans="1:8" ht="51">
+    <row r="101" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="93" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E101" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F101" s="93"/>
       <c r="G101" s="93"/>
       <c r="H101" s="94"/>
     </row>
-    <row r="102" spans="1:8" ht="38.25">
+    <row r="102" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A102" s="93" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E102" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F102" s="93"/>
       <c r="G102" s="93"/>
       <c r="H102" s="94"/>
     </row>
-    <row r="103" spans="1:8" ht="38.25">
+    <row r="103" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A103" s="93" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E103" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F103" s="93"/>
       <c r="G103" s="93"/>
       <c r="H103" s="94"/>
     </row>
-    <row r="104" spans="1:8" ht="51">
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="93" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E104" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F104" s="93"/>
       <c r="G104" s="93"/>
       <c r="H104" s="94"/>
     </row>
-    <row r="105" spans="1:8" ht="51">
+    <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="93" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B105" s="93" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C105" s="93" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D105" s="93" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E105" s="93" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F105" s="93"/>
       <c r="G105" s="93"/>
@@ -8402,332 +8404,332 @@
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="30"/>
-    <col min="2" max="2" width="15.375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="30" customWidth="1"/>
-    <col min="4" max="7" width="9.125" style="30"/>
-    <col min="8" max="9" width="37.875" style="30" customWidth="1"/>
-    <col min="10" max="257" width="9.125" style="30"/>
-    <col min="258" max="258" width="15.375" style="30" customWidth="1"/>
-    <col min="259" max="259" width="22.125" style="30" customWidth="1"/>
-    <col min="260" max="263" width="9.125" style="30"/>
-    <col min="264" max="265" width="37.875" style="30" customWidth="1"/>
-    <col min="266" max="513" width="9.125" style="30"/>
-    <col min="514" max="514" width="15.375" style="30" customWidth="1"/>
-    <col min="515" max="515" width="22.125" style="30" customWidth="1"/>
-    <col min="516" max="519" width="9.125" style="30"/>
-    <col min="520" max="521" width="37.875" style="30" customWidth="1"/>
-    <col min="522" max="769" width="9.125" style="30"/>
-    <col min="770" max="770" width="15.375" style="30" customWidth="1"/>
-    <col min="771" max="771" width="22.125" style="30" customWidth="1"/>
-    <col min="772" max="775" width="9.125" style="30"/>
-    <col min="776" max="777" width="37.875" style="30" customWidth="1"/>
-    <col min="778" max="1025" width="9.125" style="30"/>
-    <col min="1026" max="1026" width="15.375" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="22.125" style="30" customWidth="1"/>
-    <col min="1028" max="1031" width="9.125" style="30"/>
-    <col min="1032" max="1033" width="37.875" style="30" customWidth="1"/>
-    <col min="1034" max="1281" width="9.125" style="30"/>
-    <col min="1282" max="1282" width="15.375" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="22.125" style="30" customWidth="1"/>
-    <col min="1284" max="1287" width="9.125" style="30"/>
-    <col min="1288" max="1289" width="37.875" style="30" customWidth="1"/>
-    <col min="1290" max="1537" width="9.125" style="30"/>
-    <col min="1538" max="1538" width="15.375" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="22.125" style="30" customWidth="1"/>
-    <col min="1540" max="1543" width="9.125" style="30"/>
-    <col min="1544" max="1545" width="37.875" style="30" customWidth="1"/>
-    <col min="1546" max="1793" width="9.125" style="30"/>
-    <col min="1794" max="1794" width="15.375" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="22.125" style="30" customWidth="1"/>
-    <col min="1796" max="1799" width="9.125" style="30"/>
-    <col min="1800" max="1801" width="37.875" style="30" customWidth="1"/>
-    <col min="1802" max="2049" width="9.125" style="30"/>
-    <col min="2050" max="2050" width="15.375" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="22.125" style="30" customWidth="1"/>
-    <col min="2052" max="2055" width="9.125" style="30"/>
-    <col min="2056" max="2057" width="37.875" style="30" customWidth="1"/>
-    <col min="2058" max="2305" width="9.125" style="30"/>
-    <col min="2306" max="2306" width="15.375" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="22.125" style="30" customWidth="1"/>
-    <col min="2308" max="2311" width="9.125" style="30"/>
-    <col min="2312" max="2313" width="37.875" style="30" customWidth="1"/>
-    <col min="2314" max="2561" width="9.125" style="30"/>
-    <col min="2562" max="2562" width="15.375" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="22.125" style="30" customWidth="1"/>
-    <col min="2564" max="2567" width="9.125" style="30"/>
-    <col min="2568" max="2569" width="37.875" style="30" customWidth="1"/>
-    <col min="2570" max="2817" width="9.125" style="30"/>
-    <col min="2818" max="2818" width="15.375" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="22.125" style="30" customWidth="1"/>
-    <col min="2820" max="2823" width="9.125" style="30"/>
-    <col min="2824" max="2825" width="37.875" style="30" customWidth="1"/>
-    <col min="2826" max="3073" width="9.125" style="30"/>
-    <col min="3074" max="3074" width="15.375" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="22.125" style="30" customWidth="1"/>
-    <col min="3076" max="3079" width="9.125" style="30"/>
-    <col min="3080" max="3081" width="37.875" style="30" customWidth="1"/>
-    <col min="3082" max="3329" width="9.125" style="30"/>
-    <col min="3330" max="3330" width="15.375" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="22.125" style="30" customWidth="1"/>
-    <col min="3332" max="3335" width="9.125" style="30"/>
-    <col min="3336" max="3337" width="37.875" style="30" customWidth="1"/>
-    <col min="3338" max="3585" width="9.125" style="30"/>
-    <col min="3586" max="3586" width="15.375" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="22.125" style="30" customWidth="1"/>
-    <col min="3588" max="3591" width="9.125" style="30"/>
-    <col min="3592" max="3593" width="37.875" style="30" customWidth="1"/>
-    <col min="3594" max="3841" width="9.125" style="30"/>
-    <col min="3842" max="3842" width="15.375" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="22.125" style="30" customWidth="1"/>
-    <col min="3844" max="3847" width="9.125" style="30"/>
-    <col min="3848" max="3849" width="37.875" style="30" customWidth="1"/>
-    <col min="3850" max="4097" width="9.125" style="30"/>
-    <col min="4098" max="4098" width="15.375" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="22.125" style="30" customWidth="1"/>
-    <col min="4100" max="4103" width="9.125" style="30"/>
-    <col min="4104" max="4105" width="37.875" style="30" customWidth="1"/>
-    <col min="4106" max="4353" width="9.125" style="30"/>
-    <col min="4354" max="4354" width="15.375" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="22.125" style="30" customWidth="1"/>
-    <col min="4356" max="4359" width="9.125" style="30"/>
-    <col min="4360" max="4361" width="37.875" style="30" customWidth="1"/>
-    <col min="4362" max="4609" width="9.125" style="30"/>
-    <col min="4610" max="4610" width="15.375" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="22.125" style="30" customWidth="1"/>
-    <col min="4612" max="4615" width="9.125" style="30"/>
-    <col min="4616" max="4617" width="37.875" style="30" customWidth="1"/>
-    <col min="4618" max="4865" width="9.125" style="30"/>
-    <col min="4866" max="4866" width="15.375" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="22.125" style="30" customWidth="1"/>
-    <col min="4868" max="4871" width="9.125" style="30"/>
-    <col min="4872" max="4873" width="37.875" style="30" customWidth="1"/>
-    <col min="4874" max="5121" width="9.125" style="30"/>
-    <col min="5122" max="5122" width="15.375" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="22.125" style="30" customWidth="1"/>
-    <col min="5124" max="5127" width="9.125" style="30"/>
-    <col min="5128" max="5129" width="37.875" style="30" customWidth="1"/>
-    <col min="5130" max="5377" width="9.125" style="30"/>
-    <col min="5378" max="5378" width="15.375" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="22.125" style="30" customWidth="1"/>
-    <col min="5380" max="5383" width="9.125" style="30"/>
-    <col min="5384" max="5385" width="37.875" style="30" customWidth="1"/>
-    <col min="5386" max="5633" width="9.125" style="30"/>
-    <col min="5634" max="5634" width="15.375" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="22.125" style="30" customWidth="1"/>
-    <col min="5636" max="5639" width="9.125" style="30"/>
-    <col min="5640" max="5641" width="37.875" style="30" customWidth="1"/>
-    <col min="5642" max="5889" width="9.125" style="30"/>
-    <col min="5890" max="5890" width="15.375" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="22.125" style="30" customWidth="1"/>
-    <col min="5892" max="5895" width="9.125" style="30"/>
-    <col min="5896" max="5897" width="37.875" style="30" customWidth="1"/>
-    <col min="5898" max="6145" width="9.125" style="30"/>
-    <col min="6146" max="6146" width="15.375" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="22.125" style="30" customWidth="1"/>
-    <col min="6148" max="6151" width="9.125" style="30"/>
-    <col min="6152" max="6153" width="37.875" style="30" customWidth="1"/>
-    <col min="6154" max="6401" width="9.125" style="30"/>
-    <col min="6402" max="6402" width="15.375" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="22.125" style="30" customWidth="1"/>
-    <col min="6404" max="6407" width="9.125" style="30"/>
-    <col min="6408" max="6409" width="37.875" style="30" customWidth="1"/>
-    <col min="6410" max="6657" width="9.125" style="30"/>
-    <col min="6658" max="6658" width="15.375" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="22.125" style="30" customWidth="1"/>
-    <col min="6660" max="6663" width="9.125" style="30"/>
-    <col min="6664" max="6665" width="37.875" style="30" customWidth="1"/>
-    <col min="6666" max="6913" width="9.125" style="30"/>
-    <col min="6914" max="6914" width="15.375" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="22.125" style="30" customWidth="1"/>
-    <col min="6916" max="6919" width="9.125" style="30"/>
-    <col min="6920" max="6921" width="37.875" style="30" customWidth="1"/>
-    <col min="6922" max="7169" width="9.125" style="30"/>
-    <col min="7170" max="7170" width="15.375" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="22.125" style="30" customWidth="1"/>
-    <col min="7172" max="7175" width="9.125" style="30"/>
-    <col min="7176" max="7177" width="37.875" style="30" customWidth="1"/>
-    <col min="7178" max="7425" width="9.125" style="30"/>
-    <col min="7426" max="7426" width="15.375" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="22.125" style="30" customWidth="1"/>
-    <col min="7428" max="7431" width="9.125" style="30"/>
-    <col min="7432" max="7433" width="37.875" style="30" customWidth="1"/>
-    <col min="7434" max="7681" width="9.125" style="30"/>
-    <col min="7682" max="7682" width="15.375" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="22.125" style="30" customWidth="1"/>
-    <col min="7684" max="7687" width="9.125" style="30"/>
-    <col min="7688" max="7689" width="37.875" style="30" customWidth="1"/>
-    <col min="7690" max="7937" width="9.125" style="30"/>
-    <col min="7938" max="7938" width="15.375" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="22.125" style="30" customWidth="1"/>
-    <col min="7940" max="7943" width="9.125" style="30"/>
-    <col min="7944" max="7945" width="37.875" style="30" customWidth="1"/>
-    <col min="7946" max="8193" width="9.125" style="30"/>
-    <col min="8194" max="8194" width="15.375" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="22.125" style="30" customWidth="1"/>
-    <col min="8196" max="8199" width="9.125" style="30"/>
-    <col min="8200" max="8201" width="37.875" style="30" customWidth="1"/>
-    <col min="8202" max="8449" width="9.125" style="30"/>
-    <col min="8450" max="8450" width="15.375" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="22.125" style="30" customWidth="1"/>
-    <col min="8452" max="8455" width="9.125" style="30"/>
-    <col min="8456" max="8457" width="37.875" style="30" customWidth="1"/>
-    <col min="8458" max="8705" width="9.125" style="30"/>
-    <col min="8706" max="8706" width="15.375" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="22.125" style="30" customWidth="1"/>
-    <col min="8708" max="8711" width="9.125" style="30"/>
-    <col min="8712" max="8713" width="37.875" style="30" customWidth="1"/>
-    <col min="8714" max="8961" width="9.125" style="30"/>
-    <col min="8962" max="8962" width="15.375" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="22.125" style="30" customWidth="1"/>
-    <col min="8964" max="8967" width="9.125" style="30"/>
-    <col min="8968" max="8969" width="37.875" style="30" customWidth="1"/>
-    <col min="8970" max="9217" width="9.125" style="30"/>
-    <col min="9218" max="9218" width="15.375" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="22.125" style="30" customWidth="1"/>
-    <col min="9220" max="9223" width="9.125" style="30"/>
-    <col min="9224" max="9225" width="37.875" style="30" customWidth="1"/>
-    <col min="9226" max="9473" width="9.125" style="30"/>
-    <col min="9474" max="9474" width="15.375" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="22.125" style="30" customWidth="1"/>
-    <col min="9476" max="9479" width="9.125" style="30"/>
-    <col min="9480" max="9481" width="37.875" style="30" customWidth="1"/>
-    <col min="9482" max="9729" width="9.125" style="30"/>
-    <col min="9730" max="9730" width="15.375" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="22.125" style="30" customWidth="1"/>
-    <col min="9732" max="9735" width="9.125" style="30"/>
-    <col min="9736" max="9737" width="37.875" style="30" customWidth="1"/>
-    <col min="9738" max="9985" width="9.125" style="30"/>
-    <col min="9986" max="9986" width="15.375" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="22.125" style="30" customWidth="1"/>
-    <col min="9988" max="9991" width="9.125" style="30"/>
-    <col min="9992" max="9993" width="37.875" style="30" customWidth="1"/>
-    <col min="9994" max="10241" width="9.125" style="30"/>
-    <col min="10242" max="10242" width="15.375" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="22.125" style="30" customWidth="1"/>
-    <col min="10244" max="10247" width="9.125" style="30"/>
-    <col min="10248" max="10249" width="37.875" style="30" customWidth="1"/>
-    <col min="10250" max="10497" width="9.125" style="30"/>
-    <col min="10498" max="10498" width="15.375" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="22.125" style="30" customWidth="1"/>
-    <col min="10500" max="10503" width="9.125" style="30"/>
-    <col min="10504" max="10505" width="37.875" style="30" customWidth="1"/>
-    <col min="10506" max="10753" width="9.125" style="30"/>
-    <col min="10754" max="10754" width="15.375" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="22.125" style="30" customWidth="1"/>
-    <col min="10756" max="10759" width="9.125" style="30"/>
-    <col min="10760" max="10761" width="37.875" style="30" customWidth="1"/>
-    <col min="10762" max="11009" width="9.125" style="30"/>
-    <col min="11010" max="11010" width="15.375" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="22.125" style="30" customWidth="1"/>
-    <col min="11012" max="11015" width="9.125" style="30"/>
-    <col min="11016" max="11017" width="37.875" style="30" customWidth="1"/>
-    <col min="11018" max="11265" width="9.125" style="30"/>
-    <col min="11266" max="11266" width="15.375" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="22.125" style="30" customWidth="1"/>
-    <col min="11268" max="11271" width="9.125" style="30"/>
-    <col min="11272" max="11273" width="37.875" style="30" customWidth="1"/>
-    <col min="11274" max="11521" width="9.125" style="30"/>
-    <col min="11522" max="11522" width="15.375" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="22.125" style="30" customWidth="1"/>
-    <col min="11524" max="11527" width="9.125" style="30"/>
-    <col min="11528" max="11529" width="37.875" style="30" customWidth="1"/>
-    <col min="11530" max="11777" width="9.125" style="30"/>
-    <col min="11778" max="11778" width="15.375" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="22.125" style="30" customWidth="1"/>
-    <col min="11780" max="11783" width="9.125" style="30"/>
-    <col min="11784" max="11785" width="37.875" style="30" customWidth="1"/>
-    <col min="11786" max="12033" width="9.125" style="30"/>
-    <col min="12034" max="12034" width="15.375" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="22.125" style="30" customWidth="1"/>
-    <col min="12036" max="12039" width="9.125" style="30"/>
-    <col min="12040" max="12041" width="37.875" style="30" customWidth="1"/>
-    <col min="12042" max="12289" width="9.125" style="30"/>
-    <col min="12290" max="12290" width="15.375" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="22.125" style="30" customWidth="1"/>
-    <col min="12292" max="12295" width="9.125" style="30"/>
-    <col min="12296" max="12297" width="37.875" style="30" customWidth="1"/>
-    <col min="12298" max="12545" width="9.125" style="30"/>
-    <col min="12546" max="12546" width="15.375" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="22.125" style="30" customWidth="1"/>
-    <col min="12548" max="12551" width="9.125" style="30"/>
-    <col min="12552" max="12553" width="37.875" style="30" customWidth="1"/>
-    <col min="12554" max="12801" width="9.125" style="30"/>
-    <col min="12802" max="12802" width="15.375" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="22.125" style="30" customWidth="1"/>
-    <col min="12804" max="12807" width="9.125" style="30"/>
-    <col min="12808" max="12809" width="37.875" style="30" customWidth="1"/>
-    <col min="12810" max="13057" width="9.125" style="30"/>
-    <col min="13058" max="13058" width="15.375" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="22.125" style="30" customWidth="1"/>
-    <col min="13060" max="13063" width="9.125" style="30"/>
-    <col min="13064" max="13065" width="37.875" style="30" customWidth="1"/>
-    <col min="13066" max="13313" width="9.125" style="30"/>
-    <col min="13314" max="13314" width="15.375" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="22.125" style="30" customWidth="1"/>
-    <col min="13316" max="13319" width="9.125" style="30"/>
-    <col min="13320" max="13321" width="37.875" style="30" customWidth="1"/>
-    <col min="13322" max="13569" width="9.125" style="30"/>
-    <col min="13570" max="13570" width="15.375" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="22.125" style="30" customWidth="1"/>
-    <col min="13572" max="13575" width="9.125" style="30"/>
-    <col min="13576" max="13577" width="37.875" style="30" customWidth="1"/>
-    <col min="13578" max="13825" width="9.125" style="30"/>
-    <col min="13826" max="13826" width="15.375" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="22.125" style="30" customWidth="1"/>
-    <col min="13828" max="13831" width="9.125" style="30"/>
-    <col min="13832" max="13833" width="37.875" style="30" customWidth="1"/>
-    <col min="13834" max="14081" width="9.125" style="30"/>
-    <col min="14082" max="14082" width="15.375" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="22.125" style="30" customWidth="1"/>
-    <col min="14084" max="14087" width="9.125" style="30"/>
-    <col min="14088" max="14089" width="37.875" style="30" customWidth="1"/>
-    <col min="14090" max="14337" width="9.125" style="30"/>
-    <col min="14338" max="14338" width="15.375" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="22.125" style="30" customWidth="1"/>
-    <col min="14340" max="14343" width="9.125" style="30"/>
-    <col min="14344" max="14345" width="37.875" style="30" customWidth="1"/>
-    <col min="14346" max="14593" width="9.125" style="30"/>
-    <col min="14594" max="14594" width="15.375" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="22.125" style="30" customWidth="1"/>
-    <col min="14596" max="14599" width="9.125" style="30"/>
-    <col min="14600" max="14601" width="37.875" style="30" customWidth="1"/>
-    <col min="14602" max="14849" width="9.125" style="30"/>
-    <col min="14850" max="14850" width="15.375" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="22.125" style="30" customWidth="1"/>
-    <col min="14852" max="14855" width="9.125" style="30"/>
-    <col min="14856" max="14857" width="37.875" style="30" customWidth="1"/>
-    <col min="14858" max="15105" width="9.125" style="30"/>
-    <col min="15106" max="15106" width="15.375" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="22.125" style="30" customWidth="1"/>
-    <col min="15108" max="15111" width="9.125" style="30"/>
-    <col min="15112" max="15113" width="37.875" style="30" customWidth="1"/>
-    <col min="15114" max="15361" width="9.125" style="30"/>
-    <col min="15362" max="15362" width="15.375" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="22.125" style="30" customWidth="1"/>
-    <col min="15364" max="15367" width="9.125" style="30"/>
-    <col min="15368" max="15369" width="37.875" style="30" customWidth="1"/>
-    <col min="15370" max="15617" width="9.125" style="30"/>
-    <col min="15618" max="15618" width="15.375" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="22.125" style="30" customWidth="1"/>
-    <col min="15620" max="15623" width="9.125" style="30"/>
-    <col min="15624" max="15625" width="37.875" style="30" customWidth="1"/>
-    <col min="15626" max="15873" width="9.125" style="30"/>
-    <col min="15874" max="15874" width="15.375" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="22.125" style="30" customWidth="1"/>
-    <col min="15876" max="15879" width="9.125" style="30"/>
-    <col min="15880" max="15881" width="37.875" style="30" customWidth="1"/>
-    <col min="15882" max="16129" width="9.125" style="30"/>
-    <col min="16130" max="16130" width="15.375" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="22.125" style="30" customWidth="1"/>
-    <col min="16132" max="16135" width="9.125" style="30"/>
-    <col min="16136" max="16137" width="37.875" style="30" customWidth="1"/>
-    <col min="16138" max="16384" width="9.125" style="30"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="15.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="30" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="30"/>
+    <col min="8" max="9" width="37.85546875" style="30" customWidth="1"/>
+    <col min="10" max="257" width="9.140625" style="30"/>
+    <col min="258" max="258" width="15.42578125" style="30" customWidth="1"/>
+    <col min="259" max="259" width="22.140625" style="30" customWidth="1"/>
+    <col min="260" max="263" width="9.140625" style="30"/>
+    <col min="264" max="265" width="37.85546875" style="30" customWidth="1"/>
+    <col min="266" max="513" width="9.140625" style="30"/>
+    <col min="514" max="514" width="15.42578125" style="30" customWidth="1"/>
+    <col min="515" max="515" width="22.140625" style="30" customWidth="1"/>
+    <col min="516" max="519" width="9.140625" style="30"/>
+    <col min="520" max="521" width="37.85546875" style="30" customWidth="1"/>
+    <col min="522" max="769" width="9.140625" style="30"/>
+    <col min="770" max="770" width="15.42578125" style="30" customWidth="1"/>
+    <col min="771" max="771" width="22.140625" style="30" customWidth="1"/>
+    <col min="772" max="775" width="9.140625" style="30"/>
+    <col min="776" max="777" width="37.85546875" style="30" customWidth="1"/>
+    <col min="778" max="1025" width="9.140625" style="30"/>
+    <col min="1026" max="1026" width="15.42578125" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="22.140625" style="30" customWidth="1"/>
+    <col min="1028" max="1031" width="9.140625" style="30"/>
+    <col min="1032" max="1033" width="37.85546875" style="30" customWidth="1"/>
+    <col min="1034" max="1281" width="9.140625" style="30"/>
+    <col min="1282" max="1282" width="15.42578125" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="22.140625" style="30" customWidth="1"/>
+    <col min="1284" max="1287" width="9.140625" style="30"/>
+    <col min="1288" max="1289" width="37.85546875" style="30" customWidth="1"/>
+    <col min="1290" max="1537" width="9.140625" style="30"/>
+    <col min="1538" max="1538" width="15.42578125" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="22.140625" style="30" customWidth="1"/>
+    <col min="1540" max="1543" width="9.140625" style="30"/>
+    <col min="1544" max="1545" width="37.85546875" style="30" customWidth="1"/>
+    <col min="1546" max="1793" width="9.140625" style="30"/>
+    <col min="1794" max="1794" width="15.42578125" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="22.140625" style="30" customWidth="1"/>
+    <col min="1796" max="1799" width="9.140625" style="30"/>
+    <col min="1800" max="1801" width="37.85546875" style="30" customWidth="1"/>
+    <col min="1802" max="2049" width="9.140625" style="30"/>
+    <col min="2050" max="2050" width="15.42578125" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="22.140625" style="30" customWidth="1"/>
+    <col min="2052" max="2055" width="9.140625" style="30"/>
+    <col min="2056" max="2057" width="37.85546875" style="30" customWidth="1"/>
+    <col min="2058" max="2305" width="9.140625" style="30"/>
+    <col min="2306" max="2306" width="15.42578125" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="22.140625" style="30" customWidth="1"/>
+    <col min="2308" max="2311" width="9.140625" style="30"/>
+    <col min="2312" max="2313" width="37.85546875" style="30" customWidth="1"/>
+    <col min="2314" max="2561" width="9.140625" style="30"/>
+    <col min="2562" max="2562" width="15.42578125" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="22.140625" style="30" customWidth="1"/>
+    <col min="2564" max="2567" width="9.140625" style="30"/>
+    <col min="2568" max="2569" width="37.85546875" style="30" customWidth="1"/>
+    <col min="2570" max="2817" width="9.140625" style="30"/>
+    <col min="2818" max="2818" width="15.42578125" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="22.140625" style="30" customWidth="1"/>
+    <col min="2820" max="2823" width="9.140625" style="30"/>
+    <col min="2824" max="2825" width="37.85546875" style="30" customWidth="1"/>
+    <col min="2826" max="3073" width="9.140625" style="30"/>
+    <col min="3074" max="3074" width="15.42578125" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="22.140625" style="30" customWidth="1"/>
+    <col min="3076" max="3079" width="9.140625" style="30"/>
+    <col min="3080" max="3081" width="37.85546875" style="30" customWidth="1"/>
+    <col min="3082" max="3329" width="9.140625" style="30"/>
+    <col min="3330" max="3330" width="15.42578125" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="22.140625" style="30" customWidth="1"/>
+    <col min="3332" max="3335" width="9.140625" style="30"/>
+    <col min="3336" max="3337" width="37.85546875" style="30" customWidth="1"/>
+    <col min="3338" max="3585" width="9.140625" style="30"/>
+    <col min="3586" max="3586" width="15.42578125" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="22.140625" style="30" customWidth="1"/>
+    <col min="3588" max="3591" width="9.140625" style="30"/>
+    <col min="3592" max="3593" width="37.85546875" style="30" customWidth="1"/>
+    <col min="3594" max="3841" width="9.140625" style="30"/>
+    <col min="3842" max="3842" width="15.42578125" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="22.140625" style="30" customWidth="1"/>
+    <col min="3844" max="3847" width="9.140625" style="30"/>
+    <col min="3848" max="3849" width="37.85546875" style="30" customWidth="1"/>
+    <col min="3850" max="4097" width="9.140625" style="30"/>
+    <col min="4098" max="4098" width="15.42578125" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="22.140625" style="30" customWidth="1"/>
+    <col min="4100" max="4103" width="9.140625" style="30"/>
+    <col min="4104" max="4105" width="37.85546875" style="30" customWidth="1"/>
+    <col min="4106" max="4353" width="9.140625" style="30"/>
+    <col min="4354" max="4354" width="15.42578125" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="22.140625" style="30" customWidth="1"/>
+    <col min="4356" max="4359" width="9.140625" style="30"/>
+    <col min="4360" max="4361" width="37.85546875" style="30" customWidth="1"/>
+    <col min="4362" max="4609" width="9.140625" style="30"/>
+    <col min="4610" max="4610" width="15.42578125" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="22.140625" style="30" customWidth="1"/>
+    <col min="4612" max="4615" width="9.140625" style="30"/>
+    <col min="4616" max="4617" width="37.85546875" style="30" customWidth="1"/>
+    <col min="4618" max="4865" width="9.140625" style="30"/>
+    <col min="4866" max="4866" width="15.42578125" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="22.140625" style="30" customWidth="1"/>
+    <col min="4868" max="4871" width="9.140625" style="30"/>
+    <col min="4872" max="4873" width="37.85546875" style="30" customWidth="1"/>
+    <col min="4874" max="5121" width="9.140625" style="30"/>
+    <col min="5122" max="5122" width="15.42578125" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="22.140625" style="30" customWidth="1"/>
+    <col min="5124" max="5127" width="9.140625" style="30"/>
+    <col min="5128" max="5129" width="37.85546875" style="30" customWidth="1"/>
+    <col min="5130" max="5377" width="9.140625" style="30"/>
+    <col min="5378" max="5378" width="15.42578125" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="22.140625" style="30" customWidth="1"/>
+    <col min="5380" max="5383" width="9.140625" style="30"/>
+    <col min="5384" max="5385" width="37.85546875" style="30" customWidth="1"/>
+    <col min="5386" max="5633" width="9.140625" style="30"/>
+    <col min="5634" max="5634" width="15.42578125" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="22.140625" style="30" customWidth="1"/>
+    <col min="5636" max="5639" width="9.140625" style="30"/>
+    <col min="5640" max="5641" width="37.85546875" style="30" customWidth="1"/>
+    <col min="5642" max="5889" width="9.140625" style="30"/>
+    <col min="5890" max="5890" width="15.42578125" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="22.140625" style="30" customWidth="1"/>
+    <col min="5892" max="5895" width="9.140625" style="30"/>
+    <col min="5896" max="5897" width="37.85546875" style="30" customWidth="1"/>
+    <col min="5898" max="6145" width="9.140625" style="30"/>
+    <col min="6146" max="6146" width="15.42578125" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="22.140625" style="30" customWidth="1"/>
+    <col min="6148" max="6151" width="9.140625" style="30"/>
+    <col min="6152" max="6153" width="37.85546875" style="30" customWidth="1"/>
+    <col min="6154" max="6401" width="9.140625" style="30"/>
+    <col min="6402" max="6402" width="15.42578125" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="22.140625" style="30" customWidth="1"/>
+    <col min="6404" max="6407" width="9.140625" style="30"/>
+    <col min="6408" max="6409" width="37.85546875" style="30" customWidth="1"/>
+    <col min="6410" max="6657" width="9.140625" style="30"/>
+    <col min="6658" max="6658" width="15.42578125" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="22.140625" style="30" customWidth="1"/>
+    <col min="6660" max="6663" width="9.140625" style="30"/>
+    <col min="6664" max="6665" width="37.85546875" style="30" customWidth="1"/>
+    <col min="6666" max="6913" width="9.140625" style="30"/>
+    <col min="6914" max="6914" width="15.42578125" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="22.140625" style="30" customWidth="1"/>
+    <col min="6916" max="6919" width="9.140625" style="30"/>
+    <col min="6920" max="6921" width="37.85546875" style="30" customWidth="1"/>
+    <col min="6922" max="7169" width="9.140625" style="30"/>
+    <col min="7170" max="7170" width="15.42578125" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="22.140625" style="30" customWidth="1"/>
+    <col min="7172" max="7175" width="9.140625" style="30"/>
+    <col min="7176" max="7177" width="37.85546875" style="30" customWidth="1"/>
+    <col min="7178" max="7425" width="9.140625" style="30"/>
+    <col min="7426" max="7426" width="15.42578125" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="22.140625" style="30" customWidth="1"/>
+    <col min="7428" max="7431" width="9.140625" style="30"/>
+    <col min="7432" max="7433" width="37.85546875" style="30" customWidth="1"/>
+    <col min="7434" max="7681" width="9.140625" style="30"/>
+    <col min="7682" max="7682" width="15.42578125" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="22.140625" style="30" customWidth="1"/>
+    <col min="7684" max="7687" width="9.140625" style="30"/>
+    <col min="7688" max="7689" width="37.85546875" style="30" customWidth="1"/>
+    <col min="7690" max="7937" width="9.140625" style="30"/>
+    <col min="7938" max="7938" width="15.42578125" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="22.140625" style="30" customWidth="1"/>
+    <col min="7940" max="7943" width="9.140625" style="30"/>
+    <col min="7944" max="7945" width="37.85546875" style="30" customWidth="1"/>
+    <col min="7946" max="8193" width="9.140625" style="30"/>
+    <col min="8194" max="8194" width="15.42578125" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="22.140625" style="30" customWidth="1"/>
+    <col min="8196" max="8199" width="9.140625" style="30"/>
+    <col min="8200" max="8201" width="37.85546875" style="30" customWidth="1"/>
+    <col min="8202" max="8449" width="9.140625" style="30"/>
+    <col min="8450" max="8450" width="15.42578125" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="22.140625" style="30" customWidth="1"/>
+    <col min="8452" max="8455" width="9.140625" style="30"/>
+    <col min="8456" max="8457" width="37.85546875" style="30" customWidth="1"/>
+    <col min="8458" max="8705" width="9.140625" style="30"/>
+    <col min="8706" max="8706" width="15.42578125" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="22.140625" style="30" customWidth="1"/>
+    <col min="8708" max="8711" width="9.140625" style="30"/>
+    <col min="8712" max="8713" width="37.85546875" style="30" customWidth="1"/>
+    <col min="8714" max="8961" width="9.140625" style="30"/>
+    <col min="8962" max="8962" width="15.42578125" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="22.140625" style="30" customWidth="1"/>
+    <col min="8964" max="8967" width="9.140625" style="30"/>
+    <col min="8968" max="8969" width="37.85546875" style="30" customWidth="1"/>
+    <col min="8970" max="9217" width="9.140625" style="30"/>
+    <col min="9218" max="9218" width="15.42578125" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="22.140625" style="30" customWidth="1"/>
+    <col min="9220" max="9223" width="9.140625" style="30"/>
+    <col min="9224" max="9225" width="37.85546875" style="30" customWidth="1"/>
+    <col min="9226" max="9473" width="9.140625" style="30"/>
+    <col min="9474" max="9474" width="15.42578125" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="22.140625" style="30" customWidth="1"/>
+    <col min="9476" max="9479" width="9.140625" style="30"/>
+    <col min="9480" max="9481" width="37.85546875" style="30" customWidth="1"/>
+    <col min="9482" max="9729" width="9.140625" style="30"/>
+    <col min="9730" max="9730" width="15.42578125" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="22.140625" style="30" customWidth="1"/>
+    <col min="9732" max="9735" width="9.140625" style="30"/>
+    <col min="9736" max="9737" width="37.85546875" style="30" customWidth="1"/>
+    <col min="9738" max="9985" width="9.140625" style="30"/>
+    <col min="9986" max="9986" width="15.42578125" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="22.140625" style="30" customWidth="1"/>
+    <col min="9988" max="9991" width="9.140625" style="30"/>
+    <col min="9992" max="9993" width="37.85546875" style="30" customWidth="1"/>
+    <col min="9994" max="10241" width="9.140625" style="30"/>
+    <col min="10242" max="10242" width="15.42578125" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="22.140625" style="30" customWidth="1"/>
+    <col min="10244" max="10247" width="9.140625" style="30"/>
+    <col min="10248" max="10249" width="37.85546875" style="30" customWidth="1"/>
+    <col min="10250" max="10497" width="9.140625" style="30"/>
+    <col min="10498" max="10498" width="15.42578125" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="22.140625" style="30" customWidth="1"/>
+    <col min="10500" max="10503" width="9.140625" style="30"/>
+    <col min="10504" max="10505" width="37.85546875" style="30" customWidth="1"/>
+    <col min="10506" max="10753" width="9.140625" style="30"/>
+    <col min="10754" max="10754" width="15.42578125" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="22.140625" style="30" customWidth="1"/>
+    <col min="10756" max="10759" width="9.140625" style="30"/>
+    <col min="10760" max="10761" width="37.85546875" style="30" customWidth="1"/>
+    <col min="10762" max="11009" width="9.140625" style="30"/>
+    <col min="11010" max="11010" width="15.42578125" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="22.140625" style="30" customWidth="1"/>
+    <col min="11012" max="11015" width="9.140625" style="30"/>
+    <col min="11016" max="11017" width="37.85546875" style="30" customWidth="1"/>
+    <col min="11018" max="11265" width="9.140625" style="30"/>
+    <col min="11266" max="11266" width="15.42578125" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="22.140625" style="30" customWidth="1"/>
+    <col min="11268" max="11271" width="9.140625" style="30"/>
+    <col min="11272" max="11273" width="37.85546875" style="30" customWidth="1"/>
+    <col min="11274" max="11521" width="9.140625" style="30"/>
+    <col min="11522" max="11522" width="15.42578125" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="22.140625" style="30" customWidth="1"/>
+    <col min="11524" max="11527" width="9.140625" style="30"/>
+    <col min="11528" max="11529" width="37.85546875" style="30" customWidth="1"/>
+    <col min="11530" max="11777" width="9.140625" style="30"/>
+    <col min="11778" max="11778" width="15.42578125" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="22.140625" style="30" customWidth="1"/>
+    <col min="11780" max="11783" width="9.140625" style="30"/>
+    <col min="11784" max="11785" width="37.85546875" style="30" customWidth="1"/>
+    <col min="11786" max="12033" width="9.140625" style="30"/>
+    <col min="12034" max="12034" width="15.42578125" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="22.140625" style="30" customWidth="1"/>
+    <col min="12036" max="12039" width="9.140625" style="30"/>
+    <col min="12040" max="12041" width="37.85546875" style="30" customWidth="1"/>
+    <col min="12042" max="12289" width="9.140625" style="30"/>
+    <col min="12290" max="12290" width="15.42578125" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="22.140625" style="30" customWidth="1"/>
+    <col min="12292" max="12295" width="9.140625" style="30"/>
+    <col min="12296" max="12297" width="37.85546875" style="30" customWidth="1"/>
+    <col min="12298" max="12545" width="9.140625" style="30"/>
+    <col min="12546" max="12546" width="15.42578125" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="22.140625" style="30" customWidth="1"/>
+    <col min="12548" max="12551" width="9.140625" style="30"/>
+    <col min="12552" max="12553" width="37.85546875" style="30" customWidth="1"/>
+    <col min="12554" max="12801" width="9.140625" style="30"/>
+    <col min="12802" max="12802" width="15.42578125" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="22.140625" style="30" customWidth="1"/>
+    <col min="12804" max="12807" width="9.140625" style="30"/>
+    <col min="12808" max="12809" width="37.85546875" style="30" customWidth="1"/>
+    <col min="12810" max="13057" width="9.140625" style="30"/>
+    <col min="13058" max="13058" width="15.42578125" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="22.140625" style="30" customWidth="1"/>
+    <col min="13060" max="13063" width="9.140625" style="30"/>
+    <col min="13064" max="13065" width="37.85546875" style="30" customWidth="1"/>
+    <col min="13066" max="13313" width="9.140625" style="30"/>
+    <col min="13314" max="13314" width="15.42578125" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="22.140625" style="30" customWidth="1"/>
+    <col min="13316" max="13319" width="9.140625" style="30"/>
+    <col min="13320" max="13321" width="37.85546875" style="30" customWidth="1"/>
+    <col min="13322" max="13569" width="9.140625" style="30"/>
+    <col min="13570" max="13570" width="15.42578125" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="22.140625" style="30" customWidth="1"/>
+    <col min="13572" max="13575" width="9.140625" style="30"/>
+    <col min="13576" max="13577" width="37.85546875" style="30" customWidth="1"/>
+    <col min="13578" max="13825" width="9.140625" style="30"/>
+    <col min="13826" max="13826" width="15.42578125" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="22.140625" style="30" customWidth="1"/>
+    <col min="13828" max="13831" width="9.140625" style="30"/>
+    <col min="13832" max="13833" width="37.85546875" style="30" customWidth="1"/>
+    <col min="13834" max="14081" width="9.140625" style="30"/>
+    <col min="14082" max="14082" width="15.42578125" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="22.140625" style="30" customWidth="1"/>
+    <col min="14084" max="14087" width="9.140625" style="30"/>
+    <col min="14088" max="14089" width="37.85546875" style="30" customWidth="1"/>
+    <col min="14090" max="14337" width="9.140625" style="30"/>
+    <col min="14338" max="14338" width="15.42578125" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="22.140625" style="30" customWidth="1"/>
+    <col min="14340" max="14343" width="9.140625" style="30"/>
+    <col min="14344" max="14345" width="37.85546875" style="30" customWidth="1"/>
+    <col min="14346" max="14593" width="9.140625" style="30"/>
+    <col min="14594" max="14594" width="15.42578125" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="22.140625" style="30" customWidth="1"/>
+    <col min="14596" max="14599" width="9.140625" style="30"/>
+    <col min="14600" max="14601" width="37.85546875" style="30" customWidth="1"/>
+    <col min="14602" max="14849" width="9.140625" style="30"/>
+    <col min="14850" max="14850" width="15.42578125" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="22.140625" style="30" customWidth="1"/>
+    <col min="14852" max="14855" width="9.140625" style="30"/>
+    <col min="14856" max="14857" width="37.85546875" style="30" customWidth="1"/>
+    <col min="14858" max="15105" width="9.140625" style="30"/>
+    <col min="15106" max="15106" width="15.42578125" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="22.140625" style="30" customWidth="1"/>
+    <col min="15108" max="15111" width="9.140625" style="30"/>
+    <col min="15112" max="15113" width="37.85546875" style="30" customWidth="1"/>
+    <col min="15114" max="15361" width="9.140625" style="30"/>
+    <col min="15362" max="15362" width="15.42578125" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="22.140625" style="30" customWidth="1"/>
+    <col min="15364" max="15367" width="9.140625" style="30"/>
+    <col min="15368" max="15369" width="37.85546875" style="30" customWidth="1"/>
+    <col min="15370" max="15617" width="9.140625" style="30"/>
+    <col min="15618" max="15618" width="15.42578125" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="22.140625" style="30" customWidth="1"/>
+    <col min="15620" max="15623" width="9.140625" style="30"/>
+    <col min="15624" max="15625" width="37.85546875" style="30" customWidth="1"/>
+    <col min="15626" max="15873" width="9.140625" style="30"/>
+    <col min="15874" max="15874" width="15.42578125" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="22.140625" style="30" customWidth="1"/>
+    <col min="15876" max="15879" width="9.140625" style="30"/>
+    <col min="15880" max="15881" width="37.85546875" style="30" customWidth="1"/>
+    <col min="15882" max="16129" width="9.140625" style="30"/>
+    <col min="16130" max="16130" width="15.42578125" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="22.140625" style="30" customWidth="1"/>
+    <col min="16132" max="16135" width="9.140625" style="30"/>
+    <col min="16136" max="16137" width="37.85546875" style="30" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="152" t="s">
         <v>107</v>
       </c>
@@ -8738,7 +8740,7 @@
       <c r="G1" s="152"/>
       <c r="H1" s="152"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="106"/>
@@ -8748,7 +8750,7 @@
       <c r="G2" s="106"/>
       <c r="H2" s="107"/>
     </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1">
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="108" t="s">
         <v>16</v>
       </c>
@@ -8764,7 +8766,7 @@
       <c r="G3" s="109"/>
       <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="108" t="s">
         <v>13</v>
       </c>
@@ -8780,7 +8782,7 @@
       <c r="G4" s="109"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1">
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1">
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="105"/>
       <c r="B6" s="111" t="s">
         <v>109</v>
@@ -8812,7 +8814,7 @@
       <c r="G6" s="151"/>
       <c r="H6" s="151"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105"/>
       <c r="B7" s="113"/>
       <c r="C7" s="114"/>
@@ -8822,7 +8824,7 @@
       <c r="G7" s="106"/>
       <c r="H7" s="107"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="113"/>
       <c r="C8" s="114"/>
       <c r="D8" s="106"/>
@@ -8831,7 +8833,7 @@
       <c r="G8" s="106"/>
       <c r="H8" s="107"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="115"/>
       <c r="B9" s="115"/>
       <c r="C9" s="115"/>
@@ -8841,7 +8843,7 @@
       <c r="G9" s="115"/>
       <c r="H9" s="115"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="116"/>
       <c r="B10" s="117" t="s">
         <v>21</v>
@@ -8865,7 +8867,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="122"/>
       <c r="B11" s="123">
         <v>1</v>
@@ -8895,7 +8897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="122"/>
       <c r="B12" s="123">
         <v>2</v>
@@ -8925,7 +8927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="122"/>
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
@@ -8935,7 +8937,7 @@
       <c r="G13" s="126"/>
       <c r="H13" s="127"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="122"/>
       <c r="B14" s="128"/>
       <c r="C14" s="129" t="s">
@@ -8962,7 +8964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="115"/>
       <c r="B15" s="132"/>
       <c r="C15" s="115"/>
@@ -8972,7 +8974,7 @@
       <c r="G15" s="134"/>
       <c r="H15" s="134"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="115"/>
       <c r="B16" s="115"/>
       <c r="C16" s="135" t="s">
@@ -8989,7 +8991,7 @@
       <c r="G16" s="115"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="115"/>
       <c r="B17" s="115"/>
       <c r="C17" s="135" t="s">
@@ -9006,7 +9008,7 @@
       <c r="G17" s="115"/>
       <c r="H17" s="80"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
     </row>

--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="454">
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
   </si>
@@ -1887,6 +1887,40 @@
     <t>1. Enter the website
 2. Click on "Đăng ký" link
 3. Input incorrect capcha</t>
+  </si>
+  <si>
+    <t>[Edit profile-28]</t>
+  </si>
+  <si>
+    <t>1. Login the system with Member role
+2. Click "Trang cá nhân" link
+3. Click "Thay đổi thông tin" link
+4. Input information all fields</t>
+  </si>
+  <si>
+    <t>1.The Homepage is displayed 
+2. Display "Trang cá nhân" page
+3. Display "Thay đổi thông tin" page
+4. Display edit profile successfully message</t>
+  </si>
+  <si>
+    <t>[Register-31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user input correct all information </t>
+  </si>
+  <si>
+    <t>1. Enter the website
+2. Click on "Đăng ký" link
+3. Input information to all fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Homepage is displayed 
+2. Display "Đăng ký" page
+3. Display register successfully message </t>
+  </si>
+  <si>
+    <t>[Login-20]</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2594,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2912,9 +2946,6 @@
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3430,13 +3461,13 @@
     <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="34"/>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
@@ -3447,11 +3478,11 @@
       <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
@@ -3461,36 +3492,36 @@
       <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="142" t="str">
+      <c r="C6" s="141" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3650,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4087,39 +4118,39 @@
       <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144" t="str">
+      <c r="C3" s="142"/>
+      <c r="D3" s="143" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144" t="str">
+      <c r="C4" s="142"/>
+      <c r="D4" s="143" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="42"/>
@@ -4302,8 +4333,8 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5029,13 +5060,13 @@
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="69"/>
       <c r="H2" s="41"/>
       <c r="I2" s="66"/>
@@ -5047,13 +5078,13 @@
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="69"/>
       <c r="H3" s="41"/>
       <c r="I3" s="66"/>
@@ -5065,11 +5096,11 @@
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="69"/>
       <c r="H4" s="41"/>
       <c r="I4" s="66"/>
@@ -5088,10 +5119,10 @@
       <c r="D5" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
       <c r="I5" s="76"/>
@@ -5116,11 +5147,11 @@
         <f>COUNTIF(F$10:F$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="150">
+      <c r="E6" s="149">
         <f>COUNTA(A10:A995)</f>
         <v>19</v>
       </c>
-      <c r="F6" s="150"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
       <c r="I6" s="76"/>
@@ -5606,11 +5637,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6336,13 +6367,13 @@
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="69"/>
       <c r="H2" s="41"/>
       <c r="I2" s="66"/>
@@ -6354,13 +6385,13 @@
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="69"/>
       <c r="H3" s="41"/>
       <c r="I3" s="66"/>
@@ -6372,11 +6403,11 @@
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="69"/>
       <c r="H4" s="41"/>
       <c r="I4" s="66"/>
@@ -6395,10 +6426,10 @@
       <c r="D5" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
       <c r="I5" s="76"/>
@@ -6408,26 +6439,26 @@
     </row>
     <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
-        <f>COUNTIF(F97:F1005,"Pass")</f>
+        <f>COUNTIF(F99:F1007,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="78">
-        <f>COUNTIF(F97:F1005,"Fail")</f>
+        <f>COUNTIF(F99:F1007,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="78">
         <f>E6-D6-B6-A6</f>
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D6" s="79">
-        <f>COUNTIF(F$97:F$1005,"N/A")</f>
+        <f>COUNTIF(F$99:F$1007,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="150">
-        <f>COUNTA(A97:A1005)</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="150"/>
+      <c r="E6" s="149">
+        <f>COUNTA(A10:A1007)</f>
+        <v>94</v>
+      </c>
+      <c r="F6" s="149"/>
       <c r="G6" s="75"/>
       <c r="H6" s="75"/>
       <c r="I6" s="76"/>
@@ -6651,7 +6682,7 @@
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B18" s="93" t="s">
         <v>424</v>
@@ -6671,7 +6702,7 @@
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>146</v>
@@ -6691,7 +6722,7 @@
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="93" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>148</v>
@@ -6711,7 +6742,7 @@
     </row>
     <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>150</v>
@@ -6731,7 +6762,7 @@
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" s="93" t="s">
         <v>152</v>
@@ -6751,7 +6782,7 @@
     </row>
     <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="93" t="s">
         <v>154</v>
@@ -6771,7 +6802,7 @@
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" s="93" t="s">
         <v>156</v>
@@ -6791,7 +6822,7 @@
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" s="93" t="s">
         <v>158</v>
@@ -6811,7 +6842,7 @@
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="93" t="s">
         <v>161</v>
@@ -6831,7 +6862,7 @@
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" s="93" t="s">
         <v>162</v>
@@ -6851,7 +6882,7 @@
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" s="93" t="s">
         <v>167</v>
@@ -6871,7 +6902,7 @@
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="93" t="s">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="B29" s="93" t="s">
         <v>166</v>
@@ -7548,68 +7579,68 @@
         <v>262</v>
       </c>
       <c r="F63" s="93"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="138"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="84"/>
-      <c r="B64" s="84" t="s">
+      <c r="G63" s="93"/>
+      <c r="H63" s="137"/>
+    </row>
+    <row r="64" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="93" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="93" t="s">
+        <v>450</v>
+      </c>
+      <c r="C64" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>262</v>
+      </c>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="137"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="84"/>
+      <c r="B65" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="86"/>
-    </row>
-    <row r="65" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="93" t="s">
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="86"/>
+    </row>
+    <row r="66" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B66" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="C65" s="93" t="s">
+      <c r="C66" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="D65" s="93" t="s">
+      <c r="D66" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="94"/>
-    </row>
-    <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="93" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" s="93" t="s">
-        <v>292</v>
-      </c>
+      <c r="E66" s="93"/>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
       <c r="H66" s="94"/>
     </row>
     <row r="67" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A67" s="93" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D67" s="93" t="s">
         <v>298</v>
@@ -7623,13 +7654,13 @@
     </row>
     <row r="68" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A68" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D68" s="93" t="s">
         <v>298</v>
@@ -7641,15 +7672,15 @@
       <c r="G68" s="93"/>
       <c r="H68" s="94"/>
     </row>
-    <row r="69" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A69" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D69" s="93" t="s">
         <v>298</v>
@@ -7661,15 +7692,15 @@
       <c r="G69" s="93"/>
       <c r="H69" s="94"/>
     </row>
-    <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A70" s="93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D70" s="93" t="s">
         <v>298</v>
@@ -7683,13 +7714,13 @@
     </row>
     <row r="71" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A71" s="93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D71" s="93" t="s">
         <v>298</v>
@@ -7703,16 +7734,16 @@
     </row>
     <row r="72" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="93" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E72" s="93" t="s">
         <v>292</v>
@@ -7721,18 +7752,18 @@
       <c r="G72" s="93"/>
       <c r="H72" s="94"/>
     </row>
-    <row r="73" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A73" s="93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E73" s="93" t="s">
         <v>292</v>
@@ -7743,16 +7774,16 @@
     </row>
     <row r="74" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A74" s="93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E74" s="93" t="s">
         <v>292</v>
@@ -7763,16 +7794,16 @@
     </row>
     <row r="75" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A75" s="93" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E75" s="93" t="s">
         <v>292</v>
@@ -7781,18 +7812,18 @@
       <c r="G75" s="93"/>
       <c r="H75" s="94"/>
     </row>
-    <row r="76" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A76" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E76" s="93" t="s">
         <v>292</v>
@@ -7801,18 +7832,18 @@
       <c r="G76" s="93"/>
       <c r="H76" s="94"/>
     </row>
-    <row r="77" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E77" s="93" t="s">
         <v>292</v>
@@ -7823,16 +7854,16 @@
     </row>
     <row r="78" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A78" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E78" s="93" t="s">
         <v>292</v>
@@ -7841,18 +7872,18 @@
       <c r="G78" s="93"/>
       <c r="H78" s="94"/>
     </row>
-    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A79" s="93" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E79" s="93" t="s">
         <v>292</v>
@@ -7863,13 +7894,13 @@
     </row>
     <row r="80" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A80" s="93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D80" s="93" t="s">
         <v>325</v>
@@ -7881,18 +7912,18 @@
       <c r="G80" s="93"/>
       <c r="H80" s="94"/>
     </row>
-    <row r="81" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A81" s="93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E81" s="93" t="s">
         <v>292</v>
@@ -7901,15 +7932,15 @@
       <c r="G81" s="93"/>
       <c r="H81" s="94"/>
     </row>
-    <row r="82" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A82" s="93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D82" s="93" t="s">
         <v>328</v>
@@ -7921,18 +7952,18 @@
       <c r="G82" s="93"/>
       <c r="H82" s="94"/>
     </row>
-    <row r="83" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A83" s="93" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E83" s="93" t="s">
         <v>292</v>
@@ -7943,16 +7974,16 @@
     </row>
     <row r="84" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A84" s="93" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E84" s="93" t="s">
         <v>292</v>
@@ -7961,15 +7992,15 @@
       <c r="G84" s="93"/>
       <c r="H84" s="94"/>
     </row>
-    <row r="85" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A85" s="93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D85" s="93" t="s">
         <v>314</v>
@@ -7983,16 +8014,16 @@
     </row>
     <row r="86" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A86" s="93" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" s="93" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E86" s="93" t="s">
         <v>292</v>
@@ -8003,16 +8034,16 @@
     </row>
     <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A87" s="93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E87" s="93" t="s">
         <v>292</v>
@@ -8021,18 +8052,18 @@
       <c r="G87" s="93"/>
       <c r="H87" s="94"/>
     </row>
-    <row r="88" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A88" s="93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>427</v>
+        <v>228</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E88" s="93" t="s">
         <v>292</v>
@@ -8043,16 +8074,16 @@
     </row>
     <row r="89" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A89" s="93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>431</v>
+        <v>360</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E89" s="93" t="s">
         <v>292</v>
@@ -8063,16 +8094,16 @@
     </row>
     <row r="90" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="93" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E90" s="93" t="s">
         <v>292</v>
@@ -8083,16 +8114,16 @@
     </row>
     <row r="91" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A91" s="93" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="E91" s="93" t="s">
         <v>292</v>
@@ -8101,88 +8132,88 @@
       <c r="G91" s="93"/>
       <c r="H91" s="94"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="84"/>
-      <c r="B92" s="84" t="s">
-        <v>373</v>
-      </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="86"/>
-    </row>
-    <row r="93" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="B92" s="93" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="93" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="E92" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="94"/>
+    </row>
+    <row r="93" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A93" s="93" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="E93" s="93"/>
+        <v>448</v>
+      </c>
+      <c r="E93" s="93" t="s">
+        <v>292</v>
+      </c>
       <c r="F93" s="93"/>
       <c r="G93" s="93"/>
-      <c r="H93" s="94"/>
-    </row>
-    <row r="94" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="93" t="s">
-        <v>378</v>
-      </c>
-      <c r="C94" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="D94" s="93" t="s">
-        <v>383</v>
-      </c>
-      <c r="E94" s="93" t="s">
+      <c r="H93" s="137"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="84"/>
+      <c r="B94" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="86"/>
+    </row>
+    <row r="95" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="94"/>
-    </row>
-    <row r="95" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="93" t="s">
-        <v>382</v>
-      </c>
       <c r="B95" s="93" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>383</v>
-      </c>
-      <c r="E95" s="93" t="s">
-        <v>374</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="E95" s="93"/>
       <c r="F95" s="93"/>
       <c r="G95" s="93"/>
       <c r="H95" s="94"/>
     </row>
-    <row r="96" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="93" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B96" s="93" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E96" s="93" t="s">
         <v>374</v>
@@ -8191,18 +8222,18 @@
       <c r="G96" s="93"/>
       <c r="H96" s="94"/>
     </row>
-    <row r="97" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="93" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B97" s="93" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E97" s="93" t="s">
         <v>374</v>
@@ -8211,18 +8242,18 @@
       <c r="G97" s="93"/>
       <c r="H97" s="94"/>
     </row>
-    <row r="98" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="93" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E98" s="93" t="s">
         <v>374</v>
@@ -8233,16 +8264,16 @@
     </row>
     <row r="99" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A99" s="93" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E99" s="93" t="s">
         <v>374</v>
@@ -8251,18 +8282,18 @@
       <c r="G99" s="93"/>
       <c r="H99" s="94"/>
     </row>
-    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A100" s="93" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E100" s="93" t="s">
         <v>374</v>
@@ -8271,18 +8302,18 @@
       <c r="G100" s="93"/>
       <c r="H100" s="94"/>
     </row>
-    <row r="101" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A101" s="93" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E101" s="93" t="s">
         <v>374</v>
@@ -8291,18 +8322,18 @@
       <c r="G101" s="93"/>
       <c r="H101" s="94"/>
     </row>
-    <row r="102" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="93" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E102" s="93" t="s">
         <v>374</v>
@@ -8311,18 +8342,18 @@
       <c r="G102" s="93"/>
       <c r="H102" s="94"/>
     </row>
-    <row r="103" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="93" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E103" s="93" t="s">
         <v>374</v>
@@ -8331,18 +8362,18 @@
       <c r="G103" s="93"/>
       <c r="H103" s="94"/>
     </row>
-    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A104" s="93" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E104" s="93" t="s">
         <v>374</v>
@@ -8351,18 +8382,18 @@
       <c r="G104" s="93"/>
       <c r="H104" s="94"/>
     </row>
-    <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="93" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B105" s="93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C105" s="93" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D105" s="93" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E105" s="93" t="s">
         <v>374</v>
@@ -8370,6 +8401,46 @@
       <c r="F105" s="93"/>
       <c r="G105" s="93"/>
       <c r="H105" s="94"/>
+    </row>
+    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="C106" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="D106" s="93" t="s">
+        <v>418</v>
+      </c>
+      <c r="E106" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106" s="93"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="94"/>
+    </row>
+    <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" s="93" t="s">
+        <v>417</v>
+      </c>
+      <c r="D107" s="93" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F107" s="93"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H15"/>
@@ -8381,7 +8452,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65544:F65546 JB65544:JB65546 SX65544:SX65546 ACT65544:ACT65546 AMP65544:AMP65546 AWL65544:AWL65546 BGH65544:BGH65546 BQD65544:BQD65546 BZZ65544:BZZ65546 CJV65544:CJV65546 CTR65544:CTR65546 DDN65544:DDN65546 DNJ65544:DNJ65546 DXF65544:DXF65546 EHB65544:EHB65546 EQX65544:EQX65546 FAT65544:FAT65546 FKP65544:FKP65546 FUL65544:FUL65546 GEH65544:GEH65546 GOD65544:GOD65546 GXZ65544:GXZ65546 HHV65544:HHV65546 HRR65544:HRR65546 IBN65544:IBN65546 ILJ65544:ILJ65546 IVF65544:IVF65546 JFB65544:JFB65546 JOX65544:JOX65546 JYT65544:JYT65546 KIP65544:KIP65546 KSL65544:KSL65546 LCH65544:LCH65546 LMD65544:LMD65546 LVZ65544:LVZ65546 MFV65544:MFV65546 MPR65544:MPR65546 MZN65544:MZN65546 NJJ65544:NJJ65546 NTF65544:NTF65546 ODB65544:ODB65546 OMX65544:OMX65546 OWT65544:OWT65546 PGP65544:PGP65546 PQL65544:PQL65546 QAH65544:QAH65546 QKD65544:QKD65546 QTZ65544:QTZ65546 RDV65544:RDV65546 RNR65544:RNR65546 RXN65544:RXN65546 SHJ65544:SHJ65546 SRF65544:SRF65546 TBB65544:TBB65546 TKX65544:TKX65546 TUT65544:TUT65546 UEP65544:UEP65546 UOL65544:UOL65546 UYH65544:UYH65546 VID65544:VID65546 VRZ65544:VRZ65546 WBV65544:WBV65546 WLR65544:WLR65546 WVN65544:WVN65546 F131080:F131082 JB131080:JB131082 SX131080:SX131082 ACT131080:ACT131082 AMP131080:AMP131082 AWL131080:AWL131082 BGH131080:BGH131082 BQD131080:BQD131082 BZZ131080:BZZ131082 CJV131080:CJV131082 CTR131080:CTR131082 DDN131080:DDN131082 DNJ131080:DNJ131082 DXF131080:DXF131082 EHB131080:EHB131082 EQX131080:EQX131082 FAT131080:FAT131082 FKP131080:FKP131082 FUL131080:FUL131082 GEH131080:GEH131082 GOD131080:GOD131082 GXZ131080:GXZ131082 HHV131080:HHV131082 HRR131080:HRR131082 IBN131080:IBN131082 ILJ131080:ILJ131082 IVF131080:IVF131082 JFB131080:JFB131082 JOX131080:JOX131082 JYT131080:JYT131082 KIP131080:KIP131082 KSL131080:KSL131082 LCH131080:LCH131082 LMD131080:LMD131082 LVZ131080:LVZ131082 MFV131080:MFV131082 MPR131080:MPR131082 MZN131080:MZN131082 NJJ131080:NJJ131082 NTF131080:NTF131082 ODB131080:ODB131082 OMX131080:OMX131082 OWT131080:OWT131082 PGP131080:PGP131082 PQL131080:PQL131082 QAH131080:QAH131082 QKD131080:QKD131082 QTZ131080:QTZ131082 RDV131080:RDV131082 RNR131080:RNR131082 RXN131080:RXN131082 SHJ131080:SHJ131082 SRF131080:SRF131082 TBB131080:TBB131082 TKX131080:TKX131082 TUT131080:TUT131082 UEP131080:UEP131082 UOL131080:UOL131082 UYH131080:UYH131082 VID131080:VID131082 VRZ131080:VRZ131082 WBV131080:WBV131082 WLR131080:WLR131082 WVN131080:WVN131082 F196616:F196618 JB196616:JB196618 SX196616:SX196618 ACT196616:ACT196618 AMP196616:AMP196618 AWL196616:AWL196618 BGH196616:BGH196618 BQD196616:BQD196618 BZZ196616:BZZ196618 CJV196616:CJV196618 CTR196616:CTR196618 DDN196616:DDN196618 DNJ196616:DNJ196618 DXF196616:DXF196618 EHB196616:EHB196618 EQX196616:EQX196618 FAT196616:FAT196618 FKP196616:FKP196618 FUL196616:FUL196618 GEH196616:GEH196618 GOD196616:GOD196618 GXZ196616:GXZ196618 HHV196616:HHV196618 HRR196616:HRR196618 IBN196616:IBN196618 ILJ196616:ILJ196618 IVF196616:IVF196618 JFB196616:JFB196618 JOX196616:JOX196618 JYT196616:JYT196618 KIP196616:KIP196618 KSL196616:KSL196618 LCH196616:LCH196618 LMD196616:LMD196618 LVZ196616:LVZ196618 MFV196616:MFV196618 MPR196616:MPR196618 MZN196616:MZN196618 NJJ196616:NJJ196618 NTF196616:NTF196618 ODB196616:ODB196618 OMX196616:OMX196618 OWT196616:OWT196618 PGP196616:PGP196618 PQL196616:PQL196618 QAH196616:QAH196618 QKD196616:QKD196618 QTZ196616:QTZ196618 RDV196616:RDV196618 RNR196616:RNR196618 RXN196616:RXN196618 SHJ196616:SHJ196618 SRF196616:SRF196618 TBB196616:TBB196618 TKX196616:TKX196618 TUT196616:TUT196618 UEP196616:UEP196618 UOL196616:UOL196618 UYH196616:UYH196618 VID196616:VID196618 VRZ196616:VRZ196618 WBV196616:WBV196618 WLR196616:WLR196618 WVN196616:WVN196618 F262152:F262154 JB262152:JB262154 SX262152:SX262154 ACT262152:ACT262154 AMP262152:AMP262154 AWL262152:AWL262154 BGH262152:BGH262154 BQD262152:BQD262154 BZZ262152:BZZ262154 CJV262152:CJV262154 CTR262152:CTR262154 DDN262152:DDN262154 DNJ262152:DNJ262154 DXF262152:DXF262154 EHB262152:EHB262154 EQX262152:EQX262154 FAT262152:FAT262154 FKP262152:FKP262154 FUL262152:FUL262154 GEH262152:GEH262154 GOD262152:GOD262154 GXZ262152:GXZ262154 HHV262152:HHV262154 HRR262152:HRR262154 IBN262152:IBN262154 ILJ262152:ILJ262154 IVF262152:IVF262154 JFB262152:JFB262154 JOX262152:JOX262154 JYT262152:JYT262154 KIP262152:KIP262154 KSL262152:KSL262154 LCH262152:LCH262154 LMD262152:LMD262154 LVZ262152:LVZ262154 MFV262152:MFV262154 MPR262152:MPR262154 MZN262152:MZN262154 NJJ262152:NJJ262154 NTF262152:NTF262154 ODB262152:ODB262154 OMX262152:OMX262154 OWT262152:OWT262154 PGP262152:PGP262154 PQL262152:PQL262154 QAH262152:QAH262154 QKD262152:QKD262154 QTZ262152:QTZ262154 RDV262152:RDV262154 RNR262152:RNR262154 RXN262152:RXN262154 SHJ262152:SHJ262154 SRF262152:SRF262154 TBB262152:TBB262154 TKX262152:TKX262154 TUT262152:TUT262154 UEP262152:UEP262154 UOL262152:UOL262154 UYH262152:UYH262154 VID262152:VID262154 VRZ262152:VRZ262154 WBV262152:WBV262154 WLR262152:WLR262154 WVN262152:WVN262154 F327688:F327690 JB327688:JB327690 SX327688:SX327690 ACT327688:ACT327690 AMP327688:AMP327690 AWL327688:AWL327690 BGH327688:BGH327690 BQD327688:BQD327690 BZZ327688:BZZ327690 CJV327688:CJV327690 CTR327688:CTR327690 DDN327688:DDN327690 DNJ327688:DNJ327690 DXF327688:DXF327690 EHB327688:EHB327690 EQX327688:EQX327690 FAT327688:FAT327690 FKP327688:FKP327690 FUL327688:FUL327690 GEH327688:GEH327690 GOD327688:GOD327690 GXZ327688:GXZ327690 HHV327688:HHV327690 HRR327688:HRR327690 IBN327688:IBN327690 ILJ327688:ILJ327690 IVF327688:IVF327690 JFB327688:JFB327690 JOX327688:JOX327690 JYT327688:JYT327690 KIP327688:KIP327690 KSL327688:KSL327690 LCH327688:LCH327690 LMD327688:LMD327690 LVZ327688:LVZ327690 MFV327688:MFV327690 MPR327688:MPR327690 MZN327688:MZN327690 NJJ327688:NJJ327690 NTF327688:NTF327690 ODB327688:ODB327690 OMX327688:OMX327690 OWT327688:OWT327690 PGP327688:PGP327690 PQL327688:PQL327690 QAH327688:QAH327690 QKD327688:QKD327690 QTZ327688:QTZ327690 RDV327688:RDV327690 RNR327688:RNR327690 RXN327688:RXN327690 SHJ327688:SHJ327690 SRF327688:SRF327690 TBB327688:TBB327690 TKX327688:TKX327690 TUT327688:TUT327690 UEP327688:UEP327690 UOL327688:UOL327690 UYH327688:UYH327690 VID327688:VID327690 VRZ327688:VRZ327690 WBV327688:WBV327690 WLR327688:WLR327690 WVN327688:WVN327690 F393224:F393226 JB393224:JB393226 SX393224:SX393226 ACT393224:ACT393226 AMP393224:AMP393226 AWL393224:AWL393226 BGH393224:BGH393226 BQD393224:BQD393226 BZZ393224:BZZ393226 CJV393224:CJV393226 CTR393224:CTR393226 DDN393224:DDN393226 DNJ393224:DNJ393226 DXF393224:DXF393226 EHB393224:EHB393226 EQX393224:EQX393226 FAT393224:FAT393226 FKP393224:FKP393226 FUL393224:FUL393226 GEH393224:GEH393226 GOD393224:GOD393226 GXZ393224:GXZ393226 HHV393224:HHV393226 HRR393224:HRR393226 IBN393224:IBN393226 ILJ393224:ILJ393226 IVF393224:IVF393226 JFB393224:JFB393226 JOX393224:JOX393226 JYT393224:JYT393226 KIP393224:KIP393226 KSL393224:KSL393226 LCH393224:LCH393226 LMD393224:LMD393226 LVZ393224:LVZ393226 MFV393224:MFV393226 MPR393224:MPR393226 MZN393224:MZN393226 NJJ393224:NJJ393226 NTF393224:NTF393226 ODB393224:ODB393226 OMX393224:OMX393226 OWT393224:OWT393226 PGP393224:PGP393226 PQL393224:PQL393226 QAH393224:QAH393226 QKD393224:QKD393226 QTZ393224:QTZ393226 RDV393224:RDV393226 RNR393224:RNR393226 RXN393224:RXN393226 SHJ393224:SHJ393226 SRF393224:SRF393226 TBB393224:TBB393226 TKX393224:TKX393226 TUT393224:TUT393226 UEP393224:UEP393226 UOL393224:UOL393226 UYH393224:UYH393226 VID393224:VID393226 VRZ393224:VRZ393226 WBV393224:WBV393226 WLR393224:WLR393226 WVN393224:WVN393226 F458760:F458762 JB458760:JB458762 SX458760:SX458762 ACT458760:ACT458762 AMP458760:AMP458762 AWL458760:AWL458762 BGH458760:BGH458762 BQD458760:BQD458762 BZZ458760:BZZ458762 CJV458760:CJV458762 CTR458760:CTR458762 DDN458760:DDN458762 DNJ458760:DNJ458762 DXF458760:DXF458762 EHB458760:EHB458762 EQX458760:EQX458762 FAT458760:FAT458762 FKP458760:FKP458762 FUL458760:FUL458762 GEH458760:GEH458762 GOD458760:GOD458762 GXZ458760:GXZ458762 HHV458760:HHV458762 HRR458760:HRR458762 IBN458760:IBN458762 ILJ458760:ILJ458762 IVF458760:IVF458762 JFB458760:JFB458762 JOX458760:JOX458762 JYT458760:JYT458762 KIP458760:KIP458762 KSL458760:KSL458762 LCH458760:LCH458762 LMD458760:LMD458762 LVZ458760:LVZ458762 MFV458760:MFV458762 MPR458760:MPR458762 MZN458760:MZN458762 NJJ458760:NJJ458762 NTF458760:NTF458762 ODB458760:ODB458762 OMX458760:OMX458762 OWT458760:OWT458762 PGP458760:PGP458762 PQL458760:PQL458762 QAH458760:QAH458762 QKD458760:QKD458762 QTZ458760:QTZ458762 RDV458760:RDV458762 RNR458760:RNR458762 RXN458760:RXN458762 SHJ458760:SHJ458762 SRF458760:SRF458762 TBB458760:TBB458762 TKX458760:TKX458762 TUT458760:TUT458762 UEP458760:UEP458762 UOL458760:UOL458762 UYH458760:UYH458762 VID458760:VID458762 VRZ458760:VRZ458762 WBV458760:WBV458762 WLR458760:WLR458762 WVN458760:WVN458762 F524296:F524298 JB524296:JB524298 SX524296:SX524298 ACT524296:ACT524298 AMP524296:AMP524298 AWL524296:AWL524298 BGH524296:BGH524298 BQD524296:BQD524298 BZZ524296:BZZ524298 CJV524296:CJV524298 CTR524296:CTR524298 DDN524296:DDN524298 DNJ524296:DNJ524298 DXF524296:DXF524298 EHB524296:EHB524298 EQX524296:EQX524298 FAT524296:FAT524298 FKP524296:FKP524298 FUL524296:FUL524298 GEH524296:GEH524298 GOD524296:GOD524298 GXZ524296:GXZ524298 HHV524296:HHV524298 HRR524296:HRR524298 IBN524296:IBN524298 ILJ524296:ILJ524298 IVF524296:IVF524298 JFB524296:JFB524298 JOX524296:JOX524298 JYT524296:JYT524298 KIP524296:KIP524298 KSL524296:KSL524298 LCH524296:LCH524298 LMD524296:LMD524298 LVZ524296:LVZ524298 MFV524296:MFV524298 MPR524296:MPR524298 MZN524296:MZN524298 NJJ524296:NJJ524298 NTF524296:NTF524298 ODB524296:ODB524298 OMX524296:OMX524298 OWT524296:OWT524298 PGP524296:PGP524298 PQL524296:PQL524298 QAH524296:QAH524298 QKD524296:QKD524298 QTZ524296:QTZ524298 RDV524296:RDV524298 RNR524296:RNR524298 RXN524296:RXN524298 SHJ524296:SHJ524298 SRF524296:SRF524298 TBB524296:TBB524298 TKX524296:TKX524298 TUT524296:TUT524298 UEP524296:UEP524298 UOL524296:UOL524298 UYH524296:UYH524298 VID524296:VID524298 VRZ524296:VRZ524298 WBV524296:WBV524298 WLR524296:WLR524298 WVN524296:WVN524298 F589832:F589834 JB589832:JB589834 SX589832:SX589834 ACT589832:ACT589834 AMP589832:AMP589834 AWL589832:AWL589834 BGH589832:BGH589834 BQD589832:BQD589834 BZZ589832:BZZ589834 CJV589832:CJV589834 CTR589832:CTR589834 DDN589832:DDN589834 DNJ589832:DNJ589834 DXF589832:DXF589834 EHB589832:EHB589834 EQX589832:EQX589834 FAT589832:FAT589834 FKP589832:FKP589834 FUL589832:FUL589834 GEH589832:GEH589834 GOD589832:GOD589834 GXZ589832:GXZ589834 HHV589832:HHV589834 HRR589832:HRR589834 IBN589832:IBN589834 ILJ589832:ILJ589834 IVF589832:IVF589834 JFB589832:JFB589834 JOX589832:JOX589834 JYT589832:JYT589834 KIP589832:KIP589834 KSL589832:KSL589834 LCH589832:LCH589834 LMD589832:LMD589834 LVZ589832:LVZ589834 MFV589832:MFV589834 MPR589832:MPR589834 MZN589832:MZN589834 NJJ589832:NJJ589834 NTF589832:NTF589834 ODB589832:ODB589834 OMX589832:OMX589834 OWT589832:OWT589834 PGP589832:PGP589834 PQL589832:PQL589834 QAH589832:QAH589834 QKD589832:QKD589834 QTZ589832:QTZ589834 RDV589832:RDV589834 RNR589832:RNR589834 RXN589832:RXN589834 SHJ589832:SHJ589834 SRF589832:SRF589834 TBB589832:TBB589834 TKX589832:TKX589834 TUT589832:TUT589834 UEP589832:UEP589834 UOL589832:UOL589834 UYH589832:UYH589834 VID589832:VID589834 VRZ589832:VRZ589834 WBV589832:WBV589834 WLR589832:WLR589834 WVN589832:WVN589834 F655368:F655370 JB655368:JB655370 SX655368:SX655370 ACT655368:ACT655370 AMP655368:AMP655370 AWL655368:AWL655370 BGH655368:BGH655370 BQD655368:BQD655370 BZZ655368:BZZ655370 CJV655368:CJV655370 CTR655368:CTR655370 DDN655368:DDN655370 DNJ655368:DNJ655370 DXF655368:DXF655370 EHB655368:EHB655370 EQX655368:EQX655370 FAT655368:FAT655370 FKP655368:FKP655370 FUL655368:FUL655370 GEH655368:GEH655370 GOD655368:GOD655370 GXZ655368:GXZ655370 HHV655368:HHV655370 HRR655368:HRR655370 IBN655368:IBN655370 ILJ655368:ILJ655370 IVF655368:IVF655370 JFB655368:JFB655370 JOX655368:JOX655370 JYT655368:JYT655370 KIP655368:KIP655370 KSL655368:KSL655370 LCH655368:LCH655370 LMD655368:LMD655370 LVZ655368:LVZ655370 MFV655368:MFV655370 MPR655368:MPR655370 MZN655368:MZN655370 NJJ655368:NJJ655370 NTF655368:NTF655370 ODB655368:ODB655370 OMX655368:OMX655370 OWT655368:OWT655370 PGP655368:PGP655370 PQL655368:PQL655370 QAH655368:QAH655370 QKD655368:QKD655370 QTZ655368:QTZ655370 RDV655368:RDV655370 RNR655368:RNR655370 RXN655368:RXN655370 SHJ655368:SHJ655370 SRF655368:SRF655370 TBB655368:TBB655370 TKX655368:TKX655370 TUT655368:TUT655370 UEP655368:UEP655370 UOL655368:UOL655370 UYH655368:UYH655370 VID655368:VID655370 VRZ655368:VRZ655370 WBV655368:WBV655370 WLR655368:WLR655370 WVN655368:WVN655370 F720904:F720906 JB720904:JB720906 SX720904:SX720906 ACT720904:ACT720906 AMP720904:AMP720906 AWL720904:AWL720906 BGH720904:BGH720906 BQD720904:BQD720906 BZZ720904:BZZ720906 CJV720904:CJV720906 CTR720904:CTR720906 DDN720904:DDN720906 DNJ720904:DNJ720906 DXF720904:DXF720906 EHB720904:EHB720906 EQX720904:EQX720906 FAT720904:FAT720906 FKP720904:FKP720906 FUL720904:FUL720906 GEH720904:GEH720906 GOD720904:GOD720906 GXZ720904:GXZ720906 HHV720904:HHV720906 HRR720904:HRR720906 IBN720904:IBN720906 ILJ720904:ILJ720906 IVF720904:IVF720906 JFB720904:JFB720906 JOX720904:JOX720906 JYT720904:JYT720906 KIP720904:KIP720906 KSL720904:KSL720906 LCH720904:LCH720906 LMD720904:LMD720906 LVZ720904:LVZ720906 MFV720904:MFV720906 MPR720904:MPR720906 MZN720904:MZN720906 NJJ720904:NJJ720906 NTF720904:NTF720906 ODB720904:ODB720906 OMX720904:OMX720906 OWT720904:OWT720906 PGP720904:PGP720906 PQL720904:PQL720906 QAH720904:QAH720906 QKD720904:QKD720906 QTZ720904:QTZ720906 RDV720904:RDV720906 RNR720904:RNR720906 RXN720904:RXN720906 SHJ720904:SHJ720906 SRF720904:SRF720906 TBB720904:TBB720906 TKX720904:TKX720906 TUT720904:TUT720906 UEP720904:UEP720906 UOL720904:UOL720906 UYH720904:UYH720906 VID720904:VID720906 VRZ720904:VRZ720906 WBV720904:WBV720906 WLR720904:WLR720906 WVN720904:WVN720906 F786440:F786442 JB786440:JB786442 SX786440:SX786442 ACT786440:ACT786442 AMP786440:AMP786442 AWL786440:AWL786442 BGH786440:BGH786442 BQD786440:BQD786442 BZZ786440:BZZ786442 CJV786440:CJV786442 CTR786440:CTR786442 DDN786440:DDN786442 DNJ786440:DNJ786442 DXF786440:DXF786442 EHB786440:EHB786442 EQX786440:EQX786442 FAT786440:FAT786442 FKP786440:FKP786442 FUL786440:FUL786442 GEH786440:GEH786442 GOD786440:GOD786442 GXZ786440:GXZ786442 HHV786440:HHV786442 HRR786440:HRR786442 IBN786440:IBN786442 ILJ786440:ILJ786442 IVF786440:IVF786442 JFB786440:JFB786442 JOX786440:JOX786442 JYT786440:JYT786442 KIP786440:KIP786442 KSL786440:KSL786442 LCH786440:LCH786442 LMD786440:LMD786442 LVZ786440:LVZ786442 MFV786440:MFV786442 MPR786440:MPR786442 MZN786440:MZN786442 NJJ786440:NJJ786442 NTF786440:NTF786442 ODB786440:ODB786442 OMX786440:OMX786442 OWT786440:OWT786442 PGP786440:PGP786442 PQL786440:PQL786442 QAH786440:QAH786442 QKD786440:QKD786442 QTZ786440:QTZ786442 RDV786440:RDV786442 RNR786440:RNR786442 RXN786440:RXN786442 SHJ786440:SHJ786442 SRF786440:SRF786442 TBB786440:TBB786442 TKX786440:TKX786442 TUT786440:TUT786442 UEP786440:UEP786442 UOL786440:UOL786442 UYH786440:UYH786442 VID786440:VID786442 VRZ786440:VRZ786442 WBV786440:WBV786442 WLR786440:WLR786442 WVN786440:WVN786442 F851976:F851978 JB851976:JB851978 SX851976:SX851978 ACT851976:ACT851978 AMP851976:AMP851978 AWL851976:AWL851978 BGH851976:BGH851978 BQD851976:BQD851978 BZZ851976:BZZ851978 CJV851976:CJV851978 CTR851976:CTR851978 DDN851976:DDN851978 DNJ851976:DNJ851978 DXF851976:DXF851978 EHB851976:EHB851978 EQX851976:EQX851978 FAT851976:FAT851978 FKP851976:FKP851978 FUL851976:FUL851978 GEH851976:GEH851978 GOD851976:GOD851978 GXZ851976:GXZ851978 HHV851976:HHV851978 HRR851976:HRR851978 IBN851976:IBN851978 ILJ851976:ILJ851978 IVF851976:IVF851978 JFB851976:JFB851978 JOX851976:JOX851978 JYT851976:JYT851978 KIP851976:KIP851978 KSL851976:KSL851978 LCH851976:LCH851978 LMD851976:LMD851978 LVZ851976:LVZ851978 MFV851976:MFV851978 MPR851976:MPR851978 MZN851976:MZN851978 NJJ851976:NJJ851978 NTF851976:NTF851978 ODB851976:ODB851978 OMX851976:OMX851978 OWT851976:OWT851978 PGP851976:PGP851978 PQL851976:PQL851978 QAH851976:QAH851978 QKD851976:QKD851978 QTZ851976:QTZ851978 RDV851976:RDV851978 RNR851976:RNR851978 RXN851976:RXN851978 SHJ851976:SHJ851978 SRF851976:SRF851978 TBB851976:TBB851978 TKX851976:TKX851978 TUT851976:TUT851978 UEP851976:UEP851978 UOL851976:UOL851978 UYH851976:UYH851978 VID851976:VID851978 VRZ851976:VRZ851978 WBV851976:WBV851978 WLR851976:WLR851978 WVN851976:WVN851978 F917512:F917514 JB917512:JB917514 SX917512:SX917514 ACT917512:ACT917514 AMP917512:AMP917514 AWL917512:AWL917514 BGH917512:BGH917514 BQD917512:BQD917514 BZZ917512:BZZ917514 CJV917512:CJV917514 CTR917512:CTR917514 DDN917512:DDN917514 DNJ917512:DNJ917514 DXF917512:DXF917514 EHB917512:EHB917514 EQX917512:EQX917514 FAT917512:FAT917514 FKP917512:FKP917514 FUL917512:FUL917514 GEH917512:GEH917514 GOD917512:GOD917514 GXZ917512:GXZ917514 HHV917512:HHV917514 HRR917512:HRR917514 IBN917512:IBN917514 ILJ917512:ILJ917514 IVF917512:IVF917514 JFB917512:JFB917514 JOX917512:JOX917514 JYT917512:JYT917514 KIP917512:KIP917514 KSL917512:KSL917514 LCH917512:LCH917514 LMD917512:LMD917514 LVZ917512:LVZ917514 MFV917512:MFV917514 MPR917512:MPR917514 MZN917512:MZN917514 NJJ917512:NJJ917514 NTF917512:NTF917514 ODB917512:ODB917514 OMX917512:OMX917514 OWT917512:OWT917514 PGP917512:PGP917514 PQL917512:PQL917514 QAH917512:QAH917514 QKD917512:QKD917514 QTZ917512:QTZ917514 RDV917512:RDV917514 RNR917512:RNR917514 RXN917512:RXN917514 SHJ917512:SHJ917514 SRF917512:SRF917514 TBB917512:TBB917514 TKX917512:TKX917514 TUT917512:TUT917514 UEP917512:UEP917514 UOL917512:UOL917514 UYH917512:UYH917514 VID917512:VID917514 VRZ917512:VRZ917514 WBV917512:WBV917514 WLR917512:WLR917514 WVN917512:WVN917514 F983048:F983050 JB983048:JB983050 SX983048:SX983050 ACT983048:ACT983050 AMP983048:AMP983050 AWL983048:AWL983050 BGH983048:BGH983050 BQD983048:BQD983050 BZZ983048:BZZ983050 CJV983048:CJV983050 CTR983048:CTR983050 DDN983048:DDN983050 DNJ983048:DNJ983050 DXF983048:DXF983050 EHB983048:EHB983050 EQX983048:EQX983050 FAT983048:FAT983050 FKP983048:FKP983050 FUL983048:FUL983050 GEH983048:GEH983050 GOD983048:GOD983050 GXZ983048:GXZ983050 HHV983048:HHV983050 HRR983048:HRR983050 IBN983048:IBN983050 ILJ983048:ILJ983050 IVF983048:IVF983050 JFB983048:JFB983050 JOX983048:JOX983050 JYT983048:JYT983050 KIP983048:KIP983050 KSL983048:KSL983050 LCH983048:LCH983050 LMD983048:LMD983050 LVZ983048:LVZ983050 MFV983048:MFV983050 MPR983048:MPR983050 MZN983048:MZN983050 NJJ983048:NJJ983050 NTF983048:NTF983050 ODB983048:ODB983050 OMX983048:OMX983050 OWT983048:OWT983050 PGP983048:PGP983050 PQL983048:PQL983050 QAH983048:QAH983050 QKD983048:QKD983050 QTZ983048:QTZ983050 RDV983048:RDV983050 RNR983048:RNR983050 RXN983048:RXN983050 SHJ983048:SHJ983050 SRF983048:SRF983050 TBB983048:TBB983050 TKX983048:TKX983050 TUT983048:TUT983050 UEP983048:UEP983050 UOL983048:UOL983050 UYH983048:UYH983050 VID983048:VID983050 VRZ983048:VRZ983050 WBV983048:WBV983050 WLR983048:WLR983050 WVN983048:WVN983050 WVN983054:WVN983191 F65550:F65687 JB65550:JB65687 SX65550:SX65687 ACT65550:ACT65687 AMP65550:AMP65687 AWL65550:AWL65687 BGH65550:BGH65687 BQD65550:BQD65687 BZZ65550:BZZ65687 CJV65550:CJV65687 CTR65550:CTR65687 DDN65550:DDN65687 DNJ65550:DNJ65687 DXF65550:DXF65687 EHB65550:EHB65687 EQX65550:EQX65687 FAT65550:FAT65687 FKP65550:FKP65687 FUL65550:FUL65687 GEH65550:GEH65687 GOD65550:GOD65687 GXZ65550:GXZ65687 HHV65550:HHV65687 HRR65550:HRR65687 IBN65550:IBN65687 ILJ65550:ILJ65687 IVF65550:IVF65687 JFB65550:JFB65687 JOX65550:JOX65687 JYT65550:JYT65687 KIP65550:KIP65687 KSL65550:KSL65687 LCH65550:LCH65687 LMD65550:LMD65687 LVZ65550:LVZ65687 MFV65550:MFV65687 MPR65550:MPR65687 MZN65550:MZN65687 NJJ65550:NJJ65687 NTF65550:NTF65687 ODB65550:ODB65687 OMX65550:OMX65687 OWT65550:OWT65687 PGP65550:PGP65687 PQL65550:PQL65687 QAH65550:QAH65687 QKD65550:QKD65687 QTZ65550:QTZ65687 RDV65550:RDV65687 RNR65550:RNR65687 RXN65550:RXN65687 SHJ65550:SHJ65687 SRF65550:SRF65687 TBB65550:TBB65687 TKX65550:TKX65687 TUT65550:TUT65687 UEP65550:UEP65687 UOL65550:UOL65687 UYH65550:UYH65687 VID65550:VID65687 VRZ65550:VRZ65687 WBV65550:WBV65687 WLR65550:WLR65687 WVN65550:WVN65687 F131086:F131223 JB131086:JB131223 SX131086:SX131223 ACT131086:ACT131223 AMP131086:AMP131223 AWL131086:AWL131223 BGH131086:BGH131223 BQD131086:BQD131223 BZZ131086:BZZ131223 CJV131086:CJV131223 CTR131086:CTR131223 DDN131086:DDN131223 DNJ131086:DNJ131223 DXF131086:DXF131223 EHB131086:EHB131223 EQX131086:EQX131223 FAT131086:FAT131223 FKP131086:FKP131223 FUL131086:FUL131223 GEH131086:GEH131223 GOD131086:GOD131223 GXZ131086:GXZ131223 HHV131086:HHV131223 HRR131086:HRR131223 IBN131086:IBN131223 ILJ131086:ILJ131223 IVF131086:IVF131223 JFB131086:JFB131223 JOX131086:JOX131223 JYT131086:JYT131223 KIP131086:KIP131223 KSL131086:KSL131223 LCH131086:LCH131223 LMD131086:LMD131223 LVZ131086:LVZ131223 MFV131086:MFV131223 MPR131086:MPR131223 MZN131086:MZN131223 NJJ131086:NJJ131223 NTF131086:NTF131223 ODB131086:ODB131223 OMX131086:OMX131223 OWT131086:OWT131223 PGP131086:PGP131223 PQL131086:PQL131223 QAH131086:QAH131223 QKD131086:QKD131223 QTZ131086:QTZ131223 RDV131086:RDV131223 RNR131086:RNR131223 RXN131086:RXN131223 SHJ131086:SHJ131223 SRF131086:SRF131223 TBB131086:TBB131223 TKX131086:TKX131223 TUT131086:TUT131223 UEP131086:UEP131223 UOL131086:UOL131223 UYH131086:UYH131223 VID131086:VID131223 VRZ131086:VRZ131223 WBV131086:WBV131223 WLR131086:WLR131223 WVN131086:WVN131223 F196622:F196759 JB196622:JB196759 SX196622:SX196759 ACT196622:ACT196759 AMP196622:AMP196759 AWL196622:AWL196759 BGH196622:BGH196759 BQD196622:BQD196759 BZZ196622:BZZ196759 CJV196622:CJV196759 CTR196622:CTR196759 DDN196622:DDN196759 DNJ196622:DNJ196759 DXF196622:DXF196759 EHB196622:EHB196759 EQX196622:EQX196759 FAT196622:FAT196759 FKP196622:FKP196759 FUL196622:FUL196759 GEH196622:GEH196759 GOD196622:GOD196759 GXZ196622:GXZ196759 HHV196622:HHV196759 HRR196622:HRR196759 IBN196622:IBN196759 ILJ196622:ILJ196759 IVF196622:IVF196759 JFB196622:JFB196759 JOX196622:JOX196759 JYT196622:JYT196759 KIP196622:KIP196759 KSL196622:KSL196759 LCH196622:LCH196759 LMD196622:LMD196759 LVZ196622:LVZ196759 MFV196622:MFV196759 MPR196622:MPR196759 MZN196622:MZN196759 NJJ196622:NJJ196759 NTF196622:NTF196759 ODB196622:ODB196759 OMX196622:OMX196759 OWT196622:OWT196759 PGP196622:PGP196759 PQL196622:PQL196759 QAH196622:QAH196759 QKD196622:QKD196759 QTZ196622:QTZ196759 RDV196622:RDV196759 RNR196622:RNR196759 RXN196622:RXN196759 SHJ196622:SHJ196759 SRF196622:SRF196759 TBB196622:TBB196759 TKX196622:TKX196759 TUT196622:TUT196759 UEP196622:UEP196759 UOL196622:UOL196759 UYH196622:UYH196759 VID196622:VID196759 VRZ196622:VRZ196759 WBV196622:WBV196759 WLR196622:WLR196759 WVN196622:WVN196759 F262158:F262295 JB262158:JB262295 SX262158:SX262295 ACT262158:ACT262295 AMP262158:AMP262295 AWL262158:AWL262295 BGH262158:BGH262295 BQD262158:BQD262295 BZZ262158:BZZ262295 CJV262158:CJV262295 CTR262158:CTR262295 DDN262158:DDN262295 DNJ262158:DNJ262295 DXF262158:DXF262295 EHB262158:EHB262295 EQX262158:EQX262295 FAT262158:FAT262295 FKP262158:FKP262295 FUL262158:FUL262295 GEH262158:GEH262295 GOD262158:GOD262295 GXZ262158:GXZ262295 HHV262158:HHV262295 HRR262158:HRR262295 IBN262158:IBN262295 ILJ262158:ILJ262295 IVF262158:IVF262295 JFB262158:JFB262295 JOX262158:JOX262295 JYT262158:JYT262295 KIP262158:KIP262295 KSL262158:KSL262295 LCH262158:LCH262295 LMD262158:LMD262295 LVZ262158:LVZ262295 MFV262158:MFV262295 MPR262158:MPR262295 MZN262158:MZN262295 NJJ262158:NJJ262295 NTF262158:NTF262295 ODB262158:ODB262295 OMX262158:OMX262295 OWT262158:OWT262295 PGP262158:PGP262295 PQL262158:PQL262295 QAH262158:QAH262295 QKD262158:QKD262295 QTZ262158:QTZ262295 RDV262158:RDV262295 RNR262158:RNR262295 RXN262158:RXN262295 SHJ262158:SHJ262295 SRF262158:SRF262295 TBB262158:TBB262295 TKX262158:TKX262295 TUT262158:TUT262295 UEP262158:UEP262295 UOL262158:UOL262295 UYH262158:UYH262295 VID262158:VID262295 VRZ262158:VRZ262295 WBV262158:WBV262295 WLR262158:WLR262295 WVN262158:WVN262295 F327694:F327831 JB327694:JB327831 SX327694:SX327831 ACT327694:ACT327831 AMP327694:AMP327831 AWL327694:AWL327831 BGH327694:BGH327831 BQD327694:BQD327831 BZZ327694:BZZ327831 CJV327694:CJV327831 CTR327694:CTR327831 DDN327694:DDN327831 DNJ327694:DNJ327831 DXF327694:DXF327831 EHB327694:EHB327831 EQX327694:EQX327831 FAT327694:FAT327831 FKP327694:FKP327831 FUL327694:FUL327831 GEH327694:GEH327831 GOD327694:GOD327831 GXZ327694:GXZ327831 HHV327694:HHV327831 HRR327694:HRR327831 IBN327694:IBN327831 ILJ327694:ILJ327831 IVF327694:IVF327831 JFB327694:JFB327831 JOX327694:JOX327831 JYT327694:JYT327831 KIP327694:KIP327831 KSL327694:KSL327831 LCH327694:LCH327831 LMD327694:LMD327831 LVZ327694:LVZ327831 MFV327694:MFV327831 MPR327694:MPR327831 MZN327694:MZN327831 NJJ327694:NJJ327831 NTF327694:NTF327831 ODB327694:ODB327831 OMX327694:OMX327831 OWT327694:OWT327831 PGP327694:PGP327831 PQL327694:PQL327831 QAH327694:QAH327831 QKD327694:QKD327831 QTZ327694:QTZ327831 RDV327694:RDV327831 RNR327694:RNR327831 RXN327694:RXN327831 SHJ327694:SHJ327831 SRF327694:SRF327831 TBB327694:TBB327831 TKX327694:TKX327831 TUT327694:TUT327831 UEP327694:UEP327831 UOL327694:UOL327831 UYH327694:UYH327831 VID327694:VID327831 VRZ327694:VRZ327831 WBV327694:WBV327831 WLR327694:WLR327831 WVN327694:WVN327831 F393230:F393367 JB393230:JB393367 SX393230:SX393367 ACT393230:ACT393367 AMP393230:AMP393367 AWL393230:AWL393367 BGH393230:BGH393367 BQD393230:BQD393367 BZZ393230:BZZ393367 CJV393230:CJV393367 CTR393230:CTR393367 DDN393230:DDN393367 DNJ393230:DNJ393367 DXF393230:DXF393367 EHB393230:EHB393367 EQX393230:EQX393367 FAT393230:FAT393367 FKP393230:FKP393367 FUL393230:FUL393367 GEH393230:GEH393367 GOD393230:GOD393367 GXZ393230:GXZ393367 HHV393230:HHV393367 HRR393230:HRR393367 IBN393230:IBN393367 ILJ393230:ILJ393367 IVF393230:IVF393367 JFB393230:JFB393367 JOX393230:JOX393367 JYT393230:JYT393367 KIP393230:KIP393367 KSL393230:KSL393367 LCH393230:LCH393367 LMD393230:LMD393367 LVZ393230:LVZ393367 MFV393230:MFV393367 MPR393230:MPR393367 MZN393230:MZN393367 NJJ393230:NJJ393367 NTF393230:NTF393367 ODB393230:ODB393367 OMX393230:OMX393367 OWT393230:OWT393367 PGP393230:PGP393367 PQL393230:PQL393367 QAH393230:QAH393367 QKD393230:QKD393367 QTZ393230:QTZ393367 RDV393230:RDV393367 RNR393230:RNR393367 RXN393230:RXN393367 SHJ393230:SHJ393367 SRF393230:SRF393367 TBB393230:TBB393367 TKX393230:TKX393367 TUT393230:TUT393367 UEP393230:UEP393367 UOL393230:UOL393367 UYH393230:UYH393367 VID393230:VID393367 VRZ393230:VRZ393367 WBV393230:WBV393367 WLR393230:WLR393367 WVN393230:WVN393367 F458766:F458903 JB458766:JB458903 SX458766:SX458903 ACT458766:ACT458903 AMP458766:AMP458903 AWL458766:AWL458903 BGH458766:BGH458903 BQD458766:BQD458903 BZZ458766:BZZ458903 CJV458766:CJV458903 CTR458766:CTR458903 DDN458766:DDN458903 DNJ458766:DNJ458903 DXF458766:DXF458903 EHB458766:EHB458903 EQX458766:EQX458903 FAT458766:FAT458903 FKP458766:FKP458903 FUL458766:FUL458903 GEH458766:GEH458903 GOD458766:GOD458903 GXZ458766:GXZ458903 HHV458766:HHV458903 HRR458766:HRR458903 IBN458766:IBN458903 ILJ458766:ILJ458903 IVF458766:IVF458903 JFB458766:JFB458903 JOX458766:JOX458903 JYT458766:JYT458903 KIP458766:KIP458903 KSL458766:KSL458903 LCH458766:LCH458903 LMD458766:LMD458903 LVZ458766:LVZ458903 MFV458766:MFV458903 MPR458766:MPR458903 MZN458766:MZN458903 NJJ458766:NJJ458903 NTF458766:NTF458903 ODB458766:ODB458903 OMX458766:OMX458903 OWT458766:OWT458903 PGP458766:PGP458903 PQL458766:PQL458903 QAH458766:QAH458903 QKD458766:QKD458903 QTZ458766:QTZ458903 RDV458766:RDV458903 RNR458766:RNR458903 RXN458766:RXN458903 SHJ458766:SHJ458903 SRF458766:SRF458903 TBB458766:TBB458903 TKX458766:TKX458903 TUT458766:TUT458903 UEP458766:UEP458903 UOL458766:UOL458903 UYH458766:UYH458903 VID458766:VID458903 VRZ458766:VRZ458903 WBV458766:WBV458903 WLR458766:WLR458903 WVN458766:WVN458903 F524302:F524439 JB524302:JB524439 SX524302:SX524439 ACT524302:ACT524439 AMP524302:AMP524439 AWL524302:AWL524439 BGH524302:BGH524439 BQD524302:BQD524439 BZZ524302:BZZ524439 CJV524302:CJV524439 CTR524302:CTR524439 DDN524302:DDN524439 DNJ524302:DNJ524439 DXF524302:DXF524439 EHB524302:EHB524439 EQX524302:EQX524439 FAT524302:FAT524439 FKP524302:FKP524439 FUL524302:FUL524439 GEH524302:GEH524439 GOD524302:GOD524439 GXZ524302:GXZ524439 HHV524302:HHV524439 HRR524302:HRR524439 IBN524302:IBN524439 ILJ524302:ILJ524439 IVF524302:IVF524439 JFB524302:JFB524439 JOX524302:JOX524439 JYT524302:JYT524439 KIP524302:KIP524439 KSL524302:KSL524439 LCH524302:LCH524439 LMD524302:LMD524439 LVZ524302:LVZ524439 MFV524302:MFV524439 MPR524302:MPR524439 MZN524302:MZN524439 NJJ524302:NJJ524439 NTF524302:NTF524439 ODB524302:ODB524439 OMX524302:OMX524439 OWT524302:OWT524439 PGP524302:PGP524439 PQL524302:PQL524439 QAH524302:QAH524439 QKD524302:QKD524439 QTZ524302:QTZ524439 RDV524302:RDV524439 RNR524302:RNR524439 RXN524302:RXN524439 SHJ524302:SHJ524439 SRF524302:SRF524439 TBB524302:TBB524439 TKX524302:TKX524439 TUT524302:TUT524439 UEP524302:UEP524439 UOL524302:UOL524439 UYH524302:UYH524439 VID524302:VID524439 VRZ524302:VRZ524439 WBV524302:WBV524439 WLR524302:WLR524439 WVN524302:WVN524439 F589838:F589975 JB589838:JB589975 SX589838:SX589975 ACT589838:ACT589975 AMP589838:AMP589975 AWL589838:AWL589975 BGH589838:BGH589975 BQD589838:BQD589975 BZZ589838:BZZ589975 CJV589838:CJV589975 CTR589838:CTR589975 DDN589838:DDN589975 DNJ589838:DNJ589975 DXF589838:DXF589975 EHB589838:EHB589975 EQX589838:EQX589975 FAT589838:FAT589975 FKP589838:FKP589975 FUL589838:FUL589975 GEH589838:GEH589975 GOD589838:GOD589975 GXZ589838:GXZ589975 HHV589838:HHV589975 HRR589838:HRR589975 IBN589838:IBN589975 ILJ589838:ILJ589975 IVF589838:IVF589975 JFB589838:JFB589975 JOX589838:JOX589975 JYT589838:JYT589975 KIP589838:KIP589975 KSL589838:KSL589975 LCH589838:LCH589975 LMD589838:LMD589975 LVZ589838:LVZ589975 MFV589838:MFV589975 MPR589838:MPR589975 MZN589838:MZN589975 NJJ589838:NJJ589975 NTF589838:NTF589975 ODB589838:ODB589975 OMX589838:OMX589975 OWT589838:OWT589975 PGP589838:PGP589975 PQL589838:PQL589975 QAH589838:QAH589975 QKD589838:QKD589975 QTZ589838:QTZ589975 RDV589838:RDV589975 RNR589838:RNR589975 RXN589838:RXN589975 SHJ589838:SHJ589975 SRF589838:SRF589975 TBB589838:TBB589975 TKX589838:TKX589975 TUT589838:TUT589975 UEP589838:UEP589975 UOL589838:UOL589975 UYH589838:UYH589975 VID589838:VID589975 VRZ589838:VRZ589975 WBV589838:WBV589975 WLR589838:WLR589975 WVN589838:WVN589975 F655374:F655511 JB655374:JB655511 SX655374:SX655511 ACT655374:ACT655511 AMP655374:AMP655511 AWL655374:AWL655511 BGH655374:BGH655511 BQD655374:BQD655511 BZZ655374:BZZ655511 CJV655374:CJV655511 CTR655374:CTR655511 DDN655374:DDN655511 DNJ655374:DNJ655511 DXF655374:DXF655511 EHB655374:EHB655511 EQX655374:EQX655511 FAT655374:FAT655511 FKP655374:FKP655511 FUL655374:FUL655511 GEH655374:GEH655511 GOD655374:GOD655511 GXZ655374:GXZ655511 HHV655374:HHV655511 HRR655374:HRR655511 IBN655374:IBN655511 ILJ655374:ILJ655511 IVF655374:IVF655511 JFB655374:JFB655511 JOX655374:JOX655511 JYT655374:JYT655511 KIP655374:KIP655511 KSL655374:KSL655511 LCH655374:LCH655511 LMD655374:LMD655511 LVZ655374:LVZ655511 MFV655374:MFV655511 MPR655374:MPR655511 MZN655374:MZN655511 NJJ655374:NJJ655511 NTF655374:NTF655511 ODB655374:ODB655511 OMX655374:OMX655511 OWT655374:OWT655511 PGP655374:PGP655511 PQL655374:PQL655511 QAH655374:QAH655511 QKD655374:QKD655511 QTZ655374:QTZ655511 RDV655374:RDV655511 RNR655374:RNR655511 RXN655374:RXN655511 SHJ655374:SHJ655511 SRF655374:SRF655511 TBB655374:TBB655511 TKX655374:TKX655511 TUT655374:TUT655511 UEP655374:UEP655511 UOL655374:UOL655511 UYH655374:UYH655511 VID655374:VID655511 VRZ655374:VRZ655511 WBV655374:WBV655511 WLR655374:WLR655511 WVN655374:WVN655511 F720910:F721047 JB720910:JB721047 SX720910:SX721047 ACT720910:ACT721047 AMP720910:AMP721047 AWL720910:AWL721047 BGH720910:BGH721047 BQD720910:BQD721047 BZZ720910:BZZ721047 CJV720910:CJV721047 CTR720910:CTR721047 DDN720910:DDN721047 DNJ720910:DNJ721047 DXF720910:DXF721047 EHB720910:EHB721047 EQX720910:EQX721047 FAT720910:FAT721047 FKP720910:FKP721047 FUL720910:FUL721047 GEH720910:GEH721047 GOD720910:GOD721047 GXZ720910:GXZ721047 HHV720910:HHV721047 HRR720910:HRR721047 IBN720910:IBN721047 ILJ720910:ILJ721047 IVF720910:IVF721047 JFB720910:JFB721047 JOX720910:JOX721047 JYT720910:JYT721047 KIP720910:KIP721047 KSL720910:KSL721047 LCH720910:LCH721047 LMD720910:LMD721047 LVZ720910:LVZ721047 MFV720910:MFV721047 MPR720910:MPR721047 MZN720910:MZN721047 NJJ720910:NJJ721047 NTF720910:NTF721047 ODB720910:ODB721047 OMX720910:OMX721047 OWT720910:OWT721047 PGP720910:PGP721047 PQL720910:PQL721047 QAH720910:QAH721047 QKD720910:QKD721047 QTZ720910:QTZ721047 RDV720910:RDV721047 RNR720910:RNR721047 RXN720910:RXN721047 SHJ720910:SHJ721047 SRF720910:SRF721047 TBB720910:TBB721047 TKX720910:TKX721047 TUT720910:TUT721047 UEP720910:UEP721047 UOL720910:UOL721047 UYH720910:UYH721047 VID720910:VID721047 VRZ720910:VRZ721047 WBV720910:WBV721047 WLR720910:WLR721047 WVN720910:WVN721047 F786446:F786583 JB786446:JB786583 SX786446:SX786583 ACT786446:ACT786583 AMP786446:AMP786583 AWL786446:AWL786583 BGH786446:BGH786583 BQD786446:BQD786583 BZZ786446:BZZ786583 CJV786446:CJV786583 CTR786446:CTR786583 DDN786446:DDN786583 DNJ786446:DNJ786583 DXF786446:DXF786583 EHB786446:EHB786583 EQX786446:EQX786583 FAT786446:FAT786583 FKP786446:FKP786583 FUL786446:FUL786583 GEH786446:GEH786583 GOD786446:GOD786583 GXZ786446:GXZ786583 HHV786446:HHV786583 HRR786446:HRR786583 IBN786446:IBN786583 ILJ786446:ILJ786583 IVF786446:IVF786583 JFB786446:JFB786583 JOX786446:JOX786583 JYT786446:JYT786583 KIP786446:KIP786583 KSL786446:KSL786583 LCH786446:LCH786583 LMD786446:LMD786583 LVZ786446:LVZ786583 MFV786446:MFV786583 MPR786446:MPR786583 MZN786446:MZN786583 NJJ786446:NJJ786583 NTF786446:NTF786583 ODB786446:ODB786583 OMX786446:OMX786583 OWT786446:OWT786583 PGP786446:PGP786583 PQL786446:PQL786583 QAH786446:QAH786583 QKD786446:QKD786583 QTZ786446:QTZ786583 RDV786446:RDV786583 RNR786446:RNR786583 RXN786446:RXN786583 SHJ786446:SHJ786583 SRF786446:SRF786583 TBB786446:TBB786583 TKX786446:TKX786583 TUT786446:TUT786583 UEP786446:UEP786583 UOL786446:UOL786583 UYH786446:UYH786583 VID786446:VID786583 VRZ786446:VRZ786583 WBV786446:WBV786583 WLR786446:WLR786583 WVN786446:WVN786583 F851982:F852119 JB851982:JB852119 SX851982:SX852119 ACT851982:ACT852119 AMP851982:AMP852119 AWL851982:AWL852119 BGH851982:BGH852119 BQD851982:BQD852119 BZZ851982:BZZ852119 CJV851982:CJV852119 CTR851982:CTR852119 DDN851982:DDN852119 DNJ851982:DNJ852119 DXF851982:DXF852119 EHB851982:EHB852119 EQX851982:EQX852119 FAT851982:FAT852119 FKP851982:FKP852119 FUL851982:FUL852119 GEH851982:GEH852119 GOD851982:GOD852119 GXZ851982:GXZ852119 HHV851982:HHV852119 HRR851982:HRR852119 IBN851982:IBN852119 ILJ851982:ILJ852119 IVF851982:IVF852119 JFB851982:JFB852119 JOX851982:JOX852119 JYT851982:JYT852119 KIP851982:KIP852119 KSL851982:KSL852119 LCH851982:LCH852119 LMD851982:LMD852119 LVZ851982:LVZ852119 MFV851982:MFV852119 MPR851982:MPR852119 MZN851982:MZN852119 NJJ851982:NJJ852119 NTF851982:NTF852119 ODB851982:ODB852119 OMX851982:OMX852119 OWT851982:OWT852119 PGP851982:PGP852119 PQL851982:PQL852119 QAH851982:QAH852119 QKD851982:QKD852119 QTZ851982:QTZ852119 RDV851982:RDV852119 RNR851982:RNR852119 RXN851982:RXN852119 SHJ851982:SHJ852119 SRF851982:SRF852119 TBB851982:TBB852119 TKX851982:TKX852119 TUT851982:TUT852119 UEP851982:UEP852119 UOL851982:UOL852119 UYH851982:UYH852119 VID851982:VID852119 VRZ851982:VRZ852119 WBV851982:WBV852119 WLR851982:WLR852119 WVN851982:WVN852119 F917518:F917655 JB917518:JB917655 SX917518:SX917655 ACT917518:ACT917655 AMP917518:AMP917655 AWL917518:AWL917655 BGH917518:BGH917655 BQD917518:BQD917655 BZZ917518:BZZ917655 CJV917518:CJV917655 CTR917518:CTR917655 DDN917518:DDN917655 DNJ917518:DNJ917655 DXF917518:DXF917655 EHB917518:EHB917655 EQX917518:EQX917655 FAT917518:FAT917655 FKP917518:FKP917655 FUL917518:FUL917655 GEH917518:GEH917655 GOD917518:GOD917655 GXZ917518:GXZ917655 HHV917518:HHV917655 HRR917518:HRR917655 IBN917518:IBN917655 ILJ917518:ILJ917655 IVF917518:IVF917655 JFB917518:JFB917655 JOX917518:JOX917655 JYT917518:JYT917655 KIP917518:KIP917655 KSL917518:KSL917655 LCH917518:LCH917655 LMD917518:LMD917655 LVZ917518:LVZ917655 MFV917518:MFV917655 MPR917518:MPR917655 MZN917518:MZN917655 NJJ917518:NJJ917655 NTF917518:NTF917655 ODB917518:ODB917655 OMX917518:OMX917655 OWT917518:OWT917655 PGP917518:PGP917655 PQL917518:PQL917655 QAH917518:QAH917655 QKD917518:QKD917655 QTZ917518:QTZ917655 RDV917518:RDV917655 RNR917518:RNR917655 RXN917518:RXN917655 SHJ917518:SHJ917655 SRF917518:SRF917655 TBB917518:TBB917655 TKX917518:TKX917655 TUT917518:TUT917655 UEP917518:UEP917655 UOL917518:UOL917655 UYH917518:UYH917655 VID917518:VID917655 VRZ917518:VRZ917655 WBV917518:WBV917655 WLR917518:WLR917655 WVN917518:WVN917655 F983054:F983191 JB983054:JB983191 SX983054:SX983191 ACT983054:ACT983191 AMP983054:AMP983191 AWL983054:AWL983191 BGH983054:BGH983191 BQD983054:BQD983191 BZZ983054:BZZ983191 CJV983054:CJV983191 CTR983054:CTR983191 DDN983054:DDN983191 DNJ983054:DNJ983191 DXF983054:DXF983191 EHB983054:EHB983191 EQX983054:EQX983191 FAT983054:FAT983191 FKP983054:FKP983191 FUL983054:FUL983191 GEH983054:GEH983191 GOD983054:GOD983191 GXZ983054:GXZ983191 HHV983054:HHV983191 HRR983054:HRR983191 IBN983054:IBN983191 ILJ983054:ILJ983191 IVF983054:IVF983191 JFB983054:JFB983191 JOX983054:JOX983191 JYT983054:JYT983191 KIP983054:KIP983191 KSL983054:KSL983191 LCH983054:LCH983191 LMD983054:LMD983191 LVZ983054:LVZ983191 MFV983054:MFV983191 MPR983054:MPR983191 MZN983054:MZN983191 NJJ983054:NJJ983191 NTF983054:NTF983191 ODB983054:ODB983191 OMX983054:OMX983191 OWT983054:OWT983191 PGP983054:PGP983191 PQL983054:PQL983191 QAH983054:QAH983191 QKD983054:QKD983191 QTZ983054:QTZ983191 RDV983054:RDV983191 RNR983054:RNR983191 RXN983054:RXN983191 SHJ983054:SHJ983191 SRF983054:SRF983191 TBB983054:TBB983191 TKX983054:TKX983191 TUT983054:TUT983191 UEP983054:UEP983191 UOL983054:UOL983191 UYH983054:UYH983191 VID983054:VID983191 VRZ983054:VRZ983191 WBV983054:WBV983191 WLR983054:WLR983191 F7:F151 SX7:SX151 ACT7:ACT151 AMP7:AMP151 AWL7:AWL151 BGH7:BGH151 BQD7:BQD151 BZZ7:BZZ151 CJV7:CJV151 CTR7:CTR151 DDN7:DDN151 DNJ7:DNJ151 DXF7:DXF151 EHB7:EHB151 EQX7:EQX151 FAT7:FAT151 FKP7:FKP151 FUL7:FUL151 GEH7:GEH151 GOD7:GOD151 GXZ7:GXZ151 HHV7:HHV151 HRR7:HRR151 IBN7:IBN151 ILJ7:ILJ151 IVF7:IVF151 JFB7:JFB151 JOX7:JOX151 JYT7:JYT151 KIP7:KIP151 KSL7:KSL151 LCH7:LCH151 LMD7:LMD151 LVZ7:LVZ151 MFV7:MFV151 MPR7:MPR151 MZN7:MZN151 NJJ7:NJJ151 NTF7:NTF151 ODB7:ODB151 OMX7:OMX151 OWT7:OWT151 PGP7:PGP151 PQL7:PQL151 QAH7:QAH151 QKD7:QKD151 QTZ7:QTZ151 RDV7:RDV151 RNR7:RNR151 RXN7:RXN151 SHJ7:SHJ151 SRF7:SRF151 TBB7:TBB151 TKX7:TKX151 TUT7:TUT151 UEP7:UEP151 UOL7:UOL151 UYH7:UYH151 VID7:VID151 VRZ7:VRZ151 WBV7:WBV151 WLR7:WLR151 WVN7:WVN151 JB7:JB151">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65546:F65548 JB65546:JB65548 SX65546:SX65548 ACT65546:ACT65548 AMP65546:AMP65548 AWL65546:AWL65548 BGH65546:BGH65548 BQD65546:BQD65548 BZZ65546:BZZ65548 CJV65546:CJV65548 CTR65546:CTR65548 DDN65546:DDN65548 DNJ65546:DNJ65548 DXF65546:DXF65548 EHB65546:EHB65548 EQX65546:EQX65548 FAT65546:FAT65548 FKP65546:FKP65548 FUL65546:FUL65548 GEH65546:GEH65548 GOD65546:GOD65548 GXZ65546:GXZ65548 HHV65546:HHV65548 HRR65546:HRR65548 IBN65546:IBN65548 ILJ65546:ILJ65548 IVF65546:IVF65548 JFB65546:JFB65548 JOX65546:JOX65548 JYT65546:JYT65548 KIP65546:KIP65548 KSL65546:KSL65548 LCH65546:LCH65548 LMD65546:LMD65548 LVZ65546:LVZ65548 MFV65546:MFV65548 MPR65546:MPR65548 MZN65546:MZN65548 NJJ65546:NJJ65548 NTF65546:NTF65548 ODB65546:ODB65548 OMX65546:OMX65548 OWT65546:OWT65548 PGP65546:PGP65548 PQL65546:PQL65548 QAH65546:QAH65548 QKD65546:QKD65548 QTZ65546:QTZ65548 RDV65546:RDV65548 RNR65546:RNR65548 RXN65546:RXN65548 SHJ65546:SHJ65548 SRF65546:SRF65548 TBB65546:TBB65548 TKX65546:TKX65548 TUT65546:TUT65548 UEP65546:UEP65548 UOL65546:UOL65548 UYH65546:UYH65548 VID65546:VID65548 VRZ65546:VRZ65548 WBV65546:WBV65548 WLR65546:WLR65548 WVN65546:WVN65548 F131082:F131084 JB131082:JB131084 SX131082:SX131084 ACT131082:ACT131084 AMP131082:AMP131084 AWL131082:AWL131084 BGH131082:BGH131084 BQD131082:BQD131084 BZZ131082:BZZ131084 CJV131082:CJV131084 CTR131082:CTR131084 DDN131082:DDN131084 DNJ131082:DNJ131084 DXF131082:DXF131084 EHB131082:EHB131084 EQX131082:EQX131084 FAT131082:FAT131084 FKP131082:FKP131084 FUL131082:FUL131084 GEH131082:GEH131084 GOD131082:GOD131084 GXZ131082:GXZ131084 HHV131082:HHV131084 HRR131082:HRR131084 IBN131082:IBN131084 ILJ131082:ILJ131084 IVF131082:IVF131084 JFB131082:JFB131084 JOX131082:JOX131084 JYT131082:JYT131084 KIP131082:KIP131084 KSL131082:KSL131084 LCH131082:LCH131084 LMD131082:LMD131084 LVZ131082:LVZ131084 MFV131082:MFV131084 MPR131082:MPR131084 MZN131082:MZN131084 NJJ131082:NJJ131084 NTF131082:NTF131084 ODB131082:ODB131084 OMX131082:OMX131084 OWT131082:OWT131084 PGP131082:PGP131084 PQL131082:PQL131084 QAH131082:QAH131084 QKD131082:QKD131084 QTZ131082:QTZ131084 RDV131082:RDV131084 RNR131082:RNR131084 RXN131082:RXN131084 SHJ131082:SHJ131084 SRF131082:SRF131084 TBB131082:TBB131084 TKX131082:TKX131084 TUT131082:TUT131084 UEP131082:UEP131084 UOL131082:UOL131084 UYH131082:UYH131084 VID131082:VID131084 VRZ131082:VRZ131084 WBV131082:WBV131084 WLR131082:WLR131084 WVN131082:WVN131084 F196618:F196620 JB196618:JB196620 SX196618:SX196620 ACT196618:ACT196620 AMP196618:AMP196620 AWL196618:AWL196620 BGH196618:BGH196620 BQD196618:BQD196620 BZZ196618:BZZ196620 CJV196618:CJV196620 CTR196618:CTR196620 DDN196618:DDN196620 DNJ196618:DNJ196620 DXF196618:DXF196620 EHB196618:EHB196620 EQX196618:EQX196620 FAT196618:FAT196620 FKP196618:FKP196620 FUL196618:FUL196620 GEH196618:GEH196620 GOD196618:GOD196620 GXZ196618:GXZ196620 HHV196618:HHV196620 HRR196618:HRR196620 IBN196618:IBN196620 ILJ196618:ILJ196620 IVF196618:IVF196620 JFB196618:JFB196620 JOX196618:JOX196620 JYT196618:JYT196620 KIP196618:KIP196620 KSL196618:KSL196620 LCH196618:LCH196620 LMD196618:LMD196620 LVZ196618:LVZ196620 MFV196618:MFV196620 MPR196618:MPR196620 MZN196618:MZN196620 NJJ196618:NJJ196620 NTF196618:NTF196620 ODB196618:ODB196620 OMX196618:OMX196620 OWT196618:OWT196620 PGP196618:PGP196620 PQL196618:PQL196620 QAH196618:QAH196620 QKD196618:QKD196620 QTZ196618:QTZ196620 RDV196618:RDV196620 RNR196618:RNR196620 RXN196618:RXN196620 SHJ196618:SHJ196620 SRF196618:SRF196620 TBB196618:TBB196620 TKX196618:TKX196620 TUT196618:TUT196620 UEP196618:UEP196620 UOL196618:UOL196620 UYH196618:UYH196620 VID196618:VID196620 VRZ196618:VRZ196620 WBV196618:WBV196620 WLR196618:WLR196620 WVN196618:WVN196620 F262154:F262156 JB262154:JB262156 SX262154:SX262156 ACT262154:ACT262156 AMP262154:AMP262156 AWL262154:AWL262156 BGH262154:BGH262156 BQD262154:BQD262156 BZZ262154:BZZ262156 CJV262154:CJV262156 CTR262154:CTR262156 DDN262154:DDN262156 DNJ262154:DNJ262156 DXF262154:DXF262156 EHB262154:EHB262156 EQX262154:EQX262156 FAT262154:FAT262156 FKP262154:FKP262156 FUL262154:FUL262156 GEH262154:GEH262156 GOD262154:GOD262156 GXZ262154:GXZ262156 HHV262154:HHV262156 HRR262154:HRR262156 IBN262154:IBN262156 ILJ262154:ILJ262156 IVF262154:IVF262156 JFB262154:JFB262156 JOX262154:JOX262156 JYT262154:JYT262156 KIP262154:KIP262156 KSL262154:KSL262156 LCH262154:LCH262156 LMD262154:LMD262156 LVZ262154:LVZ262156 MFV262154:MFV262156 MPR262154:MPR262156 MZN262154:MZN262156 NJJ262154:NJJ262156 NTF262154:NTF262156 ODB262154:ODB262156 OMX262154:OMX262156 OWT262154:OWT262156 PGP262154:PGP262156 PQL262154:PQL262156 QAH262154:QAH262156 QKD262154:QKD262156 QTZ262154:QTZ262156 RDV262154:RDV262156 RNR262154:RNR262156 RXN262154:RXN262156 SHJ262154:SHJ262156 SRF262154:SRF262156 TBB262154:TBB262156 TKX262154:TKX262156 TUT262154:TUT262156 UEP262154:UEP262156 UOL262154:UOL262156 UYH262154:UYH262156 VID262154:VID262156 VRZ262154:VRZ262156 WBV262154:WBV262156 WLR262154:WLR262156 WVN262154:WVN262156 F327690:F327692 JB327690:JB327692 SX327690:SX327692 ACT327690:ACT327692 AMP327690:AMP327692 AWL327690:AWL327692 BGH327690:BGH327692 BQD327690:BQD327692 BZZ327690:BZZ327692 CJV327690:CJV327692 CTR327690:CTR327692 DDN327690:DDN327692 DNJ327690:DNJ327692 DXF327690:DXF327692 EHB327690:EHB327692 EQX327690:EQX327692 FAT327690:FAT327692 FKP327690:FKP327692 FUL327690:FUL327692 GEH327690:GEH327692 GOD327690:GOD327692 GXZ327690:GXZ327692 HHV327690:HHV327692 HRR327690:HRR327692 IBN327690:IBN327692 ILJ327690:ILJ327692 IVF327690:IVF327692 JFB327690:JFB327692 JOX327690:JOX327692 JYT327690:JYT327692 KIP327690:KIP327692 KSL327690:KSL327692 LCH327690:LCH327692 LMD327690:LMD327692 LVZ327690:LVZ327692 MFV327690:MFV327692 MPR327690:MPR327692 MZN327690:MZN327692 NJJ327690:NJJ327692 NTF327690:NTF327692 ODB327690:ODB327692 OMX327690:OMX327692 OWT327690:OWT327692 PGP327690:PGP327692 PQL327690:PQL327692 QAH327690:QAH327692 QKD327690:QKD327692 QTZ327690:QTZ327692 RDV327690:RDV327692 RNR327690:RNR327692 RXN327690:RXN327692 SHJ327690:SHJ327692 SRF327690:SRF327692 TBB327690:TBB327692 TKX327690:TKX327692 TUT327690:TUT327692 UEP327690:UEP327692 UOL327690:UOL327692 UYH327690:UYH327692 VID327690:VID327692 VRZ327690:VRZ327692 WBV327690:WBV327692 WLR327690:WLR327692 WVN327690:WVN327692 F393226:F393228 JB393226:JB393228 SX393226:SX393228 ACT393226:ACT393228 AMP393226:AMP393228 AWL393226:AWL393228 BGH393226:BGH393228 BQD393226:BQD393228 BZZ393226:BZZ393228 CJV393226:CJV393228 CTR393226:CTR393228 DDN393226:DDN393228 DNJ393226:DNJ393228 DXF393226:DXF393228 EHB393226:EHB393228 EQX393226:EQX393228 FAT393226:FAT393228 FKP393226:FKP393228 FUL393226:FUL393228 GEH393226:GEH393228 GOD393226:GOD393228 GXZ393226:GXZ393228 HHV393226:HHV393228 HRR393226:HRR393228 IBN393226:IBN393228 ILJ393226:ILJ393228 IVF393226:IVF393228 JFB393226:JFB393228 JOX393226:JOX393228 JYT393226:JYT393228 KIP393226:KIP393228 KSL393226:KSL393228 LCH393226:LCH393228 LMD393226:LMD393228 LVZ393226:LVZ393228 MFV393226:MFV393228 MPR393226:MPR393228 MZN393226:MZN393228 NJJ393226:NJJ393228 NTF393226:NTF393228 ODB393226:ODB393228 OMX393226:OMX393228 OWT393226:OWT393228 PGP393226:PGP393228 PQL393226:PQL393228 QAH393226:QAH393228 QKD393226:QKD393228 QTZ393226:QTZ393228 RDV393226:RDV393228 RNR393226:RNR393228 RXN393226:RXN393228 SHJ393226:SHJ393228 SRF393226:SRF393228 TBB393226:TBB393228 TKX393226:TKX393228 TUT393226:TUT393228 UEP393226:UEP393228 UOL393226:UOL393228 UYH393226:UYH393228 VID393226:VID393228 VRZ393226:VRZ393228 WBV393226:WBV393228 WLR393226:WLR393228 WVN393226:WVN393228 F458762:F458764 JB458762:JB458764 SX458762:SX458764 ACT458762:ACT458764 AMP458762:AMP458764 AWL458762:AWL458764 BGH458762:BGH458764 BQD458762:BQD458764 BZZ458762:BZZ458764 CJV458762:CJV458764 CTR458762:CTR458764 DDN458762:DDN458764 DNJ458762:DNJ458764 DXF458762:DXF458764 EHB458762:EHB458764 EQX458762:EQX458764 FAT458762:FAT458764 FKP458762:FKP458764 FUL458762:FUL458764 GEH458762:GEH458764 GOD458762:GOD458764 GXZ458762:GXZ458764 HHV458762:HHV458764 HRR458762:HRR458764 IBN458762:IBN458764 ILJ458762:ILJ458764 IVF458762:IVF458764 JFB458762:JFB458764 JOX458762:JOX458764 JYT458762:JYT458764 KIP458762:KIP458764 KSL458762:KSL458764 LCH458762:LCH458764 LMD458762:LMD458764 LVZ458762:LVZ458764 MFV458762:MFV458764 MPR458762:MPR458764 MZN458762:MZN458764 NJJ458762:NJJ458764 NTF458762:NTF458764 ODB458762:ODB458764 OMX458762:OMX458764 OWT458762:OWT458764 PGP458762:PGP458764 PQL458762:PQL458764 QAH458762:QAH458764 QKD458762:QKD458764 QTZ458762:QTZ458764 RDV458762:RDV458764 RNR458762:RNR458764 RXN458762:RXN458764 SHJ458762:SHJ458764 SRF458762:SRF458764 TBB458762:TBB458764 TKX458762:TKX458764 TUT458762:TUT458764 UEP458762:UEP458764 UOL458762:UOL458764 UYH458762:UYH458764 VID458762:VID458764 VRZ458762:VRZ458764 WBV458762:WBV458764 WLR458762:WLR458764 WVN458762:WVN458764 F524298:F524300 JB524298:JB524300 SX524298:SX524300 ACT524298:ACT524300 AMP524298:AMP524300 AWL524298:AWL524300 BGH524298:BGH524300 BQD524298:BQD524300 BZZ524298:BZZ524300 CJV524298:CJV524300 CTR524298:CTR524300 DDN524298:DDN524300 DNJ524298:DNJ524300 DXF524298:DXF524300 EHB524298:EHB524300 EQX524298:EQX524300 FAT524298:FAT524300 FKP524298:FKP524300 FUL524298:FUL524300 GEH524298:GEH524300 GOD524298:GOD524300 GXZ524298:GXZ524300 HHV524298:HHV524300 HRR524298:HRR524300 IBN524298:IBN524300 ILJ524298:ILJ524300 IVF524298:IVF524300 JFB524298:JFB524300 JOX524298:JOX524300 JYT524298:JYT524300 KIP524298:KIP524300 KSL524298:KSL524300 LCH524298:LCH524300 LMD524298:LMD524300 LVZ524298:LVZ524300 MFV524298:MFV524300 MPR524298:MPR524300 MZN524298:MZN524300 NJJ524298:NJJ524300 NTF524298:NTF524300 ODB524298:ODB524300 OMX524298:OMX524300 OWT524298:OWT524300 PGP524298:PGP524300 PQL524298:PQL524300 QAH524298:QAH524300 QKD524298:QKD524300 QTZ524298:QTZ524300 RDV524298:RDV524300 RNR524298:RNR524300 RXN524298:RXN524300 SHJ524298:SHJ524300 SRF524298:SRF524300 TBB524298:TBB524300 TKX524298:TKX524300 TUT524298:TUT524300 UEP524298:UEP524300 UOL524298:UOL524300 UYH524298:UYH524300 VID524298:VID524300 VRZ524298:VRZ524300 WBV524298:WBV524300 WLR524298:WLR524300 WVN524298:WVN524300 F589834:F589836 JB589834:JB589836 SX589834:SX589836 ACT589834:ACT589836 AMP589834:AMP589836 AWL589834:AWL589836 BGH589834:BGH589836 BQD589834:BQD589836 BZZ589834:BZZ589836 CJV589834:CJV589836 CTR589834:CTR589836 DDN589834:DDN589836 DNJ589834:DNJ589836 DXF589834:DXF589836 EHB589834:EHB589836 EQX589834:EQX589836 FAT589834:FAT589836 FKP589834:FKP589836 FUL589834:FUL589836 GEH589834:GEH589836 GOD589834:GOD589836 GXZ589834:GXZ589836 HHV589834:HHV589836 HRR589834:HRR589836 IBN589834:IBN589836 ILJ589834:ILJ589836 IVF589834:IVF589836 JFB589834:JFB589836 JOX589834:JOX589836 JYT589834:JYT589836 KIP589834:KIP589836 KSL589834:KSL589836 LCH589834:LCH589836 LMD589834:LMD589836 LVZ589834:LVZ589836 MFV589834:MFV589836 MPR589834:MPR589836 MZN589834:MZN589836 NJJ589834:NJJ589836 NTF589834:NTF589836 ODB589834:ODB589836 OMX589834:OMX589836 OWT589834:OWT589836 PGP589834:PGP589836 PQL589834:PQL589836 QAH589834:QAH589836 QKD589834:QKD589836 QTZ589834:QTZ589836 RDV589834:RDV589836 RNR589834:RNR589836 RXN589834:RXN589836 SHJ589834:SHJ589836 SRF589834:SRF589836 TBB589834:TBB589836 TKX589834:TKX589836 TUT589834:TUT589836 UEP589834:UEP589836 UOL589834:UOL589836 UYH589834:UYH589836 VID589834:VID589836 VRZ589834:VRZ589836 WBV589834:WBV589836 WLR589834:WLR589836 WVN589834:WVN589836 F655370:F655372 JB655370:JB655372 SX655370:SX655372 ACT655370:ACT655372 AMP655370:AMP655372 AWL655370:AWL655372 BGH655370:BGH655372 BQD655370:BQD655372 BZZ655370:BZZ655372 CJV655370:CJV655372 CTR655370:CTR655372 DDN655370:DDN655372 DNJ655370:DNJ655372 DXF655370:DXF655372 EHB655370:EHB655372 EQX655370:EQX655372 FAT655370:FAT655372 FKP655370:FKP655372 FUL655370:FUL655372 GEH655370:GEH655372 GOD655370:GOD655372 GXZ655370:GXZ655372 HHV655370:HHV655372 HRR655370:HRR655372 IBN655370:IBN655372 ILJ655370:ILJ655372 IVF655370:IVF655372 JFB655370:JFB655372 JOX655370:JOX655372 JYT655370:JYT655372 KIP655370:KIP655372 KSL655370:KSL655372 LCH655370:LCH655372 LMD655370:LMD655372 LVZ655370:LVZ655372 MFV655370:MFV655372 MPR655370:MPR655372 MZN655370:MZN655372 NJJ655370:NJJ655372 NTF655370:NTF655372 ODB655370:ODB655372 OMX655370:OMX655372 OWT655370:OWT655372 PGP655370:PGP655372 PQL655370:PQL655372 QAH655370:QAH655372 QKD655370:QKD655372 QTZ655370:QTZ655372 RDV655370:RDV655372 RNR655370:RNR655372 RXN655370:RXN655372 SHJ655370:SHJ655372 SRF655370:SRF655372 TBB655370:TBB655372 TKX655370:TKX655372 TUT655370:TUT655372 UEP655370:UEP655372 UOL655370:UOL655372 UYH655370:UYH655372 VID655370:VID655372 VRZ655370:VRZ655372 WBV655370:WBV655372 WLR655370:WLR655372 WVN655370:WVN655372 F720906:F720908 JB720906:JB720908 SX720906:SX720908 ACT720906:ACT720908 AMP720906:AMP720908 AWL720906:AWL720908 BGH720906:BGH720908 BQD720906:BQD720908 BZZ720906:BZZ720908 CJV720906:CJV720908 CTR720906:CTR720908 DDN720906:DDN720908 DNJ720906:DNJ720908 DXF720906:DXF720908 EHB720906:EHB720908 EQX720906:EQX720908 FAT720906:FAT720908 FKP720906:FKP720908 FUL720906:FUL720908 GEH720906:GEH720908 GOD720906:GOD720908 GXZ720906:GXZ720908 HHV720906:HHV720908 HRR720906:HRR720908 IBN720906:IBN720908 ILJ720906:ILJ720908 IVF720906:IVF720908 JFB720906:JFB720908 JOX720906:JOX720908 JYT720906:JYT720908 KIP720906:KIP720908 KSL720906:KSL720908 LCH720906:LCH720908 LMD720906:LMD720908 LVZ720906:LVZ720908 MFV720906:MFV720908 MPR720906:MPR720908 MZN720906:MZN720908 NJJ720906:NJJ720908 NTF720906:NTF720908 ODB720906:ODB720908 OMX720906:OMX720908 OWT720906:OWT720908 PGP720906:PGP720908 PQL720906:PQL720908 QAH720906:QAH720908 QKD720906:QKD720908 QTZ720906:QTZ720908 RDV720906:RDV720908 RNR720906:RNR720908 RXN720906:RXN720908 SHJ720906:SHJ720908 SRF720906:SRF720908 TBB720906:TBB720908 TKX720906:TKX720908 TUT720906:TUT720908 UEP720906:UEP720908 UOL720906:UOL720908 UYH720906:UYH720908 VID720906:VID720908 VRZ720906:VRZ720908 WBV720906:WBV720908 WLR720906:WLR720908 WVN720906:WVN720908 F786442:F786444 JB786442:JB786444 SX786442:SX786444 ACT786442:ACT786444 AMP786442:AMP786444 AWL786442:AWL786444 BGH786442:BGH786444 BQD786442:BQD786444 BZZ786442:BZZ786444 CJV786442:CJV786444 CTR786442:CTR786444 DDN786442:DDN786444 DNJ786442:DNJ786444 DXF786442:DXF786444 EHB786442:EHB786444 EQX786442:EQX786444 FAT786442:FAT786444 FKP786442:FKP786444 FUL786442:FUL786444 GEH786442:GEH786444 GOD786442:GOD786444 GXZ786442:GXZ786444 HHV786442:HHV786444 HRR786442:HRR786444 IBN786442:IBN786444 ILJ786442:ILJ786444 IVF786442:IVF786444 JFB786442:JFB786444 JOX786442:JOX786444 JYT786442:JYT786444 KIP786442:KIP786444 KSL786442:KSL786444 LCH786442:LCH786444 LMD786442:LMD786444 LVZ786442:LVZ786444 MFV786442:MFV786444 MPR786442:MPR786444 MZN786442:MZN786444 NJJ786442:NJJ786444 NTF786442:NTF786444 ODB786442:ODB786444 OMX786442:OMX786444 OWT786442:OWT786444 PGP786442:PGP786444 PQL786442:PQL786444 QAH786442:QAH786444 QKD786442:QKD786444 QTZ786442:QTZ786444 RDV786442:RDV786444 RNR786442:RNR786444 RXN786442:RXN786444 SHJ786442:SHJ786444 SRF786442:SRF786444 TBB786442:TBB786444 TKX786442:TKX786444 TUT786442:TUT786444 UEP786442:UEP786444 UOL786442:UOL786444 UYH786442:UYH786444 VID786442:VID786444 VRZ786442:VRZ786444 WBV786442:WBV786444 WLR786442:WLR786444 WVN786442:WVN786444 F851978:F851980 JB851978:JB851980 SX851978:SX851980 ACT851978:ACT851980 AMP851978:AMP851980 AWL851978:AWL851980 BGH851978:BGH851980 BQD851978:BQD851980 BZZ851978:BZZ851980 CJV851978:CJV851980 CTR851978:CTR851980 DDN851978:DDN851980 DNJ851978:DNJ851980 DXF851978:DXF851980 EHB851978:EHB851980 EQX851978:EQX851980 FAT851978:FAT851980 FKP851978:FKP851980 FUL851978:FUL851980 GEH851978:GEH851980 GOD851978:GOD851980 GXZ851978:GXZ851980 HHV851978:HHV851980 HRR851978:HRR851980 IBN851978:IBN851980 ILJ851978:ILJ851980 IVF851978:IVF851980 JFB851978:JFB851980 JOX851978:JOX851980 JYT851978:JYT851980 KIP851978:KIP851980 KSL851978:KSL851980 LCH851978:LCH851980 LMD851978:LMD851980 LVZ851978:LVZ851980 MFV851978:MFV851980 MPR851978:MPR851980 MZN851978:MZN851980 NJJ851978:NJJ851980 NTF851978:NTF851980 ODB851978:ODB851980 OMX851978:OMX851980 OWT851978:OWT851980 PGP851978:PGP851980 PQL851978:PQL851980 QAH851978:QAH851980 QKD851978:QKD851980 QTZ851978:QTZ851980 RDV851978:RDV851980 RNR851978:RNR851980 RXN851978:RXN851980 SHJ851978:SHJ851980 SRF851978:SRF851980 TBB851978:TBB851980 TKX851978:TKX851980 TUT851978:TUT851980 UEP851978:UEP851980 UOL851978:UOL851980 UYH851978:UYH851980 VID851978:VID851980 VRZ851978:VRZ851980 WBV851978:WBV851980 WLR851978:WLR851980 WVN851978:WVN851980 F917514:F917516 JB917514:JB917516 SX917514:SX917516 ACT917514:ACT917516 AMP917514:AMP917516 AWL917514:AWL917516 BGH917514:BGH917516 BQD917514:BQD917516 BZZ917514:BZZ917516 CJV917514:CJV917516 CTR917514:CTR917516 DDN917514:DDN917516 DNJ917514:DNJ917516 DXF917514:DXF917516 EHB917514:EHB917516 EQX917514:EQX917516 FAT917514:FAT917516 FKP917514:FKP917516 FUL917514:FUL917516 GEH917514:GEH917516 GOD917514:GOD917516 GXZ917514:GXZ917516 HHV917514:HHV917516 HRR917514:HRR917516 IBN917514:IBN917516 ILJ917514:ILJ917516 IVF917514:IVF917516 JFB917514:JFB917516 JOX917514:JOX917516 JYT917514:JYT917516 KIP917514:KIP917516 KSL917514:KSL917516 LCH917514:LCH917516 LMD917514:LMD917516 LVZ917514:LVZ917516 MFV917514:MFV917516 MPR917514:MPR917516 MZN917514:MZN917516 NJJ917514:NJJ917516 NTF917514:NTF917516 ODB917514:ODB917516 OMX917514:OMX917516 OWT917514:OWT917516 PGP917514:PGP917516 PQL917514:PQL917516 QAH917514:QAH917516 QKD917514:QKD917516 QTZ917514:QTZ917516 RDV917514:RDV917516 RNR917514:RNR917516 RXN917514:RXN917516 SHJ917514:SHJ917516 SRF917514:SRF917516 TBB917514:TBB917516 TKX917514:TKX917516 TUT917514:TUT917516 UEP917514:UEP917516 UOL917514:UOL917516 UYH917514:UYH917516 VID917514:VID917516 VRZ917514:VRZ917516 WBV917514:WBV917516 WLR917514:WLR917516 WVN917514:WVN917516 F983050:F983052 JB983050:JB983052 SX983050:SX983052 ACT983050:ACT983052 AMP983050:AMP983052 AWL983050:AWL983052 BGH983050:BGH983052 BQD983050:BQD983052 BZZ983050:BZZ983052 CJV983050:CJV983052 CTR983050:CTR983052 DDN983050:DDN983052 DNJ983050:DNJ983052 DXF983050:DXF983052 EHB983050:EHB983052 EQX983050:EQX983052 FAT983050:FAT983052 FKP983050:FKP983052 FUL983050:FUL983052 GEH983050:GEH983052 GOD983050:GOD983052 GXZ983050:GXZ983052 HHV983050:HHV983052 HRR983050:HRR983052 IBN983050:IBN983052 ILJ983050:ILJ983052 IVF983050:IVF983052 JFB983050:JFB983052 JOX983050:JOX983052 JYT983050:JYT983052 KIP983050:KIP983052 KSL983050:KSL983052 LCH983050:LCH983052 LMD983050:LMD983052 LVZ983050:LVZ983052 MFV983050:MFV983052 MPR983050:MPR983052 MZN983050:MZN983052 NJJ983050:NJJ983052 NTF983050:NTF983052 ODB983050:ODB983052 OMX983050:OMX983052 OWT983050:OWT983052 PGP983050:PGP983052 PQL983050:PQL983052 QAH983050:QAH983052 QKD983050:QKD983052 QTZ983050:QTZ983052 RDV983050:RDV983052 RNR983050:RNR983052 RXN983050:RXN983052 SHJ983050:SHJ983052 SRF983050:SRF983052 TBB983050:TBB983052 TKX983050:TKX983052 TUT983050:TUT983052 UEP983050:UEP983052 UOL983050:UOL983052 UYH983050:UYH983052 VID983050:VID983052 VRZ983050:VRZ983052 WBV983050:WBV983052 WLR983050:WLR983052 WVN983050:WVN983052 WVN983056:WVN983193 F65552:F65689 JB65552:JB65689 SX65552:SX65689 ACT65552:ACT65689 AMP65552:AMP65689 AWL65552:AWL65689 BGH65552:BGH65689 BQD65552:BQD65689 BZZ65552:BZZ65689 CJV65552:CJV65689 CTR65552:CTR65689 DDN65552:DDN65689 DNJ65552:DNJ65689 DXF65552:DXF65689 EHB65552:EHB65689 EQX65552:EQX65689 FAT65552:FAT65689 FKP65552:FKP65689 FUL65552:FUL65689 GEH65552:GEH65689 GOD65552:GOD65689 GXZ65552:GXZ65689 HHV65552:HHV65689 HRR65552:HRR65689 IBN65552:IBN65689 ILJ65552:ILJ65689 IVF65552:IVF65689 JFB65552:JFB65689 JOX65552:JOX65689 JYT65552:JYT65689 KIP65552:KIP65689 KSL65552:KSL65689 LCH65552:LCH65689 LMD65552:LMD65689 LVZ65552:LVZ65689 MFV65552:MFV65689 MPR65552:MPR65689 MZN65552:MZN65689 NJJ65552:NJJ65689 NTF65552:NTF65689 ODB65552:ODB65689 OMX65552:OMX65689 OWT65552:OWT65689 PGP65552:PGP65689 PQL65552:PQL65689 QAH65552:QAH65689 QKD65552:QKD65689 QTZ65552:QTZ65689 RDV65552:RDV65689 RNR65552:RNR65689 RXN65552:RXN65689 SHJ65552:SHJ65689 SRF65552:SRF65689 TBB65552:TBB65689 TKX65552:TKX65689 TUT65552:TUT65689 UEP65552:UEP65689 UOL65552:UOL65689 UYH65552:UYH65689 VID65552:VID65689 VRZ65552:VRZ65689 WBV65552:WBV65689 WLR65552:WLR65689 WVN65552:WVN65689 F131088:F131225 JB131088:JB131225 SX131088:SX131225 ACT131088:ACT131225 AMP131088:AMP131225 AWL131088:AWL131225 BGH131088:BGH131225 BQD131088:BQD131225 BZZ131088:BZZ131225 CJV131088:CJV131225 CTR131088:CTR131225 DDN131088:DDN131225 DNJ131088:DNJ131225 DXF131088:DXF131225 EHB131088:EHB131225 EQX131088:EQX131225 FAT131088:FAT131225 FKP131088:FKP131225 FUL131088:FUL131225 GEH131088:GEH131225 GOD131088:GOD131225 GXZ131088:GXZ131225 HHV131088:HHV131225 HRR131088:HRR131225 IBN131088:IBN131225 ILJ131088:ILJ131225 IVF131088:IVF131225 JFB131088:JFB131225 JOX131088:JOX131225 JYT131088:JYT131225 KIP131088:KIP131225 KSL131088:KSL131225 LCH131088:LCH131225 LMD131088:LMD131225 LVZ131088:LVZ131225 MFV131088:MFV131225 MPR131088:MPR131225 MZN131088:MZN131225 NJJ131088:NJJ131225 NTF131088:NTF131225 ODB131088:ODB131225 OMX131088:OMX131225 OWT131088:OWT131225 PGP131088:PGP131225 PQL131088:PQL131225 QAH131088:QAH131225 QKD131088:QKD131225 QTZ131088:QTZ131225 RDV131088:RDV131225 RNR131088:RNR131225 RXN131088:RXN131225 SHJ131088:SHJ131225 SRF131088:SRF131225 TBB131088:TBB131225 TKX131088:TKX131225 TUT131088:TUT131225 UEP131088:UEP131225 UOL131088:UOL131225 UYH131088:UYH131225 VID131088:VID131225 VRZ131088:VRZ131225 WBV131088:WBV131225 WLR131088:WLR131225 WVN131088:WVN131225 F196624:F196761 JB196624:JB196761 SX196624:SX196761 ACT196624:ACT196761 AMP196624:AMP196761 AWL196624:AWL196761 BGH196624:BGH196761 BQD196624:BQD196761 BZZ196624:BZZ196761 CJV196624:CJV196761 CTR196624:CTR196761 DDN196624:DDN196761 DNJ196624:DNJ196761 DXF196624:DXF196761 EHB196624:EHB196761 EQX196624:EQX196761 FAT196624:FAT196761 FKP196624:FKP196761 FUL196624:FUL196761 GEH196624:GEH196761 GOD196624:GOD196761 GXZ196624:GXZ196761 HHV196624:HHV196761 HRR196624:HRR196761 IBN196624:IBN196761 ILJ196624:ILJ196761 IVF196624:IVF196761 JFB196624:JFB196761 JOX196624:JOX196761 JYT196624:JYT196761 KIP196624:KIP196761 KSL196624:KSL196761 LCH196624:LCH196761 LMD196624:LMD196761 LVZ196624:LVZ196761 MFV196624:MFV196761 MPR196624:MPR196761 MZN196624:MZN196761 NJJ196624:NJJ196761 NTF196624:NTF196761 ODB196624:ODB196761 OMX196624:OMX196761 OWT196624:OWT196761 PGP196624:PGP196761 PQL196624:PQL196761 QAH196624:QAH196761 QKD196624:QKD196761 QTZ196624:QTZ196761 RDV196624:RDV196761 RNR196624:RNR196761 RXN196624:RXN196761 SHJ196624:SHJ196761 SRF196624:SRF196761 TBB196624:TBB196761 TKX196624:TKX196761 TUT196624:TUT196761 UEP196624:UEP196761 UOL196624:UOL196761 UYH196624:UYH196761 VID196624:VID196761 VRZ196624:VRZ196761 WBV196624:WBV196761 WLR196624:WLR196761 WVN196624:WVN196761 F262160:F262297 JB262160:JB262297 SX262160:SX262297 ACT262160:ACT262297 AMP262160:AMP262297 AWL262160:AWL262297 BGH262160:BGH262297 BQD262160:BQD262297 BZZ262160:BZZ262297 CJV262160:CJV262297 CTR262160:CTR262297 DDN262160:DDN262297 DNJ262160:DNJ262297 DXF262160:DXF262297 EHB262160:EHB262297 EQX262160:EQX262297 FAT262160:FAT262297 FKP262160:FKP262297 FUL262160:FUL262297 GEH262160:GEH262297 GOD262160:GOD262297 GXZ262160:GXZ262297 HHV262160:HHV262297 HRR262160:HRR262297 IBN262160:IBN262297 ILJ262160:ILJ262297 IVF262160:IVF262297 JFB262160:JFB262297 JOX262160:JOX262297 JYT262160:JYT262297 KIP262160:KIP262297 KSL262160:KSL262297 LCH262160:LCH262297 LMD262160:LMD262297 LVZ262160:LVZ262297 MFV262160:MFV262297 MPR262160:MPR262297 MZN262160:MZN262297 NJJ262160:NJJ262297 NTF262160:NTF262297 ODB262160:ODB262297 OMX262160:OMX262297 OWT262160:OWT262297 PGP262160:PGP262297 PQL262160:PQL262297 QAH262160:QAH262297 QKD262160:QKD262297 QTZ262160:QTZ262297 RDV262160:RDV262297 RNR262160:RNR262297 RXN262160:RXN262297 SHJ262160:SHJ262297 SRF262160:SRF262297 TBB262160:TBB262297 TKX262160:TKX262297 TUT262160:TUT262297 UEP262160:UEP262297 UOL262160:UOL262297 UYH262160:UYH262297 VID262160:VID262297 VRZ262160:VRZ262297 WBV262160:WBV262297 WLR262160:WLR262297 WVN262160:WVN262297 F327696:F327833 JB327696:JB327833 SX327696:SX327833 ACT327696:ACT327833 AMP327696:AMP327833 AWL327696:AWL327833 BGH327696:BGH327833 BQD327696:BQD327833 BZZ327696:BZZ327833 CJV327696:CJV327833 CTR327696:CTR327833 DDN327696:DDN327833 DNJ327696:DNJ327833 DXF327696:DXF327833 EHB327696:EHB327833 EQX327696:EQX327833 FAT327696:FAT327833 FKP327696:FKP327833 FUL327696:FUL327833 GEH327696:GEH327833 GOD327696:GOD327833 GXZ327696:GXZ327833 HHV327696:HHV327833 HRR327696:HRR327833 IBN327696:IBN327833 ILJ327696:ILJ327833 IVF327696:IVF327833 JFB327696:JFB327833 JOX327696:JOX327833 JYT327696:JYT327833 KIP327696:KIP327833 KSL327696:KSL327833 LCH327696:LCH327833 LMD327696:LMD327833 LVZ327696:LVZ327833 MFV327696:MFV327833 MPR327696:MPR327833 MZN327696:MZN327833 NJJ327696:NJJ327833 NTF327696:NTF327833 ODB327696:ODB327833 OMX327696:OMX327833 OWT327696:OWT327833 PGP327696:PGP327833 PQL327696:PQL327833 QAH327696:QAH327833 QKD327696:QKD327833 QTZ327696:QTZ327833 RDV327696:RDV327833 RNR327696:RNR327833 RXN327696:RXN327833 SHJ327696:SHJ327833 SRF327696:SRF327833 TBB327696:TBB327833 TKX327696:TKX327833 TUT327696:TUT327833 UEP327696:UEP327833 UOL327696:UOL327833 UYH327696:UYH327833 VID327696:VID327833 VRZ327696:VRZ327833 WBV327696:WBV327833 WLR327696:WLR327833 WVN327696:WVN327833 F393232:F393369 JB393232:JB393369 SX393232:SX393369 ACT393232:ACT393369 AMP393232:AMP393369 AWL393232:AWL393369 BGH393232:BGH393369 BQD393232:BQD393369 BZZ393232:BZZ393369 CJV393232:CJV393369 CTR393232:CTR393369 DDN393232:DDN393369 DNJ393232:DNJ393369 DXF393232:DXF393369 EHB393232:EHB393369 EQX393232:EQX393369 FAT393232:FAT393369 FKP393232:FKP393369 FUL393232:FUL393369 GEH393232:GEH393369 GOD393232:GOD393369 GXZ393232:GXZ393369 HHV393232:HHV393369 HRR393232:HRR393369 IBN393232:IBN393369 ILJ393232:ILJ393369 IVF393232:IVF393369 JFB393232:JFB393369 JOX393232:JOX393369 JYT393232:JYT393369 KIP393232:KIP393369 KSL393232:KSL393369 LCH393232:LCH393369 LMD393232:LMD393369 LVZ393232:LVZ393369 MFV393232:MFV393369 MPR393232:MPR393369 MZN393232:MZN393369 NJJ393232:NJJ393369 NTF393232:NTF393369 ODB393232:ODB393369 OMX393232:OMX393369 OWT393232:OWT393369 PGP393232:PGP393369 PQL393232:PQL393369 QAH393232:QAH393369 QKD393232:QKD393369 QTZ393232:QTZ393369 RDV393232:RDV393369 RNR393232:RNR393369 RXN393232:RXN393369 SHJ393232:SHJ393369 SRF393232:SRF393369 TBB393232:TBB393369 TKX393232:TKX393369 TUT393232:TUT393369 UEP393232:UEP393369 UOL393232:UOL393369 UYH393232:UYH393369 VID393232:VID393369 VRZ393232:VRZ393369 WBV393232:WBV393369 WLR393232:WLR393369 WVN393232:WVN393369 F458768:F458905 JB458768:JB458905 SX458768:SX458905 ACT458768:ACT458905 AMP458768:AMP458905 AWL458768:AWL458905 BGH458768:BGH458905 BQD458768:BQD458905 BZZ458768:BZZ458905 CJV458768:CJV458905 CTR458768:CTR458905 DDN458768:DDN458905 DNJ458768:DNJ458905 DXF458768:DXF458905 EHB458768:EHB458905 EQX458768:EQX458905 FAT458768:FAT458905 FKP458768:FKP458905 FUL458768:FUL458905 GEH458768:GEH458905 GOD458768:GOD458905 GXZ458768:GXZ458905 HHV458768:HHV458905 HRR458768:HRR458905 IBN458768:IBN458905 ILJ458768:ILJ458905 IVF458768:IVF458905 JFB458768:JFB458905 JOX458768:JOX458905 JYT458768:JYT458905 KIP458768:KIP458905 KSL458768:KSL458905 LCH458768:LCH458905 LMD458768:LMD458905 LVZ458768:LVZ458905 MFV458768:MFV458905 MPR458768:MPR458905 MZN458768:MZN458905 NJJ458768:NJJ458905 NTF458768:NTF458905 ODB458768:ODB458905 OMX458768:OMX458905 OWT458768:OWT458905 PGP458768:PGP458905 PQL458768:PQL458905 QAH458768:QAH458905 QKD458768:QKD458905 QTZ458768:QTZ458905 RDV458768:RDV458905 RNR458768:RNR458905 RXN458768:RXN458905 SHJ458768:SHJ458905 SRF458768:SRF458905 TBB458768:TBB458905 TKX458768:TKX458905 TUT458768:TUT458905 UEP458768:UEP458905 UOL458768:UOL458905 UYH458768:UYH458905 VID458768:VID458905 VRZ458768:VRZ458905 WBV458768:WBV458905 WLR458768:WLR458905 WVN458768:WVN458905 F524304:F524441 JB524304:JB524441 SX524304:SX524441 ACT524304:ACT524441 AMP524304:AMP524441 AWL524304:AWL524441 BGH524304:BGH524441 BQD524304:BQD524441 BZZ524304:BZZ524441 CJV524304:CJV524441 CTR524304:CTR524441 DDN524304:DDN524441 DNJ524304:DNJ524441 DXF524304:DXF524441 EHB524304:EHB524441 EQX524304:EQX524441 FAT524304:FAT524441 FKP524304:FKP524441 FUL524304:FUL524441 GEH524304:GEH524441 GOD524304:GOD524441 GXZ524304:GXZ524441 HHV524304:HHV524441 HRR524304:HRR524441 IBN524304:IBN524441 ILJ524304:ILJ524441 IVF524304:IVF524441 JFB524304:JFB524441 JOX524304:JOX524441 JYT524304:JYT524441 KIP524304:KIP524441 KSL524304:KSL524441 LCH524304:LCH524441 LMD524304:LMD524441 LVZ524304:LVZ524441 MFV524304:MFV524441 MPR524304:MPR524441 MZN524304:MZN524441 NJJ524304:NJJ524441 NTF524304:NTF524441 ODB524304:ODB524441 OMX524304:OMX524441 OWT524304:OWT524441 PGP524304:PGP524441 PQL524304:PQL524441 QAH524304:QAH524441 QKD524304:QKD524441 QTZ524304:QTZ524441 RDV524304:RDV524441 RNR524304:RNR524441 RXN524304:RXN524441 SHJ524304:SHJ524441 SRF524304:SRF524441 TBB524304:TBB524441 TKX524304:TKX524441 TUT524304:TUT524441 UEP524304:UEP524441 UOL524304:UOL524441 UYH524304:UYH524441 VID524304:VID524441 VRZ524304:VRZ524441 WBV524304:WBV524441 WLR524304:WLR524441 WVN524304:WVN524441 F589840:F589977 JB589840:JB589977 SX589840:SX589977 ACT589840:ACT589977 AMP589840:AMP589977 AWL589840:AWL589977 BGH589840:BGH589977 BQD589840:BQD589977 BZZ589840:BZZ589977 CJV589840:CJV589977 CTR589840:CTR589977 DDN589840:DDN589977 DNJ589840:DNJ589977 DXF589840:DXF589977 EHB589840:EHB589977 EQX589840:EQX589977 FAT589840:FAT589977 FKP589840:FKP589977 FUL589840:FUL589977 GEH589840:GEH589977 GOD589840:GOD589977 GXZ589840:GXZ589977 HHV589840:HHV589977 HRR589840:HRR589977 IBN589840:IBN589977 ILJ589840:ILJ589977 IVF589840:IVF589977 JFB589840:JFB589977 JOX589840:JOX589977 JYT589840:JYT589977 KIP589840:KIP589977 KSL589840:KSL589977 LCH589840:LCH589977 LMD589840:LMD589977 LVZ589840:LVZ589977 MFV589840:MFV589977 MPR589840:MPR589977 MZN589840:MZN589977 NJJ589840:NJJ589977 NTF589840:NTF589977 ODB589840:ODB589977 OMX589840:OMX589977 OWT589840:OWT589977 PGP589840:PGP589977 PQL589840:PQL589977 QAH589840:QAH589977 QKD589840:QKD589977 QTZ589840:QTZ589977 RDV589840:RDV589977 RNR589840:RNR589977 RXN589840:RXN589977 SHJ589840:SHJ589977 SRF589840:SRF589977 TBB589840:TBB589977 TKX589840:TKX589977 TUT589840:TUT589977 UEP589840:UEP589977 UOL589840:UOL589977 UYH589840:UYH589977 VID589840:VID589977 VRZ589840:VRZ589977 WBV589840:WBV589977 WLR589840:WLR589977 WVN589840:WVN589977 F655376:F655513 JB655376:JB655513 SX655376:SX655513 ACT655376:ACT655513 AMP655376:AMP655513 AWL655376:AWL655513 BGH655376:BGH655513 BQD655376:BQD655513 BZZ655376:BZZ655513 CJV655376:CJV655513 CTR655376:CTR655513 DDN655376:DDN655513 DNJ655376:DNJ655513 DXF655376:DXF655513 EHB655376:EHB655513 EQX655376:EQX655513 FAT655376:FAT655513 FKP655376:FKP655513 FUL655376:FUL655513 GEH655376:GEH655513 GOD655376:GOD655513 GXZ655376:GXZ655513 HHV655376:HHV655513 HRR655376:HRR655513 IBN655376:IBN655513 ILJ655376:ILJ655513 IVF655376:IVF655513 JFB655376:JFB655513 JOX655376:JOX655513 JYT655376:JYT655513 KIP655376:KIP655513 KSL655376:KSL655513 LCH655376:LCH655513 LMD655376:LMD655513 LVZ655376:LVZ655513 MFV655376:MFV655513 MPR655376:MPR655513 MZN655376:MZN655513 NJJ655376:NJJ655513 NTF655376:NTF655513 ODB655376:ODB655513 OMX655376:OMX655513 OWT655376:OWT655513 PGP655376:PGP655513 PQL655376:PQL655513 QAH655376:QAH655513 QKD655376:QKD655513 QTZ655376:QTZ655513 RDV655376:RDV655513 RNR655376:RNR655513 RXN655376:RXN655513 SHJ655376:SHJ655513 SRF655376:SRF655513 TBB655376:TBB655513 TKX655376:TKX655513 TUT655376:TUT655513 UEP655376:UEP655513 UOL655376:UOL655513 UYH655376:UYH655513 VID655376:VID655513 VRZ655376:VRZ655513 WBV655376:WBV655513 WLR655376:WLR655513 WVN655376:WVN655513 F720912:F721049 JB720912:JB721049 SX720912:SX721049 ACT720912:ACT721049 AMP720912:AMP721049 AWL720912:AWL721049 BGH720912:BGH721049 BQD720912:BQD721049 BZZ720912:BZZ721049 CJV720912:CJV721049 CTR720912:CTR721049 DDN720912:DDN721049 DNJ720912:DNJ721049 DXF720912:DXF721049 EHB720912:EHB721049 EQX720912:EQX721049 FAT720912:FAT721049 FKP720912:FKP721049 FUL720912:FUL721049 GEH720912:GEH721049 GOD720912:GOD721049 GXZ720912:GXZ721049 HHV720912:HHV721049 HRR720912:HRR721049 IBN720912:IBN721049 ILJ720912:ILJ721049 IVF720912:IVF721049 JFB720912:JFB721049 JOX720912:JOX721049 JYT720912:JYT721049 KIP720912:KIP721049 KSL720912:KSL721049 LCH720912:LCH721049 LMD720912:LMD721049 LVZ720912:LVZ721049 MFV720912:MFV721049 MPR720912:MPR721049 MZN720912:MZN721049 NJJ720912:NJJ721049 NTF720912:NTF721049 ODB720912:ODB721049 OMX720912:OMX721049 OWT720912:OWT721049 PGP720912:PGP721049 PQL720912:PQL721049 QAH720912:QAH721049 QKD720912:QKD721049 QTZ720912:QTZ721049 RDV720912:RDV721049 RNR720912:RNR721049 RXN720912:RXN721049 SHJ720912:SHJ721049 SRF720912:SRF721049 TBB720912:TBB721049 TKX720912:TKX721049 TUT720912:TUT721049 UEP720912:UEP721049 UOL720912:UOL721049 UYH720912:UYH721049 VID720912:VID721049 VRZ720912:VRZ721049 WBV720912:WBV721049 WLR720912:WLR721049 WVN720912:WVN721049 F786448:F786585 JB786448:JB786585 SX786448:SX786585 ACT786448:ACT786585 AMP786448:AMP786585 AWL786448:AWL786585 BGH786448:BGH786585 BQD786448:BQD786585 BZZ786448:BZZ786585 CJV786448:CJV786585 CTR786448:CTR786585 DDN786448:DDN786585 DNJ786448:DNJ786585 DXF786448:DXF786585 EHB786448:EHB786585 EQX786448:EQX786585 FAT786448:FAT786585 FKP786448:FKP786585 FUL786448:FUL786585 GEH786448:GEH786585 GOD786448:GOD786585 GXZ786448:GXZ786585 HHV786448:HHV786585 HRR786448:HRR786585 IBN786448:IBN786585 ILJ786448:ILJ786585 IVF786448:IVF786585 JFB786448:JFB786585 JOX786448:JOX786585 JYT786448:JYT786585 KIP786448:KIP786585 KSL786448:KSL786585 LCH786448:LCH786585 LMD786448:LMD786585 LVZ786448:LVZ786585 MFV786448:MFV786585 MPR786448:MPR786585 MZN786448:MZN786585 NJJ786448:NJJ786585 NTF786448:NTF786585 ODB786448:ODB786585 OMX786448:OMX786585 OWT786448:OWT786585 PGP786448:PGP786585 PQL786448:PQL786585 QAH786448:QAH786585 QKD786448:QKD786585 QTZ786448:QTZ786585 RDV786448:RDV786585 RNR786448:RNR786585 RXN786448:RXN786585 SHJ786448:SHJ786585 SRF786448:SRF786585 TBB786448:TBB786585 TKX786448:TKX786585 TUT786448:TUT786585 UEP786448:UEP786585 UOL786448:UOL786585 UYH786448:UYH786585 VID786448:VID786585 VRZ786448:VRZ786585 WBV786448:WBV786585 WLR786448:WLR786585 WVN786448:WVN786585 F851984:F852121 JB851984:JB852121 SX851984:SX852121 ACT851984:ACT852121 AMP851984:AMP852121 AWL851984:AWL852121 BGH851984:BGH852121 BQD851984:BQD852121 BZZ851984:BZZ852121 CJV851984:CJV852121 CTR851984:CTR852121 DDN851984:DDN852121 DNJ851984:DNJ852121 DXF851984:DXF852121 EHB851984:EHB852121 EQX851984:EQX852121 FAT851984:FAT852121 FKP851984:FKP852121 FUL851984:FUL852121 GEH851984:GEH852121 GOD851984:GOD852121 GXZ851984:GXZ852121 HHV851984:HHV852121 HRR851984:HRR852121 IBN851984:IBN852121 ILJ851984:ILJ852121 IVF851984:IVF852121 JFB851984:JFB852121 JOX851984:JOX852121 JYT851984:JYT852121 KIP851984:KIP852121 KSL851984:KSL852121 LCH851984:LCH852121 LMD851984:LMD852121 LVZ851984:LVZ852121 MFV851984:MFV852121 MPR851984:MPR852121 MZN851984:MZN852121 NJJ851984:NJJ852121 NTF851984:NTF852121 ODB851984:ODB852121 OMX851984:OMX852121 OWT851984:OWT852121 PGP851984:PGP852121 PQL851984:PQL852121 QAH851984:QAH852121 QKD851984:QKD852121 QTZ851984:QTZ852121 RDV851984:RDV852121 RNR851984:RNR852121 RXN851984:RXN852121 SHJ851984:SHJ852121 SRF851984:SRF852121 TBB851984:TBB852121 TKX851984:TKX852121 TUT851984:TUT852121 UEP851984:UEP852121 UOL851984:UOL852121 UYH851984:UYH852121 VID851984:VID852121 VRZ851984:VRZ852121 WBV851984:WBV852121 WLR851984:WLR852121 WVN851984:WVN852121 F917520:F917657 JB917520:JB917657 SX917520:SX917657 ACT917520:ACT917657 AMP917520:AMP917657 AWL917520:AWL917657 BGH917520:BGH917657 BQD917520:BQD917657 BZZ917520:BZZ917657 CJV917520:CJV917657 CTR917520:CTR917657 DDN917520:DDN917657 DNJ917520:DNJ917657 DXF917520:DXF917657 EHB917520:EHB917657 EQX917520:EQX917657 FAT917520:FAT917657 FKP917520:FKP917657 FUL917520:FUL917657 GEH917520:GEH917657 GOD917520:GOD917657 GXZ917520:GXZ917657 HHV917520:HHV917657 HRR917520:HRR917657 IBN917520:IBN917657 ILJ917520:ILJ917657 IVF917520:IVF917657 JFB917520:JFB917657 JOX917520:JOX917657 JYT917520:JYT917657 KIP917520:KIP917657 KSL917520:KSL917657 LCH917520:LCH917657 LMD917520:LMD917657 LVZ917520:LVZ917657 MFV917520:MFV917657 MPR917520:MPR917657 MZN917520:MZN917657 NJJ917520:NJJ917657 NTF917520:NTF917657 ODB917520:ODB917657 OMX917520:OMX917657 OWT917520:OWT917657 PGP917520:PGP917657 PQL917520:PQL917657 QAH917520:QAH917657 QKD917520:QKD917657 QTZ917520:QTZ917657 RDV917520:RDV917657 RNR917520:RNR917657 RXN917520:RXN917657 SHJ917520:SHJ917657 SRF917520:SRF917657 TBB917520:TBB917657 TKX917520:TKX917657 TUT917520:TUT917657 UEP917520:UEP917657 UOL917520:UOL917657 UYH917520:UYH917657 VID917520:VID917657 VRZ917520:VRZ917657 WBV917520:WBV917657 WLR917520:WLR917657 WVN917520:WVN917657 F983056:F983193 JB983056:JB983193 SX983056:SX983193 ACT983056:ACT983193 AMP983056:AMP983193 AWL983056:AWL983193 BGH983056:BGH983193 BQD983056:BQD983193 BZZ983056:BZZ983193 CJV983056:CJV983193 CTR983056:CTR983193 DDN983056:DDN983193 DNJ983056:DNJ983193 DXF983056:DXF983193 EHB983056:EHB983193 EQX983056:EQX983193 FAT983056:FAT983193 FKP983056:FKP983193 FUL983056:FUL983193 GEH983056:GEH983193 GOD983056:GOD983193 GXZ983056:GXZ983193 HHV983056:HHV983193 HRR983056:HRR983193 IBN983056:IBN983193 ILJ983056:ILJ983193 IVF983056:IVF983193 JFB983056:JFB983193 JOX983056:JOX983193 JYT983056:JYT983193 KIP983056:KIP983193 KSL983056:KSL983193 LCH983056:LCH983193 LMD983056:LMD983193 LVZ983056:LVZ983193 MFV983056:MFV983193 MPR983056:MPR983193 MZN983056:MZN983193 NJJ983056:NJJ983193 NTF983056:NTF983193 ODB983056:ODB983193 OMX983056:OMX983193 OWT983056:OWT983193 PGP983056:PGP983193 PQL983056:PQL983193 QAH983056:QAH983193 QKD983056:QKD983193 QTZ983056:QTZ983193 RDV983056:RDV983193 RNR983056:RNR983193 RXN983056:RXN983193 SHJ983056:SHJ983193 SRF983056:SRF983193 TBB983056:TBB983193 TKX983056:TKX983193 TUT983056:TUT983193 UEP983056:UEP983193 UOL983056:UOL983193 UYH983056:UYH983193 VID983056:VID983193 VRZ983056:VRZ983193 WBV983056:WBV983193 WLR983056:WLR983193 JB7:JB153 SX7:SX153 ACT7:ACT153 AMP7:AMP153 AWL7:AWL153 BGH7:BGH153 BQD7:BQD153 BZZ7:BZZ153 CJV7:CJV153 CTR7:CTR153 DDN7:DDN153 DNJ7:DNJ153 DXF7:DXF153 EHB7:EHB153 EQX7:EQX153 FAT7:FAT153 FKP7:FKP153 FUL7:FUL153 GEH7:GEH153 GOD7:GOD153 GXZ7:GXZ153 HHV7:HHV153 HRR7:HRR153 IBN7:IBN153 ILJ7:ILJ153 IVF7:IVF153 JFB7:JFB153 JOX7:JOX153 JYT7:JYT153 KIP7:KIP153 KSL7:KSL153 LCH7:LCH153 LMD7:LMD153 LVZ7:LVZ153 MFV7:MFV153 MPR7:MPR153 MZN7:MZN153 NJJ7:NJJ153 NTF7:NTF153 ODB7:ODB153 OMX7:OMX153 OWT7:OWT153 PGP7:PGP153 PQL7:PQL153 QAH7:QAH153 QKD7:QKD153 QTZ7:QTZ153 RDV7:RDV153 RNR7:RNR153 RXN7:RXN153 SHJ7:SHJ153 SRF7:SRF153 TBB7:TBB153 TKX7:TKX153 TUT7:TUT153 UEP7:UEP153 UOL7:UOL153 UYH7:UYH153 VID7:VID153 VRZ7:VRZ153 WBV7:WBV153 WLR7:WLR153 WVN7:WVN153 F7:F153">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8730,15 +8801,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="105"/>
@@ -8754,15 +8825,15 @@
       <c r="B3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="144" t="str">
+      <c r="C3" s="143" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="153" t="s">
+      <c r="D3" s="143"/>
+      <c r="E3" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="153"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="109"/>
       <c r="H3" s="110"/>
     </row>
@@ -8770,15 +8841,15 @@
       <c r="B4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="144" t="str">
+      <c r="C4" s="143" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="153" t="s">
+      <c r="D4" s="143"/>
+      <c r="E4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="153"/>
+      <c r="F4" s="152"/>
       <c r="G4" s="109"/>
       <c r="H4" s="110"/>
     </row>
@@ -8786,15 +8857,15 @@
       <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="144" t="str">
+      <c r="C5" s="143" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="153" t="s">
+      <c r="D5" s="143"/>
+      <c r="E5" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="153"/>
+      <c r="F5" s="152"/>
       <c r="G5" s="109"/>
       <c r="H5" s="112" t="s">
         <v>108</v>
@@ -8805,14 +8876,14 @@
       <c r="B6" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105"/>

--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="458">
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
   </si>
@@ -1921,6 +1921,27 @@
   </si>
   <si>
     <t>[Login-20]</t>
+  </si>
+  <si>
+    <t>Test viewing "Trang cá nhân" page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login the system with Member role
+2. Click "Trang cá nhân" link
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The Homepage is displayed 
+2. Display "Trang cá nhân" page with information following list: 
+- "Họ và tên" field
+- "Tên đăng nhập" field
+- "Email" field
+- "Thay đổi thông tin" link
+- "Kết quả học tập" field
+</t>
+  </si>
+  <si>
+    <t>[Edit profile-0]</t>
   </si>
 </sst>
 </file>
@@ -5637,11 +5658,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="8" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6439,24 +6460,24 @@
     </row>
     <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
-        <f>COUNTIF(F99:F1007,"Pass")</f>
+        <f>COUNTIF(F101:F1009,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="78">
-        <f>COUNTIF(F99:F1007,"Fail")</f>
+        <f>COUNTIF(F101:F1009,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="78">
         <f>E6-D6-B6-A6</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="79">
-        <f>COUNTIF(F$99:F$1007,"N/A")</f>
+        <f>COUNTIF(F$101:F$1009,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="149">
-        <f>COUNTA(A10:A1007)</f>
-        <v>94</v>
+        <f>COUNTA(A10:A1009)</f>
+        <v>95</v>
       </c>
       <c r="F6" s="149"/>
       <c r="G6" s="75"/>
@@ -7614,39 +7635,41 @@
       <c r="G65" s="85"/>
       <c r="H65" s="86"/>
     </row>
-    <row r="66" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A66" s="93" t="s">
-        <v>292</v>
+        <v>457</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>293</v>
+        <v>454</v>
       </c>
       <c r="C66" s="93" t="s">
-        <v>294</v>
+        <v>455</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>295</v>
-      </c>
-      <c r="E66" s="93"/>
+        <v>456</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>244</v>
+      </c>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
       <c r="H66" s="94"/>
     </row>
-    <row r="67" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="93" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>292</v>
+        <v>457</v>
       </c>
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
@@ -7654,13 +7677,13 @@
     </row>
     <row r="68" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A68" s="93" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D68" s="93" t="s">
         <v>298</v>
@@ -7674,13 +7697,13 @@
     </row>
     <row r="69" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A69" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D69" s="93" t="s">
         <v>298</v>
@@ -7692,15 +7715,15 @@
       <c r="G69" s="93"/>
       <c r="H69" s="94"/>
     </row>
-    <row r="70" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D70" s="93" t="s">
         <v>298</v>
@@ -7712,15 +7735,15 @@
       <c r="G70" s="93"/>
       <c r="H70" s="94"/>
     </row>
-    <row r="71" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A71" s="93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D71" s="93" t="s">
         <v>298</v>
@@ -7734,13 +7757,13 @@
     </row>
     <row r="72" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D72" s="93" t="s">
         <v>298</v>
@@ -7754,16 +7777,16 @@
     </row>
     <row r="73" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A73" s="93" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E73" s="93" t="s">
         <v>292</v>
@@ -7772,18 +7795,18 @@
       <c r="G73" s="93"/>
       <c r="H73" s="94"/>
     </row>
-    <row r="74" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A74" s="93" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E74" s="93" t="s">
         <v>292</v>
@@ -7794,16 +7817,16 @@
     </row>
     <row r="75" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A75" s="93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E75" s="93" t="s">
         <v>292</v>
@@ -7814,16 +7837,16 @@
     </row>
     <row r="76" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A76" s="93" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E76" s="93" t="s">
         <v>292</v>
@@ -7832,18 +7855,18 @@
       <c r="G76" s="93"/>
       <c r="H76" s="94"/>
     </row>
-    <row r="77" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A77" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E77" s="93" t="s">
         <v>292</v>
@@ -7852,18 +7875,18 @@
       <c r="G77" s="93"/>
       <c r="H77" s="94"/>
     </row>
-    <row r="78" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E78" s="93" t="s">
         <v>292</v>
@@ -7874,16 +7897,16 @@
     </row>
     <row r="79" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A79" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E79" s="93" t="s">
         <v>292</v>
@@ -7892,18 +7915,18 @@
       <c r="G79" s="93"/>
       <c r="H79" s="94"/>
     </row>
-    <row r="80" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A80" s="93" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E80" s="93" t="s">
         <v>292</v>
@@ -7912,15 +7935,15 @@
       <c r="G80" s="93"/>
       <c r="H80" s="94"/>
     </row>
-    <row r="81" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A81" s="93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D81" s="93" t="s">
         <v>325</v>
@@ -7932,18 +7955,18 @@
       <c r="G81" s="93"/>
       <c r="H81" s="94"/>
     </row>
-    <row r="82" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A82" s="93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E82" s="93" t="s">
         <v>292</v>
@@ -7952,15 +7975,15 @@
       <c r="G82" s="93"/>
       <c r="H82" s="94"/>
     </row>
-    <row r="83" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A83" s="93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D83" s="93" t="s">
         <v>328</v>
@@ -7972,18 +7995,18 @@
       <c r="G83" s="93"/>
       <c r="H83" s="94"/>
     </row>
-    <row r="84" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A84" s="93" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="E84" s="93" t="s">
         <v>292</v>
@@ -7992,18 +8015,18 @@
       <c r="G84" s="93"/>
       <c r="H84" s="94"/>
     </row>
-    <row r="85" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A85" s="93" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E85" s="93" t="s">
         <v>292</v>
@@ -8012,15 +8035,15 @@
       <c r="G85" s="93"/>
       <c r="H85" s="94"/>
     </row>
-    <row r="86" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A86" s="93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="93" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D86" s="93" t="s">
         <v>314</v>
@@ -8032,18 +8055,18 @@
       <c r="G86" s="93"/>
       <c r="H86" s="94"/>
     </row>
-    <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A87" s="93" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E87" s="93" t="s">
         <v>292</v>
@@ -8052,18 +8075,18 @@
       <c r="G87" s="93"/>
       <c r="H87" s="94"/>
     </row>
-    <row r="88" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A88" s="93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E88" s="93" t="s">
         <v>292</v>
@@ -8072,18 +8095,18 @@
       <c r="G88" s="93"/>
       <c r="H88" s="94"/>
     </row>
-    <row r="89" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A89" s="93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>427</v>
+        <v>228</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E89" s="93" t="s">
         <v>292</v>
@@ -8092,18 +8115,18 @@
       <c r="G89" s="93"/>
       <c r="H89" s="94"/>
     </row>
-    <row r="90" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>431</v>
+        <v>360</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E90" s="93" t="s">
         <v>292</v>
@@ -8112,18 +8135,18 @@
       <c r="G90" s="93"/>
       <c r="H90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A91" s="93" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E91" s="93" t="s">
         <v>292</v>
@@ -8132,18 +8155,18 @@
       <c r="G91" s="93"/>
       <c r="H91" s="94"/>
     </row>
-    <row r="92" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A92" s="93" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="B92" s="93" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="E92" s="93" t="s">
         <v>292</v>
@@ -8152,108 +8175,92 @@
       <c r="G92" s="93"/>
       <c r="H92" s="94"/>
     </row>
-    <row r="93" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A93" s="93" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="E93" s="93" t="s">
         <v>292</v>
       </c>
       <c r="F93" s="93"/>
       <c r="G93" s="93"/>
-      <c r="H93" s="137"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84" t="s">
+      <c r="H93" s="94"/>
+    </row>
+    <row r="94" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="B94" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="C94" s="93" t="s">
+        <v>447</v>
+      </c>
+      <c r="D94" s="93" t="s">
+        <v>448</v>
+      </c>
+      <c r="E94" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="137"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G95" s="30"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="84"/>
+      <c r="B96" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="86"/>
-    </row>
-    <row r="95" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="93" t="s">
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="86"/>
+    </row>
+    <row r="97" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="B95" s="93" t="s">
+      <c r="B97" s="93" t="s">
         <v>375</v>
       </c>
-      <c r="C95" s="93" t="s">
+      <c r="C97" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="D95" s="93" t="s">
+      <c r="D97" s="93" t="s">
         <v>377</v>
       </c>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="94"/>
-    </row>
-    <row r="96" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="B96" s="93" t="s">
-        <v>378</v>
-      </c>
-      <c r="C96" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="D96" s="93" t="s">
-        <v>383</v>
-      </c>
-      <c r="E96" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F96" s="93"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="94"/>
-    </row>
-    <row r="97" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="93" t="s">
-        <v>382</v>
-      </c>
-      <c r="B97" s="93" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="D97" s="93" t="s">
-        <v>383</v>
-      </c>
-      <c r="E97" s="93" t="s">
-        <v>374</v>
-      </c>
+      <c r="E97" s="93"/>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
       <c r="H97" s="94"/>
     </row>
-    <row r="98" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="93" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E98" s="93" t="s">
         <v>374</v>
@@ -8262,18 +8269,18 @@
       <c r="G98" s="93"/>
       <c r="H98" s="94"/>
     </row>
-    <row r="99" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A99" s="93" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E99" s="93" t="s">
         <v>374</v>
@@ -8282,18 +8289,18 @@
       <c r="G99" s="93"/>
       <c r="H99" s="94"/>
     </row>
-    <row r="100" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A100" s="93" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E100" s="93" t="s">
         <v>374</v>
@@ -8304,16 +8311,16 @@
     </row>
     <row r="101" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A101" s="93" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E101" s="93" t="s">
         <v>374</v>
@@ -8322,18 +8329,18 @@
       <c r="G101" s="93"/>
       <c r="H101" s="94"/>
     </row>
-    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A102" s="93" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E102" s="93" t="s">
         <v>374</v>
@@ -8342,18 +8349,18 @@
       <c r="G102" s="93"/>
       <c r="H102" s="94"/>
     </row>
-    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A103" s="93" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E103" s="93" t="s">
         <v>374</v>
@@ -8362,18 +8369,18 @@
       <c r="G103" s="93"/>
       <c r="H103" s="94"/>
     </row>
-    <row r="104" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="93" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E104" s="93" t="s">
         <v>374</v>
@@ -8382,18 +8389,18 @@
       <c r="G104" s="93"/>
       <c r="H104" s="94"/>
     </row>
-    <row r="105" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="93" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B105" s="93" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C105" s="93" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D105" s="93" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E105" s="93" t="s">
         <v>374</v>
@@ -8402,18 +8409,18 @@
       <c r="G105" s="93"/>
       <c r="H105" s="94"/>
     </row>
-    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A106" s="93" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B106" s="93" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C106" s="93" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="D106" s="93" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E106" s="93" t="s">
         <v>374</v>
@@ -8422,18 +8429,18 @@
       <c r="G106" s="93"/>
       <c r="H106" s="94"/>
     </row>
-    <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="93" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B107" s="93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C107" s="93" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D107" s="93" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E107" s="93" t="s">
         <v>374</v>
@@ -8441,6 +8448,46 @@
       <c r="F107" s="93"/>
       <c r="G107" s="93"/>
       <c r="H107" s="94"/>
+    </row>
+    <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="B108" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="D108" s="93" t="s">
+        <v>418</v>
+      </c>
+      <c r="E108" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F108" s="93"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="94"/>
+    </row>
+    <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A109" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="C109" s="93" t="s">
+        <v>417</v>
+      </c>
+      <c r="D109" s="93" t="s">
+        <v>419</v>
+      </c>
+      <c r="E109" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F109" s="93"/>
+      <c r="G109" s="93"/>
+      <c r="H109" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H15"/>
@@ -8452,7 +8499,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65546:F65548 JB65546:JB65548 SX65546:SX65548 ACT65546:ACT65548 AMP65546:AMP65548 AWL65546:AWL65548 BGH65546:BGH65548 BQD65546:BQD65548 BZZ65546:BZZ65548 CJV65546:CJV65548 CTR65546:CTR65548 DDN65546:DDN65548 DNJ65546:DNJ65548 DXF65546:DXF65548 EHB65546:EHB65548 EQX65546:EQX65548 FAT65546:FAT65548 FKP65546:FKP65548 FUL65546:FUL65548 GEH65546:GEH65548 GOD65546:GOD65548 GXZ65546:GXZ65548 HHV65546:HHV65548 HRR65546:HRR65548 IBN65546:IBN65548 ILJ65546:ILJ65548 IVF65546:IVF65548 JFB65546:JFB65548 JOX65546:JOX65548 JYT65546:JYT65548 KIP65546:KIP65548 KSL65546:KSL65548 LCH65546:LCH65548 LMD65546:LMD65548 LVZ65546:LVZ65548 MFV65546:MFV65548 MPR65546:MPR65548 MZN65546:MZN65548 NJJ65546:NJJ65548 NTF65546:NTF65548 ODB65546:ODB65548 OMX65546:OMX65548 OWT65546:OWT65548 PGP65546:PGP65548 PQL65546:PQL65548 QAH65546:QAH65548 QKD65546:QKD65548 QTZ65546:QTZ65548 RDV65546:RDV65548 RNR65546:RNR65548 RXN65546:RXN65548 SHJ65546:SHJ65548 SRF65546:SRF65548 TBB65546:TBB65548 TKX65546:TKX65548 TUT65546:TUT65548 UEP65546:UEP65548 UOL65546:UOL65548 UYH65546:UYH65548 VID65546:VID65548 VRZ65546:VRZ65548 WBV65546:WBV65548 WLR65546:WLR65548 WVN65546:WVN65548 F131082:F131084 JB131082:JB131084 SX131082:SX131084 ACT131082:ACT131084 AMP131082:AMP131084 AWL131082:AWL131084 BGH131082:BGH131084 BQD131082:BQD131084 BZZ131082:BZZ131084 CJV131082:CJV131084 CTR131082:CTR131084 DDN131082:DDN131084 DNJ131082:DNJ131084 DXF131082:DXF131084 EHB131082:EHB131084 EQX131082:EQX131084 FAT131082:FAT131084 FKP131082:FKP131084 FUL131082:FUL131084 GEH131082:GEH131084 GOD131082:GOD131084 GXZ131082:GXZ131084 HHV131082:HHV131084 HRR131082:HRR131084 IBN131082:IBN131084 ILJ131082:ILJ131084 IVF131082:IVF131084 JFB131082:JFB131084 JOX131082:JOX131084 JYT131082:JYT131084 KIP131082:KIP131084 KSL131082:KSL131084 LCH131082:LCH131084 LMD131082:LMD131084 LVZ131082:LVZ131084 MFV131082:MFV131084 MPR131082:MPR131084 MZN131082:MZN131084 NJJ131082:NJJ131084 NTF131082:NTF131084 ODB131082:ODB131084 OMX131082:OMX131084 OWT131082:OWT131084 PGP131082:PGP131084 PQL131082:PQL131084 QAH131082:QAH131084 QKD131082:QKD131084 QTZ131082:QTZ131084 RDV131082:RDV131084 RNR131082:RNR131084 RXN131082:RXN131084 SHJ131082:SHJ131084 SRF131082:SRF131084 TBB131082:TBB131084 TKX131082:TKX131084 TUT131082:TUT131084 UEP131082:UEP131084 UOL131082:UOL131084 UYH131082:UYH131084 VID131082:VID131084 VRZ131082:VRZ131084 WBV131082:WBV131084 WLR131082:WLR131084 WVN131082:WVN131084 F196618:F196620 JB196618:JB196620 SX196618:SX196620 ACT196618:ACT196620 AMP196618:AMP196620 AWL196618:AWL196620 BGH196618:BGH196620 BQD196618:BQD196620 BZZ196618:BZZ196620 CJV196618:CJV196620 CTR196618:CTR196620 DDN196618:DDN196620 DNJ196618:DNJ196620 DXF196618:DXF196620 EHB196618:EHB196620 EQX196618:EQX196620 FAT196618:FAT196620 FKP196618:FKP196620 FUL196618:FUL196620 GEH196618:GEH196620 GOD196618:GOD196620 GXZ196618:GXZ196620 HHV196618:HHV196620 HRR196618:HRR196620 IBN196618:IBN196620 ILJ196618:ILJ196620 IVF196618:IVF196620 JFB196618:JFB196620 JOX196618:JOX196620 JYT196618:JYT196620 KIP196618:KIP196620 KSL196618:KSL196620 LCH196618:LCH196620 LMD196618:LMD196620 LVZ196618:LVZ196620 MFV196618:MFV196620 MPR196618:MPR196620 MZN196618:MZN196620 NJJ196618:NJJ196620 NTF196618:NTF196620 ODB196618:ODB196620 OMX196618:OMX196620 OWT196618:OWT196620 PGP196618:PGP196620 PQL196618:PQL196620 QAH196618:QAH196620 QKD196618:QKD196620 QTZ196618:QTZ196620 RDV196618:RDV196620 RNR196618:RNR196620 RXN196618:RXN196620 SHJ196618:SHJ196620 SRF196618:SRF196620 TBB196618:TBB196620 TKX196618:TKX196620 TUT196618:TUT196620 UEP196618:UEP196620 UOL196618:UOL196620 UYH196618:UYH196620 VID196618:VID196620 VRZ196618:VRZ196620 WBV196618:WBV196620 WLR196618:WLR196620 WVN196618:WVN196620 F262154:F262156 JB262154:JB262156 SX262154:SX262156 ACT262154:ACT262156 AMP262154:AMP262156 AWL262154:AWL262156 BGH262154:BGH262156 BQD262154:BQD262156 BZZ262154:BZZ262156 CJV262154:CJV262156 CTR262154:CTR262156 DDN262154:DDN262156 DNJ262154:DNJ262156 DXF262154:DXF262156 EHB262154:EHB262156 EQX262154:EQX262156 FAT262154:FAT262156 FKP262154:FKP262156 FUL262154:FUL262156 GEH262154:GEH262156 GOD262154:GOD262156 GXZ262154:GXZ262156 HHV262154:HHV262156 HRR262154:HRR262156 IBN262154:IBN262156 ILJ262154:ILJ262156 IVF262154:IVF262156 JFB262154:JFB262156 JOX262154:JOX262156 JYT262154:JYT262156 KIP262154:KIP262156 KSL262154:KSL262156 LCH262154:LCH262156 LMD262154:LMD262156 LVZ262154:LVZ262156 MFV262154:MFV262156 MPR262154:MPR262156 MZN262154:MZN262156 NJJ262154:NJJ262156 NTF262154:NTF262156 ODB262154:ODB262156 OMX262154:OMX262156 OWT262154:OWT262156 PGP262154:PGP262156 PQL262154:PQL262156 QAH262154:QAH262156 QKD262154:QKD262156 QTZ262154:QTZ262156 RDV262154:RDV262156 RNR262154:RNR262156 RXN262154:RXN262156 SHJ262154:SHJ262156 SRF262154:SRF262156 TBB262154:TBB262156 TKX262154:TKX262156 TUT262154:TUT262156 UEP262154:UEP262156 UOL262154:UOL262156 UYH262154:UYH262156 VID262154:VID262156 VRZ262154:VRZ262156 WBV262154:WBV262156 WLR262154:WLR262156 WVN262154:WVN262156 F327690:F327692 JB327690:JB327692 SX327690:SX327692 ACT327690:ACT327692 AMP327690:AMP327692 AWL327690:AWL327692 BGH327690:BGH327692 BQD327690:BQD327692 BZZ327690:BZZ327692 CJV327690:CJV327692 CTR327690:CTR327692 DDN327690:DDN327692 DNJ327690:DNJ327692 DXF327690:DXF327692 EHB327690:EHB327692 EQX327690:EQX327692 FAT327690:FAT327692 FKP327690:FKP327692 FUL327690:FUL327692 GEH327690:GEH327692 GOD327690:GOD327692 GXZ327690:GXZ327692 HHV327690:HHV327692 HRR327690:HRR327692 IBN327690:IBN327692 ILJ327690:ILJ327692 IVF327690:IVF327692 JFB327690:JFB327692 JOX327690:JOX327692 JYT327690:JYT327692 KIP327690:KIP327692 KSL327690:KSL327692 LCH327690:LCH327692 LMD327690:LMD327692 LVZ327690:LVZ327692 MFV327690:MFV327692 MPR327690:MPR327692 MZN327690:MZN327692 NJJ327690:NJJ327692 NTF327690:NTF327692 ODB327690:ODB327692 OMX327690:OMX327692 OWT327690:OWT327692 PGP327690:PGP327692 PQL327690:PQL327692 QAH327690:QAH327692 QKD327690:QKD327692 QTZ327690:QTZ327692 RDV327690:RDV327692 RNR327690:RNR327692 RXN327690:RXN327692 SHJ327690:SHJ327692 SRF327690:SRF327692 TBB327690:TBB327692 TKX327690:TKX327692 TUT327690:TUT327692 UEP327690:UEP327692 UOL327690:UOL327692 UYH327690:UYH327692 VID327690:VID327692 VRZ327690:VRZ327692 WBV327690:WBV327692 WLR327690:WLR327692 WVN327690:WVN327692 F393226:F393228 JB393226:JB393228 SX393226:SX393228 ACT393226:ACT393228 AMP393226:AMP393228 AWL393226:AWL393228 BGH393226:BGH393228 BQD393226:BQD393228 BZZ393226:BZZ393228 CJV393226:CJV393228 CTR393226:CTR393228 DDN393226:DDN393228 DNJ393226:DNJ393228 DXF393226:DXF393228 EHB393226:EHB393228 EQX393226:EQX393228 FAT393226:FAT393228 FKP393226:FKP393228 FUL393226:FUL393228 GEH393226:GEH393228 GOD393226:GOD393228 GXZ393226:GXZ393228 HHV393226:HHV393228 HRR393226:HRR393228 IBN393226:IBN393228 ILJ393226:ILJ393228 IVF393226:IVF393228 JFB393226:JFB393228 JOX393226:JOX393228 JYT393226:JYT393228 KIP393226:KIP393228 KSL393226:KSL393228 LCH393226:LCH393228 LMD393226:LMD393228 LVZ393226:LVZ393228 MFV393226:MFV393228 MPR393226:MPR393228 MZN393226:MZN393228 NJJ393226:NJJ393228 NTF393226:NTF393228 ODB393226:ODB393228 OMX393226:OMX393228 OWT393226:OWT393228 PGP393226:PGP393228 PQL393226:PQL393228 QAH393226:QAH393228 QKD393226:QKD393228 QTZ393226:QTZ393228 RDV393226:RDV393228 RNR393226:RNR393228 RXN393226:RXN393228 SHJ393226:SHJ393228 SRF393226:SRF393228 TBB393226:TBB393228 TKX393226:TKX393228 TUT393226:TUT393228 UEP393226:UEP393228 UOL393226:UOL393228 UYH393226:UYH393228 VID393226:VID393228 VRZ393226:VRZ393228 WBV393226:WBV393228 WLR393226:WLR393228 WVN393226:WVN393228 F458762:F458764 JB458762:JB458764 SX458762:SX458764 ACT458762:ACT458764 AMP458762:AMP458764 AWL458762:AWL458764 BGH458762:BGH458764 BQD458762:BQD458764 BZZ458762:BZZ458764 CJV458762:CJV458764 CTR458762:CTR458764 DDN458762:DDN458764 DNJ458762:DNJ458764 DXF458762:DXF458764 EHB458762:EHB458764 EQX458762:EQX458764 FAT458762:FAT458764 FKP458762:FKP458764 FUL458762:FUL458764 GEH458762:GEH458764 GOD458762:GOD458764 GXZ458762:GXZ458764 HHV458762:HHV458764 HRR458762:HRR458764 IBN458762:IBN458764 ILJ458762:ILJ458764 IVF458762:IVF458764 JFB458762:JFB458764 JOX458762:JOX458764 JYT458762:JYT458764 KIP458762:KIP458764 KSL458762:KSL458764 LCH458762:LCH458764 LMD458762:LMD458764 LVZ458762:LVZ458764 MFV458762:MFV458764 MPR458762:MPR458764 MZN458762:MZN458764 NJJ458762:NJJ458764 NTF458762:NTF458764 ODB458762:ODB458764 OMX458762:OMX458764 OWT458762:OWT458764 PGP458762:PGP458764 PQL458762:PQL458764 QAH458762:QAH458764 QKD458762:QKD458764 QTZ458762:QTZ458764 RDV458762:RDV458764 RNR458762:RNR458764 RXN458762:RXN458764 SHJ458762:SHJ458764 SRF458762:SRF458764 TBB458762:TBB458764 TKX458762:TKX458764 TUT458762:TUT458764 UEP458762:UEP458764 UOL458762:UOL458764 UYH458762:UYH458764 VID458762:VID458764 VRZ458762:VRZ458764 WBV458762:WBV458764 WLR458762:WLR458764 WVN458762:WVN458764 F524298:F524300 JB524298:JB524300 SX524298:SX524300 ACT524298:ACT524300 AMP524298:AMP524300 AWL524298:AWL524300 BGH524298:BGH524300 BQD524298:BQD524300 BZZ524298:BZZ524300 CJV524298:CJV524300 CTR524298:CTR524300 DDN524298:DDN524300 DNJ524298:DNJ524300 DXF524298:DXF524300 EHB524298:EHB524300 EQX524298:EQX524300 FAT524298:FAT524300 FKP524298:FKP524300 FUL524298:FUL524300 GEH524298:GEH524300 GOD524298:GOD524300 GXZ524298:GXZ524300 HHV524298:HHV524300 HRR524298:HRR524300 IBN524298:IBN524300 ILJ524298:ILJ524300 IVF524298:IVF524300 JFB524298:JFB524300 JOX524298:JOX524300 JYT524298:JYT524300 KIP524298:KIP524300 KSL524298:KSL524300 LCH524298:LCH524300 LMD524298:LMD524300 LVZ524298:LVZ524300 MFV524298:MFV524300 MPR524298:MPR524300 MZN524298:MZN524300 NJJ524298:NJJ524300 NTF524298:NTF524300 ODB524298:ODB524300 OMX524298:OMX524300 OWT524298:OWT524300 PGP524298:PGP524300 PQL524298:PQL524300 QAH524298:QAH524300 QKD524298:QKD524300 QTZ524298:QTZ524300 RDV524298:RDV524300 RNR524298:RNR524300 RXN524298:RXN524300 SHJ524298:SHJ524300 SRF524298:SRF524300 TBB524298:TBB524300 TKX524298:TKX524300 TUT524298:TUT524300 UEP524298:UEP524300 UOL524298:UOL524300 UYH524298:UYH524300 VID524298:VID524300 VRZ524298:VRZ524300 WBV524298:WBV524300 WLR524298:WLR524300 WVN524298:WVN524300 F589834:F589836 JB589834:JB589836 SX589834:SX589836 ACT589834:ACT589836 AMP589834:AMP589836 AWL589834:AWL589836 BGH589834:BGH589836 BQD589834:BQD589836 BZZ589834:BZZ589836 CJV589834:CJV589836 CTR589834:CTR589836 DDN589834:DDN589836 DNJ589834:DNJ589836 DXF589834:DXF589836 EHB589834:EHB589836 EQX589834:EQX589836 FAT589834:FAT589836 FKP589834:FKP589836 FUL589834:FUL589836 GEH589834:GEH589836 GOD589834:GOD589836 GXZ589834:GXZ589836 HHV589834:HHV589836 HRR589834:HRR589836 IBN589834:IBN589836 ILJ589834:ILJ589836 IVF589834:IVF589836 JFB589834:JFB589836 JOX589834:JOX589836 JYT589834:JYT589836 KIP589834:KIP589836 KSL589834:KSL589836 LCH589834:LCH589836 LMD589834:LMD589836 LVZ589834:LVZ589836 MFV589834:MFV589836 MPR589834:MPR589836 MZN589834:MZN589836 NJJ589834:NJJ589836 NTF589834:NTF589836 ODB589834:ODB589836 OMX589834:OMX589836 OWT589834:OWT589836 PGP589834:PGP589836 PQL589834:PQL589836 QAH589834:QAH589836 QKD589834:QKD589836 QTZ589834:QTZ589836 RDV589834:RDV589836 RNR589834:RNR589836 RXN589834:RXN589836 SHJ589834:SHJ589836 SRF589834:SRF589836 TBB589834:TBB589836 TKX589834:TKX589836 TUT589834:TUT589836 UEP589834:UEP589836 UOL589834:UOL589836 UYH589834:UYH589836 VID589834:VID589836 VRZ589834:VRZ589836 WBV589834:WBV589836 WLR589834:WLR589836 WVN589834:WVN589836 F655370:F655372 JB655370:JB655372 SX655370:SX655372 ACT655370:ACT655372 AMP655370:AMP655372 AWL655370:AWL655372 BGH655370:BGH655372 BQD655370:BQD655372 BZZ655370:BZZ655372 CJV655370:CJV655372 CTR655370:CTR655372 DDN655370:DDN655372 DNJ655370:DNJ655372 DXF655370:DXF655372 EHB655370:EHB655372 EQX655370:EQX655372 FAT655370:FAT655372 FKP655370:FKP655372 FUL655370:FUL655372 GEH655370:GEH655372 GOD655370:GOD655372 GXZ655370:GXZ655372 HHV655370:HHV655372 HRR655370:HRR655372 IBN655370:IBN655372 ILJ655370:ILJ655372 IVF655370:IVF655372 JFB655370:JFB655372 JOX655370:JOX655372 JYT655370:JYT655372 KIP655370:KIP655372 KSL655370:KSL655372 LCH655370:LCH655372 LMD655370:LMD655372 LVZ655370:LVZ655372 MFV655370:MFV655372 MPR655370:MPR655372 MZN655370:MZN655372 NJJ655370:NJJ655372 NTF655370:NTF655372 ODB655370:ODB655372 OMX655370:OMX655372 OWT655370:OWT655372 PGP655370:PGP655372 PQL655370:PQL655372 QAH655370:QAH655372 QKD655370:QKD655372 QTZ655370:QTZ655372 RDV655370:RDV655372 RNR655370:RNR655372 RXN655370:RXN655372 SHJ655370:SHJ655372 SRF655370:SRF655372 TBB655370:TBB655372 TKX655370:TKX655372 TUT655370:TUT655372 UEP655370:UEP655372 UOL655370:UOL655372 UYH655370:UYH655372 VID655370:VID655372 VRZ655370:VRZ655372 WBV655370:WBV655372 WLR655370:WLR655372 WVN655370:WVN655372 F720906:F720908 JB720906:JB720908 SX720906:SX720908 ACT720906:ACT720908 AMP720906:AMP720908 AWL720906:AWL720908 BGH720906:BGH720908 BQD720906:BQD720908 BZZ720906:BZZ720908 CJV720906:CJV720908 CTR720906:CTR720908 DDN720906:DDN720908 DNJ720906:DNJ720908 DXF720906:DXF720908 EHB720906:EHB720908 EQX720906:EQX720908 FAT720906:FAT720908 FKP720906:FKP720908 FUL720906:FUL720908 GEH720906:GEH720908 GOD720906:GOD720908 GXZ720906:GXZ720908 HHV720906:HHV720908 HRR720906:HRR720908 IBN720906:IBN720908 ILJ720906:ILJ720908 IVF720906:IVF720908 JFB720906:JFB720908 JOX720906:JOX720908 JYT720906:JYT720908 KIP720906:KIP720908 KSL720906:KSL720908 LCH720906:LCH720908 LMD720906:LMD720908 LVZ720906:LVZ720908 MFV720906:MFV720908 MPR720906:MPR720908 MZN720906:MZN720908 NJJ720906:NJJ720908 NTF720906:NTF720908 ODB720906:ODB720908 OMX720906:OMX720908 OWT720906:OWT720908 PGP720906:PGP720908 PQL720906:PQL720908 QAH720906:QAH720908 QKD720906:QKD720908 QTZ720906:QTZ720908 RDV720906:RDV720908 RNR720906:RNR720908 RXN720906:RXN720908 SHJ720906:SHJ720908 SRF720906:SRF720908 TBB720906:TBB720908 TKX720906:TKX720908 TUT720906:TUT720908 UEP720906:UEP720908 UOL720906:UOL720908 UYH720906:UYH720908 VID720906:VID720908 VRZ720906:VRZ720908 WBV720906:WBV720908 WLR720906:WLR720908 WVN720906:WVN720908 F786442:F786444 JB786442:JB786444 SX786442:SX786444 ACT786442:ACT786444 AMP786442:AMP786444 AWL786442:AWL786444 BGH786442:BGH786444 BQD786442:BQD786444 BZZ786442:BZZ786444 CJV786442:CJV786444 CTR786442:CTR786444 DDN786442:DDN786444 DNJ786442:DNJ786444 DXF786442:DXF786444 EHB786442:EHB786444 EQX786442:EQX786444 FAT786442:FAT786444 FKP786442:FKP786444 FUL786442:FUL786444 GEH786442:GEH786444 GOD786442:GOD786444 GXZ786442:GXZ786444 HHV786442:HHV786444 HRR786442:HRR786444 IBN786442:IBN786444 ILJ786442:ILJ786444 IVF786442:IVF786444 JFB786442:JFB786444 JOX786442:JOX786444 JYT786442:JYT786444 KIP786442:KIP786444 KSL786442:KSL786444 LCH786442:LCH786444 LMD786442:LMD786444 LVZ786442:LVZ786444 MFV786442:MFV786444 MPR786442:MPR786444 MZN786442:MZN786444 NJJ786442:NJJ786444 NTF786442:NTF786444 ODB786442:ODB786444 OMX786442:OMX786444 OWT786442:OWT786444 PGP786442:PGP786444 PQL786442:PQL786444 QAH786442:QAH786444 QKD786442:QKD786444 QTZ786442:QTZ786444 RDV786442:RDV786444 RNR786442:RNR786444 RXN786442:RXN786444 SHJ786442:SHJ786444 SRF786442:SRF786444 TBB786442:TBB786444 TKX786442:TKX786444 TUT786442:TUT786444 UEP786442:UEP786444 UOL786442:UOL786444 UYH786442:UYH786444 VID786442:VID786444 VRZ786442:VRZ786444 WBV786442:WBV786444 WLR786442:WLR786444 WVN786442:WVN786444 F851978:F851980 JB851978:JB851980 SX851978:SX851980 ACT851978:ACT851980 AMP851978:AMP851980 AWL851978:AWL851980 BGH851978:BGH851980 BQD851978:BQD851980 BZZ851978:BZZ851980 CJV851978:CJV851980 CTR851978:CTR851980 DDN851978:DDN851980 DNJ851978:DNJ851980 DXF851978:DXF851980 EHB851978:EHB851980 EQX851978:EQX851980 FAT851978:FAT851980 FKP851978:FKP851980 FUL851978:FUL851980 GEH851978:GEH851980 GOD851978:GOD851980 GXZ851978:GXZ851980 HHV851978:HHV851980 HRR851978:HRR851980 IBN851978:IBN851980 ILJ851978:ILJ851980 IVF851978:IVF851980 JFB851978:JFB851980 JOX851978:JOX851980 JYT851978:JYT851980 KIP851978:KIP851980 KSL851978:KSL851980 LCH851978:LCH851980 LMD851978:LMD851980 LVZ851978:LVZ851980 MFV851978:MFV851980 MPR851978:MPR851980 MZN851978:MZN851980 NJJ851978:NJJ851980 NTF851978:NTF851980 ODB851978:ODB851980 OMX851978:OMX851980 OWT851978:OWT851980 PGP851978:PGP851980 PQL851978:PQL851980 QAH851978:QAH851980 QKD851978:QKD851980 QTZ851978:QTZ851980 RDV851978:RDV851980 RNR851978:RNR851980 RXN851978:RXN851980 SHJ851978:SHJ851980 SRF851978:SRF851980 TBB851978:TBB851980 TKX851978:TKX851980 TUT851978:TUT851980 UEP851978:UEP851980 UOL851978:UOL851980 UYH851978:UYH851980 VID851978:VID851980 VRZ851978:VRZ851980 WBV851978:WBV851980 WLR851978:WLR851980 WVN851978:WVN851980 F917514:F917516 JB917514:JB917516 SX917514:SX917516 ACT917514:ACT917516 AMP917514:AMP917516 AWL917514:AWL917516 BGH917514:BGH917516 BQD917514:BQD917516 BZZ917514:BZZ917516 CJV917514:CJV917516 CTR917514:CTR917516 DDN917514:DDN917516 DNJ917514:DNJ917516 DXF917514:DXF917516 EHB917514:EHB917516 EQX917514:EQX917516 FAT917514:FAT917516 FKP917514:FKP917516 FUL917514:FUL917516 GEH917514:GEH917516 GOD917514:GOD917516 GXZ917514:GXZ917516 HHV917514:HHV917516 HRR917514:HRR917516 IBN917514:IBN917516 ILJ917514:ILJ917516 IVF917514:IVF917516 JFB917514:JFB917516 JOX917514:JOX917516 JYT917514:JYT917516 KIP917514:KIP917516 KSL917514:KSL917516 LCH917514:LCH917516 LMD917514:LMD917516 LVZ917514:LVZ917516 MFV917514:MFV917516 MPR917514:MPR917516 MZN917514:MZN917516 NJJ917514:NJJ917516 NTF917514:NTF917516 ODB917514:ODB917516 OMX917514:OMX917516 OWT917514:OWT917516 PGP917514:PGP917516 PQL917514:PQL917516 QAH917514:QAH917516 QKD917514:QKD917516 QTZ917514:QTZ917516 RDV917514:RDV917516 RNR917514:RNR917516 RXN917514:RXN917516 SHJ917514:SHJ917516 SRF917514:SRF917516 TBB917514:TBB917516 TKX917514:TKX917516 TUT917514:TUT917516 UEP917514:UEP917516 UOL917514:UOL917516 UYH917514:UYH917516 VID917514:VID917516 VRZ917514:VRZ917516 WBV917514:WBV917516 WLR917514:WLR917516 WVN917514:WVN917516 F983050:F983052 JB983050:JB983052 SX983050:SX983052 ACT983050:ACT983052 AMP983050:AMP983052 AWL983050:AWL983052 BGH983050:BGH983052 BQD983050:BQD983052 BZZ983050:BZZ983052 CJV983050:CJV983052 CTR983050:CTR983052 DDN983050:DDN983052 DNJ983050:DNJ983052 DXF983050:DXF983052 EHB983050:EHB983052 EQX983050:EQX983052 FAT983050:FAT983052 FKP983050:FKP983052 FUL983050:FUL983052 GEH983050:GEH983052 GOD983050:GOD983052 GXZ983050:GXZ983052 HHV983050:HHV983052 HRR983050:HRR983052 IBN983050:IBN983052 ILJ983050:ILJ983052 IVF983050:IVF983052 JFB983050:JFB983052 JOX983050:JOX983052 JYT983050:JYT983052 KIP983050:KIP983052 KSL983050:KSL983052 LCH983050:LCH983052 LMD983050:LMD983052 LVZ983050:LVZ983052 MFV983050:MFV983052 MPR983050:MPR983052 MZN983050:MZN983052 NJJ983050:NJJ983052 NTF983050:NTF983052 ODB983050:ODB983052 OMX983050:OMX983052 OWT983050:OWT983052 PGP983050:PGP983052 PQL983050:PQL983052 QAH983050:QAH983052 QKD983050:QKD983052 QTZ983050:QTZ983052 RDV983050:RDV983052 RNR983050:RNR983052 RXN983050:RXN983052 SHJ983050:SHJ983052 SRF983050:SRF983052 TBB983050:TBB983052 TKX983050:TKX983052 TUT983050:TUT983052 UEP983050:UEP983052 UOL983050:UOL983052 UYH983050:UYH983052 VID983050:VID983052 VRZ983050:VRZ983052 WBV983050:WBV983052 WLR983050:WLR983052 WVN983050:WVN983052 WVN983056:WVN983193 F65552:F65689 JB65552:JB65689 SX65552:SX65689 ACT65552:ACT65689 AMP65552:AMP65689 AWL65552:AWL65689 BGH65552:BGH65689 BQD65552:BQD65689 BZZ65552:BZZ65689 CJV65552:CJV65689 CTR65552:CTR65689 DDN65552:DDN65689 DNJ65552:DNJ65689 DXF65552:DXF65689 EHB65552:EHB65689 EQX65552:EQX65689 FAT65552:FAT65689 FKP65552:FKP65689 FUL65552:FUL65689 GEH65552:GEH65689 GOD65552:GOD65689 GXZ65552:GXZ65689 HHV65552:HHV65689 HRR65552:HRR65689 IBN65552:IBN65689 ILJ65552:ILJ65689 IVF65552:IVF65689 JFB65552:JFB65689 JOX65552:JOX65689 JYT65552:JYT65689 KIP65552:KIP65689 KSL65552:KSL65689 LCH65552:LCH65689 LMD65552:LMD65689 LVZ65552:LVZ65689 MFV65552:MFV65689 MPR65552:MPR65689 MZN65552:MZN65689 NJJ65552:NJJ65689 NTF65552:NTF65689 ODB65552:ODB65689 OMX65552:OMX65689 OWT65552:OWT65689 PGP65552:PGP65689 PQL65552:PQL65689 QAH65552:QAH65689 QKD65552:QKD65689 QTZ65552:QTZ65689 RDV65552:RDV65689 RNR65552:RNR65689 RXN65552:RXN65689 SHJ65552:SHJ65689 SRF65552:SRF65689 TBB65552:TBB65689 TKX65552:TKX65689 TUT65552:TUT65689 UEP65552:UEP65689 UOL65552:UOL65689 UYH65552:UYH65689 VID65552:VID65689 VRZ65552:VRZ65689 WBV65552:WBV65689 WLR65552:WLR65689 WVN65552:WVN65689 F131088:F131225 JB131088:JB131225 SX131088:SX131225 ACT131088:ACT131225 AMP131088:AMP131225 AWL131088:AWL131225 BGH131088:BGH131225 BQD131088:BQD131225 BZZ131088:BZZ131225 CJV131088:CJV131225 CTR131088:CTR131225 DDN131088:DDN131225 DNJ131088:DNJ131225 DXF131088:DXF131225 EHB131088:EHB131225 EQX131088:EQX131225 FAT131088:FAT131225 FKP131088:FKP131225 FUL131088:FUL131225 GEH131088:GEH131225 GOD131088:GOD131225 GXZ131088:GXZ131225 HHV131088:HHV131225 HRR131088:HRR131225 IBN131088:IBN131225 ILJ131088:ILJ131225 IVF131088:IVF131225 JFB131088:JFB131225 JOX131088:JOX131225 JYT131088:JYT131225 KIP131088:KIP131225 KSL131088:KSL131225 LCH131088:LCH131225 LMD131088:LMD131225 LVZ131088:LVZ131225 MFV131088:MFV131225 MPR131088:MPR131225 MZN131088:MZN131225 NJJ131088:NJJ131225 NTF131088:NTF131225 ODB131088:ODB131225 OMX131088:OMX131225 OWT131088:OWT131225 PGP131088:PGP131225 PQL131088:PQL131225 QAH131088:QAH131225 QKD131088:QKD131225 QTZ131088:QTZ131225 RDV131088:RDV131225 RNR131088:RNR131225 RXN131088:RXN131225 SHJ131088:SHJ131225 SRF131088:SRF131225 TBB131088:TBB131225 TKX131088:TKX131225 TUT131088:TUT131225 UEP131088:UEP131225 UOL131088:UOL131225 UYH131088:UYH131225 VID131088:VID131225 VRZ131088:VRZ131225 WBV131088:WBV131225 WLR131088:WLR131225 WVN131088:WVN131225 F196624:F196761 JB196624:JB196761 SX196624:SX196761 ACT196624:ACT196761 AMP196624:AMP196761 AWL196624:AWL196761 BGH196624:BGH196761 BQD196624:BQD196761 BZZ196624:BZZ196761 CJV196624:CJV196761 CTR196624:CTR196761 DDN196624:DDN196761 DNJ196624:DNJ196761 DXF196624:DXF196761 EHB196624:EHB196761 EQX196624:EQX196761 FAT196624:FAT196761 FKP196624:FKP196761 FUL196624:FUL196761 GEH196624:GEH196761 GOD196624:GOD196761 GXZ196624:GXZ196761 HHV196624:HHV196761 HRR196624:HRR196761 IBN196624:IBN196761 ILJ196624:ILJ196761 IVF196624:IVF196761 JFB196624:JFB196761 JOX196624:JOX196761 JYT196624:JYT196761 KIP196624:KIP196761 KSL196624:KSL196761 LCH196624:LCH196761 LMD196624:LMD196761 LVZ196624:LVZ196761 MFV196624:MFV196761 MPR196624:MPR196761 MZN196624:MZN196761 NJJ196624:NJJ196761 NTF196624:NTF196761 ODB196624:ODB196761 OMX196624:OMX196761 OWT196624:OWT196761 PGP196624:PGP196761 PQL196624:PQL196761 QAH196624:QAH196761 QKD196624:QKD196761 QTZ196624:QTZ196761 RDV196624:RDV196761 RNR196624:RNR196761 RXN196624:RXN196761 SHJ196624:SHJ196761 SRF196624:SRF196761 TBB196624:TBB196761 TKX196624:TKX196761 TUT196624:TUT196761 UEP196624:UEP196761 UOL196624:UOL196761 UYH196624:UYH196761 VID196624:VID196761 VRZ196624:VRZ196761 WBV196624:WBV196761 WLR196624:WLR196761 WVN196624:WVN196761 F262160:F262297 JB262160:JB262297 SX262160:SX262297 ACT262160:ACT262297 AMP262160:AMP262297 AWL262160:AWL262297 BGH262160:BGH262297 BQD262160:BQD262297 BZZ262160:BZZ262297 CJV262160:CJV262297 CTR262160:CTR262297 DDN262160:DDN262297 DNJ262160:DNJ262297 DXF262160:DXF262297 EHB262160:EHB262297 EQX262160:EQX262297 FAT262160:FAT262297 FKP262160:FKP262297 FUL262160:FUL262297 GEH262160:GEH262297 GOD262160:GOD262297 GXZ262160:GXZ262297 HHV262160:HHV262297 HRR262160:HRR262297 IBN262160:IBN262297 ILJ262160:ILJ262297 IVF262160:IVF262297 JFB262160:JFB262297 JOX262160:JOX262297 JYT262160:JYT262297 KIP262160:KIP262297 KSL262160:KSL262297 LCH262160:LCH262297 LMD262160:LMD262297 LVZ262160:LVZ262297 MFV262160:MFV262297 MPR262160:MPR262297 MZN262160:MZN262297 NJJ262160:NJJ262297 NTF262160:NTF262297 ODB262160:ODB262297 OMX262160:OMX262297 OWT262160:OWT262297 PGP262160:PGP262297 PQL262160:PQL262297 QAH262160:QAH262297 QKD262160:QKD262297 QTZ262160:QTZ262297 RDV262160:RDV262297 RNR262160:RNR262297 RXN262160:RXN262297 SHJ262160:SHJ262297 SRF262160:SRF262297 TBB262160:TBB262297 TKX262160:TKX262297 TUT262160:TUT262297 UEP262160:UEP262297 UOL262160:UOL262297 UYH262160:UYH262297 VID262160:VID262297 VRZ262160:VRZ262297 WBV262160:WBV262297 WLR262160:WLR262297 WVN262160:WVN262297 F327696:F327833 JB327696:JB327833 SX327696:SX327833 ACT327696:ACT327833 AMP327696:AMP327833 AWL327696:AWL327833 BGH327696:BGH327833 BQD327696:BQD327833 BZZ327696:BZZ327833 CJV327696:CJV327833 CTR327696:CTR327833 DDN327696:DDN327833 DNJ327696:DNJ327833 DXF327696:DXF327833 EHB327696:EHB327833 EQX327696:EQX327833 FAT327696:FAT327833 FKP327696:FKP327833 FUL327696:FUL327833 GEH327696:GEH327833 GOD327696:GOD327833 GXZ327696:GXZ327833 HHV327696:HHV327833 HRR327696:HRR327833 IBN327696:IBN327833 ILJ327696:ILJ327833 IVF327696:IVF327833 JFB327696:JFB327833 JOX327696:JOX327833 JYT327696:JYT327833 KIP327696:KIP327833 KSL327696:KSL327833 LCH327696:LCH327833 LMD327696:LMD327833 LVZ327696:LVZ327833 MFV327696:MFV327833 MPR327696:MPR327833 MZN327696:MZN327833 NJJ327696:NJJ327833 NTF327696:NTF327833 ODB327696:ODB327833 OMX327696:OMX327833 OWT327696:OWT327833 PGP327696:PGP327833 PQL327696:PQL327833 QAH327696:QAH327833 QKD327696:QKD327833 QTZ327696:QTZ327833 RDV327696:RDV327833 RNR327696:RNR327833 RXN327696:RXN327833 SHJ327696:SHJ327833 SRF327696:SRF327833 TBB327696:TBB327833 TKX327696:TKX327833 TUT327696:TUT327833 UEP327696:UEP327833 UOL327696:UOL327833 UYH327696:UYH327833 VID327696:VID327833 VRZ327696:VRZ327833 WBV327696:WBV327833 WLR327696:WLR327833 WVN327696:WVN327833 F393232:F393369 JB393232:JB393369 SX393232:SX393369 ACT393232:ACT393369 AMP393232:AMP393369 AWL393232:AWL393369 BGH393232:BGH393369 BQD393232:BQD393369 BZZ393232:BZZ393369 CJV393232:CJV393369 CTR393232:CTR393369 DDN393232:DDN393369 DNJ393232:DNJ393369 DXF393232:DXF393369 EHB393232:EHB393369 EQX393232:EQX393369 FAT393232:FAT393369 FKP393232:FKP393369 FUL393232:FUL393369 GEH393232:GEH393369 GOD393232:GOD393369 GXZ393232:GXZ393369 HHV393232:HHV393369 HRR393232:HRR393369 IBN393232:IBN393369 ILJ393232:ILJ393369 IVF393232:IVF393369 JFB393232:JFB393369 JOX393232:JOX393369 JYT393232:JYT393369 KIP393232:KIP393369 KSL393232:KSL393369 LCH393232:LCH393369 LMD393232:LMD393369 LVZ393232:LVZ393369 MFV393232:MFV393369 MPR393232:MPR393369 MZN393232:MZN393369 NJJ393232:NJJ393369 NTF393232:NTF393369 ODB393232:ODB393369 OMX393232:OMX393369 OWT393232:OWT393369 PGP393232:PGP393369 PQL393232:PQL393369 QAH393232:QAH393369 QKD393232:QKD393369 QTZ393232:QTZ393369 RDV393232:RDV393369 RNR393232:RNR393369 RXN393232:RXN393369 SHJ393232:SHJ393369 SRF393232:SRF393369 TBB393232:TBB393369 TKX393232:TKX393369 TUT393232:TUT393369 UEP393232:UEP393369 UOL393232:UOL393369 UYH393232:UYH393369 VID393232:VID393369 VRZ393232:VRZ393369 WBV393232:WBV393369 WLR393232:WLR393369 WVN393232:WVN393369 F458768:F458905 JB458768:JB458905 SX458768:SX458905 ACT458768:ACT458905 AMP458768:AMP458905 AWL458768:AWL458905 BGH458768:BGH458905 BQD458768:BQD458905 BZZ458768:BZZ458905 CJV458768:CJV458905 CTR458768:CTR458905 DDN458768:DDN458905 DNJ458768:DNJ458905 DXF458768:DXF458905 EHB458768:EHB458905 EQX458768:EQX458905 FAT458768:FAT458905 FKP458768:FKP458905 FUL458768:FUL458905 GEH458768:GEH458905 GOD458768:GOD458905 GXZ458768:GXZ458905 HHV458768:HHV458905 HRR458768:HRR458905 IBN458768:IBN458905 ILJ458768:ILJ458905 IVF458768:IVF458905 JFB458768:JFB458905 JOX458768:JOX458905 JYT458768:JYT458905 KIP458768:KIP458905 KSL458768:KSL458905 LCH458768:LCH458905 LMD458768:LMD458905 LVZ458768:LVZ458905 MFV458768:MFV458905 MPR458768:MPR458905 MZN458768:MZN458905 NJJ458768:NJJ458905 NTF458768:NTF458905 ODB458768:ODB458905 OMX458768:OMX458905 OWT458768:OWT458905 PGP458768:PGP458905 PQL458768:PQL458905 QAH458768:QAH458905 QKD458768:QKD458905 QTZ458768:QTZ458905 RDV458768:RDV458905 RNR458768:RNR458905 RXN458768:RXN458905 SHJ458768:SHJ458905 SRF458768:SRF458905 TBB458768:TBB458905 TKX458768:TKX458905 TUT458768:TUT458905 UEP458768:UEP458905 UOL458768:UOL458905 UYH458768:UYH458905 VID458768:VID458905 VRZ458768:VRZ458905 WBV458768:WBV458905 WLR458768:WLR458905 WVN458768:WVN458905 F524304:F524441 JB524304:JB524441 SX524304:SX524441 ACT524304:ACT524441 AMP524304:AMP524441 AWL524304:AWL524441 BGH524304:BGH524441 BQD524304:BQD524441 BZZ524304:BZZ524441 CJV524304:CJV524441 CTR524304:CTR524441 DDN524304:DDN524441 DNJ524304:DNJ524441 DXF524304:DXF524441 EHB524304:EHB524441 EQX524304:EQX524441 FAT524304:FAT524441 FKP524304:FKP524441 FUL524304:FUL524441 GEH524304:GEH524441 GOD524304:GOD524441 GXZ524304:GXZ524441 HHV524304:HHV524441 HRR524304:HRR524441 IBN524304:IBN524441 ILJ524304:ILJ524441 IVF524304:IVF524441 JFB524304:JFB524441 JOX524304:JOX524441 JYT524304:JYT524441 KIP524304:KIP524441 KSL524304:KSL524441 LCH524304:LCH524441 LMD524304:LMD524441 LVZ524304:LVZ524441 MFV524304:MFV524441 MPR524304:MPR524441 MZN524304:MZN524441 NJJ524304:NJJ524441 NTF524304:NTF524441 ODB524304:ODB524441 OMX524304:OMX524441 OWT524304:OWT524441 PGP524304:PGP524441 PQL524304:PQL524441 QAH524304:QAH524441 QKD524304:QKD524441 QTZ524304:QTZ524441 RDV524304:RDV524441 RNR524304:RNR524441 RXN524304:RXN524441 SHJ524304:SHJ524441 SRF524304:SRF524441 TBB524304:TBB524441 TKX524304:TKX524441 TUT524304:TUT524441 UEP524304:UEP524441 UOL524304:UOL524441 UYH524304:UYH524441 VID524304:VID524441 VRZ524304:VRZ524441 WBV524304:WBV524441 WLR524304:WLR524441 WVN524304:WVN524441 F589840:F589977 JB589840:JB589977 SX589840:SX589977 ACT589840:ACT589977 AMP589840:AMP589977 AWL589840:AWL589977 BGH589840:BGH589977 BQD589840:BQD589977 BZZ589840:BZZ589977 CJV589840:CJV589977 CTR589840:CTR589977 DDN589840:DDN589977 DNJ589840:DNJ589977 DXF589840:DXF589977 EHB589840:EHB589977 EQX589840:EQX589977 FAT589840:FAT589977 FKP589840:FKP589977 FUL589840:FUL589977 GEH589840:GEH589977 GOD589840:GOD589977 GXZ589840:GXZ589977 HHV589840:HHV589977 HRR589840:HRR589977 IBN589840:IBN589977 ILJ589840:ILJ589977 IVF589840:IVF589977 JFB589840:JFB589977 JOX589840:JOX589977 JYT589840:JYT589977 KIP589840:KIP589977 KSL589840:KSL589977 LCH589840:LCH589977 LMD589840:LMD589977 LVZ589840:LVZ589977 MFV589840:MFV589977 MPR589840:MPR589977 MZN589840:MZN589977 NJJ589840:NJJ589977 NTF589840:NTF589977 ODB589840:ODB589977 OMX589840:OMX589977 OWT589840:OWT589977 PGP589840:PGP589977 PQL589840:PQL589977 QAH589840:QAH589977 QKD589840:QKD589977 QTZ589840:QTZ589977 RDV589840:RDV589977 RNR589840:RNR589977 RXN589840:RXN589977 SHJ589840:SHJ589977 SRF589840:SRF589977 TBB589840:TBB589977 TKX589840:TKX589977 TUT589840:TUT589977 UEP589840:UEP589977 UOL589840:UOL589977 UYH589840:UYH589977 VID589840:VID589977 VRZ589840:VRZ589977 WBV589840:WBV589977 WLR589840:WLR589977 WVN589840:WVN589977 F655376:F655513 JB655376:JB655513 SX655376:SX655513 ACT655376:ACT655513 AMP655376:AMP655513 AWL655376:AWL655513 BGH655376:BGH655513 BQD655376:BQD655513 BZZ655376:BZZ655513 CJV655376:CJV655513 CTR655376:CTR655513 DDN655376:DDN655513 DNJ655376:DNJ655513 DXF655376:DXF655513 EHB655376:EHB655513 EQX655376:EQX655513 FAT655376:FAT655513 FKP655376:FKP655513 FUL655376:FUL655513 GEH655376:GEH655513 GOD655376:GOD655513 GXZ655376:GXZ655513 HHV655376:HHV655513 HRR655376:HRR655513 IBN655376:IBN655513 ILJ655376:ILJ655513 IVF655376:IVF655513 JFB655376:JFB655513 JOX655376:JOX655513 JYT655376:JYT655513 KIP655376:KIP655513 KSL655376:KSL655513 LCH655376:LCH655513 LMD655376:LMD655513 LVZ655376:LVZ655513 MFV655376:MFV655513 MPR655376:MPR655513 MZN655376:MZN655513 NJJ655376:NJJ655513 NTF655376:NTF655513 ODB655376:ODB655513 OMX655376:OMX655513 OWT655376:OWT655513 PGP655376:PGP655513 PQL655376:PQL655513 QAH655376:QAH655513 QKD655376:QKD655513 QTZ655376:QTZ655513 RDV655376:RDV655513 RNR655376:RNR655513 RXN655376:RXN655513 SHJ655376:SHJ655513 SRF655376:SRF655513 TBB655376:TBB655513 TKX655376:TKX655513 TUT655376:TUT655513 UEP655376:UEP655513 UOL655376:UOL655513 UYH655376:UYH655513 VID655376:VID655513 VRZ655376:VRZ655513 WBV655376:WBV655513 WLR655376:WLR655513 WVN655376:WVN655513 F720912:F721049 JB720912:JB721049 SX720912:SX721049 ACT720912:ACT721049 AMP720912:AMP721049 AWL720912:AWL721049 BGH720912:BGH721049 BQD720912:BQD721049 BZZ720912:BZZ721049 CJV720912:CJV721049 CTR720912:CTR721049 DDN720912:DDN721049 DNJ720912:DNJ721049 DXF720912:DXF721049 EHB720912:EHB721049 EQX720912:EQX721049 FAT720912:FAT721049 FKP720912:FKP721049 FUL720912:FUL721049 GEH720912:GEH721049 GOD720912:GOD721049 GXZ720912:GXZ721049 HHV720912:HHV721049 HRR720912:HRR721049 IBN720912:IBN721049 ILJ720912:ILJ721049 IVF720912:IVF721049 JFB720912:JFB721049 JOX720912:JOX721049 JYT720912:JYT721049 KIP720912:KIP721049 KSL720912:KSL721049 LCH720912:LCH721049 LMD720912:LMD721049 LVZ720912:LVZ721049 MFV720912:MFV721049 MPR720912:MPR721049 MZN720912:MZN721049 NJJ720912:NJJ721049 NTF720912:NTF721049 ODB720912:ODB721049 OMX720912:OMX721049 OWT720912:OWT721049 PGP720912:PGP721049 PQL720912:PQL721049 QAH720912:QAH721049 QKD720912:QKD721049 QTZ720912:QTZ721049 RDV720912:RDV721049 RNR720912:RNR721049 RXN720912:RXN721049 SHJ720912:SHJ721049 SRF720912:SRF721049 TBB720912:TBB721049 TKX720912:TKX721049 TUT720912:TUT721049 UEP720912:UEP721049 UOL720912:UOL721049 UYH720912:UYH721049 VID720912:VID721049 VRZ720912:VRZ721049 WBV720912:WBV721049 WLR720912:WLR721049 WVN720912:WVN721049 F786448:F786585 JB786448:JB786585 SX786448:SX786585 ACT786448:ACT786585 AMP786448:AMP786585 AWL786448:AWL786585 BGH786448:BGH786585 BQD786448:BQD786585 BZZ786448:BZZ786585 CJV786448:CJV786585 CTR786448:CTR786585 DDN786448:DDN786585 DNJ786448:DNJ786585 DXF786448:DXF786585 EHB786448:EHB786585 EQX786448:EQX786585 FAT786448:FAT786585 FKP786448:FKP786585 FUL786448:FUL786585 GEH786448:GEH786585 GOD786448:GOD786585 GXZ786448:GXZ786585 HHV786448:HHV786585 HRR786448:HRR786585 IBN786448:IBN786585 ILJ786448:ILJ786585 IVF786448:IVF786585 JFB786448:JFB786585 JOX786448:JOX786585 JYT786448:JYT786585 KIP786448:KIP786585 KSL786448:KSL786585 LCH786448:LCH786585 LMD786448:LMD786585 LVZ786448:LVZ786585 MFV786448:MFV786585 MPR786448:MPR786585 MZN786448:MZN786585 NJJ786448:NJJ786585 NTF786448:NTF786585 ODB786448:ODB786585 OMX786448:OMX786585 OWT786448:OWT786585 PGP786448:PGP786585 PQL786448:PQL786585 QAH786448:QAH786585 QKD786448:QKD786585 QTZ786448:QTZ786585 RDV786448:RDV786585 RNR786448:RNR786585 RXN786448:RXN786585 SHJ786448:SHJ786585 SRF786448:SRF786585 TBB786448:TBB786585 TKX786448:TKX786585 TUT786448:TUT786585 UEP786448:UEP786585 UOL786448:UOL786585 UYH786448:UYH786585 VID786448:VID786585 VRZ786448:VRZ786585 WBV786448:WBV786585 WLR786448:WLR786585 WVN786448:WVN786585 F851984:F852121 JB851984:JB852121 SX851984:SX852121 ACT851984:ACT852121 AMP851984:AMP852121 AWL851984:AWL852121 BGH851984:BGH852121 BQD851984:BQD852121 BZZ851984:BZZ852121 CJV851984:CJV852121 CTR851984:CTR852121 DDN851984:DDN852121 DNJ851984:DNJ852121 DXF851984:DXF852121 EHB851984:EHB852121 EQX851984:EQX852121 FAT851984:FAT852121 FKP851984:FKP852121 FUL851984:FUL852121 GEH851984:GEH852121 GOD851984:GOD852121 GXZ851984:GXZ852121 HHV851984:HHV852121 HRR851984:HRR852121 IBN851984:IBN852121 ILJ851984:ILJ852121 IVF851984:IVF852121 JFB851984:JFB852121 JOX851984:JOX852121 JYT851984:JYT852121 KIP851984:KIP852121 KSL851984:KSL852121 LCH851984:LCH852121 LMD851984:LMD852121 LVZ851984:LVZ852121 MFV851984:MFV852121 MPR851984:MPR852121 MZN851984:MZN852121 NJJ851984:NJJ852121 NTF851984:NTF852121 ODB851984:ODB852121 OMX851984:OMX852121 OWT851984:OWT852121 PGP851984:PGP852121 PQL851984:PQL852121 QAH851984:QAH852121 QKD851984:QKD852121 QTZ851984:QTZ852121 RDV851984:RDV852121 RNR851984:RNR852121 RXN851984:RXN852121 SHJ851984:SHJ852121 SRF851984:SRF852121 TBB851984:TBB852121 TKX851984:TKX852121 TUT851984:TUT852121 UEP851984:UEP852121 UOL851984:UOL852121 UYH851984:UYH852121 VID851984:VID852121 VRZ851984:VRZ852121 WBV851984:WBV852121 WLR851984:WLR852121 WVN851984:WVN852121 F917520:F917657 JB917520:JB917657 SX917520:SX917657 ACT917520:ACT917657 AMP917520:AMP917657 AWL917520:AWL917657 BGH917520:BGH917657 BQD917520:BQD917657 BZZ917520:BZZ917657 CJV917520:CJV917657 CTR917520:CTR917657 DDN917520:DDN917657 DNJ917520:DNJ917657 DXF917520:DXF917657 EHB917520:EHB917657 EQX917520:EQX917657 FAT917520:FAT917657 FKP917520:FKP917657 FUL917520:FUL917657 GEH917520:GEH917657 GOD917520:GOD917657 GXZ917520:GXZ917657 HHV917520:HHV917657 HRR917520:HRR917657 IBN917520:IBN917657 ILJ917520:ILJ917657 IVF917520:IVF917657 JFB917520:JFB917657 JOX917520:JOX917657 JYT917520:JYT917657 KIP917520:KIP917657 KSL917520:KSL917657 LCH917520:LCH917657 LMD917520:LMD917657 LVZ917520:LVZ917657 MFV917520:MFV917657 MPR917520:MPR917657 MZN917520:MZN917657 NJJ917520:NJJ917657 NTF917520:NTF917657 ODB917520:ODB917657 OMX917520:OMX917657 OWT917520:OWT917657 PGP917520:PGP917657 PQL917520:PQL917657 QAH917520:QAH917657 QKD917520:QKD917657 QTZ917520:QTZ917657 RDV917520:RDV917657 RNR917520:RNR917657 RXN917520:RXN917657 SHJ917520:SHJ917657 SRF917520:SRF917657 TBB917520:TBB917657 TKX917520:TKX917657 TUT917520:TUT917657 UEP917520:UEP917657 UOL917520:UOL917657 UYH917520:UYH917657 VID917520:VID917657 VRZ917520:VRZ917657 WBV917520:WBV917657 WLR917520:WLR917657 WVN917520:WVN917657 F983056:F983193 JB983056:JB983193 SX983056:SX983193 ACT983056:ACT983193 AMP983056:AMP983193 AWL983056:AWL983193 BGH983056:BGH983193 BQD983056:BQD983193 BZZ983056:BZZ983193 CJV983056:CJV983193 CTR983056:CTR983193 DDN983056:DDN983193 DNJ983056:DNJ983193 DXF983056:DXF983193 EHB983056:EHB983193 EQX983056:EQX983193 FAT983056:FAT983193 FKP983056:FKP983193 FUL983056:FUL983193 GEH983056:GEH983193 GOD983056:GOD983193 GXZ983056:GXZ983193 HHV983056:HHV983193 HRR983056:HRR983193 IBN983056:IBN983193 ILJ983056:ILJ983193 IVF983056:IVF983193 JFB983056:JFB983193 JOX983056:JOX983193 JYT983056:JYT983193 KIP983056:KIP983193 KSL983056:KSL983193 LCH983056:LCH983193 LMD983056:LMD983193 LVZ983056:LVZ983193 MFV983056:MFV983193 MPR983056:MPR983193 MZN983056:MZN983193 NJJ983056:NJJ983193 NTF983056:NTF983193 ODB983056:ODB983193 OMX983056:OMX983193 OWT983056:OWT983193 PGP983056:PGP983193 PQL983056:PQL983193 QAH983056:QAH983193 QKD983056:QKD983193 QTZ983056:QTZ983193 RDV983056:RDV983193 RNR983056:RNR983193 RXN983056:RXN983193 SHJ983056:SHJ983193 SRF983056:SRF983193 TBB983056:TBB983193 TKX983056:TKX983193 TUT983056:TUT983193 UEP983056:UEP983193 UOL983056:UOL983193 UYH983056:UYH983193 VID983056:VID983193 VRZ983056:VRZ983193 WBV983056:WBV983193 WLR983056:WLR983193 JB7:JB153 SX7:SX153 ACT7:ACT153 AMP7:AMP153 AWL7:AWL153 BGH7:BGH153 BQD7:BQD153 BZZ7:BZZ153 CJV7:CJV153 CTR7:CTR153 DDN7:DDN153 DNJ7:DNJ153 DXF7:DXF153 EHB7:EHB153 EQX7:EQX153 FAT7:FAT153 FKP7:FKP153 FUL7:FUL153 GEH7:GEH153 GOD7:GOD153 GXZ7:GXZ153 HHV7:HHV153 HRR7:HRR153 IBN7:IBN153 ILJ7:ILJ153 IVF7:IVF153 JFB7:JFB153 JOX7:JOX153 JYT7:JYT153 KIP7:KIP153 KSL7:KSL153 LCH7:LCH153 LMD7:LMD153 LVZ7:LVZ153 MFV7:MFV153 MPR7:MPR153 MZN7:MZN153 NJJ7:NJJ153 NTF7:NTF153 ODB7:ODB153 OMX7:OMX153 OWT7:OWT153 PGP7:PGP153 PQL7:PQL153 QAH7:QAH153 QKD7:QKD153 QTZ7:QTZ153 RDV7:RDV153 RNR7:RNR153 RXN7:RXN153 SHJ7:SHJ153 SRF7:SRF153 TBB7:TBB153 TKX7:TKX153 TUT7:TUT153 UEP7:UEP153 UOL7:UOL153 UYH7:UYH153 VID7:VID153 VRZ7:VRZ153 WBV7:WBV153 WLR7:WLR153 WVN7:WVN153 F7:F153">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65548:F65550 JB65548:JB65550 SX65548:SX65550 ACT65548:ACT65550 AMP65548:AMP65550 AWL65548:AWL65550 BGH65548:BGH65550 BQD65548:BQD65550 BZZ65548:BZZ65550 CJV65548:CJV65550 CTR65548:CTR65550 DDN65548:DDN65550 DNJ65548:DNJ65550 DXF65548:DXF65550 EHB65548:EHB65550 EQX65548:EQX65550 FAT65548:FAT65550 FKP65548:FKP65550 FUL65548:FUL65550 GEH65548:GEH65550 GOD65548:GOD65550 GXZ65548:GXZ65550 HHV65548:HHV65550 HRR65548:HRR65550 IBN65548:IBN65550 ILJ65548:ILJ65550 IVF65548:IVF65550 JFB65548:JFB65550 JOX65548:JOX65550 JYT65548:JYT65550 KIP65548:KIP65550 KSL65548:KSL65550 LCH65548:LCH65550 LMD65548:LMD65550 LVZ65548:LVZ65550 MFV65548:MFV65550 MPR65548:MPR65550 MZN65548:MZN65550 NJJ65548:NJJ65550 NTF65548:NTF65550 ODB65548:ODB65550 OMX65548:OMX65550 OWT65548:OWT65550 PGP65548:PGP65550 PQL65548:PQL65550 QAH65548:QAH65550 QKD65548:QKD65550 QTZ65548:QTZ65550 RDV65548:RDV65550 RNR65548:RNR65550 RXN65548:RXN65550 SHJ65548:SHJ65550 SRF65548:SRF65550 TBB65548:TBB65550 TKX65548:TKX65550 TUT65548:TUT65550 UEP65548:UEP65550 UOL65548:UOL65550 UYH65548:UYH65550 VID65548:VID65550 VRZ65548:VRZ65550 WBV65548:WBV65550 WLR65548:WLR65550 WVN65548:WVN65550 F131084:F131086 JB131084:JB131086 SX131084:SX131086 ACT131084:ACT131086 AMP131084:AMP131086 AWL131084:AWL131086 BGH131084:BGH131086 BQD131084:BQD131086 BZZ131084:BZZ131086 CJV131084:CJV131086 CTR131084:CTR131086 DDN131084:DDN131086 DNJ131084:DNJ131086 DXF131084:DXF131086 EHB131084:EHB131086 EQX131084:EQX131086 FAT131084:FAT131086 FKP131084:FKP131086 FUL131084:FUL131086 GEH131084:GEH131086 GOD131084:GOD131086 GXZ131084:GXZ131086 HHV131084:HHV131086 HRR131084:HRR131086 IBN131084:IBN131086 ILJ131084:ILJ131086 IVF131084:IVF131086 JFB131084:JFB131086 JOX131084:JOX131086 JYT131084:JYT131086 KIP131084:KIP131086 KSL131084:KSL131086 LCH131084:LCH131086 LMD131084:LMD131086 LVZ131084:LVZ131086 MFV131084:MFV131086 MPR131084:MPR131086 MZN131084:MZN131086 NJJ131084:NJJ131086 NTF131084:NTF131086 ODB131084:ODB131086 OMX131084:OMX131086 OWT131084:OWT131086 PGP131084:PGP131086 PQL131084:PQL131086 QAH131084:QAH131086 QKD131084:QKD131086 QTZ131084:QTZ131086 RDV131084:RDV131086 RNR131084:RNR131086 RXN131084:RXN131086 SHJ131084:SHJ131086 SRF131084:SRF131086 TBB131084:TBB131086 TKX131084:TKX131086 TUT131084:TUT131086 UEP131084:UEP131086 UOL131084:UOL131086 UYH131084:UYH131086 VID131084:VID131086 VRZ131084:VRZ131086 WBV131084:WBV131086 WLR131084:WLR131086 WVN131084:WVN131086 F196620:F196622 JB196620:JB196622 SX196620:SX196622 ACT196620:ACT196622 AMP196620:AMP196622 AWL196620:AWL196622 BGH196620:BGH196622 BQD196620:BQD196622 BZZ196620:BZZ196622 CJV196620:CJV196622 CTR196620:CTR196622 DDN196620:DDN196622 DNJ196620:DNJ196622 DXF196620:DXF196622 EHB196620:EHB196622 EQX196620:EQX196622 FAT196620:FAT196622 FKP196620:FKP196622 FUL196620:FUL196622 GEH196620:GEH196622 GOD196620:GOD196622 GXZ196620:GXZ196622 HHV196620:HHV196622 HRR196620:HRR196622 IBN196620:IBN196622 ILJ196620:ILJ196622 IVF196620:IVF196622 JFB196620:JFB196622 JOX196620:JOX196622 JYT196620:JYT196622 KIP196620:KIP196622 KSL196620:KSL196622 LCH196620:LCH196622 LMD196620:LMD196622 LVZ196620:LVZ196622 MFV196620:MFV196622 MPR196620:MPR196622 MZN196620:MZN196622 NJJ196620:NJJ196622 NTF196620:NTF196622 ODB196620:ODB196622 OMX196620:OMX196622 OWT196620:OWT196622 PGP196620:PGP196622 PQL196620:PQL196622 QAH196620:QAH196622 QKD196620:QKD196622 QTZ196620:QTZ196622 RDV196620:RDV196622 RNR196620:RNR196622 RXN196620:RXN196622 SHJ196620:SHJ196622 SRF196620:SRF196622 TBB196620:TBB196622 TKX196620:TKX196622 TUT196620:TUT196622 UEP196620:UEP196622 UOL196620:UOL196622 UYH196620:UYH196622 VID196620:VID196622 VRZ196620:VRZ196622 WBV196620:WBV196622 WLR196620:WLR196622 WVN196620:WVN196622 F262156:F262158 JB262156:JB262158 SX262156:SX262158 ACT262156:ACT262158 AMP262156:AMP262158 AWL262156:AWL262158 BGH262156:BGH262158 BQD262156:BQD262158 BZZ262156:BZZ262158 CJV262156:CJV262158 CTR262156:CTR262158 DDN262156:DDN262158 DNJ262156:DNJ262158 DXF262156:DXF262158 EHB262156:EHB262158 EQX262156:EQX262158 FAT262156:FAT262158 FKP262156:FKP262158 FUL262156:FUL262158 GEH262156:GEH262158 GOD262156:GOD262158 GXZ262156:GXZ262158 HHV262156:HHV262158 HRR262156:HRR262158 IBN262156:IBN262158 ILJ262156:ILJ262158 IVF262156:IVF262158 JFB262156:JFB262158 JOX262156:JOX262158 JYT262156:JYT262158 KIP262156:KIP262158 KSL262156:KSL262158 LCH262156:LCH262158 LMD262156:LMD262158 LVZ262156:LVZ262158 MFV262156:MFV262158 MPR262156:MPR262158 MZN262156:MZN262158 NJJ262156:NJJ262158 NTF262156:NTF262158 ODB262156:ODB262158 OMX262156:OMX262158 OWT262156:OWT262158 PGP262156:PGP262158 PQL262156:PQL262158 QAH262156:QAH262158 QKD262156:QKD262158 QTZ262156:QTZ262158 RDV262156:RDV262158 RNR262156:RNR262158 RXN262156:RXN262158 SHJ262156:SHJ262158 SRF262156:SRF262158 TBB262156:TBB262158 TKX262156:TKX262158 TUT262156:TUT262158 UEP262156:UEP262158 UOL262156:UOL262158 UYH262156:UYH262158 VID262156:VID262158 VRZ262156:VRZ262158 WBV262156:WBV262158 WLR262156:WLR262158 WVN262156:WVN262158 F327692:F327694 JB327692:JB327694 SX327692:SX327694 ACT327692:ACT327694 AMP327692:AMP327694 AWL327692:AWL327694 BGH327692:BGH327694 BQD327692:BQD327694 BZZ327692:BZZ327694 CJV327692:CJV327694 CTR327692:CTR327694 DDN327692:DDN327694 DNJ327692:DNJ327694 DXF327692:DXF327694 EHB327692:EHB327694 EQX327692:EQX327694 FAT327692:FAT327694 FKP327692:FKP327694 FUL327692:FUL327694 GEH327692:GEH327694 GOD327692:GOD327694 GXZ327692:GXZ327694 HHV327692:HHV327694 HRR327692:HRR327694 IBN327692:IBN327694 ILJ327692:ILJ327694 IVF327692:IVF327694 JFB327692:JFB327694 JOX327692:JOX327694 JYT327692:JYT327694 KIP327692:KIP327694 KSL327692:KSL327694 LCH327692:LCH327694 LMD327692:LMD327694 LVZ327692:LVZ327694 MFV327692:MFV327694 MPR327692:MPR327694 MZN327692:MZN327694 NJJ327692:NJJ327694 NTF327692:NTF327694 ODB327692:ODB327694 OMX327692:OMX327694 OWT327692:OWT327694 PGP327692:PGP327694 PQL327692:PQL327694 QAH327692:QAH327694 QKD327692:QKD327694 QTZ327692:QTZ327694 RDV327692:RDV327694 RNR327692:RNR327694 RXN327692:RXN327694 SHJ327692:SHJ327694 SRF327692:SRF327694 TBB327692:TBB327694 TKX327692:TKX327694 TUT327692:TUT327694 UEP327692:UEP327694 UOL327692:UOL327694 UYH327692:UYH327694 VID327692:VID327694 VRZ327692:VRZ327694 WBV327692:WBV327694 WLR327692:WLR327694 WVN327692:WVN327694 F393228:F393230 JB393228:JB393230 SX393228:SX393230 ACT393228:ACT393230 AMP393228:AMP393230 AWL393228:AWL393230 BGH393228:BGH393230 BQD393228:BQD393230 BZZ393228:BZZ393230 CJV393228:CJV393230 CTR393228:CTR393230 DDN393228:DDN393230 DNJ393228:DNJ393230 DXF393228:DXF393230 EHB393228:EHB393230 EQX393228:EQX393230 FAT393228:FAT393230 FKP393228:FKP393230 FUL393228:FUL393230 GEH393228:GEH393230 GOD393228:GOD393230 GXZ393228:GXZ393230 HHV393228:HHV393230 HRR393228:HRR393230 IBN393228:IBN393230 ILJ393228:ILJ393230 IVF393228:IVF393230 JFB393228:JFB393230 JOX393228:JOX393230 JYT393228:JYT393230 KIP393228:KIP393230 KSL393228:KSL393230 LCH393228:LCH393230 LMD393228:LMD393230 LVZ393228:LVZ393230 MFV393228:MFV393230 MPR393228:MPR393230 MZN393228:MZN393230 NJJ393228:NJJ393230 NTF393228:NTF393230 ODB393228:ODB393230 OMX393228:OMX393230 OWT393228:OWT393230 PGP393228:PGP393230 PQL393228:PQL393230 QAH393228:QAH393230 QKD393228:QKD393230 QTZ393228:QTZ393230 RDV393228:RDV393230 RNR393228:RNR393230 RXN393228:RXN393230 SHJ393228:SHJ393230 SRF393228:SRF393230 TBB393228:TBB393230 TKX393228:TKX393230 TUT393228:TUT393230 UEP393228:UEP393230 UOL393228:UOL393230 UYH393228:UYH393230 VID393228:VID393230 VRZ393228:VRZ393230 WBV393228:WBV393230 WLR393228:WLR393230 WVN393228:WVN393230 F458764:F458766 JB458764:JB458766 SX458764:SX458766 ACT458764:ACT458766 AMP458764:AMP458766 AWL458764:AWL458766 BGH458764:BGH458766 BQD458764:BQD458766 BZZ458764:BZZ458766 CJV458764:CJV458766 CTR458764:CTR458766 DDN458764:DDN458766 DNJ458764:DNJ458766 DXF458764:DXF458766 EHB458764:EHB458766 EQX458764:EQX458766 FAT458764:FAT458766 FKP458764:FKP458766 FUL458764:FUL458766 GEH458764:GEH458766 GOD458764:GOD458766 GXZ458764:GXZ458766 HHV458764:HHV458766 HRR458764:HRR458766 IBN458764:IBN458766 ILJ458764:ILJ458766 IVF458764:IVF458766 JFB458764:JFB458766 JOX458764:JOX458766 JYT458764:JYT458766 KIP458764:KIP458766 KSL458764:KSL458766 LCH458764:LCH458766 LMD458764:LMD458766 LVZ458764:LVZ458766 MFV458764:MFV458766 MPR458764:MPR458766 MZN458764:MZN458766 NJJ458764:NJJ458766 NTF458764:NTF458766 ODB458764:ODB458766 OMX458764:OMX458766 OWT458764:OWT458766 PGP458764:PGP458766 PQL458764:PQL458766 QAH458764:QAH458766 QKD458764:QKD458766 QTZ458764:QTZ458766 RDV458764:RDV458766 RNR458764:RNR458766 RXN458764:RXN458766 SHJ458764:SHJ458766 SRF458764:SRF458766 TBB458764:TBB458766 TKX458764:TKX458766 TUT458764:TUT458766 UEP458764:UEP458766 UOL458764:UOL458766 UYH458764:UYH458766 VID458764:VID458766 VRZ458764:VRZ458766 WBV458764:WBV458766 WLR458764:WLR458766 WVN458764:WVN458766 F524300:F524302 JB524300:JB524302 SX524300:SX524302 ACT524300:ACT524302 AMP524300:AMP524302 AWL524300:AWL524302 BGH524300:BGH524302 BQD524300:BQD524302 BZZ524300:BZZ524302 CJV524300:CJV524302 CTR524300:CTR524302 DDN524300:DDN524302 DNJ524300:DNJ524302 DXF524300:DXF524302 EHB524300:EHB524302 EQX524300:EQX524302 FAT524300:FAT524302 FKP524300:FKP524302 FUL524300:FUL524302 GEH524300:GEH524302 GOD524300:GOD524302 GXZ524300:GXZ524302 HHV524300:HHV524302 HRR524300:HRR524302 IBN524300:IBN524302 ILJ524300:ILJ524302 IVF524300:IVF524302 JFB524300:JFB524302 JOX524300:JOX524302 JYT524300:JYT524302 KIP524300:KIP524302 KSL524300:KSL524302 LCH524300:LCH524302 LMD524300:LMD524302 LVZ524300:LVZ524302 MFV524300:MFV524302 MPR524300:MPR524302 MZN524300:MZN524302 NJJ524300:NJJ524302 NTF524300:NTF524302 ODB524300:ODB524302 OMX524300:OMX524302 OWT524300:OWT524302 PGP524300:PGP524302 PQL524300:PQL524302 QAH524300:QAH524302 QKD524300:QKD524302 QTZ524300:QTZ524302 RDV524300:RDV524302 RNR524300:RNR524302 RXN524300:RXN524302 SHJ524300:SHJ524302 SRF524300:SRF524302 TBB524300:TBB524302 TKX524300:TKX524302 TUT524300:TUT524302 UEP524300:UEP524302 UOL524300:UOL524302 UYH524300:UYH524302 VID524300:VID524302 VRZ524300:VRZ524302 WBV524300:WBV524302 WLR524300:WLR524302 WVN524300:WVN524302 F589836:F589838 JB589836:JB589838 SX589836:SX589838 ACT589836:ACT589838 AMP589836:AMP589838 AWL589836:AWL589838 BGH589836:BGH589838 BQD589836:BQD589838 BZZ589836:BZZ589838 CJV589836:CJV589838 CTR589836:CTR589838 DDN589836:DDN589838 DNJ589836:DNJ589838 DXF589836:DXF589838 EHB589836:EHB589838 EQX589836:EQX589838 FAT589836:FAT589838 FKP589836:FKP589838 FUL589836:FUL589838 GEH589836:GEH589838 GOD589836:GOD589838 GXZ589836:GXZ589838 HHV589836:HHV589838 HRR589836:HRR589838 IBN589836:IBN589838 ILJ589836:ILJ589838 IVF589836:IVF589838 JFB589836:JFB589838 JOX589836:JOX589838 JYT589836:JYT589838 KIP589836:KIP589838 KSL589836:KSL589838 LCH589836:LCH589838 LMD589836:LMD589838 LVZ589836:LVZ589838 MFV589836:MFV589838 MPR589836:MPR589838 MZN589836:MZN589838 NJJ589836:NJJ589838 NTF589836:NTF589838 ODB589836:ODB589838 OMX589836:OMX589838 OWT589836:OWT589838 PGP589836:PGP589838 PQL589836:PQL589838 QAH589836:QAH589838 QKD589836:QKD589838 QTZ589836:QTZ589838 RDV589836:RDV589838 RNR589836:RNR589838 RXN589836:RXN589838 SHJ589836:SHJ589838 SRF589836:SRF589838 TBB589836:TBB589838 TKX589836:TKX589838 TUT589836:TUT589838 UEP589836:UEP589838 UOL589836:UOL589838 UYH589836:UYH589838 VID589836:VID589838 VRZ589836:VRZ589838 WBV589836:WBV589838 WLR589836:WLR589838 WVN589836:WVN589838 F655372:F655374 JB655372:JB655374 SX655372:SX655374 ACT655372:ACT655374 AMP655372:AMP655374 AWL655372:AWL655374 BGH655372:BGH655374 BQD655372:BQD655374 BZZ655372:BZZ655374 CJV655372:CJV655374 CTR655372:CTR655374 DDN655372:DDN655374 DNJ655372:DNJ655374 DXF655372:DXF655374 EHB655372:EHB655374 EQX655372:EQX655374 FAT655372:FAT655374 FKP655372:FKP655374 FUL655372:FUL655374 GEH655372:GEH655374 GOD655372:GOD655374 GXZ655372:GXZ655374 HHV655372:HHV655374 HRR655372:HRR655374 IBN655372:IBN655374 ILJ655372:ILJ655374 IVF655372:IVF655374 JFB655372:JFB655374 JOX655372:JOX655374 JYT655372:JYT655374 KIP655372:KIP655374 KSL655372:KSL655374 LCH655372:LCH655374 LMD655372:LMD655374 LVZ655372:LVZ655374 MFV655372:MFV655374 MPR655372:MPR655374 MZN655372:MZN655374 NJJ655372:NJJ655374 NTF655372:NTF655374 ODB655372:ODB655374 OMX655372:OMX655374 OWT655372:OWT655374 PGP655372:PGP655374 PQL655372:PQL655374 QAH655372:QAH655374 QKD655372:QKD655374 QTZ655372:QTZ655374 RDV655372:RDV655374 RNR655372:RNR655374 RXN655372:RXN655374 SHJ655372:SHJ655374 SRF655372:SRF655374 TBB655372:TBB655374 TKX655372:TKX655374 TUT655372:TUT655374 UEP655372:UEP655374 UOL655372:UOL655374 UYH655372:UYH655374 VID655372:VID655374 VRZ655372:VRZ655374 WBV655372:WBV655374 WLR655372:WLR655374 WVN655372:WVN655374 F720908:F720910 JB720908:JB720910 SX720908:SX720910 ACT720908:ACT720910 AMP720908:AMP720910 AWL720908:AWL720910 BGH720908:BGH720910 BQD720908:BQD720910 BZZ720908:BZZ720910 CJV720908:CJV720910 CTR720908:CTR720910 DDN720908:DDN720910 DNJ720908:DNJ720910 DXF720908:DXF720910 EHB720908:EHB720910 EQX720908:EQX720910 FAT720908:FAT720910 FKP720908:FKP720910 FUL720908:FUL720910 GEH720908:GEH720910 GOD720908:GOD720910 GXZ720908:GXZ720910 HHV720908:HHV720910 HRR720908:HRR720910 IBN720908:IBN720910 ILJ720908:ILJ720910 IVF720908:IVF720910 JFB720908:JFB720910 JOX720908:JOX720910 JYT720908:JYT720910 KIP720908:KIP720910 KSL720908:KSL720910 LCH720908:LCH720910 LMD720908:LMD720910 LVZ720908:LVZ720910 MFV720908:MFV720910 MPR720908:MPR720910 MZN720908:MZN720910 NJJ720908:NJJ720910 NTF720908:NTF720910 ODB720908:ODB720910 OMX720908:OMX720910 OWT720908:OWT720910 PGP720908:PGP720910 PQL720908:PQL720910 QAH720908:QAH720910 QKD720908:QKD720910 QTZ720908:QTZ720910 RDV720908:RDV720910 RNR720908:RNR720910 RXN720908:RXN720910 SHJ720908:SHJ720910 SRF720908:SRF720910 TBB720908:TBB720910 TKX720908:TKX720910 TUT720908:TUT720910 UEP720908:UEP720910 UOL720908:UOL720910 UYH720908:UYH720910 VID720908:VID720910 VRZ720908:VRZ720910 WBV720908:WBV720910 WLR720908:WLR720910 WVN720908:WVN720910 F786444:F786446 JB786444:JB786446 SX786444:SX786446 ACT786444:ACT786446 AMP786444:AMP786446 AWL786444:AWL786446 BGH786444:BGH786446 BQD786444:BQD786446 BZZ786444:BZZ786446 CJV786444:CJV786446 CTR786444:CTR786446 DDN786444:DDN786446 DNJ786444:DNJ786446 DXF786444:DXF786446 EHB786444:EHB786446 EQX786444:EQX786446 FAT786444:FAT786446 FKP786444:FKP786446 FUL786444:FUL786446 GEH786444:GEH786446 GOD786444:GOD786446 GXZ786444:GXZ786446 HHV786444:HHV786446 HRR786444:HRR786446 IBN786444:IBN786446 ILJ786444:ILJ786446 IVF786444:IVF786446 JFB786444:JFB786446 JOX786444:JOX786446 JYT786444:JYT786446 KIP786444:KIP786446 KSL786444:KSL786446 LCH786444:LCH786446 LMD786444:LMD786446 LVZ786444:LVZ786446 MFV786444:MFV786446 MPR786444:MPR786446 MZN786444:MZN786446 NJJ786444:NJJ786446 NTF786444:NTF786446 ODB786444:ODB786446 OMX786444:OMX786446 OWT786444:OWT786446 PGP786444:PGP786446 PQL786444:PQL786446 QAH786444:QAH786446 QKD786444:QKD786446 QTZ786444:QTZ786446 RDV786444:RDV786446 RNR786444:RNR786446 RXN786444:RXN786446 SHJ786444:SHJ786446 SRF786444:SRF786446 TBB786444:TBB786446 TKX786444:TKX786446 TUT786444:TUT786446 UEP786444:UEP786446 UOL786444:UOL786446 UYH786444:UYH786446 VID786444:VID786446 VRZ786444:VRZ786446 WBV786444:WBV786446 WLR786444:WLR786446 WVN786444:WVN786446 F851980:F851982 JB851980:JB851982 SX851980:SX851982 ACT851980:ACT851982 AMP851980:AMP851982 AWL851980:AWL851982 BGH851980:BGH851982 BQD851980:BQD851982 BZZ851980:BZZ851982 CJV851980:CJV851982 CTR851980:CTR851982 DDN851980:DDN851982 DNJ851980:DNJ851982 DXF851980:DXF851982 EHB851980:EHB851982 EQX851980:EQX851982 FAT851980:FAT851982 FKP851980:FKP851982 FUL851980:FUL851982 GEH851980:GEH851982 GOD851980:GOD851982 GXZ851980:GXZ851982 HHV851980:HHV851982 HRR851980:HRR851982 IBN851980:IBN851982 ILJ851980:ILJ851982 IVF851980:IVF851982 JFB851980:JFB851982 JOX851980:JOX851982 JYT851980:JYT851982 KIP851980:KIP851982 KSL851980:KSL851982 LCH851980:LCH851982 LMD851980:LMD851982 LVZ851980:LVZ851982 MFV851980:MFV851982 MPR851980:MPR851982 MZN851980:MZN851982 NJJ851980:NJJ851982 NTF851980:NTF851982 ODB851980:ODB851982 OMX851980:OMX851982 OWT851980:OWT851982 PGP851980:PGP851982 PQL851980:PQL851982 QAH851980:QAH851982 QKD851980:QKD851982 QTZ851980:QTZ851982 RDV851980:RDV851982 RNR851980:RNR851982 RXN851980:RXN851982 SHJ851980:SHJ851982 SRF851980:SRF851982 TBB851980:TBB851982 TKX851980:TKX851982 TUT851980:TUT851982 UEP851980:UEP851982 UOL851980:UOL851982 UYH851980:UYH851982 VID851980:VID851982 VRZ851980:VRZ851982 WBV851980:WBV851982 WLR851980:WLR851982 WVN851980:WVN851982 F917516:F917518 JB917516:JB917518 SX917516:SX917518 ACT917516:ACT917518 AMP917516:AMP917518 AWL917516:AWL917518 BGH917516:BGH917518 BQD917516:BQD917518 BZZ917516:BZZ917518 CJV917516:CJV917518 CTR917516:CTR917518 DDN917516:DDN917518 DNJ917516:DNJ917518 DXF917516:DXF917518 EHB917516:EHB917518 EQX917516:EQX917518 FAT917516:FAT917518 FKP917516:FKP917518 FUL917516:FUL917518 GEH917516:GEH917518 GOD917516:GOD917518 GXZ917516:GXZ917518 HHV917516:HHV917518 HRR917516:HRR917518 IBN917516:IBN917518 ILJ917516:ILJ917518 IVF917516:IVF917518 JFB917516:JFB917518 JOX917516:JOX917518 JYT917516:JYT917518 KIP917516:KIP917518 KSL917516:KSL917518 LCH917516:LCH917518 LMD917516:LMD917518 LVZ917516:LVZ917518 MFV917516:MFV917518 MPR917516:MPR917518 MZN917516:MZN917518 NJJ917516:NJJ917518 NTF917516:NTF917518 ODB917516:ODB917518 OMX917516:OMX917518 OWT917516:OWT917518 PGP917516:PGP917518 PQL917516:PQL917518 QAH917516:QAH917518 QKD917516:QKD917518 QTZ917516:QTZ917518 RDV917516:RDV917518 RNR917516:RNR917518 RXN917516:RXN917518 SHJ917516:SHJ917518 SRF917516:SRF917518 TBB917516:TBB917518 TKX917516:TKX917518 TUT917516:TUT917518 UEP917516:UEP917518 UOL917516:UOL917518 UYH917516:UYH917518 VID917516:VID917518 VRZ917516:VRZ917518 WBV917516:WBV917518 WLR917516:WLR917518 WVN917516:WVN917518 F983052:F983054 JB983052:JB983054 SX983052:SX983054 ACT983052:ACT983054 AMP983052:AMP983054 AWL983052:AWL983054 BGH983052:BGH983054 BQD983052:BQD983054 BZZ983052:BZZ983054 CJV983052:CJV983054 CTR983052:CTR983054 DDN983052:DDN983054 DNJ983052:DNJ983054 DXF983052:DXF983054 EHB983052:EHB983054 EQX983052:EQX983054 FAT983052:FAT983054 FKP983052:FKP983054 FUL983052:FUL983054 GEH983052:GEH983054 GOD983052:GOD983054 GXZ983052:GXZ983054 HHV983052:HHV983054 HRR983052:HRR983054 IBN983052:IBN983054 ILJ983052:ILJ983054 IVF983052:IVF983054 JFB983052:JFB983054 JOX983052:JOX983054 JYT983052:JYT983054 KIP983052:KIP983054 KSL983052:KSL983054 LCH983052:LCH983054 LMD983052:LMD983054 LVZ983052:LVZ983054 MFV983052:MFV983054 MPR983052:MPR983054 MZN983052:MZN983054 NJJ983052:NJJ983054 NTF983052:NTF983054 ODB983052:ODB983054 OMX983052:OMX983054 OWT983052:OWT983054 PGP983052:PGP983054 PQL983052:PQL983054 QAH983052:QAH983054 QKD983052:QKD983054 QTZ983052:QTZ983054 RDV983052:RDV983054 RNR983052:RNR983054 RXN983052:RXN983054 SHJ983052:SHJ983054 SRF983052:SRF983054 TBB983052:TBB983054 TKX983052:TKX983054 TUT983052:TUT983054 UEP983052:UEP983054 UOL983052:UOL983054 UYH983052:UYH983054 VID983052:VID983054 VRZ983052:VRZ983054 WBV983052:WBV983054 WLR983052:WLR983054 WVN983052:WVN983054 WVN983058:WVN983195 F65554:F65691 JB65554:JB65691 SX65554:SX65691 ACT65554:ACT65691 AMP65554:AMP65691 AWL65554:AWL65691 BGH65554:BGH65691 BQD65554:BQD65691 BZZ65554:BZZ65691 CJV65554:CJV65691 CTR65554:CTR65691 DDN65554:DDN65691 DNJ65554:DNJ65691 DXF65554:DXF65691 EHB65554:EHB65691 EQX65554:EQX65691 FAT65554:FAT65691 FKP65554:FKP65691 FUL65554:FUL65691 GEH65554:GEH65691 GOD65554:GOD65691 GXZ65554:GXZ65691 HHV65554:HHV65691 HRR65554:HRR65691 IBN65554:IBN65691 ILJ65554:ILJ65691 IVF65554:IVF65691 JFB65554:JFB65691 JOX65554:JOX65691 JYT65554:JYT65691 KIP65554:KIP65691 KSL65554:KSL65691 LCH65554:LCH65691 LMD65554:LMD65691 LVZ65554:LVZ65691 MFV65554:MFV65691 MPR65554:MPR65691 MZN65554:MZN65691 NJJ65554:NJJ65691 NTF65554:NTF65691 ODB65554:ODB65691 OMX65554:OMX65691 OWT65554:OWT65691 PGP65554:PGP65691 PQL65554:PQL65691 QAH65554:QAH65691 QKD65554:QKD65691 QTZ65554:QTZ65691 RDV65554:RDV65691 RNR65554:RNR65691 RXN65554:RXN65691 SHJ65554:SHJ65691 SRF65554:SRF65691 TBB65554:TBB65691 TKX65554:TKX65691 TUT65554:TUT65691 UEP65554:UEP65691 UOL65554:UOL65691 UYH65554:UYH65691 VID65554:VID65691 VRZ65554:VRZ65691 WBV65554:WBV65691 WLR65554:WLR65691 WVN65554:WVN65691 F131090:F131227 JB131090:JB131227 SX131090:SX131227 ACT131090:ACT131227 AMP131090:AMP131227 AWL131090:AWL131227 BGH131090:BGH131227 BQD131090:BQD131227 BZZ131090:BZZ131227 CJV131090:CJV131227 CTR131090:CTR131227 DDN131090:DDN131227 DNJ131090:DNJ131227 DXF131090:DXF131227 EHB131090:EHB131227 EQX131090:EQX131227 FAT131090:FAT131227 FKP131090:FKP131227 FUL131090:FUL131227 GEH131090:GEH131227 GOD131090:GOD131227 GXZ131090:GXZ131227 HHV131090:HHV131227 HRR131090:HRR131227 IBN131090:IBN131227 ILJ131090:ILJ131227 IVF131090:IVF131227 JFB131090:JFB131227 JOX131090:JOX131227 JYT131090:JYT131227 KIP131090:KIP131227 KSL131090:KSL131227 LCH131090:LCH131227 LMD131090:LMD131227 LVZ131090:LVZ131227 MFV131090:MFV131227 MPR131090:MPR131227 MZN131090:MZN131227 NJJ131090:NJJ131227 NTF131090:NTF131227 ODB131090:ODB131227 OMX131090:OMX131227 OWT131090:OWT131227 PGP131090:PGP131227 PQL131090:PQL131227 QAH131090:QAH131227 QKD131090:QKD131227 QTZ131090:QTZ131227 RDV131090:RDV131227 RNR131090:RNR131227 RXN131090:RXN131227 SHJ131090:SHJ131227 SRF131090:SRF131227 TBB131090:TBB131227 TKX131090:TKX131227 TUT131090:TUT131227 UEP131090:UEP131227 UOL131090:UOL131227 UYH131090:UYH131227 VID131090:VID131227 VRZ131090:VRZ131227 WBV131090:WBV131227 WLR131090:WLR131227 WVN131090:WVN131227 F196626:F196763 JB196626:JB196763 SX196626:SX196763 ACT196626:ACT196763 AMP196626:AMP196763 AWL196626:AWL196763 BGH196626:BGH196763 BQD196626:BQD196763 BZZ196626:BZZ196763 CJV196626:CJV196763 CTR196626:CTR196763 DDN196626:DDN196763 DNJ196626:DNJ196763 DXF196626:DXF196763 EHB196626:EHB196763 EQX196626:EQX196763 FAT196626:FAT196763 FKP196626:FKP196763 FUL196626:FUL196763 GEH196626:GEH196763 GOD196626:GOD196763 GXZ196626:GXZ196763 HHV196626:HHV196763 HRR196626:HRR196763 IBN196626:IBN196763 ILJ196626:ILJ196763 IVF196626:IVF196763 JFB196626:JFB196763 JOX196626:JOX196763 JYT196626:JYT196763 KIP196626:KIP196763 KSL196626:KSL196763 LCH196626:LCH196763 LMD196626:LMD196763 LVZ196626:LVZ196763 MFV196626:MFV196763 MPR196626:MPR196763 MZN196626:MZN196763 NJJ196626:NJJ196763 NTF196626:NTF196763 ODB196626:ODB196763 OMX196626:OMX196763 OWT196626:OWT196763 PGP196626:PGP196763 PQL196626:PQL196763 QAH196626:QAH196763 QKD196626:QKD196763 QTZ196626:QTZ196763 RDV196626:RDV196763 RNR196626:RNR196763 RXN196626:RXN196763 SHJ196626:SHJ196763 SRF196626:SRF196763 TBB196626:TBB196763 TKX196626:TKX196763 TUT196626:TUT196763 UEP196626:UEP196763 UOL196626:UOL196763 UYH196626:UYH196763 VID196626:VID196763 VRZ196626:VRZ196763 WBV196626:WBV196763 WLR196626:WLR196763 WVN196626:WVN196763 F262162:F262299 JB262162:JB262299 SX262162:SX262299 ACT262162:ACT262299 AMP262162:AMP262299 AWL262162:AWL262299 BGH262162:BGH262299 BQD262162:BQD262299 BZZ262162:BZZ262299 CJV262162:CJV262299 CTR262162:CTR262299 DDN262162:DDN262299 DNJ262162:DNJ262299 DXF262162:DXF262299 EHB262162:EHB262299 EQX262162:EQX262299 FAT262162:FAT262299 FKP262162:FKP262299 FUL262162:FUL262299 GEH262162:GEH262299 GOD262162:GOD262299 GXZ262162:GXZ262299 HHV262162:HHV262299 HRR262162:HRR262299 IBN262162:IBN262299 ILJ262162:ILJ262299 IVF262162:IVF262299 JFB262162:JFB262299 JOX262162:JOX262299 JYT262162:JYT262299 KIP262162:KIP262299 KSL262162:KSL262299 LCH262162:LCH262299 LMD262162:LMD262299 LVZ262162:LVZ262299 MFV262162:MFV262299 MPR262162:MPR262299 MZN262162:MZN262299 NJJ262162:NJJ262299 NTF262162:NTF262299 ODB262162:ODB262299 OMX262162:OMX262299 OWT262162:OWT262299 PGP262162:PGP262299 PQL262162:PQL262299 QAH262162:QAH262299 QKD262162:QKD262299 QTZ262162:QTZ262299 RDV262162:RDV262299 RNR262162:RNR262299 RXN262162:RXN262299 SHJ262162:SHJ262299 SRF262162:SRF262299 TBB262162:TBB262299 TKX262162:TKX262299 TUT262162:TUT262299 UEP262162:UEP262299 UOL262162:UOL262299 UYH262162:UYH262299 VID262162:VID262299 VRZ262162:VRZ262299 WBV262162:WBV262299 WLR262162:WLR262299 WVN262162:WVN262299 F327698:F327835 JB327698:JB327835 SX327698:SX327835 ACT327698:ACT327835 AMP327698:AMP327835 AWL327698:AWL327835 BGH327698:BGH327835 BQD327698:BQD327835 BZZ327698:BZZ327835 CJV327698:CJV327835 CTR327698:CTR327835 DDN327698:DDN327835 DNJ327698:DNJ327835 DXF327698:DXF327835 EHB327698:EHB327835 EQX327698:EQX327835 FAT327698:FAT327835 FKP327698:FKP327835 FUL327698:FUL327835 GEH327698:GEH327835 GOD327698:GOD327835 GXZ327698:GXZ327835 HHV327698:HHV327835 HRR327698:HRR327835 IBN327698:IBN327835 ILJ327698:ILJ327835 IVF327698:IVF327835 JFB327698:JFB327835 JOX327698:JOX327835 JYT327698:JYT327835 KIP327698:KIP327835 KSL327698:KSL327835 LCH327698:LCH327835 LMD327698:LMD327835 LVZ327698:LVZ327835 MFV327698:MFV327835 MPR327698:MPR327835 MZN327698:MZN327835 NJJ327698:NJJ327835 NTF327698:NTF327835 ODB327698:ODB327835 OMX327698:OMX327835 OWT327698:OWT327835 PGP327698:PGP327835 PQL327698:PQL327835 QAH327698:QAH327835 QKD327698:QKD327835 QTZ327698:QTZ327835 RDV327698:RDV327835 RNR327698:RNR327835 RXN327698:RXN327835 SHJ327698:SHJ327835 SRF327698:SRF327835 TBB327698:TBB327835 TKX327698:TKX327835 TUT327698:TUT327835 UEP327698:UEP327835 UOL327698:UOL327835 UYH327698:UYH327835 VID327698:VID327835 VRZ327698:VRZ327835 WBV327698:WBV327835 WLR327698:WLR327835 WVN327698:WVN327835 F393234:F393371 JB393234:JB393371 SX393234:SX393371 ACT393234:ACT393371 AMP393234:AMP393371 AWL393234:AWL393371 BGH393234:BGH393371 BQD393234:BQD393371 BZZ393234:BZZ393371 CJV393234:CJV393371 CTR393234:CTR393371 DDN393234:DDN393371 DNJ393234:DNJ393371 DXF393234:DXF393371 EHB393234:EHB393371 EQX393234:EQX393371 FAT393234:FAT393371 FKP393234:FKP393371 FUL393234:FUL393371 GEH393234:GEH393371 GOD393234:GOD393371 GXZ393234:GXZ393371 HHV393234:HHV393371 HRR393234:HRR393371 IBN393234:IBN393371 ILJ393234:ILJ393371 IVF393234:IVF393371 JFB393234:JFB393371 JOX393234:JOX393371 JYT393234:JYT393371 KIP393234:KIP393371 KSL393234:KSL393371 LCH393234:LCH393371 LMD393234:LMD393371 LVZ393234:LVZ393371 MFV393234:MFV393371 MPR393234:MPR393371 MZN393234:MZN393371 NJJ393234:NJJ393371 NTF393234:NTF393371 ODB393234:ODB393371 OMX393234:OMX393371 OWT393234:OWT393371 PGP393234:PGP393371 PQL393234:PQL393371 QAH393234:QAH393371 QKD393234:QKD393371 QTZ393234:QTZ393371 RDV393234:RDV393371 RNR393234:RNR393371 RXN393234:RXN393371 SHJ393234:SHJ393371 SRF393234:SRF393371 TBB393234:TBB393371 TKX393234:TKX393371 TUT393234:TUT393371 UEP393234:UEP393371 UOL393234:UOL393371 UYH393234:UYH393371 VID393234:VID393371 VRZ393234:VRZ393371 WBV393234:WBV393371 WLR393234:WLR393371 WVN393234:WVN393371 F458770:F458907 JB458770:JB458907 SX458770:SX458907 ACT458770:ACT458907 AMP458770:AMP458907 AWL458770:AWL458907 BGH458770:BGH458907 BQD458770:BQD458907 BZZ458770:BZZ458907 CJV458770:CJV458907 CTR458770:CTR458907 DDN458770:DDN458907 DNJ458770:DNJ458907 DXF458770:DXF458907 EHB458770:EHB458907 EQX458770:EQX458907 FAT458770:FAT458907 FKP458770:FKP458907 FUL458770:FUL458907 GEH458770:GEH458907 GOD458770:GOD458907 GXZ458770:GXZ458907 HHV458770:HHV458907 HRR458770:HRR458907 IBN458770:IBN458907 ILJ458770:ILJ458907 IVF458770:IVF458907 JFB458770:JFB458907 JOX458770:JOX458907 JYT458770:JYT458907 KIP458770:KIP458907 KSL458770:KSL458907 LCH458770:LCH458907 LMD458770:LMD458907 LVZ458770:LVZ458907 MFV458770:MFV458907 MPR458770:MPR458907 MZN458770:MZN458907 NJJ458770:NJJ458907 NTF458770:NTF458907 ODB458770:ODB458907 OMX458770:OMX458907 OWT458770:OWT458907 PGP458770:PGP458907 PQL458770:PQL458907 QAH458770:QAH458907 QKD458770:QKD458907 QTZ458770:QTZ458907 RDV458770:RDV458907 RNR458770:RNR458907 RXN458770:RXN458907 SHJ458770:SHJ458907 SRF458770:SRF458907 TBB458770:TBB458907 TKX458770:TKX458907 TUT458770:TUT458907 UEP458770:UEP458907 UOL458770:UOL458907 UYH458770:UYH458907 VID458770:VID458907 VRZ458770:VRZ458907 WBV458770:WBV458907 WLR458770:WLR458907 WVN458770:WVN458907 F524306:F524443 JB524306:JB524443 SX524306:SX524443 ACT524306:ACT524443 AMP524306:AMP524443 AWL524306:AWL524443 BGH524306:BGH524443 BQD524306:BQD524443 BZZ524306:BZZ524443 CJV524306:CJV524443 CTR524306:CTR524443 DDN524306:DDN524443 DNJ524306:DNJ524443 DXF524306:DXF524443 EHB524306:EHB524443 EQX524306:EQX524443 FAT524306:FAT524443 FKP524306:FKP524443 FUL524306:FUL524443 GEH524306:GEH524443 GOD524306:GOD524443 GXZ524306:GXZ524443 HHV524306:HHV524443 HRR524306:HRR524443 IBN524306:IBN524443 ILJ524306:ILJ524443 IVF524306:IVF524443 JFB524306:JFB524443 JOX524306:JOX524443 JYT524306:JYT524443 KIP524306:KIP524443 KSL524306:KSL524443 LCH524306:LCH524443 LMD524306:LMD524443 LVZ524306:LVZ524443 MFV524306:MFV524443 MPR524306:MPR524443 MZN524306:MZN524443 NJJ524306:NJJ524443 NTF524306:NTF524443 ODB524306:ODB524443 OMX524306:OMX524443 OWT524306:OWT524443 PGP524306:PGP524443 PQL524306:PQL524443 QAH524306:QAH524443 QKD524306:QKD524443 QTZ524306:QTZ524443 RDV524306:RDV524443 RNR524306:RNR524443 RXN524306:RXN524443 SHJ524306:SHJ524443 SRF524306:SRF524443 TBB524306:TBB524443 TKX524306:TKX524443 TUT524306:TUT524443 UEP524306:UEP524443 UOL524306:UOL524443 UYH524306:UYH524443 VID524306:VID524443 VRZ524306:VRZ524443 WBV524306:WBV524443 WLR524306:WLR524443 WVN524306:WVN524443 F589842:F589979 JB589842:JB589979 SX589842:SX589979 ACT589842:ACT589979 AMP589842:AMP589979 AWL589842:AWL589979 BGH589842:BGH589979 BQD589842:BQD589979 BZZ589842:BZZ589979 CJV589842:CJV589979 CTR589842:CTR589979 DDN589842:DDN589979 DNJ589842:DNJ589979 DXF589842:DXF589979 EHB589842:EHB589979 EQX589842:EQX589979 FAT589842:FAT589979 FKP589842:FKP589979 FUL589842:FUL589979 GEH589842:GEH589979 GOD589842:GOD589979 GXZ589842:GXZ589979 HHV589842:HHV589979 HRR589842:HRR589979 IBN589842:IBN589979 ILJ589842:ILJ589979 IVF589842:IVF589979 JFB589842:JFB589979 JOX589842:JOX589979 JYT589842:JYT589979 KIP589842:KIP589979 KSL589842:KSL589979 LCH589842:LCH589979 LMD589842:LMD589979 LVZ589842:LVZ589979 MFV589842:MFV589979 MPR589842:MPR589979 MZN589842:MZN589979 NJJ589842:NJJ589979 NTF589842:NTF589979 ODB589842:ODB589979 OMX589842:OMX589979 OWT589842:OWT589979 PGP589842:PGP589979 PQL589842:PQL589979 QAH589842:QAH589979 QKD589842:QKD589979 QTZ589842:QTZ589979 RDV589842:RDV589979 RNR589842:RNR589979 RXN589842:RXN589979 SHJ589842:SHJ589979 SRF589842:SRF589979 TBB589842:TBB589979 TKX589842:TKX589979 TUT589842:TUT589979 UEP589842:UEP589979 UOL589842:UOL589979 UYH589842:UYH589979 VID589842:VID589979 VRZ589842:VRZ589979 WBV589842:WBV589979 WLR589842:WLR589979 WVN589842:WVN589979 F655378:F655515 JB655378:JB655515 SX655378:SX655515 ACT655378:ACT655515 AMP655378:AMP655515 AWL655378:AWL655515 BGH655378:BGH655515 BQD655378:BQD655515 BZZ655378:BZZ655515 CJV655378:CJV655515 CTR655378:CTR655515 DDN655378:DDN655515 DNJ655378:DNJ655515 DXF655378:DXF655515 EHB655378:EHB655515 EQX655378:EQX655515 FAT655378:FAT655515 FKP655378:FKP655515 FUL655378:FUL655515 GEH655378:GEH655515 GOD655378:GOD655515 GXZ655378:GXZ655515 HHV655378:HHV655515 HRR655378:HRR655515 IBN655378:IBN655515 ILJ655378:ILJ655515 IVF655378:IVF655515 JFB655378:JFB655515 JOX655378:JOX655515 JYT655378:JYT655515 KIP655378:KIP655515 KSL655378:KSL655515 LCH655378:LCH655515 LMD655378:LMD655515 LVZ655378:LVZ655515 MFV655378:MFV655515 MPR655378:MPR655515 MZN655378:MZN655515 NJJ655378:NJJ655515 NTF655378:NTF655515 ODB655378:ODB655515 OMX655378:OMX655515 OWT655378:OWT655515 PGP655378:PGP655515 PQL655378:PQL655515 QAH655378:QAH655515 QKD655378:QKD655515 QTZ655378:QTZ655515 RDV655378:RDV655515 RNR655378:RNR655515 RXN655378:RXN655515 SHJ655378:SHJ655515 SRF655378:SRF655515 TBB655378:TBB655515 TKX655378:TKX655515 TUT655378:TUT655515 UEP655378:UEP655515 UOL655378:UOL655515 UYH655378:UYH655515 VID655378:VID655515 VRZ655378:VRZ655515 WBV655378:WBV655515 WLR655378:WLR655515 WVN655378:WVN655515 F720914:F721051 JB720914:JB721051 SX720914:SX721051 ACT720914:ACT721051 AMP720914:AMP721051 AWL720914:AWL721051 BGH720914:BGH721051 BQD720914:BQD721051 BZZ720914:BZZ721051 CJV720914:CJV721051 CTR720914:CTR721051 DDN720914:DDN721051 DNJ720914:DNJ721051 DXF720914:DXF721051 EHB720914:EHB721051 EQX720914:EQX721051 FAT720914:FAT721051 FKP720914:FKP721051 FUL720914:FUL721051 GEH720914:GEH721051 GOD720914:GOD721051 GXZ720914:GXZ721051 HHV720914:HHV721051 HRR720914:HRR721051 IBN720914:IBN721051 ILJ720914:ILJ721051 IVF720914:IVF721051 JFB720914:JFB721051 JOX720914:JOX721051 JYT720914:JYT721051 KIP720914:KIP721051 KSL720914:KSL721051 LCH720914:LCH721051 LMD720914:LMD721051 LVZ720914:LVZ721051 MFV720914:MFV721051 MPR720914:MPR721051 MZN720914:MZN721051 NJJ720914:NJJ721051 NTF720914:NTF721051 ODB720914:ODB721051 OMX720914:OMX721051 OWT720914:OWT721051 PGP720914:PGP721051 PQL720914:PQL721051 QAH720914:QAH721051 QKD720914:QKD721051 QTZ720914:QTZ721051 RDV720914:RDV721051 RNR720914:RNR721051 RXN720914:RXN721051 SHJ720914:SHJ721051 SRF720914:SRF721051 TBB720914:TBB721051 TKX720914:TKX721051 TUT720914:TUT721051 UEP720914:UEP721051 UOL720914:UOL721051 UYH720914:UYH721051 VID720914:VID721051 VRZ720914:VRZ721051 WBV720914:WBV721051 WLR720914:WLR721051 WVN720914:WVN721051 F786450:F786587 JB786450:JB786587 SX786450:SX786587 ACT786450:ACT786587 AMP786450:AMP786587 AWL786450:AWL786587 BGH786450:BGH786587 BQD786450:BQD786587 BZZ786450:BZZ786587 CJV786450:CJV786587 CTR786450:CTR786587 DDN786450:DDN786587 DNJ786450:DNJ786587 DXF786450:DXF786587 EHB786450:EHB786587 EQX786450:EQX786587 FAT786450:FAT786587 FKP786450:FKP786587 FUL786450:FUL786587 GEH786450:GEH786587 GOD786450:GOD786587 GXZ786450:GXZ786587 HHV786450:HHV786587 HRR786450:HRR786587 IBN786450:IBN786587 ILJ786450:ILJ786587 IVF786450:IVF786587 JFB786450:JFB786587 JOX786450:JOX786587 JYT786450:JYT786587 KIP786450:KIP786587 KSL786450:KSL786587 LCH786450:LCH786587 LMD786450:LMD786587 LVZ786450:LVZ786587 MFV786450:MFV786587 MPR786450:MPR786587 MZN786450:MZN786587 NJJ786450:NJJ786587 NTF786450:NTF786587 ODB786450:ODB786587 OMX786450:OMX786587 OWT786450:OWT786587 PGP786450:PGP786587 PQL786450:PQL786587 QAH786450:QAH786587 QKD786450:QKD786587 QTZ786450:QTZ786587 RDV786450:RDV786587 RNR786450:RNR786587 RXN786450:RXN786587 SHJ786450:SHJ786587 SRF786450:SRF786587 TBB786450:TBB786587 TKX786450:TKX786587 TUT786450:TUT786587 UEP786450:UEP786587 UOL786450:UOL786587 UYH786450:UYH786587 VID786450:VID786587 VRZ786450:VRZ786587 WBV786450:WBV786587 WLR786450:WLR786587 WVN786450:WVN786587 F851986:F852123 JB851986:JB852123 SX851986:SX852123 ACT851986:ACT852123 AMP851986:AMP852123 AWL851986:AWL852123 BGH851986:BGH852123 BQD851986:BQD852123 BZZ851986:BZZ852123 CJV851986:CJV852123 CTR851986:CTR852123 DDN851986:DDN852123 DNJ851986:DNJ852123 DXF851986:DXF852123 EHB851986:EHB852123 EQX851986:EQX852123 FAT851986:FAT852123 FKP851986:FKP852123 FUL851986:FUL852123 GEH851986:GEH852123 GOD851986:GOD852123 GXZ851986:GXZ852123 HHV851986:HHV852123 HRR851986:HRR852123 IBN851986:IBN852123 ILJ851986:ILJ852123 IVF851986:IVF852123 JFB851986:JFB852123 JOX851986:JOX852123 JYT851986:JYT852123 KIP851986:KIP852123 KSL851986:KSL852123 LCH851986:LCH852123 LMD851986:LMD852123 LVZ851986:LVZ852123 MFV851986:MFV852123 MPR851986:MPR852123 MZN851986:MZN852123 NJJ851986:NJJ852123 NTF851986:NTF852123 ODB851986:ODB852123 OMX851986:OMX852123 OWT851986:OWT852123 PGP851986:PGP852123 PQL851986:PQL852123 QAH851986:QAH852123 QKD851986:QKD852123 QTZ851986:QTZ852123 RDV851986:RDV852123 RNR851986:RNR852123 RXN851986:RXN852123 SHJ851986:SHJ852123 SRF851986:SRF852123 TBB851986:TBB852123 TKX851986:TKX852123 TUT851986:TUT852123 UEP851986:UEP852123 UOL851986:UOL852123 UYH851986:UYH852123 VID851986:VID852123 VRZ851986:VRZ852123 WBV851986:WBV852123 WLR851986:WLR852123 WVN851986:WVN852123 F917522:F917659 JB917522:JB917659 SX917522:SX917659 ACT917522:ACT917659 AMP917522:AMP917659 AWL917522:AWL917659 BGH917522:BGH917659 BQD917522:BQD917659 BZZ917522:BZZ917659 CJV917522:CJV917659 CTR917522:CTR917659 DDN917522:DDN917659 DNJ917522:DNJ917659 DXF917522:DXF917659 EHB917522:EHB917659 EQX917522:EQX917659 FAT917522:FAT917659 FKP917522:FKP917659 FUL917522:FUL917659 GEH917522:GEH917659 GOD917522:GOD917659 GXZ917522:GXZ917659 HHV917522:HHV917659 HRR917522:HRR917659 IBN917522:IBN917659 ILJ917522:ILJ917659 IVF917522:IVF917659 JFB917522:JFB917659 JOX917522:JOX917659 JYT917522:JYT917659 KIP917522:KIP917659 KSL917522:KSL917659 LCH917522:LCH917659 LMD917522:LMD917659 LVZ917522:LVZ917659 MFV917522:MFV917659 MPR917522:MPR917659 MZN917522:MZN917659 NJJ917522:NJJ917659 NTF917522:NTF917659 ODB917522:ODB917659 OMX917522:OMX917659 OWT917522:OWT917659 PGP917522:PGP917659 PQL917522:PQL917659 QAH917522:QAH917659 QKD917522:QKD917659 QTZ917522:QTZ917659 RDV917522:RDV917659 RNR917522:RNR917659 RXN917522:RXN917659 SHJ917522:SHJ917659 SRF917522:SRF917659 TBB917522:TBB917659 TKX917522:TKX917659 TUT917522:TUT917659 UEP917522:UEP917659 UOL917522:UOL917659 UYH917522:UYH917659 VID917522:VID917659 VRZ917522:VRZ917659 WBV917522:WBV917659 WLR917522:WLR917659 WVN917522:WVN917659 F983058:F983195 JB983058:JB983195 SX983058:SX983195 ACT983058:ACT983195 AMP983058:AMP983195 AWL983058:AWL983195 BGH983058:BGH983195 BQD983058:BQD983195 BZZ983058:BZZ983195 CJV983058:CJV983195 CTR983058:CTR983195 DDN983058:DDN983195 DNJ983058:DNJ983195 DXF983058:DXF983195 EHB983058:EHB983195 EQX983058:EQX983195 FAT983058:FAT983195 FKP983058:FKP983195 FUL983058:FUL983195 GEH983058:GEH983195 GOD983058:GOD983195 GXZ983058:GXZ983195 HHV983058:HHV983195 HRR983058:HRR983195 IBN983058:IBN983195 ILJ983058:ILJ983195 IVF983058:IVF983195 JFB983058:JFB983195 JOX983058:JOX983195 JYT983058:JYT983195 KIP983058:KIP983195 KSL983058:KSL983195 LCH983058:LCH983195 LMD983058:LMD983195 LVZ983058:LVZ983195 MFV983058:MFV983195 MPR983058:MPR983195 MZN983058:MZN983195 NJJ983058:NJJ983195 NTF983058:NTF983195 ODB983058:ODB983195 OMX983058:OMX983195 OWT983058:OWT983195 PGP983058:PGP983195 PQL983058:PQL983195 QAH983058:QAH983195 QKD983058:QKD983195 QTZ983058:QTZ983195 RDV983058:RDV983195 RNR983058:RNR983195 RXN983058:RXN983195 SHJ983058:SHJ983195 SRF983058:SRF983195 TBB983058:TBB983195 TKX983058:TKX983195 TUT983058:TUT983195 UEP983058:UEP983195 UOL983058:UOL983195 UYH983058:UYH983195 VID983058:VID983195 VRZ983058:VRZ983195 WBV983058:WBV983195 WLR983058:WLR983195 JB7:JB155 SX7:SX155 ACT7:ACT155 AMP7:AMP155 AWL7:AWL155 BGH7:BGH155 BQD7:BQD155 BZZ7:BZZ155 CJV7:CJV155 CTR7:CTR155 DDN7:DDN155 DNJ7:DNJ155 DXF7:DXF155 EHB7:EHB155 EQX7:EQX155 FAT7:FAT155 FKP7:FKP155 FUL7:FUL155 GEH7:GEH155 GOD7:GOD155 GXZ7:GXZ155 HHV7:HHV155 HRR7:HRR155 IBN7:IBN155 ILJ7:ILJ155 IVF7:IVF155 JFB7:JFB155 JOX7:JOX155 JYT7:JYT155 KIP7:KIP155 KSL7:KSL155 LCH7:LCH155 LMD7:LMD155 LVZ7:LVZ155 MFV7:MFV155 MPR7:MPR155 MZN7:MZN155 NJJ7:NJJ155 NTF7:NTF155 ODB7:ODB155 OMX7:OMX155 OWT7:OWT155 PGP7:PGP155 PQL7:PQL155 QAH7:QAH155 QKD7:QKD155 QTZ7:QTZ155 RDV7:RDV155 RNR7:RNR155 RXN7:RXN155 SHJ7:SHJ155 SRF7:SRF155 TBB7:TBB155 TKX7:TKX155 TUT7:TUT155 UEP7:UEP155 UOL7:UOL155 UYH7:UYH155 VID7:VID155 VRZ7:VRZ155 WBV7:WBV155 WLR7:WLR155 WVN7:WVN155 F7:F94 F96:F155">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="347">
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
   </si>
@@ -325,9 +325,6 @@
     <t>1.Enter the website</t>
   </si>
   <si>
-    <t>[Common Module-1]</t>
-  </si>
-  <si>
     <t>Check "Search" function list</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
 2. Click the drop-down list of Search function</t>
   </si>
   <si>
-    <t>[Common Module-2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check textbox "Searcharea" </t>
   </si>
   <si>
@@ -345,17 +339,11 @@
 2. Click on "Searcharea" textbox</t>
   </si>
   <si>
-    <t>[Common Module-3]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check "Search" button </t>
   </si>
   <si>
     <t>1. Enter the website
 2. Click on "Search" button</t>
-  </si>
-  <si>
-    <t>[Common Module-4]</t>
   </si>
   <si>
     <t>When user choose "Câu ví dụ" option and input correct information to "Searcharea"</t>
@@ -375,9 +363,6 @@
 </t>
   </si>
   <si>
-    <t>[Common Module-5]</t>
-  </si>
-  <si>
     <t>When user choose "Câu ví dụ" option and click "Search" button with out entering anything</t>
   </si>
   <si>
@@ -386,13 +371,7 @@
 and then click "Search" button</t>
   </si>
   <si>
-    <t>[Common Module-6]</t>
-  </si>
-  <si>
     <t>When user choose "Câu ví dụ" option and input incorrect information to "Searcharea"</t>
-  </si>
-  <si>
-    <t>[Common Module-7]</t>
   </si>
   <si>
     <t>When user choose "Hội thoại" option and input correct information to "Searcharea"</t>
@@ -411,9 +390,6 @@
 </t>
   </si>
   <si>
-    <t>[Common Module-8]</t>
-  </si>
-  <si>
     <t>When user choose "Hội thoại" option and click "Search" button with out entering anything</t>
   </si>
   <si>
@@ -422,18 +398,12 @@
 and then click "Search" button</t>
   </si>
   <si>
-    <t>[Common Module-9]</t>
-  </si>
-  <si>
     <t>When user choose "Hội thoại" option and input incorrect information to "Searcharea"</t>
   </si>
   <si>
     <t>1. Enter the website
 2. Choose "Hội thoại" option
 ,input information to "Searcharea" and then click "Search" button</t>
-  </si>
-  <si>
-    <t>[Common Module-10]</t>
   </si>
   <si>
     <t>When user choose "Video" option and input correct information to "Searcharea"</t>
@@ -453,9 +423,6 @@
 </t>
   </si>
   <si>
-    <t>[Common Module-11]</t>
-  </si>
-  <si>
     <t>When user choose "Video" option and click "Search" button with out entering anything</t>
   </si>
   <si>
@@ -464,13 +431,7 @@
 and then click "Search" button</t>
   </si>
   <si>
-    <t>[Common Module-12]</t>
-  </si>
-  <si>
     <t>When user choose "Video" option and input incorrect information to "Searcharea"</t>
-  </si>
-  <si>
-    <t>[Common Module-13]</t>
   </si>
   <si>
     <t>When user choose "Ngữ pháp" option and input correct information to "Searcharea"</t>
@@ -490,19 +451,10 @@
 </t>
   </si>
   <si>
-    <t>[Common Module-14]</t>
-  </si>
-  <si>
     <t>When user choose "Ngữ pháp" option and click "Search" button with out entering anything</t>
   </si>
   <si>
-    <t>[Common Module-15]</t>
-  </si>
-  <si>
     <t>When user choose "Ngữ pháp" option and input incorrect information to "Searcharea"</t>
-  </si>
-  <si>
-    <t>[Common Module-16]</t>
   </si>
   <si>
     <t>When user choose "Tiếng Nhật chuyên ngành" option and input correct information to "Searcharea"</t>
@@ -522,13 +474,7 @@
 </t>
   </si>
   <si>
-    <t>[Common Module-17]</t>
-  </si>
-  <si>
     <t>When user choose "Tiếng Nhật chuyên ngành" option and click "Search" button with out entering anything</t>
-  </si>
-  <si>
-    <t>[Common Module-18]</t>
   </si>
   <si>
     <t>When user choose "Tiếng Nhật chuyên ngành" option and input incorrect information to "Searcharea"</t>
@@ -673,9 +619,6 @@
   <si>
     <t>1. The Homepage is displayed and "Login" form located in the homepage
 2. Display error password message</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
   <si>
     <t>When user input username with length more then 32 characters</t>
@@ -761,9 +704,6 @@
     <t>Test login by Google account in the case user logged Google</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>Test viewing "Logout" form</t>
   </si>
   <si>
@@ -782,9 +722,6 @@
   <si>
     <t>1. The Homepage is display
 2. Logout user and redirect to Homepage</t>
-  </si>
-  <si>
-    <t>Register</t>
   </si>
   <si>
     <t>Test view "Đăng ký" form</t>
@@ -1059,157 +996,16 @@
     <t>[Login-1]</t>
   </si>
   <si>
-    <t>[Login-2]</t>
-  </si>
-  <si>
-    <t>[Login-3]</t>
-  </si>
-  <si>
-    <t>[Login-4]</t>
-  </si>
-  <si>
     <t>[Login-5]</t>
   </si>
   <si>
-    <t>[Login-6]</t>
-  </si>
-  <si>
-    <t>[Login-7]</t>
-  </si>
-  <si>
-    <t>[Login-8]</t>
-  </si>
-  <si>
-    <t>[Login-9]</t>
-  </si>
-  <si>
-    <t>[Login-10]</t>
-  </si>
-  <si>
-    <t>[Login-11]</t>
-  </si>
-  <si>
-    <t>[Login-12]</t>
-  </si>
-  <si>
-    <t>[Login-13]</t>
-  </si>
-  <si>
-    <t>[Login-14]</t>
-  </si>
-  <si>
-    <t>[Login-15]</t>
-  </si>
-  <si>
-    <t>[Login-16]</t>
-  </si>
-  <si>
-    <t>[Login-17]</t>
-  </si>
-  <si>
-    <t>[Login-18]</t>
-  </si>
-  <si>
-    <t>[Login-19]</t>
-  </si>
-  <si>
     <t>[Logout-1]</t>
   </si>
   <si>
-    <t>[Logout-2]</t>
-  </si>
-  <si>
     <t>[Register 1]</t>
   </si>
   <si>
     <t>[Register-1]</t>
-  </si>
-  <si>
-    <t>[Register-2]</t>
-  </si>
-  <si>
-    <t>[Register-3]</t>
-  </si>
-  <si>
-    <t>[Register-4]</t>
-  </si>
-  <si>
-    <t>[Register-5]</t>
-  </si>
-  <si>
-    <t>[Register-6]</t>
-  </si>
-  <si>
-    <t>[Register-7]</t>
-  </si>
-  <si>
-    <t>[Register-8]</t>
-  </si>
-  <si>
-    <t>[Register-9]</t>
-  </si>
-  <si>
-    <t>[Register-10]</t>
-  </si>
-  <si>
-    <t>[Register-11]</t>
-  </si>
-  <si>
-    <t>[Register-12]</t>
-  </si>
-  <si>
-    <t>[Register-13]</t>
-  </si>
-  <si>
-    <t>[Register-14]</t>
-  </si>
-  <si>
-    <t>[Register-15]</t>
-  </si>
-  <si>
-    <t>[Register-16]</t>
-  </si>
-  <si>
-    <t>[Register-17]</t>
-  </si>
-  <si>
-    <t>[Register-18]</t>
-  </si>
-  <si>
-    <t>[Register-19]</t>
-  </si>
-  <si>
-    <t>[Register-20]</t>
-  </si>
-  <si>
-    <t>[Register-21]</t>
-  </si>
-  <si>
-    <t>[Register-22]</t>
-  </si>
-  <si>
-    <t>[Register-23]</t>
-  </si>
-  <si>
-    <t>[Register-24]</t>
-  </si>
-  <si>
-    <t>[Register-25]</t>
-  </si>
-  <si>
-    <t>[Register-26]</t>
-  </si>
-  <si>
-    <t>[Register-27]</t>
-  </si>
-  <si>
-    <t>[Register-28]</t>
-  </si>
-  <si>
-    <t>[Register-29]</t>
-  </si>
-  <si>
-    <t>Edit profile</t>
   </si>
   <si>
     <t>[Edit profile-1]</t>
@@ -1258,9 +1054,6 @@
 4. Textbox is lighted</t>
   </si>
   <si>
-    <t>[Edit profile-2]</t>
-  </si>
-  <si>
     <t>Check "Mật khẩu cũ" textbox</t>
   </si>
   <si>
@@ -1300,21 +1093,6 @@
 4. Click "Mã xác nhận" texbox</t>
   </si>
   <si>
-    <t>[Edit profile-3]</t>
-  </si>
-  <si>
-    <t>[Edit profile-4]</t>
-  </si>
-  <si>
-    <t>[Edit profile-5]</t>
-  </si>
-  <si>
-    <t>[Edit profile-6]</t>
-  </si>
-  <si>
-    <t>[Edit profile-7]</t>
-  </si>
-  <si>
     <t>1. Login the system with Member role
 2. Click "Trang cá nhân" link
 3. Click "Thay đổi thông tin" link
@@ -1327,15 +1105,6 @@
 4. Display error message</t>
   </si>
   <si>
-    <t>[Edit profile-8]</t>
-  </si>
-  <si>
-    <t>[Edit profile-9]</t>
-  </si>
-  <si>
-    <t>[Edit profile-10]</t>
-  </si>
-  <si>
     <t>1. Login the system with Member role
 2. Click "Trang cá nhân" link
 3. Click "Thay đổi thông tin" link
@@ -1417,18 +1186,6 @@
 4. Display error message besides "Mã xác nhận" textbox</t>
   </si>
   <si>
-    <t>[Edit profile-11]</t>
-  </si>
-  <si>
-    <t>[Edit profile-12]</t>
-  </si>
-  <si>
-    <t>[Edit profile-13]</t>
-  </si>
-  <si>
-    <t>[Edit profile-14]</t>
-  </si>
-  <si>
     <t>When user input "Mật khẩu mới" with length more than 32 characters</t>
   </si>
   <si>
@@ -1463,18 +1220,6 @@
 2. Click "Trang cá nhân" link
 3. Click "Thay đổi thông tin" link
 4. Input "Nhập lại mật khẩu mới" with length less than 6 characters</t>
-  </si>
-  <si>
-    <t>[Edit profile-15]</t>
-  </si>
-  <si>
-    <t>[Edit profile-16]</t>
-  </si>
-  <si>
-    <t>[Edit profile-17]</t>
-  </si>
-  <si>
-    <t>[Edit profile-18]</t>
   </si>
   <si>
     <t>Information in "Mật khẩu cũ","Mật khẩu mới" and "Nhập lại mật khẩu mới field must be encoded</t>
@@ -1560,33 +1305,6 @@
 3. Display "Thay đổi thông tin" page
 4. Display "Captcha help" page
 </t>
-  </si>
-  <si>
-    <t>[Edit profile-19]</t>
-  </si>
-  <si>
-    <t>[Edit profile-20]</t>
-  </si>
-  <si>
-    <t>[Edit profile-21]</t>
-  </si>
-  <si>
-    <t>[Edit profile-22]</t>
-  </si>
-  <si>
-    <t>[Edit profile-23]</t>
-  </si>
-  <si>
-    <t>[Edit profile-24]</t>
-  </si>
-  <si>
-    <t>[Edit profile-25]</t>
-  </si>
-  <si>
-    <t>[Edit profile-26]</t>
-  </si>
-  <si>
-    <t>Forgot password</t>
   </si>
   <si>
     <t>[Forgot password-1]</t>
@@ -1618,12 +1336,6 @@
 3. Click "Nhập tên tài khoản" textbox</t>
   </si>
   <si>
-    <t>[Forgot password-2]</t>
-  </si>
-  <si>
-    <t>[Forgot password-3]</t>
-  </si>
-  <si>
     <t>1. The Homepage is displayed 
 2. Display "Quên mật khẩu" page
 3. Textbox is lighted</t>
@@ -1634,9 +1346,6 @@
 3. Click "Nhập email" textbox</t>
   </si>
   <si>
-    <t>[Forgot password-4]</t>
-  </si>
-  <si>
     <t>1. Enter the website
 2. Click on "Quên mật khẩu" link
 3. Click "Gửi yêu cầu" button</t>
@@ -1659,9 +1368,6 @@
     <t>Check "Gửi yêu cầu" button without entering anything</t>
   </si>
   <si>
-    <t>[Forgot password-5]</t>
-  </si>
-  <si>
     <t>When user input all information to fields exception "Nhập tên tài khoản"</t>
   </si>
   <si>
@@ -1675,12 +1381,6 @@
 3. Display error message besides "Nhập tên tài khoản" textbox</t>
   </si>
   <si>
-    <t>[Forgot password-6]</t>
-  </si>
-  <si>
-    <t>[Forgot password-7]</t>
-  </si>
-  <si>
     <t>When user input all information to fields exception "Nhập Email"</t>
   </si>
   <si>
@@ -1707,9 +1407,6 @@
 3. Display error message besides "Nhập mã xác nhận" textbox</t>
   </si>
   <si>
-    <t>[Forgot password-8]</t>
-  </si>
-  <si>
     <t>When user input incorect capcha</t>
   </si>
   <si>
@@ -1721,27 +1418,12 @@
     <t>When user input incorect username</t>
   </si>
   <si>
-    <t>[Forgot password-9]</t>
-  </si>
-  <si>
     <t>When user input corect all information</t>
   </si>
   <si>
     <t xml:space="preserve">1. The Homepage is displayed 
 2. Display "Quên mật khẩu" page
 3. Display successfully message </t>
-  </si>
-  <si>
-    <t>[Forgot password-10]</t>
-  </si>
-  <si>
-    <t>[Forgot password-11]</t>
-  </si>
-  <si>
-    <t>[Forgot password-12]</t>
-  </si>
-  <si>
-    <t>[Forgot password-13]</t>
   </si>
   <si>
     <t>1. Enter the website
@@ -1771,18 +1453,12 @@
 </t>
   </si>
   <si>
-    <t>[Edit profile-27]</t>
-  </si>
-  <si>
     <t>1.The Homepage is displayed 
 2. Display "Trang cá nhân" page
 3. Display "Thay đổi thông tin" page
 4. Display error message besides "Nhập mã xác nhận" textbox</t>
   </si>
   <si>
-    <t>[Register-30]</t>
-  </si>
-  <si>
     <t>1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Display error message besides "Nhập mã xác nhận" textbox</t>
@@ -1889,9 +1565,6 @@
 3. Input incorrect capcha</t>
   </si>
   <si>
-    <t>[Edit profile-28]</t>
-  </si>
-  <si>
     <t>1. Login the system with Member role
 2. Click "Trang cá nhân" link
 3. Click "Thay đổi thông tin" link
@@ -1904,9 +1577,6 @@
 4. Display edit profile successfully message</t>
   </si>
   <si>
-    <t>[Register-31]</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user input correct all information </t>
   </si>
   <si>
@@ -1918,9 +1588,6 @@
     <t xml:space="preserve">1. The Homepage is displayed 
 2. Display "Đăng ký" page
 3. Display register successfully message </t>
-  </si>
-  <si>
-    <t>[Login-20]</t>
   </si>
   <si>
     <t>Test viewing "Trang cá nhân" page</t>
@@ -4355,7 +4022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6:F6"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5082,7 +4749,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
@@ -5218,7 +4885,7 @@
     <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -5229,8 +4896,9 @@
       <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
-        <v>51</v>
+      <c r="A10" s="88" t="str">
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-]</v>
       </c>
       <c r="B10" s="88" t="s">
         <v>52</v>
@@ -5239,7 +4907,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="88"/>
@@ -5248,17 +4916,18 @@
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="88" t="str">
+        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-1]</v>
+      </c>
+      <c r="B11" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="C11" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="89" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>51</v>
@@ -5269,17 +4938,18 @@
       <c r="I11" s="91"/>
     </row>
     <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="88" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-2]</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" s="93" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E12" s="93" t="s">
         <v>51</v>
@@ -5292,17 +4962,18 @@
       <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
-        <v>60</v>
+      <c r="A13" s="88" t="str">
+        <f t="shared" ref="A11:A28" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-3]</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E13" s="93" t="s">
         <v>51</v>
@@ -5315,17 +4986,18 @@
       <c r="K13" s="96"/>
     </row>
     <row r="14" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
-        <v>63</v>
+      <c r="A14" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-4]</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>51</v>
@@ -5338,17 +5010,18 @@
       <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="93" t="s">
-        <v>67</v>
+      <c r="A15" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-5]</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>51</v>
@@ -5361,17 +5034,18 @@
       <c r="K15" s="96"/>
     </row>
     <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="93" t="s">
-        <v>70</v>
+      <c r="A16" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-6]</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E16" s="93" t="s">
         <v>51</v>
@@ -5384,17 +5058,18 @@
       <c r="K16" s="96"/>
     </row>
     <row r="17" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="93" t="s">
-        <v>72</v>
+      <c r="A17" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-7]</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E17" s="93" t="s">
         <v>51</v>
@@ -5404,17 +5079,18 @@
       <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="93" t="s">
-        <v>76</v>
+      <c r="A18" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-8]</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E18" s="93" t="s">
         <v>51</v>
@@ -5425,17 +5101,18 @@
       <c r="I18" s="100"/>
     </row>
     <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="93" t="s">
-        <v>79</v>
+      <c r="A19" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-9]</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E19" s="93" t="s">
         <v>51</v>
@@ -5448,17 +5125,18 @@
       <c r="K19" s="96"/>
     </row>
     <row r="20" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="93" t="s">
-        <v>82</v>
+      <c r="A20" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-10]</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E20" s="93" t="s">
         <v>51</v>
@@ -5468,17 +5146,18 @@
       <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
-        <v>86</v>
+      <c r="A21" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-11]</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>51</v>
@@ -5491,17 +5170,18 @@
       <c r="K21" s="96"/>
     </row>
     <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="93" t="s">
-        <v>89</v>
+      <c r="A22" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-12]</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E22" s="93" t="s">
         <v>51</v>
@@ -5511,17 +5191,18 @@
       <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A23" s="93" t="s">
-        <v>91</v>
+      <c r="A23" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-13]</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E23" s="93" t="s">
         <v>51</v>
@@ -5531,17 +5212,18 @@
       <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
-        <v>95</v>
+      <c r="A24" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-14]</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E24" s="93" t="s">
         <v>51</v>
@@ -5551,17 +5233,18 @@
       <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="93" t="s">
-        <v>97</v>
+      <c r="A25" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-15]</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E25" s="93" t="s">
         <v>51</v>
@@ -5571,17 +5254,18 @@
       <c r="H25" s="94"/>
     </row>
     <row r="26" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
-        <v>99</v>
+      <c r="A26" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-16]</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E26" s="93" t="s">
         <v>51</v>
@@ -5591,17 +5275,18 @@
       <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="93" t="s">
-        <v>103</v>
+      <c r="A27" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-17]</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C27" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="93" t="s">
         <v>101</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>119</v>
       </c>
       <c r="E27" s="93" t="s">
         <v>51</v>
@@ -5611,17 +5296,18 @@
       <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="93" t="s">
-        <v>105</v>
+      <c r="A28" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>[Common Module-18]</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E28" s="93" t="s">
         <v>51</v>
@@ -5658,11 +5344,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6389,7 +6075,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
@@ -6460,11 +6146,11 @@
     </row>
     <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
-        <f>COUNTIF(F101:F1009,"Pass")</f>
+        <f>COUNTIF(F96:F1004,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="78">
-        <f>COUNTIF(F101:F1009,"Fail")</f>
+        <f>COUNTIF(F96:F1004,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="78">
@@ -6472,11 +6158,11 @@
         <v>95</v>
       </c>
       <c r="D6" s="79">
-        <f>COUNTIF(F$101:F$1009,"N/A")</f>
+        <f>COUNTIF(F$96:F$1004,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="149">
-        <f>COUNTA(A10:A1009)</f>
+        <f>COUNTA(A10:A1004)</f>
         <v>95</v>
       </c>
       <c r="F6" s="149"/>
@@ -6525,7 +6211,7 @@
     <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -6538,17 +6224,18 @@
       <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" s="104" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
-        <v>240</v>
+      <c r="A10" s="93" t="str">
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Account Management Module-]</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E10" s="93"/>
       <c r="F10" s="93"/>
@@ -6559,60 +6246,63 @@
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
-        <v>241</v>
+      <c r="A11" s="93" t="str">
+        <f t="shared" ref="A11:A74" si="0">IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Account Management Module-1]</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>389</v>
+        <v>292</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
       <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
-        <v>242</v>
+      <c r="A12" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-2]</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
-        <v>243</v>
+      <c r="A13" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-3]</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
@@ -6622,1872 +6312,1912 @@
       <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
-        <v>244</v>
+      <c r="A14" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-4]</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
       <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="93" t="s">
-        <v>245</v>
+      <c r="A15" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-5]</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="93" t="s">
-        <v>246</v>
+      <c r="A16" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-6]</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="94"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="93" t="s">
-        <v>247</v>
+      <c r="A17" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-7]</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="93" t="s">
-        <v>248</v>
+      <c r="A18" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-8]</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
       <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="93" t="s">
-        <v>249</v>
+      <c r="A19" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-9]</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E19" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="93" t="s">
-        <v>250</v>
+      <c r="A20" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-10]</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
-        <v>251</v>
+      <c r="A21" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-11]</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
       <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="93" t="s">
-        <v>252</v>
+      <c r="A22" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-12]</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
     <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="93" t="s">
-        <v>253</v>
+      <c r="A23" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-13]</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D23" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E23" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
-        <v>254</v>
+      <c r="A24" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-14]</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
     <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="93" t="s">
-        <v>255</v>
+      <c r="A25" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-15]</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C25" s="93" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E25" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
     <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
-        <v>256</v>
+      <c r="A26" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-16]</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D26" s="93" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="93" t="s">
-        <v>257</v>
+      <c r="A27" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-17]</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C27" s="93" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="93" t="s">
-        <v>258</v>
+      <c r="A28" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-18]</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E28" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
     <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
-        <v>453</v>
+      <c r="A29" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-19]</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E29" s="93" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="86"/>
+    <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-20]</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="87"/>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
-        <v>259</v>
+    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-21]</v>
       </c>
       <c r="B31" s="93" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="93"/>
+        <v>154</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>221</v>
+      </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
       <c r="H31" s="94"/>
     </row>
-    <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="93" t="s">
-        <v>260</v>
+    <row r="32" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-22]</v>
       </c>
       <c r="B32" s="93" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C32" s="93" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="93" t="s">
-        <v>259</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E32" s="93"/>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
       <c r="H32" s="94"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84" t="s">
+    <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-23]</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-24]</v>
+      </c>
+      <c r="B34" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87"/>
-    </row>
-    <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="93" t="s">
-        <v>176</v>
-      </c>
       <c r="C34" s="93" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="93"/>
+        <v>159</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>223</v>
+      </c>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
       <c r="H34" s="94"/>
     </row>
     <row r="35" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93" t="s">
-        <v>263</v>
+      <c r="A35" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-25]</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E35" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
       <c r="H35" s="94"/>
     </row>
     <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
-        <v>264</v>
+      <c r="A36" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-26]</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E36" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
       <c r="H36" s="94"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="93" t="s">
-        <v>265</v>
+      <c r="A37" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-27]</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D37" s="93" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
     </row>
     <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="93" t="s">
-        <v>266</v>
+      <c r="A38" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-28]</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D38" s="93" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
     </row>
-    <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="93" t="s">
-        <v>267</v>
+    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-29]</v>
       </c>
       <c r="B39" s="93" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D39" s="93" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E39" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="94"/>
     </row>
     <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="93" t="s">
-        <v>268</v>
+      <c r="A40" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-30]</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
       <c r="H40" s="94"/>
     </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="93" t="s">
-        <v>269</v>
+    <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-31]</v>
       </c>
       <c r="B41" s="93" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E41" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
       <c r="H41" s="94"/>
     </row>
-    <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="93" t="s">
-        <v>270</v>
+    <row r="42" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-32]</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C42" s="93" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D42" s="93" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E42" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
       <c r="H42" s="94"/>
     </row>
-    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="93" t="s">
-        <v>271</v>
+    <row r="43" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-33]</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="C43" s="93" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D43" s="93" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
       <c r="H43" s="94"/>
     </row>
     <row r="44" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="93" t="s">
-        <v>272</v>
+      <c r="A44" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-34]</v>
       </c>
       <c r="B44" s="93" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D44" s="93" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
       <c r="H44" s="94"/>
     </row>
     <row r="45" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="93" t="s">
-        <v>273</v>
+      <c r="A45" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-35]</v>
       </c>
       <c r="B45" s="93" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D45" s="93" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
       <c r="H45" s="94"/>
     </row>
     <row r="46" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="93" t="s">
-        <v>274</v>
+      <c r="A46" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-36]</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
       <c r="H46" s="94"/>
     </row>
     <row r="47" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="93" t="s">
-        <v>275</v>
+      <c r="A47" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-37]</v>
       </c>
       <c r="B47" s="93" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D47" s="93" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E47" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
       <c r="H47" s="94"/>
     </row>
-    <row r="48" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="93" t="s">
-        <v>276</v>
+    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-38]</v>
       </c>
       <c r="B48" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="93" t="s">
-        <v>216</v>
-      </c>
       <c r="E48" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
       <c r="H48" s="94"/>
     </row>
-    <row r="49" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="93" t="s">
-        <v>277</v>
+    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-39]</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D49" s="93" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E49" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
       <c r="H49" s="94"/>
     </row>
     <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="93" t="s">
-        <v>278</v>
+      <c r="A50" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-40]</v>
       </c>
       <c r="B50" s="93" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="D50" s="93" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E50" s="93" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="93" t="s">
-        <v>279</v>
+      <c r="A51" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-41]</v>
       </c>
       <c r="B51" s="93" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="D51" s="93" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
       <c r="H51" s="94"/>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="93" t="s">
-        <v>280</v>
+      <c r="A52" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-42]</v>
       </c>
       <c r="B52" s="93" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="D52" s="93" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
       <c r="H52" s="94"/>
     </row>
     <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="93" t="s">
-        <v>281</v>
+      <c r="A53" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-43]</v>
       </c>
       <c r="B53" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="93" t="s">
         <v>223</v>
-      </c>
-      <c r="C53" s="93" t="s">
-        <v>442</v>
-      </c>
-      <c r="D53" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="93" t="s">
-        <v>262</v>
       </c>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
       <c r="H53" s="94"/>
     </row>
-    <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="93" t="s">
-        <v>282</v>
+    <row r="54" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-44]</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="D54" s="93" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E54" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
       <c r="H54" s="94"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="93" t="s">
-        <v>283</v>
+      <c r="A55" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-45]</v>
       </c>
       <c r="B55" s="93" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="D55" s="93" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="E55" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F55" s="93"/>
       <c r="G55" s="93"/>
       <c r="H55" s="94"/>
     </row>
-    <row r="56" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="93" t="s">
-        <v>284</v>
+    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-46]</v>
       </c>
       <c r="B56" s="93" t="s">
-        <v>351</v>
+        <v>207</v>
       </c>
       <c r="C56" s="93" t="s">
-        <v>438</v>
+        <v>328</v>
       </c>
       <c r="D56" s="93" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="E56" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F56" s="93"/>
       <c r="G56" s="93"/>
       <c r="H56" s="94"/>
     </row>
     <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="93" t="s">
-        <v>285</v>
+      <c r="A57" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-47]</v>
       </c>
       <c r="B57" s="93" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C57" s="93" t="s">
-        <v>437</v>
+        <v>327</v>
       </c>
       <c r="D57" s="93" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E57" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
       <c r="H57" s="94"/>
     </row>
-    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="93" t="s">
-        <v>286</v>
+    <row r="58" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-48]</v>
       </c>
       <c r="B58" s="93" t="s">
-        <v>228</v>
+        <v>319</v>
       </c>
       <c r="C58" s="93" t="s">
-        <v>436</v>
+        <v>326</v>
       </c>
       <c r="D58" s="93" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E58" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F58" s="93"/>
       <c r="G58" s="93"/>
       <c r="H58" s="94"/>
     </row>
     <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="93" t="s">
-        <v>287</v>
+      <c r="A59" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-49]</v>
       </c>
       <c r="B59" s="93" t="s">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>435</v>
+        <v>325</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
       <c r="H59" s="94"/>
     </row>
-    <row r="60" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="93" t="s">
-        <v>288</v>
+    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-50]</v>
       </c>
       <c r="B60" s="93" t="s">
-        <v>427</v>
+        <v>318</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>434</v>
+        <v>324</v>
       </c>
       <c r="D60" s="93" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E60" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
       <c r="H60" s="94"/>
     </row>
     <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="93" t="s">
-        <v>289</v>
+      <c r="A61" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-51]</v>
       </c>
       <c r="B61" s="93" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="93"/>
-      <c r="H61" s="94"/>
+      <c r="H61" s="137"/>
     </row>
     <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="93" t="s">
-        <v>290</v>
+      <c r="A62" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-52]</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="D62" s="93" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
-      <c r="H62" s="94"/>
+      <c r="H62" s="137"/>
     </row>
     <row r="63" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="93" t="s">
-        <v>422</v>
+      <c r="A63" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-53]</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="D63" s="93" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
       <c r="E63" s="93" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="F63" s="93"/>
       <c r="G63" s="93"/>
-      <c r="H63" s="137"/>
+      <c r="H63" s="94"/>
     </row>
     <row r="64" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="93" t="s">
-        <v>449</v>
+      <c r="A64" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-54]</v>
       </c>
       <c r="B64" s="93" t="s">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="C64" s="93" t="s">
-        <v>451</v>
+        <v>226</v>
       </c>
       <c r="D64" s="93" t="s">
-        <v>452</v>
+        <v>227</v>
       </c>
       <c r="E64" s="93" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
-      <c r="H64" s="137"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="84"/>
-      <c r="B65" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="86"/>
-    </row>
-    <row r="66" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="93" t="s">
-        <v>457</v>
+      <c r="H64" s="94"/>
+    </row>
+    <row r="65" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-55]</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="94"/>
+    </row>
+    <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-56]</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>454</v>
+        <v>231</v>
       </c>
       <c r="C66" s="93" t="s">
-        <v>455</v>
+        <v>232</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>456</v>
+        <v>230</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
       <c r="H66" s="94"/>
     </row>
     <row r="67" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="93" t="s">
-        <v>292</v>
+      <c r="A67" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-57]</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>457</v>
+        <v>224</v>
       </c>
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
       <c r="H67" s="94"/>
     </row>
-    <row r="68" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="93" t="s">
-        <v>299</v>
+    <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-58]</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="E68" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F68" s="93"/>
       <c r="G68" s="93"/>
       <c r="H68" s="94"/>
     </row>
     <row r="69" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="93" t="s">
-        <v>308</v>
+      <c r="A69" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-59]</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="H69" s="94"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="93" t="s">
-        <v>309</v>
+      <c r="A70" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-60]</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
       <c r="H70" s="94"/>
     </row>
-    <row r="71" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="93" t="s">
-        <v>310</v>
+    <row r="71" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-61]</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="E71" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F71" s="93"/>
       <c r="G71" s="93"/>
       <c r="H71" s="94"/>
     </row>
-    <row r="72" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="93" t="s">
-        <v>311</v>
+    <row r="72" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-62]</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="E72" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F72" s="93"/>
       <c r="G72" s="93"/>
       <c r="H72" s="94"/>
     </row>
-    <row r="73" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="93" t="s">
-        <v>312</v>
+    <row r="73" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-63]</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F73" s="93"/>
       <c r="G73" s="93"/>
       <c r="H73" s="94"/>
     </row>
-    <row r="74" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="93" t="s">
-        <v>315</v>
+    <row r="74" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>[Account Management Module-64]</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="E74" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
       <c r="H74" s="94"/>
     </row>
-    <row r="75" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="93" t="s">
-        <v>316</v>
+    <row r="75" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A75" s="93" t="str">
+        <f t="shared" ref="A75:A104" si="1">IF(OR(B75&lt;&gt;"",D75&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Account Management Module-65]</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="E75" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F75" s="93"/>
       <c r="G75" s="93"/>
       <c r="H75" s="94"/>
     </row>
     <row r="76" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="93" t="s">
-        <v>317</v>
+      <c r="A76" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-66]</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="E76" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
       <c r="H76" s="94"/>
     </row>
     <row r="77" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="93" t="s">
-        <v>333</v>
+      <c r="A77" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-67]</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="E77" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F77" s="93"/>
       <c r="G77" s="93"/>
       <c r="H77" s="94"/>
     </row>
-    <row r="78" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A78" s="93" t="s">
-        <v>334</v>
+    <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-68]</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F78" s="93"/>
       <c r="G78" s="93"/>
       <c r="H78" s="94"/>
     </row>
-    <row r="79" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="93" t="s">
-        <v>335</v>
+    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-69]</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="E79" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F79" s="93"/>
       <c r="G79" s="93"/>
       <c r="H79" s="94"/>
     </row>
     <row r="80" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="93" t="s">
-        <v>336</v>
+      <c r="A80" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-70]</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F80" s="93"/>
       <c r="G80" s="93"/>
       <c r="H80" s="94"/>
     </row>
     <row r="81" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="93" t="s">
-        <v>345</v>
+      <c r="A81" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-71]</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="E81" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F81" s="93"/>
       <c r="G81" s="93"/>
       <c r="H81" s="94"/>
     </row>
-    <row r="82" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="93" t="s">
-        <v>346</v>
+    <row r="82" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-72]</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="E82" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
       <c r="H82" s="94"/>
     </row>
     <row r="83" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="93" t="s">
-        <v>347</v>
+      <c r="A83" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-73]</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="E83" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
       <c r="H83" s="94"/>
     </row>
     <row r="84" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="93" t="s">
-        <v>348</v>
+      <c r="A84" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-74]</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F84" s="93"/>
       <c r="G84" s="93"/>
       <c r="H84" s="94"/>
     </row>
-    <row r="85" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="93" t="s">
-        <v>365</v>
+    <row r="85" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-75]</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>349</v>
+        <v>206</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="E85" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F85" s="93"/>
       <c r="G85" s="93"/>
       <c r="H85" s="94"/>
     </row>
-    <row r="86" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="93" t="s">
-        <v>366</v>
+    <row r="86" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-76]</v>
       </c>
       <c r="B86" s="93" t="s">
-        <v>354</v>
+        <v>207</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="E86" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
       <c r="H86" s="94"/>
     </row>
-    <row r="87" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="93" t="s">
-        <v>367</v>
+    <row r="87" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-77]</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="E87" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F87" s="93"/>
       <c r="G87" s="93"/>
       <c r="H87" s="94"/>
     </row>
-    <row r="88" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="93" t="s">
-        <v>368</v>
+    <row r="88" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-78]</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="E88" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F88" s="93"/>
       <c r="G88" s="93"/>
       <c r="H88" s="94"/>
     </row>
-    <row r="89" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="93" t="s">
-        <v>369</v>
+    <row r="89" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-79]</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="E89" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F89" s="93"/>
       <c r="G89" s="93"/>
       <c r="H89" s="94"/>
     </row>
     <row r="90" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="93" t="s">
-        <v>370</v>
+      <c r="A90" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-80]</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="E90" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F90" s="93"/>
       <c r="G90" s="93"/>
       <c r="H90" s="94"/>
     </row>
     <row r="91" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="93" t="s">
-        <v>371</v>
+      <c r="A91" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-81]</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E91" s="93" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="F91" s="93"/>
       <c r="G91" s="93"/>
-      <c r="H91" s="94"/>
-    </row>
-    <row r="92" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="93" t="s">
-        <v>372</v>
+      <c r="H91" s="137"/>
+    </row>
+    <row r="92" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-82]</v>
       </c>
       <c r="B92" s="93" t="s">
-        <v>429</v>
+        <v>281</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="E92" s="93" t="s">
-        <v>292</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E92" s="93"/>
       <c r="F92" s="93"/>
       <c r="G92" s="93"/>
       <c r="H92" s="94"/>
     </row>
-    <row r="93" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="93" t="s">
-        <v>420</v>
+    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-83]</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>405</v>
+        <v>284</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>421</v>
+        <v>287</v>
       </c>
       <c r="E93" s="93" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F93" s="93"/>
       <c r="G93" s="93"/>
       <c r="H93" s="94"/>
     </row>
-    <row r="94" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="93" t="s">
-        <v>446</v>
+    <row r="94" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-84]</v>
       </c>
       <c r="B94" s="93" t="s">
-        <v>409</v>
+        <v>285</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>447</v>
+        <v>288</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="E94" s="93" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F94" s="93"/>
       <c r="G94" s="93"/>
-      <c r="H94" s="137"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G95" s="30"/>
+      <c r="H94" s="94"/>
+    </row>
+    <row r="95" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-85]</v>
+      </c>
+      <c r="B95" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E95" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="94"/>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="84"/>
-      <c r="B96" s="84" t="s">
-        <v>373</v>
-      </c>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="86"/>
+    <row r="96" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-86]</v>
+      </c>
+      <c r="B96" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="93" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="94"/>
     </row>
     <row r="97" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="93" t="s">
-        <v>374</v>
+      <c r="A97" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-87]</v>
       </c>
       <c r="B97" s="93" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="E97" s="93"/>
+        <v>300</v>
+      </c>
+      <c r="E97" s="93" t="s">
+        <v>280</v>
+      </c>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
       <c r="H97" s="94"/>
     </row>
     <row r="98" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="93" t="s">
-        <v>381</v>
+      <c r="A98" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-88]</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="E98" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F98" s="93"/>
       <c r="G98" s="93"/>
       <c r="H98" s="94"/>
     </row>
-    <row r="99" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="93" t="s">
-        <v>382</v>
+    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-89]</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="E99" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F99" s="93"/>
       <c r="G99" s="93"/>
       <c r="H99" s="94"/>
     </row>
-    <row r="100" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="93" t="s">
-        <v>385</v>
+    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-90]</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="E100" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F100" s="93"/>
       <c r="G100" s="93"/>
       <c r="H100" s="94"/>
     </row>
-    <row r="101" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="93" t="s">
-        <v>392</v>
+    <row r="101" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-91]</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="E101" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F101" s="93"/>
       <c r="G101" s="93"/>
       <c r="H101" s="94"/>
     </row>
-    <row r="102" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="93" t="s">
-        <v>396</v>
+    <row r="102" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-92]</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="E102" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F102" s="93"/>
       <c r="G102" s="93"/>
       <c r="H102" s="94"/>
     </row>
-    <row r="103" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="93" t="s">
-        <v>397</v>
+    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A103" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-93]</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="E103" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F103" s="93"/>
       <c r="G103" s="93"/>
       <c r="H103" s="94"/>
     </row>
     <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A104" s="93" t="s">
-        <v>404</v>
+      <c r="A104" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>[Account Management Module-94]</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="E104" s="93" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="F104" s="93"/>
       <c r="G104" s="93"/>
       <c r="H104" s="94"/>
-    </row>
-    <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="93" t="s">
-        <v>408</v>
-      </c>
-      <c r="B105" s="93" t="s">
-        <v>407</v>
-      </c>
-      <c r="C105" s="93" t="s">
-        <v>406</v>
-      </c>
-      <c r="D105" s="93" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F105" s="93"/>
-      <c r="G105" s="93"/>
-      <c r="H105" s="94"/>
-    </row>
-    <row r="106" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="B106" s="93" t="s">
-        <v>409</v>
-      </c>
-      <c r="C106" s="93" t="s">
-        <v>406</v>
-      </c>
-      <c r="D106" s="93" t="s">
-        <v>410</v>
-      </c>
-      <c r="E106" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F106" s="93"/>
-      <c r="G106" s="93"/>
-      <c r="H106" s="94"/>
-    </row>
-    <row r="107" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="93" t="s">
-        <v>412</v>
-      </c>
-      <c r="B107" s="93" t="s">
-        <v>427</v>
-      </c>
-      <c r="C107" s="93" t="s">
-        <v>415</v>
-      </c>
-      <c r="D107" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="E107" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="93"/>
-      <c r="H107" s="94"/>
-    </row>
-    <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A108" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="B108" s="93" t="s">
-        <v>428</v>
-      </c>
-      <c r="C108" s="93" t="s">
-        <v>430</v>
-      </c>
-      <c r="D108" s="93" t="s">
-        <v>418</v>
-      </c>
-      <c r="E108" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F108" s="93"/>
-      <c r="G108" s="93"/>
-      <c r="H108" s="94"/>
-    </row>
-    <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="93" t="s">
-        <v>414</v>
-      </c>
-      <c r="B109" s="93" t="s">
-        <v>429</v>
-      </c>
-      <c r="C109" s="93" t="s">
-        <v>417</v>
-      </c>
-      <c r="D109" s="93" t="s">
-        <v>419</v>
-      </c>
-      <c r="E109" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F109" s="93"/>
-      <c r="G109" s="93"/>
-      <c r="H109" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:H15"/>
@@ -8499,7 +8229,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65548:F65550 JB65548:JB65550 SX65548:SX65550 ACT65548:ACT65550 AMP65548:AMP65550 AWL65548:AWL65550 BGH65548:BGH65550 BQD65548:BQD65550 BZZ65548:BZZ65550 CJV65548:CJV65550 CTR65548:CTR65550 DDN65548:DDN65550 DNJ65548:DNJ65550 DXF65548:DXF65550 EHB65548:EHB65550 EQX65548:EQX65550 FAT65548:FAT65550 FKP65548:FKP65550 FUL65548:FUL65550 GEH65548:GEH65550 GOD65548:GOD65550 GXZ65548:GXZ65550 HHV65548:HHV65550 HRR65548:HRR65550 IBN65548:IBN65550 ILJ65548:ILJ65550 IVF65548:IVF65550 JFB65548:JFB65550 JOX65548:JOX65550 JYT65548:JYT65550 KIP65548:KIP65550 KSL65548:KSL65550 LCH65548:LCH65550 LMD65548:LMD65550 LVZ65548:LVZ65550 MFV65548:MFV65550 MPR65548:MPR65550 MZN65548:MZN65550 NJJ65548:NJJ65550 NTF65548:NTF65550 ODB65548:ODB65550 OMX65548:OMX65550 OWT65548:OWT65550 PGP65548:PGP65550 PQL65548:PQL65550 QAH65548:QAH65550 QKD65548:QKD65550 QTZ65548:QTZ65550 RDV65548:RDV65550 RNR65548:RNR65550 RXN65548:RXN65550 SHJ65548:SHJ65550 SRF65548:SRF65550 TBB65548:TBB65550 TKX65548:TKX65550 TUT65548:TUT65550 UEP65548:UEP65550 UOL65548:UOL65550 UYH65548:UYH65550 VID65548:VID65550 VRZ65548:VRZ65550 WBV65548:WBV65550 WLR65548:WLR65550 WVN65548:WVN65550 F131084:F131086 JB131084:JB131086 SX131084:SX131086 ACT131084:ACT131086 AMP131084:AMP131086 AWL131084:AWL131086 BGH131084:BGH131086 BQD131084:BQD131086 BZZ131084:BZZ131086 CJV131084:CJV131086 CTR131084:CTR131086 DDN131084:DDN131086 DNJ131084:DNJ131086 DXF131084:DXF131086 EHB131084:EHB131086 EQX131084:EQX131086 FAT131084:FAT131086 FKP131084:FKP131086 FUL131084:FUL131086 GEH131084:GEH131086 GOD131084:GOD131086 GXZ131084:GXZ131086 HHV131084:HHV131086 HRR131084:HRR131086 IBN131084:IBN131086 ILJ131084:ILJ131086 IVF131084:IVF131086 JFB131084:JFB131086 JOX131084:JOX131086 JYT131084:JYT131086 KIP131084:KIP131086 KSL131084:KSL131086 LCH131084:LCH131086 LMD131084:LMD131086 LVZ131084:LVZ131086 MFV131084:MFV131086 MPR131084:MPR131086 MZN131084:MZN131086 NJJ131084:NJJ131086 NTF131084:NTF131086 ODB131084:ODB131086 OMX131084:OMX131086 OWT131084:OWT131086 PGP131084:PGP131086 PQL131084:PQL131086 QAH131084:QAH131086 QKD131084:QKD131086 QTZ131084:QTZ131086 RDV131084:RDV131086 RNR131084:RNR131086 RXN131084:RXN131086 SHJ131084:SHJ131086 SRF131084:SRF131086 TBB131084:TBB131086 TKX131084:TKX131086 TUT131084:TUT131086 UEP131084:UEP131086 UOL131084:UOL131086 UYH131084:UYH131086 VID131084:VID131086 VRZ131084:VRZ131086 WBV131084:WBV131086 WLR131084:WLR131086 WVN131084:WVN131086 F196620:F196622 JB196620:JB196622 SX196620:SX196622 ACT196620:ACT196622 AMP196620:AMP196622 AWL196620:AWL196622 BGH196620:BGH196622 BQD196620:BQD196622 BZZ196620:BZZ196622 CJV196620:CJV196622 CTR196620:CTR196622 DDN196620:DDN196622 DNJ196620:DNJ196622 DXF196620:DXF196622 EHB196620:EHB196622 EQX196620:EQX196622 FAT196620:FAT196622 FKP196620:FKP196622 FUL196620:FUL196622 GEH196620:GEH196622 GOD196620:GOD196622 GXZ196620:GXZ196622 HHV196620:HHV196622 HRR196620:HRR196622 IBN196620:IBN196622 ILJ196620:ILJ196622 IVF196620:IVF196622 JFB196620:JFB196622 JOX196620:JOX196622 JYT196620:JYT196622 KIP196620:KIP196622 KSL196620:KSL196622 LCH196620:LCH196622 LMD196620:LMD196622 LVZ196620:LVZ196622 MFV196620:MFV196622 MPR196620:MPR196622 MZN196620:MZN196622 NJJ196620:NJJ196622 NTF196620:NTF196622 ODB196620:ODB196622 OMX196620:OMX196622 OWT196620:OWT196622 PGP196620:PGP196622 PQL196620:PQL196622 QAH196620:QAH196622 QKD196620:QKD196622 QTZ196620:QTZ196622 RDV196620:RDV196622 RNR196620:RNR196622 RXN196620:RXN196622 SHJ196620:SHJ196622 SRF196620:SRF196622 TBB196620:TBB196622 TKX196620:TKX196622 TUT196620:TUT196622 UEP196620:UEP196622 UOL196620:UOL196622 UYH196620:UYH196622 VID196620:VID196622 VRZ196620:VRZ196622 WBV196620:WBV196622 WLR196620:WLR196622 WVN196620:WVN196622 F262156:F262158 JB262156:JB262158 SX262156:SX262158 ACT262156:ACT262158 AMP262156:AMP262158 AWL262156:AWL262158 BGH262156:BGH262158 BQD262156:BQD262158 BZZ262156:BZZ262158 CJV262156:CJV262158 CTR262156:CTR262158 DDN262156:DDN262158 DNJ262156:DNJ262158 DXF262156:DXF262158 EHB262156:EHB262158 EQX262156:EQX262158 FAT262156:FAT262158 FKP262156:FKP262158 FUL262156:FUL262158 GEH262156:GEH262158 GOD262156:GOD262158 GXZ262156:GXZ262158 HHV262156:HHV262158 HRR262156:HRR262158 IBN262156:IBN262158 ILJ262156:ILJ262158 IVF262156:IVF262158 JFB262156:JFB262158 JOX262156:JOX262158 JYT262156:JYT262158 KIP262156:KIP262158 KSL262156:KSL262158 LCH262156:LCH262158 LMD262156:LMD262158 LVZ262156:LVZ262158 MFV262156:MFV262158 MPR262156:MPR262158 MZN262156:MZN262158 NJJ262156:NJJ262158 NTF262156:NTF262158 ODB262156:ODB262158 OMX262156:OMX262158 OWT262156:OWT262158 PGP262156:PGP262158 PQL262156:PQL262158 QAH262156:QAH262158 QKD262156:QKD262158 QTZ262156:QTZ262158 RDV262156:RDV262158 RNR262156:RNR262158 RXN262156:RXN262158 SHJ262156:SHJ262158 SRF262156:SRF262158 TBB262156:TBB262158 TKX262156:TKX262158 TUT262156:TUT262158 UEP262156:UEP262158 UOL262156:UOL262158 UYH262156:UYH262158 VID262156:VID262158 VRZ262156:VRZ262158 WBV262156:WBV262158 WLR262156:WLR262158 WVN262156:WVN262158 F327692:F327694 JB327692:JB327694 SX327692:SX327694 ACT327692:ACT327694 AMP327692:AMP327694 AWL327692:AWL327694 BGH327692:BGH327694 BQD327692:BQD327694 BZZ327692:BZZ327694 CJV327692:CJV327694 CTR327692:CTR327694 DDN327692:DDN327694 DNJ327692:DNJ327694 DXF327692:DXF327694 EHB327692:EHB327694 EQX327692:EQX327694 FAT327692:FAT327694 FKP327692:FKP327694 FUL327692:FUL327694 GEH327692:GEH327694 GOD327692:GOD327694 GXZ327692:GXZ327694 HHV327692:HHV327694 HRR327692:HRR327694 IBN327692:IBN327694 ILJ327692:ILJ327694 IVF327692:IVF327694 JFB327692:JFB327694 JOX327692:JOX327694 JYT327692:JYT327694 KIP327692:KIP327694 KSL327692:KSL327694 LCH327692:LCH327694 LMD327692:LMD327694 LVZ327692:LVZ327694 MFV327692:MFV327694 MPR327692:MPR327694 MZN327692:MZN327694 NJJ327692:NJJ327694 NTF327692:NTF327694 ODB327692:ODB327694 OMX327692:OMX327694 OWT327692:OWT327694 PGP327692:PGP327694 PQL327692:PQL327694 QAH327692:QAH327694 QKD327692:QKD327694 QTZ327692:QTZ327694 RDV327692:RDV327694 RNR327692:RNR327694 RXN327692:RXN327694 SHJ327692:SHJ327694 SRF327692:SRF327694 TBB327692:TBB327694 TKX327692:TKX327694 TUT327692:TUT327694 UEP327692:UEP327694 UOL327692:UOL327694 UYH327692:UYH327694 VID327692:VID327694 VRZ327692:VRZ327694 WBV327692:WBV327694 WLR327692:WLR327694 WVN327692:WVN327694 F393228:F393230 JB393228:JB393230 SX393228:SX393230 ACT393228:ACT393230 AMP393228:AMP393230 AWL393228:AWL393230 BGH393228:BGH393230 BQD393228:BQD393230 BZZ393228:BZZ393230 CJV393228:CJV393230 CTR393228:CTR393230 DDN393228:DDN393230 DNJ393228:DNJ393230 DXF393228:DXF393230 EHB393228:EHB393230 EQX393228:EQX393230 FAT393228:FAT393230 FKP393228:FKP393230 FUL393228:FUL393230 GEH393228:GEH393230 GOD393228:GOD393230 GXZ393228:GXZ393230 HHV393228:HHV393230 HRR393228:HRR393230 IBN393228:IBN393230 ILJ393228:ILJ393230 IVF393228:IVF393230 JFB393228:JFB393230 JOX393228:JOX393230 JYT393228:JYT393230 KIP393228:KIP393230 KSL393228:KSL393230 LCH393228:LCH393230 LMD393228:LMD393230 LVZ393228:LVZ393230 MFV393228:MFV393230 MPR393228:MPR393230 MZN393228:MZN393230 NJJ393228:NJJ393230 NTF393228:NTF393230 ODB393228:ODB393230 OMX393228:OMX393230 OWT393228:OWT393230 PGP393228:PGP393230 PQL393228:PQL393230 QAH393228:QAH393230 QKD393228:QKD393230 QTZ393228:QTZ393230 RDV393228:RDV393230 RNR393228:RNR393230 RXN393228:RXN393230 SHJ393228:SHJ393230 SRF393228:SRF393230 TBB393228:TBB393230 TKX393228:TKX393230 TUT393228:TUT393230 UEP393228:UEP393230 UOL393228:UOL393230 UYH393228:UYH393230 VID393228:VID393230 VRZ393228:VRZ393230 WBV393228:WBV393230 WLR393228:WLR393230 WVN393228:WVN393230 F458764:F458766 JB458764:JB458766 SX458764:SX458766 ACT458764:ACT458766 AMP458764:AMP458766 AWL458764:AWL458766 BGH458764:BGH458766 BQD458764:BQD458766 BZZ458764:BZZ458766 CJV458764:CJV458766 CTR458764:CTR458766 DDN458764:DDN458766 DNJ458764:DNJ458766 DXF458764:DXF458766 EHB458764:EHB458766 EQX458764:EQX458766 FAT458764:FAT458766 FKP458764:FKP458766 FUL458764:FUL458766 GEH458764:GEH458766 GOD458764:GOD458766 GXZ458764:GXZ458766 HHV458764:HHV458766 HRR458764:HRR458766 IBN458764:IBN458766 ILJ458764:ILJ458766 IVF458764:IVF458766 JFB458764:JFB458766 JOX458764:JOX458766 JYT458764:JYT458766 KIP458764:KIP458766 KSL458764:KSL458766 LCH458764:LCH458766 LMD458764:LMD458766 LVZ458764:LVZ458766 MFV458764:MFV458766 MPR458764:MPR458766 MZN458764:MZN458766 NJJ458764:NJJ458766 NTF458764:NTF458766 ODB458764:ODB458766 OMX458764:OMX458766 OWT458764:OWT458766 PGP458764:PGP458766 PQL458764:PQL458766 QAH458764:QAH458766 QKD458764:QKD458766 QTZ458764:QTZ458766 RDV458764:RDV458766 RNR458764:RNR458766 RXN458764:RXN458766 SHJ458764:SHJ458766 SRF458764:SRF458766 TBB458764:TBB458766 TKX458764:TKX458766 TUT458764:TUT458766 UEP458764:UEP458766 UOL458764:UOL458766 UYH458764:UYH458766 VID458764:VID458766 VRZ458764:VRZ458766 WBV458764:WBV458766 WLR458764:WLR458766 WVN458764:WVN458766 F524300:F524302 JB524300:JB524302 SX524300:SX524302 ACT524300:ACT524302 AMP524300:AMP524302 AWL524300:AWL524302 BGH524300:BGH524302 BQD524300:BQD524302 BZZ524300:BZZ524302 CJV524300:CJV524302 CTR524300:CTR524302 DDN524300:DDN524302 DNJ524300:DNJ524302 DXF524300:DXF524302 EHB524300:EHB524302 EQX524300:EQX524302 FAT524300:FAT524302 FKP524300:FKP524302 FUL524300:FUL524302 GEH524300:GEH524302 GOD524300:GOD524302 GXZ524300:GXZ524302 HHV524300:HHV524302 HRR524300:HRR524302 IBN524300:IBN524302 ILJ524300:ILJ524302 IVF524300:IVF524302 JFB524300:JFB524302 JOX524300:JOX524302 JYT524300:JYT524302 KIP524300:KIP524302 KSL524300:KSL524302 LCH524300:LCH524302 LMD524300:LMD524302 LVZ524300:LVZ524302 MFV524300:MFV524302 MPR524300:MPR524302 MZN524300:MZN524302 NJJ524300:NJJ524302 NTF524300:NTF524302 ODB524300:ODB524302 OMX524300:OMX524302 OWT524300:OWT524302 PGP524300:PGP524302 PQL524300:PQL524302 QAH524300:QAH524302 QKD524300:QKD524302 QTZ524300:QTZ524302 RDV524300:RDV524302 RNR524300:RNR524302 RXN524300:RXN524302 SHJ524300:SHJ524302 SRF524300:SRF524302 TBB524300:TBB524302 TKX524300:TKX524302 TUT524300:TUT524302 UEP524300:UEP524302 UOL524300:UOL524302 UYH524300:UYH524302 VID524300:VID524302 VRZ524300:VRZ524302 WBV524300:WBV524302 WLR524300:WLR524302 WVN524300:WVN524302 F589836:F589838 JB589836:JB589838 SX589836:SX589838 ACT589836:ACT589838 AMP589836:AMP589838 AWL589836:AWL589838 BGH589836:BGH589838 BQD589836:BQD589838 BZZ589836:BZZ589838 CJV589836:CJV589838 CTR589836:CTR589838 DDN589836:DDN589838 DNJ589836:DNJ589838 DXF589836:DXF589838 EHB589836:EHB589838 EQX589836:EQX589838 FAT589836:FAT589838 FKP589836:FKP589838 FUL589836:FUL589838 GEH589836:GEH589838 GOD589836:GOD589838 GXZ589836:GXZ589838 HHV589836:HHV589838 HRR589836:HRR589838 IBN589836:IBN589838 ILJ589836:ILJ589838 IVF589836:IVF589838 JFB589836:JFB589838 JOX589836:JOX589838 JYT589836:JYT589838 KIP589836:KIP589838 KSL589836:KSL589838 LCH589836:LCH589838 LMD589836:LMD589838 LVZ589836:LVZ589838 MFV589836:MFV589838 MPR589836:MPR589838 MZN589836:MZN589838 NJJ589836:NJJ589838 NTF589836:NTF589838 ODB589836:ODB589838 OMX589836:OMX589838 OWT589836:OWT589838 PGP589836:PGP589838 PQL589836:PQL589838 QAH589836:QAH589838 QKD589836:QKD589838 QTZ589836:QTZ589838 RDV589836:RDV589838 RNR589836:RNR589838 RXN589836:RXN589838 SHJ589836:SHJ589838 SRF589836:SRF589838 TBB589836:TBB589838 TKX589836:TKX589838 TUT589836:TUT589838 UEP589836:UEP589838 UOL589836:UOL589838 UYH589836:UYH589838 VID589836:VID589838 VRZ589836:VRZ589838 WBV589836:WBV589838 WLR589836:WLR589838 WVN589836:WVN589838 F655372:F655374 JB655372:JB655374 SX655372:SX655374 ACT655372:ACT655374 AMP655372:AMP655374 AWL655372:AWL655374 BGH655372:BGH655374 BQD655372:BQD655374 BZZ655372:BZZ655374 CJV655372:CJV655374 CTR655372:CTR655374 DDN655372:DDN655374 DNJ655372:DNJ655374 DXF655372:DXF655374 EHB655372:EHB655374 EQX655372:EQX655374 FAT655372:FAT655374 FKP655372:FKP655374 FUL655372:FUL655374 GEH655372:GEH655374 GOD655372:GOD655374 GXZ655372:GXZ655374 HHV655372:HHV655374 HRR655372:HRR655374 IBN655372:IBN655374 ILJ655372:ILJ655374 IVF655372:IVF655374 JFB655372:JFB655374 JOX655372:JOX655374 JYT655372:JYT655374 KIP655372:KIP655374 KSL655372:KSL655374 LCH655372:LCH655374 LMD655372:LMD655374 LVZ655372:LVZ655374 MFV655372:MFV655374 MPR655372:MPR655374 MZN655372:MZN655374 NJJ655372:NJJ655374 NTF655372:NTF655374 ODB655372:ODB655374 OMX655372:OMX655374 OWT655372:OWT655374 PGP655372:PGP655374 PQL655372:PQL655374 QAH655372:QAH655374 QKD655372:QKD655374 QTZ655372:QTZ655374 RDV655372:RDV655374 RNR655372:RNR655374 RXN655372:RXN655374 SHJ655372:SHJ655374 SRF655372:SRF655374 TBB655372:TBB655374 TKX655372:TKX655374 TUT655372:TUT655374 UEP655372:UEP655374 UOL655372:UOL655374 UYH655372:UYH655374 VID655372:VID655374 VRZ655372:VRZ655374 WBV655372:WBV655374 WLR655372:WLR655374 WVN655372:WVN655374 F720908:F720910 JB720908:JB720910 SX720908:SX720910 ACT720908:ACT720910 AMP720908:AMP720910 AWL720908:AWL720910 BGH720908:BGH720910 BQD720908:BQD720910 BZZ720908:BZZ720910 CJV720908:CJV720910 CTR720908:CTR720910 DDN720908:DDN720910 DNJ720908:DNJ720910 DXF720908:DXF720910 EHB720908:EHB720910 EQX720908:EQX720910 FAT720908:FAT720910 FKP720908:FKP720910 FUL720908:FUL720910 GEH720908:GEH720910 GOD720908:GOD720910 GXZ720908:GXZ720910 HHV720908:HHV720910 HRR720908:HRR720910 IBN720908:IBN720910 ILJ720908:ILJ720910 IVF720908:IVF720910 JFB720908:JFB720910 JOX720908:JOX720910 JYT720908:JYT720910 KIP720908:KIP720910 KSL720908:KSL720910 LCH720908:LCH720910 LMD720908:LMD720910 LVZ720908:LVZ720910 MFV720908:MFV720910 MPR720908:MPR720910 MZN720908:MZN720910 NJJ720908:NJJ720910 NTF720908:NTF720910 ODB720908:ODB720910 OMX720908:OMX720910 OWT720908:OWT720910 PGP720908:PGP720910 PQL720908:PQL720910 QAH720908:QAH720910 QKD720908:QKD720910 QTZ720908:QTZ720910 RDV720908:RDV720910 RNR720908:RNR720910 RXN720908:RXN720910 SHJ720908:SHJ720910 SRF720908:SRF720910 TBB720908:TBB720910 TKX720908:TKX720910 TUT720908:TUT720910 UEP720908:UEP720910 UOL720908:UOL720910 UYH720908:UYH720910 VID720908:VID720910 VRZ720908:VRZ720910 WBV720908:WBV720910 WLR720908:WLR720910 WVN720908:WVN720910 F786444:F786446 JB786444:JB786446 SX786444:SX786446 ACT786444:ACT786446 AMP786444:AMP786446 AWL786444:AWL786446 BGH786444:BGH786446 BQD786444:BQD786446 BZZ786444:BZZ786446 CJV786444:CJV786446 CTR786444:CTR786446 DDN786444:DDN786446 DNJ786444:DNJ786446 DXF786444:DXF786446 EHB786444:EHB786446 EQX786444:EQX786446 FAT786444:FAT786446 FKP786444:FKP786446 FUL786444:FUL786446 GEH786444:GEH786446 GOD786444:GOD786446 GXZ786444:GXZ786446 HHV786444:HHV786446 HRR786444:HRR786446 IBN786444:IBN786446 ILJ786444:ILJ786446 IVF786444:IVF786446 JFB786444:JFB786446 JOX786444:JOX786446 JYT786444:JYT786446 KIP786444:KIP786446 KSL786444:KSL786446 LCH786444:LCH786446 LMD786444:LMD786446 LVZ786444:LVZ786446 MFV786444:MFV786446 MPR786444:MPR786446 MZN786444:MZN786446 NJJ786444:NJJ786446 NTF786444:NTF786446 ODB786444:ODB786446 OMX786444:OMX786446 OWT786444:OWT786446 PGP786444:PGP786446 PQL786444:PQL786446 QAH786444:QAH786446 QKD786444:QKD786446 QTZ786444:QTZ786446 RDV786444:RDV786446 RNR786444:RNR786446 RXN786444:RXN786446 SHJ786444:SHJ786446 SRF786444:SRF786446 TBB786444:TBB786446 TKX786444:TKX786446 TUT786444:TUT786446 UEP786444:UEP786446 UOL786444:UOL786446 UYH786444:UYH786446 VID786444:VID786446 VRZ786444:VRZ786446 WBV786444:WBV786446 WLR786444:WLR786446 WVN786444:WVN786446 F851980:F851982 JB851980:JB851982 SX851980:SX851982 ACT851980:ACT851982 AMP851980:AMP851982 AWL851980:AWL851982 BGH851980:BGH851982 BQD851980:BQD851982 BZZ851980:BZZ851982 CJV851980:CJV851982 CTR851980:CTR851982 DDN851980:DDN851982 DNJ851980:DNJ851982 DXF851980:DXF851982 EHB851980:EHB851982 EQX851980:EQX851982 FAT851980:FAT851982 FKP851980:FKP851982 FUL851980:FUL851982 GEH851980:GEH851982 GOD851980:GOD851982 GXZ851980:GXZ851982 HHV851980:HHV851982 HRR851980:HRR851982 IBN851980:IBN851982 ILJ851980:ILJ851982 IVF851980:IVF851982 JFB851980:JFB851982 JOX851980:JOX851982 JYT851980:JYT851982 KIP851980:KIP851982 KSL851980:KSL851982 LCH851980:LCH851982 LMD851980:LMD851982 LVZ851980:LVZ851982 MFV851980:MFV851982 MPR851980:MPR851982 MZN851980:MZN851982 NJJ851980:NJJ851982 NTF851980:NTF851982 ODB851980:ODB851982 OMX851980:OMX851982 OWT851980:OWT851982 PGP851980:PGP851982 PQL851980:PQL851982 QAH851980:QAH851982 QKD851980:QKD851982 QTZ851980:QTZ851982 RDV851980:RDV851982 RNR851980:RNR851982 RXN851980:RXN851982 SHJ851980:SHJ851982 SRF851980:SRF851982 TBB851980:TBB851982 TKX851980:TKX851982 TUT851980:TUT851982 UEP851980:UEP851982 UOL851980:UOL851982 UYH851980:UYH851982 VID851980:VID851982 VRZ851980:VRZ851982 WBV851980:WBV851982 WLR851980:WLR851982 WVN851980:WVN851982 F917516:F917518 JB917516:JB917518 SX917516:SX917518 ACT917516:ACT917518 AMP917516:AMP917518 AWL917516:AWL917518 BGH917516:BGH917518 BQD917516:BQD917518 BZZ917516:BZZ917518 CJV917516:CJV917518 CTR917516:CTR917518 DDN917516:DDN917518 DNJ917516:DNJ917518 DXF917516:DXF917518 EHB917516:EHB917518 EQX917516:EQX917518 FAT917516:FAT917518 FKP917516:FKP917518 FUL917516:FUL917518 GEH917516:GEH917518 GOD917516:GOD917518 GXZ917516:GXZ917518 HHV917516:HHV917518 HRR917516:HRR917518 IBN917516:IBN917518 ILJ917516:ILJ917518 IVF917516:IVF917518 JFB917516:JFB917518 JOX917516:JOX917518 JYT917516:JYT917518 KIP917516:KIP917518 KSL917516:KSL917518 LCH917516:LCH917518 LMD917516:LMD917518 LVZ917516:LVZ917518 MFV917516:MFV917518 MPR917516:MPR917518 MZN917516:MZN917518 NJJ917516:NJJ917518 NTF917516:NTF917518 ODB917516:ODB917518 OMX917516:OMX917518 OWT917516:OWT917518 PGP917516:PGP917518 PQL917516:PQL917518 QAH917516:QAH917518 QKD917516:QKD917518 QTZ917516:QTZ917518 RDV917516:RDV917518 RNR917516:RNR917518 RXN917516:RXN917518 SHJ917516:SHJ917518 SRF917516:SRF917518 TBB917516:TBB917518 TKX917516:TKX917518 TUT917516:TUT917518 UEP917516:UEP917518 UOL917516:UOL917518 UYH917516:UYH917518 VID917516:VID917518 VRZ917516:VRZ917518 WBV917516:WBV917518 WLR917516:WLR917518 WVN917516:WVN917518 F983052:F983054 JB983052:JB983054 SX983052:SX983054 ACT983052:ACT983054 AMP983052:AMP983054 AWL983052:AWL983054 BGH983052:BGH983054 BQD983052:BQD983054 BZZ983052:BZZ983054 CJV983052:CJV983054 CTR983052:CTR983054 DDN983052:DDN983054 DNJ983052:DNJ983054 DXF983052:DXF983054 EHB983052:EHB983054 EQX983052:EQX983054 FAT983052:FAT983054 FKP983052:FKP983054 FUL983052:FUL983054 GEH983052:GEH983054 GOD983052:GOD983054 GXZ983052:GXZ983054 HHV983052:HHV983054 HRR983052:HRR983054 IBN983052:IBN983054 ILJ983052:ILJ983054 IVF983052:IVF983054 JFB983052:JFB983054 JOX983052:JOX983054 JYT983052:JYT983054 KIP983052:KIP983054 KSL983052:KSL983054 LCH983052:LCH983054 LMD983052:LMD983054 LVZ983052:LVZ983054 MFV983052:MFV983054 MPR983052:MPR983054 MZN983052:MZN983054 NJJ983052:NJJ983054 NTF983052:NTF983054 ODB983052:ODB983054 OMX983052:OMX983054 OWT983052:OWT983054 PGP983052:PGP983054 PQL983052:PQL983054 QAH983052:QAH983054 QKD983052:QKD983054 QTZ983052:QTZ983054 RDV983052:RDV983054 RNR983052:RNR983054 RXN983052:RXN983054 SHJ983052:SHJ983054 SRF983052:SRF983054 TBB983052:TBB983054 TKX983052:TKX983054 TUT983052:TUT983054 UEP983052:UEP983054 UOL983052:UOL983054 UYH983052:UYH983054 VID983052:VID983054 VRZ983052:VRZ983054 WBV983052:WBV983054 WLR983052:WLR983054 WVN983052:WVN983054 WVN983058:WVN983195 F65554:F65691 JB65554:JB65691 SX65554:SX65691 ACT65554:ACT65691 AMP65554:AMP65691 AWL65554:AWL65691 BGH65554:BGH65691 BQD65554:BQD65691 BZZ65554:BZZ65691 CJV65554:CJV65691 CTR65554:CTR65691 DDN65554:DDN65691 DNJ65554:DNJ65691 DXF65554:DXF65691 EHB65554:EHB65691 EQX65554:EQX65691 FAT65554:FAT65691 FKP65554:FKP65691 FUL65554:FUL65691 GEH65554:GEH65691 GOD65554:GOD65691 GXZ65554:GXZ65691 HHV65554:HHV65691 HRR65554:HRR65691 IBN65554:IBN65691 ILJ65554:ILJ65691 IVF65554:IVF65691 JFB65554:JFB65691 JOX65554:JOX65691 JYT65554:JYT65691 KIP65554:KIP65691 KSL65554:KSL65691 LCH65554:LCH65691 LMD65554:LMD65691 LVZ65554:LVZ65691 MFV65554:MFV65691 MPR65554:MPR65691 MZN65554:MZN65691 NJJ65554:NJJ65691 NTF65554:NTF65691 ODB65554:ODB65691 OMX65554:OMX65691 OWT65554:OWT65691 PGP65554:PGP65691 PQL65554:PQL65691 QAH65554:QAH65691 QKD65554:QKD65691 QTZ65554:QTZ65691 RDV65554:RDV65691 RNR65554:RNR65691 RXN65554:RXN65691 SHJ65554:SHJ65691 SRF65554:SRF65691 TBB65554:TBB65691 TKX65554:TKX65691 TUT65554:TUT65691 UEP65554:UEP65691 UOL65554:UOL65691 UYH65554:UYH65691 VID65554:VID65691 VRZ65554:VRZ65691 WBV65554:WBV65691 WLR65554:WLR65691 WVN65554:WVN65691 F131090:F131227 JB131090:JB131227 SX131090:SX131227 ACT131090:ACT131227 AMP131090:AMP131227 AWL131090:AWL131227 BGH131090:BGH131227 BQD131090:BQD131227 BZZ131090:BZZ131227 CJV131090:CJV131227 CTR131090:CTR131227 DDN131090:DDN131227 DNJ131090:DNJ131227 DXF131090:DXF131227 EHB131090:EHB131227 EQX131090:EQX131227 FAT131090:FAT131227 FKP131090:FKP131227 FUL131090:FUL131227 GEH131090:GEH131227 GOD131090:GOD131227 GXZ131090:GXZ131227 HHV131090:HHV131227 HRR131090:HRR131227 IBN131090:IBN131227 ILJ131090:ILJ131227 IVF131090:IVF131227 JFB131090:JFB131227 JOX131090:JOX131227 JYT131090:JYT131227 KIP131090:KIP131227 KSL131090:KSL131227 LCH131090:LCH131227 LMD131090:LMD131227 LVZ131090:LVZ131227 MFV131090:MFV131227 MPR131090:MPR131227 MZN131090:MZN131227 NJJ131090:NJJ131227 NTF131090:NTF131227 ODB131090:ODB131227 OMX131090:OMX131227 OWT131090:OWT131227 PGP131090:PGP131227 PQL131090:PQL131227 QAH131090:QAH131227 QKD131090:QKD131227 QTZ131090:QTZ131227 RDV131090:RDV131227 RNR131090:RNR131227 RXN131090:RXN131227 SHJ131090:SHJ131227 SRF131090:SRF131227 TBB131090:TBB131227 TKX131090:TKX131227 TUT131090:TUT131227 UEP131090:UEP131227 UOL131090:UOL131227 UYH131090:UYH131227 VID131090:VID131227 VRZ131090:VRZ131227 WBV131090:WBV131227 WLR131090:WLR131227 WVN131090:WVN131227 F196626:F196763 JB196626:JB196763 SX196626:SX196763 ACT196626:ACT196763 AMP196626:AMP196763 AWL196626:AWL196763 BGH196626:BGH196763 BQD196626:BQD196763 BZZ196626:BZZ196763 CJV196626:CJV196763 CTR196626:CTR196763 DDN196626:DDN196763 DNJ196626:DNJ196763 DXF196626:DXF196763 EHB196626:EHB196763 EQX196626:EQX196763 FAT196626:FAT196763 FKP196626:FKP196763 FUL196626:FUL196763 GEH196626:GEH196763 GOD196626:GOD196763 GXZ196626:GXZ196763 HHV196626:HHV196763 HRR196626:HRR196763 IBN196626:IBN196763 ILJ196626:ILJ196763 IVF196626:IVF196763 JFB196626:JFB196763 JOX196626:JOX196763 JYT196626:JYT196763 KIP196626:KIP196763 KSL196626:KSL196763 LCH196626:LCH196763 LMD196626:LMD196763 LVZ196626:LVZ196763 MFV196626:MFV196763 MPR196626:MPR196763 MZN196626:MZN196763 NJJ196626:NJJ196763 NTF196626:NTF196763 ODB196626:ODB196763 OMX196626:OMX196763 OWT196626:OWT196763 PGP196626:PGP196763 PQL196626:PQL196763 QAH196626:QAH196763 QKD196626:QKD196763 QTZ196626:QTZ196763 RDV196626:RDV196763 RNR196626:RNR196763 RXN196626:RXN196763 SHJ196626:SHJ196763 SRF196626:SRF196763 TBB196626:TBB196763 TKX196626:TKX196763 TUT196626:TUT196763 UEP196626:UEP196763 UOL196626:UOL196763 UYH196626:UYH196763 VID196626:VID196763 VRZ196626:VRZ196763 WBV196626:WBV196763 WLR196626:WLR196763 WVN196626:WVN196763 F262162:F262299 JB262162:JB262299 SX262162:SX262299 ACT262162:ACT262299 AMP262162:AMP262299 AWL262162:AWL262299 BGH262162:BGH262299 BQD262162:BQD262299 BZZ262162:BZZ262299 CJV262162:CJV262299 CTR262162:CTR262299 DDN262162:DDN262299 DNJ262162:DNJ262299 DXF262162:DXF262299 EHB262162:EHB262299 EQX262162:EQX262299 FAT262162:FAT262299 FKP262162:FKP262299 FUL262162:FUL262299 GEH262162:GEH262299 GOD262162:GOD262299 GXZ262162:GXZ262299 HHV262162:HHV262299 HRR262162:HRR262299 IBN262162:IBN262299 ILJ262162:ILJ262299 IVF262162:IVF262299 JFB262162:JFB262299 JOX262162:JOX262299 JYT262162:JYT262299 KIP262162:KIP262299 KSL262162:KSL262299 LCH262162:LCH262299 LMD262162:LMD262299 LVZ262162:LVZ262299 MFV262162:MFV262299 MPR262162:MPR262299 MZN262162:MZN262299 NJJ262162:NJJ262299 NTF262162:NTF262299 ODB262162:ODB262299 OMX262162:OMX262299 OWT262162:OWT262299 PGP262162:PGP262299 PQL262162:PQL262299 QAH262162:QAH262299 QKD262162:QKD262299 QTZ262162:QTZ262299 RDV262162:RDV262299 RNR262162:RNR262299 RXN262162:RXN262299 SHJ262162:SHJ262299 SRF262162:SRF262299 TBB262162:TBB262299 TKX262162:TKX262299 TUT262162:TUT262299 UEP262162:UEP262299 UOL262162:UOL262299 UYH262162:UYH262299 VID262162:VID262299 VRZ262162:VRZ262299 WBV262162:WBV262299 WLR262162:WLR262299 WVN262162:WVN262299 F327698:F327835 JB327698:JB327835 SX327698:SX327835 ACT327698:ACT327835 AMP327698:AMP327835 AWL327698:AWL327835 BGH327698:BGH327835 BQD327698:BQD327835 BZZ327698:BZZ327835 CJV327698:CJV327835 CTR327698:CTR327835 DDN327698:DDN327835 DNJ327698:DNJ327835 DXF327698:DXF327835 EHB327698:EHB327835 EQX327698:EQX327835 FAT327698:FAT327835 FKP327698:FKP327835 FUL327698:FUL327835 GEH327698:GEH327835 GOD327698:GOD327835 GXZ327698:GXZ327835 HHV327698:HHV327835 HRR327698:HRR327835 IBN327698:IBN327835 ILJ327698:ILJ327835 IVF327698:IVF327835 JFB327698:JFB327835 JOX327698:JOX327835 JYT327698:JYT327835 KIP327698:KIP327835 KSL327698:KSL327835 LCH327698:LCH327835 LMD327698:LMD327835 LVZ327698:LVZ327835 MFV327698:MFV327835 MPR327698:MPR327835 MZN327698:MZN327835 NJJ327698:NJJ327835 NTF327698:NTF327835 ODB327698:ODB327835 OMX327698:OMX327835 OWT327698:OWT327835 PGP327698:PGP327835 PQL327698:PQL327835 QAH327698:QAH327835 QKD327698:QKD327835 QTZ327698:QTZ327835 RDV327698:RDV327835 RNR327698:RNR327835 RXN327698:RXN327835 SHJ327698:SHJ327835 SRF327698:SRF327835 TBB327698:TBB327835 TKX327698:TKX327835 TUT327698:TUT327835 UEP327698:UEP327835 UOL327698:UOL327835 UYH327698:UYH327835 VID327698:VID327835 VRZ327698:VRZ327835 WBV327698:WBV327835 WLR327698:WLR327835 WVN327698:WVN327835 F393234:F393371 JB393234:JB393371 SX393234:SX393371 ACT393234:ACT393371 AMP393234:AMP393371 AWL393234:AWL393371 BGH393234:BGH393371 BQD393234:BQD393371 BZZ393234:BZZ393371 CJV393234:CJV393371 CTR393234:CTR393371 DDN393234:DDN393371 DNJ393234:DNJ393371 DXF393234:DXF393371 EHB393234:EHB393371 EQX393234:EQX393371 FAT393234:FAT393371 FKP393234:FKP393371 FUL393234:FUL393371 GEH393234:GEH393371 GOD393234:GOD393371 GXZ393234:GXZ393371 HHV393234:HHV393371 HRR393234:HRR393371 IBN393234:IBN393371 ILJ393234:ILJ393371 IVF393234:IVF393371 JFB393234:JFB393371 JOX393234:JOX393371 JYT393234:JYT393371 KIP393234:KIP393371 KSL393234:KSL393371 LCH393234:LCH393371 LMD393234:LMD393371 LVZ393234:LVZ393371 MFV393234:MFV393371 MPR393234:MPR393371 MZN393234:MZN393371 NJJ393234:NJJ393371 NTF393234:NTF393371 ODB393234:ODB393371 OMX393234:OMX393371 OWT393234:OWT393371 PGP393234:PGP393371 PQL393234:PQL393371 QAH393234:QAH393371 QKD393234:QKD393371 QTZ393234:QTZ393371 RDV393234:RDV393371 RNR393234:RNR393371 RXN393234:RXN393371 SHJ393234:SHJ393371 SRF393234:SRF393371 TBB393234:TBB393371 TKX393234:TKX393371 TUT393234:TUT393371 UEP393234:UEP393371 UOL393234:UOL393371 UYH393234:UYH393371 VID393234:VID393371 VRZ393234:VRZ393371 WBV393234:WBV393371 WLR393234:WLR393371 WVN393234:WVN393371 F458770:F458907 JB458770:JB458907 SX458770:SX458907 ACT458770:ACT458907 AMP458770:AMP458907 AWL458770:AWL458907 BGH458770:BGH458907 BQD458770:BQD458907 BZZ458770:BZZ458907 CJV458770:CJV458907 CTR458770:CTR458907 DDN458770:DDN458907 DNJ458770:DNJ458907 DXF458770:DXF458907 EHB458770:EHB458907 EQX458770:EQX458907 FAT458770:FAT458907 FKP458770:FKP458907 FUL458770:FUL458907 GEH458770:GEH458907 GOD458770:GOD458907 GXZ458770:GXZ458907 HHV458770:HHV458907 HRR458770:HRR458907 IBN458770:IBN458907 ILJ458770:ILJ458907 IVF458770:IVF458907 JFB458770:JFB458907 JOX458770:JOX458907 JYT458770:JYT458907 KIP458770:KIP458907 KSL458770:KSL458907 LCH458770:LCH458907 LMD458770:LMD458907 LVZ458770:LVZ458907 MFV458770:MFV458907 MPR458770:MPR458907 MZN458770:MZN458907 NJJ458770:NJJ458907 NTF458770:NTF458907 ODB458770:ODB458907 OMX458770:OMX458907 OWT458770:OWT458907 PGP458770:PGP458907 PQL458770:PQL458907 QAH458770:QAH458907 QKD458770:QKD458907 QTZ458770:QTZ458907 RDV458770:RDV458907 RNR458770:RNR458907 RXN458770:RXN458907 SHJ458770:SHJ458907 SRF458770:SRF458907 TBB458770:TBB458907 TKX458770:TKX458907 TUT458770:TUT458907 UEP458770:UEP458907 UOL458770:UOL458907 UYH458770:UYH458907 VID458770:VID458907 VRZ458770:VRZ458907 WBV458770:WBV458907 WLR458770:WLR458907 WVN458770:WVN458907 F524306:F524443 JB524306:JB524443 SX524306:SX524443 ACT524306:ACT524443 AMP524306:AMP524443 AWL524306:AWL524443 BGH524306:BGH524443 BQD524306:BQD524443 BZZ524306:BZZ524443 CJV524306:CJV524443 CTR524306:CTR524443 DDN524306:DDN524443 DNJ524306:DNJ524443 DXF524306:DXF524443 EHB524306:EHB524443 EQX524306:EQX524443 FAT524306:FAT524443 FKP524306:FKP524443 FUL524306:FUL524443 GEH524306:GEH524443 GOD524306:GOD524443 GXZ524306:GXZ524443 HHV524306:HHV524443 HRR524306:HRR524443 IBN524306:IBN524443 ILJ524306:ILJ524443 IVF524306:IVF524443 JFB524306:JFB524443 JOX524306:JOX524443 JYT524306:JYT524443 KIP524306:KIP524443 KSL524306:KSL524443 LCH524306:LCH524443 LMD524306:LMD524443 LVZ524306:LVZ524443 MFV524306:MFV524443 MPR524306:MPR524443 MZN524306:MZN524443 NJJ524306:NJJ524443 NTF524306:NTF524443 ODB524306:ODB524443 OMX524306:OMX524443 OWT524306:OWT524443 PGP524306:PGP524443 PQL524306:PQL524443 QAH524306:QAH524443 QKD524306:QKD524443 QTZ524306:QTZ524443 RDV524306:RDV524443 RNR524306:RNR524443 RXN524306:RXN524443 SHJ524306:SHJ524443 SRF524306:SRF524443 TBB524306:TBB524443 TKX524306:TKX524443 TUT524306:TUT524443 UEP524306:UEP524443 UOL524306:UOL524443 UYH524306:UYH524443 VID524306:VID524443 VRZ524306:VRZ524443 WBV524306:WBV524443 WLR524306:WLR524443 WVN524306:WVN524443 F589842:F589979 JB589842:JB589979 SX589842:SX589979 ACT589842:ACT589979 AMP589842:AMP589979 AWL589842:AWL589979 BGH589842:BGH589979 BQD589842:BQD589979 BZZ589842:BZZ589979 CJV589842:CJV589979 CTR589842:CTR589979 DDN589842:DDN589979 DNJ589842:DNJ589979 DXF589842:DXF589979 EHB589842:EHB589979 EQX589842:EQX589979 FAT589842:FAT589979 FKP589842:FKP589979 FUL589842:FUL589979 GEH589842:GEH589979 GOD589842:GOD589979 GXZ589842:GXZ589979 HHV589842:HHV589979 HRR589842:HRR589979 IBN589842:IBN589979 ILJ589842:ILJ589979 IVF589842:IVF589979 JFB589842:JFB589979 JOX589842:JOX589979 JYT589842:JYT589979 KIP589842:KIP589979 KSL589842:KSL589979 LCH589842:LCH589979 LMD589842:LMD589979 LVZ589842:LVZ589979 MFV589842:MFV589979 MPR589842:MPR589979 MZN589842:MZN589979 NJJ589842:NJJ589979 NTF589842:NTF589979 ODB589842:ODB589979 OMX589842:OMX589979 OWT589842:OWT589979 PGP589842:PGP589979 PQL589842:PQL589979 QAH589842:QAH589979 QKD589842:QKD589979 QTZ589842:QTZ589979 RDV589842:RDV589979 RNR589842:RNR589979 RXN589842:RXN589979 SHJ589842:SHJ589979 SRF589842:SRF589979 TBB589842:TBB589979 TKX589842:TKX589979 TUT589842:TUT589979 UEP589842:UEP589979 UOL589842:UOL589979 UYH589842:UYH589979 VID589842:VID589979 VRZ589842:VRZ589979 WBV589842:WBV589979 WLR589842:WLR589979 WVN589842:WVN589979 F655378:F655515 JB655378:JB655515 SX655378:SX655515 ACT655378:ACT655515 AMP655378:AMP655515 AWL655378:AWL655515 BGH655378:BGH655515 BQD655378:BQD655515 BZZ655378:BZZ655515 CJV655378:CJV655515 CTR655378:CTR655515 DDN655378:DDN655515 DNJ655378:DNJ655515 DXF655378:DXF655515 EHB655378:EHB655515 EQX655378:EQX655515 FAT655378:FAT655515 FKP655378:FKP655515 FUL655378:FUL655515 GEH655378:GEH655515 GOD655378:GOD655515 GXZ655378:GXZ655515 HHV655378:HHV655515 HRR655378:HRR655515 IBN655378:IBN655515 ILJ655378:ILJ655515 IVF655378:IVF655515 JFB655378:JFB655515 JOX655378:JOX655515 JYT655378:JYT655515 KIP655378:KIP655515 KSL655378:KSL655515 LCH655378:LCH655515 LMD655378:LMD655515 LVZ655378:LVZ655515 MFV655378:MFV655515 MPR655378:MPR655515 MZN655378:MZN655515 NJJ655378:NJJ655515 NTF655378:NTF655515 ODB655378:ODB655515 OMX655378:OMX655515 OWT655378:OWT655515 PGP655378:PGP655515 PQL655378:PQL655515 QAH655378:QAH655515 QKD655378:QKD655515 QTZ655378:QTZ655515 RDV655378:RDV655515 RNR655378:RNR655515 RXN655378:RXN655515 SHJ655378:SHJ655515 SRF655378:SRF655515 TBB655378:TBB655515 TKX655378:TKX655515 TUT655378:TUT655515 UEP655378:UEP655515 UOL655378:UOL655515 UYH655378:UYH655515 VID655378:VID655515 VRZ655378:VRZ655515 WBV655378:WBV655515 WLR655378:WLR655515 WVN655378:WVN655515 F720914:F721051 JB720914:JB721051 SX720914:SX721051 ACT720914:ACT721051 AMP720914:AMP721051 AWL720914:AWL721051 BGH720914:BGH721051 BQD720914:BQD721051 BZZ720914:BZZ721051 CJV720914:CJV721051 CTR720914:CTR721051 DDN720914:DDN721051 DNJ720914:DNJ721051 DXF720914:DXF721051 EHB720914:EHB721051 EQX720914:EQX721051 FAT720914:FAT721051 FKP720914:FKP721051 FUL720914:FUL721051 GEH720914:GEH721051 GOD720914:GOD721051 GXZ720914:GXZ721051 HHV720914:HHV721051 HRR720914:HRR721051 IBN720914:IBN721051 ILJ720914:ILJ721051 IVF720914:IVF721051 JFB720914:JFB721051 JOX720914:JOX721051 JYT720914:JYT721051 KIP720914:KIP721051 KSL720914:KSL721051 LCH720914:LCH721051 LMD720914:LMD721051 LVZ720914:LVZ721051 MFV720914:MFV721051 MPR720914:MPR721051 MZN720914:MZN721051 NJJ720914:NJJ721051 NTF720914:NTF721051 ODB720914:ODB721051 OMX720914:OMX721051 OWT720914:OWT721051 PGP720914:PGP721051 PQL720914:PQL721051 QAH720914:QAH721051 QKD720914:QKD721051 QTZ720914:QTZ721051 RDV720914:RDV721051 RNR720914:RNR721051 RXN720914:RXN721051 SHJ720914:SHJ721051 SRF720914:SRF721051 TBB720914:TBB721051 TKX720914:TKX721051 TUT720914:TUT721051 UEP720914:UEP721051 UOL720914:UOL721051 UYH720914:UYH721051 VID720914:VID721051 VRZ720914:VRZ721051 WBV720914:WBV721051 WLR720914:WLR721051 WVN720914:WVN721051 F786450:F786587 JB786450:JB786587 SX786450:SX786587 ACT786450:ACT786587 AMP786450:AMP786587 AWL786450:AWL786587 BGH786450:BGH786587 BQD786450:BQD786587 BZZ786450:BZZ786587 CJV786450:CJV786587 CTR786450:CTR786587 DDN786450:DDN786587 DNJ786450:DNJ786587 DXF786450:DXF786587 EHB786450:EHB786587 EQX786450:EQX786587 FAT786450:FAT786587 FKP786450:FKP786587 FUL786450:FUL786587 GEH786450:GEH786587 GOD786450:GOD786587 GXZ786450:GXZ786587 HHV786450:HHV786587 HRR786450:HRR786587 IBN786450:IBN786587 ILJ786450:ILJ786587 IVF786450:IVF786587 JFB786450:JFB786587 JOX786450:JOX786587 JYT786450:JYT786587 KIP786450:KIP786587 KSL786450:KSL786587 LCH786450:LCH786587 LMD786450:LMD786587 LVZ786450:LVZ786587 MFV786450:MFV786587 MPR786450:MPR786587 MZN786450:MZN786587 NJJ786450:NJJ786587 NTF786450:NTF786587 ODB786450:ODB786587 OMX786450:OMX786587 OWT786450:OWT786587 PGP786450:PGP786587 PQL786450:PQL786587 QAH786450:QAH786587 QKD786450:QKD786587 QTZ786450:QTZ786587 RDV786450:RDV786587 RNR786450:RNR786587 RXN786450:RXN786587 SHJ786450:SHJ786587 SRF786450:SRF786587 TBB786450:TBB786587 TKX786450:TKX786587 TUT786450:TUT786587 UEP786450:UEP786587 UOL786450:UOL786587 UYH786450:UYH786587 VID786450:VID786587 VRZ786450:VRZ786587 WBV786450:WBV786587 WLR786450:WLR786587 WVN786450:WVN786587 F851986:F852123 JB851986:JB852123 SX851986:SX852123 ACT851986:ACT852123 AMP851986:AMP852123 AWL851986:AWL852123 BGH851986:BGH852123 BQD851986:BQD852123 BZZ851986:BZZ852123 CJV851986:CJV852123 CTR851986:CTR852123 DDN851986:DDN852123 DNJ851986:DNJ852123 DXF851986:DXF852123 EHB851986:EHB852123 EQX851986:EQX852123 FAT851986:FAT852123 FKP851986:FKP852123 FUL851986:FUL852123 GEH851986:GEH852123 GOD851986:GOD852123 GXZ851986:GXZ852123 HHV851986:HHV852123 HRR851986:HRR852123 IBN851986:IBN852123 ILJ851986:ILJ852123 IVF851986:IVF852123 JFB851986:JFB852123 JOX851986:JOX852123 JYT851986:JYT852123 KIP851986:KIP852123 KSL851986:KSL852123 LCH851986:LCH852123 LMD851986:LMD852123 LVZ851986:LVZ852123 MFV851986:MFV852123 MPR851986:MPR852123 MZN851986:MZN852123 NJJ851986:NJJ852123 NTF851986:NTF852123 ODB851986:ODB852123 OMX851986:OMX852123 OWT851986:OWT852123 PGP851986:PGP852123 PQL851986:PQL852123 QAH851986:QAH852123 QKD851986:QKD852123 QTZ851986:QTZ852123 RDV851986:RDV852123 RNR851986:RNR852123 RXN851986:RXN852123 SHJ851986:SHJ852123 SRF851986:SRF852123 TBB851986:TBB852123 TKX851986:TKX852123 TUT851986:TUT852123 UEP851986:UEP852123 UOL851986:UOL852123 UYH851986:UYH852123 VID851986:VID852123 VRZ851986:VRZ852123 WBV851986:WBV852123 WLR851986:WLR852123 WVN851986:WVN852123 F917522:F917659 JB917522:JB917659 SX917522:SX917659 ACT917522:ACT917659 AMP917522:AMP917659 AWL917522:AWL917659 BGH917522:BGH917659 BQD917522:BQD917659 BZZ917522:BZZ917659 CJV917522:CJV917659 CTR917522:CTR917659 DDN917522:DDN917659 DNJ917522:DNJ917659 DXF917522:DXF917659 EHB917522:EHB917659 EQX917522:EQX917659 FAT917522:FAT917659 FKP917522:FKP917659 FUL917522:FUL917659 GEH917522:GEH917659 GOD917522:GOD917659 GXZ917522:GXZ917659 HHV917522:HHV917659 HRR917522:HRR917659 IBN917522:IBN917659 ILJ917522:ILJ917659 IVF917522:IVF917659 JFB917522:JFB917659 JOX917522:JOX917659 JYT917522:JYT917659 KIP917522:KIP917659 KSL917522:KSL917659 LCH917522:LCH917659 LMD917522:LMD917659 LVZ917522:LVZ917659 MFV917522:MFV917659 MPR917522:MPR917659 MZN917522:MZN917659 NJJ917522:NJJ917659 NTF917522:NTF917659 ODB917522:ODB917659 OMX917522:OMX917659 OWT917522:OWT917659 PGP917522:PGP917659 PQL917522:PQL917659 QAH917522:QAH917659 QKD917522:QKD917659 QTZ917522:QTZ917659 RDV917522:RDV917659 RNR917522:RNR917659 RXN917522:RXN917659 SHJ917522:SHJ917659 SRF917522:SRF917659 TBB917522:TBB917659 TKX917522:TKX917659 TUT917522:TUT917659 UEP917522:UEP917659 UOL917522:UOL917659 UYH917522:UYH917659 VID917522:VID917659 VRZ917522:VRZ917659 WBV917522:WBV917659 WLR917522:WLR917659 WVN917522:WVN917659 F983058:F983195 JB983058:JB983195 SX983058:SX983195 ACT983058:ACT983195 AMP983058:AMP983195 AWL983058:AWL983195 BGH983058:BGH983195 BQD983058:BQD983195 BZZ983058:BZZ983195 CJV983058:CJV983195 CTR983058:CTR983195 DDN983058:DDN983195 DNJ983058:DNJ983195 DXF983058:DXF983195 EHB983058:EHB983195 EQX983058:EQX983195 FAT983058:FAT983195 FKP983058:FKP983195 FUL983058:FUL983195 GEH983058:GEH983195 GOD983058:GOD983195 GXZ983058:GXZ983195 HHV983058:HHV983195 HRR983058:HRR983195 IBN983058:IBN983195 ILJ983058:ILJ983195 IVF983058:IVF983195 JFB983058:JFB983195 JOX983058:JOX983195 JYT983058:JYT983195 KIP983058:KIP983195 KSL983058:KSL983195 LCH983058:LCH983195 LMD983058:LMD983195 LVZ983058:LVZ983195 MFV983058:MFV983195 MPR983058:MPR983195 MZN983058:MZN983195 NJJ983058:NJJ983195 NTF983058:NTF983195 ODB983058:ODB983195 OMX983058:OMX983195 OWT983058:OWT983195 PGP983058:PGP983195 PQL983058:PQL983195 QAH983058:QAH983195 QKD983058:QKD983195 QTZ983058:QTZ983195 RDV983058:RDV983195 RNR983058:RNR983195 RXN983058:RXN983195 SHJ983058:SHJ983195 SRF983058:SRF983195 TBB983058:TBB983195 TKX983058:TKX983195 TUT983058:TUT983195 UEP983058:UEP983195 UOL983058:UOL983195 UYH983058:UYH983195 VID983058:VID983195 VRZ983058:VRZ983195 WBV983058:WBV983195 WLR983058:WLR983195 JB7:JB155 SX7:SX155 ACT7:ACT155 AMP7:AMP155 AWL7:AWL155 BGH7:BGH155 BQD7:BQD155 BZZ7:BZZ155 CJV7:CJV155 CTR7:CTR155 DDN7:DDN155 DNJ7:DNJ155 DXF7:DXF155 EHB7:EHB155 EQX7:EQX155 FAT7:FAT155 FKP7:FKP155 FUL7:FUL155 GEH7:GEH155 GOD7:GOD155 GXZ7:GXZ155 HHV7:HHV155 HRR7:HRR155 IBN7:IBN155 ILJ7:ILJ155 IVF7:IVF155 JFB7:JFB155 JOX7:JOX155 JYT7:JYT155 KIP7:KIP155 KSL7:KSL155 LCH7:LCH155 LMD7:LMD155 LVZ7:LVZ155 MFV7:MFV155 MPR7:MPR155 MZN7:MZN155 NJJ7:NJJ155 NTF7:NTF155 ODB7:ODB155 OMX7:OMX155 OWT7:OWT155 PGP7:PGP155 PQL7:PQL155 QAH7:QAH155 QKD7:QKD155 QTZ7:QTZ155 RDV7:RDV155 RNR7:RNR155 RXN7:RXN155 SHJ7:SHJ155 SRF7:SRF155 TBB7:TBB155 TKX7:TKX155 TUT7:TUT155 UEP7:UEP155 UOL7:UOL155 UYH7:UYH155 VID7:VID155 VRZ7:VRZ155 WBV7:WBV155 WLR7:WLR155 WVN7:WVN155 F7:F94 F96:F155">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 JB1:JB3 SX1:SX3 ACT1:ACT3 AMP1:AMP3 AWL1:AWL3 BGH1:BGH3 BQD1:BQD3 BZZ1:BZZ3 CJV1:CJV3 CTR1:CTR3 DDN1:DDN3 DNJ1:DNJ3 DXF1:DXF3 EHB1:EHB3 EQX1:EQX3 FAT1:FAT3 FKP1:FKP3 FUL1:FUL3 GEH1:GEH3 GOD1:GOD3 GXZ1:GXZ3 HHV1:HHV3 HRR1:HRR3 IBN1:IBN3 ILJ1:ILJ3 IVF1:IVF3 JFB1:JFB3 JOX1:JOX3 JYT1:JYT3 KIP1:KIP3 KSL1:KSL3 LCH1:LCH3 LMD1:LMD3 LVZ1:LVZ3 MFV1:MFV3 MPR1:MPR3 MZN1:MZN3 NJJ1:NJJ3 NTF1:NTF3 ODB1:ODB3 OMX1:OMX3 OWT1:OWT3 PGP1:PGP3 PQL1:PQL3 QAH1:QAH3 QKD1:QKD3 QTZ1:QTZ3 RDV1:RDV3 RNR1:RNR3 RXN1:RXN3 SHJ1:SHJ3 SRF1:SRF3 TBB1:TBB3 TKX1:TKX3 TUT1:TUT3 UEP1:UEP3 UOL1:UOL3 UYH1:UYH3 VID1:VID3 VRZ1:VRZ3 WBV1:WBV3 WLR1:WLR3 WVN1:WVN3 F65543:F65545 JB65548:JB65550 SX65548:SX65550 ACT65548:ACT65550 AMP65548:AMP65550 AWL65548:AWL65550 BGH65548:BGH65550 BQD65548:BQD65550 BZZ65548:BZZ65550 CJV65548:CJV65550 CTR65548:CTR65550 DDN65548:DDN65550 DNJ65548:DNJ65550 DXF65548:DXF65550 EHB65548:EHB65550 EQX65548:EQX65550 FAT65548:FAT65550 FKP65548:FKP65550 FUL65548:FUL65550 GEH65548:GEH65550 GOD65548:GOD65550 GXZ65548:GXZ65550 HHV65548:HHV65550 HRR65548:HRR65550 IBN65548:IBN65550 ILJ65548:ILJ65550 IVF65548:IVF65550 JFB65548:JFB65550 JOX65548:JOX65550 JYT65548:JYT65550 KIP65548:KIP65550 KSL65548:KSL65550 LCH65548:LCH65550 LMD65548:LMD65550 LVZ65548:LVZ65550 MFV65548:MFV65550 MPR65548:MPR65550 MZN65548:MZN65550 NJJ65548:NJJ65550 NTF65548:NTF65550 ODB65548:ODB65550 OMX65548:OMX65550 OWT65548:OWT65550 PGP65548:PGP65550 PQL65548:PQL65550 QAH65548:QAH65550 QKD65548:QKD65550 QTZ65548:QTZ65550 RDV65548:RDV65550 RNR65548:RNR65550 RXN65548:RXN65550 SHJ65548:SHJ65550 SRF65548:SRF65550 TBB65548:TBB65550 TKX65548:TKX65550 TUT65548:TUT65550 UEP65548:UEP65550 UOL65548:UOL65550 UYH65548:UYH65550 VID65548:VID65550 VRZ65548:VRZ65550 WBV65548:WBV65550 WLR65548:WLR65550 WVN65548:WVN65550 F131079:F131081 JB131084:JB131086 SX131084:SX131086 ACT131084:ACT131086 AMP131084:AMP131086 AWL131084:AWL131086 BGH131084:BGH131086 BQD131084:BQD131086 BZZ131084:BZZ131086 CJV131084:CJV131086 CTR131084:CTR131086 DDN131084:DDN131086 DNJ131084:DNJ131086 DXF131084:DXF131086 EHB131084:EHB131086 EQX131084:EQX131086 FAT131084:FAT131086 FKP131084:FKP131086 FUL131084:FUL131086 GEH131084:GEH131086 GOD131084:GOD131086 GXZ131084:GXZ131086 HHV131084:HHV131086 HRR131084:HRR131086 IBN131084:IBN131086 ILJ131084:ILJ131086 IVF131084:IVF131086 JFB131084:JFB131086 JOX131084:JOX131086 JYT131084:JYT131086 KIP131084:KIP131086 KSL131084:KSL131086 LCH131084:LCH131086 LMD131084:LMD131086 LVZ131084:LVZ131086 MFV131084:MFV131086 MPR131084:MPR131086 MZN131084:MZN131086 NJJ131084:NJJ131086 NTF131084:NTF131086 ODB131084:ODB131086 OMX131084:OMX131086 OWT131084:OWT131086 PGP131084:PGP131086 PQL131084:PQL131086 QAH131084:QAH131086 QKD131084:QKD131086 QTZ131084:QTZ131086 RDV131084:RDV131086 RNR131084:RNR131086 RXN131084:RXN131086 SHJ131084:SHJ131086 SRF131084:SRF131086 TBB131084:TBB131086 TKX131084:TKX131086 TUT131084:TUT131086 UEP131084:UEP131086 UOL131084:UOL131086 UYH131084:UYH131086 VID131084:VID131086 VRZ131084:VRZ131086 WBV131084:WBV131086 WLR131084:WLR131086 WVN131084:WVN131086 F196615:F196617 JB196620:JB196622 SX196620:SX196622 ACT196620:ACT196622 AMP196620:AMP196622 AWL196620:AWL196622 BGH196620:BGH196622 BQD196620:BQD196622 BZZ196620:BZZ196622 CJV196620:CJV196622 CTR196620:CTR196622 DDN196620:DDN196622 DNJ196620:DNJ196622 DXF196620:DXF196622 EHB196620:EHB196622 EQX196620:EQX196622 FAT196620:FAT196622 FKP196620:FKP196622 FUL196620:FUL196622 GEH196620:GEH196622 GOD196620:GOD196622 GXZ196620:GXZ196622 HHV196620:HHV196622 HRR196620:HRR196622 IBN196620:IBN196622 ILJ196620:ILJ196622 IVF196620:IVF196622 JFB196620:JFB196622 JOX196620:JOX196622 JYT196620:JYT196622 KIP196620:KIP196622 KSL196620:KSL196622 LCH196620:LCH196622 LMD196620:LMD196622 LVZ196620:LVZ196622 MFV196620:MFV196622 MPR196620:MPR196622 MZN196620:MZN196622 NJJ196620:NJJ196622 NTF196620:NTF196622 ODB196620:ODB196622 OMX196620:OMX196622 OWT196620:OWT196622 PGP196620:PGP196622 PQL196620:PQL196622 QAH196620:QAH196622 QKD196620:QKD196622 QTZ196620:QTZ196622 RDV196620:RDV196622 RNR196620:RNR196622 RXN196620:RXN196622 SHJ196620:SHJ196622 SRF196620:SRF196622 TBB196620:TBB196622 TKX196620:TKX196622 TUT196620:TUT196622 UEP196620:UEP196622 UOL196620:UOL196622 UYH196620:UYH196622 VID196620:VID196622 VRZ196620:VRZ196622 WBV196620:WBV196622 WLR196620:WLR196622 WVN196620:WVN196622 F262151:F262153 JB262156:JB262158 SX262156:SX262158 ACT262156:ACT262158 AMP262156:AMP262158 AWL262156:AWL262158 BGH262156:BGH262158 BQD262156:BQD262158 BZZ262156:BZZ262158 CJV262156:CJV262158 CTR262156:CTR262158 DDN262156:DDN262158 DNJ262156:DNJ262158 DXF262156:DXF262158 EHB262156:EHB262158 EQX262156:EQX262158 FAT262156:FAT262158 FKP262156:FKP262158 FUL262156:FUL262158 GEH262156:GEH262158 GOD262156:GOD262158 GXZ262156:GXZ262158 HHV262156:HHV262158 HRR262156:HRR262158 IBN262156:IBN262158 ILJ262156:ILJ262158 IVF262156:IVF262158 JFB262156:JFB262158 JOX262156:JOX262158 JYT262156:JYT262158 KIP262156:KIP262158 KSL262156:KSL262158 LCH262156:LCH262158 LMD262156:LMD262158 LVZ262156:LVZ262158 MFV262156:MFV262158 MPR262156:MPR262158 MZN262156:MZN262158 NJJ262156:NJJ262158 NTF262156:NTF262158 ODB262156:ODB262158 OMX262156:OMX262158 OWT262156:OWT262158 PGP262156:PGP262158 PQL262156:PQL262158 QAH262156:QAH262158 QKD262156:QKD262158 QTZ262156:QTZ262158 RDV262156:RDV262158 RNR262156:RNR262158 RXN262156:RXN262158 SHJ262156:SHJ262158 SRF262156:SRF262158 TBB262156:TBB262158 TKX262156:TKX262158 TUT262156:TUT262158 UEP262156:UEP262158 UOL262156:UOL262158 UYH262156:UYH262158 VID262156:VID262158 VRZ262156:VRZ262158 WBV262156:WBV262158 WLR262156:WLR262158 WVN262156:WVN262158 F327687:F327689 JB327692:JB327694 SX327692:SX327694 ACT327692:ACT327694 AMP327692:AMP327694 AWL327692:AWL327694 BGH327692:BGH327694 BQD327692:BQD327694 BZZ327692:BZZ327694 CJV327692:CJV327694 CTR327692:CTR327694 DDN327692:DDN327694 DNJ327692:DNJ327694 DXF327692:DXF327694 EHB327692:EHB327694 EQX327692:EQX327694 FAT327692:FAT327694 FKP327692:FKP327694 FUL327692:FUL327694 GEH327692:GEH327694 GOD327692:GOD327694 GXZ327692:GXZ327694 HHV327692:HHV327694 HRR327692:HRR327694 IBN327692:IBN327694 ILJ327692:ILJ327694 IVF327692:IVF327694 JFB327692:JFB327694 JOX327692:JOX327694 JYT327692:JYT327694 KIP327692:KIP327694 KSL327692:KSL327694 LCH327692:LCH327694 LMD327692:LMD327694 LVZ327692:LVZ327694 MFV327692:MFV327694 MPR327692:MPR327694 MZN327692:MZN327694 NJJ327692:NJJ327694 NTF327692:NTF327694 ODB327692:ODB327694 OMX327692:OMX327694 OWT327692:OWT327694 PGP327692:PGP327694 PQL327692:PQL327694 QAH327692:QAH327694 QKD327692:QKD327694 QTZ327692:QTZ327694 RDV327692:RDV327694 RNR327692:RNR327694 RXN327692:RXN327694 SHJ327692:SHJ327694 SRF327692:SRF327694 TBB327692:TBB327694 TKX327692:TKX327694 TUT327692:TUT327694 UEP327692:UEP327694 UOL327692:UOL327694 UYH327692:UYH327694 VID327692:VID327694 VRZ327692:VRZ327694 WBV327692:WBV327694 WLR327692:WLR327694 WVN327692:WVN327694 F393223:F393225 JB393228:JB393230 SX393228:SX393230 ACT393228:ACT393230 AMP393228:AMP393230 AWL393228:AWL393230 BGH393228:BGH393230 BQD393228:BQD393230 BZZ393228:BZZ393230 CJV393228:CJV393230 CTR393228:CTR393230 DDN393228:DDN393230 DNJ393228:DNJ393230 DXF393228:DXF393230 EHB393228:EHB393230 EQX393228:EQX393230 FAT393228:FAT393230 FKP393228:FKP393230 FUL393228:FUL393230 GEH393228:GEH393230 GOD393228:GOD393230 GXZ393228:GXZ393230 HHV393228:HHV393230 HRR393228:HRR393230 IBN393228:IBN393230 ILJ393228:ILJ393230 IVF393228:IVF393230 JFB393228:JFB393230 JOX393228:JOX393230 JYT393228:JYT393230 KIP393228:KIP393230 KSL393228:KSL393230 LCH393228:LCH393230 LMD393228:LMD393230 LVZ393228:LVZ393230 MFV393228:MFV393230 MPR393228:MPR393230 MZN393228:MZN393230 NJJ393228:NJJ393230 NTF393228:NTF393230 ODB393228:ODB393230 OMX393228:OMX393230 OWT393228:OWT393230 PGP393228:PGP393230 PQL393228:PQL393230 QAH393228:QAH393230 QKD393228:QKD393230 QTZ393228:QTZ393230 RDV393228:RDV393230 RNR393228:RNR393230 RXN393228:RXN393230 SHJ393228:SHJ393230 SRF393228:SRF393230 TBB393228:TBB393230 TKX393228:TKX393230 TUT393228:TUT393230 UEP393228:UEP393230 UOL393228:UOL393230 UYH393228:UYH393230 VID393228:VID393230 VRZ393228:VRZ393230 WBV393228:WBV393230 WLR393228:WLR393230 WVN393228:WVN393230 F458759:F458761 JB458764:JB458766 SX458764:SX458766 ACT458764:ACT458766 AMP458764:AMP458766 AWL458764:AWL458766 BGH458764:BGH458766 BQD458764:BQD458766 BZZ458764:BZZ458766 CJV458764:CJV458766 CTR458764:CTR458766 DDN458764:DDN458766 DNJ458764:DNJ458766 DXF458764:DXF458766 EHB458764:EHB458766 EQX458764:EQX458766 FAT458764:FAT458766 FKP458764:FKP458766 FUL458764:FUL458766 GEH458764:GEH458766 GOD458764:GOD458766 GXZ458764:GXZ458766 HHV458764:HHV458766 HRR458764:HRR458766 IBN458764:IBN458766 ILJ458764:ILJ458766 IVF458764:IVF458766 JFB458764:JFB458766 JOX458764:JOX458766 JYT458764:JYT458766 KIP458764:KIP458766 KSL458764:KSL458766 LCH458764:LCH458766 LMD458764:LMD458766 LVZ458764:LVZ458766 MFV458764:MFV458766 MPR458764:MPR458766 MZN458764:MZN458766 NJJ458764:NJJ458766 NTF458764:NTF458766 ODB458764:ODB458766 OMX458764:OMX458766 OWT458764:OWT458766 PGP458764:PGP458766 PQL458764:PQL458766 QAH458764:QAH458766 QKD458764:QKD458766 QTZ458764:QTZ458766 RDV458764:RDV458766 RNR458764:RNR458766 RXN458764:RXN458766 SHJ458764:SHJ458766 SRF458764:SRF458766 TBB458764:TBB458766 TKX458764:TKX458766 TUT458764:TUT458766 UEP458764:UEP458766 UOL458764:UOL458766 UYH458764:UYH458766 VID458764:VID458766 VRZ458764:VRZ458766 WBV458764:WBV458766 WLR458764:WLR458766 WVN458764:WVN458766 F524295:F524297 JB524300:JB524302 SX524300:SX524302 ACT524300:ACT524302 AMP524300:AMP524302 AWL524300:AWL524302 BGH524300:BGH524302 BQD524300:BQD524302 BZZ524300:BZZ524302 CJV524300:CJV524302 CTR524300:CTR524302 DDN524300:DDN524302 DNJ524300:DNJ524302 DXF524300:DXF524302 EHB524300:EHB524302 EQX524300:EQX524302 FAT524300:FAT524302 FKP524300:FKP524302 FUL524300:FUL524302 GEH524300:GEH524302 GOD524300:GOD524302 GXZ524300:GXZ524302 HHV524300:HHV524302 HRR524300:HRR524302 IBN524300:IBN524302 ILJ524300:ILJ524302 IVF524300:IVF524302 JFB524300:JFB524302 JOX524300:JOX524302 JYT524300:JYT524302 KIP524300:KIP524302 KSL524300:KSL524302 LCH524300:LCH524302 LMD524300:LMD524302 LVZ524300:LVZ524302 MFV524300:MFV524302 MPR524300:MPR524302 MZN524300:MZN524302 NJJ524300:NJJ524302 NTF524300:NTF524302 ODB524300:ODB524302 OMX524300:OMX524302 OWT524300:OWT524302 PGP524300:PGP524302 PQL524300:PQL524302 QAH524300:QAH524302 QKD524300:QKD524302 QTZ524300:QTZ524302 RDV524300:RDV524302 RNR524300:RNR524302 RXN524300:RXN524302 SHJ524300:SHJ524302 SRF524300:SRF524302 TBB524300:TBB524302 TKX524300:TKX524302 TUT524300:TUT524302 UEP524300:UEP524302 UOL524300:UOL524302 UYH524300:UYH524302 VID524300:VID524302 VRZ524300:VRZ524302 WBV524300:WBV524302 WLR524300:WLR524302 WVN524300:WVN524302 F589831:F589833 JB589836:JB589838 SX589836:SX589838 ACT589836:ACT589838 AMP589836:AMP589838 AWL589836:AWL589838 BGH589836:BGH589838 BQD589836:BQD589838 BZZ589836:BZZ589838 CJV589836:CJV589838 CTR589836:CTR589838 DDN589836:DDN589838 DNJ589836:DNJ589838 DXF589836:DXF589838 EHB589836:EHB589838 EQX589836:EQX589838 FAT589836:FAT589838 FKP589836:FKP589838 FUL589836:FUL589838 GEH589836:GEH589838 GOD589836:GOD589838 GXZ589836:GXZ589838 HHV589836:HHV589838 HRR589836:HRR589838 IBN589836:IBN589838 ILJ589836:ILJ589838 IVF589836:IVF589838 JFB589836:JFB589838 JOX589836:JOX589838 JYT589836:JYT589838 KIP589836:KIP589838 KSL589836:KSL589838 LCH589836:LCH589838 LMD589836:LMD589838 LVZ589836:LVZ589838 MFV589836:MFV589838 MPR589836:MPR589838 MZN589836:MZN589838 NJJ589836:NJJ589838 NTF589836:NTF589838 ODB589836:ODB589838 OMX589836:OMX589838 OWT589836:OWT589838 PGP589836:PGP589838 PQL589836:PQL589838 QAH589836:QAH589838 QKD589836:QKD589838 QTZ589836:QTZ589838 RDV589836:RDV589838 RNR589836:RNR589838 RXN589836:RXN589838 SHJ589836:SHJ589838 SRF589836:SRF589838 TBB589836:TBB589838 TKX589836:TKX589838 TUT589836:TUT589838 UEP589836:UEP589838 UOL589836:UOL589838 UYH589836:UYH589838 VID589836:VID589838 VRZ589836:VRZ589838 WBV589836:WBV589838 WLR589836:WLR589838 WVN589836:WVN589838 F655367:F655369 JB655372:JB655374 SX655372:SX655374 ACT655372:ACT655374 AMP655372:AMP655374 AWL655372:AWL655374 BGH655372:BGH655374 BQD655372:BQD655374 BZZ655372:BZZ655374 CJV655372:CJV655374 CTR655372:CTR655374 DDN655372:DDN655374 DNJ655372:DNJ655374 DXF655372:DXF655374 EHB655372:EHB655374 EQX655372:EQX655374 FAT655372:FAT655374 FKP655372:FKP655374 FUL655372:FUL655374 GEH655372:GEH655374 GOD655372:GOD655374 GXZ655372:GXZ655374 HHV655372:HHV655374 HRR655372:HRR655374 IBN655372:IBN655374 ILJ655372:ILJ655374 IVF655372:IVF655374 JFB655372:JFB655374 JOX655372:JOX655374 JYT655372:JYT655374 KIP655372:KIP655374 KSL655372:KSL655374 LCH655372:LCH655374 LMD655372:LMD655374 LVZ655372:LVZ655374 MFV655372:MFV655374 MPR655372:MPR655374 MZN655372:MZN655374 NJJ655372:NJJ655374 NTF655372:NTF655374 ODB655372:ODB655374 OMX655372:OMX655374 OWT655372:OWT655374 PGP655372:PGP655374 PQL655372:PQL655374 QAH655372:QAH655374 QKD655372:QKD655374 QTZ655372:QTZ655374 RDV655372:RDV655374 RNR655372:RNR655374 RXN655372:RXN655374 SHJ655372:SHJ655374 SRF655372:SRF655374 TBB655372:TBB655374 TKX655372:TKX655374 TUT655372:TUT655374 UEP655372:UEP655374 UOL655372:UOL655374 UYH655372:UYH655374 VID655372:VID655374 VRZ655372:VRZ655374 WBV655372:WBV655374 WLR655372:WLR655374 WVN655372:WVN655374 F720903:F720905 JB720908:JB720910 SX720908:SX720910 ACT720908:ACT720910 AMP720908:AMP720910 AWL720908:AWL720910 BGH720908:BGH720910 BQD720908:BQD720910 BZZ720908:BZZ720910 CJV720908:CJV720910 CTR720908:CTR720910 DDN720908:DDN720910 DNJ720908:DNJ720910 DXF720908:DXF720910 EHB720908:EHB720910 EQX720908:EQX720910 FAT720908:FAT720910 FKP720908:FKP720910 FUL720908:FUL720910 GEH720908:GEH720910 GOD720908:GOD720910 GXZ720908:GXZ720910 HHV720908:HHV720910 HRR720908:HRR720910 IBN720908:IBN720910 ILJ720908:ILJ720910 IVF720908:IVF720910 JFB720908:JFB720910 JOX720908:JOX720910 JYT720908:JYT720910 KIP720908:KIP720910 KSL720908:KSL720910 LCH720908:LCH720910 LMD720908:LMD720910 LVZ720908:LVZ720910 MFV720908:MFV720910 MPR720908:MPR720910 MZN720908:MZN720910 NJJ720908:NJJ720910 NTF720908:NTF720910 ODB720908:ODB720910 OMX720908:OMX720910 OWT720908:OWT720910 PGP720908:PGP720910 PQL720908:PQL720910 QAH720908:QAH720910 QKD720908:QKD720910 QTZ720908:QTZ720910 RDV720908:RDV720910 RNR720908:RNR720910 RXN720908:RXN720910 SHJ720908:SHJ720910 SRF720908:SRF720910 TBB720908:TBB720910 TKX720908:TKX720910 TUT720908:TUT720910 UEP720908:UEP720910 UOL720908:UOL720910 UYH720908:UYH720910 VID720908:VID720910 VRZ720908:VRZ720910 WBV720908:WBV720910 WLR720908:WLR720910 WVN720908:WVN720910 F786439:F786441 JB786444:JB786446 SX786444:SX786446 ACT786444:ACT786446 AMP786444:AMP786446 AWL786444:AWL786446 BGH786444:BGH786446 BQD786444:BQD786446 BZZ786444:BZZ786446 CJV786444:CJV786446 CTR786444:CTR786446 DDN786444:DDN786446 DNJ786444:DNJ786446 DXF786444:DXF786446 EHB786444:EHB786446 EQX786444:EQX786446 FAT786444:FAT786446 FKP786444:FKP786446 FUL786444:FUL786446 GEH786444:GEH786446 GOD786444:GOD786446 GXZ786444:GXZ786446 HHV786444:HHV786446 HRR786444:HRR786446 IBN786444:IBN786446 ILJ786444:ILJ786446 IVF786444:IVF786446 JFB786444:JFB786446 JOX786444:JOX786446 JYT786444:JYT786446 KIP786444:KIP786446 KSL786444:KSL786446 LCH786444:LCH786446 LMD786444:LMD786446 LVZ786444:LVZ786446 MFV786444:MFV786446 MPR786444:MPR786446 MZN786444:MZN786446 NJJ786444:NJJ786446 NTF786444:NTF786446 ODB786444:ODB786446 OMX786444:OMX786446 OWT786444:OWT786446 PGP786444:PGP786446 PQL786444:PQL786446 QAH786444:QAH786446 QKD786444:QKD786446 QTZ786444:QTZ786446 RDV786444:RDV786446 RNR786444:RNR786446 RXN786444:RXN786446 SHJ786444:SHJ786446 SRF786444:SRF786446 TBB786444:TBB786446 TKX786444:TKX786446 TUT786444:TUT786446 UEP786444:UEP786446 UOL786444:UOL786446 UYH786444:UYH786446 VID786444:VID786446 VRZ786444:VRZ786446 WBV786444:WBV786446 WLR786444:WLR786446 WVN786444:WVN786446 F851975:F851977 JB851980:JB851982 SX851980:SX851982 ACT851980:ACT851982 AMP851980:AMP851982 AWL851980:AWL851982 BGH851980:BGH851982 BQD851980:BQD851982 BZZ851980:BZZ851982 CJV851980:CJV851982 CTR851980:CTR851982 DDN851980:DDN851982 DNJ851980:DNJ851982 DXF851980:DXF851982 EHB851980:EHB851982 EQX851980:EQX851982 FAT851980:FAT851982 FKP851980:FKP851982 FUL851980:FUL851982 GEH851980:GEH851982 GOD851980:GOD851982 GXZ851980:GXZ851982 HHV851980:HHV851982 HRR851980:HRR851982 IBN851980:IBN851982 ILJ851980:ILJ851982 IVF851980:IVF851982 JFB851980:JFB851982 JOX851980:JOX851982 JYT851980:JYT851982 KIP851980:KIP851982 KSL851980:KSL851982 LCH851980:LCH851982 LMD851980:LMD851982 LVZ851980:LVZ851982 MFV851980:MFV851982 MPR851980:MPR851982 MZN851980:MZN851982 NJJ851980:NJJ851982 NTF851980:NTF851982 ODB851980:ODB851982 OMX851980:OMX851982 OWT851980:OWT851982 PGP851980:PGP851982 PQL851980:PQL851982 QAH851980:QAH851982 QKD851980:QKD851982 QTZ851980:QTZ851982 RDV851980:RDV851982 RNR851980:RNR851982 RXN851980:RXN851982 SHJ851980:SHJ851982 SRF851980:SRF851982 TBB851980:TBB851982 TKX851980:TKX851982 TUT851980:TUT851982 UEP851980:UEP851982 UOL851980:UOL851982 UYH851980:UYH851982 VID851980:VID851982 VRZ851980:VRZ851982 WBV851980:WBV851982 WLR851980:WLR851982 WVN851980:WVN851982 F917511:F917513 JB917516:JB917518 SX917516:SX917518 ACT917516:ACT917518 AMP917516:AMP917518 AWL917516:AWL917518 BGH917516:BGH917518 BQD917516:BQD917518 BZZ917516:BZZ917518 CJV917516:CJV917518 CTR917516:CTR917518 DDN917516:DDN917518 DNJ917516:DNJ917518 DXF917516:DXF917518 EHB917516:EHB917518 EQX917516:EQX917518 FAT917516:FAT917518 FKP917516:FKP917518 FUL917516:FUL917518 GEH917516:GEH917518 GOD917516:GOD917518 GXZ917516:GXZ917518 HHV917516:HHV917518 HRR917516:HRR917518 IBN917516:IBN917518 ILJ917516:ILJ917518 IVF917516:IVF917518 JFB917516:JFB917518 JOX917516:JOX917518 JYT917516:JYT917518 KIP917516:KIP917518 KSL917516:KSL917518 LCH917516:LCH917518 LMD917516:LMD917518 LVZ917516:LVZ917518 MFV917516:MFV917518 MPR917516:MPR917518 MZN917516:MZN917518 NJJ917516:NJJ917518 NTF917516:NTF917518 ODB917516:ODB917518 OMX917516:OMX917518 OWT917516:OWT917518 PGP917516:PGP917518 PQL917516:PQL917518 QAH917516:QAH917518 QKD917516:QKD917518 QTZ917516:QTZ917518 RDV917516:RDV917518 RNR917516:RNR917518 RXN917516:RXN917518 SHJ917516:SHJ917518 SRF917516:SRF917518 TBB917516:TBB917518 TKX917516:TKX917518 TUT917516:TUT917518 UEP917516:UEP917518 UOL917516:UOL917518 UYH917516:UYH917518 VID917516:VID917518 VRZ917516:VRZ917518 WBV917516:WBV917518 WLR917516:WLR917518 WVN917516:WVN917518 F983047:F983049 JB983052:JB983054 SX983052:SX983054 ACT983052:ACT983054 AMP983052:AMP983054 AWL983052:AWL983054 BGH983052:BGH983054 BQD983052:BQD983054 BZZ983052:BZZ983054 CJV983052:CJV983054 CTR983052:CTR983054 DDN983052:DDN983054 DNJ983052:DNJ983054 DXF983052:DXF983054 EHB983052:EHB983054 EQX983052:EQX983054 FAT983052:FAT983054 FKP983052:FKP983054 FUL983052:FUL983054 GEH983052:GEH983054 GOD983052:GOD983054 GXZ983052:GXZ983054 HHV983052:HHV983054 HRR983052:HRR983054 IBN983052:IBN983054 ILJ983052:ILJ983054 IVF983052:IVF983054 JFB983052:JFB983054 JOX983052:JOX983054 JYT983052:JYT983054 KIP983052:KIP983054 KSL983052:KSL983054 LCH983052:LCH983054 LMD983052:LMD983054 LVZ983052:LVZ983054 MFV983052:MFV983054 MPR983052:MPR983054 MZN983052:MZN983054 NJJ983052:NJJ983054 NTF983052:NTF983054 ODB983052:ODB983054 OMX983052:OMX983054 OWT983052:OWT983054 PGP983052:PGP983054 PQL983052:PQL983054 QAH983052:QAH983054 QKD983052:QKD983054 QTZ983052:QTZ983054 RDV983052:RDV983054 RNR983052:RNR983054 RXN983052:RXN983054 SHJ983052:SHJ983054 SRF983052:SRF983054 TBB983052:TBB983054 TKX983052:TKX983054 TUT983052:TUT983054 UEP983052:UEP983054 UOL983052:UOL983054 UYH983052:UYH983054 VID983052:VID983054 VRZ983052:VRZ983054 WBV983052:WBV983054 WLR983052:WLR983054 WVN983052:WVN983054 WVN983058:WVN983195 F65549:F65686 JB65554:JB65691 SX65554:SX65691 ACT65554:ACT65691 AMP65554:AMP65691 AWL65554:AWL65691 BGH65554:BGH65691 BQD65554:BQD65691 BZZ65554:BZZ65691 CJV65554:CJV65691 CTR65554:CTR65691 DDN65554:DDN65691 DNJ65554:DNJ65691 DXF65554:DXF65691 EHB65554:EHB65691 EQX65554:EQX65691 FAT65554:FAT65691 FKP65554:FKP65691 FUL65554:FUL65691 GEH65554:GEH65691 GOD65554:GOD65691 GXZ65554:GXZ65691 HHV65554:HHV65691 HRR65554:HRR65691 IBN65554:IBN65691 ILJ65554:ILJ65691 IVF65554:IVF65691 JFB65554:JFB65691 JOX65554:JOX65691 JYT65554:JYT65691 KIP65554:KIP65691 KSL65554:KSL65691 LCH65554:LCH65691 LMD65554:LMD65691 LVZ65554:LVZ65691 MFV65554:MFV65691 MPR65554:MPR65691 MZN65554:MZN65691 NJJ65554:NJJ65691 NTF65554:NTF65691 ODB65554:ODB65691 OMX65554:OMX65691 OWT65554:OWT65691 PGP65554:PGP65691 PQL65554:PQL65691 QAH65554:QAH65691 QKD65554:QKD65691 QTZ65554:QTZ65691 RDV65554:RDV65691 RNR65554:RNR65691 RXN65554:RXN65691 SHJ65554:SHJ65691 SRF65554:SRF65691 TBB65554:TBB65691 TKX65554:TKX65691 TUT65554:TUT65691 UEP65554:UEP65691 UOL65554:UOL65691 UYH65554:UYH65691 VID65554:VID65691 VRZ65554:VRZ65691 WBV65554:WBV65691 WLR65554:WLR65691 WVN65554:WVN65691 F131085:F131222 JB131090:JB131227 SX131090:SX131227 ACT131090:ACT131227 AMP131090:AMP131227 AWL131090:AWL131227 BGH131090:BGH131227 BQD131090:BQD131227 BZZ131090:BZZ131227 CJV131090:CJV131227 CTR131090:CTR131227 DDN131090:DDN131227 DNJ131090:DNJ131227 DXF131090:DXF131227 EHB131090:EHB131227 EQX131090:EQX131227 FAT131090:FAT131227 FKP131090:FKP131227 FUL131090:FUL131227 GEH131090:GEH131227 GOD131090:GOD131227 GXZ131090:GXZ131227 HHV131090:HHV131227 HRR131090:HRR131227 IBN131090:IBN131227 ILJ131090:ILJ131227 IVF131090:IVF131227 JFB131090:JFB131227 JOX131090:JOX131227 JYT131090:JYT131227 KIP131090:KIP131227 KSL131090:KSL131227 LCH131090:LCH131227 LMD131090:LMD131227 LVZ131090:LVZ131227 MFV131090:MFV131227 MPR131090:MPR131227 MZN131090:MZN131227 NJJ131090:NJJ131227 NTF131090:NTF131227 ODB131090:ODB131227 OMX131090:OMX131227 OWT131090:OWT131227 PGP131090:PGP131227 PQL131090:PQL131227 QAH131090:QAH131227 QKD131090:QKD131227 QTZ131090:QTZ131227 RDV131090:RDV131227 RNR131090:RNR131227 RXN131090:RXN131227 SHJ131090:SHJ131227 SRF131090:SRF131227 TBB131090:TBB131227 TKX131090:TKX131227 TUT131090:TUT131227 UEP131090:UEP131227 UOL131090:UOL131227 UYH131090:UYH131227 VID131090:VID131227 VRZ131090:VRZ131227 WBV131090:WBV131227 WLR131090:WLR131227 WVN131090:WVN131227 F196621:F196758 JB196626:JB196763 SX196626:SX196763 ACT196626:ACT196763 AMP196626:AMP196763 AWL196626:AWL196763 BGH196626:BGH196763 BQD196626:BQD196763 BZZ196626:BZZ196763 CJV196626:CJV196763 CTR196626:CTR196763 DDN196626:DDN196763 DNJ196626:DNJ196763 DXF196626:DXF196763 EHB196626:EHB196763 EQX196626:EQX196763 FAT196626:FAT196763 FKP196626:FKP196763 FUL196626:FUL196763 GEH196626:GEH196763 GOD196626:GOD196763 GXZ196626:GXZ196763 HHV196626:HHV196763 HRR196626:HRR196763 IBN196626:IBN196763 ILJ196626:ILJ196763 IVF196626:IVF196763 JFB196626:JFB196763 JOX196626:JOX196763 JYT196626:JYT196763 KIP196626:KIP196763 KSL196626:KSL196763 LCH196626:LCH196763 LMD196626:LMD196763 LVZ196626:LVZ196763 MFV196626:MFV196763 MPR196626:MPR196763 MZN196626:MZN196763 NJJ196626:NJJ196763 NTF196626:NTF196763 ODB196626:ODB196763 OMX196626:OMX196763 OWT196626:OWT196763 PGP196626:PGP196763 PQL196626:PQL196763 QAH196626:QAH196763 QKD196626:QKD196763 QTZ196626:QTZ196763 RDV196626:RDV196763 RNR196626:RNR196763 RXN196626:RXN196763 SHJ196626:SHJ196763 SRF196626:SRF196763 TBB196626:TBB196763 TKX196626:TKX196763 TUT196626:TUT196763 UEP196626:UEP196763 UOL196626:UOL196763 UYH196626:UYH196763 VID196626:VID196763 VRZ196626:VRZ196763 WBV196626:WBV196763 WLR196626:WLR196763 WVN196626:WVN196763 F262157:F262294 JB262162:JB262299 SX262162:SX262299 ACT262162:ACT262299 AMP262162:AMP262299 AWL262162:AWL262299 BGH262162:BGH262299 BQD262162:BQD262299 BZZ262162:BZZ262299 CJV262162:CJV262299 CTR262162:CTR262299 DDN262162:DDN262299 DNJ262162:DNJ262299 DXF262162:DXF262299 EHB262162:EHB262299 EQX262162:EQX262299 FAT262162:FAT262299 FKP262162:FKP262299 FUL262162:FUL262299 GEH262162:GEH262299 GOD262162:GOD262299 GXZ262162:GXZ262299 HHV262162:HHV262299 HRR262162:HRR262299 IBN262162:IBN262299 ILJ262162:ILJ262299 IVF262162:IVF262299 JFB262162:JFB262299 JOX262162:JOX262299 JYT262162:JYT262299 KIP262162:KIP262299 KSL262162:KSL262299 LCH262162:LCH262299 LMD262162:LMD262299 LVZ262162:LVZ262299 MFV262162:MFV262299 MPR262162:MPR262299 MZN262162:MZN262299 NJJ262162:NJJ262299 NTF262162:NTF262299 ODB262162:ODB262299 OMX262162:OMX262299 OWT262162:OWT262299 PGP262162:PGP262299 PQL262162:PQL262299 QAH262162:QAH262299 QKD262162:QKD262299 QTZ262162:QTZ262299 RDV262162:RDV262299 RNR262162:RNR262299 RXN262162:RXN262299 SHJ262162:SHJ262299 SRF262162:SRF262299 TBB262162:TBB262299 TKX262162:TKX262299 TUT262162:TUT262299 UEP262162:UEP262299 UOL262162:UOL262299 UYH262162:UYH262299 VID262162:VID262299 VRZ262162:VRZ262299 WBV262162:WBV262299 WLR262162:WLR262299 WVN262162:WVN262299 F327693:F327830 JB327698:JB327835 SX327698:SX327835 ACT327698:ACT327835 AMP327698:AMP327835 AWL327698:AWL327835 BGH327698:BGH327835 BQD327698:BQD327835 BZZ327698:BZZ327835 CJV327698:CJV327835 CTR327698:CTR327835 DDN327698:DDN327835 DNJ327698:DNJ327835 DXF327698:DXF327835 EHB327698:EHB327835 EQX327698:EQX327835 FAT327698:FAT327835 FKP327698:FKP327835 FUL327698:FUL327835 GEH327698:GEH327835 GOD327698:GOD327835 GXZ327698:GXZ327835 HHV327698:HHV327835 HRR327698:HRR327835 IBN327698:IBN327835 ILJ327698:ILJ327835 IVF327698:IVF327835 JFB327698:JFB327835 JOX327698:JOX327835 JYT327698:JYT327835 KIP327698:KIP327835 KSL327698:KSL327835 LCH327698:LCH327835 LMD327698:LMD327835 LVZ327698:LVZ327835 MFV327698:MFV327835 MPR327698:MPR327835 MZN327698:MZN327835 NJJ327698:NJJ327835 NTF327698:NTF327835 ODB327698:ODB327835 OMX327698:OMX327835 OWT327698:OWT327835 PGP327698:PGP327835 PQL327698:PQL327835 QAH327698:QAH327835 QKD327698:QKD327835 QTZ327698:QTZ327835 RDV327698:RDV327835 RNR327698:RNR327835 RXN327698:RXN327835 SHJ327698:SHJ327835 SRF327698:SRF327835 TBB327698:TBB327835 TKX327698:TKX327835 TUT327698:TUT327835 UEP327698:UEP327835 UOL327698:UOL327835 UYH327698:UYH327835 VID327698:VID327835 VRZ327698:VRZ327835 WBV327698:WBV327835 WLR327698:WLR327835 WVN327698:WVN327835 F393229:F393366 JB393234:JB393371 SX393234:SX393371 ACT393234:ACT393371 AMP393234:AMP393371 AWL393234:AWL393371 BGH393234:BGH393371 BQD393234:BQD393371 BZZ393234:BZZ393371 CJV393234:CJV393371 CTR393234:CTR393371 DDN393234:DDN393371 DNJ393234:DNJ393371 DXF393234:DXF393371 EHB393234:EHB393371 EQX393234:EQX393371 FAT393234:FAT393371 FKP393234:FKP393371 FUL393234:FUL393371 GEH393234:GEH393371 GOD393234:GOD393371 GXZ393234:GXZ393371 HHV393234:HHV393371 HRR393234:HRR393371 IBN393234:IBN393371 ILJ393234:ILJ393371 IVF393234:IVF393371 JFB393234:JFB393371 JOX393234:JOX393371 JYT393234:JYT393371 KIP393234:KIP393371 KSL393234:KSL393371 LCH393234:LCH393371 LMD393234:LMD393371 LVZ393234:LVZ393371 MFV393234:MFV393371 MPR393234:MPR393371 MZN393234:MZN393371 NJJ393234:NJJ393371 NTF393234:NTF393371 ODB393234:ODB393371 OMX393234:OMX393371 OWT393234:OWT393371 PGP393234:PGP393371 PQL393234:PQL393371 QAH393234:QAH393371 QKD393234:QKD393371 QTZ393234:QTZ393371 RDV393234:RDV393371 RNR393234:RNR393371 RXN393234:RXN393371 SHJ393234:SHJ393371 SRF393234:SRF393371 TBB393234:TBB393371 TKX393234:TKX393371 TUT393234:TUT393371 UEP393234:UEP393371 UOL393234:UOL393371 UYH393234:UYH393371 VID393234:VID393371 VRZ393234:VRZ393371 WBV393234:WBV393371 WLR393234:WLR393371 WVN393234:WVN393371 F458765:F458902 JB458770:JB458907 SX458770:SX458907 ACT458770:ACT458907 AMP458770:AMP458907 AWL458770:AWL458907 BGH458770:BGH458907 BQD458770:BQD458907 BZZ458770:BZZ458907 CJV458770:CJV458907 CTR458770:CTR458907 DDN458770:DDN458907 DNJ458770:DNJ458907 DXF458770:DXF458907 EHB458770:EHB458907 EQX458770:EQX458907 FAT458770:FAT458907 FKP458770:FKP458907 FUL458770:FUL458907 GEH458770:GEH458907 GOD458770:GOD458907 GXZ458770:GXZ458907 HHV458770:HHV458907 HRR458770:HRR458907 IBN458770:IBN458907 ILJ458770:ILJ458907 IVF458770:IVF458907 JFB458770:JFB458907 JOX458770:JOX458907 JYT458770:JYT458907 KIP458770:KIP458907 KSL458770:KSL458907 LCH458770:LCH458907 LMD458770:LMD458907 LVZ458770:LVZ458907 MFV458770:MFV458907 MPR458770:MPR458907 MZN458770:MZN458907 NJJ458770:NJJ458907 NTF458770:NTF458907 ODB458770:ODB458907 OMX458770:OMX458907 OWT458770:OWT458907 PGP458770:PGP458907 PQL458770:PQL458907 QAH458770:QAH458907 QKD458770:QKD458907 QTZ458770:QTZ458907 RDV458770:RDV458907 RNR458770:RNR458907 RXN458770:RXN458907 SHJ458770:SHJ458907 SRF458770:SRF458907 TBB458770:TBB458907 TKX458770:TKX458907 TUT458770:TUT458907 UEP458770:UEP458907 UOL458770:UOL458907 UYH458770:UYH458907 VID458770:VID458907 VRZ458770:VRZ458907 WBV458770:WBV458907 WLR458770:WLR458907 WVN458770:WVN458907 F524301:F524438 JB524306:JB524443 SX524306:SX524443 ACT524306:ACT524443 AMP524306:AMP524443 AWL524306:AWL524443 BGH524306:BGH524443 BQD524306:BQD524443 BZZ524306:BZZ524443 CJV524306:CJV524443 CTR524306:CTR524443 DDN524306:DDN524443 DNJ524306:DNJ524443 DXF524306:DXF524443 EHB524306:EHB524443 EQX524306:EQX524443 FAT524306:FAT524443 FKP524306:FKP524443 FUL524306:FUL524443 GEH524306:GEH524443 GOD524306:GOD524443 GXZ524306:GXZ524443 HHV524306:HHV524443 HRR524306:HRR524443 IBN524306:IBN524443 ILJ524306:ILJ524443 IVF524306:IVF524443 JFB524306:JFB524443 JOX524306:JOX524443 JYT524306:JYT524443 KIP524306:KIP524443 KSL524306:KSL524443 LCH524306:LCH524443 LMD524306:LMD524443 LVZ524306:LVZ524443 MFV524306:MFV524443 MPR524306:MPR524443 MZN524306:MZN524443 NJJ524306:NJJ524443 NTF524306:NTF524443 ODB524306:ODB524443 OMX524306:OMX524443 OWT524306:OWT524443 PGP524306:PGP524443 PQL524306:PQL524443 QAH524306:QAH524443 QKD524306:QKD524443 QTZ524306:QTZ524443 RDV524306:RDV524443 RNR524306:RNR524443 RXN524306:RXN524443 SHJ524306:SHJ524443 SRF524306:SRF524443 TBB524306:TBB524443 TKX524306:TKX524443 TUT524306:TUT524443 UEP524306:UEP524443 UOL524306:UOL524443 UYH524306:UYH524443 VID524306:VID524443 VRZ524306:VRZ524443 WBV524306:WBV524443 WLR524306:WLR524443 WVN524306:WVN524443 F589837:F589974 JB589842:JB589979 SX589842:SX589979 ACT589842:ACT589979 AMP589842:AMP589979 AWL589842:AWL589979 BGH589842:BGH589979 BQD589842:BQD589979 BZZ589842:BZZ589979 CJV589842:CJV589979 CTR589842:CTR589979 DDN589842:DDN589979 DNJ589842:DNJ589979 DXF589842:DXF589979 EHB589842:EHB589979 EQX589842:EQX589979 FAT589842:FAT589979 FKP589842:FKP589979 FUL589842:FUL589979 GEH589842:GEH589979 GOD589842:GOD589979 GXZ589842:GXZ589979 HHV589842:HHV589979 HRR589842:HRR589979 IBN589842:IBN589979 ILJ589842:ILJ589979 IVF589842:IVF589979 JFB589842:JFB589979 JOX589842:JOX589979 JYT589842:JYT589979 KIP589842:KIP589979 KSL589842:KSL589979 LCH589842:LCH589979 LMD589842:LMD589979 LVZ589842:LVZ589979 MFV589842:MFV589979 MPR589842:MPR589979 MZN589842:MZN589979 NJJ589842:NJJ589979 NTF589842:NTF589979 ODB589842:ODB589979 OMX589842:OMX589979 OWT589842:OWT589979 PGP589842:PGP589979 PQL589842:PQL589979 QAH589842:QAH589979 QKD589842:QKD589979 QTZ589842:QTZ589979 RDV589842:RDV589979 RNR589842:RNR589979 RXN589842:RXN589979 SHJ589842:SHJ589979 SRF589842:SRF589979 TBB589842:TBB589979 TKX589842:TKX589979 TUT589842:TUT589979 UEP589842:UEP589979 UOL589842:UOL589979 UYH589842:UYH589979 VID589842:VID589979 VRZ589842:VRZ589979 WBV589842:WBV589979 WLR589842:WLR589979 WVN589842:WVN589979 F655373:F655510 JB655378:JB655515 SX655378:SX655515 ACT655378:ACT655515 AMP655378:AMP655515 AWL655378:AWL655515 BGH655378:BGH655515 BQD655378:BQD655515 BZZ655378:BZZ655515 CJV655378:CJV655515 CTR655378:CTR655515 DDN655378:DDN655515 DNJ655378:DNJ655515 DXF655378:DXF655515 EHB655378:EHB655515 EQX655378:EQX655515 FAT655378:FAT655515 FKP655378:FKP655515 FUL655378:FUL655515 GEH655378:GEH655515 GOD655378:GOD655515 GXZ655378:GXZ655515 HHV655378:HHV655515 HRR655378:HRR655515 IBN655378:IBN655515 ILJ655378:ILJ655515 IVF655378:IVF655515 JFB655378:JFB655515 JOX655378:JOX655515 JYT655378:JYT655515 KIP655378:KIP655515 KSL655378:KSL655515 LCH655378:LCH655515 LMD655378:LMD655515 LVZ655378:LVZ655515 MFV655378:MFV655515 MPR655378:MPR655515 MZN655378:MZN655515 NJJ655378:NJJ655515 NTF655378:NTF655515 ODB655378:ODB655515 OMX655378:OMX655515 OWT655378:OWT655515 PGP655378:PGP655515 PQL655378:PQL655515 QAH655378:QAH655515 QKD655378:QKD655515 QTZ655378:QTZ655515 RDV655378:RDV655515 RNR655378:RNR655515 RXN655378:RXN655515 SHJ655378:SHJ655515 SRF655378:SRF655515 TBB655378:TBB655515 TKX655378:TKX655515 TUT655378:TUT655515 UEP655378:UEP655515 UOL655378:UOL655515 UYH655378:UYH655515 VID655378:VID655515 VRZ655378:VRZ655515 WBV655378:WBV655515 WLR655378:WLR655515 WVN655378:WVN655515 F720909:F721046 JB720914:JB721051 SX720914:SX721051 ACT720914:ACT721051 AMP720914:AMP721051 AWL720914:AWL721051 BGH720914:BGH721051 BQD720914:BQD721051 BZZ720914:BZZ721051 CJV720914:CJV721051 CTR720914:CTR721051 DDN720914:DDN721051 DNJ720914:DNJ721051 DXF720914:DXF721051 EHB720914:EHB721051 EQX720914:EQX721051 FAT720914:FAT721051 FKP720914:FKP721051 FUL720914:FUL721051 GEH720914:GEH721051 GOD720914:GOD721051 GXZ720914:GXZ721051 HHV720914:HHV721051 HRR720914:HRR721051 IBN720914:IBN721051 ILJ720914:ILJ721051 IVF720914:IVF721051 JFB720914:JFB721051 JOX720914:JOX721051 JYT720914:JYT721051 KIP720914:KIP721051 KSL720914:KSL721051 LCH720914:LCH721051 LMD720914:LMD721051 LVZ720914:LVZ721051 MFV720914:MFV721051 MPR720914:MPR721051 MZN720914:MZN721051 NJJ720914:NJJ721051 NTF720914:NTF721051 ODB720914:ODB721051 OMX720914:OMX721051 OWT720914:OWT721051 PGP720914:PGP721051 PQL720914:PQL721051 QAH720914:QAH721051 QKD720914:QKD721051 QTZ720914:QTZ721051 RDV720914:RDV721051 RNR720914:RNR721051 RXN720914:RXN721051 SHJ720914:SHJ721051 SRF720914:SRF721051 TBB720914:TBB721051 TKX720914:TKX721051 TUT720914:TUT721051 UEP720914:UEP721051 UOL720914:UOL721051 UYH720914:UYH721051 VID720914:VID721051 VRZ720914:VRZ721051 WBV720914:WBV721051 WLR720914:WLR721051 WVN720914:WVN721051 F786445:F786582 JB786450:JB786587 SX786450:SX786587 ACT786450:ACT786587 AMP786450:AMP786587 AWL786450:AWL786587 BGH786450:BGH786587 BQD786450:BQD786587 BZZ786450:BZZ786587 CJV786450:CJV786587 CTR786450:CTR786587 DDN786450:DDN786587 DNJ786450:DNJ786587 DXF786450:DXF786587 EHB786450:EHB786587 EQX786450:EQX786587 FAT786450:FAT786587 FKP786450:FKP786587 FUL786450:FUL786587 GEH786450:GEH786587 GOD786450:GOD786587 GXZ786450:GXZ786587 HHV786450:HHV786587 HRR786450:HRR786587 IBN786450:IBN786587 ILJ786450:ILJ786587 IVF786450:IVF786587 JFB786450:JFB786587 JOX786450:JOX786587 JYT786450:JYT786587 KIP786450:KIP786587 KSL786450:KSL786587 LCH786450:LCH786587 LMD786450:LMD786587 LVZ786450:LVZ786587 MFV786450:MFV786587 MPR786450:MPR786587 MZN786450:MZN786587 NJJ786450:NJJ786587 NTF786450:NTF786587 ODB786450:ODB786587 OMX786450:OMX786587 OWT786450:OWT786587 PGP786450:PGP786587 PQL786450:PQL786587 QAH786450:QAH786587 QKD786450:QKD786587 QTZ786450:QTZ786587 RDV786450:RDV786587 RNR786450:RNR786587 RXN786450:RXN786587 SHJ786450:SHJ786587 SRF786450:SRF786587 TBB786450:TBB786587 TKX786450:TKX786587 TUT786450:TUT786587 UEP786450:UEP786587 UOL786450:UOL786587 UYH786450:UYH786587 VID786450:VID786587 VRZ786450:VRZ786587 WBV786450:WBV786587 WLR786450:WLR786587 WVN786450:WVN786587 F851981:F852118 JB851986:JB852123 SX851986:SX852123 ACT851986:ACT852123 AMP851986:AMP852123 AWL851986:AWL852123 BGH851986:BGH852123 BQD851986:BQD852123 BZZ851986:BZZ852123 CJV851986:CJV852123 CTR851986:CTR852123 DDN851986:DDN852123 DNJ851986:DNJ852123 DXF851986:DXF852123 EHB851986:EHB852123 EQX851986:EQX852123 FAT851986:FAT852123 FKP851986:FKP852123 FUL851986:FUL852123 GEH851986:GEH852123 GOD851986:GOD852123 GXZ851986:GXZ852123 HHV851986:HHV852123 HRR851986:HRR852123 IBN851986:IBN852123 ILJ851986:ILJ852123 IVF851986:IVF852123 JFB851986:JFB852123 JOX851986:JOX852123 JYT851986:JYT852123 KIP851986:KIP852123 KSL851986:KSL852123 LCH851986:LCH852123 LMD851986:LMD852123 LVZ851986:LVZ852123 MFV851986:MFV852123 MPR851986:MPR852123 MZN851986:MZN852123 NJJ851986:NJJ852123 NTF851986:NTF852123 ODB851986:ODB852123 OMX851986:OMX852123 OWT851986:OWT852123 PGP851986:PGP852123 PQL851986:PQL852123 QAH851986:QAH852123 QKD851986:QKD852123 QTZ851986:QTZ852123 RDV851986:RDV852123 RNR851986:RNR852123 RXN851986:RXN852123 SHJ851986:SHJ852123 SRF851986:SRF852123 TBB851986:TBB852123 TKX851986:TKX852123 TUT851986:TUT852123 UEP851986:UEP852123 UOL851986:UOL852123 UYH851986:UYH852123 VID851986:VID852123 VRZ851986:VRZ852123 WBV851986:WBV852123 WLR851986:WLR852123 WVN851986:WVN852123 F917517:F917654 JB917522:JB917659 SX917522:SX917659 ACT917522:ACT917659 AMP917522:AMP917659 AWL917522:AWL917659 BGH917522:BGH917659 BQD917522:BQD917659 BZZ917522:BZZ917659 CJV917522:CJV917659 CTR917522:CTR917659 DDN917522:DDN917659 DNJ917522:DNJ917659 DXF917522:DXF917659 EHB917522:EHB917659 EQX917522:EQX917659 FAT917522:FAT917659 FKP917522:FKP917659 FUL917522:FUL917659 GEH917522:GEH917659 GOD917522:GOD917659 GXZ917522:GXZ917659 HHV917522:HHV917659 HRR917522:HRR917659 IBN917522:IBN917659 ILJ917522:ILJ917659 IVF917522:IVF917659 JFB917522:JFB917659 JOX917522:JOX917659 JYT917522:JYT917659 KIP917522:KIP917659 KSL917522:KSL917659 LCH917522:LCH917659 LMD917522:LMD917659 LVZ917522:LVZ917659 MFV917522:MFV917659 MPR917522:MPR917659 MZN917522:MZN917659 NJJ917522:NJJ917659 NTF917522:NTF917659 ODB917522:ODB917659 OMX917522:OMX917659 OWT917522:OWT917659 PGP917522:PGP917659 PQL917522:PQL917659 QAH917522:QAH917659 QKD917522:QKD917659 QTZ917522:QTZ917659 RDV917522:RDV917659 RNR917522:RNR917659 RXN917522:RXN917659 SHJ917522:SHJ917659 SRF917522:SRF917659 TBB917522:TBB917659 TKX917522:TKX917659 TUT917522:TUT917659 UEP917522:UEP917659 UOL917522:UOL917659 UYH917522:UYH917659 VID917522:VID917659 VRZ917522:VRZ917659 WBV917522:WBV917659 WLR917522:WLR917659 WVN917522:WVN917659 F983053:F983190 JB983058:JB983195 SX983058:SX983195 ACT983058:ACT983195 AMP983058:AMP983195 AWL983058:AWL983195 BGH983058:BGH983195 BQD983058:BQD983195 BZZ983058:BZZ983195 CJV983058:CJV983195 CTR983058:CTR983195 DDN983058:DDN983195 DNJ983058:DNJ983195 DXF983058:DXF983195 EHB983058:EHB983195 EQX983058:EQX983195 FAT983058:FAT983195 FKP983058:FKP983195 FUL983058:FUL983195 GEH983058:GEH983195 GOD983058:GOD983195 GXZ983058:GXZ983195 HHV983058:HHV983195 HRR983058:HRR983195 IBN983058:IBN983195 ILJ983058:ILJ983195 IVF983058:IVF983195 JFB983058:JFB983195 JOX983058:JOX983195 JYT983058:JYT983195 KIP983058:KIP983195 KSL983058:KSL983195 LCH983058:LCH983195 LMD983058:LMD983195 LVZ983058:LVZ983195 MFV983058:MFV983195 MPR983058:MPR983195 MZN983058:MZN983195 NJJ983058:NJJ983195 NTF983058:NTF983195 ODB983058:ODB983195 OMX983058:OMX983195 OWT983058:OWT983195 PGP983058:PGP983195 PQL983058:PQL983195 QAH983058:QAH983195 QKD983058:QKD983195 QTZ983058:QTZ983195 RDV983058:RDV983195 RNR983058:RNR983195 RXN983058:RXN983195 SHJ983058:SHJ983195 SRF983058:SRF983195 TBB983058:TBB983195 TKX983058:TKX983195 TUT983058:TUT983195 UEP983058:UEP983195 UOL983058:UOL983195 UYH983058:UYH983195 VID983058:VID983195 VRZ983058:VRZ983195 WBV983058:WBV983195 WLR983058:WLR983195 JB7:JB155 SX7:SX155 ACT7:ACT155 AMP7:AMP155 AWL7:AWL155 BGH7:BGH155 BQD7:BQD155 BZZ7:BZZ155 CJV7:CJV155 CTR7:CTR155 DDN7:DDN155 DNJ7:DNJ155 DXF7:DXF155 EHB7:EHB155 EQX7:EQX155 FAT7:FAT155 FKP7:FKP155 FUL7:FUL155 GEH7:GEH155 GOD7:GOD155 GXZ7:GXZ155 HHV7:HHV155 HRR7:HRR155 IBN7:IBN155 ILJ7:ILJ155 IVF7:IVF155 JFB7:JFB155 JOX7:JOX155 JYT7:JYT155 KIP7:KIP155 KSL7:KSL155 LCH7:LCH155 LMD7:LMD155 LVZ7:LVZ155 MFV7:MFV155 MPR7:MPR155 MZN7:MZN155 NJJ7:NJJ155 NTF7:NTF155 ODB7:ODB155 OMX7:OMX155 OWT7:OWT155 PGP7:PGP155 PQL7:PQL155 QAH7:QAH155 QKD7:QKD155 QTZ7:QTZ155 RDV7:RDV155 RNR7:RNR155 RXN7:RXN155 SHJ7:SHJ155 SRF7:SRF155 TBB7:TBB155 TKX7:TKX155 TUT7:TUT155 UEP7:UEP155 UOL7:UOL155 UYH7:UYH155 VID7:VID155 VRZ7:VRZ155 WBV7:WBV155 WLR7:WLR155 WVN7:WVN155 F7:F150">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8849,7 +8579,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="151" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C1" s="151"/>
       <c r="D1" s="151"/>
@@ -8915,16 +8645,16 @@
       <c r="F5" s="152"/>
       <c r="G5" s="109"/>
       <c r="H5" s="112" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="105"/>
       <c r="B6" s="111" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D6" s="150"/>
       <c r="E6" s="150"/>
@@ -8967,7 +8697,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D10" s="119" t="s">
         <v>34</v>
@@ -8982,7 +8712,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="121" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -9059,7 +8789,7 @@
       <c r="A14" s="122"/>
       <c r="B14" s="128"/>
       <c r="C14" s="129" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D14" s="130">
         <f>SUM(D9:D13)</f>
@@ -9096,7 +8826,7 @@
       <c r="A16" s="115"/>
       <c r="B16" s="115"/>
       <c r="C16" s="135" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D16" s="115"/>
       <c r="E16" s="136">
@@ -9104,7 +8834,7 @@
         <v>0.96153846153846156</v>
       </c>
       <c r="F16" s="115" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G16" s="115"/>
       <c r="H16" s="80"/>
@@ -9113,7 +8843,7 @@
       <c r="A17" s="115"/>
       <c r="B17" s="115"/>
       <c r="C17" s="135" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D17" s="115"/>
       <c r="E17" s="136">
@@ -9121,7 +8851,7 @@
         <v>0.96153846153846156</v>
       </c>
       <c r="F17" s="115" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G17" s="115"/>
       <c r="H17" s="80"/>

--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="345">
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
   </si>
@@ -991,24 +991,6 @@
 2. Display "Đăng ký" page
 3. Display "Captcha help" page
 </t>
-  </si>
-  <si>
-    <t>[Login-1]</t>
-  </si>
-  <si>
-    <t>[Login-5]</t>
-  </si>
-  <si>
-    <t>[Logout-1]</t>
-  </si>
-  <si>
-    <t>[Register 1]</t>
-  </si>
-  <si>
-    <t>[Register-1]</t>
-  </si>
-  <si>
-    <t>[Edit profile-1]</t>
   </si>
   <si>
     <t>Test viewing "Thay đổi thông tin" page</t>
@@ -1307,9 +1289,6 @@
 </t>
   </si>
   <si>
-    <t>[Forgot password-1]</t>
-  </si>
-  <si>
     <t>Test viewing " Quên mật khẩu" page</t>
   </si>
   <si>
@@ -1608,7 +1587,22 @@
 </t>
   </si>
   <si>
-    <t>[Edit profile-0]</t>
+    <t>[Account Management Module-]</t>
+  </si>
+  <si>
+    <t>[Account Management Module-20]</t>
+  </si>
+  <si>
+    <t>[Account Management Module-22]</t>
+  </si>
+  <si>
+    <t>[Account Management Module-4]</t>
+  </si>
+  <si>
+    <t>[Account Management Module-53]</t>
+  </si>
+  <si>
+    <t>[Account Management Module-82]</t>
   </si>
 </sst>
 </file>
@@ -4963,7 +4957,7 @@
     </row>
     <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="88" t="str">
-        <f t="shared" ref="A11:A28" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A13:A28" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-3]</v>
       </c>
       <c r="B13" s="93" t="s">
@@ -5347,8 +5341,8 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6251,7 +6245,7 @@
         <v>[Account Management Module-1]</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>105</v>
@@ -6260,7 +6254,7 @@
         <v>116</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
@@ -6281,7 +6275,7 @@
         <v>117</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
@@ -6302,7 +6296,7 @@
         <v>117</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
@@ -6326,7 +6320,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
@@ -6347,7 +6341,7 @@
         <v>119</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
@@ -6368,7 +6362,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
@@ -6389,7 +6383,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
@@ -6401,16 +6395,16 @@
         <v>[Account Management Module-8]</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
@@ -6431,7 +6425,7 @@
         <v>126</v>
       </c>
       <c r="E19" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
@@ -6452,7 +6446,7 @@
         <v>126</v>
       </c>
       <c r="E20" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
@@ -6473,7 +6467,7 @@
         <v>126</v>
       </c>
       <c r="E21" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
@@ -6494,7 +6488,7 @@
         <v>126</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
@@ -6515,7 +6509,7 @@
         <v>126</v>
       </c>
       <c r="E23" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
@@ -6536,7 +6530,7 @@
         <v>126</v>
       </c>
       <c r="E24" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
@@ -6557,7 +6551,7 @@
         <v>141</v>
       </c>
       <c r="E25" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
@@ -6578,7 +6572,7 @@
         <v>118</v>
       </c>
       <c r="E26" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
@@ -6599,7 +6593,7 @@
         <v>144</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
@@ -6620,7 +6614,7 @@
         <v>118</v>
       </c>
       <c r="E28" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
@@ -6641,7 +6635,7 @@
         <v>145</v>
       </c>
       <c r="E29" s="93" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
@@ -6682,7 +6676,7 @@
         <v>154</v>
       </c>
       <c r="E31" s="93" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
@@ -6700,7 +6694,7 @@
         <v>156</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="93"/>
@@ -6722,7 +6716,7 @@
         <v>159</v>
       </c>
       <c r="E33" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
@@ -6744,7 +6738,7 @@
         <v>159</v>
       </c>
       <c r="E34" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
@@ -6765,7 +6759,7 @@
         <v>159</v>
       </c>
       <c r="E35" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
@@ -6786,7 +6780,7 @@
         <v>159</v>
       </c>
       <c r="E36" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
@@ -6807,7 +6801,7 @@
         <v>159</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
@@ -6828,7 +6822,7 @@
         <v>159</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
@@ -6849,7 +6843,7 @@
         <v>171</v>
       </c>
       <c r="E39" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
@@ -6870,7 +6864,7 @@
         <v>173</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
@@ -6882,7 +6876,7 @@
         <v>[Account Management Module-31]</v>
       </c>
       <c r="B41" s="93" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C41" s="93" t="s">
         <v>179</v>
@@ -6891,7 +6885,7 @@
         <v>180</v>
       </c>
       <c r="E41" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
@@ -6912,7 +6906,7 @@
         <v>183</v>
       </c>
       <c r="E42" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
@@ -6933,7 +6927,7 @@
         <v>186</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
@@ -6954,7 +6948,7 @@
         <v>189</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
@@ -6975,7 +6969,7 @@
         <v>192</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
@@ -6996,7 +6990,7 @@
         <v>195</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
@@ -7017,7 +7011,7 @@
         <v>198</v>
       </c>
       <c r="E47" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
@@ -7038,7 +7032,7 @@
         <v>214</v>
       </c>
       <c r="E48" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
@@ -7059,7 +7053,7 @@
         <v>214</v>
       </c>
       <c r="E49" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
@@ -7074,13 +7068,13 @@
         <v>208</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D50" s="93" t="s">
         <v>215</v>
       </c>
       <c r="E50" s="93" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
@@ -7095,13 +7089,13 @@
         <v>202</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D51" s="93" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
@@ -7116,13 +7110,13 @@
         <v>204</v>
       </c>
       <c r="C52" s="93" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D52" s="93" t="s">
         <v>214</v>
       </c>
       <c r="E52" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
@@ -7137,13 +7131,13 @@
         <v>205</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D53" s="93" t="s">
         <v>214</v>
       </c>
       <c r="E53" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
@@ -7155,16 +7149,16 @@
         <v>[Account Management Module-44]</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D54" s="93" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E54" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
@@ -7179,13 +7173,13 @@
         <v>206</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D55" s="93" t="s">
         <v>213</v>
       </c>
       <c r="E55" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F55" s="93"/>
       <c r="G55" s="93"/>
@@ -7200,13 +7194,13 @@
         <v>207</v>
       </c>
       <c r="C56" s="93" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D56" s="93" t="s">
         <v>212</v>
       </c>
       <c r="E56" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F56" s="93"/>
       <c r="G56" s="93"/>
@@ -7221,13 +7215,13 @@
         <v>210</v>
       </c>
       <c r="C57" s="93" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D57" s="93" t="s">
         <v>211</v>
       </c>
       <c r="E57" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
@@ -7239,16 +7233,16 @@
         <v>[Account Management Module-48]</v>
       </c>
       <c r="B58" s="93" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="93" t="s">
         <v>319</v>
-      </c>
-      <c r="C58" s="93" t="s">
-        <v>326</v>
       </c>
       <c r="D58" s="93" t="s">
         <v>216</v>
       </c>
       <c r="E58" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F58" s="93"/>
       <c r="G58" s="93"/>
@@ -7260,16 +7254,16 @@
         <v>[Account Management Module-49]</v>
       </c>
       <c r="B59" s="93" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D59" s="93" t="s">
         <v>217</v>
       </c>
       <c r="E59" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
@@ -7281,16 +7275,16 @@
         <v>[Account Management Module-50]</v>
       </c>
       <c r="B60" s="93" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D60" s="93" t="s">
         <v>218</v>
       </c>
       <c r="E60" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
@@ -7302,16 +7296,16 @@
         <v>[Account Management Module-51]</v>
       </c>
       <c r="B61" s="93" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C61" s="93" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D61" s="93" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="F61" s="93"/>
       <c r="G61" s="93"/>
@@ -7323,16 +7317,16 @@
         <v>[Account Management Module-52]</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C62" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="E62" s="93" t="s">
         <v>341</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="E62" s="93" t="s">
-        <v>223</v>
       </c>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -7344,16 +7338,16 @@
         <v>[Account Management Module-53]</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D63" s="93" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E63" s="93" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
       <c r="F63" s="93"/>
       <c r="G63" s="93"/>
@@ -7365,16 +7359,16 @@
         <v>[Account Management Module-54]</v>
       </c>
       <c r="B64" s="93" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C64" s="93" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D64" s="93" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E64" s="93" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
@@ -7389,13 +7383,13 @@
         <v>177</v>
       </c>
       <c r="C65" s="93" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D65" s="93" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E65" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F65" s="93"/>
       <c r="G65" s="93"/>
@@ -7407,16 +7401,16 @@
         <v>[Account Management Module-56]</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C66" s="93" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D66" s="93" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E66" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
@@ -7428,16 +7422,16 @@
         <v>[Account Management Module-57]</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C67" s="93" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
@@ -7449,16 +7443,16 @@
         <v>[Account Management Module-58]</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E68" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F68" s="93"/>
       <c r="G68" s="93"/>
@@ -7473,13 +7467,13 @@
         <v>157</v>
       </c>
       <c r="C69" s="93" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
@@ -7494,13 +7488,13 @@
         <v>178</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D70" s="93" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E70" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
@@ -7512,16 +7506,16 @@
         <v>[Account Management Module-61]</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D71" s="93" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E71" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F71" s="93"/>
       <c r="G71" s="93"/>
@@ -7536,13 +7530,13 @@
         <v>190</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D72" s="93" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E72" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F72" s="93"/>
       <c r="G72" s="93"/>
@@ -7554,16 +7548,16 @@
         <v>[Account Management Module-63]</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D73" s="93" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E73" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F73" s="93"/>
       <c r="G73" s="93"/>
@@ -7575,16 +7569,16 @@
         <v>[Account Management Module-64]</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D74" s="93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E74" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
@@ -7596,16 +7590,16 @@
         <v>[Account Management Module-65]</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D75" s="93" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E75" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F75" s="93"/>
       <c r="G75" s="93"/>
@@ -7620,13 +7614,13 @@
         <v>193</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D76" s="93" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E76" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
@@ -7641,13 +7635,13 @@
         <v>196</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E77" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F77" s="93"/>
       <c r="G77" s="93"/>
@@ -7659,16 +7653,16 @@
         <v>[Account Management Module-68]</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D78" s="93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E78" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F78" s="93"/>
       <c r="G78" s="93"/>
@@ -7680,16 +7674,16 @@
         <v>[Account Management Module-69]</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D79" s="93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E79" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F79" s="93"/>
       <c r="G79" s="93"/>
@@ -7701,16 +7695,16 @@
         <v>[Account Management Module-70]</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D80" s="93" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E80" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F80" s="93"/>
       <c r="G80" s="93"/>
@@ -7722,16 +7716,16 @@
         <v>[Account Management Module-71]</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D81" s="93" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E81" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F81" s="93"/>
       <c r="G81" s="93"/>
@@ -7743,16 +7737,16 @@
         <v>[Account Management Module-72]</v>
       </c>
       <c r="B82" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="C82" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" s="93" t="s">
-        <v>270</v>
-      </c>
       <c r="E82" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
@@ -7764,16 +7758,16 @@
         <v>[Account Management Module-73]</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D83" s="93" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E83" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
@@ -7785,16 +7779,16 @@
         <v>[Account Management Module-74]</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D84" s="93" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E84" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F84" s="93"/>
       <c r="G84" s="93"/>
@@ -7809,13 +7803,13 @@
         <v>206</v>
       </c>
       <c r="C85" s="93" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E85" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F85" s="93"/>
       <c r="G85" s="93"/>
@@ -7830,13 +7824,13 @@
         <v>207</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D86" s="93" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E86" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
@@ -7848,16 +7842,16 @@
         <v>[Account Management Module-77]</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D87" s="93" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E87" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F87" s="93"/>
       <c r="G87" s="93"/>
@@ -7869,16 +7863,16 @@
         <v>[Account Management Module-78]</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C88" s="93" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D88" s="93" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E88" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F88" s="93"/>
       <c r="G88" s="93"/>
@@ -7890,16 +7884,16 @@
         <v>[Account Management Module-79]</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C89" s="93" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D89" s="93" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E89" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F89" s="93"/>
       <c r="G89" s="93"/>
@@ -7911,16 +7905,16 @@
         <v>[Account Management Module-80]</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C90" s="93" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D90" s="93" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E90" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F90" s="93"/>
       <c r="G90" s="93"/>
@@ -7932,16 +7926,16 @@
         <v>[Account Management Module-81]</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C91" s="93" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D91" s="93" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E91" s="93" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="F91" s="93"/>
       <c r="G91" s="93"/>
@@ -7953,13 +7947,13 @@
         <v>[Account Management Module-82]</v>
       </c>
       <c r="B92" s="93" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C92" s="93" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D92" s="93" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E92" s="93"/>
       <c r="F92" s="93"/>
@@ -7972,16 +7966,16 @@
         <v>[Account Management Module-83]</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C93" s="93" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D93" s="93" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E93" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F93" s="93"/>
       <c r="G93" s="93"/>
@@ -7993,16 +7987,16 @@
         <v>[Account Management Module-84]</v>
       </c>
       <c r="B94" s="93" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C94" s="93" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D94" s="93" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E94" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F94" s="93"/>
       <c r="G94" s="93"/>
@@ -8014,16 +8008,16 @@
         <v>[Account Management Module-85]</v>
       </c>
       <c r="B95" s="93" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D95" s="93" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E95" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F95" s="93"/>
       <c r="G95" s="93"/>
@@ -8036,16 +8030,16 @@
         <v>[Account Management Module-86]</v>
       </c>
       <c r="B96" s="93" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C96" s="93" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D96" s="93" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E96" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F96" s="93"/>
       <c r="G96" s="93"/>
@@ -8057,16 +8051,16 @@
         <v>[Account Management Module-87]</v>
       </c>
       <c r="B97" s="93" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C97" s="93" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D97" s="93" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E97" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
@@ -8078,16 +8072,16 @@
         <v>[Account Management Module-88]</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C98" s="93" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D98" s="93" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E98" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F98" s="93"/>
       <c r="G98" s="93"/>
@@ -8099,16 +8093,16 @@
         <v>[Account Management Module-89]</v>
       </c>
       <c r="B99" s="93" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C99" s="93" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D99" s="93" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E99" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F99" s="93"/>
       <c r="G99" s="93"/>
@@ -8120,16 +8114,16 @@
         <v>[Account Management Module-90]</v>
       </c>
       <c r="B100" s="93" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C100" s="93" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E100" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F100" s="93"/>
       <c r="G100" s="93"/>
@@ -8141,16 +8135,16 @@
         <v>[Account Management Module-91]</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C101" s="93" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D101" s="93" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E101" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F101" s="93"/>
       <c r="G101" s="93"/>
@@ -8162,16 +8156,16 @@
         <v>[Account Management Module-92]</v>
       </c>
       <c r="B102" s="93" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C102" s="93" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D102" s="93" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E102" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F102" s="93"/>
       <c r="G102" s="93"/>
@@ -8183,16 +8177,16 @@
         <v>[Account Management Module-93]</v>
       </c>
       <c r="B103" s="93" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E103" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F103" s="93"/>
       <c r="G103" s="93"/>
@@ -8204,16 +8198,16 @@
         <v>[Account Management Module-94]</v>
       </c>
       <c r="B104" s="93" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C104" s="93" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D104" s="93" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E104" s="93" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="F104" s="93"/>
       <c r="G104" s="93"/>

--- a/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
+++ b/WIP/Users/TuanNNSE02189/UJD_VN_Test case_UC1-10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Common Module'!$A$8:$H$13</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="345">
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
   </si>
@@ -1612,11 +1612,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2878,7 +2878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2913,7 +2913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3128,19 +3128,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="33" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="34"/>
       <c r="C2" s="138" t="s">
@@ -3151,12 +3151,12 @@
       <c r="F2" s="138"/>
       <c r="G2" s="138"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="B3" s="32"/>
       <c r="C3" s="31"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="140" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
       <c r="B7" s="140"/>
       <c r="C7" s="141"/>
       <c r="D7" s="141"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
       <c r="D8" s="24"/>
@@ -3217,19 +3217,19 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" s="21"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="15" customFormat="1">
       <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5">
       <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -3269,7 +3269,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -3277,7 +3277,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -3285,7 +3285,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -3293,7 +3293,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
@@ -3301,7 +3301,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -3335,471 +3335,471 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="37" customWidth="1"/>
     <col min="6" max="6" width="35" style="37" customWidth="1"/>
-    <col min="7" max="256" width="9.140625" style="30"/>
-    <col min="257" max="257" width="1.5703125" style="30" customWidth="1"/>
-    <col min="258" max="258" width="13.42578125" style="30" customWidth="1"/>
-    <col min="259" max="259" width="30.28515625" style="30" customWidth="1"/>
-    <col min="260" max="260" width="19.5703125" style="30" customWidth="1"/>
-    <col min="261" max="261" width="32.140625" style="30" customWidth="1"/>
+    <col min="7" max="256" width="9.125" style="30"/>
+    <col min="257" max="257" width="1.625" style="30" customWidth="1"/>
+    <col min="258" max="258" width="13.375" style="30" customWidth="1"/>
+    <col min="259" max="259" width="30.25" style="30" customWidth="1"/>
+    <col min="260" max="260" width="19.625" style="30" customWidth="1"/>
+    <col min="261" max="261" width="32.125" style="30" customWidth="1"/>
     <col min="262" max="262" width="35" style="30" customWidth="1"/>
-    <col min="263" max="512" width="9.140625" style="30"/>
-    <col min="513" max="513" width="1.5703125" style="30" customWidth="1"/>
-    <col min="514" max="514" width="13.42578125" style="30" customWidth="1"/>
-    <col min="515" max="515" width="30.28515625" style="30" customWidth="1"/>
-    <col min="516" max="516" width="19.5703125" style="30" customWidth="1"/>
-    <col min="517" max="517" width="32.140625" style="30" customWidth="1"/>
+    <col min="263" max="512" width="9.125" style="30"/>
+    <col min="513" max="513" width="1.625" style="30" customWidth="1"/>
+    <col min="514" max="514" width="13.375" style="30" customWidth="1"/>
+    <col min="515" max="515" width="30.25" style="30" customWidth="1"/>
+    <col min="516" max="516" width="19.625" style="30" customWidth="1"/>
+    <col min="517" max="517" width="32.125" style="30" customWidth="1"/>
     <col min="518" max="518" width="35" style="30" customWidth="1"/>
-    <col min="519" max="768" width="9.140625" style="30"/>
-    <col min="769" max="769" width="1.5703125" style="30" customWidth="1"/>
-    <col min="770" max="770" width="13.42578125" style="30" customWidth="1"/>
-    <col min="771" max="771" width="30.28515625" style="30" customWidth="1"/>
-    <col min="772" max="772" width="19.5703125" style="30" customWidth="1"/>
-    <col min="773" max="773" width="32.140625" style="30" customWidth="1"/>
+    <col min="519" max="768" width="9.125" style="30"/>
+    <col min="769" max="769" width="1.625" style="30" customWidth="1"/>
+    <col min="770" max="770" width="13.375" style="30" customWidth="1"/>
+    <col min="771" max="771" width="30.25" style="30" customWidth="1"/>
+    <col min="772" max="772" width="19.625" style="30" customWidth="1"/>
+    <col min="773" max="773" width="32.125" style="30" customWidth="1"/>
     <col min="774" max="774" width="35" style="30" customWidth="1"/>
-    <col min="775" max="1024" width="9.140625" style="30"/>
-    <col min="1025" max="1025" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="32.140625" style="30" customWidth="1"/>
+    <col min="775" max="1024" width="9.125" style="30"/>
+    <col min="1025" max="1025" width="1.625" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="13.375" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="30.25" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="19.625" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="32.125" style="30" customWidth="1"/>
     <col min="1030" max="1030" width="35" style="30" customWidth="1"/>
-    <col min="1031" max="1280" width="9.140625" style="30"/>
-    <col min="1281" max="1281" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="32.140625" style="30" customWidth="1"/>
+    <col min="1031" max="1280" width="9.125" style="30"/>
+    <col min="1281" max="1281" width="1.625" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="13.375" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="30.25" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="19.625" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="32.125" style="30" customWidth="1"/>
     <col min="1286" max="1286" width="35" style="30" customWidth="1"/>
-    <col min="1287" max="1536" width="9.140625" style="30"/>
-    <col min="1537" max="1537" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="32.140625" style="30" customWidth="1"/>
+    <col min="1287" max="1536" width="9.125" style="30"/>
+    <col min="1537" max="1537" width="1.625" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="13.375" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="30.25" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="19.625" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="32.125" style="30" customWidth="1"/>
     <col min="1542" max="1542" width="35" style="30" customWidth="1"/>
-    <col min="1543" max="1792" width="9.140625" style="30"/>
-    <col min="1793" max="1793" width="1.5703125" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="30.28515625" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="19.5703125" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="32.140625" style="30" customWidth="1"/>
+    <col min="1543" max="1792" width="9.125" style="30"/>
+    <col min="1793" max="1793" width="1.625" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="13.375" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="30.25" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="19.625" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="32.125" style="30" customWidth="1"/>
     <col min="1798" max="1798" width="35" style="30" customWidth="1"/>
-    <col min="1799" max="2048" width="9.140625" style="30"/>
-    <col min="2049" max="2049" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="32.140625" style="30" customWidth="1"/>
+    <col min="1799" max="2048" width="9.125" style="30"/>
+    <col min="2049" max="2049" width="1.625" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="13.375" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="30.25" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="19.625" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="32.125" style="30" customWidth="1"/>
     <col min="2054" max="2054" width="35" style="30" customWidth="1"/>
-    <col min="2055" max="2304" width="9.140625" style="30"/>
-    <col min="2305" max="2305" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="32.140625" style="30" customWidth="1"/>
+    <col min="2055" max="2304" width="9.125" style="30"/>
+    <col min="2305" max="2305" width="1.625" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="13.375" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="30.25" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="19.625" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="32.125" style="30" customWidth="1"/>
     <col min="2310" max="2310" width="35" style="30" customWidth="1"/>
-    <col min="2311" max="2560" width="9.140625" style="30"/>
-    <col min="2561" max="2561" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="32.140625" style="30" customWidth="1"/>
+    <col min="2311" max="2560" width="9.125" style="30"/>
+    <col min="2561" max="2561" width="1.625" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="13.375" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="30.25" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="19.625" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="32.125" style="30" customWidth="1"/>
     <col min="2566" max="2566" width="35" style="30" customWidth="1"/>
-    <col min="2567" max="2816" width="9.140625" style="30"/>
-    <col min="2817" max="2817" width="1.5703125" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="30.28515625" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="19.5703125" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="32.140625" style="30" customWidth="1"/>
+    <col min="2567" max="2816" width="9.125" style="30"/>
+    <col min="2817" max="2817" width="1.625" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="13.375" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="30.25" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="19.625" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="32.125" style="30" customWidth="1"/>
     <col min="2822" max="2822" width="35" style="30" customWidth="1"/>
-    <col min="2823" max="3072" width="9.140625" style="30"/>
-    <col min="3073" max="3073" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="32.140625" style="30" customWidth="1"/>
+    <col min="2823" max="3072" width="9.125" style="30"/>
+    <col min="3073" max="3073" width="1.625" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="13.375" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="30.25" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="19.625" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="32.125" style="30" customWidth="1"/>
     <col min="3078" max="3078" width="35" style="30" customWidth="1"/>
-    <col min="3079" max="3328" width="9.140625" style="30"/>
-    <col min="3329" max="3329" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="32.140625" style="30" customWidth="1"/>
+    <col min="3079" max="3328" width="9.125" style="30"/>
+    <col min="3329" max="3329" width="1.625" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="13.375" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="30.25" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="19.625" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="32.125" style="30" customWidth="1"/>
     <col min="3334" max="3334" width="35" style="30" customWidth="1"/>
-    <col min="3335" max="3584" width="9.140625" style="30"/>
-    <col min="3585" max="3585" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="32.140625" style="30" customWidth="1"/>
+    <col min="3335" max="3584" width="9.125" style="30"/>
+    <col min="3585" max="3585" width="1.625" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="13.375" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="30.25" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="19.625" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="32.125" style="30" customWidth="1"/>
     <col min="3590" max="3590" width="35" style="30" customWidth="1"/>
-    <col min="3591" max="3840" width="9.140625" style="30"/>
-    <col min="3841" max="3841" width="1.5703125" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="30.28515625" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="19.5703125" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="32.140625" style="30" customWidth="1"/>
+    <col min="3591" max="3840" width="9.125" style="30"/>
+    <col min="3841" max="3841" width="1.625" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="13.375" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="30.25" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="19.625" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="32.125" style="30" customWidth="1"/>
     <col min="3846" max="3846" width="35" style="30" customWidth="1"/>
-    <col min="3847" max="4096" width="9.140625" style="30"/>
-    <col min="4097" max="4097" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="32.140625" style="30" customWidth="1"/>
+    <col min="3847" max="4096" width="9.125" style="30"/>
+    <col min="4097" max="4097" width="1.625" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="13.375" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="30.25" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="19.625" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="32.125" style="30" customWidth="1"/>
     <col min="4102" max="4102" width="35" style="30" customWidth="1"/>
-    <col min="4103" max="4352" width="9.140625" style="30"/>
-    <col min="4353" max="4353" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="32.140625" style="30" customWidth="1"/>
+    <col min="4103" max="4352" width="9.125" style="30"/>
+    <col min="4353" max="4353" width="1.625" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="13.375" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="30.25" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="19.625" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="32.125" style="30" customWidth="1"/>
     <col min="4358" max="4358" width="35" style="30" customWidth="1"/>
-    <col min="4359" max="4608" width="9.140625" style="30"/>
-    <col min="4609" max="4609" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="32.140625" style="30" customWidth="1"/>
+    <col min="4359" max="4608" width="9.125" style="30"/>
+    <col min="4609" max="4609" width="1.625" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="13.375" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="30.25" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="19.625" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="32.125" style="30" customWidth="1"/>
     <col min="4614" max="4614" width="35" style="30" customWidth="1"/>
-    <col min="4615" max="4864" width="9.140625" style="30"/>
-    <col min="4865" max="4865" width="1.5703125" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="30.28515625" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="19.5703125" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="32.140625" style="30" customWidth="1"/>
+    <col min="4615" max="4864" width="9.125" style="30"/>
+    <col min="4865" max="4865" width="1.625" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="13.375" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="30.25" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="19.625" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="32.125" style="30" customWidth="1"/>
     <col min="4870" max="4870" width="35" style="30" customWidth="1"/>
-    <col min="4871" max="5120" width="9.140625" style="30"/>
-    <col min="5121" max="5121" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="32.140625" style="30" customWidth="1"/>
+    <col min="4871" max="5120" width="9.125" style="30"/>
+    <col min="5121" max="5121" width="1.625" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="13.375" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="30.25" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="19.625" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="32.125" style="30" customWidth="1"/>
     <col min="5126" max="5126" width="35" style="30" customWidth="1"/>
-    <col min="5127" max="5376" width="9.140625" style="30"/>
-    <col min="5377" max="5377" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="32.140625" style="30" customWidth="1"/>
+    <col min="5127" max="5376" width="9.125" style="30"/>
+    <col min="5377" max="5377" width="1.625" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="13.375" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="30.25" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="19.625" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="32.125" style="30" customWidth="1"/>
     <col min="5382" max="5382" width="35" style="30" customWidth="1"/>
-    <col min="5383" max="5632" width="9.140625" style="30"/>
-    <col min="5633" max="5633" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="32.140625" style="30" customWidth="1"/>
+    <col min="5383" max="5632" width="9.125" style="30"/>
+    <col min="5633" max="5633" width="1.625" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="13.375" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="30.25" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="19.625" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="32.125" style="30" customWidth="1"/>
     <col min="5638" max="5638" width="35" style="30" customWidth="1"/>
-    <col min="5639" max="5888" width="9.140625" style="30"/>
-    <col min="5889" max="5889" width="1.5703125" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="30.28515625" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="19.5703125" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="32.140625" style="30" customWidth="1"/>
+    <col min="5639" max="5888" width="9.125" style="30"/>
+    <col min="5889" max="5889" width="1.625" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="13.375" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="30.25" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="19.625" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="32.125" style="30" customWidth="1"/>
     <col min="5894" max="5894" width="35" style="30" customWidth="1"/>
-    <col min="5895" max="6144" width="9.140625" style="30"/>
-    <col min="6145" max="6145" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="32.140625" style="30" customWidth="1"/>
+    <col min="5895" max="6144" width="9.125" style="30"/>
+    <col min="6145" max="6145" width="1.625" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="13.375" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="30.25" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="19.625" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="32.125" style="30" customWidth="1"/>
     <col min="6150" max="6150" width="35" style="30" customWidth="1"/>
-    <col min="6151" max="6400" width="9.140625" style="30"/>
-    <col min="6401" max="6401" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="32.140625" style="30" customWidth="1"/>
+    <col min="6151" max="6400" width="9.125" style="30"/>
+    <col min="6401" max="6401" width="1.625" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="13.375" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="30.25" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="19.625" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="32.125" style="30" customWidth="1"/>
     <col min="6406" max="6406" width="35" style="30" customWidth="1"/>
-    <col min="6407" max="6656" width="9.140625" style="30"/>
-    <col min="6657" max="6657" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="32.140625" style="30" customWidth="1"/>
+    <col min="6407" max="6656" width="9.125" style="30"/>
+    <col min="6657" max="6657" width="1.625" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="13.375" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="30.25" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="19.625" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="32.125" style="30" customWidth="1"/>
     <col min="6662" max="6662" width="35" style="30" customWidth="1"/>
-    <col min="6663" max="6912" width="9.140625" style="30"/>
-    <col min="6913" max="6913" width="1.5703125" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="30.28515625" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="19.5703125" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="32.140625" style="30" customWidth="1"/>
+    <col min="6663" max="6912" width="9.125" style="30"/>
+    <col min="6913" max="6913" width="1.625" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="13.375" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="30.25" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="19.625" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="32.125" style="30" customWidth="1"/>
     <col min="6918" max="6918" width="35" style="30" customWidth="1"/>
-    <col min="6919" max="7168" width="9.140625" style="30"/>
-    <col min="7169" max="7169" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="32.140625" style="30" customWidth="1"/>
+    <col min="6919" max="7168" width="9.125" style="30"/>
+    <col min="7169" max="7169" width="1.625" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="13.375" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="30.25" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="19.625" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="32.125" style="30" customWidth="1"/>
     <col min="7174" max="7174" width="35" style="30" customWidth="1"/>
-    <col min="7175" max="7424" width="9.140625" style="30"/>
-    <col min="7425" max="7425" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="32.140625" style="30" customWidth="1"/>
+    <col min="7175" max="7424" width="9.125" style="30"/>
+    <col min="7425" max="7425" width="1.625" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="13.375" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="30.25" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="19.625" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="32.125" style="30" customWidth="1"/>
     <col min="7430" max="7430" width="35" style="30" customWidth="1"/>
-    <col min="7431" max="7680" width="9.140625" style="30"/>
-    <col min="7681" max="7681" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="32.140625" style="30" customWidth="1"/>
+    <col min="7431" max="7680" width="9.125" style="30"/>
+    <col min="7681" max="7681" width="1.625" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="13.375" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="30.25" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="19.625" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="32.125" style="30" customWidth="1"/>
     <col min="7686" max="7686" width="35" style="30" customWidth="1"/>
-    <col min="7687" max="7936" width="9.140625" style="30"/>
-    <col min="7937" max="7937" width="1.5703125" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="30.28515625" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="19.5703125" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="32.140625" style="30" customWidth="1"/>
+    <col min="7687" max="7936" width="9.125" style="30"/>
+    <col min="7937" max="7937" width="1.625" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="13.375" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="30.25" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="19.625" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="32.125" style="30" customWidth="1"/>
     <col min="7942" max="7942" width="35" style="30" customWidth="1"/>
-    <col min="7943" max="8192" width="9.140625" style="30"/>
-    <col min="8193" max="8193" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="32.140625" style="30" customWidth="1"/>
+    <col min="7943" max="8192" width="9.125" style="30"/>
+    <col min="8193" max="8193" width="1.625" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="13.375" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="30.25" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="19.625" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="32.125" style="30" customWidth="1"/>
     <col min="8198" max="8198" width="35" style="30" customWidth="1"/>
-    <col min="8199" max="8448" width="9.140625" style="30"/>
-    <col min="8449" max="8449" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="32.140625" style="30" customWidth="1"/>
+    <col min="8199" max="8448" width="9.125" style="30"/>
+    <col min="8449" max="8449" width="1.625" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="13.375" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="30.25" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="19.625" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="32.125" style="30" customWidth="1"/>
     <col min="8454" max="8454" width="35" style="30" customWidth="1"/>
-    <col min="8455" max="8704" width="9.140625" style="30"/>
-    <col min="8705" max="8705" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="32.140625" style="30" customWidth="1"/>
+    <col min="8455" max="8704" width="9.125" style="30"/>
+    <col min="8705" max="8705" width="1.625" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="13.375" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="30.25" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="19.625" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="32.125" style="30" customWidth="1"/>
     <col min="8710" max="8710" width="35" style="30" customWidth="1"/>
-    <col min="8711" max="8960" width="9.140625" style="30"/>
-    <col min="8961" max="8961" width="1.5703125" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="30.28515625" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="19.5703125" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="32.140625" style="30" customWidth="1"/>
+    <col min="8711" max="8960" width="9.125" style="30"/>
+    <col min="8961" max="8961" width="1.625" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="13.375" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="30.25" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="19.625" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="32.125" style="30" customWidth="1"/>
     <col min="8966" max="8966" width="35" style="30" customWidth="1"/>
-    <col min="8967" max="9216" width="9.140625" style="30"/>
-    <col min="9217" max="9217" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="32.140625" style="30" customWidth="1"/>
+    <col min="8967" max="9216" width="9.125" style="30"/>
+    <col min="9217" max="9217" width="1.625" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="13.375" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="30.25" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="19.625" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="32.125" style="30" customWidth="1"/>
     <col min="9222" max="9222" width="35" style="30" customWidth="1"/>
-    <col min="9223" max="9472" width="9.140625" style="30"/>
-    <col min="9473" max="9473" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="32.140625" style="30" customWidth="1"/>
+    <col min="9223" max="9472" width="9.125" style="30"/>
+    <col min="9473" max="9473" width="1.625" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="13.375" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="30.25" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="19.625" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="32.125" style="30" customWidth="1"/>
     <col min="9478" max="9478" width="35" style="30" customWidth="1"/>
-    <col min="9479" max="9728" width="9.140625" style="30"/>
-    <col min="9729" max="9729" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="32.140625" style="30" customWidth="1"/>
+    <col min="9479" max="9728" width="9.125" style="30"/>
+    <col min="9729" max="9729" width="1.625" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="13.375" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="30.25" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="19.625" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="32.125" style="30" customWidth="1"/>
     <col min="9734" max="9734" width="35" style="30" customWidth="1"/>
-    <col min="9735" max="9984" width="9.140625" style="30"/>
-    <col min="9985" max="9985" width="1.5703125" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="30.28515625" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="19.5703125" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="32.140625" style="30" customWidth="1"/>
+    <col min="9735" max="9984" width="9.125" style="30"/>
+    <col min="9985" max="9985" width="1.625" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="13.375" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="30.25" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="19.625" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="32.125" style="30" customWidth="1"/>
     <col min="9990" max="9990" width="35" style="30" customWidth="1"/>
-    <col min="9991" max="10240" width="9.140625" style="30"/>
-    <col min="10241" max="10241" width="1.5703125" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="30.28515625" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="32.140625" style="30" customWidth="1"/>
+    <col min="9991" max="10240" width="9.125" style="30"/>
+    <col min="10241" max="10241" width="1.625" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="13.375" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="30.25" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="19.625" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="32.125" style="30" customWidth="1"/>
     <col min="10246" max="10246" width="35" style="30" customWidth="1"/>
-    <col min="10247" max="10496" width="9.140625" style="30"/>
-    <col min="10497" max="10497" width="1.5703125" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="30.28515625" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="32.140625" style="30" customWidth="1"/>
+    <col min="10247" max="10496" width="9.125" style="30"/>
+    <col min="10497" max="10497" width="1.625" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="13.375" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="30.25" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="19.625" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="32.125" style="30" customWidth="1"/>
     <col min="10502" max="10502" width="35" style="30" customWidth="1"/>
-    <col min="10503" max="10752" width="9.140625" style="30"/>
-    <col min="10753" max="10753" width="1.5703125" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="30.28515625" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="19.5703125" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="32.140625" style="30" customWidth="1"/>
+    <col min="10503" max="10752" width="9.125" style="30"/>
+    <col min="10753" max="10753" width="1.625" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="13.375" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="30.25" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="19.625" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="32.125" style="30" customWidth="1"/>
     <col min="10758" max="10758" width="35" style="30" customWidth="1"/>
-    <col min="10759" max="11008" width="9.140625" style="30"/>
-    <col min="11009" max="11009" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="32.140625" style="30" customWidth="1"/>
+    <col min="10759" max="11008" width="9.125" style="30"/>
+    <col min="11009" max="11009" width="1.625" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="13.375" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="30.25" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="19.625" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="32.125" style="30" customWidth="1"/>
     <col min="11014" max="11014" width="35" style="30" customWidth="1"/>
-    <col min="11015" max="11264" width="9.140625" style="30"/>
-    <col min="11265" max="11265" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="32.140625" style="30" customWidth="1"/>
+    <col min="11015" max="11264" width="9.125" style="30"/>
+    <col min="11265" max="11265" width="1.625" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="13.375" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="30.25" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="19.625" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="32.125" style="30" customWidth="1"/>
     <col min="11270" max="11270" width="35" style="30" customWidth="1"/>
-    <col min="11271" max="11520" width="9.140625" style="30"/>
-    <col min="11521" max="11521" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="32.140625" style="30" customWidth="1"/>
+    <col min="11271" max="11520" width="9.125" style="30"/>
+    <col min="11521" max="11521" width="1.625" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="13.375" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="30.25" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="19.625" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="32.125" style="30" customWidth="1"/>
     <col min="11526" max="11526" width="35" style="30" customWidth="1"/>
-    <col min="11527" max="11776" width="9.140625" style="30"/>
-    <col min="11777" max="11777" width="1.5703125" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="30.28515625" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="19.5703125" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="32.140625" style="30" customWidth="1"/>
+    <col min="11527" max="11776" width="9.125" style="30"/>
+    <col min="11777" max="11777" width="1.625" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="13.375" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="30.25" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="19.625" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="32.125" style="30" customWidth="1"/>
     <col min="11782" max="11782" width="35" style="30" customWidth="1"/>
-    <col min="11783" max="12032" width="9.140625" style="30"/>
-    <col min="12033" max="12033" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="32.140625" style="30" customWidth="1"/>
+    <col min="11783" max="12032" width="9.125" style="30"/>
+    <col min="12033" max="12033" width="1.625" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="13.375" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="30.25" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="19.625" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="32.125" style="30" customWidth="1"/>
     <col min="12038" max="12038" width="35" style="30" customWidth="1"/>
-    <col min="12039" max="12288" width="9.140625" style="30"/>
-    <col min="12289" max="12289" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="32.140625" style="30" customWidth="1"/>
+    <col min="12039" max="12288" width="9.125" style="30"/>
+    <col min="12289" max="12289" width="1.625" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="13.375" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="30.25" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="19.625" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="32.125" style="30" customWidth="1"/>
     <col min="12294" max="12294" width="35" style="30" customWidth="1"/>
-    <col min="12295" max="12544" width="9.140625" style="30"/>
-    <col min="12545" max="12545" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="32.140625" style="30" customWidth="1"/>
+    <col min="12295" max="12544" width="9.125" style="30"/>
+    <col min="12545" max="12545" width="1.625" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="13.375" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="30.25" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="19.625" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="32.125" style="30" customWidth="1"/>
     <col min="12550" max="12550" width="35" style="30" customWidth="1"/>
-    <col min="12551" max="12800" width="9.140625" style="30"/>
-    <col min="12801" max="12801" width="1.5703125" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="30.28515625" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="19.5703125" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="32.140625" style="30" customWidth="1"/>
+    <col min="12551" max="12800" width="9.125" style="30"/>
+    <col min="12801" max="12801" width="1.625" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="13.375" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="30.25" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="19.625" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="32.125" style="30" customWidth="1"/>
     <col min="12806" max="12806" width="35" style="30" customWidth="1"/>
-    <col min="12807" max="13056" width="9.140625" style="30"/>
-    <col min="13057" max="13057" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="32.140625" style="30" customWidth="1"/>
+    <col min="12807" max="13056" width="9.125" style="30"/>
+    <col min="13057" max="13057" width="1.625" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="13.375" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="30.25" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="19.625" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="32.125" style="30" customWidth="1"/>
     <col min="13062" max="13062" width="35" style="30" customWidth="1"/>
-    <col min="13063" max="13312" width="9.140625" style="30"/>
-    <col min="13313" max="13313" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="32.140625" style="30" customWidth="1"/>
+    <col min="13063" max="13312" width="9.125" style="30"/>
+    <col min="13313" max="13313" width="1.625" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="13.375" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="30.25" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="19.625" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="32.125" style="30" customWidth="1"/>
     <col min="13318" max="13318" width="35" style="30" customWidth="1"/>
-    <col min="13319" max="13568" width="9.140625" style="30"/>
-    <col min="13569" max="13569" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="32.140625" style="30" customWidth="1"/>
+    <col min="13319" max="13568" width="9.125" style="30"/>
+    <col min="13569" max="13569" width="1.625" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="13.375" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="30.25" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="19.625" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="32.125" style="30" customWidth="1"/>
     <col min="13574" max="13574" width="35" style="30" customWidth="1"/>
-    <col min="13575" max="13824" width="9.140625" style="30"/>
-    <col min="13825" max="13825" width="1.5703125" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="30.28515625" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="19.5703125" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="32.140625" style="30" customWidth="1"/>
+    <col min="13575" max="13824" width="9.125" style="30"/>
+    <col min="13825" max="13825" width="1.625" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="13.375" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="30.25" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="19.625" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="32.125" style="30" customWidth="1"/>
     <col min="13830" max="13830" width="35" style="30" customWidth="1"/>
-    <col min="13831" max="14080" width="9.140625" style="30"/>
-    <col min="14081" max="14081" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="32.140625" style="30" customWidth="1"/>
+    <col min="13831" max="14080" width="9.125" style="30"/>
+    <col min="14081" max="14081" width="1.625" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="13.375" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="30.25" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="19.625" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="32.125" style="30" customWidth="1"/>
     <col min="14086" max="14086" width="35" style="30" customWidth="1"/>
-    <col min="14087" max="14336" width="9.140625" style="30"/>
-    <col min="14337" max="14337" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="32.140625" style="30" customWidth="1"/>
+    <col min="14087" max="14336" width="9.125" style="30"/>
+    <col min="14337" max="14337" width="1.625" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="13.375" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="30.25" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="19.625" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="32.125" style="30" customWidth="1"/>
     <col min="14342" max="14342" width="35" style="30" customWidth="1"/>
-    <col min="14343" max="14592" width="9.140625" style="30"/>
-    <col min="14593" max="14593" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="32.140625" style="30" customWidth="1"/>
+    <col min="14343" max="14592" width="9.125" style="30"/>
+    <col min="14593" max="14593" width="1.625" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="13.375" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="30.25" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="19.625" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="32.125" style="30" customWidth="1"/>
     <col min="14598" max="14598" width="35" style="30" customWidth="1"/>
-    <col min="14599" max="14848" width="9.140625" style="30"/>
-    <col min="14849" max="14849" width="1.5703125" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="30.28515625" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="19.5703125" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="32.140625" style="30" customWidth="1"/>
+    <col min="14599" max="14848" width="9.125" style="30"/>
+    <col min="14849" max="14849" width="1.625" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="13.375" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="30.25" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="19.625" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="32.125" style="30" customWidth="1"/>
     <col min="14854" max="14854" width="35" style="30" customWidth="1"/>
-    <col min="14855" max="15104" width="9.140625" style="30"/>
-    <col min="15105" max="15105" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="32.140625" style="30" customWidth="1"/>
+    <col min="14855" max="15104" width="9.125" style="30"/>
+    <col min="15105" max="15105" width="1.625" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="13.375" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="30.25" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="19.625" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="32.125" style="30" customWidth="1"/>
     <col min="15110" max="15110" width="35" style="30" customWidth="1"/>
-    <col min="15111" max="15360" width="9.140625" style="30"/>
-    <col min="15361" max="15361" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="32.140625" style="30" customWidth="1"/>
+    <col min="15111" max="15360" width="9.125" style="30"/>
+    <col min="15361" max="15361" width="1.625" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="13.375" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="30.25" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="19.625" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="32.125" style="30" customWidth="1"/>
     <col min="15366" max="15366" width="35" style="30" customWidth="1"/>
-    <col min="15367" max="15616" width="9.140625" style="30"/>
-    <col min="15617" max="15617" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="32.140625" style="30" customWidth="1"/>
+    <col min="15367" max="15616" width="9.125" style="30"/>
+    <col min="15617" max="15617" width="1.625" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="13.375" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="30.25" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="19.625" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="32.125" style="30" customWidth="1"/>
     <col min="15622" max="15622" width="35" style="30" customWidth="1"/>
-    <col min="15623" max="15872" width="9.140625" style="30"/>
-    <col min="15873" max="15873" width="1.5703125" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="30.28515625" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="19.5703125" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="32.140625" style="30" customWidth="1"/>
+    <col min="15623" max="15872" width="9.125" style="30"/>
+    <col min="15873" max="15873" width="1.625" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="13.375" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="30.25" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="19.625" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="32.125" style="30" customWidth="1"/>
     <col min="15878" max="15878" width="35" style="30" customWidth="1"/>
-    <col min="15879" max="16128" width="9.140625" style="30"/>
-    <col min="16129" max="16129" width="1.5703125" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="13.42578125" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="30.28515625" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="19.5703125" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="32.140625" style="30" customWidth="1"/>
+    <col min="15879" max="16128" width="9.125" style="30"/>
+    <col min="16129" max="16129" width="1.625" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="13.375" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="30.25" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="19.625" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="32.125" style="30" customWidth="1"/>
     <col min="16134" max="16134" width="35" style="30" customWidth="1"/>
-    <col min="16135" max="16384" width="9.140625" style="30"/>
+    <col min="16135" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="25.5">
       <c r="B1" s="36"/>
       <c r="D1" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="13.5" customHeight="1">
       <c r="B2" s="36"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="142" t="s">
         <v>16</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="E3" s="143"/>
       <c r="F3" s="143"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="142" t="s">
         <v>13</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="E4" s="143"/>
       <c r="F4" s="143"/>
     </row>
-    <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" s="41" customFormat="1" ht="84.75" customHeight="1">
       <c r="B5" s="144" t="s">
         <v>19</v>
       </c>
@@ -3834,21 +3834,21 @@
       <c r="E5" s="145"/>
       <c r="F5" s="145"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="42"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="2:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" s="46" customFormat="1">
       <c r="B7" s="44"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
-    <row r="8" spans="2:6" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" s="51" customFormat="1" ht="21" customHeight="1">
       <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="52">
         <v>1</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="52">
         <v>2</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="52">
         <v>3</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="52">
         <v>4</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="52">
         <v>5</v>
       </c>
@@ -3930,56 +3930,56 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="52"/>
       <c r="C14" s="53"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="52"/>
       <c r="C16" s="53"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="55"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="52"/>
       <c r="C17" s="53"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="55"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="52"/>
       <c r="C18" s="53"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="52"/>
       <c r="C19" s="53"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="55"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="52"/>
       <c r="C20" s="53"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="57"/>
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
@@ -4015,719 +4015,719 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="102"/>
-    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="101" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="102"/>
+    <col min="8" max="8" width="20.125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="101" customWidth="1"/>
     <col min="10" max="10" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="30"/>
-    <col min="257" max="257" width="13.42578125" style="30" customWidth="1"/>
-    <col min="258" max="258" width="21.85546875" style="30" customWidth="1"/>
-    <col min="259" max="259" width="29.28515625" style="30" customWidth="1"/>
-    <col min="260" max="260" width="32.5703125" style="30" customWidth="1"/>
-    <col min="261" max="261" width="19.28515625" style="30" customWidth="1"/>
-    <col min="262" max="262" width="8.140625" style="30" customWidth="1"/>
-    <col min="263" max="263" width="9.140625" style="30"/>
-    <col min="264" max="264" width="20.140625" style="30" customWidth="1"/>
-    <col min="265" max="265" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11" max="256" width="9.125" style="30"/>
+    <col min="257" max="257" width="13.375" style="30" customWidth="1"/>
+    <col min="258" max="258" width="21.875" style="30" customWidth="1"/>
+    <col min="259" max="259" width="29.25" style="30" customWidth="1"/>
+    <col min="260" max="260" width="32.625" style="30" customWidth="1"/>
+    <col min="261" max="261" width="19.25" style="30" customWidth="1"/>
+    <col min="262" max="262" width="8.125" style="30" customWidth="1"/>
+    <col min="263" max="263" width="9.125" style="30"/>
+    <col min="264" max="264" width="20.125" style="30" customWidth="1"/>
+    <col min="265" max="265" width="9.375" style="30" customWidth="1"/>
     <col min="266" max="266" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="30"/>
-    <col min="513" max="513" width="13.42578125" style="30" customWidth="1"/>
-    <col min="514" max="514" width="21.85546875" style="30" customWidth="1"/>
-    <col min="515" max="515" width="29.28515625" style="30" customWidth="1"/>
-    <col min="516" max="516" width="32.5703125" style="30" customWidth="1"/>
-    <col min="517" max="517" width="19.28515625" style="30" customWidth="1"/>
-    <col min="518" max="518" width="8.140625" style="30" customWidth="1"/>
-    <col min="519" max="519" width="9.140625" style="30"/>
-    <col min="520" max="520" width="20.140625" style="30" customWidth="1"/>
-    <col min="521" max="521" width="9.42578125" style="30" customWidth="1"/>
+    <col min="267" max="512" width="9.125" style="30"/>
+    <col min="513" max="513" width="13.375" style="30" customWidth="1"/>
+    <col min="514" max="514" width="21.875" style="30" customWidth="1"/>
+    <col min="515" max="515" width="29.25" style="30" customWidth="1"/>
+    <col min="516" max="516" width="32.625" style="30" customWidth="1"/>
+    <col min="517" max="517" width="19.25" style="30" customWidth="1"/>
+    <col min="518" max="518" width="8.125" style="30" customWidth="1"/>
+    <col min="519" max="519" width="9.125" style="30"/>
+    <col min="520" max="520" width="20.125" style="30" customWidth="1"/>
+    <col min="521" max="521" width="9.375" style="30" customWidth="1"/>
     <col min="522" max="522" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="30"/>
-    <col min="769" max="769" width="13.42578125" style="30" customWidth="1"/>
-    <col min="770" max="770" width="21.85546875" style="30" customWidth="1"/>
-    <col min="771" max="771" width="29.28515625" style="30" customWidth="1"/>
-    <col min="772" max="772" width="32.5703125" style="30" customWidth="1"/>
-    <col min="773" max="773" width="19.28515625" style="30" customWidth="1"/>
-    <col min="774" max="774" width="8.140625" style="30" customWidth="1"/>
-    <col min="775" max="775" width="9.140625" style="30"/>
-    <col min="776" max="776" width="20.140625" style="30" customWidth="1"/>
-    <col min="777" max="777" width="9.42578125" style="30" customWidth="1"/>
+    <col min="523" max="768" width="9.125" style="30"/>
+    <col min="769" max="769" width="13.375" style="30" customWidth="1"/>
+    <col min="770" max="770" width="21.875" style="30" customWidth="1"/>
+    <col min="771" max="771" width="29.25" style="30" customWidth="1"/>
+    <col min="772" max="772" width="32.625" style="30" customWidth="1"/>
+    <col min="773" max="773" width="19.25" style="30" customWidth="1"/>
+    <col min="774" max="774" width="8.125" style="30" customWidth="1"/>
+    <col min="775" max="775" width="9.125" style="30"/>
+    <col min="776" max="776" width="20.125" style="30" customWidth="1"/>
+    <col min="777" max="777" width="9.375" style="30" customWidth="1"/>
     <col min="778" max="778" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="30"/>
-    <col min="1025" max="1025" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1030" max="1030" width="8.140625" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="9.140625" style="30"/>
-    <col min="1032" max="1032" width="20.140625" style="30" customWidth="1"/>
-    <col min="1033" max="1033" width="9.42578125" style="30" customWidth="1"/>
+    <col min="779" max="1024" width="9.125" style="30"/>
+    <col min="1025" max="1025" width="13.375" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="21.875" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="29.25" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="32.625" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="19.25" style="30" customWidth="1"/>
+    <col min="1030" max="1030" width="8.125" style="30" customWidth="1"/>
+    <col min="1031" max="1031" width="9.125" style="30"/>
+    <col min="1032" max="1032" width="20.125" style="30" customWidth="1"/>
+    <col min="1033" max="1033" width="9.375" style="30" customWidth="1"/>
     <col min="1034" max="1034" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="30"/>
-    <col min="1281" max="1281" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1286" max="1286" width="8.140625" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="9.140625" style="30"/>
-    <col min="1288" max="1288" width="20.140625" style="30" customWidth="1"/>
-    <col min="1289" max="1289" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1035" max="1280" width="9.125" style="30"/>
+    <col min="1281" max="1281" width="13.375" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="21.875" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="29.25" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="32.625" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="19.25" style="30" customWidth="1"/>
+    <col min="1286" max="1286" width="8.125" style="30" customWidth="1"/>
+    <col min="1287" max="1287" width="9.125" style="30"/>
+    <col min="1288" max="1288" width="20.125" style="30" customWidth="1"/>
+    <col min="1289" max="1289" width="9.375" style="30" customWidth="1"/>
     <col min="1290" max="1290" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="30"/>
-    <col min="1537" max="1537" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1542" max="1542" width="8.140625" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="9.140625" style="30"/>
-    <col min="1544" max="1544" width="20.140625" style="30" customWidth="1"/>
-    <col min="1545" max="1545" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1291" max="1536" width="9.125" style="30"/>
+    <col min="1537" max="1537" width="13.375" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="21.875" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="29.25" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="32.625" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="19.25" style="30" customWidth="1"/>
+    <col min="1542" max="1542" width="8.125" style="30" customWidth="1"/>
+    <col min="1543" max="1543" width="9.125" style="30"/>
+    <col min="1544" max="1544" width="20.125" style="30" customWidth="1"/>
+    <col min="1545" max="1545" width="9.375" style="30" customWidth="1"/>
     <col min="1546" max="1546" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="30"/>
-    <col min="1793" max="1793" width="13.42578125" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="32.5703125" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1798" max="1798" width="8.140625" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="9.140625" style="30"/>
-    <col min="1800" max="1800" width="20.140625" style="30" customWidth="1"/>
-    <col min="1801" max="1801" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1547" max="1792" width="9.125" style="30"/>
+    <col min="1793" max="1793" width="13.375" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="21.875" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="29.25" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="32.625" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="19.25" style="30" customWidth="1"/>
+    <col min="1798" max="1798" width="8.125" style="30" customWidth="1"/>
+    <col min="1799" max="1799" width="9.125" style="30"/>
+    <col min="1800" max="1800" width="20.125" style="30" customWidth="1"/>
+    <col min="1801" max="1801" width="9.375" style="30" customWidth="1"/>
     <col min="1802" max="1802" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="30"/>
-    <col min="2049" max="2049" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2054" max="2054" width="8.140625" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="9.140625" style="30"/>
-    <col min="2056" max="2056" width="20.140625" style="30" customWidth="1"/>
-    <col min="2057" max="2057" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1803" max="2048" width="9.125" style="30"/>
+    <col min="2049" max="2049" width="13.375" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="21.875" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="29.25" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="32.625" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="19.25" style="30" customWidth="1"/>
+    <col min="2054" max="2054" width="8.125" style="30" customWidth="1"/>
+    <col min="2055" max="2055" width="9.125" style="30"/>
+    <col min="2056" max="2056" width="20.125" style="30" customWidth="1"/>
+    <col min="2057" max="2057" width="9.375" style="30" customWidth="1"/>
     <col min="2058" max="2058" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="30"/>
-    <col min="2305" max="2305" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2310" max="2310" width="8.140625" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="9.140625" style="30"/>
-    <col min="2312" max="2312" width="20.140625" style="30" customWidth="1"/>
-    <col min="2313" max="2313" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2059" max="2304" width="9.125" style="30"/>
+    <col min="2305" max="2305" width="13.375" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="21.875" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="29.25" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="32.625" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="19.25" style="30" customWidth="1"/>
+    <col min="2310" max="2310" width="8.125" style="30" customWidth="1"/>
+    <col min="2311" max="2311" width="9.125" style="30"/>
+    <col min="2312" max="2312" width="20.125" style="30" customWidth="1"/>
+    <col min="2313" max="2313" width="9.375" style="30" customWidth="1"/>
     <col min="2314" max="2314" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="30"/>
-    <col min="2561" max="2561" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2566" max="2566" width="8.140625" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="9.140625" style="30"/>
-    <col min="2568" max="2568" width="20.140625" style="30" customWidth="1"/>
-    <col min="2569" max="2569" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2315" max="2560" width="9.125" style="30"/>
+    <col min="2561" max="2561" width="13.375" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="21.875" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="29.25" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="32.625" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="19.25" style="30" customWidth="1"/>
+    <col min="2566" max="2566" width="8.125" style="30" customWidth="1"/>
+    <col min="2567" max="2567" width="9.125" style="30"/>
+    <col min="2568" max="2568" width="20.125" style="30" customWidth="1"/>
+    <col min="2569" max="2569" width="9.375" style="30" customWidth="1"/>
     <col min="2570" max="2570" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="30"/>
-    <col min="2817" max="2817" width="13.42578125" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="32.5703125" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2822" max="2822" width="8.140625" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="9.140625" style="30"/>
-    <col min="2824" max="2824" width="20.140625" style="30" customWidth="1"/>
-    <col min="2825" max="2825" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2571" max="2816" width="9.125" style="30"/>
+    <col min="2817" max="2817" width="13.375" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="21.875" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="29.25" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="32.625" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="19.25" style="30" customWidth="1"/>
+    <col min="2822" max="2822" width="8.125" style="30" customWidth="1"/>
+    <col min="2823" max="2823" width="9.125" style="30"/>
+    <col min="2824" max="2824" width="20.125" style="30" customWidth="1"/>
+    <col min="2825" max="2825" width="9.375" style="30" customWidth="1"/>
     <col min="2826" max="2826" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="30"/>
-    <col min="3073" max="3073" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3078" max="3078" width="8.140625" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="9.140625" style="30"/>
-    <col min="3080" max="3080" width="20.140625" style="30" customWidth="1"/>
-    <col min="3081" max="3081" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2827" max="3072" width="9.125" style="30"/>
+    <col min="3073" max="3073" width="13.375" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="21.875" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="29.25" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="32.625" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="19.25" style="30" customWidth="1"/>
+    <col min="3078" max="3078" width="8.125" style="30" customWidth="1"/>
+    <col min="3079" max="3079" width="9.125" style="30"/>
+    <col min="3080" max="3080" width="20.125" style="30" customWidth="1"/>
+    <col min="3081" max="3081" width="9.375" style="30" customWidth="1"/>
     <col min="3082" max="3082" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="30"/>
-    <col min="3329" max="3329" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3334" max="3334" width="8.140625" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="9.140625" style="30"/>
-    <col min="3336" max="3336" width="20.140625" style="30" customWidth="1"/>
-    <col min="3337" max="3337" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3083" max="3328" width="9.125" style="30"/>
+    <col min="3329" max="3329" width="13.375" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="21.875" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="29.25" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="32.625" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="19.25" style="30" customWidth="1"/>
+    <col min="3334" max="3334" width="8.125" style="30" customWidth="1"/>
+    <col min="3335" max="3335" width="9.125" style="30"/>
+    <col min="3336" max="3336" width="20.125" style="30" customWidth="1"/>
+    <col min="3337" max="3337" width="9.375" style="30" customWidth="1"/>
     <col min="3338" max="3338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="30"/>
-    <col min="3585" max="3585" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3590" max="3590" width="8.140625" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="9.140625" style="30"/>
-    <col min="3592" max="3592" width="20.140625" style="30" customWidth="1"/>
-    <col min="3593" max="3593" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3339" max="3584" width="9.125" style="30"/>
+    <col min="3585" max="3585" width="13.375" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="21.875" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="29.25" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="32.625" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="19.25" style="30" customWidth="1"/>
+    <col min="3590" max="3590" width="8.125" style="30" customWidth="1"/>
+    <col min="3591" max="3591" width="9.125" style="30"/>
+    <col min="3592" max="3592" width="20.125" style="30" customWidth="1"/>
+    <col min="3593" max="3593" width="9.375" style="30" customWidth="1"/>
     <col min="3594" max="3594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="30"/>
-    <col min="3841" max="3841" width="13.42578125" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="32.5703125" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3846" max="3846" width="8.140625" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="9.140625" style="30"/>
-    <col min="3848" max="3848" width="20.140625" style="30" customWidth="1"/>
-    <col min="3849" max="3849" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3595" max="3840" width="9.125" style="30"/>
+    <col min="3841" max="3841" width="13.375" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="21.875" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="29.25" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="32.625" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="19.25" style="30" customWidth="1"/>
+    <col min="3846" max="3846" width="8.125" style="30" customWidth="1"/>
+    <col min="3847" max="3847" width="9.125" style="30"/>
+    <col min="3848" max="3848" width="20.125" style="30" customWidth="1"/>
+    <col min="3849" max="3849" width="9.375" style="30" customWidth="1"/>
     <col min="3850" max="3850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="30"/>
-    <col min="4097" max="4097" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4102" max="4102" width="8.140625" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="9.140625" style="30"/>
-    <col min="4104" max="4104" width="20.140625" style="30" customWidth="1"/>
-    <col min="4105" max="4105" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3851" max="4096" width="9.125" style="30"/>
+    <col min="4097" max="4097" width="13.375" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="21.875" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="29.25" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="32.625" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="19.25" style="30" customWidth="1"/>
+    <col min="4102" max="4102" width="8.125" style="30" customWidth="1"/>
+    <col min="4103" max="4103" width="9.125" style="30"/>
+    <col min="4104" max="4104" width="20.125" style="30" customWidth="1"/>
+    <col min="4105" max="4105" width="9.375" style="30" customWidth="1"/>
     <col min="4106" max="4106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="30"/>
-    <col min="4353" max="4353" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4358" max="4358" width="8.140625" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="9.140625" style="30"/>
-    <col min="4360" max="4360" width="20.140625" style="30" customWidth="1"/>
-    <col min="4361" max="4361" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4107" max="4352" width="9.125" style="30"/>
+    <col min="4353" max="4353" width="13.375" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="21.875" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="29.25" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="32.625" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="19.25" style="30" customWidth="1"/>
+    <col min="4358" max="4358" width="8.125" style="30" customWidth="1"/>
+    <col min="4359" max="4359" width="9.125" style="30"/>
+    <col min="4360" max="4360" width="20.125" style="30" customWidth="1"/>
+    <col min="4361" max="4361" width="9.375" style="30" customWidth="1"/>
     <col min="4362" max="4362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="30"/>
-    <col min="4609" max="4609" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4614" max="4614" width="8.140625" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="9.140625" style="30"/>
-    <col min="4616" max="4616" width="20.140625" style="30" customWidth="1"/>
-    <col min="4617" max="4617" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4363" max="4608" width="9.125" style="30"/>
+    <col min="4609" max="4609" width="13.375" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="21.875" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="29.25" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="32.625" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="19.25" style="30" customWidth="1"/>
+    <col min="4614" max="4614" width="8.125" style="30" customWidth="1"/>
+    <col min="4615" max="4615" width="9.125" style="30"/>
+    <col min="4616" max="4616" width="20.125" style="30" customWidth="1"/>
+    <col min="4617" max="4617" width="9.375" style="30" customWidth="1"/>
     <col min="4618" max="4618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="30"/>
-    <col min="4865" max="4865" width="13.42578125" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="32.5703125" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4870" max="4870" width="8.140625" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="9.140625" style="30"/>
-    <col min="4872" max="4872" width="20.140625" style="30" customWidth="1"/>
-    <col min="4873" max="4873" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4619" max="4864" width="9.125" style="30"/>
+    <col min="4865" max="4865" width="13.375" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="21.875" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="29.25" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="32.625" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="19.25" style="30" customWidth="1"/>
+    <col min="4870" max="4870" width="8.125" style="30" customWidth="1"/>
+    <col min="4871" max="4871" width="9.125" style="30"/>
+    <col min="4872" max="4872" width="20.125" style="30" customWidth="1"/>
+    <col min="4873" max="4873" width="9.375" style="30" customWidth="1"/>
     <col min="4874" max="4874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="30"/>
-    <col min="5121" max="5121" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5126" max="5126" width="8.140625" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="9.140625" style="30"/>
-    <col min="5128" max="5128" width="20.140625" style="30" customWidth="1"/>
-    <col min="5129" max="5129" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4875" max="5120" width="9.125" style="30"/>
+    <col min="5121" max="5121" width="13.375" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="21.875" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="29.25" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="32.625" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="19.25" style="30" customWidth="1"/>
+    <col min="5126" max="5126" width="8.125" style="30" customWidth="1"/>
+    <col min="5127" max="5127" width="9.125" style="30"/>
+    <col min="5128" max="5128" width="20.125" style="30" customWidth="1"/>
+    <col min="5129" max="5129" width="9.375" style="30" customWidth="1"/>
     <col min="5130" max="5130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="30"/>
-    <col min="5377" max="5377" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5382" max="5382" width="8.140625" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="9.140625" style="30"/>
-    <col min="5384" max="5384" width="20.140625" style="30" customWidth="1"/>
-    <col min="5385" max="5385" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5131" max="5376" width="9.125" style="30"/>
+    <col min="5377" max="5377" width="13.375" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="21.875" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="29.25" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="32.625" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="19.25" style="30" customWidth="1"/>
+    <col min="5382" max="5382" width="8.125" style="30" customWidth="1"/>
+    <col min="5383" max="5383" width="9.125" style="30"/>
+    <col min="5384" max="5384" width="20.125" style="30" customWidth="1"/>
+    <col min="5385" max="5385" width="9.375" style="30" customWidth="1"/>
     <col min="5386" max="5386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="30"/>
-    <col min="5633" max="5633" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5638" max="5638" width="8.140625" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="9.140625" style="30"/>
-    <col min="5640" max="5640" width="20.140625" style="30" customWidth="1"/>
-    <col min="5641" max="5641" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5387" max="5632" width="9.125" style="30"/>
+    <col min="5633" max="5633" width="13.375" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="21.875" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="29.25" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="32.625" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="19.25" style="30" customWidth="1"/>
+    <col min="5638" max="5638" width="8.125" style="30" customWidth="1"/>
+    <col min="5639" max="5639" width="9.125" style="30"/>
+    <col min="5640" max="5640" width="20.125" style="30" customWidth="1"/>
+    <col min="5641" max="5641" width="9.375" style="30" customWidth="1"/>
     <col min="5642" max="5642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="30"/>
-    <col min="5889" max="5889" width="13.42578125" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="32.5703125" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5894" max="5894" width="8.140625" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="9.140625" style="30"/>
-    <col min="5896" max="5896" width="20.140625" style="30" customWidth="1"/>
-    <col min="5897" max="5897" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5643" max="5888" width="9.125" style="30"/>
+    <col min="5889" max="5889" width="13.375" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="21.875" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="29.25" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="32.625" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="19.25" style="30" customWidth="1"/>
+    <col min="5894" max="5894" width="8.125" style="30" customWidth="1"/>
+    <col min="5895" max="5895" width="9.125" style="30"/>
+    <col min="5896" max="5896" width="20.125" style="30" customWidth="1"/>
+    <col min="5897" max="5897" width="9.375" style="30" customWidth="1"/>
     <col min="5898" max="5898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="30"/>
-    <col min="6145" max="6145" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6150" max="6150" width="8.140625" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="9.140625" style="30"/>
-    <col min="6152" max="6152" width="20.140625" style="30" customWidth="1"/>
-    <col min="6153" max="6153" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5899" max="6144" width="9.125" style="30"/>
+    <col min="6145" max="6145" width="13.375" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="21.875" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="29.25" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="32.625" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="19.25" style="30" customWidth="1"/>
+    <col min="6150" max="6150" width="8.125" style="30" customWidth="1"/>
+    <col min="6151" max="6151" width="9.125" style="30"/>
+    <col min="6152" max="6152" width="20.125" style="30" customWidth="1"/>
+    <col min="6153" max="6153" width="9.375" style="30" customWidth="1"/>
     <col min="6154" max="6154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="30"/>
-    <col min="6401" max="6401" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6406" max="6406" width="8.140625" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="9.140625" style="30"/>
-    <col min="6408" max="6408" width="20.140625" style="30" customWidth="1"/>
-    <col min="6409" max="6409" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6155" max="6400" width="9.125" style="30"/>
+    <col min="6401" max="6401" width="13.375" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="21.875" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="29.25" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="32.625" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="19.25" style="30" customWidth="1"/>
+    <col min="6406" max="6406" width="8.125" style="30" customWidth="1"/>
+    <col min="6407" max="6407" width="9.125" style="30"/>
+    <col min="6408" max="6408" width="20.125" style="30" customWidth="1"/>
+    <col min="6409" max="6409" width="9.375" style="30" customWidth="1"/>
     <col min="6410" max="6410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="30"/>
-    <col min="6657" max="6657" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6662" max="6662" width="8.140625" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="9.140625" style="30"/>
-    <col min="6664" max="6664" width="20.140625" style="30" customWidth="1"/>
-    <col min="6665" max="6665" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6411" max="6656" width="9.125" style="30"/>
+    <col min="6657" max="6657" width="13.375" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="21.875" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="29.25" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="32.625" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="19.25" style="30" customWidth="1"/>
+    <col min="6662" max="6662" width="8.125" style="30" customWidth="1"/>
+    <col min="6663" max="6663" width="9.125" style="30"/>
+    <col min="6664" max="6664" width="20.125" style="30" customWidth="1"/>
+    <col min="6665" max="6665" width="9.375" style="30" customWidth="1"/>
     <col min="6666" max="6666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="30"/>
-    <col min="6913" max="6913" width="13.42578125" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="32.5703125" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6918" max="6918" width="8.140625" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="9.140625" style="30"/>
-    <col min="6920" max="6920" width="20.140625" style="30" customWidth="1"/>
-    <col min="6921" max="6921" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6667" max="6912" width="9.125" style="30"/>
+    <col min="6913" max="6913" width="13.375" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="21.875" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="29.25" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="32.625" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="19.25" style="30" customWidth="1"/>
+    <col min="6918" max="6918" width="8.125" style="30" customWidth="1"/>
+    <col min="6919" max="6919" width="9.125" style="30"/>
+    <col min="6920" max="6920" width="20.125" style="30" customWidth="1"/>
+    <col min="6921" max="6921" width="9.375" style="30" customWidth="1"/>
     <col min="6922" max="6922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="30"/>
-    <col min="7169" max="7169" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7174" max="7174" width="8.140625" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="9.140625" style="30"/>
-    <col min="7176" max="7176" width="20.140625" style="30" customWidth="1"/>
-    <col min="7177" max="7177" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6923" max="7168" width="9.125" style="30"/>
+    <col min="7169" max="7169" width="13.375" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="21.875" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="29.25" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="32.625" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="19.25" style="30" customWidth="1"/>
+    <col min="7174" max="7174" width="8.125" style="30" customWidth="1"/>
+    <col min="7175" max="7175" width="9.125" style="30"/>
+    <col min="7176" max="7176" width="20.125" style="30" customWidth="1"/>
+    <col min="7177" max="7177" width="9.375" style="30" customWidth="1"/>
     <col min="7178" max="7178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="30"/>
-    <col min="7425" max="7425" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7430" max="7430" width="8.140625" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="9.140625" style="30"/>
-    <col min="7432" max="7432" width="20.140625" style="30" customWidth="1"/>
-    <col min="7433" max="7433" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7179" max="7424" width="9.125" style="30"/>
+    <col min="7425" max="7425" width="13.375" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="21.875" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="29.25" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="32.625" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="19.25" style="30" customWidth="1"/>
+    <col min="7430" max="7430" width="8.125" style="30" customWidth="1"/>
+    <col min="7431" max="7431" width="9.125" style="30"/>
+    <col min="7432" max="7432" width="20.125" style="30" customWidth="1"/>
+    <col min="7433" max="7433" width="9.375" style="30" customWidth="1"/>
     <col min="7434" max="7434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="30"/>
-    <col min="7681" max="7681" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7686" max="7686" width="8.140625" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="9.140625" style="30"/>
-    <col min="7688" max="7688" width="20.140625" style="30" customWidth="1"/>
-    <col min="7689" max="7689" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7435" max="7680" width="9.125" style="30"/>
+    <col min="7681" max="7681" width="13.375" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="21.875" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="29.25" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="32.625" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="19.25" style="30" customWidth="1"/>
+    <col min="7686" max="7686" width="8.125" style="30" customWidth="1"/>
+    <col min="7687" max="7687" width="9.125" style="30"/>
+    <col min="7688" max="7688" width="20.125" style="30" customWidth="1"/>
+    <col min="7689" max="7689" width="9.375" style="30" customWidth="1"/>
     <col min="7690" max="7690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="30"/>
-    <col min="7937" max="7937" width="13.42578125" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="32.5703125" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7942" max="7942" width="8.140625" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="9.140625" style="30"/>
-    <col min="7944" max="7944" width="20.140625" style="30" customWidth="1"/>
-    <col min="7945" max="7945" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7691" max="7936" width="9.125" style="30"/>
+    <col min="7937" max="7937" width="13.375" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="21.875" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="29.25" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="32.625" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="19.25" style="30" customWidth="1"/>
+    <col min="7942" max="7942" width="8.125" style="30" customWidth="1"/>
+    <col min="7943" max="7943" width="9.125" style="30"/>
+    <col min="7944" max="7944" width="20.125" style="30" customWidth="1"/>
+    <col min="7945" max="7945" width="9.375" style="30" customWidth="1"/>
     <col min="7946" max="7946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="30"/>
-    <col min="8193" max="8193" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8198" max="8198" width="8.140625" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="9.140625" style="30"/>
-    <col min="8200" max="8200" width="20.140625" style="30" customWidth="1"/>
-    <col min="8201" max="8201" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7947" max="8192" width="9.125" style="30"/>
+    <col min="8193" max="8193" width="13.375" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="21.875" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="29.25" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="32.625" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="19.25" style="30" customWidth="1"/>
+    <col min="8198" max="8198" width="8.125" style="30" customWidth="1"/>
+    <col min="8199" max="8199" width="9.125" style="30"/>
+    <col min="8200" max="8200" width="20.125" style="30" customWidth="1"/>
+    <col min="8201" max="8201" width="9.375" style="30" customWidth="1"/>
     <col min="8202" max="8202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="30"/>
-    <col min="8449" max="8449" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8454" max="8454" width="8.140625" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="9.140625" style="30"/>
-    <col min="8456" max="8456" width="20.140625" style="30" customWidth="1"/>
-    <col min="8457" max="8457" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8203" max="8448" width="9.125" style="30"/>
+    <col min="8449" max="8449" width="13.375" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="21.875" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="29.25" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="32.625" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="19.25" style="30" customWidth="1"/>
+    <col min="8454" max="8454" width="8.125" style="30" customWidth="1"/>
+    <col min="8455" max="8455" width="9.125" style="30"/>
+    <col min="8456" max="8456" width="20.125" style="30" customWidth="1"/>
+    <col min="8457" max="8457" width="9.375" style="30" customWidth="1"/>
     <col min="8458" max="8458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="30"/>
-    <col min="8705" max="8705" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8710" max="8710" width="8.140625" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="9.140625" style="30"/>
-    <col min="8712" max="8712" width="20.140625" style="30" customWidth="1"/>
-    <col min="8713" max="8713" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8459" max="8704" width="9.125" style="30"/>
+    <col min="8705" max="8705" width="13.375" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="21.875" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="29.25" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="32.625" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="19.25" style="30" customWidth="1"/>
+    <col min="8710" max="8710" width="8.125" style="30" customWidth="1"/>
+    <col min="8711" max="8711" width="9.125" style="30"/>
+    <col min="8712" max="8712" width="20.125" style="30" customWidth="1"/>
+    <col min="8713" max="8713" width="9.375" style="30" customWidth="1"/>
     <col min="8714" max="8714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="30"/>
-    <col min="8961" max="8961" width="13.42578125" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="32.5703125" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8966" max="8966" width="8.140625" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="9.140625" style="30"/>
-    <col min="8968" max="8968" width="20.140625" style="30" customWidth="1"/>
-    <col min="8969" max="8969" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8715" max="8960" width="9.125" style="30"/>
+    <col min="8961" max="8961" width="13.375" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="21.875" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="29.25" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="32.625" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="19.25" style="30" customWidth="1"/>
+    <col min="8966" max="8966" width="8.125" style="30" customWidth="1"/>
+    <col min="8967" max="8967" width="9.125" style="30"/>
+    <col min="8968" max="8968" width="20.125" style="30" customWidth="1"/>
+    <col min="8969" max="8969" width="9.375" style="30" customWidth="1"/>
     <col min="8970" max="8970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="30"/>
-    <col min="9217" max="9217" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9222" max="9222" width="8.140625" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="9.140625" style="30"/>
-    <col min="9224" max="9224" width="20.140625" style="30" customWidth="1"/>
-    <col min="9225" max="9225" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8971" max="9216" width="9.125" style="30"/>
+    <col min="9217" max="9217" width="13.375" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="21.875" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="29.25" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="32.625" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="19.25" style="30" customWidth="1"/>
+    <col min="9222" max="9222" width="8.125" style="30" customWidth="1"/>
+    <col min="9223" max="9223" width="9.125" style="30"/>
+    <col min="9224" max="9224" width="20.125" style="30" customWidth="1"/>
+    <col min="9225" max="9225" width="9.375" style="30" customWidth="1"/>
     <col min="9226" max="9226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="30"/>
-    <col min="9473" max="9473" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9478" max="9478" width="8.140625" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="9.140625" style="30"/>
-    <col min="9480" max="9480" width="20.140625" style="30" customWidth="1"/>
-    <col min="9481" max="9481" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9227" max="9472" width="9.125" style="30"/>
+    <col min="9473" max="9473" width="13.375" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="21.875" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="29.25" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="32.625" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="19.25" style="30" customWidth="1"/>
+    <col min="9478" max="9478" width="8.125" style="30" customWidth="1"/>
+    <col min="9479" max="9479" width="9.125" style="30"/>
+    <col min="9480" max="9480" width="20.125" style="30" customWidth="1"/>
+    <col min="9481" max="9481" width="9.375" style="30" customWidth="1"/>
     <col min="9482" max="9482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="30"/>
-    <col min="9729" max="9729" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9734" max="9734" width="8.140625" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="9.140625" style="30"/>
-    <col min="9736" max="9736" width="20.140625" style="30" customWidth="1"/>
-    <col min="9737" max="9737" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9483" max="9728" width="9.125" style="30"/>
+    <col min="9729" max="9729" width="13.375" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="21.875" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="29.25" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="32.625" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="19.25" style="30" customWidth="1"/>
+    <col min="9734" max="9734" width="8.125" style="30" customWidth="1"/>
+    <col min="9735" max="9735" width="9.125" style="30"/>
+    <col min="9736" max="9736" width="20.125" style="30" customWidth="1"/>
+    <col min="9737" max="9737" width="9.375" style="30" customWidth="1"/>
     <col min="9738" max="9738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="30"/>
-    <col min="9985" max="9985" width="13.42578125" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="32.5703125" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9990" max="9990" width="8.140625" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="9.140625" style="30"/>
-    <col min="9992" max="9992" width="20.140625" style="30" customWidth="1"/>
-    <col min="9993" max="9993" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9739" max="9984" width="9.125" style="30"/>
+    <col min="9985" max="9985" width="13.375" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="21.875" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="29.25" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="32.625" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="19.25" style="30" customWidth="1"/>
+    <col min="9990" max="9990" width="8.125" style="30" customWidth="1"/>
+    <col min="9991" max="9991" width="9.125" style="30"/>
+    <col min="9992" max="9992" width="20.125" style="30" customWidth="1"/>
+    <col min="9993" max="9993" width="9.375" style="30" customWidth="1"/>
     <col min="9994" max="9994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="30"/>
-    <col min="10241" max="10241" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="32.5703125" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10246" max="10246" width="8.140625" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="9.140625" style="30"/>
-    <col min="10248" max="10248" width="20.140625" style="30" customWidth="1"/>
-    <col min="10249" max="10249" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9995" max="10240" width="9.125" style="30"/>
+    <col min="10241" max="10241" width="13.375" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="21.875" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="29.25" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="32.625" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="19.25" style="30" customWidth="1"/>
+    <col min="10246" max="10246" width="8.125" style="30" customWidth="1"/>
+    <col min="10247" max="10247" width="9.125" style="30"/>
+    <col min="10248" max="10248" width="20.125" style="30" customWidth="1"/>
+    <col min="10249" max="10249" width="9.375" style="30" customWidth="1"/>
     <col min="10250" max="10250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="30"/>
-    <col min="10497" max="10497" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="32.5703125" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10502" max="10502" width="8.140625" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="9.140625" style="30"/>
-    <col min="10504" max="10504" width="20.140625" style="30" customWidth="1"/>
-    <col min="10505" max="10505" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10251" max="10496" width="9.125" style="30"/>
+    <col min="10497" max="10497" width="13.375" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="21.875" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="29.25" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="32.625" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="19.25" style="30" customWidth="1"/>
+    <col min="10502" max="10502" width="8.125" style="30" customWidth="1"/>
+    <col min="10503" max="10503" width="9.125" style="30"/>
+    <col min="10504" max="10504" width="20.125" style="30" customWidth="1"/>
+    <col min="10505" max="10505" width="9.375" style="30" customWidth="1"/>
     <col min="10506" max="10506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="30"/>
-    <col min="10753" max="10753" width="13.42578125" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="32.5703125" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10758" max="10758" width="8.140625" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="9.140625" style="30"/>
-    <col min="10760" max="10760" width="20.140625" style="30" customWidth="1"/>
-    <col min="10761" max="10761" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10507" max="10752" width="9.125" style="30"/>
+    <col min="10753" max="10753" width="13.375" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="21.875" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="29.25" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="32.625" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="19.25" style="30" customWidth="1"/>
+    <col min="10758" max="10758" width="8.125" style="30" customWidth="1"/>
+    <col min="10759" max="10759" width="9.125" style="30"/>
+    <col min="10760" max="10760" width="20.125" style="30" customWidth="1"/>
+    <col min="10761" max="10761" width="9.375" style="30" customWidth="1"/>
     <col min="10762" max="10762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="30"/>
-    <col min="11009" max="11009" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11014" max="11014" width="8.140625" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="9.140625" style="30"/>
-    <col min="11016" max="11016" width="20.140625" style="30" customWidth="1"/>
-    <col min="11017" max="11017" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10763" max="11008" width="9.125" style="30"/>
+    <col min="11009" max="11009" width="13.375" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="21.875" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="29.25" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="32.625" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="19.25" style="30" customWidth="1"/>
+    <col min="11014" max="11014" width="8.125" style="30" customWidth="1"/>
+    <col min="11015" max="11015" width="9.125" style="30"/>
+    <col min="11016" max="11016" width="20.125" style="30" customWidth="1"/>
+    <col min="11017" max="11017" width="9.375" style="30" customWidth="1"/>
     <col min="11018" max="11018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="30"/>
-    <col min="11265" max="11265" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11270" max="11270" width="8.140625" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="9.140625" style="30"/>
-    <col min="11272" max="11272" width="20.140625" style="30" customWidth="1"/>
-    <col min="11273" max="11273" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11019" max="11264" width="9.125" style="30"/>
+    <col min="11265" max="11265" width="13.375" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="21.875" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="29.25" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="32.625" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="19.25" style="30" customWidth="1"/>
+    <col min="11270" max="11270" width="8.125" style="30" customWidth="1"/>
+    <col min="11271" max="11271" width="9.125" style="30"/>
+    <col min="11272" max="11272" width="20.125" style="30" customWidth="1"/>
+    <col min="11273" max="11273" width="9.375" style="30" customWidth="1"/>
     <col min="11274" max="11274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="30"/>
-    <col min="11521" max="11521" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11526" max="11526" width="8.140625" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="9.140625" style="30"/>
-    <col min="11528" max="11528" width="20.140625" style="30" customWidth="1"/>
-    <col min="11529" max="11529" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11275" max="11520" width="9.125" style="30"/>
+    <col min="11521" max="11521" width="13.375" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="21.875" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="29.25" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="32.625" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="19.25" style="30" customWidth="1"/>
+    <col min="11526" max="11526" width="8.125" style="30" customWidth="1"/>
+    <col min="11527" max="11527" width="9.125" style="30"/>
+    <col min="11528" max="11528" width="20.125" style="30" customWidth="1"/>
+    <col min="11529" max="11529" width="9.375" style="30" customWidth="1"/>
     <col min="11530" max="11530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="30"/>
-    <col min="11777" max="11777" width="13.42578125" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="32.5703125" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11782" max="11782" width="8.140625" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="9.140625" style="30"/>
-    <col min="11784" max="11784" width="20.140625" style="30" customWidth="1"/>
-    <col min="11785" max="11785" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11531" max="11776" width="9.125" style="30"/>
+    <col min="11777" max="11777" width="13.375" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="21.875" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="29.25" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="32.625" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="19.25" style="30" customWidth="1"/>
+    <col min="11782" max="11782" width="8.125" style="30" customWidth="1"/>
+    <col min="11783" max="11783" width="9.125" style="30"/>
+    <col min="11784" max="11784" width="20.125" style="30" customWidth="1"/>
+    <col min="11785" max="11785" width="9.375" style="30" customWidth="1"/>
     <col min="11786" max="11786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="30"/>
-    <col min="12033" max="12033" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12038" max="12038" width="8.140625" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="9.140625" style="30"/>
-    <col min="12040" max="12040" width="20.140625" style="30" customWidth="1"/>
-    <col min="12041" max="12041" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11787" max="12032" width="9.125" style="30"/>
+    <col min="12033" max="12033" width="13.375" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="21.875" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="29.25" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="32.625" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="19.25" style="30" customWidth="1"/>
+    <col min="12038" max="12038" width="8.125" style="30" customWidth="1"/>
+    <col min="12039" max="12039" width="9.125" style="30"/>
+    <col min="12040" max="12040" width="20.125" style="30" customWidth="1"/>
+    <col min="12041" max="12041" width="9.375" style="30" customWidth="1"/>
     <col min="12042" max="12042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="30"/>
-    <col min="12289" max="12289" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12294" max="12294" width="8.140625" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="9.140625" style="30"/>
-    <col min="12296" max="12296" width="20.140625" style="30" customWidth="1"/>
-    <col min="12297" max="12297" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12043" max="12288" width="9.125" style="30"/>
+    <col min="12289" max="12289" width="13.375" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="21.875" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="29.25" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="32.625" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="19.25" style="30" customWidth="1"/>
+    <col min="12294" max="12294" width="8.125" style="30" customWidth="1"/>
+    <col min="12295" max="12295" width="9.125" style="30"/>
+    <col min="12296" max="12296" width="20.125" style="30" customWidth="1"/>
+    <col min="12297" max="12297" width="9.375" style="30" customWidth="1"/>
     <col min="12298" max="12298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="30"/>
-    <col min="12545" max="12545" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12550" max="12550" width="8.140625" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="9.140625" style="30"/>
-    <col min="12552" max="12552" width="20.140625" style="30" customWidth="1"/>
-    <col min="12553" max="12553" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12299" max="12544" width="9.125" style="30"/>
+    <col min="12545" max="12545" width="13.375" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="21.875" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="29.25" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="32.625" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="19.25" style="30" customWidth="1"/>
+    <col min="12550" max="12550" width="8.125" style="30" customWidth="1"/>
+    <col min="12551" max="12551" width="9.125" style="30"/>
+    <col min="12552" max="12552" width="20.125" style="30" customWidth="1"/>
+    <col min="12553" max="12553" width="9.375" style="30" customWidth="1"/>
     <col min="12554" max="12554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="30"/>
-    <col min="12801" max="12801" width="13.42578125" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="32.5703125" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12806" max="12806" width="8.140625" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="9.140625" style="30"/>
-    <col min="12808" max="12808" width="20.140625" style="30" customWidth="1"/>
-    <col min="12809" max="12809" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12555" max="12800" width="9.125" style="30"/>
+    <col min="12801" max="12801" width="13.375" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="21.875" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="29.25" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="32.625" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="19.25" style="30" customWidth="1"/>
+    <col min="12806" max="12806" width="8.125" style="30" customWidth="1"/>
+    <col min="12807" max="12807" width="9.125" style="30"/>
+    <col min="12808" max="12808" width="20.125" style="30" customWidth="1"/>
+    <col min="12809" max="12809" width="9.375" style="30" customWidth="1"/>
     <col min="12810" max="12810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="30"/>
-    <col min="13057" max="13057" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13062" max="13062" width="8.140625" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="9.140625" style="30"/>
-    <col min="13064" max="13064" width="20.140625" style="30" customWidth="1"/>
-    <col min="13065" max="13065" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12811" max="13056" width="9.125" style="30"/>
+    <col min="13057" max="13057" width="13.375" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="21.875" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="29.25" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="32.625" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="19.25" style="30" customWidth="1"/>
+    <col min="13062" max="13062" width="8.125" style="30" customWidth="1"/>
+    <col min="13063" max="13063" width="9.125" style="30"/>
+    <col min="13064" max="13064" width="20.125" style="30" customWidth="1"/>
+    <col min="13065" max="13065" width="9.375" style="30" customWidth="1"/>
     <col min="13066" max="13066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="30"/>
-    <col min="13313" max="13313" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13318" max="13318" width="8.140625" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="9.140625" style="30"/>
-    <col min="13320" max="13320" width="20.140625" style="30" customWidth="1"/>
-    <col min="13321" max="13321" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13067" max="13312" width="9.125" style="30"/>
+    <col min="13313" max="13313" width="13.375" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="21.875" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="29.25" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="32.625" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="19.25" style="30" customWidth="1"/>
+    <col min="13318" max="13318" width="8.125" style="30" customWidth="1"/>
+    <col min="13319" max="13319" width="9.125" style="30"/>
+    <col min="13320" max="13320" width="20.125" style="30" customWidth="1"/>
+    <col min="13321" max="13321" width="9.375" style="30" customWidth="1"/>
     <col min="13322" max="13322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="30"/>
-    <col min="13569" max="13569" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13574" max="13574" width="8.140625" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="9.140625" style="30"/>
-    <col min="13576" max="13576" width="20.140625" style="30" customWidth="1"/>
-    <col min="13577" max="13577" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13323" max="13568" width="9.125" style="30"/>
+    <col min="13569" max="13569" width="13.375" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="21.875" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="29.25" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="32.625" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="19.25" style="30" customWidth="1"/>
+    <col min="13574" max="13574" width="8.125" style="30" customWidth="1"/>
+    <col min="13575" max="13575" width="9.125" style="30"/>
+    <col min="13576" max="13576" width="20.125" style="30" customWidth="1"/>
+    <col min="13577" max="13577" width="9.375" style="30" customWidth="1"/>
     <col min="13578" max="13578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="30"/>
-    <col min="13825" max="13825" width="13.42578125" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="32.5703125" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13830" max="13830" width="8.140625" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="9.140625" style="30"/>
-    <col min="13832" max="13832" width="20.140625" style="30" customWidth="1"/>
-    <col min="13833" max="13833" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13579" max="13824" width="9.125" style="30"/>
+    <col min="13825" max="13825" width="13.375" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="21.875" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="29.25" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="32.625" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="19.25" style="30" customWidth="1"/>
+    <col min="13830" max="13830" width="8.125" style="30" customWidth="1"/>
+    <col min="13831" max="13831" width="9.125" style="30"/>
+    <col min="13832" max="13832" width="20.125" style="30" customWidth="1"/>
+    <col min="13833" max="13833" width="9.375" style="30" customWidth="1"/>
     <col min="13834" max="13834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="30"/>
-    <col min="14081" max="14081" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14086" max="14086" width="8.140625" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="9.140625" style="30"/>
-    <col min="14088" max="14088" width="20.140625" style="30" customWidth="1"/>
-    <col min="14089" max="14089" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13835" max="14080" width="9.125" style="30"/>
+    <col min="14081" max="14081" width="13.375" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="21.875" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="29.25" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="32.625" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="19.25" style="30" customWidth="1"/>
+    <col min="14086" max="14086" width="8.125" style="30" customWidth="1"/>
+    <col min="14087" max="14087" width="9.125" style="30"/>
+    <col min="14088" max="14088" width="20.125" style="30" customWidth="1"/>
+    <col min="14089" max="14089" width="9.375" style="30" customWidth="1"/>
     <col min="14090" max="14090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="30"/>
-    <col min="14337" max="14337" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14342" max="14342" width="8.140625" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="9.140625" style="30"/>
-    <col min="14344" max="14344" width="20.140625" style="30" customWidth="1"/>
-    <col min="14345" max="14345" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14091" max="14336" width="9.125" style="30"/>
+    <col min="14337" max="14337" width="13.375" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="21.875" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="29.25" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="32.625" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="19.25" style="30" customWidth="1"/>
+    <col min="14342" max="14342" width="8.125" style="30" customWidth="1"/>
+    <col min="14343" max="14343" width="9.125" style="30"/>
+    <col min="14344" max="14344" width="20.125" style="30" customWidth="1"/>
+    <col min="14345" max="14345" width="9.375" style="30" customWidth="1"/>
     <col min="14346" max="14346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="30"/>
-    <col min="14593" max="14593" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14598" max="14598" width="8.140625" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="9.140625" style="30"/>
-    <col min="14600" max="14600" width="20.140625" style="30" customWidth="1"/>
-    <col min="14601" max="14601" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14347" max="14592" width="9.125" style="30"/>
+    <col min="14593" max="14593" width="13.375" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="21.875" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="29.25" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="32.625" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="19.25" style="30" customWidth="1"/>
+    <col min="14598" max="14598" width="8.125" style="30" customWidth="1"/>
+    <col min="14599" max="14599" width="9.125" style="30"/>
+    <col min="14600" max="14600" width="20.125" style="30" customWidth="1"/>
+    <col min="14601" max="14601" width="9.375" style="30" customWidth="1"/>
     <col min="14602" max="14602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="30"/>
-    <col min="14849" max="14849" width="13.42578125" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="32.5703125" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14854" max="14854" width="8.140625" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="9.140625" style="30"/>
-    <col min="14856" max="14856" width="20.140625" style="30" customWidth="1"/>
-    <col min="14857" max="14857" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14603" max="14848" width="9.125" style="30"/>
+    <col min="14849" max="14849" width="13.375" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="21.875" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="29.25" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="32.625" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="19.25" style="30" customWidth="1"/>
+    <col min="14854" max="14854" width="8.125" style="30" customWidth="1"/>
+    <col min="14855" max="14855" width="9.125" style="30"/>
+    <col min="14856" max="14856" width="20.125" style="30" customWidth="1"/>
+    <col min="14857" max="14857" width="9.375" style="30" customWidth="1"/>
     <col min="14858" max="14858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="30"/>
-    <col min="15105" max="15105" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15110" max="15110" width="8.140625" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="9.140625" style="30"/>
-    <col min="15112" max="15112" width="20.140625" style="30" customWidth="1"/>
-    <col min="15113" max="15113" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14859" max="15104" width="9.125" style="30"/>
+    <col min="15105" max="15105" width="13.375" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="21.875" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="29.25" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="32.625" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="19.25" style="30" customWidth="1"/>
+    <col min="15110" max="15110" width="8.125" style="30" customWidth="1"/>
+    <col min="15111" max="15111" width="9.125" style="30"/>
+    <col min="15112" max="15112" width="20.125" style="30" customWidth="1"/>
+    <col min="15113" max="15113" width="9.375" style="30" customWidth="1"/>
     <col min="15114" max="15114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="30"/>
-    <col min="15361" max="15361" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15366" max="15366" width="8.140625" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="9.140625" style="30"/>
-    <col min="15368" max="15368" width="20.140625" style="30" customWidth="1"/>
-    <col min="15369" max="15369" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15115" max="15360" width="9.125" style="30"/>
+    <col min="15361" max="15361" width="13.375" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="21.875" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="29.25" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="32.625" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="19.25" style="30" customWidth="1"/>
+    <col min="15366" max="15366" width="8.125" style="30" customWidth="1"/>
+    <col min="15367" max="15367" width="9.125" style="30"/>
+    <col min="15368" max="15368" width="20.125" style="30" customWidth="1"/>
+    <col min="15369" max="15369" width="9.375" style="30" customWidth="1"/>
     <col min="15370" max="15370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="30"/>
-    <col min="15617" max="15617" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15622" max="15622" width="8.140625" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="9.140625" style="30"/>
-    <col min="15624" max="15624" width="20.140625" style="30" customWidth="1"/>
-    <col min="15625" max="15625" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15371" max="15616" width="9.125" style="30"/>
+    <col min="15617" max="15617" width="13.375" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="21.875" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="29.25" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="32.625" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="19.25" style="30" customWidth="1"/>
+    <col min="15622" max="15622" width="8.125" style="30" customWidth="1"/>
+    <col min="15623" max="15623" width="9.125" style="30"/>
+    <col min="15624" max="15624" width="20.125" style="30" customWidth="1"/>
+    <col min="15625" max="15625" width="9.375" style="30" customWidth="1"/>
     <col min="15626" max="15626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="30"/>
-    <col min="15873" max="15873" width="13.42578125" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="32.5703125" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15878" max="15878" width="8.140625" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="9.140625" style="30"/>
-    <col min="15880" max="15880" width="20.140625" style="30" customWidth="1"/>
-    <col min="15881" max="15881" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15627" max="15872" width="9.125" style="30"/>
+    <col min="15873" max="15873" width="13.375" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="21.875" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="29.25" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="32.625" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="19.25" style="30" customWidth="1"/>
+    <col min="15878" max="15878" width="8.125" style="30" customWidth="1"/>
+    <col min="15879" max="15879" width="9.125" style="30"/>
+    <col min="15880" max="15880" width="20.125" style="30" customWidth="1"/>
+    <col min="15881" max="15881" width="9.375" style="30" customWidth="1"/>
     <col min="15882" max="15882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="30"/>
-    <col min="16129" max="16129" width="13.42578125" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="21.85546875" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="29.28515625" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="32.5703125" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="19.28515625" style="30" customWidth="1"/>
-    <col min="16134" max="16134" width="8.140625" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="9.140625" style="30"/>
-    <col min="16136" max="16136" width="20.140625" style="30" customWidth="1"/>
-    <col min="16137" max="16137" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15883" max="16128" width="9.125" style="30"/>
+    <col min="16129" max="16129" width="13.375" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="21.875" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="29.25" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="32.625" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="19.25" style="30" customWidth="1"/>
+    <col min="16134" max="16134" width="8.125" style="30" customWidth="1"/>
+    <col min="16135" max="16135" width="9.125" style="30"/>
+    <col min="16136" max="16136" width="20.125" style="30" customWidth="1"/>
+    <col min="16137" max="16137" width="9.375" style="30" customWidth="1"/>
     <col min="16138" max="16138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="30"/>
+    <col min="16139" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -4738,7 +4738,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="I4" s="66"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="77">
         <f>COUNTIF(F10:F995,"Pass")</f>
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="75"/>
@@ -4849,7 +4849,7 @@
       <c r="H7" s="75"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="I8" s="83"/>
     </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
         <v>99</v>
@@ -4889,7 +4889,7 @@
       <c r="H9" s="86"/>
       <c r="I9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="76.5">
       <c r="A10" s="88" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-]</v>
@@ -4909,7 +4909,7 @@
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="114.75">
       <c r="A11" s="88" t="str">
         <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-1]</v>
@@ -4931,7 +4931,7 @@
       <c r="H11" s="90"/>
       <c r="I11" s="91"/>
     </row>
-    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="51">
       <c r="A12" s="88" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-2]</v>
@@ -4955,7 +4955,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="63.75">
       <c r="A13" s="88" t="str">
         <f t="shared" ref="A13:A28" si="0">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-3]</v>
@@ -4979,7 +4979,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="127.5">
       <c r="A14" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-4]</v>
@@ -5003,7 +5003,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="51">
       <c r="A15" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-5]</v>
@@ -5027,7 +5027,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="51">
       <c r="A16" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-6]</v>
@@ -5051,7 +5051,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="127.5">
       <c r="A17" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-7]</v>
@@ -5072,7 +5072,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
-    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="51">
       <c r="A18" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-8]</v>
@@ -5094,7 +5094,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="100"/>
     </row>
-    <row r="19" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="51">
       <c r="A19" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-9]</v>
@@ -5118,7 +5118,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="127.5">
       <c r="A20" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-10]</v>
@@ -5139,7 +5139,7 @@
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="51">
       <c r="A21" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-11]</v>
@@ -5163,7 +5163,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="51">
       <c r="A22" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-12]</v>
@@ -5184,7 +5184,7 @@
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
-    <row r="23" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="127.5">
       <c r="A23" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-13]</v>
@@ -5205,7 +5205,7 @@
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="51">
       <c r="A24" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-14]</v>
@@ -5226,7 +5226,7 @@
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
-    <row r="25" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="51">
       <c r="A25" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-15]</v>
@@ -5247,7 +5247,7 @@
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
-    <row r="26" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="165.75">
       <c r="A26" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-16]</v>
@@ -5268,7 +5268,7 @@
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
-    <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="63.75">
       <c r="A27" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-17]</v>
@@ -5289,7 +5289,7 @@
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="51">
       <c r="A28" s="88" t="str">
         <f t="shared" si="0"/>
         <v>[Common Module-18]</v>
@@ -5310,7 +5310,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
-    <row r="31" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="69.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A8:H13"/>
   <mergeCells count="5">
@@ -5341,719 +5341,719 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <pane ySplit="8" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="30" customWidth="1"/>
     <col min="2" max="2" width="23" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="102"/>
-    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="101" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="102"/>
+    <col min="8" max="8" width="20.125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="101" customWidth="1"/>
     <col min="10" max="10" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11" max="256" width="9.140625" style="30"/>
-    <col min="257" max="257" width="13.140625" style="30" customWidth="1"/>
-    <col min="258" max="258" width="21.85546875" style="30" customWidth="1"/>
-    <col min="259" max="259" width="29.28515625" style="30" customWidth="1"/>
-    <col min="260" max="260" width="34.42578125" style="30" customWidth="1"/>
-    <col min="261" max="261" width="19.28515625" style="30" customWidth="1"/>
-    <col min="262" max="262" width="8.140625" style="30" customWidth="1"/>
-    <col min="263" max="263" width="9.140625" style="30"/>
-    <col min="264" max="264" width="20.140625" style="30" customWidth="1"/>
-    <col min="265" max="265" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11" max="256" width="9.125" style="30"/>
+    <col min="257" max="257" width="13.125" style="30" customWidth="1"/>
+    <col min="258" max="258" width="21.875" style="30" customWidth="1"/>
+    <col min="259" max="259" width="29.25" style="30" customWidth="1"/>
+    <col min="260" max="260" width="34.375" style="30" customWidth="1"/>
+    <col min="261" max="261" width="19.25" style="30" customWidth="1"/>
+    <col min="262" max="262" width="8.125" style="30" customWidth="1"/>
+    <col min="263" max="263" width="9.125" style="30"/>
+    <col min="264" max="264" width="20.125" style="30" customWidth="1"/>
+    <col min="265" max="265" width="9.375" style="30" customWidth="1"/>
     <col min="266" max="266" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="267" max="512" width="9.140625" style="30"/>
-    <col min="513" max="513" width="13.140625" style="30" customWidth="1"/>
-    <col min="514" max="514" width="21.85546875" style="30" customWidth="1"/>
-    <col min="515" max="515" width="29.28515625" style="30" customWidth="1"/>
-    <col min="516" max="516" width="34.42578125" style="30" customWidth="1"/>
-    <col min="517" max="517" width="19.28515625" style="30" customWidth="1"/>
-    <col min="518" max="518" width="8.140625" style="30" customWidth="1"/>
-    <col min="519" max="519" width="9.140625" style="30"/>
-    <col min="520" max="520" width="20.140625" style="30" customWidth="1"/>
-    <col min="521" max="521" width="9.42578125" style="30" customWidth="1"/>
+    <col min="267" max="512" width="9.125" style="30"/>
+    <col min="513" max="513" width="13.125" style="30" customWidth="1"/>
+    <col min="514" max="514" width="21.875" style="30" customWidth="1"/>
+    <col min="515" max="515" width="29.25" style="30" customWidth="1"/>
+    <col min="516" max="516" width="34.375" style="30" customWidth="1"/>
+    <col min="517" max="517" width="19.25" style="30" customWidth="1"/>
+    <col min="518" max="518" width="8.125" style="30" customWidth="1"/>
+    <col min="519" max="519" width="9.125" style="30"/>
+    <col min="520" max="520" width="20.125" style="30" customWidth="1"/>
+    <col min="521" max="521" width="9.375" style="30" customWidth="1"/>
     <col min="522" max="522" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="523" max="768" width="9.140625" style="30"/>
-    <col min="769" max="769" width="13.140625" style="30" customWidth="1"/>
-    <col min="770" max="770" width="21.85546875" style="30" customWidth="1"/>
-    <col min="771" max="771" width="29.28515625" style="30" customWidth="1"/>
-    <col min="772" max="772" width="34.42578125" style="30" customWidth="1"/>
-    <col min="773" max="773" width="19.28515625" style="30" customWidth="1"/>
-    <col min="774" max="774" width="8.140625" style="30" customWidth="1"/>
-    <col min="775" max="775" width="9.140625" style="30"/>
-    <col min="776" max="776" width="20.140625" style="30" customWidth="1"/>
-    <col min="777" max="777" width="9.42578125" style="30" customWidth="1"/>
+    <col min="523" max="768" width="9.125" style="30"/>
+    <col min="769" max="769" width="13.125" style="30" customWidth="1"/>
+    <col min="770" max="770" width="21.875" style="30" customWidth="1"/>
+    <col min="771" max="771" width="29.25" style="30" customWidth="1"/>
+    <col min="772" max="772" width="34.375" style="30" customWidth="1"/>
+    <col min="773" max="773" width="19.25" style="30" customWidth="1"/>
+    <col min="774" max="774" width="8.125" style="30" customWidth="1"/>
+    <col min="775" max="775" width="9.125" style="30"/>
+    <col min="776" max="776" width="20.125" style="30" customWidth="1"/>
+    <col min="777" max="777" width="9.375" style="30" customWidth="1"/>
     <col min="778" max="778" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="779" max="1024" width="9.140625" style="30"/>
-    <col min="1025" max="1025" width="13.140625" style="30" customWidth="1"/>
-    <col min="1026" max="1026" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1028" max="1028" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1029" max="1029" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1030" max="1030" width="8.140625" style="30" customWidth="1"/>
-    <col min="1031" max="1031" width="9.140625" style="30"/>
-    <col min="1032" max="1032" width="20.140625" style="30" customWidth="1"/>
-    <col min="1033" max="1033" width="9.42578125" style="30" customWidth="1"/>
+    <col min="779" max="1024" width="9.125" style="30"/>
+    <col min="1025" max="1025" width="13.125" style="30" customWidth="1"/>
+    <col min="1026" max="1026" width="21.875" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="29.25" style="30" customWidth="1"/>
+    <col min="1028" max="1028" width="34.375" style="30" customWidth="1"/>
+    <col min="1029" max="1029" width="19.25" style="30" customWidth="1"/>
+    <col min="1030" max="1030" width="8.125" style="30" customWidth="1"/>
+    <col min="1031" max="1031" width="9.125" style="30"/>
+    <col min="1032" max="1032" width="20.125" style="30" customWidth="1"/>
+    <col min="1033" max="1033" width="9.375" style="30" customWidth="1"/>
     <col min="1034" max="1034" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1035" max="1280" width="9.140625" style="30"/>
-    <col min="1281" max="1281" width="13.140625" style="30" customWidth="1"/>
-    <col min="1282" max="1282" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1284" max="1284" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1285" max="1285" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1286" max="1286" width="8.140625" style="30" customWidth="1"/>
-    <col min="1287" max="1287" width="9.140625" style="30"/>
-    <col min="1288" max="1288" width="20.140625" style="30" customWidth="1"/>
-    <col min="1289" max="1289" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1035" max="1280" width="9.125" style="30"/>
+    <col min="1281" max="1281" width="13.125" style="30" customWidth="1"/>
+    <col min="1282" max="1282" width="21.875" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="29.25" style="30" customWidth="1"/>
+    <col min="1284" max="1284" width="34.375" style="30" customWidth="1"/>
+    <col min="1285" max="1285" width="19.25" style="30" customWidth="1"/>
+    <col min="1286" max="1286" width="8.125" style="30" customWidth="1"/>
+    <col min="1287" max="1287" width="9.125" style="30"/>
+    <col min="1288" max="1288" width="20.125" style="30" customWidth="1"/>
+    <col min="1289" max="1289" width="9.375" style="30" customWidth="1"/>
     <col min="1290" max="1290" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1291" max="1536" width="9.140625" style="30"/>
-    <col min="1537" max="1537" width="13.140625" style="30" customWidth="1"/>
-    <col min="1538" max="1538" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1540" max="1540" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1541" max="1541" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1542" max="1542" width="8.140625" style="30" customWidth="1"/>
-    <col min="1543" max="1543" width="9.140625" style="30"/>
-    <col min="1544" max="1544" width="20.140625" style="30" customWidth="1"/>
-    <col min="1545" max="1545" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1291" max="1536" width="9.125" style="30"/>
+    <col min="1537" max="1537" width="13.125" style="30" customWidth="1"/>
+    <col min="1538" max="1538" width="21.875" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="29.25" style="30" customWidth="1"/>
+    <col min="1540" max="1540" width="34.375" style="30" customWidth="1"/>
+    <col min="1541" max="1541" width="19.25" style="30" customWidth="1"/>
+    <col min="1542" max="1542" width="8.125" style="30" customWidth="1"/>
+    <col min="1543" max="1543" width="9.125" style="30"/>
+    <col min="1544" max="1544" width="20.125" style="30" customWidth="1"/>
+    <col min="1545" max="1545" width="9.375" style="30" customWidth="1"/>
     <col min="1546" max="1546" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1547" max="1792" width="9.140625" style="30"/>
-    <col min="1793" max="1793" width="13.140625" style="30" customWidth="1"/>
-    <col min="1794" max="1794" width="21.85546875" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="29.28515625" style="30" customWidth="1"/>
-    <col min="1796" max="1796" width="34.42578125" style="30" customWidth="1"/>
-    <col min="1797" max="1797" width="19.28515625" style="30" customWidth="1"/>
-    <col min="1798" max="1798" width="8.140625" style="30" customWidth="1"/>
-    <col min="1799" max="1799" width="9.140625" style="30"/>
-    <col min="1800" max="1800" width="20.140625" style="30" customWidth="1"/>
-    <col min="1801" max="1801" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1547" max="1792" width="9.125" style="30"/>
+    <col min="1793" max="1793" width="13.125" style="30" customWidth="1"/>
+    <col min="1794" max="1794" width="21.875" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="29.25" style="30" customWidth="1"/>
+    <col min="1796" max="1796" width="34.375" style="30" customWidth="1"/>
+    <col min="1797" max="1797" width="19.25" style="30" customWidth="1"/>
+    <col min="1798" max="1798" width="8.125" style="30" customWidth="1"/>
+    <col min="1799" max="1799" width="9.125" style="30"/>
+    <col min="1800" max="1800" width="20.125" style="30" customWidth="1"/>
+    <col min="1801" max="1801" width="9.375" style="30" customWidth="1"/>
     <col min="1802" max="1802" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="1803" max="2048" width="9.140625" style="30"/>
-    <col min="2049" max="2049" width="13.140625" style="30" customWidth="1"/>
-    <col min="2050" max="2050" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2052" max="2052" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2053" max="2053" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2054" max="2054" width="8.140625" style="30" customWidth="1"/>
-    <col min="2055" max="2055" width="9.140625" style="30"/>
-    <col min="2056" max="2056" width="20.140625" style="30" customWidth="1"/>
-    <col min="2057" max="2057" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1803" max="2048" width="9.125" style="30"/>
+    <col min="2049" max="2049" width="13.125" style="30" customWidth="1"/>
+    <col min="2050" max="2050" width="21.875" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="29.25" style="30" customWidth="1"/>
+    <col min="2052" max="2052" width="34.375" style="30" customWidth="1"/>
+    <col min="2053" max="2053" width="19.25" style="30" customWidth="1"/>
+    <col min="2054" max="2054" width="8.125" style="30" customWidth="1"/>
+    <col min="2055" max="2055" width="9.125" style="30"/>
+    <col min="2056" max="2056" width="20.125" style="30" customWidth="1"/>
+    <col min="2057" max="2057" width="9.375" style="30" customWidth="1"/>
     <col min="2058" max="2058" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2059" max="2304" width="9.140625" style="30"/>
-    <col min="2305" max="2305" width="13.140625" style="30" customWidth="1"/>
-    <col min="2306" max="2306" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2308" max="2308" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2309" max="2309" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2310" max="2310" width="8.140625" style="30" customWidth="1"/>
-    <col min="2311" max="2311" width="9.140625" style="30"/>
-    <col min="2312" max="2312" width="20.140625" style="30" customWidth="1"/>
-    <col min="2313" max="2313" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2059" max="2304" width="9.125" style="30"/>
+    <col min="2305" max="2305" width="13.125" style="30" customWidth="1"/>
+    <col min="2306" max="2306" width="21.875" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="29.25" style="30" customWidth="1"/>
+    <col min="2308" max="2308" width="34.375" style="30" customWidth="1"/>
+    <col min="2309" max="2309" width="19.25" style="30" customWidth="1"/>
+    <col min="2310" max="2310" width="8.125" style="30" customWidth="1"/>
+    <col min="2311" max="2311" width="9.125" style="30"/>
+    <col min="2312" max="2312" width="20.125" style="30" customWidth="1"/>
+    <col min="2313" max="2313" width="9.375" style="30" customWidth="1"/>
     <col min="2314" max="2314" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2315" max="2560" width="9.140625" style="30"/>
-    <col min="2561" max="2561" width="13.140625" style="30" customWidth="1"/>
-    <col min="2562" max="2562" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2564" max="2564" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2565" max="2565" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2566" max="2566" width="8.140625" style="30" customWidth="1"/>
-    <col min="2567" max="2567" width="9.140625" style="30"/>
-    <col min="2568" max="2568" width="20.140625" style="30" customWidth="1"/>
-    <col min="2569" max="2569" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2315" max="2560" width="9.125" style="30"/>
+    <col min="2561" max="2561" width="13.125" style="30" customWidth="1"/>
+    <col min="2562" max="2562" width="21.875" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="29.25" style="30" customWidth="1"/>
+    <col min="2564" max="2564" width="34.375" style="30" customWidth="1"/>
+    <col min="2565" max="2565" width="19.25" style="30" customWidth="1"/>
+    <col min="2566" max="2566" width="8.125" style="30" customWidth="1"/>
+    <col min="2567" max="2567" width="9.125" style="30"/>
+    <col min="2568" max="2568" width="20.125" style="30" customWidth="1"/>
+    <col min="2569" max="2569" width="9.375" style="30" customWidth="1"/>
     <col min="2570" max="2570" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2571" max="2816" width="9.140625" style="30"/>
-    <col min="2817" max="2817" width="13.140625" style="30" customWidth="1"/>
-    <col min="2818" max="2818" width="21.85546875" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="29.28515625" style="30" customWidth="1"/>
-    <col min="2820" max="2820" width="34.42578125" style="30" customWidth="1"/>
-    <col min="2821" max="2821" width="19.28515625" style="30" customWidth="1"/>
-    <col min="2822" max="2822" width="8.140625" style="30" customWidth="1"/>
-    <col min="2823" max="2823" width="9.140625" style="30"/>
-    <col min="2824" max="2824" width="20.140625" style="30" customWidth="1"/>
-    <col min="2825" max="2825" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2571" max="2816" width="9.125" style="30"/>
+    <col min="2817" max="2817" width="13.125" style="30" customWidth="1"/>
+    <col min="2818" max="2818" width="21.875" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="29.25" style="30" customWidth="1"/>
+    <col min="2820" max="2820" width="34.375" style="30" customWidth="1"/>
+    <col min="2821" max="2821" width="19.25" style="30" customWidth="1"/>
+    <col min="2822" max="2822" width="8.125" style="30" customWidth="1"/>
+    <col min="2823" max="2823" width="9.125" style="30"/>
+    <col min="2824" max="2824" width="20.125" style="30" customWidth="1"/>
+    <col min="2825" max="2825" width="9.375" style="30" customWidth="1"/>
     <col min="2826" max="2826" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="2827" max="3072" width="9.140625" style="30"/>
-    <col min="3073" max="3073" width="13.140625" style="30" customWidth="1"/>
-    <col min="3074" max="3074" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3076" max="3076" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3077" max="3077" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3078" max="3078" width="8.140625" style="30" customWidth="1"/>
-    <col min="3079" max="3079" width="9.140625" style="30"/>
-    <col min="3080" max="3080" width="20.140625" style="30" customWidth="1"/>
-    <col min="3081" max="3081" width="9.42578125" style="30" customWidth="1"/>
+    <col min="2827" max="3072" width="9.125" style="30"/>
+    <col min="3073" max="3073" width="13.125" style="30" customWidth="1"/>
+    <col min="3074" max="3074" width="21.875" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="29.25" style="30" customWidth="1"/>
+    <col min="3076" max="3076" width="34.375" style="30" customWidth="1"/>
+    <col min="3077" max="3077" width="19.25" style="30" customWidth="1"/>
+    <col min="3078" max="3078" width="8.125" style="30" customWidth="1"/>
+    <col min="3079" max="3079" width="9.125" style="30"/>
+    <col min="3080" max="3080" width="20.125" style="30" customWidth="1"/>
+    <col min="3081" max="3081" width="9.375" style="30" customWidth="1"/>
     <col min="3082" max="3082" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3083" max="3328" width="9.140625" style="30"/>
-    <col min="3329" max="3329" width="13.140625" style="30" customWidth="1"/>
-    <col min="3330" max="3330" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3332" max="3332" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3333" max="3333" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3334" max="3334" width="8.140625" style="30" customWidth="1"/>
-    <col min="3335" max="3335" width="9.140625" style="30"/>
-    <col min="3336" max="3336" width="20.140625" style="30" customWidth="1"/>
-    <col min="3337" max="3337" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3083" max="3328" width="9.125" style="30"/>
+    <col min="3329" max="3329" width="13.125" style="30" customWidth="1"/>
+    <col min="3330" max="3330" width="21.875" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="29.25" style="30" customWidth="1"/>
+    <col min="3332" max="3332" width="34.375" style="30" customWidth="1"/>
+    <col min="3333" max="3333" width="19.25" style="30" customWidth="1"/>
+    <col min="3334" max="3334" width="8.125" style="30" customWidth="1"/>
+    <col min="3335" max="3335" width="9.125" style="30"/>
+    <col min="3336" max="3336" width="20.125" style="30" customWidth="1"/>
+    <col min="3337" max="3337" width="9.375" style="30" customWidth="1"/>
     <col min="3338" max="3338" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3339" max="3584" width="9.140625" style="30"/>
-    <col min="3585" max="3585" width="13.140625" style="30" customWidth="1"/>
-    <col min="3586" max="3586" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3588" max="3588" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3589" max="3589" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3590" max="3590" width="8.140625" style="30" customWidth="1"/>
-    <col min="3591" max="3591" width="9.140625" style="30"/>
-    <col min="3592" max="3592" width="20.140625" style="30" customWidth="1"/>
-    <col min="3593" max="3593" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3339" max="3584" width="9.125" style="30"/>
+    <col min="3585" max="3585" width="13.125" style="30" customWidth="1"/>
+    <col min="3586" max="3586" width="21.875" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="29.25" style="30" customWidth="1"/>
+    <col min="3588" max="3588" width="34.375" style="30" customWidth="1"/>
+    <col min="3589" max="3589" width="19.25" style="30" customWidth="1"/>
+    <col min="3590" max="3590" width="8.125" style="30" customWidth="1"/>
+    <col min="3591" max="3591" width="9.125" style="30"/>
+    <col min="3592" max="3592" width="20.125" style="30" customWidth="1"/>
+    <col min="3593" max="3593" width="9.375" style="30" customWidth="1"/>
     <col min="3594" max="3594" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3595" max="3840" width="9.140625" style="30"/>
-    <col min="3841" max="3841" width="13.140625" style="30" customWidth="1"/>
-    <col min="3842" max="3842" width="21.85546875" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="29.28515625" style="30" customWidth="1"/>
-    <col min="3844" max="3844" width="34.42578125" style="30" customWidth="1"/>
-    <col min="3845" max="3845" width="19.28515625" style="30" customWidth="1"/>
-    <col min="3846" max="3846" width="8.140625" style="30" customWidth="1"/>
-    <col min="3847" max="3847" width="9.140625" style="30"/>
-    <col min="3848" max="3848" width="20.140625" style="30" customWidth="1"/>
-    <col min="3849" max="3849" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3595" max="3840" width="9.125" style="30"/>
+    <col min="3841" max="3841" width="13.125" style="30" customWidth="1"/>
+    <col min="3842" max="3842" width="21.875" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="29.25" style="30" customWidth="1"/>
+    <col min="3844" max="3844" width="34.375" style="30" customWidth="1"/>
+    <col min="3845" max="3845" width="19.25" style="30" customWidth="1"/>
+    <col min="3846" max="3846" width="8.125" style="30" customWidth="1"/>
+    <col min="3847" max="3847" width="9.125" style="30"/>
+    <col min="3848" max="3848" width="20.125" style="30" customWidth="1"/>
+    <col min="3849" max="3849" width="9.375" style="30" customWidth="1"/>
     <col min="3850" max="3850" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="3851" max="4096" width="9.140625" style="30"/>
-    <col min="4097" max="4097" width="13.140625" style="30" customWidth="1"/>
-    <col min="4098" max="4098" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4100" max="4100" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4101" max="4101" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4102" max="4102" width="8.140625" style="30" customWidth="1"/>
-    <col min="4103" max="4103" width="9.140625" style="30"/>
-    <col min="4104" max="4104" width="20.140625" style="30" customWidth="1"/>
-    <col min="4105" max="4105" width="9.42578125" style="30" customWidth="1"/>
+    <col min="3851" max="4096" width="9.125" style="30"/>
+    <col min="4097" max="4097" width="13.125" style="30" customWidth="1"/>
+    <col min="4098" max="4098" width="21.875" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="29.25" style="30" customWidth="1"/>
+    <col min="4100" max="4100" width="34.375" style="30" customWidth="1"/>
+    <col min="4101" max="4101" width="19.25" style="30" customWidth="1"/>
+    <col min="4102" max="4102" width="8.125" style="30" customWidth="1"/>
+    <col min="4103" max="4103" width="9.125" style="30"/>
+    <col min="4104" max="4104" width="20.125" style="30" customWidth="1"/>
+    <col min="4105" max="4105" width="9.375" style="30" customWidth="1"/>
     <col min="4106" max="4106" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4107" max="4352" width="9.140625" style="30"/>
-    <col min="4353" max="4353" width="13.140625" style="30" customWidth="1"/>
-    <col min="4354" max="4354" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4356" max="4356" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4357" max="4357" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4358" max="4358" width="8.140625" style="30" customWidth="1"/>
-    <col min="4359" max="4359" width="9.140625" style="30"/>
-    <col min="4360" max="4360" width="20.140625" style="30" customWidth="1"/>
-    <col min="4361" max="4361" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4107" max="4352" width="9.125" style="30"/>
+    <col min="4353" max="4353" width="13.125" style="30" customWidth="1"/>
+    <col min="4354" max="4354" width="21.875" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="29.25" style="30" customWidth="1"/>
+    <col min="4356" max="4356" width="34.375" style="30" customWidth="1"/>
+    <col min="4357" max="4357" width="19.25" style="30" customWidth="1"/>
+    <col min="4358" max="4358" width="8.125" style="30" customWidth="1"/>
+    <col min="4359" max="4359" width="9.125" style="30"/>
+    <col min="4360" max="4360" width="20.125" style="30" customWidth="1"/>
+    <col min="4361" max="4361" width="9.375" style="30" customWidth="1"/>
     <col min="4362" max="4362" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4363" max="4608" width="9.140625" style="30"/>
-    <col min="4609" max="4609" width="13.140625" style="30" customWidth="1"/>
-    <col min="4610" max="4610" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4612" max="4612" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4613" max="4613" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4614" max="4614" width="8.140625" style="30" customWidth="1"/>
-    <col min="4615" max="4615" width="9.140625" style="30"/>
-    <col min="4616" max="4616" width="20.140625" style="30" customWidth="1"/>
-    <col min="4617" max="4617" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4363" max="4608" width="9.125" style="30"/>
+    <col min="4609" max="4609" width="13.125" style="30" customWidth="1"/>
+    <col min="4610" max="4610" width="21.875" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="29.25" style="30" customWidth="1"/>
+    <col min="4612" max="4612" width="34.375" style="30" customWidth="1"/>
+    <col min="4613" max="4613" width="19.25" style="30" customWidth="1"/>
+    <col min="4614" max="4614" width="8.125" style="30" customWidth="1"/>
+    <col min="4615" max="4615" width="9.125" style="30"/>
+    <col min="4616" max="4616" width="20.125" style="30" customWidth="1"/>
+    <col min="4617" max="4617" width="9.375" style="30" customWidth="1"/>
     <col min="4618" max="4618" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4619" max="4864" width="9.140625" style="30"/>
-    <col min="4865" max="4865" width="13.140625" style="30" customWidth="1"/>
-    <col min="4866" max="4866" width="21.85546875" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="29.28515625" style="30" customWidth="1"/>
-    <col min="4868" max="4868" width="34.42578125" style="30" customWidth="1"/>
-    <col min="4869" max="4869" width="19.28515625" style="30" customWidth="1"/>
-    <col min="4870" max="4870" width="8.140625" style="30" customWidth="1"/>
-    <col min="4871" max="4871" width="9.140625" style="30"/>
-    <col min="4872" max="4872" width="20.140625" style="30" customWidth="1"/>
-    <col min="4873" max="4873" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4619" max="4864" width="9.125" style="30"/>
+    <col min="4865" max="4865" width="13.125" style="30" customWidth="1"/>
+    <col min="4866" max="4866" width="21.875" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="29.25" style="30" customWidth="1"/>
+    <col min="4868" max="4868" width="34.375" style="30" customWidth="1"/>
+    <col min="4869" max="4869" width="19.25" style="30" customWidth="1"/>
+    <col min="4870" max="4870" width="8.125" style="30" customWidth="1"/>
+    <col min="4871" max="4871" width="9.125" style="30"/>
+    <col min="4872" max="4872" width="20.125" style="30" customWidth="1"/>
+    <col min="4873" max="4873" width="9.375" style="30" customWidth="1"/>
     <col min="4874" max="4874" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="4875" max="5120" width="9.140625" style="30"/>
-    <col min="5121" max="5121" width="13.140625" style="30" customWidth="1"/>
-    <col min="5122" max="5122" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5124" max="5124" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5125" max="5125" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5126" max="5126" width="8.140625" style="30" customWidth="1"/>
-    <col min="5127" max="5127" width="9.140625" style="30"/>
-    <col min="5128" max="5128" width="20.140625" style="30" customWidth="1"/>
-    <col min="5129" max="5129" width="9.42578125" style="30" customWidth="1"/>
+    <col min="4875" max="5120" width="9.125" style="30"/>
+    <col min="5121" max="5121" width="13.125" style="30" customWidth="1"/>
+    <col min="5122" max="5122" width="21.875" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="29.25" style="30" customWidth="1"/>
+    <col min="5124" max="5124" width="34.375" style="30" customWidth="1"/>
+    <col min="5125" max="5125" width="19.25" style="30" customWidth="1"/>
+    <col min="5126" max="5126" width="8.125" style="30" customWidth="1"/>
+    <col min="5127" max="5127" width="9.125" style="30"/>
+    <col min="5128" max="5128" width="20.125" style="30" customWidth="1"/>
+    <col min="5129" max="5129" width="9.375" style="30" customWidth="1"/>
     <col min="5130" max="5130" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5131" max="5376" width="9.140625" style="30"/>
-    <col min="5377" max="5377" width="13.140625" style="30" customWidth="1"/>
-    <col min="5378" max="5378" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5380" max="5380" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5381" max="5381" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5382" max="5382" width="8.140625" style="30" customWidth="1"/>
-    <col min="5383" max="5383" width="9.140625" style="30"/>
-    <col min="5384" max="5384" width="20.140625" style="30" customWidth="1"/>
-    <col min="5385" max="5385" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5131" max="5376" width="9.125" style="30"/>
+    <col min="5377" max="5377" width="13.125" style="30" customWidth="1"/>
+    <col min="5378" max="5378" width="21.875" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="29.25" style="30" customWidth="1"/>
+    <col min="5380" max="5380" width="34.375" style="30" customWidth="1"/>
+    <col min="5381" max="5381" width="19.25" style="30" customWidth="1"/>
+    <col min="5382" max="5382" width="8.125" style="30" customWidth="1"/>
+    <col min="5383" max="5383" width="9.125" style="30"/>
+    <col min="5384" max="5384" width="20.125" style="30" customWidth="1"/>
+    <col min="5385" max="5385" width="9.375" style="30" customWidth="1"/>
     <col min="5386" max="5386" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5387" max="5632" width="9.140625" style="30"/>
-    <col min="5633" max="5633" width="13.140625" style="30" customWidth="1"/>
-    <col min="5634" max="5634" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5636" max="5636" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5637" max="5637" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5638" max="5638" width="8.140625" style="30" customWidth="1"/>
-    <col min="5639" max="5639" width="9.140625" style="30"/>
-    <col min="5640" max="5640" width="20.140625" style="30" customWidth="1"/>
-    <col min="5641" max="5641" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5387" max="5632" width="9.125" style="30"/>
+    <col min="5633" max="5633" width="13.125" style="30" customWidth="1"/>
+    <col min="5634" max="5634" width="21.875" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="29.25" style="30" customWidth="1"/>
+    <col min="5636" max="5636" width="34.375" style="30" customWidth="1"/>
+    <col min="5637" max="5637" width="19.25" style="30" customWidth="1"/>
+    <col min="5638" max="5638" width="8.125" style="30" customWidth="1"/>
+    <col min="5639" max="5639" width="9.125" style="30"/>
+    <col min="5640" max="5640" width="20.125" style="30" customWidth="1"/>
+    <col min="5641" max="5641" width="9.375" style="30" customWidth="1"/>
     <col min="5642" max="5642" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5643" max="5888" width="9.140625" style="30"/>
-    <col min="5889" max="5889" width="13.140625" style="30" customWidth="1"/>
-    <col min="5890" max="5890" width="21.85546875" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="29.28515625" style="30" customWidth="1"/>
-    <col min="5892" max="5892" width="34.42578125" style="30" customWidth="1"/>
-    <col min="5893" max="5893" width="19.28515625" style="30" customWidth="1"/>
-    <col min="5894" max="5894" width="8.140625" style="30" customWidth="1"/>
-    <col min="5895" max="5895" width="9.140625" style="30"/>
-    <col min="5896" max="5896" width="20.140625" style="30" customWidth="1"/>
-    <col min="5897" max="5897" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5643" max="5888" width="9.125" style="30"/>
+    <col min="5889" max="5889" width="13.125" style="30" customWidth="1"/>
+    <col min="5890" max="5890" width="21.875" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="29.25" style="30" customWidth="1"/>
+    <col min="5892" max="5892" width="34.375" style="30" customWidth="1"/>
+    <col min="5893" max="5893" width="19.25" style="30" customWidth="1"/>
+    <col min="5894" max="5894" width="8.125" style="30" customWidth="1"/>
+    <col min="5895" max="5895" width="9.125" style="30"/>
+    <col min="5896" max="5896" width="20.125" style="30" customWidth="1"/>
+    <col min="5897" max="5897" width="9.375" style="30" customWidth="1"/>
     <col min="5898" max="5898" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="5899" max="6144" width="9.140625" style="30"/>
-    <col min="6145" max="6145" width="13.140625" style="30" customWidth="1"/>
-    <col min="6146" max="6146" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6148" max="6148" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6149" max="6149" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6150" max="6150" width="8.140625" style="30" customWidth="1"/>
-    <col min="6151" max="6151" width="9.140625" style="30"/>
-    <col min="6152" max="6152" width="20.140625" style="30" customWidth="1"/>
-    <col min="6153" max="6153" width="9.42578125" style="30" customWidth="1"/>
+    <col min="5899" max="6144" width="9.125" style="30"/>
+    <col min="6145" max="6145" width="13.125" style="30" customWidth="1"/>
+    <col min="6146" max="6146" width="21.875" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="29.25" style="30" customWidth="1"/>
+    <col min="6148" max="6148" width="34.375" style="30" customWidth="1"/>
+    <col min="6149" max="6149" width="19.25" style="30" customWidth="1"/>
+    <col min="6150" max="6150" width="8.125" style="30" customWidth="1"/>
+    <col min="6151" max="6151" width="9.125" style="30"/>
+    <col min="6152" max="6152" width="20.125" style="30" customWidth="1"/>
+    <col min="6153" max="6153" width="9.375" style="30" customWidth="1"/>
     <col min="6154" max="6154" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6155" max="6400" width="9.140625" style="30"/>
-    <col min="6401" max="6401" width="13.140625" style="30" customWidth="1"/>
-    <col min="6402" max="6402" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6404" max="6404" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6405" max="6405" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6406" max="6406" width="8.140625" style="30" customWidth="1"/>
-    <col min="6407" max="6407" width="9.140625" style="30"/>
-    <col min="6408" max="6408" width="20.140625" style="30" customWidth="1"/>
-    <col min="6409" max="6409" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6155" max="6400" width="9.125" style="30"/>
+    <col min="6401" max="6401" width="13.125" style="30" customWidth="1"/>
+    <col min="6402" max="6402" width="21.875" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="29.25" style="30" customWidth="1"/>
+    <col min="6404" max="6404" width="34.375" style="30" customWidth="1"/>
+    <col min="6405" max="6405" width="19.25" style="30" customWidth="1"/>
+    <col min="6406" max="6406" width="8.125" style="30" customWidth="1"/>
+    <col min="6407" max="6407" width="9.125" style="30"/>
+    <col min="6408" max="6408" width="20.125" style="30" customWidth="1"/>
+    <col min="6409" max="6409" width="9.375" style="30" customWidth="1"/>
     <col min="6410" max="6410" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6411" max="6656" width="9.140625" style="30"/>
-    <col min="6657" max="6657" width="13.140625" style="30" customWidth="1"/>
-    <col min="6658" max="6658" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6660" max="6660" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6661" max="6661" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6662" max="6662" width="8.140625" style="30" customWidth="1"/>
-    <col min="6663" max="6663" width="9.140625" style="30"/>
-    <col min="6664" max="6664" width="20.140625" style="30" customWidth="1"/>
-    <col min="6665" max="6665" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6411" max="6656" width="9.125" style="30"/>
+    <col min="6657" max="6657" width="13.125" style="30" customWidth="1"/>
+    <col min="6658" max="6658" width="21.875" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="29.25" style="30" customWidth="1"/>
+    <col min="6660" max="6660" width="34.375" style="30" customWidth="1"/>
+    <col min="6661" max="6661" width="19.25" style="30" customWidth="1"/>
+    <col min="6662" max="6662" width="8.125" style="30" customWidth="1"/>
+    <col min="6663" max="6663" width="9.125" style="30"/>
+    <col min="6664" max="6664" width="20.125" style="30" customWidth="1"/>
+    <col min="6665" max="6665" width="9.375" style="30" customWidth="1"/>
     <col min="6666" max="6666" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6667" max="6912" width="9.140625" style="30"/>
-    <col min="6913" max="6913" width="13.140625" style="30" customWidth="1"/>
-    <col min="6914" max="6914" width="21.85546875" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="29.28515625" style="30" customWidth="1"/>
-    <col min="6916" max="6916" width="34.42578125" style="30" customWidth="1"/>
-    <col min="6917" max="6917" width="19.28515625" style="30" customWidth="1"/>
-    <col min="6918" max="6918" width="8.140625" style="30" customWidth="1"/>
-    <col min="6919" max="6919" width="9.140625" style="30"/>
-    <col min="6920" max="6920" width="20.140625" style="30" customWidth="1"/>
-    <col min="6921" max="6921" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6667" max="6912" width="9.125" style="30"/>
+    <col min="6913" max="6913" width="13.125" style="30" customWidth="1"/>
+    <col min="6914" max="6914" width="21.875" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="29.25" style="30" customWidth="1"/>
+    <col min="6916" max="6916" width="34.375" style="30" customWidth="1"/>
+    <col min="6917" max="6917" width="19.25" style="30" customWidth="1"/>
+    <col min="6918" max="6918" width="8.125" style="30" customWidth="1"/>
+    <col min="6919" max="6919" width="9.125" style="30"/>
+    <col min="6920" max="6920" width="20.125" style="30" customWidth="1"/>
+    <col min="6921" max="6921" width="9.375" style="30" customWidth="1"/>
     <col min="6922" max="6922" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="6923" max="7168" width="9.140625" style="30"/>
-    <col min="7169" max="7169" width="13.140625" style="30" customWidth="1"/>
-    <col min="7170" max="7170" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7172" max="7172" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7173" max="7173" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7174" max="7174" width="8.140625" style="30" customWidth="1"/>
-    <col min="7175" max="7175" width="9.140625" style="30"/>
-    <col min="7176" max="7176" width="20.140625" style="30" customWidth="1"/>
-    <col min="7177" max="7177" width="9.42578125" style="30" customWidth="1"/>
+    <col min="6923" max="7168" width="9.125" style="30"/>
+    <col min="7169" max="7169" width="13.125" style="30" customWidth="1"/>
+    <col min="7170" max="7170" width="21.875" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="29.25" style="30" customWidth="1"/>
+    <col min="7172" max="7172" width="34.375" style="30" customWidth="1"/>
+    <col min="7173" max="7173" width="19.25" style="30" customWidth="1"/>
+    <col min="7174" max="7174" width="8.125" style="30" customWidth="1"/>
+    <col min="7175" max="7175" width="9.125" style="30"/>
+    <col min="7176" max="7176" width="20.125" style="30" customWidth="1"/>
+    <col min="7177" max="7177" width="9.375" style="30" customWidth="1"/>
     <col min="7178" max="7178" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7179" max="7424" width="9.140625" style="30"/>
-    <col min="7425" max="7425" width="13.140625" style="30" customWidth="1"/>
-    <col min="7426" max="7426" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7428" max="7428" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7429" max="7429" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7430" max="7430" width="8.140625" style="30" customWidth="1"/>
-    <col min="7431" max="7431" width="9.140625" style="30"/>
-    <col min="7432" max="7432" width="20.140625" style="30" customWidth="1"/>
-    <col min="7433" max="7433" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7179" max="7424" width="9.125" style="30"/>
+    <col min="7425" max="7425" width="13.125" style="30" customWidth="1"/>
+    <col min="7426" max="7426" width="21.875" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="29.25" style="30" customWidth="1"/>
+    <col min="7428" max="7428" width="34.375" style="30" customWidth="1"/>
+    <col min="7429" max="7429" width="19.25" style="30" customWidth="1"/>
+    <col min="7430" max="7430" width="8.125" style="30" customWidth="1"/>
+    <col min="7431" max="7431" width="9.125" style="30"/>
+    <col min="7432" max="7432" width="20.125" style="30" customWidth="1"/>
+    <col min="7433" max="7433" width="9.375" style="30" customWidth="1"/>
     <col min="7434" max="7434" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7435" max="7680" width="9.140625" style="30"/>
-    <col min="7681" max="7681" width="13.140625" style="30" customWidth="1"/>
-    <col min="7682" max="7682" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7684" max="7684" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7685" max="7685" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7686" max="7686" width="8.140625" style="30" customWidth="1"/>
-    <col min="7687" max="7687" width="9.140625" style="30"/>
-    <col min="7688" max="7688" width="20.140625" style="30" customWidth="1"/>
-    <col min="7689" max="7689" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7435" max="7680" width="9.125" style="30"/>
+    <col min="7681" max="7681" width="13.125" style="30" customWidth="1"/>
+    <col min="7682" max="7682" width="21.875" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="29.25" style="30" customWidth="1"/>
+    <col min="7684" max="7684" width="34.375" style="30" customWidth="1"/>
+    <col min="7685" max="7685" width="19.25" style="30" customWidth="1"/>
+    <col min="7686" max="7686" width="8.125" style="30" customWidth="1"/>
+    <col min="7687" max="7687" width="9.125" style="30"/>
+    <col min="7688" max="7688" width="20.125" style="30" customWidth="1"/>
+    <col min="7689" max="7689" width="9.375" style="30" customWidth="1"/>
     <col min="7690" max="7690" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7691" max="7936" width="9.140625" style="30"/>
-    <col min="7937" max="7937" width="13.140625" style="30" customWidth="1"/>
-    <col min="7938" max="7938" width="21.85546875" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="29.28515625" style="30" customWidth="1"/>
-    <col min="7940" max="7940" width="34.42578125" style="30" customWidth="1"/>
-    <col min="7941" max="7941" width="19.28515625" style="30" customWidth="1"/>
-    <col min="7942" max="7942" width="8.140625" style="30" customWidth="1"/>
-    <col min="7943" max="7943" width="9.140625" style="30"/>
-    <col min="7944" max="7944" width="20.140625" style="30" customWidth="1"/>
-    <col min="7945" max="7945" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7691" max="7936" width="9.125" style="30"/>
+    <col min="7937" max="7937" width="13.125" style="30" customWidth="1"/>
+    <col min="7938" max="7938" width="21.875" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="29.25" style="30" customWidth="1"/>
+    <col min="7940" max="7940" width="34.375" style="30" customWidth="1"/>
+    <col min="7941" max="7941" width="19.25" style="30" customWidth="1"/>
+    <col min="7942" max="7942" width="8.125" style="30" customWidth="1"/>
+    <col min="7943" max="7943" width="9.125" style="30"/>
+    <col min="7944" max="7944" width="20.125" style="30" customWidth="1"/>
+    <col min="7945" max="7945" width="9.375" style="30" customWidth="1"/>
     <col min="7946" max="7946" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="7947" max="8192" width="9.140625" style="30"/>
-    <col min="8193" max="8193" width="13.140625" style="30" customWidth="1"/>
-    <col min="8194" max="8194" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8196" max="8196" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8197" max="8197" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8198" max="8198" width="8.140625" style="30" customWidth="1"/>
-    <col min="8199" max="8199" width="9.140625" style="30"/>
-    <col min="8200" max="8200" width="20.140625" style="30" customWidth="1"/>
-    <col min="8201" max="8201" width="9.42578125" style="30" customWidth="1"/>
+    <col min="7947" max="8192" width="9.125" style="30"/>
+    <col min="8193" max="8193" width="13.125" style="30" customWidth="1"/>
+    <col min="8194" max="8194" width="21.875" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="29.25" style="30" customWidth="1"/>
+    <col min="8196" max="8196" width="34.375" style="30" customWidth="1"/>
+    <col min="8197" max="8197" width="19.25" style="30" customWidth="1"/>
+    <col min="8198" max="8198" width="8.125" style="30" customWidth="1"/>
+    <col min="8199" max="8199" width="9.125" style="30"/>
+    <col min="8200" max="8200" width="20.125" style="30" customWidth="1"/>
+    <col min="8201" max="8201" width="9.375" style="30" customWidth="1"/>
     <col min="8202" max="8202" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8203" max="8448" width="9.140625" style="30"/>
-    <col min="8449" max="8449" width="13.140625" style="30" customWidth="1"/>
-    <col min="8450" max="8450" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8452" max="8452" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8453" max="8453" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8454" max="8454" width="8.140625" style="30" customWidth="1"/>
-    <col min="8455" max="8455" width="9.140625" style="30"/>
-    <col min="8456" max="8456" width="20.140625" style="30" customWidth="1"/>
-    <col min="8457" max="8457" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8203" max="8448" width="9.125" style="30"/>
+    <col min="8449" max="8449" width="13.125" style="30" customWidth="1"/>
+    <col min="8450" max="8450" width="21.875" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="29.25" style="30" customWidth="1"/>
+    <col min="8452" max="8452" width="34.375" style="30" customWidth="1"/>
+    <col min="8453" max="8453" width="19.25" style="30" customWidth="1"/>
+    <col min="8454" max="8454" width="8.125" style="30" customWidth="1"/>
+    <col min="8455" max="8455" width="9.125" style="30"/>
+    <col min="8456" max="8456" width="20.125" style="30" customWidth="1"/>
+    <col min="8457" max="8457" width="9.375" style="30" customWidth="1"/>
     <col min="8458" max="8458" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8459" max="8704" width="9.140625" style="30"/>
-    <col min="8705" max="8705" width="13.140625" style="30" customWidth="1"/>
-    <col min="8706" max="8706" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8708" max="8708" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8709" max="8709" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8710" max="8710" width="8.140625" style="30" customWidth="1"/>
-    <col min="8711" max="8711" width="9.140625" style="30"/>
-    <col min="8712" max="8712" width="20.140625" style="30" customWidth="1"/>
-    <col min="8713" max="8713" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8459" max="8704" width="9.125" style="30"/>
+    <col min="8705" max="8705" width="13.125" style="30" customWidth="1"/>
+    <col min="8706" max="8706" width="21.875" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="29.25" style="30" customWidth="1"/>
+    <col min="8708" max="8708" width="34.375" style="30" customWidth="1"/>
+    <col min="8709" max="8709" width="19.25" style="30" customWidth="1"/>
+    <col min="8710" max="8710" width="8.125" style="30" customWidth="1"/>
+    <col min="8711" max="8711" width="9.125" style="30"/>
+    <col min="8712" max="8712" width="20.125" style="30" customWidth="1"/>
+    <col min="8713" max="8713" width="9.375" style="30" customWidth="1"/>
     <col min="8714" max="8714" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8715" max="8960" width="9.140625" style="30"/>
-    <col min="8961" max="8961" width="13.140625" style="30" customWidth="1"/>
-    <col min="8962" max="8962" width="21.85546875" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="29.28515625" style="30" customWidth="1"/>
-    <col min="8964" max="8964" width="34.42578125" style="30" customWidth="1"/>
-    <col min="8965" max="8965" width="19.28515625" style="30" customWidth="1"/>
-    <col min="8966" max="8966" width="8.140625" style="30" customWidth="1"/>
-    <col min="8967" max="8967" width="9.140625" style="30"/>
-    <col min="8968" max="8968" width="20.140625" style="30" customWidth="1"/>
-    <col min="8969" max="8969" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8715" max="8960" width="9.125" style="30"/>
+    <col min="8961" max="8961" width="13.125" style="30" customWidth="1"/>
+    <col min="8962" max="8962" width="21.875" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="29.25" style="30" customWidth="1"/>
+    <col min="8964" max="8964" width="34.375" style="30" customWidth="1"/>
+    <col min="8965" max="8965" width="19.25" style="30" customWidth="1"/>
+    <col min="8966" max="8966" width="8.125" style="30" customWidth="1"/>
+    <col min="8967" max="8967" width="9.125" style="30"/>
+    <col min="8968" max="8968" width="20.125" style="30" customWidth="1"/>
+    <col min="8969" max="8969" width="9.375" style="30" customWidth="1"/>
     <col min="8970" max="8970" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="8971" max="9216" width="9.140625" style="30"/>
-    <col min="9217" max="9217" width="13.140625" style="30" customWidth="1"/>
-    <col min="9218" max="9218" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9220" max="9220" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9221" max="9221" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9222" max="9222" width="8.140625" style="30" customWidth="1"/>
-    <col min="9223" max="9223" width="9.140625" style="30"/>
-    <col min="9224" max="9224" width="20.140625" style="30" customWidth="1"/>
-    <col min="9225" max="9225" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8971" max="9216" width="9.125" style="30"/>
+    <col min="9217" max="9217" width="13.125" style="30" customWidth="1"/>
+    <col min="9218" max="9218" width="21.875" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="29.25" style="30" customWidth="1"/>
+    <col min="9220" max="9220" width="34.375" style="30" customWidth="1"/>
+    <col min="9221" max="9221" width="19.25" style="30" customWidth="1"/>
+    <col min="9222" max="9222" width="8.125" style="30" customWidth="1"/>
+    <col min="9223" max="9223" width="9.125" style="30"/>
+    <col min="9224" max="9224" width="20.125" style="30" customWidth="1"/>
+    <col min="9225" max="9225" width="9.375" style="30" customWidth="1"/>
     <col min="9226" max="9226" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9227" max="9472" width="9.140625" style="30"/>
-    <col min="9473" max="9473" width="13.140625" style="30" customWidth="1"/>
-    <col min="9474" max="9474" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9476" max="9476" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9477" max="9477" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9478" max="9478" width="8.140625" style="30" customWidth="1"/>
-    <col min="9479" max="9479" width="9.140625" style="30"/>
-    <col min="9480" max="9480" width="20.140625" style="30" customWidth="1"/>
-    <col min="9481" max="9481" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9227" max="9472" width="9.125" style="30"/>
+    <col min="9473" max="9473" width="13.125" style="30" customWidth="1"/>
+    <col min="9474" max="9474" width="21.875" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="29.25" style="30" customWidth="1"/>
+    <col min="9476" max="9476" width="34.375" style="30" customWidth="1"/>
+    <col min="9477" max="9477" width="19.25" style="30" customWidth="1"/>
+    <col min="9478" max="9478" width="8.125" style="30" customWidth="1"/>
+    <col min="9479" max="9479" width="9.125" style="30"/>
+    <col min="9480" max="9480" width="20.125" style="30" customWidth="1"/>
+    <col min="9481" max="9481" width="9.375" style="30" customWidth="1"/>
     <col min="9482" max="9482" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9483" max="9728" width="9.140625" style="30"/>
-    <col min="9729" max="9729" width="13.140625" style="30" customWidth="1"/>
-    <col min="9730" max="9730" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9732" max="9732" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9733" max="9733" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9734" max="9734" width="8.140625" style="30" customWidth="1"/>
-    <col min="9735" max="9735" width="9.140625" style="30"/>
-    <col min="9736" max="9736" width="20.140625" style="30" customWidth="1"/>
-    <col min="9737" max="9737" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9483" max="9728" width="9.125" style="30"/>
+    <col min="9729" max="9729" width="13.125" style="30" customWidth="1"/>
+    <col min="9730" max="9730" width="21.875" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="29.25" style="30" customWidth="1"/>
+    <col min="9732" max="9732" width="34.375" style="30" customWidth="1"/>
+    <col min="9733" max="9733" width="19.25" style="30" customWidth="1"/>
+    <col min="9734" max="9734" width="8.125" style="30" customWidth="1"/>
+    <col min="9735" max="9735" width="9.125" style="30"/>
+    <col min="9736" max="9736" width="20.125" style="30" customWidth="1"/>
+    <col min="9737" max="9737" width="9.375" style="30" customWidth="1"/>
     <col min="9738" max="9738" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9739" max="9984" width="9.140625" style="30"/>
-    <col min="9985" max="9985" width="13.140625" style="30" customWidth="1"/>
-    <col min="9986" max="9986" width="21.85546875" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="29.28515625" style="30" customWidth="1"/>
-    <col min="9988" max="9988" width="34.42578125" style="30" customWidth="1"/>
-    <col min="9989" max="9989" width="19.28515625" style="30" customWidth="1"/>
-    <col min="9990" max="9990" width="8.140625" style="30" customWidth="1"/>
-    <col min="9991" max="9991" width="9.140625" style="30"/>
-    <col min="9992" max="9992" width="20.140625" style="30" customWidth="1"/>
-    <col min="9993" max="9993" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9739" max="9984" width="9.125" style="30"/>
+    <col min="9985" max="9985" width="13.125" style="30" customWidth="1"/>
+    <col min="9986" max="9986" width="21.875" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="29.25" style="30" customWidth="1"/>
+    <col min="9988" max="9988" width="34.375" style="30" customWidth="1"/>
+    <col min="9989" max="9989" width="19.25" style="30" customWidth="1"/>
+    <col min="9990" max="9990" width="8.125" style="30" customWidth="1"/>
+    <col min="9991" max="9991" width="9.125" style="30"/>
+    <col min="9992" max="9992" width="20.125" style="30" customWidth="1"/>
+    <col min="9993" max="9993" width="9.375" style="30" customWidth="1"/>
     <col min="9994" max="9994" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="9995" max="10240" width="9.140625" style="30"/>
-    <col min="10241" max="10241" width="13.140625" style="30" customWidth="1"/>
-    <col min="10242" max="10242" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10244" max="10244" width="34.42578125" style="30" customWidth="1"/>
-    <col min="10245" max="10245" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10246" max="10246" width="8.140625" style="30" customWidth="1"/>
-    <col min="10247" max="10247" width="9.140625" style="30"/>
-    <col min="10248" max="10248" width="20.140625" style="30" customWidth="1"/>
-    <col min="10249" max="10249" width="9.42578125" style="30" customWidth="1"/>
+    <col min="9995" max="10240" width="9.125" style="30"/>
+    <col min="10241" max="10241" width="13.125" style="30" customWidth="1"/>
+    <col min="10242" max="10242" width="21.875" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="29.25" style="30" customWidth="1"/>
+    <col min="10244" max="10244" width="34.375" style="30" customWidth="1"/>
+    <col min="10245" max="10245" width="19.25" style="30" customWidth="1"/>
+    <col min="10246" max="10246" width="8.125" style="30" customWidth="1"/>
+    <col min="10247" max="10247" width="9.125" style="30"/>
+    <col min="10248" max="10248" width="20.125" style="30" customWidth="1"/>
+    <col min="10249" max="10249" width="9.375" style="30" customWidth="1"/>
     <col min="10250" max="10250" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10251" max="10496" width="9.140625" style="30"/>
-    <col min="10497" max="10497" width="13.140625" style="30" customWidth="1"/>
-    <col min="10498" max="10498" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10500" max="10500" width="34.42578125" style="30" customWidth="1"/>
-    <col min="10501" max="10501" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10502" max="10502" width="8.140625" style="30" customWidth="1"/>
-    <col min="10503" max="10503" width="9.140625" style="30"/>
-    <col min="10504" max="10504" width="20.140625" style="30" customWidth="1"/>
-    <col min="10505" max="10505" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10251" max="10496" width="9.125" style="30"/>
+    <col min="10497" max="10497" width="13.125" style="30" customWidth="1"/>
+    <col min="10498" max="10498" width="21.875" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="29.25" style="30" customWidth="1"/>
+    <col min="10500" max="10500" width="34.375" style="30" customWidth="1"/>
+    <col min="10501" max="10501" width="19.25" style="30" customWidth="1"/>
+    <col min="10502" max="10502" width="8.125" style="30" customWidth="1"/>
+    <col min="10503" max="10503" width="9.125" style="30"/>
+    <col min="10504" max="10504" width="20.125" style="30" customWidth="1"/>
+    <col min="10505" max="10505" width="9.375" style="30" customWidth="1"/>
     <col min="10506" max="10506" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10507" max="10752" width="9.140625" style="30"/>
-    <col min="10753" max="10753" width="13.140625" style="30" customWidth="1"/>
-    <col min="10754" max="10754" width="21.85546875" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="29.28515625" style="30" customWidth="1"/>
-    <col min="10756" max="10756" width="34.42578125" style="30" customWidth="1"/>
-    <col min="10757" max="10757" width="19.28515625" style="30" customWidth="1"/>
-    <col min="10758" max="10758" width="8.140625" style="30" customWidth="1"/>
-    <col min="10759" max="10759" width="9.140625" style="30"/>
-    <col min="10760" max="10760" width="20.140625" style="30" customWidth="1"/>
-    <col min="10761" max="10761" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10507" max="10752" width="9.125" style="30"/>
+    <col min="10753" max="10753" width="13.125" style="30" customWidth="1"/>
+    <col min="10754" max="10754" width="21.875" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="29.25" style="30" customWidth="1"/>
+    <col min="10756" max="10756" width="34.375" style="30" customWidth="1"/>
+    <col min="10757" max="10757" width="19.25" style="30" customWidth="1"/>
+    <col min="10758" max="10758" width="8.125" style="30" customWidth="1"/>
+    <col min="10759" max="10759" width="9.125" style="30"/>
+    <col min="10760" max="10760" width="20.125" style="30" customWidth="1"/>
+    <col min="10761" max="10761" width="9.375" style="30" customWidth="1"/>
     <col min="10762" max="10762" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="10763" max="11008" width="9.140625" style="30"/>
-    <col min="11009" max="11009" width="13.140625" style="30" customWidth="1"/>
-    <col min="11010" max="11010" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11012" max="11012" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11013" max="11013" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11014" max="11014" width="8.140625" style="30" customWidth="1"/>
-    <col min="11015" max="11015" width="9.140625" style="30"/>
-    <col min="11016" max="11016" width="20.140625" style="30" customWidth="1"/>
-    <col min="11017" max="11017" width="9.42578125" style="30" customWidth="1"/>
+    <col min="10763" max="11008" width="9.125" style="30"/>
+    <col min="11009" max="11009" width="13.125" style="30" customWidth="1"/>
+    <col min="11010" max="11010" width="21.875" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="29.25" style="30" customWidth="1"/>
+    <col min="11012" max="11012" width="34.375" style="30" customWidth="1"/>
+    <col min="11013" max="11013" width="19.25" style="30" customWidth="1"/>
+    <col min="11014" max="11014" width="8.125" style="30" customWidth="1"/>
+    <col min="11015" max="11015" width="9.125" style="30"/>
+    <col min="11016" max="11016" width="20.125" style="30" customWidth="1"/>
+    <col min="11017" max="11017" width="9.375" style="30" customWidth="1"/>
     <col min="11018" max="11018" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11019" max="11264" width="9.140625" style="30"/>
-    <col min="11265" max="11265" width="13.140625" style="30" customWidth="1"/>
-    <col min="11266" max="11266" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11268" max="11268" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11269" max="11269" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11270" max="11270" width="8.140625" style="30" customWidth="1"/>
-    <col min="11271" max="11271" width="9.140625" style="30"/>
-    <col min="11272" max="11272" width="20.140625" style="30" customWidth="1"/>
-    <col min="11273" max="11273" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11019" max="11264" width="9.125" style="30"/>
+    <col min="11265" max="11265" width="13.125" style="30" customWidth="1"/>
+    <col min="11266" max="11266" width="21.875" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="29.25" style="30" customWidth="1"/>
+    <col min="11268" max="11268" width="34.375" style="30" customWidth="1"/>
+    <col min="11269" max="11269" width="19.25" style="30" customWidth="1"/>
+    <col min="11270" max="11270" width="8.125" style="30" customWidth="1"/>
+    <col min="11271" max="11271" width="9.125" style="30"/>
+    <col min="11272" max="11272" width="20.125" style="30" customWidth="1"/>
+    <col min="11273" max="11273" width="9.375" style="30" customWidth="1"/>
     <col min="11274" max="11274" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11275" max="11520" width="9.140625" style="30"/>
-    <col min="11521" max="11521" width="13.140625" style="30" customWidth="1"/>
-    <col min="11522" max="11522" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11524" max="11524" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11525" max="11525" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11526" max="11526" width="8.140625" style="30" customWidth="1"/>
-    <col min="11527" max="11527" width="9.140625" style="30"/>
-    <col min="11528" max="11528" width="20.140625" style="30" customWidth="1"/>
-    <col min="11529" max="11529" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11275" max="11520" width="9.125" style="30"/>
+    <col min="11521" max="11521" width="13.125" style="30" customWidth="1"/>
+    <col min="11522" max="11522" width="21.875" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="29.25" style="30" customWidth="1"/>
+    <col min="11524" max="11524" width="34.375" style="30" customWidth="1"/>
+    <col min="11525" max="11525" width="19.25" style="30" customWidth="1"/>
+    <col min="11526" max="11526" width="8.125" style="30" customWidth="1"/>
+    <col min="11527" max="11527" width="9.125" style="30"/>
+    <col min="11528" max="11528" width="20.125" style="30" customWidth="1"/>
+    <col min="11529" max="11529" width="9.375" style="30" customWidth="1"/>
     <col min="11530" max="11530" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11531" max="11776" width="9.140625" style="30"/>
-    <col min="11777" max="11777" width="13.140625" style="30" customWidth="1"/>
-    <col min="11778" max="11778" width="21.85546875" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="29.28515625" style="30" customWidth="1"/>
-    <col min="11780" max="11780" width="34.42578125" style="30" customWidth="1"/>
-    <col min="11781" max="11781" width="19.28515625" style="30" customWidth="1"/>
-    <col min="11782" max="11782" width="8.140625" style="30" customWidth="1"/>
-    <col min="11783" max="11783" width="9.140625" style="30"/>
-    <col min="11784" max="11784" width="20.140625" style="30" customWidth="1"/>
-    <col min="11785" max="11785" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11531" max="11776" width="9.125" style="30"/>
+    <col min="11777" max="11777" width="13.125" style="30" customWidth="1"/>
+    <col min="11778" max="11778" width="21.875" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="29.25" style="30" customWidth="1"/>
+    <col min="11780" max="11780" width="34.375" style="30" customWidth="1"/>
+    <col min="11781" max="11781" width="19.25" style="30" customWidth="1"/>
+    <col min="11782" max="11782" width="8.125" style="30" customWidth="1"/>
+    <col min="11783" max="11783" width="9.125" style="30"/>
+    <col min="11784" max="11784" width="20.125" style="30" customWidth="1"/>
+    <col min="11785" max="11785" width="9.375" style="30" customWidth="1"/>
     <col min="11786" max="11786" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="11787" max="12032" width="9.140625" style="30"/>
-    <col min="12033" max="12033" width="13.140625" style="30" customWidth="1"/>
-    <col min="12034" max="12034" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12036" max="12036" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12037" max="12037" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12038" max="12038" width="8.140625" style="30" customWidth="1"/>
-    <col min="12039" max="12039" width="9.140625" style="30"/>
-    <col min="12040" max="12040" width="20.140625" style="30" customWidth="1"/>
-    <col min="12041" max="12041" width="9.42578125" style="30" customWidth="1"/>
+    <col min="11787" max="12032" width="9.125" style="30"/>
+    <col min="12033" max="12033" width="13.125" style="30" customWidth="1"/>
+    <col min="12034" max="12034" width="21.875" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="29.25" style="30" customWidth="1"/>
+    <col min="12036" max="12036" width="34.375" style="30" customWidth="1"/>
+    <col min="12037" max="12037" width="19.25" style="30" customWidth="1"/>
+    <col min="12038" max="12038" width="8.125" style="30" customWidth="1"/>
+    <col min="12039" max="12039" width="9.125" style="30"/>
+    <col min="12040" max="12040" width="20.125" style="30" customWidth="1"/>
+    <col min="12041" max="12041" width="9.375" style="30" customWidth="1"/>
     <col min="12042" max="12042" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12043" max="12288" width="9.140625" style="30"/>
-    <col min="12289" max="12289" width="13.140625" style="30" customWidth="1"/>
-    <col min="12290" max="12290" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12292" max="12292" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12293" max="12293" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12294" max="12294" width="8.140625" style="30" customWidth="1"/>
-    <col min="12295" max="12295" width="9.140625" style="30"/>
-    <col min="12296" max="12296" width="20.140625" style="30" customWidth="1"/>
-    <col min="12297" max="12297" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12043" max="12288" width="9.125" style="30"/>
+    <col min="12289" max="12289" width="13.125" style="30" customWidth="1"/>
+    <col min="12290" max="12290" width="21.875" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="29.25" style="30" customWidth="1"/>
+    <col min="12292" max="12292" width="34.375" style="30" customWidth="1"/>
+    <col min="12293" max="12293" width="19.25" style="30" customWidth="1"/>
+    <col min="12294" max="12294" width="8.125" style="30" customWidth="1"/>
+    <col min="12295" max="12295" width="9.125" style="30"/>
+    <col min="12296" max="12296" width="20.125" style="30" customWidth="1"/>
+    <col min="12297" max="12297" width="9.375" style="30" customWidth="1"/>
     <col min="12298" max="12298" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12299" max="12544" width="9.140625" style="30"/>
-    <col min="12545" max="12545" width="13.140625" style="30" customWidth="1"/>
-    <col min="12546" max="12546" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12548" max="12548" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12549" max="12549" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12550" max="12550" width="8.140625" style="30" customWidth="1"/>
-    <col min="12551" max="12551" width="9.140625" style="30"/>
-    <col min="12552" max="12552" width="20.140625" style="30" customWidth="1"/>
-    <col min="12553" max="12553" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12299" max="12544" width="9.125" style="30"/>
+    <col min="12545" max="12545" width="13.125" style="30" customWidth="1"/>
+    <col min="12546" max="12546" width="21.875" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="29.25" style="30" customWidth="1"/>
+    <col min="12548" max="12548" width="34.375" style="30" customWidth="1"/>
+    <col min="12549" max="12549" width="19.25" style="30" customWidth="1"/>
+    <col min="12550" max="12550" width="8.125" style="30" customWidth="1"/>
+    <col min="12551" max="12551" width="9.125" style="30"/>
+    <col min="12552" max="12552" width="20.125" style="30" customWidth="1"/>
+    <col min="12553" max="12553" width="9.375" style="30" customWidth="1"/>
     <col min="12554" max="12554" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12555" max="12800" width="9.140625" style="30"/>
-    <col min="12801" max="12801" width="13.140625" style="30" customWidth="1"/>
-    <col min="12802" max="12802" width="21.85546875" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="29.28515625" style="30" customWidth="1"/>
-    <col min="12804" max="12804" width="34.42578125" style="30" customWidth="1"/>
-    <col min="12805" max="12805" width="19.28515625" style="30" customWidth="1"/>
-    <col min="12806" max="12806" width="8.140625" style="30" customWidth="1"/>
-    <col min="12807" max="12807" width="9.140625" style="30"/>
-    <col min="12808" max="12808" width="20.140625" style="30" customWidth="1"/>
-    <col min="12809" max="12809" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12555" max="12800" width="9.125" style="30"/>
+    <col min="12801" max="12801" width="13.125" style="30" customWidth="1"/>
+    <col min="12802" max="12802" width="21.875" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="29.25" style="30" customWidth="1"/>
+    <col min="12804" max="12804" width="34.375" style="30" customWidth="1"/>
+    <col min="12805" max="12805" width="19.25" style="30" customWidth="1"/>
+    <col min="12806" max="12806" width="8.125" style="30" customWidth="1"/>
+    <col min="12807" max="12807" width="9.125" style="30"/>
+    <col min="12808" max="12808" width="20.125" style="30" customWidth="1"/>
+    <col min="12809" max="12809" width="9.375" style="30" customWidth="1"/>
     <col min="12810" max="12810" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="12811" max="13056" width="9.140625" style="30"/>
-    <col min="13057" max="13057" width="13.140625" style="30" customWidth="1"/>
-    <col min="13058" max="13058" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13060" max="13060" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13061" max="13061" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13062" max="13062" width="8.140625" style="30" customWidth="1"/>
-    <col min="13063" max="13063" width="9.140625" style="30"/>
-    <col min="13064" max="13064" width="20.140625" style="30" customWidth="1"/>
-    <col min="13065" max="13065" width="9.42578125" style="30" customWidth="1"/>
+    <col min="12811" max="13056" width="9.125" style="30"/>
+    <col min="13057" max="13057" width="13.125" style="30" customWidth="1"/>
+    <col min="13058" max="13058" width="21.875" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="29.25" style="30" customWidth="1"/>
+    <col min="13060" max="13060" width="34.375" style="30" customWidth="1"/>
+    <col min="13061" max="13061" width="19.25" style="30" customWidth="1"/>
+    <col min="13062" max="13062" width="8.125" style="30" customWidth="1"/>
+    <col min="13063" max="13063" width="9.125" style="30"/>
+    <col min="13064" max="13064" width="20.125" style="30" customWidth="1"/>
+    <col min="13065" max="13065" width="9.375" style="30" customWidth="1"/>
     <col min="13066" max="13066" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13067" max="13312" width="9.140625" style="30"/>
-    <col min="13313" max="13313" width="13.140625" style="30" customWidth="1"/>
-    <col min="13314" max="13314" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13316" max="13316" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13317" max="13317" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13318" max="13318" width="8.140625" style="30" customWidth="1"/>
-    <col min="13319" max="13319" width="9.140625" style="30"/>
-    <col min="13320" max="13320" width="20.140625" style="30" customWidth="1"/>
-    <col min="13321" max="13321" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13067" max="13312" width="9.125" style="30"/>
+    <col min="13313" max="13313" width="13.125" style="30" customWidth="1"/>
+    <col min="13314" max="13314" width="21.875" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="29.25" style="30" customWidth="1"/>
+    <col min="13316" max="13316" width="34.375" style="30" customWidth="1"/>
+    <col min="13317" max="13317" width="19.25" style="30" customWidth="1"/>
+    <col min="13318" max="13318" width="8.125" style="30" customWidth="1"/>
+    <col min="13319" max="13319" width="9.125" style="30"/>
+    <col min="13320" max="13320" width="20.125" style="30" customWidth="1"/>
+    <col min="13321" max="13321" width="9.375" style="30" customWidth="1"/>
     <col min="13322" max="13322" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13323" max="13568" width="9.140625" style="30"/>
-    <col min="13569" max="13569" width="13.140625" style="30" customWidth="1"/>
-    <col min="13570" max="13570" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13572" max="13572" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13573" max="13573" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13574" max="13574" width="8.140625" style="30" customWidth="1"/>
-    <col min="13575" max="13575" width="9.140625" style="30"/>
-    <col min="13576" max="13576" width="20.140625" style="30" customWidth="1"/>
-    <col min="13577" max="13577" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13323" max="13568" width="9.125" style="30"/>
+    <col min="13569" max="13569" width="13.125" style="30" customWidth="1"/>
+    <col min="13570" max="13570" width="21.875" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="29.25" style="30" customWidth="1"/>
+    <col min="13572" max="13572" width="34.375" style="30" customWidth="1"/>
+    <col min="13573" max="13573" width="19.25" style="30" customWidth="1"/>
+    <col min="13574" max="13574" width="8.125" style="30" customWidth="1"/>
+    <col min="13575" max="13575" width="9.125" style="30"/>
+    <col min="13576" max="13576" width="20.125" style="30" customWidth="1"/>
+    <col min="13577" max="13577" width="9.375" style="30" customWidth="1"/>
     <col min="13578" max="13578" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13579" max="13824" width="9.140625" style="30"/>
-    <col min="13825" max="13825" width="13.140625" style="30" customWidth="1"/>
-    <col min="13826" max="13826" width="21.85546875" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="29.28515625" style="30" customWidth="1"/>
-    <col min="13828" max="13828" width="34.42578125" style="30" customWidth="1"/>
-    <col min="13829" max="13829" width="19.28515625" style="30" customWidth="1"/>
-    <col min="13830" max="13830" width="8.140625" style="30" customWidth="1"/>
-    <col min="13831" max="13831" width="9.140625" style="30"/>
-    <col min="13832" max="13832" width="20.140625" style="30" customWidth="1"/>
-    <col min="13833" max="13833" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13579" max="13824" width="9.125" style="30"/>
+    <col min="13825" max="13825" width="13.125" style="30" customWidth="1"/>
+    <col min="13826" max="13826" width="21.875" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="29.25" style="30" customWidth="1"/>
+    <col min="13828" max="13828" width="34.375" style="30" customWidth="1"/>
+    <col min="13829" max="13829" width="19.25" style="30" customWidth="1"/>
+    <col min="13830" max="13830" width="8.125" style="30" customWidth="1"/>
+    <col min="13831" max="13831" width="9.125" style="30"/>
+    <col min="13832" max="13832" width="20.125" style="30" customWidth="1"/>
+    <col min="13833" max="13833" width="9.375" style="30" customWidth="1"/>
     <col min="13834" max="13834" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="13835" max="14080" width="9.140625" style="30"/>
-    <col min="14081" max="14081" width="13.140625" style="30" customWidth="1"/>
-    <col min="14082" max="14082" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14084" max="14084" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14085" max="14085" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14086" max="14086" width="8.140625" style="30" customWidth="1"/>
-    <col min="14087" max="14087" width="9.140625" style="30"/>
-    <col min="14088" max="14088" width="20.140625" style="30" customWidth="1"/>
-    <col min="14089" max="14089" width="9.42578125" style="30" customWidth="1"/>
+    <col min="13835" max="14080" width="9.125" style="30"/>
+    <col min="14081" max="14081" width="13.125" style="30" customWidth="1"/>
+    <col min="14082" max="14082" width="21.875" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="29.25" style="30" customWidth="1"/>
+    <col min="14084" max="14084" width="34.375" style="30" customWidth="1"/>
+    <col min="14085" max="14085" width="19.25" style="30" customWidth="1"/>
+    <col min="14086" max="14086" width="8.125" style="30" customWidth="1"/>
+    <col min="14087" max="14087" width="9.125" style="30"/>
+    <col min="14088" max="14088" width="20.125" style="30" customWidth="1"/>
+    <col min="14089" max="14089" width="9.375" style="30" customWidth="1"/>
     <col min="14090" max="14090" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14091" max="14336" width="9.140625" style="30"/>
-    <col min="14337" max="14337" width="13.140625" style="30" customWidth="1"/>
-    <col min="14338" max="14338" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14340" max="14340" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14341" max="14341" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14342" max="14342" width="8.140625" style="30" customWidth="1"/>
-    <col min="14343" max="14343" width="9.140625" style="30"/>
-    <col min="14344" max="14344" width="20.140625" style="30" customWidth="1"/>
-    <col min="14345" max="14345" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14091" max="14336" width="9.125" style="30"/>
+    <col min="14337" max="14337" width="13.125" style="30" customWidth="1"/>
+    <col min="14338" max="14338" width="21.875" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="29.25" style="30" customWidth="1"/>
+    <col min="14340" max="14340" width="34.375" style="30" customWidth="1"/>
+    <col min="14341" max="14341" width="19.25" style="30" customWidth="1"/>
+    <col min="14342" max="14342" width="8.125" style="30" customWidth="1"/>
+    <col min="14343" max="14343" width="9.125" style="30"/>
+    <col min="14344" max="14344" width="20.125" style="30" customWidth="1"/>
+    <col min="14345" max="14345" width="9.375" style="30" customWidth="1"/>
     <col min="14346" max="14346" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14347" max="14592" width="9.140625" style="30"/>
-    <col min="14593" max="14593" width="13.140625" style="30" customWidth="1"/>
-    <col min="14594" max="14594" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14596" max="14596" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14597" max="14597" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14598" max="14598" width="8.140625" style="30" customWidth="1"/>
-    <col min="14599" max="14599" width="9.140625" style="30"/>
-    <col min="14600" max="14600" width="20.140625" style="30" customWidth="1"/>
-    <col min="14601" max="14601" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14347" max="14592" width="9.125" style="30"/>
+    <col min="14593" max="14593" width="13.125" style="30" customWidth="1"/>
+    <col min="14594" max="14594" width="21.875" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="29.25" style="30" customWidth="1"/>
+    <col min="14596" max="14596" width="34.375" style="30" customWidth="1"/>
+    <col min="14597" max="14597" width="19.25" style="30" customWidth="1"/>
+    <col min="14598" max="14598" width="8.125" style="30" customWidth="1"/>
+    <col min="14599" max="14599" width="9.125" style="30"/>
+    <col min="14600" max="14600" width="20.125" style="30" customWidth="1"/>
+    <col min="14601" max="14601" width="9.375" style="30" customWidth="1"/>
     <col min="14602" max="14602" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14603" max="14848" width="9.140625" style="30"/>
-    <col min="14849" max="14849" width="13.140625" style="30" customWidth="1"/>
-    <col min="14850" max="14850" width="21.85546875" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="29.28515625" style="30" customWidth="1"/>
-    <col min="14852" max="14852" width="34.42578125" style="30" customWidth="1"/>
-    <col min="14853" max="14853" width="19.28515625" style="30" customWidth="1"/>
-    <col min="14854" max="14854" width="8.140625" style="30" customWidth="1"/>
-    <col min="14855" max="14855" width="9.140625" style="30"/>
-    <col min="14856" max="14856" width="20.140625" style="30" customWidth="1"/>
-    <col min="14857" max="14857" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14603" max="14848" width="9.125" style="30"/>
+    <col min="14849" max="14849" width="13.125" style="30" customWidth="1"/>
+    <col min="14850" max="14850" width="21.875" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="29.25" style="30" customWidth="1"/>
+    <col min="14852" max="14852" width="34.375" style="30" customWidth="1"/>
+    <col min="14853" max="14853" width="19.25" style="30" customWidth="1"/>
+    <col min="14854" max="14854" width="8.125" style="30" customWidth="1"/>
+    <col min="14855" max="14855" width="9.125" style="30"/>
+    <col min="14856" max="14856" width="20.125" style="30" customWidth="1"/>
+    <col min="14857" max="14857" width="9.375" style="30" customWidth="1"/>
     <col min="14858" max="14858" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="14859" max="15104" width="9.140625" style="30"/>
-    <col min="15105" max="15105" width="13.140625" style="30" customWidth="1"/>
-    <col min="15106" max="15106" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15108" max="15108" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15109" max="15109" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15110" max="15110" width="8.140625" style="30" customWidth="1"/>
-    <col min="15111" max="15111" width="9.140625" style="30"/>
-    <col min="15112" max="15112" width="20.140625" style="30" customWidth="1"/>
-    <col min="15113" max="15113" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14859" max="15104" width="9.125" style="30"/>
+    <col min="15105" max="15105" width="13.125" style="30" customWidth="1"/>
+    <col min="15106" max="15106" width="21.875" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="29.25" style="30" customWidth="1"/>
+    <col min="15108" max="15108" width="34.375" style="30" customWidth="1"/>
+    <col min="15109" max="15109" width="19.25" style="30" customWidth="1"/>
+    <col min="15110" max="15110" width="8.125" style="30" customWidth="1"/>
+    <col min="15111" max="15111" width="9.125" style="30"/>
+    <col min="15112" max="15112" width="20.125" style="30" customWidth="1"/>
+    <col min="15113" max="15113" width="9.375" style="30" customWidth="1"/>
     <col min="15114" max="15114" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15115" max="15360" width="9.140625" style="30"/>
-    <col min="15361" max="15361" width="13.140625" style="30" customWidth="1"/>
-    <col min="15362" max="15362" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15364" max="15364" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15365" max="15365" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15366" max="15366" width="8.140625" style="30" customWidth="1"/>
-    <col min="15367" max="15367" width="9.140625" style="30"/>
-    <col min="15368" max="15368" width="20.140625" style="30" customWidth="1"/>
-    <col min="15369" max="15369" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15115" max="15360" width="9.125" style="30"/>
+    <col min="15361" max="15361" width="13.125" style="30" customWidth="1"/>
+    <col min="15362" max="15362" width="21.875" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="29.25" style="30" customWidth="1"/>
+    <col min="15364" max="15364" width="34.375" style="30" customWidth="1"/>
+    <col min="15365" max="15365" width="19.25" style="30" customWidth="1"/>
+    <col min="15366" max="15366" width="8.125" style="30" customWidth="1"/>
+    <col min="15367" max="15367" width="9.125" style="30"/>
+    <col min="15368" max="15368" width="20.125" style="30" customWidth="1"/>
+    <col min="15369" max="15369" width="9.375" style="30" customWidth="1"/>
     <col min="15370" max="15370" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15371" max="15616" width="9.140625" style="30"/>
-    <col min="15617" max="15617" width="13.140625" style="30" customWidth="1"/>
-    <col min="15618" max="15618" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15620" max="15620" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15621" max="15621" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15622" max="15622" width="8.140625" style="30" customWidth="1"/>
-    <col min="15623" max="15623" width="9.140625" style="30"/>
-    <col min="15624" max="15624" width="20.140625" style="30" customWidth="1"/>
-    <col min="15625" max="15625" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15371" max="15616" width="9.125" style="30"/>
+    <col min="15617" max="15617" width="13.125" style="30" customWidth="1"/>
+    <col min="15618" max="15618" width="21.875" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="29.25" style="30" customWidth="1"/>
+    <col min="15620" max="15620" width="34.375" style="30" customWidth="1"/>
+    <col min="15621" max="15621" width="19.25" style="30" customWidth="1"/>
+    <col min="15622" max="15622" width="8.125" style="30" customWidth="1"/>
+    <col min="15623" max="15623" width="9.125" style="30"/>
+    <col min="15624" max="15624" width="20.125" style="30" customWidth="1"/>
+    <col min="15625" max="15625" width="9.375" style="30" customWidth="1"/>
     <col min="15626" max="15626" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15627" max="15872" width="9.140625" style="30"/>
-    <col min="15873" max="15873" width="13.140625" style="30" customWidth="1"/>
-    <col min="15874" max="15874" width="21.85546875" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="29.28515625" style="30" customWidth="1"/>
-    <col min="15876" max="15876" width="34.42578125" style="30" customWidth="1"/>
-    <col min="15877" max="15877" width="19.28515625" style="30" customWidth="1"/>
-    <col min="15878" max="15878" width="8.140625" style="30" customWidth="1"/>
-    <col min="15879" max="15879" width="9.140625" style="30"/>
-    <col min="15880" max="15880" width="20.140625" style="30" customWidth="1"/>
-    <col min="15881" max="15881" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15627" max="15872" width="9.125" style="30"/>
+    <col min="15873" max="15873" width="13.125" style="30" customWidth="1"/>
+    <col min="15874" max="15874" width="21.875" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="29.25" style="30" customWidth="1"/>
+    <col min="15876" max="15876" width="34.375" style="30" customWidth="1"/>
+    <col min="15877" max="15877" width="19.25" style="30" customWidth="1"/>
+    <col min="15878" max="15878" width="8.125" style="30" customWidth="1"/>
+    <col min="15879" max="15879" width="9.125" style="30"/>
+    <col min="15880" max="15880" width="20.125" style="30" customWidth="1"/>
+    <col min="15881" max="15881" width="9.375" style="30" customWidth="1"/>
     <col min="15882" max="15882" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="15883" max="16128" width="9.140625" style="30"/>
-    <col min="16129" max="16129" width="13.140625" style="30" customWidth="1"/>
-    <col min="16130" max="16130" width="21.85546875" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="29.28515625" style="30" customWidth="1"/>
-    <col min="16132" max="16132" width="34.42578125" style="30" customWidth="1"/>
-    <col min="16133" max="16133" width="19.28515625" style="30" customWidth="1"/>
-    <col min="16134" max="16134" width="8.140625" style="30" customWidth="1"/>
-    <col min="16135" max="16135" width="9.140625" style="30"/>
-    <col min="16136" max="16136" width="20.140625" style="30" customWidth="1"/>
-    <col min="16137" max="16137" width="9.42578125" style="30" customWidth="1"/>
+    <col min="15883" max="16128" width="9.125" style="30"/>
+    <col min="16129" max="16129" width="13.125" style="30" customWidth="1"/>
+    <col min="16130" max="16130" width="21.875" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="29.25" style="30" customWidth="1"/>
+    <col min="16132" max="16132" width="34.375" style="30" customWidth="1"/>
+    <col min="16133" max="16133" width="19.25" style="30" customWidth="1"/>
+    <col min="16134" max="16134" width="8.125" style="30" customWidth="1"/>
+    <col min="16135" max="16135" width="9.125" style="30"/>
+    <col min="16136" max="16136" width="20.125" style="30" customWidth="1"/>
+    <col min="16137" max="16137" width="9.375" style="30" customWidth="1"/>
     <col min="16138" max="16138" width="0" style="30" hidden="1" customWidth="1"/>
-    <col min="16139" max="16384" width="9.140625" style="30"/>
+    <col min="16139" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="67" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="62"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -6064,7 +6064,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="68" t="s">
         <v>33</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="70" t="s">
         <v>35</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>38</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="I4" s="66"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="72" t="s">
         <v>34</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="103">
         <f>COUNTIF(F96:F1004,"Pass")</f>
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1">
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
@@ -6175,7 +6175,7 @@
       <c r="H7" s="80"/>
       <c r="I7" s="76"/>
     </row>
-    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="I8" s="83"/>
     </row>
-    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="84"/>
       <c r="B9" s="84" t="s">
         <v>100</v>
@@ -6217,7 +6217,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" s="104" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="104" customFormat="1" ht="37.5" customHeight="1">
       <c r="A10" s="93" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Account Management Module-]</v>
@@ -6239,7 +6239,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="52.5" customHeight="1">
       <c r="A11" s="93" t="str">
         <f t="shared" ref="A11:A74" si="0">IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Account Management Module-1]</v>
@@ -6260,7 +6260,7 @@
       <c r="G11" s="93"/>
       <c r="H11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="38.25">
       <c r="A12" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-2]</v>
@@ -6281,7 +6281,7 @@
       <c r="G12" s="93"/>
       <c r="H12" s="94"/>
     </row>
-    <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="67" customFormat="1" ht="45" customHeight="1">
       <c r="A13" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-3]</v>
@@ -6305,7 +6305,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="38.25">
       <c r="A14" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-4]</v>
@@ -6326,7 +6326,7 @@
       <c r="G14" s="93"/>
       <c r="H14" s="94"/>
     </row>
-    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.25">
       <c r="A15" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-5]</v>
@@ -6347,7 +6347,7 @@
       <c r="G15" s="93"/>
       <c r="H15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="38.25">
       <c r="A16" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-6]</v>
@@ -6368,7 +6368,7 @@
       <c r="G16" s="93"/>
       <c r="H16" s="94"/>
     </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="38.25">
       <c r="A17" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-7]</v>
@@ -6389,7 +6389,7 @@
       <c r="G17" s="93"/>
       <c r="H17" s="94"/>
     </row>
-    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="38.25">
       <c r="A18" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-8]</v>
@@ -6410,7 +6410,7 @@
       <c r="G18" s="93"/>
       <c r="H18" s="94"/>
     </row>
-    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="38.25">
       <c r="A19" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-9]</v>
@@ -6431,7 +6431,7 @@
       <c r="G19" s="93"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="38.25">
       <c r="A20" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-10]</v>
@@ -6452,7 +6452,7 @@
       <c r="G20" s="93"/>
       <c r="H20" s="94"/>
     </row>
-    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="38.25">
       <c r="A21" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-11]</v>
@@ -6473,7 +6473,7 @@
       <c r="G21" s="93"/>
       <c r="H21" s="94"/>
     </row>
-    <row r="22" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="38.25">
       <c r="A22" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-12]</v>
@@ -6494,7 +6494,7 @@
       <c r="G22" s="93"/>
       <c r="H22" s="94"/>
     </row>
-    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="38.25">
       <c r="A23" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-13]</v>
@@ -6515,7 +6515,7 @@
       <c r="G23" s="93"/>
       <c r="H23" s="94"/>
     </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="38.25">
       <c r="A24" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-14]</v>
@@ -6536,7 +6536,7 @@
       <c r="G24" s="93"/>
       <c r="H24" s="94"/>
     </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="51">
       <c r="A25" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-15]</v>
@@ -6557,7 +6557,7 @@
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
     </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="38.25">
       <c r="A26" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-16]</v>
@@ -6578,7 +6578,7 @@
       <c r="G26" s="93"/>
       <c r="H26" s="94"/>
     </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="51">
       <c r="A27" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-17]</v>
@@ -6599,7 +6599,7 @@
       <c r="G27" s="93"/>
       <c r="H27" s="94"/>
     </row>
-    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="38.25">
       <c r="A28" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-18]</v>
@@ -6620,7 +6620,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="94"/>
     </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="38.25">
       <c r="A29" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-19]</v>
@@ -6641,7 +6641,7 @@
       <c r="G29" s="93"/>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="38.25">
       <c r="A30" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-20]</v>
@@ -6655,13 +6655,15 @@
       <c r="D30" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="93"/>
+      <c r="E30" s="93" t="s">
+        <v>339</v>
+      </c>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
       <c r="H30" s="94"/>
       <c r="I30" s="87"/>
     </row>
-    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="38.25">
       <c r="A31" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-21]</v>
@@ -6682,7 +6684,7 @@
       <c r="G31" s="93"/>
       <c r="H31" s="94"/>
     </row>
-    <row r="32" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="114.75">
       <c r="A32" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-22]</v>
@@ -6701,7 +6703,7 @@
       <c r="G32" s="93"/>
       <c r="H32" s="94"/>
     </row>
-    <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="38.25">
       <c r="A33" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-23]</v>
@@ -6723,7 +6725,7 @@
       <c r="H33" s="94"/>
       <c r="I33" s="87"/>
     </row>
-    <row r="34" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="53.25" customHeight="1">
       <c r="A34" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-24]</v>
@@ -6744,7 +6746,7 @@
       <c r="G34" s="93"/>
       <c r="H34" s="94"/>
     </row>
-    <row r="35" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="45.75" customHeight="1">
       <c r="A35" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-25]</v>
@@ -6765,7 +6767,7 @@
       <c r="G35" s="93"/>
       <c r="H35" s="94"/>
     </row>
-    <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="38.25">
       <c r="A36" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-26]</v>
@@ -6786,7 +6788,7 @@
       <c r="G36" s="93"/>
       <c r="H36" s="94"/>
     </row>
-    <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="38.25">
       <c r="A37" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-27]</v>
@@ -6807,7 +6809,7 @@
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
     </row>
-    <row r="38" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="38.25">
       <c r="A38" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-28]</v>
@@ -6828,7 +6830,7 @@
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
     </row>
-    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-29]</v>
@@ -6849,7 +6851,7 @@
       <c r="G39" s="93"/>
       <c r="H39" s="94"/>
     </row>
-    <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="38.25">
       <c r="A40" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-30]</v>
@@ -6870,7 +6872,7 @@
       <c r="G40" s="93"/>
       <c r="H40" s="94"/>
     </row>
-    <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="38.25">
       <c r="A41" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-31]</v>
@@ -6891,7 +6893,7 @@
       <c r="G41" s="93"/>
       <c r="H41" s="94"/>
     </row>
-    <row r="42" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="63.75">
       <c r="A42" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-32]</v>
@@ -6912,7 +6914,7 @@
       <c r="G42" s="93"/>
       <c r="H42" s="94"/>
     </row>
-    <row r="43" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="63.75">
       <c r="A43" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-33]</v>
@@ -6933,7 +6935,7 @@
       <c r="G43" s="93"/>
       <c r="H43" s="94"/>
     </row>
-    <row r="44" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="63.75">
       <c r="A44" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-34]</v>
@@ -6954,7 +6956,7 @@
       <c r="G44" s="93"/>
       <c r="H44" s="94"/>
     </row>
-    <row r="45" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="63.75">
       <c r="A45" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-35]</v>
@@ -6975,7 +6977,7 @@
       <c r="G45" s="93"/>
       <c r="H45" s="94"/>
     </row>
-    <row r="46" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="63.75">
       <c r="A46" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-36]</v>
@@ -6996,7 +6998,7 @@
       <c r="G46" s="93"/>
       <c r="H46" s="94"/>
     </row>
-    <row r="47" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="63.75">
       <c r="A47" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-37]</v>
@@ -7017,7 +7019,7 @@
       <c r="G47" s="93"/>
       <c r="H47" s="94"/>
     </row>
-    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="51">
       <c r="A48" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-38]</v>
@@ -7038,7 +7040,7 @@
       <c r="G48" s="93"/>
       <c r="H48" s="94"/>
     </row>
-    <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="51">
       <c r="A49" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-39]</v>
@@ -7059,7 +7061,7 @@
       <c r="G49" s="93"/>
       <c r="H49" s="94"/>
     </row>
-    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="51">
       <c r="A50" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-40]</v>
@@ -7080,7 +7082,7 @@
       <c r="G50" s="93"/>
       <c r="H50" s="94"/>
     </row>
-    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="51">
       <c r="A51" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-41]</v>
@@ -7101,7 +7103,7 @@
       <c r="G51" s="93"/>
       <c r="H51" s="94"/>
     </row>
-    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="51">
       <c r="A52" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-42]</v>
@@ -7122,7 +7124,7 @@
       <c r="G52" s="93"/>
       <c r="H52" s="94"/>
     </row>
-    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="51">
       <c r="A53" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-43]</v>
@@ -7143,7 +7145,7 @@
       <c r="G53" s="93"/>
       <c r="H53" s="94"/>
     </row>
-    <row r="54" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="51">
       <c r="A54" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-44]</v>
@@ -7164,7 +7166,7 @@
       <c r="G54" s="93"/>
       <c r="H54" s="94"/>
     </row>
-    <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="51">
       <c r="A55" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-45]</v>
@@ -7185,7 +7187,7 @@
       <c r="G55" s="93"/>
       <c r="H55" s="94"/>
     </row>
-    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="51">
       <c r="A56" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-46]</v>
@@ -7206,7 +7208,7 @@
       <c r="G56" s="93"/>
       <c r="H56" s="94"/>
     </row>
-    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="51">
       <c r="A57" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-47]</v>
@@ -7227,7 +7229,7 @@
       <c r="G57" s="93"/>
       <c r="H57" s="94"/>
     </row>
-    <row r="58" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="38.25">
       <c r="A58" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-48]</v>
@@ -7248,7 +7250,7 @@
       <c r="G58" s="93"/>
       <c r="H58" s="94"/>
     </row>
-    <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="51">
       <c r="A59" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-49]</v>
@@ -7269,7 +7271,7 @@
       <c r="G59" s="93"/>
       <c r="H59" s="94"/>
     </row>
-    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="51">
       <c r="A60" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-50]</v>
@@ -7290,7 +7292,7 @@
       <c r="G60" s="93"/>
       <c r="H60" s="94"/>
     </row>
-    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="51">
       <c r="A61" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-51]</v>
@@ -7311,7 +7313,7 @@
       <c r="G61" s="93"/>
       <c r="H61" s="137"/>
     </row>
-    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="38.25">
       <c r="A62" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-52]</v>
@@ -7332,7 +7334,7 @@
       <c r="G62" s="93"/>
       <c r="H62" s="137"/>
     </row>
-    <row r="63" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="57.75" customHeight="1">
       <c r="A63" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-53]</v>
@@ -7353,7 +7355,7 @@
       <c r="G63" s="93"/>
       <c r="H63" s="94"/>
     </row>
-    <row r="64" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="57.75" customHeight="1">
       <c r="A64" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-54]</v>
@@ -7374,7 +7376,7 @@
       <c r="G64" s="93"/>
       <c r="H64" s="94"/>
     </row>
-    <row r="65" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="51">
       <c r="A65" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-55]</v>
@@ -7395,7 +7397,7 @@
       <c r="G65" s="93"/>
       <c r="H65" s="94"/>
     </row>
-    <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="51">
       <c r="A66" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-56]</v>
@@ -7416,7 +7418,7 @@
       <c r="G66" s="93"/>
       <c r="H66" s="94"/>
     </row>
-    <row r="67" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="107.25" customHeight="1">
       <c r="A67" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-57]</v>
@@ -7437,7 +7439,7 @@
       <c r="G67" s="93"/>
       <c r="H67" s="94"/>
     </row>
-    <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="63.75">
       <c r="A68" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-58]</v>
@@ -7458,7 +7460,7 @@
       <c r="G68" s="93"/>
       <c r="H68" s="94"/>
     </row>
-    <row r="69" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="51">
       <c r="A69" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-59]</v>
@@ -7479,7 +7481,7 @@
       <c r="G69" s="93"/>
       <c r="H69" s="94"/>
     </row>
-    <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="51">
       <c r="A70" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-60]</v>
@@ -7500,7 +7502,7 @@
       <c r="G70" s="93"/>
       <c r="H70" s="94"/>
     </row>
-    <row r="71" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="51">
       <c r="A71" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-61]</v>
@@ -7521,7 +7523,7 @@
       <c r="G71" s="93"/>
       <c r="H71" s="94"/>
     </row>
-    <row r="72" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="76.5">
       <c r="A72" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-62]</v>
@@ -7542,7 +7544,7 @@
       <c r="G72" s="93"/>
       <c r="H72" s="94"/>
     </row>
-    <row r="73" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="76.5">
       <c r="A73" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-63]</v>
@@ -7563,7 +7565,7 @@
       <c r="G73" s="93"/>
       <c r="H73" s="94"/>
     </row>
-    <row r="74" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="76.5">
       <c r="A74" s="93" t="str">
         <f t="shared" si="0"/>
         <v>[Account Management Module-64]</v>
@@ -7584,7 +7586,7 @@
       <c r="G74" s="93"/>
       <c r="H74" s="94"/>
     </row>
-    <row r="75" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="76.5">
       <c r="A75" s="93" t="str">
         <f t="shared" ref="A75:A104" si="1">IF(OR(B75&lt;&gt;"",D75&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Account Management Module-65]</v>
@@ -7605,7 +7607,7 @@
       <c r="G75" s="93"/>
       <c r="H75" s="94"/>
     </row>
-    <row r="76" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="76.5">
       <c r="A76" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-66]</v>
@@ -7626,7 +7628,7 @@
       <c r="G76" s="93"/>
       <c r="H76" s="94"/>
     </row>
-    <row r="77" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="76.5">
       <c r="A77" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-67]</v>
@@ -7647,7 +7649,7 @@
       <c r="G77" s="93"/>
       <c r="H77" s="94"/>
     </row>
-    <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="63.75">
       <c r="A78" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-68]</v>
@@ -7668,7 +7670,7 @@
       <c r="G78" s="93"/>
       <c r="H78" s="94"/>
     </row>
-    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="63.75">
       <c r="A79" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-69]</v>
@@ -7689,7 +7691,7 @@
       <c r="G79" s="93"/>
       <c r="H79" s="94"/>
     </row>
-    <row r="80" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="63.75">
       <c r="A80" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-70]</v>
@@ -7710,7 +7712,7 @@
       <c r="G80" s="93"/>
       <c r="H80" s="94"/>
     </row>
-    <row r="81" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="63.75">
       <c r="A81" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-71]</v>
@@ -7731,7 +7733,7 @@
       <c r="G81" s="93"/>
       <c r="H81" s="94"/>
     </row>
-    <row r="82" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="76.5">
       <c r="A82" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-72]</v>
@@ -7752,7 +7754,7 @@
       <c r="G82" s="93"/>
       <c r="H82" s="94"/>
     </row>
-    <row r="83" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="63.75">
       <c r="A83" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-73]</v>
@@ -7773,7 +7775,7 @@
       <c r="G83" s="93"/>
       <c r="H83" s="94"/>
     </row>
-    <row r="84" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="51">
       <c r="A84" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-74]</v>
@@ -7794,7 +7796,7 @@
       <c r="G84" s="93"/>
       <c r="H84" s="94"/>
     </row>
-    <row r="85" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="63.75">
       <c r="A85" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-75]</v>
@@ -7815,7 +7817,7 @@
       <c r="G85" s="93"/>
       <c r="H85" s="94"/>
     </row>
-    <row r="86" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="63.75">
       <c r="A86" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-76]</v>
@@ -7836,7 +7838,7 @@
       <c r="G86" s="93"/>
       <c r="H86" s="94"/>
     </row>
-    <row r="87" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="51">
       <c r="A87" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-77]</v>
@@ -7857,7 +7859,7 @@
       <c r="G87" s="93"/>
       <c r="H87" s="94"/>
     </row>
-    <row r="88" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="63.75">
       <c r="A88" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-78]</v>
@@ -7878,7 +7880,7 @@
       <c r="G88" s="93"/>
       <c r="H88" s="94"/>
     </row>
-    <row r="89" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="63.75">
       <c r="A89" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-79]</v>
@@ -7899,7 +7901,7 @@
       <c r="G89" s="93"/>
       <c r="H89" s="94"/>
     </row>
-    <row r="90" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="63.75">
       <c r="A90" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-80]</v>
@@ -7920,7 +7922,7 @@
       <c r="G90" s="93"/>
       <c r="H90" s="94"/>
     </row>
-    <row r="91" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="51">
       <c r="A91" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-81]</v>
@@ -7941,7 +7943,7 @@
       <c r="G91" s="93"/>
       <c r="H91" s="137"/>
     </row>
-    <row r="92" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="89.25">
       <c r="A92" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-82]</v>
@@ -7960,7 +7962,7 @@
       <c r="G92" s="93"/>
       <c r="H92" s="94"/>
     </row>
-    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="38.25">
       <c r="A93" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-83]</v>
@@ -7981,7 +7983,7 @@
       <c r="G93" s="93"/>
       <c r="H93" s="94"/>
     </row>
-    <row r="94" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="38.25">
       <c r="A94" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-84]</v>
@@ -8002,7 +8004,7 @@
       <c r="G94" s="93"/>
       <c r="H94" s="94"/>
     </row>
-    <row r="95" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="38.25">
       <c r="A95" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-85]</v>
@@ -8024,7 +8026,7 @@
       <c r="H95" s="94"/>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="63.75">
       <c r="A96" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-86]</v>
@@ -8045,7 +8047,7 @@
       <c r="G96" s="93"/>
       <c r="H96" s="94"/>
     </row>
-    <row r="97" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="93.75" customHeight="1">
       <c r="A97" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-87]</v>
@@ -8066,7 +8068,7 @@
       <c r="G97" s="93"/>
       <c r="H97" s="94"/>
     </row>
-    <row r="98" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="59.25" customHeight="1">
       <c r="A98" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-88]</v>
@@ -8087,7 +8089,7 @@
       <c r="G98" s="93"/>
       <c r="H98" s="94"/>
     </row>
-    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="51">
       <c r="A99" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-89]</v>
@@ -8108,7 +8110,7 @@
       <c r="G99" s="93"/>
       <c r="H99" s="94"/>
     </row>
-    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="51">
       <c r="A100" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-90]</v>
@@ -8129,7 +8131,7 @@
       <c r="G100" s="93"/>
       <c r="H100" s="94"/>
     </row>
-    <row r="101" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="38.25">
       <c r="A101" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-91]</v>
@@ -8150,7 +8152,7 @@
       <c r="G101" s="93"/>
       <c r="H101" s="94"/>
     </row>
-    <row r="102" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="38.25">
       <c r="A102" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-92]</v>
@@ -8171,7 +8173,7 @@
       <c r="G102" s="93"/>
       <c r="H102" s="94"/>
     </row>
-    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="51">
       <c r="A103" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-93]</v>
@@ -8192,7 +8194,7 @@
       <c r="G103" s="93"/>
       <c r="H103" s="94"/>
     </row>
-    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="51">
       <c r="A104" s="93" t="str">
         <f t="shared" si="1"/>
         <v>[Account Management Module-94]</v>
@@ -8246,332 +8248,332 @@
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="30" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="30"/>
-    <col min="8" max="9" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10" max="257" width="9.140625" style="30"/>
-    <col min="258" max="258" width="15.42578125" style="30" customWidth="1"/>
-    <col min="259" max="259" width="22.140625" style="30" customWidth="1"/>
-    <col min="260" max="263" width="9.140625" style="30"/>
-    <col min="264" max="265" width="37.85546875" style="30" customWidth="1"/>
-    <col min="266" max="513" width="9.140625" style="30"/>
-    <col min="514" max="514" width="15.42578125" style="30" customWidth="1"/>
-    <col min="515" max="515" width="22.140625" style="30" customWidth="1"/>
-    <col min="516" max="519" width="9.140625" style="30"/>
-    <col min="520" max="521" width="37.85546875" style="30" customWidth="1"/>
-    <col min="522" max="769" width="9.140625" style="30"/>
-    <col min="770" max="770" width="15.42578125" style="30" customWidth="1"/>
-    <col min="771" max="771" width="22.140625" style="30" customWidth="1"/>
-    <col min="772" max="775" width="9.140625" style="30"/>
-    <col min="776" max="777" width="37.85546875" style="30" customWidth="1"/>
-    <col min="778" max="1025" width="9.140625" style="30"/>
-    <col min="1026" max="1026" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1027" max="1027" width="22.140625" style="30" customWidth="1"/>
-    <col min="1028" max="1031" width="9.140625" style="30"/>
-    <col min="1032" max="1033" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1034" max="1281" width="9.140625" style="30"/>
-    <col min="1282" max="1282" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1283" max="1283" width="22.140625" style="30" customWidth="1"/>
-    <col min="1284" max="1287" width="9.140625" style="30"/>
-    <col min="1288" max="1289" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1290" max="1537" width="9.140625" style="30"/>
-    <col min="1538" max="1538" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1539" max="1539" width="22.140625" style="30" customWidth="1"/>
-    <col min="1540" max="1543" width="9.140625" style="30"/>
-    <col min="1544" max="1545" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1546" max="1793" width="9.140625" style="30"/>
-    <col min="1794" max="1794" width="15.42578125" style="30" customWidth="1"/>
-    <col min="1795" max="1795" width="22.140625" style="30" customWidth="1"/>
-    <col min="1796" max="1799" width="9.140625" style="30"/>
-    <col min="1800" max="1801" width="37.85546875" style="30" customWidth="1"/>
-    <col min="1802" max="2049" width="9.140625" style="30"/>
-    <col min="2050" max="2050" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2051" max="2051" width="22.140625" style="30" customWidth="1"/>
-    <col min="2052" max="2055" width="9.140625" style="30"/>
-    <col min="2056" max="2057" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2058" max="2305" width="9.140625" style="30"/>
-    <col min="2306" max="2306" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2307" max="2307" width="22.140625" style="30" customWidth="1"/>
-    <col min="2308" max="2311" width="9.140625" style="30"/>
-    <col min="2312" max="2313" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2314" max="2561" width="9.140625" style="30"/>
-    <col min="2562" max="2562" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2563" max="2563" width="22.140625" style="30" customWidth="1"/>
-    <col min="2564" max="2567" width="9.140625" style="30"/>
-    <col min="2568" max="2569" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2570" max="2817" width="9.140625" style="30"/>
-    <col min="2818" max="2818" width="15.42578125" style="30" customWidth="1"/>
-    <col min="2819" max="2819" width="22.140625" style="30" customWidth="1"/>
-    <col min="2820" max="2823" width="9.140625" style="30"/>
-    <col min="2824" max="2825" width="37.85546875" style="30" customWidth="1"/>
-    <col min="2826" max="3073" width="9.140625" style="30"/>
-    <col min="3074" max="3074" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3075" max="3075" width="22.140625" style="30" customWidth="1"/>
-    <col min="3076" max="3079" width="9.140625" style="30"/>
-    <col min="3080" max="3081" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3082" max="3329" width="9.140625" style="30"/>
-    <col min="3330" max="3330" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3331" max="3331" width="22.140625" style="30" customWidth="1"/>
-    <col min="3332" max="3335" width="9.140625" style="30"/>
-    <col min="3336" max="3337" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3338" max="3585" width="9.140625" style="30"/>
-    <col min="3586" max="3586" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3587" max="3587" width="22.140625" style="30" customWidth="1"/>
-    <col min="3588" max="3591" width="9.140625" style="30"/>
-    <col min="3592" max="3593" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3594" max="3841" width="9.140625" style="30"/>
-    <col min="3842" max="3842" width="15.42578125" style="30" customWidth="1"/>
-    <col min="3843" max="3843" width="22.140625" style="30" customWidth="1"/>
-    <col min="3844" max="3847" width="9.140625" style="30"/>
-    <col min="3848" max="3849" width="37.85546875" style="30" customWidth="1"/>
-    <col min="3850" max="4097" width="9.140625" style="30"/>
-    <col min="4098" max="4098" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4099" max="4099" width="22.140625" style="30" customWidth="1"/>
-    <col min="4100" max="4103" width="9.140625" style="30"/>
-    <col min="4104" max="4105" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4106" max="4353" width="9.140625" style="30"/>
-    <col min="4354" max="4354" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4355" max="4355" width="22.140625" style="30" customWidth="1"/>
-    <col min="4356" max="4359" width="9.140625" style="30"/>
-    <col min="4360" max="4361" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4362" max="4609" width="9.140625" style="30"/>
-    <col min="4610" max="4610" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4611" max="4611" width="22.140625" style="30" customWidth="1"/>
-    <col min="4612" max="4615" width="9.140625" style="30"/>
-    <col min="4616" max="4617" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4618" max="4865" width="9.140625" style="30"/>
-    <col min="4866" max="4866" width="15.42578125" style="30" customWidth="1"/>
-    <col min="4867" max="4867" width="22.140625" style="30" customWidth="1"/>
-    <col min="4868" max="4871" width="9.140625" style="30"/>
-    <col min="4872" max="4873" width="37.85546875" style="30" customWidth="1"/>
-    <col min="4874" max="5121" width="9.140625" style="30"/>
-    <col min="5122" max="5122" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5123" max="5123" width="22.140625" style="30" customWidth="1"/>
-    <col min="5124" max="5127" width="9.140625" style="30"/>
-    <col min="5128" max="5129" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5130" max="5377" width="9.140625" style="30"/>
-    <col min="5378" max="5378" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5379" max="5379" width="22.140625" style="30" customWidth="1"/>
-    <col min="5380" max="5383" width="9.140625" style="30"/>
-    <col min="5384" max="5385" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5386" max="5633" width="9.140625" style="30"/>
-    <col min="5634" max="5634" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5635" max="5635" width="22.140625" style="30" customWidth="1"/>
-    <col min="5636" max="5639" width="9.140625" style="30"/>
-    <col min="5640" max="5641" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5642" max="5889" width="9.140625" style="30"/>
-    <col min="5890" max="5890" width="15.42578125" style="30" customWidth="1"/>
-    <col min="5891" max="5891" width="22.140625" style="30" customWidth="1"/>
-    <col min="5892" max="5895" width="9.140625" style="30"/>
-    <col min="5896" max="5897" width="37.85546875" style="30" customWidth="1"/>
-    <col min="5898" max="6145" width="9.140625" style="30"/>
-    <col min="6146" max="6146" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6147" max="6147" width="22.140625" style="30" customWidth="1"/>
-    <col min="6148" max="6151" width="9.140625" style="30"/>
-    <col min="6152" max="6153" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6154" max="6401" width="9.140625" style="30"/>
-    <col min="6402" max="6402" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6403" max="6403" width="22.140625" style="30" customWidth="1"/>
-    <col min="6404" max="6407" width="9.140625" style="30"/>
-    <col min="6408" max="6409" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6410" max="6657" width="9.140625" style="30"/>
-    <col min="6658" max="6658" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6659" max="6659" width="22.140625" style="30" customWidth="1"/>
-    <col min="6660" max="6663" width="9.140625" style="30"/>
-    <col min="6664" max="6665" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6666" max="6913" width="9.140625" style="30"/>
-    <col min="6914" max="6914" width="15.42578125" style="30" customWidth="1"/>
-    <col min="6915" max="6915" width="22.140625" style="30" customWidth="1"/>
-    <col min="6916" max="6919" width="9.140625" style="30"/>
-    <col min="6920" max="6921" width="37.85546875" style="30" customWidth="1"/>
-    <col min="6922" max="7169" width="9.140625" style="30"/>
-    <col min="7170" max="7170" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7171" max="7171" width="22.140625" style="30" customWidth="1"/>
-    <col min="7172" max="7175" width="9.140625" style="30"/>
-    <col min="7176" max="7177" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7178" max="7425" width="9.140625" style="30"/>
-    <col min="7426" max="7426" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7427" max="7427" width="22.140625" style="30" customWidth="1"/>
-    <col min="7428" max="7431" width="9.140625" style="30"/>
-    <col min="7432" max="7433" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7434" max="7681" width="9.140625" style="30"/>
-    <col min="7682" max="7682" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7683" max="7683" width="22.140625" style="30" customWidth="1"/>
-    <col min="7684" max="7687" width="9.140625" style="30"/>
-    <col min="7688" max="7689" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7690" max="7937" width="9.140625" style="30"/>
-    <col min="7938" max="7938" width="15.42578125" style="30" customWidth="1"/>
-    <col min="7939" max="7939" width="22.140625" style="30" customWidth="1"/>
-    <col min="7940" max="7943" width="9.140625" style="30"/>
-    <col min="7944" max="7945" width="37.85546875" style="30" customWidth="1"/>
-    <col min="7946" max="8193" width="9.140625" style="30"/>
-    <col min="8194" max="8194" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8195" max="8195" width="22.140625" style="30" customWidth="1"/>
-    <col min="8196" max="8199" width="9.140625" style="30"/>
-    <col min="8200" max="8201" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8202" max="8449" width="9.140625" style="30"/>
-    <col min="8450" max="8450" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8451" max="8451" width="22.140625" style="30" customWidth="1"/>
-    <col min="8452" max="8455" width="9.140625" style="30"/>
-    <col min="8456" max="8457" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8458" max="8705" width="9.140625" style="30"/>
-    <col min="8706" max="8706" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8707" max="8707" width="22.140625" style="30" customWidth="1"/>
-    <col min="8708" max="8711" width="9.140625" style="30"/>
-    <col min="8712" max="8713" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8714" max="8961" width="9.140625" style="30"/>
-    <col min="8962" max="8962" width="15.42578125" style="30" customWidth="1"/>
-    <col min="8963" max="8963" width="22.140625" style="30" customWidth="1"/>
-    <col min="8964" max="8967" width="9.140625" style="30"/>
-    <col min="8968" max="8969" width="37.85546875" style="30" customWidth="1"/>
-    <col min="8970" max="9217" width="9.140625" style="30"/>
-    <col min="9218" max="9218" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9219" max="9219" width="22.140625" style="30" customWidth="1"/>
-    <col min="9220" max="9223" width="9.140625" style="30"/>
-    <col min="9224" max="9225" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9226" max="9473" width="9.140625" style="30"/>
-    <col min="9474" max="9474" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9475" max="9475" width="22.140625" style="30" customWidth="1"/>
-    <col min="9476" max="9479" width="9.140625" style="30"/>
-    <col min="9480" max="9481" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9482" max="9729" width="9.140625" style="30"/>
-    <col min="9730" max="9730" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9731" max="9731" width="22.140625" style="30" customWidth="1"/>
-    <col min="9732" max="9735" width="9.140625" style="30"/>
-    <col min="9736" max="9737" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9738" max="9985" width="9.140625" style="30"/>
-    <col min="9986" max="9986" width="15.42578125" style="30" customWidth="1"/>
-    <col min="9987" max="9987" width="22.140625" style="30" customWidth="1"/>
-    <col min="9988" max="9991" width="9.140625" style="30"/>
-    <col min="9992" max="9993" width="37.85546875" style="30" customWidth="1"/>
-    <col min="9994" max="10241" width="9.140625" style="30"/>
-    <col min="10242" max="10242" width="15.42578125" style="30" customWidth="1"/>
-    <col min="10243" max="10243" width="22.140625" style="30" customWidth="1"/>
-    <col min="10244" max="10247" width="9.140625" style="30"/>
-    <col min="10248" max="10249" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10250" max="10497" width="9.140625" style="30"/>
-    <col min="10498" max="10498" width="15.42578125" style="30" customWidth="1"/>
-    <col min="10499" max="10499" width="22.140625" style="30" customWidth="1"/>
-    <col min="10500" max="10503" width="9.140625" style="30"/>
-    <col min="10504" max="10505" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10506" max="10753" width="9.140625" style="30"/>
-    <col min="10754" max="10754" width="15.42578125" style="30" customWidth="1"/>
-    <col min="10755" max="10755" width="22.140625" style="30" customWidth="1"/>
-    <col min="10756" max="10759" width="9.140625" style="30"/>
-    <col min="10760" max="10761" width="37.85546875" style="30" customWidth="1"/>
-    <col min="10762" max="11009" width="9.140625" style="30"/>
-    <col min="11010" max="11010" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11011" max="11011" width="22.140625" style="30" customWidth="1"/>
-    <col min="11012" max="11015" width="9.140625" style="30"/>
-    <col min="11016" max="11017" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11018" max="11265" width="9.140625" style="30"/>
-    <col min="11266" max="11266" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11267" max="11267" width="22.140625" style="30" customWidth="1"/>
-    <col min="11268" max="11271" width="9.140625" style="30"/>
-    <col min="11272" max="11273" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11274" max="11521" width="9.140625" style="30"/>
-    <col min="11522" max="11522" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11523" max="11523" width="22.140625" style="30" customWidth="1"/>
-    <col min="11524" max="11527" width="9.140625" style="30"/>
-    <col min="11528" max="11529" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11530" max="11777" width="9.140625" style="30"/>
-    <col min="11778" max="11778" width="15.42578125" style="30" customWidth="1"/>
-    <col min="11779" max="11779" width="22.140625" style="30" customWidth="1"/>
-    <col min="11780" max="11783" width="9.140625" style="30"/>
-    <col min="11784" max="11785" width="37.85546875" style="30" customWidth="1"/>
-    <col min="11786" max="12033" width="9.140625" style="30"/>
-    <col min="12034" max="12034" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12035" max="12035" width="22.140625" style="30" customWidth="1"/>
-    <col min="12036" max="12039" width="9.140625" style="30"/>
-    <col min="12040" max="12041" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12042" max="12289" width="9.140625" style="30"/>
-    <col min="12290" max="12290" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12291" max="12291" width="22.140625" style="30" customWidth="1"/>
-    <col min="12292" max="12295" width="9.140625" style="30"/>
-    <col min="12296" max="12297" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12298" max="12545" width="9.140625" style="30"/>
-    <col min="12546" max="12546" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12547" max="12547" width="22.140625" style="30" customWidth="1"/>
-    <col min="12548" max="12551" width="9.140625" style="30"/>
-    <col min="12552" max="12553" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12554" max="12801" width="9.140625" style="30"/>
-    <col min="12802" max="12802" width="15.42578125" style="30" customWidth="1"/>
-    <col min="12803" max="12803" width="22.140625" style="30" customWidth="1"/>
-    <col min="12804" max="12807" width="9.140625" style="30"/>
-    <col min="12808" max="12809" width="37.85546875" style="30" customWidth="1"/>
-    <col min="12810" max="13057" width="9.140625" style="30"/>
-    <col min="13058" max="13058" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13059" max="13059" width="22.140625" style="30" customWidth="1"/>
-    <col min="13060" max="13063" width="9.140625" style="30"/>
-    <col min="13064" max="13065" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13066" max="13313" width="9.140625" style="30"/>
-    <col min="13314" max="13314" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13315" max="13315" width="22.140625" style="30" customWidth="1"/>
-    <col min="13316" max="13319" width="9.140625" style="30"/>
-    <col min="13320" max="13321" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13322" max="13569" width="9.140625" style="30"/>
-    <col min="13570" max="13570" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13571" max="13571" width="22.140625" style="30" customWidth="1"/>
-    <col min="13572" max="13575" width="9.140625" style="30"/>
-    <col min="13576" max="13577" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13578" max="13825" width="9.140625" style="30"/>
-    <col min="13826" max="13826" width="15.42578125" style="30" customWidth="1"/>
-    <col min="13827" max="13827" width="22.140625" style="30" customWidth="1"/>
-    <col min="13828" max="13831" width="9.140625" style="30"/>
-    <col min="13832" max="13833" width="37.85546875" style="30" customWidth="1"/>
-    <col min="13834" max="14081" width="9.140625" style="30"/>
-    <col min="14082" max="14082" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14083" max="14083" width="22.140625" style="30" customWidth="1"/>
-    <col min="14084" max="14087" width="9.140625" style="30"/>
-    <col min="14088" max="14089" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14090" max="14337" width="9.140625" style="30"/>
-    <col min="14338" max="14338" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14339" max="14339" width="22.140625" style="30" customWidth="1"/>
-    <col min="14340" max="14343" width="9.140625" style="30"/>
-    <col min="14344" max="14345" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14346" max="14593" width="9.140625" style="30"/>
-    <col min="14594" max="14594" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14595" max="14595" width="22.140625" style="30" customWidth="1"/>
-    <col min="14596" max="14599" width="9.140625" style="30"/>
-    <col min="14600" max="14601" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14602" max="14849" width="9.140625" style="30"/>
-    <col min="14850" max="14850" width="15.42578125" style="30" customWidth="1"/>
-    <col min="14851" max="14851" width="22.140625" style="30" customWidth="1"/>
-    <col min="14852" max="14855" width="9.140625" style="30"/>
-    <col min="14856" max="14857" width="37.85546875" style="30" customWidth="1"/>
-    <col min="14858" max="15105" width="9.140625" style="30"/>
-    <col min="15106" max="15106" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15107" max="15107" width="22.140625" style="30" customWidth="1"/>
-    <col min="15108" max="15111" width="9.140625" style="30"/>
-    <col min="15112" max="15113" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15114" max="15361" width="9.140625" style="30"/>
-    <col min="15362" max="15362" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15363" max="15363" width="22.140625" style="30" customWidth="1"/>
-    <col min="15364" max="15367" width="9.140625" style="30"/>
-    <col min="15368" max="15369" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15370" max="15617" width="9.140625" style="30"/>
-    <col min="15618" max="15618" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15619" max="15619" width="22.140625" style="30" customWidth="1"/>
-    <col min="15620" max="15623" width="9.140625" style="30"/>
-    <col min="15624" max="15625" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15626" max="15873" width="9.140625" style="30"/>
-    <col min="15874" max="15874" width="15.42578125" style="30" customWidth="1"/>
-    <col min="15875" max="15875" width="22.140625" style="30" customWidth="1"/>
-    <col min="15876" max="15879" width="9.140625" style="30"/>
-    <col min="15880" max="15881" width="37.85546875" style="30" customWidth="1"/>
-    <col min="15882" max="16129" width="9.140625" style="30"/>
-    <col min="16130" max="16130" width="15.42578125" style="30" customWidth="1"/>
-    <col min="16131" max="16131" width="22.140625" style="30" customWidth="1"/>
-    <col min="16132" max="16135" width="9.140625" style="30"/>
-    <col min="16136" max="16137" width="37.85546875" style="30" customWidth="1"/>
-    <col min="16138" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.125" style="30"/>
+    <col min="2" max="2" width="15.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="30" customWidth="1"/>
+    <col min="4" max="7" width="9.125" style="30"/>
+    <col min="8" max="9" width="37.875" style="30" customWidth="1"/>
+    <col min="10" max="257" width="9.125" style="30"/>
+    <col min="258" max="258" width="15.375" style="30" customWidth="1"/>
+    <col min="259" max="259" width="22.125" style="30" customWidth="1"/>
+    <col min="260" max="263" width="9.125" style="30"/>
+    <col min="264" max="265" width="37.875" style="30" customWidth="1"/>
+    <col min="266" max="513" width="9.125" style="30"/>
+    <col min="514" max="514" width="15.375" style="30" customWidth="1"/>
+    <col min="515" max="515" width="22.125" style="30" customWidth="1"/>
+    <col min="516" max="519" width="9.125" style="30"/>
+    <col min="520" max="521" width="37.875" style="30" customWidth="1"/>
+    <col min="522" max="769" width="9.125" style="30"/>
+    <col min="770" max="770" width="15.375" style="30" customWidth="1"/>
+    <col min="771" max="771" width="22.125" style="30" customWidth="1"/>
+    <col min="772" max="775" width="9.125" style="30"/>
+    <col min="776" max="777" width="37.875" style="30" customWidth="1"/>
+    <col min="778" max="1025" width="9.125" style="30"/>
+    <col min="1026" max="1026" width="15.375" style="30" customWidth="1"/>
+    <col min="1027" max="1027" width="22.125" style="30" customWidth="1"/>
+    <col min="1028" max="1031" width="9.125" style="30"/>
+    <col min="1032" max="1033" width="37.875" style="30" customWidth="1"/>
+    <col min="1034" max="1281" width="9.125" style="30"/>
+    <col min="1282" max="1282" width="15.375" style="30" customWidth="1"/>
+    <col min="1283" max="1283" width="22.125" style="30" customWidth="1"/>
+    <col min="1284" max="1287" width="9.125" style="30"/>
+    <col min="1288" max="1289" width="37.875" style="30" customWidth="1"/>
+    <col min="1290" max="1537" width="9.125" style="30"/>
+    <col min="1538" max="1538" width="15.375" style="30" customWidth="1"/>
+    <col min="1539" max="1539" width="22.125" style="30" customWidth="1"/>
+    <col min="1540" max="1543" width="9.125" style="30"/>
+    <col min="1544" max="1545" width="37.875" style="30" customWidth="1"/>
+    <col min="1546" max="1793" width="9.125" style="30"/>
+    <col min="1794" max="1794" width="15.375" style="30" customWidth="1"/>
+    <col min="1795" max="1795" width="22.125" style="30" customWidth="1"/>
+    <col min="1796" max="1799" width="9.125" style="30"/>
+    <col min="1800" max="1801" width="37.875" style="30" customWidth="1"/>
+    <col min="1802" max="2049" width="9.125" style="30"/>
+    <col min="2050" max="2050" width="15.375" style="30" customWidth="1"/>
+    <col min="2051" max="2051" width="22.125" style="30" customWidth="1"/>
+    <col min="2052" max="2055" width="9.125" style="30"/>
+    <col min="2056" max="2057" width="37.875" style="30" customWidth="1"/>
+    <col min="2058" max="2305" width="9.125" style="30"/>
+    <col min="2306" max="2306" width="15.375" style="30" customWidth="1"/>
+    <col min="2307" max="2307" width="22.125" style="30" customWidth="1"/>
+    <col min="2308" max="2311" width="9.125" style="30"/>
+    <col min="2312" max="2313" width="37.875" style="30" customWidth="1"/>
+    <col min="2314" max="2561" width="9.125" style="30"/>
+    <col min="2562" max="2562" width="15.375" style="30" customWidth="1"/>
+    <col min="2563" max="2563" width="22.125" style="30" customWidth="1"/>
+    <col min="2564" max="2567" width="9.125" style="30"/>
+    <col min="2568" max="2569" width="37.875" style="30" customWidth="1"/>
+    <col min="2570" max="2817" width="9.125" style="30"/>
+    <col min="2818" max="2818" width="15.375" style="30" customWidth="1"/>
+    <col min="2819" max="2819" width="22.125" style="30" customWidth="1"/>
+    <col min="2820" max="2823" width="9.125" style="30"/>
+    <col min="2824" max="2825" width="37.875" style="30" customWidth="1"/>
+    <col min="2826" max="3073" width="9.125" style="30"/>
+    <col min="3074" max="3074" width="15.375" style="30" customWidth="1"/>
+    <col min="3075" max="3075" width="22.125" style="30" customWidth="1"/>
+    <col min="3076" max="3079" width="9.125" style="30"/>
+    <col min="3080" max="3081" width="37.875" style="30" customWidth="1"/>
+    <col min="3082" max="3329" width="9.125" style="30"/>
+    <col min="3330" max="3330" width="15.375" style="30" customWidth="1"/>
+    <col min="3331" max="3331" width="22.125" style="30" customWidth="1"/>
+    <col min="3332" max="3335" width="9.125" style="30"/>
+    <col min="3336" max="3337" width="37.875" style="30" customWidth="1"/>
+    <col min="3338" max="3585" width="9.125" style="30"/>
+    <col min="3586" max="3586" width="15.375" style="30" customWidth="1"/>
+    <col min="3587" max="3587" width="22.125" style="30" customWidth="1"/>
+    <col min="3588" max="3591" width="9.125" style="30"/>
+    <col min="3592" max="3593" width="37.875" style="30" customWidth="1"/>
+    <col min="3594" max="3841" width="9.125" style="30"/>
+    <col min="3842" max="3842" width="15.375" style="30" customWidth="1"/>
+    <col min="3843" max="3843" width="22.125" style="30" customWidth="1"/>
+    <col min="3844" max="3847" width="9.125" style="30"/>
+    <col min="3848" max="3849" width="37.875" style="30" customWidth="1"/>
+    <col min="3850" max="4097" width="9.125" style="30"/>
+    <col min="4098" max="4098" width="15.375" style="30" customWidth="1"/>
+    <col min="4099" max="4099" width="22.125" style="30" customWidth="1"/>
+    <col min="4100" max="4103" width="9.125" style="30"/>
+    <col min="4104" max="4105" width="37.875" style="30" customWidth="1"/>
+    <col min="4106" max="4353" width="9.125" style="30"/>
+    <col min="4354" max="4354" width="15.375" style="30" customWidth="1"/>
+    <col min="4355" max="4355" width="22.125" style="30" customWidth="1"/>
+    <col min="4356" max="4359" width="9.125" style="30"/>
+    <col min="4360" max="4361" width="37.875" style="30" customWidth="1"/>
+    <col min="4362" max="4609" width="9.125" style="30"/>
+    <col min="4610" max="4610" width="15.375" style="30" customWidth="1"/>
+    <col min="4611" max="4611" width="22.125" style="30" customWidth="1"/>
+    <col min="4612" max="4615" width="9.125" style="30"/>
+    <col min="4616" max="4617" width="37.875" style="30" customWidth="1"/>
+    <col min="4618" max="4865" width="9.125" style="30"/>
+    <col min="4866" max="4866" width="15.375" style="30" customWidth="1"/>
+    <col min="4867" max="4867" width="22.125" style="30" customWidth="1"/>
+    <col min="4868" max="4871" width="9.125" style="30"/>
+    <col min="4872" max="4873" width="37.875" style="30" customWidth="1"/>
+    <col min="4874" max="5121" width="9.125" style="30"/>
+    <col min="5122" max="5122" width="15.375" style="30" customWidth="1"/>
+    <col min="5123" max="5123" width="22.125" style="30" customWidth="1"/>
+    <col min="5124" max="5127" width="9.125" style="30"/>
+    <col min="5128" max="5129" width="37.875" style="30" customWidth="1"/>
+    <col min="5130" max="5377" width="9.125" style="30"/>
+    <col min="5378" max="5378" width="15.375" style="30" customWidth="1"/>
+    <col min="5379" max="5379" width="22.125" style="30" customWidth="1"/>
+    <col min="5380" max="5383" width="9.125" style="30"/>
+    <col min="5384" max="5385" width="37.875" style="30" customWidth="1"/>
+    <col min="5386" max="5633" width="9.125" style="30"/>
+    <col min="5634" max="5634" width="15.375" style="30" customWidth="1"/>
+    <col min="5635" max="5635" width="22.125" style="30" customWidth="1"/>
+    <col min="5636" max="5639" width="9.125" style="30"/>
+    <col min="5640" max="5641" width="37.875" style="30" customWidth="1"/>
+    <col min="5642" max="5889" width="9.125" style="30"/>
+    <col min="5890" max="5890" width="15.375" style="30" customWidth="1"/>
+    <col min="5891" max="5891" width="22.125" style="30" customWidth="1"/>
+    <col min="5892" max="5895" width="9.125" style="30"/>
+    <col min="5896" max="5897" width="37.875" style="30" customWidth="1"/>
+    <col min="5898" max="6145" width="9.125" style="30"/>
+    <col min="6146" max="6146" width="15.375" style="30" customWidth="1"/>
+    <col min="6147" max="6147" width="22.125" style="30" customWidth="1"/>
+    <col min="6148" max="6151" width="9.125" style="30"/>
+    <col min="6152" max="6153" width="37.875" style="30" customWidth="1"/>
+    <col min="6154" max="6401" width="9.125" style="30"/>
+    <col min="6402" max="6402" width="15.375" style="30" customWidth="1"/>
+    <col min="6403" max="6403" width="22.125" style="30" customWidth="1"/>
+    <col min="6404" max="6407" width="9.125" style="30"/>
+    <col min="6408" max="6409" width="37.875" style="30" customWidth="1"/>
+    <col min="6410" max="6657" width="9.125" style="30"/>
+    <col min="6658" max="6658" width="15.375" style="30" customWidth="1"/>
+    <col min="6659" max="6659" width="22.125" style="30" customWidth="1"/>
+    <col min="6660" max="6663" width="9.125" style="30"/>
+    <col min="6664" max="6665" width="37.875" style="30" customWidth="1"/>
+    <col min="6666" max="6913" width="9.125" style="30"/>
+    <col min="6914" max="6914" width="15.375" style="30" customWidth="1"/>
+    <col min="6915" max="6915" width="22.125" style="30" customWidth="1"/>
+    <col min="6916" max="6919" width="9.125" style="30"/>
+    <col min="6920" max="6921" width="37.875" style="30" customWidth="1"/>
+    <col min="6922" max="7169" width="9.125" style="30"/>
+    <col min="7170" max="7170" width="15.375" style="30" customWidth="1"/>
+    <col min="7171" max="7171" width="22.125" style="30" customWidth="1"/>
+    <col min="7172" max="7175" width="9.125" style="30"/>
+    <col min="7176" max="7177" width="37.875" style="30" customWidth="1"/>
+    <col min="7178" max="7425" width="9.125" style="30"/>
+    <col min="7426" max="7426" width="15.375" style="30" customWidth="1"/>
+    <col min="7427" max="7427" width="22.125" style="30" customWidth="1"/>
+    <col min="7428" max="7431" width="9.125" style="30"/>
+    <col min="7432" max="7433" width="37.875" style="30" customWidth="1"/>
+    <col min="7434" max="7681" width="9.125" style="30"/>
+    <col min="7682" max="7682" width="15.375" style="30" customWidth="1"/>
+    <col min="7683" max="7683" width="22.125" style="30" customWidth="1"/>
+    <col min="7684" max="7687" width="9.125" style="30"/>
+    <col min="7688" max="7689" width="37.875" style="30" customWidth="1"/>
+    <col min="7690" max="7937" width="9.125" style="30"/>
+    <col min="7938" max="7938" width="15.375" style="30" customWidth="1"/>
+    <col min="7939" max="7939" width="22.125" style="30" customWidth="1"/>
+    <col min="7940" max="7943" width="9.125" style="30"/>
+    <col min="7944" max="7945" width="37.875" style="30" customWidth="1"/>
+    <col min="7946" max="8193" width="9.125" style="30"/>
+    <col min="8194" max="8194" width="15.375" style="30" customWidth="1"/>
+    <col min="8195" max="8195" width="22.125" style="30" customWidth="1"/>
+    <col min="8196" max="8199" width="9.125" style="30"/>
+    <col min="8200" max="8201" width="37.875" style="30" customWidth="1"/>
+    <col min="8202" max="8449" width="9.125" style="30"/>
+    <col min="8450" max="8450" width="15.375" style="30" customWidth="1"/>
+    <col min="8451" max="8451" width="22.125" style="30" customWidth="1"/>
+    <col min="8452" max="8455" width="9.125" style="30"/>
+    <col min="8456" max="8457" width="37.875" style="30" customWidth="1"/>
+    <col min="8458" max="8705" width="9.125" style="30"/>
+    <col min="8706" max="8706" width="15.375" style="30" customWidth="1"/>
+    <col min="8707" max="8707" width="22.125" style="30" customWidth="1"/>
+    <col min="8708" max="8711" width="9.125" style="30"/>
+    <col min="8712" max="8713" width="37.875" style="30" customWidth="1"/>
+    <col min="8714" max="8961" width="9.125" style="30"/>
+    <col min="8962" max="8962" width="15.375" style="30" customWidth="1"/>
+    <col min="8963" max="8963" width="22.125" style="30" customWidth="1"/>
+    <col min="8964" max="8967" width="9.125" style="30"/>
+    <col min="8968" max="8969" width="37.875" style="30" customWidth="1"/>
+    <col min="8970" max="9217" width="9.125" style="30"/>
+    <col min="9218" max="9218" width="15.375" style="30" customWidth="1"/>
+    <col min="9219" max="9219" width="22.125" style="30" customWidth="1"/>
+    <col min="9220" max="9223" width="9.125" style="30"/>
+    <col min="9224" max="9225" width="37.875" style="30" customWidth="1"/>
+    <col min="9226" max="9473" width="9.125" style="30"/>
+    <col min="9474" max="9474" width="15.375" style="30" customWidth="1"/>
+    <col min="9475" max="9475" width="22.125" style="30" customWidth="1"/>
+    <col min="9476" max="9479" width="9.125" style="30"/>
+    <col min="9480" max="9481" width="37.875" style="30" customWidth="1"/>
+    <col min="9482" max="9729" width="9.125" style="30"/>
+    <col min="9730" max="9730" width="15.375" style="30" customWidth="1"/>
+    <col min="9731" max="9731" width="22.125" style="30" customWidth="1"/>
+    <col min="9732" max="9735" width="9.125" style="30"/>
+    <col min="9736" max="9737" width="37.875" style="30" customWidth="1"/>
+    <col min="9738" max="9985" width="9.125" style="30"/>
+    <col min="9986" max="9986" width="15.375" style="30" customWidth="1"/>
+    <col min="9987" max="9987" width="22.125" style="30" customWidth="1"/>
+    <col min="9988" max="9991" width="9.125" style="30"/>
+    <col min="9992" max="9993" width="37.875" style="30" customWidth="1"/>
+    <col min="9994" max="10241" width="9.125" style="30"/>
+    <col min="10242" max="10242" width="15.375" style="30" customWidth="1"/>
+    <col min="10243" max="10243" width="22.125" style="30" customWidth="1"/>
+    <col min="10244" max="10247" width="9.125" style="30"/>
+    <col min="10248" max="10249" width="37.875" style="30" customWidth="1"/>
+    <col min="10250" max="10497" width="9.125" style="30"/>
+    <col min="10498" max="10498" width="15.375" style="30" customWidth="1"/>
+    <col min="10499" max="10499" width="22.125" style="30" customWidth="1"/>
+    <col min="10500" max="10503" width="9.125" style="30"/>
+    <col min="10504" max="10505" width="37.875" style="30" customWidth="1"/>
+    <col min="10506" max="10753" width="9.125" style="30"/>
+    <col min="10754" max="10754" width="15.375" style="30" customWidth="1"/>
+    <col min="10755" max="10755" width="22.125" style="30" customWidth="1"/>
+    <col min="10756" max="10759" width="9.125" style="30"/>
+    <col min="10760" max="10761" width="37.875" style="30" customWidth="1"/>
+    <col min="10762" max="11009" width="9.125" style="30"/>
+    <col min="11010" max="11010" width="15.375" style="30" customWidth="1"/>
+    <col min="11011" max="11011" width="22.125" style="30" customWidth="1"/>
+    <col min="11012" max="11015" width="9.125" style="30"/>
+    <col min="11016" max="11017" width="37.875" style="30" customWidth="1"/>
+    <col min="11018" max="11265" width="9.125" style="30"/>
+    <col min="11266" max="11266" width="15.375" style="30" customWidth="1"/>
+    <col min="11267" max="11267" width="22.125" style="30" customWidth="1"/>
+    <col min="11268" max="11271" width="9.125" style="30"/>
+    <col min="11272" max="11273" width="37.875" style="30" customWidth="1"/>
+    <col min="11274" max="11521" width="9.125" style="30"/>
+    <col min="11522" max="11522" width="15.375" style="30" customWidth="1"/>
+    <col min="11523" max="11523" width="22.125" style="30" customWidth="1"/>
+    <col min="11524" max="11527" width="9.125" style="30"/>
+    <col min="11528" max="11529" width="37.875" style="30" customWidth="1"/>
+    <col min="11530" max="11777" width="9.125" style="30"/>
+    <col min="11778" max="11778" width="15.375" style="30" customWidth="1"/>
+    <col min="11779" max="11779" width="22.125" style="30" customWidth="1"/>
+    <col min="11780" max="11783" width="9.125" style="30"/>
+    <col min="11784" max="11785" width="37.875" style="30" customWidth="1"/>
+    <col min="11786" max="12033" width="9.125" style="30"/>
+    <col min="12034" max="12034" width="15.375" style="30" customWidth="1"/>
+    <col min="12035" max="12035" width="22.125" style="30" customWidth="1"/>
+    <col min="12036" max="12039" width="9.125" style="30"/>
+    <col min="12040" max="12041" width="37.875" style="30" customWidth="1"/>
+    <col min="12042" max="12289" width="9.125" style="30"/>
+    <col min="12290" max="12290" width="15.375" style="30" customWidth="1"/>
+    <col min="12291" max="12291" width="22.125" style="30" customWidth="1"/>
+    <col min="12292" max="12295" width="9.125" style="30"/>
+    <col min="12296" max="12297" width="37.875" style="30" customWidth="1"/>
+    <col min="12298" max="12545" width="9.125" style="30"/>
+    <col min="12546" max="12546" width="15.375" style="30" customWidth="1"/>
+    <col min="12547" max="12547" width="22.125" style="30" customWidth="1"/>
+    <col min="12548" max="12551" width="9.125" style="30"/>
+    <col min="12552" max="12553" width="37.875" style="30" customWidth="1"/>
+    <col min="12554" max="12801" width="9.125" style="30"/>
+    <col min="12802" max="12802" width="15.375" style="30" customWidth="1"/>
+    <col min="12803" max="12803" width="22.125" style="30" customWidth="1"/>
+    <col min="12804" max="12807" width="9.125" style="30"/>
+    <col min="12808" max="12809" width="37.875" style="30" customWidth="1"/>
+    <col min="12810" max="13057" width="9.125" style="30"/>
+    <col min="13058" max="13058" width="15.375" style="30" customWidth="1"/>
+    <col min="13059" max="13059" width="22.125" style="30" customWidth="1"/>
+    <col min="13060" max="13063" width="9.125" style="30"/>
+    <col min="13064" max="13065" width="37.875" style="30" customWidth="1"/>
+    <col min="13066" max="13313" width="9.125" style="30"/>
+    <col min="13314" max="13314" width="15.375" style="30" customWidth="1"/>
+    <col min="13315" max="13315" width="22.125" style="30" customWidth="1"/>
+    <col min="13316" max="13319" width="9.125" style="30"/>
+    <col min="13320" max="13321" width="37.875" style="30" customWidth="1"/>
+    <col min="13322" max="13569" width="9.125" style="30"/>
+    <col min="13570" max="13570" width="15.375" style="30" customWidth="1"/>
+    <col min="13571" max="13571" width="22.125" style="30" customWidth="1"/>
+    <col min="13572" max="13575" width="9.125" style="30"/>
+    <col min="13576" max="13577" width="37.875" style="30" customWidth="1"/>
+    <col min="13578" max="13825" width="9.125" style="30"/>
+    <col min="13826" max="13826" width="15.375" style="30" customWidth="1"/>
+    <col min="13827" max="13827" width="22.125" style="30" customWidth="1"/>
+    <col min="13828" max="13831" width="9.125" style="30"/>
+    <col min="13832" max="13833" width="37.875" style="30" customWidth="1"/>
+    <col min="13834" max="14081" width="9.125" style="30"/>
+    <col min="14082" max="14082" width="15.375" style="30" customWidth="1"/>
+    <col min="14083" max="14083" width="22.125" style="30" customWidth="1"/>
+    <col min="14084" max="14087" width="9.125" style="30"/>
+    <col min="14088" max="14089" width="37.875" style="30" customWidth="1"/>
+    <col min="14090" max="14337" width="9.125" style="30"/>
+    <col min="14338" max="14338" width="15.375" style="30" customWidth="1"/>
+    <col min="14339" max="14339" width="22.125" style="30" customWidth="1"/>
+    <col min="14340" max="14343" width="9.125" style="30"/>
+    <col min="14344" max="14345" width="37.875" style="30" customWidth="1"/>
+    <col min="14346" max="14593" width="9.125" style="30"/>
+    <col min="14594" max="14594" width="15.375" style="30" customWidth="1"/>
+    <col min="14595" max="14595" width="22.125" style="30" customWidth="1"/>
+    <col min="14596" max="14599" width="9.125" style="30"/>
+    <col min="14600" max="14601" width="37.875" style="30" customWidth="1"/>
+    <col min="14602" max="14849" width="9.125" style="30"/>
+    <col min="14850" max="14850" width="15.375" style="30" customWidth="1"/>
+    <col min="14851" max="14851" width="22.125" style="30" customWidth="1"/>
+    <col min="14852" max="14855" width="9.125" style="30"/>
+    <col min="14856" max="14857" width="37.875" style="30" customWidth="1"/>
+    <col min="14858" max="15105" width="9.125" style="30"/>
+    <col min="15106" max="15106" width="15.375" style="30" customWidth="1"/>
+    <col min="15107" max="15107" width="22.125" style="30" customWidth="1"/>
+    <col min="15108" max="15111" width="9.125" style="30"/>
+    <col min="15112" max="15113" width="37.875" style="30" customWidth="1"/>
+    <col min="15114" max="15361" width="9.125" style="30"/>
+    <col min="15362" max="15362" width="15.375" style="30" customWidth="1"/>
+    <col min="15363" max="15363" width="22.125" style="30" customWidth="1"/>
+    <col min="15364" max="15367" width="9.125" style="30"/>
+    <col min="15368" max="15369" width="37.875" style="30" customWidth="1"/>
+    <col min="15370" max="15617" width="9.125" style="30"/>
+    <col min="15618" max="15618" width="15.375" style="30" customWidth="1"/>
+    <col min="15619" max="15619" width="22.125" style="30" customWidth="1"/>
+    <col min="15620" max="15623" width="9.125" style="30"/>
+    <col min="15624" max="15625" width="37.875" style="30" customWidth="1"/>
+    <col min="15626" max="15873" width="9.125" style="30"/>
+    <col min="15874" max="15874" width="15.375" style="30" customWidth="1"/>
+    <col min="15875" max="15875" width="22.125" style="30" customWidth="1"/>
+    <col min="15876" max="15879" width="9.125" style="30"/>
+    <col min="15880" max="15881" width="37.875" style="30" customWidth="1"/>
+    <col min="15882" max="16129" width="9.125" style="30"/>
+    <col min="16130" max="16130" width="15.375" style="30" customWidth="1"/>
+    <col min="16131" max="16131" width="22.125" style="30" customWidth="1"/>
+    <col min="16132" max="16135" width="9.125" style="30"/>
+    <col min="16136" max="16137" width="37.875" style="30" customWidth="1"/>
+    <col min="16138" max="16384" width="9.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
       <c r="B1" s="151" t="s">
         <v>89</v>
       </c>
@@ -8582,7 +8584,7 @@
       <c r="G1" s="151"/>
       <c r="H1" s="151"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="106"/>
@@ -8592,7 +8594,7 @@
       <c r="G2" s="106"/>
       <c r="H2" s="107"/>
     </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="108" t="s">
         <v>16</v>
       </c>
@@ -8608,7 +8610,7 @@
       <c r="G3" s="109"/>
       <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="108" t="s">
         <v>13</v>
       </c>
@@ -8624,7 +8626,7 @@
       <c r="G4" s="109"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12" customHeight="1">
       <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="105"/>
       <c r="B6" s="111" t="s">
         <v>91</v>
@@ -8656,7 +8658,7 @@
       <c r="G6" s="150"/>
       <c r="H6" s="150"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="105"/>
       <c r="B7" s="113"/>
       <c r="C7" s="114"/>
@@ -8666,7 +8668,7 @@
       <c r="G7" s="106"/>
       <c r="H7" s="107"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="113"/>
       <c r="C8" s="114"/>
       <c r="D8" s="106"/>
@@ -8675,7 +8677,7 @@
       <c r="G8" s="106"/>
       <c r="H8" s="107"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="115"/>
       <c r="B9" s="115"/>
       <c r="C9" s="115"/>
@@ -8685,7 +8687,7 @@
       <c r="G9" s="115"/>
       <c r="H9" s="115"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="116"/>
       <c r="B10" s="117" t="s">
         <v>21</v>
@@ -8709,7 +8711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="122"/>
       <c r="B11" s="123">
         <v>1</v>
@@ -8739,7 +8741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="122"/>
       <c r="B12" s="123">
         <v>2</v>
@@ -8769,7 +8771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="122"/>
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
@@ -8779,7 +8781,7 @@
       <c r="G13" s="126"/>
       <c r="H13" s="127"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="122"/>
       <c r="B14" s="128"/>
       <c r="C14" s="129" t="s">
@@ -8806,7 +8808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="115"/>
       <c r="B15" s="132"/>
       <c r="C15" s="115"/>
@@ -8816,7 +8818,7 @@
       <c r="G15" s="134"/>
       <c r="H15" s="134"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="115"/>
       <c r="B16" s="115"/>
       <c r="C16" s="135" t="s">
@@ -8833,7 +8835,7 @@
       <c r="G16" s="115"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="115"/>
       <c r="B17" s="115"/>
       <c r="C17" s="135" t="s">
@@ -8850,7 +8852,7 @@
       <c r="G17" s="115"/>
       <c r="H17" s="80"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
     </row>
